--- a/docs/開發文件.xlsx
+++ b/docs/開發文件.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\YDWE1.25.10\Creation\Mod\The_Tilted_Clock_Tower\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F391045C-210B-4C33-BE7D-5DAC21E4C891}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751DC37A-8D25-47B3-A831-6200933904FF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12765" activeTab="1" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="重構紀錄" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="262">
   <si>
     <r>
       <rPr>
@@ -1282,6 +1281,14 @@
   </si>
   <si>
     <t>region</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1389,7 +1396,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1517,22 +1524,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1566,6 +1564,12 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1590,13 +1594,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1608,19 +1612,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1640,9 +1638,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2010,10 +2005,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="18.75">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>67</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2037,8 +2032,8 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="16"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2048,8 +2043,8 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="16"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="13" t="s">
         <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2063,8 +2058,8 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="16"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2078,8 +2073,8 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="16"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
@@ -2093,8 +2088,8 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="16"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="15"/>
       <c r="D7" s="5"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -2103,8 +2098,8 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="16"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="13" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -2120,8 +2115,8 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="16"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
@@ -2133,8 +2128,8 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="16"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
@@ -2146,8 +2141,8 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="16"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
@@ -2159,8 +2154,8 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="16"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="15"/>
       <c r="D12" s="5"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2169,8 +2164,8 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="16"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="13" t="s">
         <v>70</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2184,8 +2179,8 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="16"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
@@ -2197,8 +2192,8 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="16"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
@@ -2210,8 +2205,8 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="16"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="15"/>
       <c r="D16" s="5"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2220,8 +2215,8 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="16"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="13" t="s">
         <v>71</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -2237,8 +2232,8 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="16"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="2" t="s">
         <v>27</v>
       </c>
@@ -2252,8 +2247,8 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="16"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="2" t="s">
         <v>28</v>
       </c>
@@ -2267,8 +2262,8 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="16"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="2" t="s">
         <v>29</v>
       </c>
@@ -2282,8 +2277,8 @@
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="16"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="2" t="s">
         <v>30</v>
       </c>
@@ -2297,8 +2292,8 @@
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="16"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="2" t="s">
         <v>31</v>
       </c>
@@ -2312,8 +2307,8 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="16"/>
-      <c r="B23" s="12"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="2" t="s">
         <v>32</v>
       </c>
@@ -2327,8 +2322,8 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="16"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="2" t="s">
         <v>33</v>
       </c>
@@ -2342,8 +2337,8 @@
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="16"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="2" t="s">
         <v>34</v>
       </c>
@@ -2357,8 +2352,8 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="16"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="2" t="s">
         <v>35</v>
       </c>
@@ -2372,8 +2367,8 @@
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="16"/>
-      <c r="B27" s="12"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="2" t="s">
         <v>81</v>
       </c>
@@ -2387,8 +2382,8 @@
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="17"/>
-      <c r="B28" s="13"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="2"/>
       <c r="D28" s="5"/>
       <c r="E28" s="3"/>
@@ -2398,10 +2393,10 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -2415,8 +2410,8 @@
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="18"/>
-      <c r="B30" s="12"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="2" t="s">
         <v>37</v>
       </c>
@@ -2428,8 +2423,8 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="18"/>
-      <c r="B31" s="12"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="2" t="s">
         <v>38</v>
       </c>
@@ -2441,8 +2436,8 @@
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="18"/>
-      <c r="B32" s="12"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="2" t="s">
         <v>39</v>
       </c>
@@ -2454,8 +2449,8 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="18"/>
-      <c r="B33" s="13"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="15"/>
       <c r="D33" s="5"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -2464,8 +2459,8 @@
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="18"/>
-      <c r="B34" s="11" t="s">
+      <c r="A34" s="20"/>
+      <c r="B34" s="13" t="s">
         <v>73</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -2481,8 +2476,8 @@
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="18"/>
-      <c r="B35" s="12"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="8" t="s">
         <v>41</v>
       </c>
@@ -2496,8 +2491,8 @@
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="18"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="2" t="s">
         <v>43</v>
       </c>
@@ -2509,8 +2504,8 @@
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="18"/>
-      <c r="B37" s="12"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="2" t="s">
         <v>42</v>
       </c>
@@ -2522,8 +2517,8 @@
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="18"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="2" t="s">
         <v>44</v>
       </c>
@@ -2535,8 +2530,8 @@
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="18"/>
-      <c r="B39" s="12"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="2" t="s">
         <v>45</v>
       </c>
@@ -2548,8 +2543,8 @@
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="18"/>
-      <c r="B40" s="12"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="2" t="s">
         <v>46</v>
       </c>
@@ -2561,8 +2556,8 @@
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="18"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="2" t="s">
         <v>47</v>
       </c>
@@ -2574,8 +2569,8 @@
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="18"/>
-      <c r="B42" s="12"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="2" t="s">
         <v>48</v>
       </c>
@@ -2587,8 +2582,8 @@
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="18"/>
-      <c r="B43" s="12"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="2" t="s">
         <v>49</v>
       </c>
@@ -2600,8 +2595,8 @@
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="18"/>
-      <c r="B44" s="12"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="2" t="s">
         <v>50</v>
       </c>
@@ -2613,8 +2608,8 @@
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="18"/>
-      <c r="B45" s="12"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="14"/>
       <c r="C45" s="2" t="s">
         <v>51</v>
       </c>
@@ -2626,8 +2621,8 @@
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="18"/>
-      <c r="B46" s="12"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="14"/>
       <c r="C46" s="2" t="s">
         <v>52</v>
       </c>
@@ -2639,8 +2634,8 @@
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="18"/>
-      <c r="B47" s="12"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="14"/>
       <c r="C47" s="2" t="s">
         <v>53</v>
       </c>
@@ -2652,8 +2647,8 @@
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="18"/>
-      <c r="B48" s="12"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="14"/>
       <c r="C48" s="2" t="s">
         <v>54</v>
       </c>
@@ -2665,8 +2660,8 @@
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="18"/>
-      <c r="B49" s="12"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="14"/>
       <c r="C49" s="2" t="s">
         <v>55</v>
       </c>
@@ -2678,8 +2673,8 @@
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="18"/>
-      <c r="B50" s="12"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="14"/>
       <c r="C50" s="2" t="s">
         <v>56</v>
       </c>
@@ -2691,8 +2686,8 @@
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="18"/>
-      <c r="B51" s="12"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="14"/>
       <c r="C51" s="2" t="s">
         <v>57</v>
       </c>
@@ -2704,8 +2699,8 @@
       <c r="I51" s="2"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="18"/>
-      <c r="B52" s="12"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="14"/>
       <c r="C52" s="2" t="s">
         <v>58</v>
       </c>
@@ -2717,8 +2712,8 @@
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="18"/>
-      <c r="B53" s="12"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="14"/>
       <c r="C53" s="2" t="s">
         <v>59</v>
       </c>
@@ -2730,8 +2725,8 @@
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="18"/>
-      <c r="B54" s="12"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="14"/>
       <c r="C54" s="2" t="s">
         <v>60</v>
       </c>
@@ -2743,8 +2738,8 @@
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="18"/>
-      <c r="B55" s="12"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="14"/>
       <c r="C55" s="2" t="s">
         <v>61</v>
       </c>
@@ -2756,8 +2751,8 @@
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="18"/>
-      <c r="B56" s="12"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="14"/>
       <c r="C56" s="2" t="s">
         <v>62</v>
       </c>
@@ -2769,8 +2764,8 @@
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="18"/>
-      <c r="B57" s="12"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="14"/>
       <c r="C57" s="2" t="s">
         <v>63</v>
       </c>
@@ -2782,8 +2777,8 @@
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="18"/>
-      <c r="B58" s="13"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="15"/>
       <c r="D58" s="5"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -2792,10 +2787,10 @@
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="16" t="s">
         <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -2809,8 +2804,8 @@
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="16"/>
-      <c r="B60" s="14"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="16"/>
       <c r="C60" s="2"/>
       <c r="D60" s="5"/>
       <c r="E60" s="3"/>
@@ -2820,8 +2815,8 @@
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="16"/>
-      <c r="B61" s="11" t="s">
+      <c r="A61" s="18"/>
+      <c r="B61" s="13" t="s">
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -2835,8 +2830,8 @@
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="16"/>
-      <c r="B62" s="12"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="14"/>
       <c r="C62" s="2" t="s">
         <v>21</v>
       </c>
@@ -2848,8 +2843,8 @@
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="16"/>
-      <c r="B63" s="12"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="14"/>
       <c r="C63" s="2" t="s">
         <v>22</v>
       </c>
@@ -2861,8 +2856,8 @@
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="16"/>
-      <c r="B64" s="12"/>
+      <c r="A64" s="18"/>
+      <c r="B64" s="14"/>
       <c r="C64" s="2" t="s">
         <v>23</v>
       </c>
@@ -2874,8 +2869,8 @@
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="16"/>
-      <c r="B65" s="13"/>
+      <c r="A65" s="18"/>
+      <c r="B65" s="15"/>
       <c r="D65" s="5"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -2884,8 +2879,8 @@
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="16"/>
-      <c r="B66" s="11" t="s">
+      <c r="A66" s="18"/>
+      <c r="B66" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -2899,8 +2894,8 @@
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="16"/>
-      <c r="B67" s="12"/>
+      <c r="A67" s="18"/>
+      <c r="B67" s="14"/>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
@@ -2912,8 +2907,8 @@
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="17"/>
-      <c r="B68" s="13"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="15"/>
       <c r="C68" s="2"/>
       <c r="D68" s="5"/>
       <c r="E68" s="3"/>
@@ -2963,8 +2958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29018229-9EAF-4726-88C6-5A87070EDF6C}">
   <dimension ref="A1:G227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="G121" sqref="G121"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="K175" sqref="K175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2978,102 +2973,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>83</v>
       </c>
       <c r="C1" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="36">
+      <c r="F1" s="12">
         <v>43451</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="26"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="25"/>
       <c r="C2" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="26"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="25"/>
       <c r="C3" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="26"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="25"/>
       <c r="C4" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="26"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="25"/>
       <c r="C5" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="26"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="25"/>
       <c r="C6" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="26"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="25"/>
       <c r="C7" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="26"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="25"/>
       <c r="C8" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="24"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="26"/>
       <c r="C9" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="26"/>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="24" t="s">
         <v>93</v>
       </c>
       <c r="C10" s="30" t="s">
@@ -3085,61 +3080,61 @@
       <c r="E10" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="26"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="32"/>
       <c r="D11" s="34"/>
       <c r="E11" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="26"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="32"/>
       <c r="D12" s="34"/>
       <c r="E12" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="26"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="32"/>
       <c r="D13" s="34"/>
       <c r="E13" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A14" s="26"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="32"/>
       <c r="D14" s="35"/>
       <c r="E14" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="26"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="32"/>
       <c r="D15" s="33" t="s">
         <v>101</v>
@@ -3147,177 +3142,177 @@
       <c r="E15" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="26"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="32"/>
       <c r="D16" s="34"/>
       <c r="E16" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="26"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="32"/>
       <c r="D17" s="34"/>
       <c r="E17" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="26"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="32"/>
       <c r="D18" s="34"/>
       <c r="E18" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="26"/>
-      <c r="B19" s="23"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="32"/>
       <c r="D19" s="34"/>
       <c r="E19" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="26"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="32"/>
       <c r="D20" s="34"/>
       <c r="E20" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A21" s="26"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="31"/>
       <c r="D21" s="35"/>
       <c r="E21" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="26"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="25"/>
       <c r="C22" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A23" s="26"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="26"/>
       <c r="C23" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="26"/>
-      <c r="B24" s="19" t="s">
+      <c r="A24" s="22"/>
+      <c r="B24" s="27" t="s">
         <v>110</v>
       </c>
       <c r="C24" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="26"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="28"/>
       <c r="C25" t="s">
         <v>111</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="26"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="28"/>
       <c r="C26" t="s">
         <v>112</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="26"/>
-      <c r="B27" s="20"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="28"/>
       <c r="C27" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="26"/>
-      <c r="B28" s="20"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="28"/>
       <c r="C28" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="26"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="28"/>
       <c r="C29" t="s">
         <v>115</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A30" s="26"/>
-      <c r="B30" s="21"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="29"/>
       <c r="C30" t="s">
         <v>116</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="26"/>
-      <c r="B31" s="19" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="27" t="s">
         <v>117</v>
       </c>
       <c r="C31" s="30" t="s">
@@ -3326,196 +3321,205 @@
       <c r="D31" t="s">
         <v>119</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A32" s="26"/>
-      <c r="B32" s="20"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="31"/>
       <c r="D32" t="s">
         <v>120</v>
       </c>
-      <c r="F32" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="26"/>
-      <c r="B33" s="20"/>
+      <c r="F32" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="22"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="30" t="s">
         <v>121</v>
       </c>
       <c r="D33" t="s">
         <v>122</v>
       </c>
-      <c r="F33" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A34" s="26"/>
-      <c r="B34" s="20"/>
+      <c r="F33" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A34" s="22"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="31"/>
       <c r="D34" t="s">
         <v>123</v>
       </c>
-      <c r="F34" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="26"/>
-      <c r="B35" s="20"/>
+      <c r="F34" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="22"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="30" t="s">
         <v>124</v>
       </c>
       <c r="D35" t="s">
         <v>122</v>
       </c>
-      <c r="F35" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A36" s="26"/>
-      <c r="B36" s="21"/>
+      <c r="F35" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A36" s="22"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="31"/>
       <c r="D36" t="s">
         <v>123</v>
       </c>
-      <c r="F36" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="26"/>
+      <c r="F36" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="22"/>
       <c r="B37" t="s">
         <v>125</v>
       </c>
-      <c r="F37" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="26"/>
+      <c r="F37" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="22"/>
       <c r="B38" t="s">
         <v>126</v>
       </c>
-      <c r="F38" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="26"/>
+      <c r="F38" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="22"/>
       <c r="B39" t="s">
         <v>127</v>
       </c>
-      <c r="F39" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="26"/>
+      <c r="F39" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="22"/>
       <c r="B40" t="s">
         <v>128</v>
       </c>
-      <c r="F40" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="26"/>
+      <c r="F40" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="22"/>
       <c r="B41" t="s">
         <v>129</v>
       </c>
-      <c r="F41" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="26"/>
+      <c r="F41" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="22"/>
       <c r="B42" t="s">
         <v>130</v>
       </c>
-      <c r="F42" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="26"/>
+      <c r="F42" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="22"/>
       <c r="B43" t="s">
         <v>131</v>
       </c>
-      <c r="F43" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="26"/>
+      <c r="F43" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="22"/>
       <c r="B44" t="s">
         <v>132</v>
       </c>
-      <c r="F44" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="26"/>
+      <c r="F44" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="22"/>
       <c r="B45" t="s">
         <v>133</v>
       </c>
-      <c r="F45" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A46" s="27"/>
+      <c r="F45" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A46" s="23"/>
       <c r="B46" t="s">
         <v>134</v>
       </c>
-      <c r="F46" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="25" t="s">
+      <c r="F46" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="27" t="s">
         <v>136</v>
       </c>
       <c r="C47" t="s">
         <v>137</v>
       </c>
-      <c r="F47" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="26"/>
-      <c r="B48" s="20"/>
+      <c r="F47" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G47" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="22"/>
+      <c r="B48" s="28"/>
       <c r="C48" t="s">
         <v>138</v>
       </c>
-      <c r="F48" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A49" s="26"/>
-      <c r="B49" s="21"/>
+      <c r="F48" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G48" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A49" s="22"/>
+      <c r="B49" s="29"/>
       <c r="C49" t="s">
         <v>139</v>
       </c>
-      <c r="F49" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="26"/>
-      <c r="B50" s="19" t="s">
+      <c r="F49" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G49" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="22"/>
+      <c r="B50" s="27" t="s">
         <v>140</v>
       </c>
       <c r="C50" s="30" t="s">
@@ -3524,148 +3528,190 @@
       <c r="D50" t="s">
         <v>84</v>
       </c>
-      <c r="F50" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A51" s="26"/>
-      <c r="B51" s="20"/>
+      <c r="F50" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G50" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A51" s="22"/>
+      <c r="B51" s="28"/>
       <c r="C51" s="31"/>
       <c r="D51" t="s">
         <v>142</v>
       </c>
-      <c r="F51" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="26"/>
-      <c r="B52" s="20"/>
+      <c r="F51" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G51" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="22"/>
+      <c r="B52" s="28"/>
       <c r="C52" t="s">
         <v>138</v>
       </c>
-      <c r="F52" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="26"/>
-      <c r="B53" s="20"/>
+      <c r="F52" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G52" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="22"/>
+      <c r="B53" s="28"/>
       <c r="C53" t="s">
         <v>84</v>
       </c>
-      <c r="F53" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="26"/>
-      <c r="B54" s="20"/>
+      <c r="F53" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G53" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="22"/>
+      <c r="B54" s="28"/>
       <c r="C54" t="s">
         <v>143</v>
       </c>
-      <c r="F54" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A55" s="26"/>
-      <c r="B55" s="21"/>
+      <c r="F54" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G54" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A55" s="22"/>
+      <c r="B55" s="29"/>
       <c r="C55" t="s">
         <v>144</v>
       </c>
-      <c r="F55" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="26"/>
-      <c r="B56" s="19" t="s">
+      <c r="F55" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G55" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="22"/>
+      <c r="B56" s="27" t="s">
         <v>145</v>
       </c>
       <c r="C56" t="s">
         <v>146</v>
       </c>
-      <c r="F56" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="26"/>
-      <c r="B57" s="20"/>
+      <c r="F56" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G56" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="22"/>
+      <c r="B57" s="28"/>
       <c r="C57" t="s">
         <v>147</v>
       </c>
-      <c r="F57" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="26"/>
-      <c r="B58" s="20"/>
+      <c r="F57" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G57" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="22"/>
+      <c r="B58" s="28"/>
       <c r="C58" t="s">
         <v>148</v>
       </c>
-      <c r="F58" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="26"/>
-      <c r="B59" s="20"/>
+      <c r="F58" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G58" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="22"/>
+      <c r="B59" s="28"/>
       <c r="C59" t="s">
         <v>149</v>
       </c>
-      <c r="F59" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="26"/>
-      <c r="B60" s="20"/>
+      <c r="F59" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G59" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="22"/>
+      <c r="B60" s="28"/>
       <c r="C60" t="s">
         <v>150</v>
       </c>
-      <c r="F60" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A61" s="26"/>
-      <c r="B61" s="21"/>
+      <c r="F60" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G60" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A61" s="22"/>
+      <c r="B61" s="29"/>
       <c r="C61" t="s">
         <v>151</v>
       </c>
-      <c r="F61" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="26"/>
-      <c r="B62" s="19" t="s">
+      <c r="F61" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G61" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="22"/>
+      <c r="B62" s="27" t="s">
         <v>152</v>
       </c>
       <c r="C62" t="s">
         <v>153</v>
       </c>
-      <c r="F62" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A63" s="26"/>
-      <c r="B63" s="21"/>
+      <c r="F62" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G62" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A63" s="22"/>
+      <c r="B63" s="29"/>
       <c r="C63" t="s">
         <v>138</v>
       </c>
-      <c r="F63" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="26"/>
-      <c r="B64" s="19" t="s">
+      <c r="F63" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G63" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="22"/>
+      <c r="B64" s="27" t="s">
         <v>154</v>
       </c>
       <c r="C64" s="30" t="s">
@@ -3674,334 +3720,346 @@
       <c r="D64" t="s">
         <v>138</v>
       </c>
-      <c r="F64" s="28" t="s">
+      <c r="F64" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A65" s="26"/>
-      <c r="B65" s="20"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="28"/>
       <c r="C65" s="31"/>
       <c r="D65" t="s">
         <v>156</v>
       </c>
-      <c r="F65" s="28" t="s">
+      <c r="F65" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="26"/>
-      <c r="B66" s="20"/>
+      <c r="A66" s="22"/>
+      <c r="B66" s="28"/>
       <c r="C66" t="s">
         <v>157</v>
       </c>
-      <c r="F66" s="28" t="s">
+      <c r="F66" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="26"/>
-      <c r="B67" s="20"/>
+      <c r="A67" s="22"/>
+      <c r="B67" s="28"/>
       <c r="C67" t="s">
         <v>158</v>
       </c>
-      <c r="F67" s="28" t="s">
+      <c r="F67" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="26"/>
-      <c r="B68" s="20"/>
+      <c r="A68" s="22"/>
+      <c r="B68" s="28"/>
       <c r="C68" t="s">
         <v>159</v>
       </c>
-      <c r="F68" s="28" t="s">
+      <c r="F68" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="26"/>
-      <c r="B69" s="20"/>
+      <c r="A69" s="22"/>
+      <c r="B69" s="28"/>
       <c r="C69" t="s">
         <v>138</v>
       </c>
-      <c r="F69" s="28" t="s">
+      <c r="F69" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="26"/>
-      <c r="B70" s="20"/>
+      <c r="A70" s="22"/>
+      <c r="B70" s="28"/>
       <c r="C70" t="s">
         <v>160</v>
       </c>
-      <c r="F70" s="28" t="s">
+      <c r="F70" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="26"/>
-      <c r="B71" s="20"/>
+      <c r="A71" s="22"/>
+      <c r="B71" s="28"/>
       <c r="C71" t="s">
         <v>161</v>
       </c>
-      <c r="F71" s="28" t="s">
+      <c r="F71" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="26"/>
-      <c r="B72" s="20"/>
+      <c r="A72" s="22"/>
+      <c r="B72" s="28"/>
       <c r="C72" t="s">
         <v>162</v>
       </c>
-      <c r="F72" s="28" t="s">
+      <c r="F72" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="26"/>
-      <c r="B73" s="20"/>
+      <c r="A73" s="22"/>
+      <c r="B73" s="28"/>
       <c r="C73" t="s">
         <v>84</v>
       </c>
-      <c r="F73" s="28" t="s">
+      <c r="F73" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="26"/>
-      <c r="B74" s="20"/>
+      <c r="A74" s="22"/>
+      <c r="B74" s="28"/>
       <c r="C74" t="s">
         <v>163</v>
       </c>
-      <c r="F74" s="28" t="s">
+      <c r="F74" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="26"/>
-      <c r="B75" s="20"/>
+      <c r="A75" s="22"/>
+      <c r="B75" s="28"/>
       <c r="C75" t="s">
         <v>164</v>
       </c>
-      <c r="F75" s="28" t="s">
+      <c r="F75" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="26"/>
-      <c r="B76" s="20"/>
+      <c r="A76" s="22"/>
+      <c r="B76" s="28"/>
       <c r="C76" t="s">
         <v>165</v>
       </c>
-      <c r="F76" s="28" t="s">
+      <c r="F76" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="26"/>
-      <c r="B77" s="20"/>
+      <c r="A77" s="22"/>
+      <c r="B77" s="28"/>
       <c r="C77" t="s">
         <v>166</v>
       </c>
-      <c r="F77" s="28" t="s">
+      <c r="F77" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A78" s="26"/>
-      <c r="B78" s="21"/>
+      <c r="A78" s="22"/>
+      <c r="B78" s="29"/>
       <c r="C78" t="s">
         <v>167</v>
       </c>
-      <c r="F78" s="28" t="s">
+      <c r="F78" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="26"/>
-      <c r="B79" s="19" t="s">
+      <c r="A79" s="22"/>
+      <c r="B79" s="27" t="s">
         <v>168</v>
       </c>
       <c r="C79" t="s">
         <v>138</v>
       </c>
-      <c r="F79" s="28" t="s">
+      <c r="F79" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="26"/>
-      <c r="B80" s="20"/>
+      <c r="A80" s="22"/>
+      <c r="B80" s="28"/>
       <c r="C80" t="s">
         <v>169</v>
       </c>
-      <c r="F80" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="26"/>
-      <c r="B81" s="20"/>
+      <c r="F80" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="22"/>
+      <c r="B81" s="28"/>
       <c r="C81" t="s">
         <v>170</v>
       </c>
-      <c r="F81" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="26"/>
-      <c r="B82" s="20"/>
+      <c r="F81" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="22"/>
+      <c r="B82" s="28"/>
       <c r="C82" t="s">
         <v>171</v>
       </c>
-      <c r="F82" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A83" s="26"/>
-      <c r="B83" s="21"/>
+      <c r="F82" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A83" s="22"/>
+      <c r="B83" s="29"/>
       <c r="C83" t="s">
         <v>172</v>
       </c>
-      <c r="F83" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="26"/>
-      <c r="B84" s="19" t="s">
+      <c r="F83" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="22"/>
+      <c r="B84" s="27" t="s">
         <v>173</v>
       </c>
       <c r="C84" t="s">
         <v>138</v>
       </c>
-      <c r="F84" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="26"/>
-      <c r="B85" s="20"/>
+      <c r="F84" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="22"/>
+      <c r="B85" s="28"/>
       <c r="C85" t="s">
         <v>144</v>
       </c>
-      <c r="F85" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A86" s="26"/>
-      <c r="B86" s="21"/>
+      <c r="F85" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A86" s="22"/>
+      <c r="B86" s="29"/>
       <c r="C86" t="s">
         <v>172</v>
       </c>
-      <c r="F86" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="26"/>
-      <c r="B87" s="29" t="s">
+      <c r="F86" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="22"/>
+      <c r="B87" s="27" t="s">
         <v>123</v>
       </c>
       <c r="C87" t="s">
         <v>174</v>
       </c>
-      <c r="F87" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="26"/>
-      <c r="B88" s="29"/>
+      <c r="F87" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="22"/>
+      <c r="B88" s="28"/>
       <c r="C88" t="s">
         <v>138</v>
       </c>
-      <c r="F88" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="26"/>
-      <c r="B89" s="29"/>
+      <c r="F88" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="22"/>
+      <c r="B89" s="28"/>
       <c r="C89" t="s">
         <v>161</v>
       </c>
-      <c r="F89" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="26"/>
-      <c r="B90" s="29"/>
+      <c r="F89" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="22"/>
+      <c r="B90" s="28"/>
       <c r="C90" t="s">
         <v>84</v>
       </c>
-      <c r="F90" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="26"/>
+      <c r="F90" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A91" s="22"/>
       <c r="B91" s="29"/>
       <c r="C91" t="s">
         <v>172</v>
       </c>
-      <c r="F91" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="26"/>
-      <c r="B92" s="29" t="s">
+      <c r="F91" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="22"/>
+      <c r="B92" s="27" t="s">
         <v>175</v>
       </c>
       <c r="C92" t="s">
         <v>176</v>
       </c>
-      <c r="F92" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A93" s="26"/>
+      <c r="F92" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G92" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A93" s="22"/>
       <c r="B93" s="29"/>
       <c r="C93" t="s">
         <v>138</v>
       </c>
-      <c r="F93" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="26"/>
-      <c r="B94" s="19" t="s">
+      <c r="F93" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G93" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="22"/>
+      <c r="B94" s="27" t="s">
         <v>177</v>
       </c>
       <c r="C94" t="s">
         <v>138</v>
       </c>
-      <c r="F94" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A95" s="26"/>
-      <c r="B95" s="21"/>
+      <c r="F94" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G94" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A95" s="22"/>
+      <c r="B95" s="29"/>
       <c r="C95" t="s">
         <v>84</v>
       </c>
-      <c r="F95" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="26"/>
-      <c r="B96" s="19" t="s">
+      <c r="F95" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G95" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="22"/>
+      <c r="B96" s="27" t="s">
         <v>144</v>
       </c>
       <c r="C96" s="30" t="s">
@@ -4010,263 +4068,281 @@
       <c r="D96" t="s">
         <v>84</v>
       </c>
-      <c r="F96" s="28" t="s">
+      <c r="F96" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="26"/>
-      <c r="B97" s="20"/>
+      <c r="A97" s="22"/>
+      <c r="B97" s="28"/>
       <c r="C97" s="32"/>
       <c r="D97" t="s">
         <v>178</v>
       </c>
-      <c r="F97" s="28" t="s">
+      <c r="F97" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="26"/>
-      <c r="B98" s="20"/>
+      <c r="A98" s="22"/>
+      <c r="B98" s="28"/>
       <c r="C98" s="32"/>
       <c r="D98" t="s">
         <v>179</v>
       </c>
-      <c r="F98" s="28" t="s">
+      <c r="F98" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="26"/>
-      <c r="B99" s="20"/>
+      <c r="A99" s="22"/>
+      <c r="B99" s="28"/>
       <c r="C99" s="32"/>
       <c r="D99" t="s">
         <v>180</v>
       </c>
-      <c r="F99" s="28" t="s">
+      <c r="F99" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="26"/>
-      <c r="B100" s="20"/>
+      <c r="A100" s="22"/>
+      <c r="B100" s="28"/>
       <c r="C100" s="32"/>
       <c r="D100" t="s">
         <v>181</v>
       </c>
-      <c r="F100" s="28" t="s">
+      <c r="F100" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="26"/>
-      <c r="B101" s="20"/>
+      <c r="A101" s="22"/>
+      <c r="B101" s="28"/>
       <c r="C101" s="32"/>
       <c r="D101" t="s">
         <v>182</v>
       </c>
-      <c r="F101" s="28" t="s">
+      <c r="F101" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="26"/>
-      <c r="B102" s="20"/>
+      <c r="A102" s="22"/>
+      <c r="B102" s="28"/>
       <c r="C102" s="32"/>
       <c r="D102" t="s">
         <v>183</v>
       </c>
-      <c r="F102" s="28" t="s">
+      <c r="F102" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="26"/>
-      <c r="B103" s="20"/>
+      <c r="A103" s="22"/>
+      <c r="B103" s="28"/>
       <c r="C103" s="32"/>
       <c r="D103" t="s">
         <v>184</v>
       </c>
-      <c r="F103" s="28" t="s">
+      <c r="F103" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="26"/>
-      <c r="B104" s="20"/>
+      <c r="A104" s="22"/>
+      <c r="B104" s="28"/>
       <c r="C104" s="32"/>
       <c r="D104" t="s">
         <v>185</v>
       </c>
-      <c r="F104" s="28" t="s">
+      <c r="F104" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="26"/>
-      <c r="B105" s="20"/>
+      <c r="A105" s="22"/>
+      <c r="B105" s="28"/>
       <c r="C105" s="32"/>
       <c r="D105" t="s">
         <v>186</v>
       </c>
-      <c r="F105" s="28" t="s">
+      <c r="F105" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="26"/>
-      <c r="B106" s="20"/>
+      <c r="A106" s="22"/>
+      <c r="B106" s="28"/>
       <c r="C106" s="32"/>
       <c r="D106" t="s">
         <v>187</v>
       </c>
-      <c r="F106" s="28" t="s">
+      <c r="F106" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="26"/>
-      <c r="B107" s="20"/>
+      <c r="A107" s="22"/>
+      <c r="B107" s="28"/>
       <c r="C107" s="32"/>
       <c r="D107" t="s">
         <v>188</v>
       </c>
-      <c r="F107" s="28" t="s">
+      <c r="F107" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="26"/>
-      <c r="B108" s="20"/>
+      <c r="A108" s="22"/>
+      <c r="B108" s="28"/>
       <c r="C108" s="32"/>
       <c r="D108" t="s">
         <v>189</v>
       </c>
-      <c r="F108" s="28" t="s">
+      <c r="F108" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A109" s="26"/>
-      <c r="B109" s="20"/>
+      <c r="A109" s="22"/>
+      <c r="B109" s="28"/>
       <c r="C109" s="31"/>
       <c r="D109" t="s">
         <v>190</v>
       </c>
-      <c r="F109" s="28" t="s">
+      <c r="F109" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="26"/>
-      <c r="B110" s="20"/>
+      <c r="A110" s="22"/>
+      <c r="B110" s="28"/>
       <c r="C110" t="s">
         <v>138</v>
       </c>
-      <c r="F110" s="28" t="s">
+      <c r="F110" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="26"/>
-      <c r="B111" s="20"/>
+      <c r="A111" s="22"/>
+      <c r="B111" s="28"/>
       <c r="C111" t="s">
         <v>161</v>
       </c>
-      <c r="F111" s="28" t="s">
+      <c r="F111" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="26"/>
-      <c r="B112" s="20"/>
+      <c r="A112" s="22"/>
+      <c r="B112" s="28"/>
       <c r="C112" t="s">
         <v>191</v>
       </c>
-      <c r="F112" s="28" t="s">
+      <c r="F112" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="26"/>
-      <c r="B113" s="20"/>
+      <c r="A113" s="22"/>
+      <c r="B113" s="28"/>
       <c r="C113" t="s">
         <v>143</v>
       </c>
-      <c r="F113" s="28" t="s">
+      <c r="F113" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A114" s="26"/>
-      <c r="B114" s="21"/>
+      <c r="A114" s="22"/>
+      <c r="B114" s="29"/>
       <c r="C114" t="s">
         <v>192</v>
       </c>
-      <c r="F114" s="28" t="s">
+      <c r="F114" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="26"/>
+      <c r="A115" s="22"/>
       <c r="B115" t="s">
         <v>193</v>
       </c>
-      <c r="F115" s="28" t="s">
-        <v>258</v>
+      <c r="F115" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G115" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="26"/>
+      <c r="A116" s="22"/>
       <c r="B116" t="s">
         <v>161</v>
       </c>
-      <c r="F116" s="28" t="s">
-        <v>258</v>
+      <c r="F116" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G116" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="26"/>
+      <c r="A117" s="22"/>
       <c r="B117" t="s">
         <v>194</v>
       </c>
-      <c r="F117" s="28" t="s">
-        <v>258</v>
+      <c r="F117" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G117" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="26"/>
+      <c r="A118" s="22"/>
       <c r="B118" t="s">
         <v>195</v>
       </c>
-      <c r="F118" s="28" t="s">
-        <v>258</v>
+      <c r="F118" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G118" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="26"/>
+      <c r="A119" s="22"/>
       <c r="B119" t="s">
         <v>196</v>
       </c>
-      <c r="F119" s="28" t="s">
-        <v>258</v>
+      <c r="F119" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G119" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="26"/>
+      <c r="A120" s="22"/>
       <c r="B120" t="s">
         <v>197</v>
       </c>
-      <c r="F120" s="28" t="s">
-        <v>258</v>
+      <c r="F120" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G120" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="26"/>
+      <c r="A121" s="22"/>
       <c r="B121" t="s">
         <v>198</v>
       </c>
-      <c r="F121" s="28" t="s">
+      <c r="F121" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G121" t="s">
@@ -4274,11 +4350,11 @@
       </c>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="26"/>
+      <c r="A122" s="22"/>
       <c r="B122" t="s">
         <v>199</v>
       </c>
-      <c r="F122" s="28" t="s">
+      <c r="F122" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G122" t="s">
@@ -4286,11 +4362,11 @@
       </c>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="26"/>
+      <c r="A123" s="22"/>
       <c r="B123" t="s">
         <v>200</v>
       </c>
-      <c r="F123" s="28" t="s">
+      <c r="F123" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G123" t="s">
@@ -4298,11 +4374,11 @@
       </c>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="26"/>
+      <c r="A124" s="22"/>
       <c r="B124" t="s">
         <v>201</v>
       </c>
-      <c r="F124" s="28" t="s">
+      <c r="F124" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G124" t="s">
@@ -4310,11 +4386,11 @@
       </c>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="26"/>
+      <c r="A125" s="22"/>
       <c r="B125" t="s">
         <v>259</v>
       </c>
-      <c r="F125" s="28" t="s">
+      <c r="F125" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G125" t="s">
@@ -4322,11 +4398,11 @@
       </c>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="26"/>
+      <c r="A126" s="22"/>
       <c r="B126" t="s">
         <v>202</v>
       </c>
-      <c r="F126" s="28" t="s">
+      <c r="F126" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G126" t="s">
@@ -4334,11 +4410,11 @@
       </c>
     </row>
     <row r="127" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A127" s="27"/>
+      <c r="A127" s="23"/>
       <c r="B127" t="s">
         <v>203</v>
       </c>
-      <c r="F127" s="28" t="s">
+      <c r="F127" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G127" t="s">
@@ -4346,570 +4422,573 @@
       </c>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="25" t="s">
+      <c r="A128" s="21" t="s">
         <v>204</v>
       </c>
       <c r="B128" t="s">
         <v>157</v>
       </c>
-      <c r="F128" s="28" t="s">
+      <c r="F128" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="26"/>
+      <c r="A129" s="22"/>
       <c r="B129" t="s">
         <v>205</v>
       </c>
-      <c r="F129" s="28" t="s">
+      <c r="F129" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="26"/>
+      <c r="A130" s="22"/>
       <c r="B130" t="s">
         <v>206</v>
       </c>
-      <c r="F130" s="28" t="s">
+      <c r="F130" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="26"/>
+      <c r="A131" s="22"/>
       <c r="B131" t="s">
         <v>136</v>
       </c>
-      <c r="F131" s="28" t="s">
+      <c r="F131" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="26"/>
+      <c r="A132" s="22"/>
       <c r="B132" t="s">
         <v>209</v>
       </c>
-      <c r="F132" s="28" t="s">
+      <c r="F132" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="26"/>
+      <c r="A133" s="22"/>
       <c r="B133" t="s">
         <v>208</v>
       </c>
-      <c r="F133" s="28" t="s">
+      <c r="F133" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="26"/>
+      <c r="A134" s="22"/>
       <c r="B134" t="s">
         <v>158</v>
       </c>
-      <c r="F134" s="28" t="s">
+      <c r="F134" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="26"/>
+      <c r="A135" s="22"/>
       <c r="B135" t="s">
         <v>140</v>
       </c>
-      <c r="F135" s="28" t="s">
+      <c r="F135" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="26"/>
+      <c r="A136" s="22"/>
       <c r="B136" t="s">
         <v>210</v>
       </c>
-      <c r="F136" s="28" t="s">
+      <c r="F136" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="26"/>
+      <c r="A137" s="22"/>
       <c r="B137" t="s">
         <v>211</v>
       </c>
-      <c r="F137" s="28" t="s">
+      <c r="F137" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="26"/>
+      <c r="A138" s="22"/>
       <c r="B138" t="s">
         <v>137</v>
       </c>
-      <c r="F138" s="28" t="s">
+      <c r="F138" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="26"/>
+      <c r="A139" s="22"/>
       <c r="B139" t="s">
         <v>212</v>
       </c>
-      <c r="F139" s="28" t="s">
+      <c r="F139" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="26"/>
+      <c r="A140" s="22"/>
       <c r="B140" t="s">
         <v>213</v>
       </c>
-      <c r="F140" s="28" t="s">
+      <c r="F140" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="26"/>
+      <c r="A141" s="22"/>
       <c r="B141" t="s">
         <v>159</v>
       </c>
-      <c r="F141" s="28" t="s">
+      <c r="F141" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="26"/>
+      <c r="A142" s="22"/>
       <c r="B142" t="s">
         <v>138</v>
       </c>
-      <c r="F142" s="28" t="s">
+      <c r="F142" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="26"/>
+      <c r="A143" s="22"/>
       <c r="B143" t="s">
         <v>214</v>
       </c>
-      <c r="F143" s="28" t="s">
+      <c r="F143" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="26"/>
+      <c r="A144" s="22"/>
       <c r="B144" t="s">
         <v>148</v>
       </c>
-      <c r="F144" s="28" t="s">
+      <c r="F144" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="26"/>
+      <c r="A145" s="22"/>
       <c r="B145" t="s">
         <v>193</v>
       </c>
-      <c r="F145" s="28" t="s">
+      <c r="F145" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="26"/>
+      <c r="A146" s="22"/>
       <c r="B146" t="s">
         <v>160</v>
       </c>
-      <c r="F146" s="28" t="s">
+      <c r="F146" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="26"/>
+      <c r="A147" s="22"/>
       <c r="B147" t="s">
         <v>155</v>
       </c>
-      <c r="F147" s="28" t="s">
+      <c r="F147" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="26"/>
+      <c r="A148" s="22"/>
       <c r="B148" t="s">
         <v>161</v>
       </c>
-      <c r="F148" s="28" t="s">
+      <c r="F148" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="26"/>
+      <c r="A149" s="22"/>
       <c r="B149" t="s">
         <v>215</v>
       </c>
-      <c r="F149" s="28" t="s">
+      <c r="F149" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="26"/>
+      <c r="A150" s="22"/>
       <c r="B150" t="s">
         <v>194</v>
       </c>
-      <c r="F150" s="28" t="s">
+      <c r="F150" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="26"/>
+      <c r="A151" s="22"/>
       <c r="B151" t="s">
         <v>216</v>
       </c>
-      <c r="F151" s="28" t="s">
+      <c r="F151" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="26"/>
+      <c r="A152" s="22"/>
       <c r="B152" t="s">
         <v>152</v>
       </c>
-      <c r="F152" s="28" t="s">
+      <c r="F152" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="26"/>
+      <c r="A153" s="22"/>
       <c r="B153" t="s">
         <v>93</v>
       </c>
-      <c r="F153" s="28" t="s">
+      <c r="F153" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="26"/>
+      <c r="A154" s="22"/>
       <c r="B154" t="s">
         <v>217</v>
       </c>
-      <c r="F154" s="28" t="s">
+      <c r="F154" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="26"/>
+      <c r="A155" s="22"/>
       <c r="B155" t="s">
         <v>195</v>
       </c>
-      <c r="F155" s="28" t="s">
+      <c r="F155" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="26"/>
+      <c r="A156" s="22"/>
       <c r="B156" t="s">
         <v>130</v>
       </c>
-      <c r="F156" s="28" t="s">
+      <c r="F156" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="26"/>
+      <c r="A157" s="22"/>
       <c r="B157" t="s">
         <v>154</v>
       </c>
-      <c r="F157" s="28" t="s">
+      <c r="F157" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="26"/>
+      <c r="A158" s="22"/>
       <c r="B158" t="s">
         <v>169</v>
       </c>
-      <c r="F158" s="28" t="s">
+      <c r="F158" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="26"/>
+      <c r="A159" s="22"/>
       <c r="B159" t="s">
         <v>218</v>
       </c>
-      <c r="F159" s="28" t="s">
+      <c r="F159" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="26"/>
+      <c r="A160" s="22"/>
       <c r="B160" t="s">
         <v>219</v>
       </c>
-      <c r="F160" s="28" t="s">
+      <c r="F160" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="26"/>
+      <c r="A161" s="22"/>
       <c r="B161" t="s">
         <v>220</v>
       </c>
-      <c r="F161" s="28" t="s">
+      <c r="F161" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="26"/>
+      <c r="A162" s="22"/>
       <c r="B162" t="s">
         <v>170</v>
       </c>
-      <c r="F162" s="28" t="s">
+      <c r="F162" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="26"/>
+      <c r="A163" s="22"/>
       <c r="B163" t="s">
         <v>221</v>
       </c>
-      <c r="F163" s="28" t="s">
+      <c r="F163" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="26"/>
+      <c r="A164" s="22"/>
       <c r="B164" t="s">
         <v>222</v>
       </c>
-      <c r="F164" s="28" t="s">
+      <c r="F164" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="26"/>
+      <c r="A165" s="22"/>
       <c r="B165" t="s">
         <v>192</v>
       </c>
-      <c r="F165" s="28" t="s">
+      <c r="F165" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="26"/>
+      <c r="A166" s="22"/>
       <c r="B166" t="s">
         <v>199</v>
       </c>
-      <c r="F166" s="28" t="s">
+      <c r="F166" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="26"/>
+      <c r="A167" s="22"/>
       <c r="B167" t="s">
         <v>200</v>
       </c>
-      <c r="F167" s="28" t="s">
+      <c r="F167" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="26"/>
+      <c r="A168" s="22"/>
       <c r="B168" t="s">
         <v>201</v>
       </c>
-      <c r="F168" s="28" t="s">
+      <c r="F168" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="26"/>
+      <c r="A169" s="22"/>
       <c r="B169" t="s">
         <v>131</v>
       </c>
-      <c r="F169" s="28" t="s">
+      <c r="F169" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="26"/>
+      <c r="A170" s="22"/>
       <c r="B170" t="s">
         <v>165</v>
       </c>
-      <c r="F170" s="28" t="s">
+      <c r="F170" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="26"/>
+      <c r="A171" s="22"/>
       <c r="B171" t="s">
         <v>223</v>
       </c>
-      <c r="F171" s="28" t="s">
+      <c r="F171" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="26"/>
+      <c r="A172" s="22"/>
       <c r="B172" t="s">
         <v>173</v>
       </c>
-      <c r="F172" s="28" t="s">
+      <c r="F172" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="26"/>
+      <c r="A173" s="22"/>
       <c r="B173" t="s">
         <v>224</v>
       </c>
-      <c r="F173" s="28" t="s">
+      <c r="F173" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="26"/>
+      <c r="A174" s="22"/>
       <c r="B174" t="s">
         <v>225</v>
       </c>
-      <c r="F174" s="28" t="s">
+      <c r="F174" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="26"/>
+      <c r="A175" s="22"/>
       <c r="B175" t="s">
         <v>226</v>
       </c>
-      <c r="F175" s="28" t="s">
+      <c r="F175" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="26"/>
+      <c r="A176" s="22"/>
       <c r="B176" t="s">
         <v>133</v>
       </c>
-      <c r="F176" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177" s="26"/>
+      <c r="F176" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="22"/>
       <c r="B177" t="s">
         <v>134</v>
       </c>
-      <c r="F177" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178" s="26"/>
+      <c r="F177" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="22"/>
       <c r="B178" t="s">
         <v>139</v>
       </c>
-      <c r="F178" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179" s="26"/>
+      <c r="F178" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="22"/>
       <c r="B179" t="s">
         <v>123</v>
       </c>
-      <c r="F179" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180" s="26"/>
+      <c r="F179" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="22"/>
       <c r="B180" t="s">
         <v>227</v>
       </c>
-      <c r="F180" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181" s="26"/>
+      <c r="F180" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="22"/>
       <c r="B181" t="s">
         <v>228</v>
       </c>
-      <c r="F181" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182" s="26"/>
+      <c r="F181" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="22"/>
       <c r="B182" t="s">
         <v>229</v>
       </c>
-      <c r="F182" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183" s="26"/>
+      <c r="F182" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="22"/>
       <c r="B183" t="s">
         <v>202</v>
       </c>
-      <c r="F183" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184" s="26"/>
+      <c r="F183" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="22"/>
       <c r="B184" t="s">
         <v>175</v>
       </c>
-      <c r="F184" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185" s="26"/>
+      <c r="F184" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="22"/>
       <c r="B185" t="s">
         <v>177</v>
       </c>
-      <c r="F185" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186" s="26"/>
+      <c r="F185" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G185" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="22"/>
       <c r="B186" t="s">
         <v>203</v>
       </c>
-      <c r="F186" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187" s="26"/>
+      <c r="F186" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="22"/>
       <c r="B187" t="s">
         <v>230</v>
       </c>
-      <c r="F187" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188" s="26"/>
+      <c r="F187" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="22"/>
       <c r="B188" t="s">
         <v>231</v>
       </c>
-      <c r="F188" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A189" s="27"/>
+      <c r="F188" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A189" s="23"/>
       <c r="B189" t="s">
         <v>144</v>
       </c>
-      <c r="F189" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190" s="25" t="s">
+      <c r="F189" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="B190" s="19" t="s">
+      <c r="B190" s="27" t="s">
         <v>207</v>
       </c>
       <c r="C190" s="30" t="s">
@@ -4918,152 +4997,152 @@
       <c r="D190" t="s">
         <v>233</v>
       </c>
-      <c r="F190" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191" s="26"/>
-      <c r="B191" s="20"/>
+      <c r="F190" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="22"/>
+      <c r="B191" s="28"/>
       <c r="C191" s="32"/>
       <c r="D191" t="s">
         <v>234</v>
       </c>
-      <c r="F191" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192" s="26"/>
-      <c r="B192" s="20"/>
+      <c r="F191" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="22"/>
+      <c r="B192" s="28"/>
       <c r="C192" s="32"/>
       <c r="D192" t="s">
         <v>235</v>
       </c>
-      <c r="F192" s="28" t="s">
+      <c r="F192" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="26"/>
-      <c r="B193" s="20"/>
+      <c r="A193" s="22"/>
+      <c r="B193" s="28"/>
       <c r="C193" s="32"/>
       <c r="D193" t="s">
         <v>236</v>
       </c>
-      <c r="F193" s="28" t="s">
+      <c r="F193" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="194" spans="1:7">
-      <c r="A194" s="26"/>
-      <c r="B194" s="20"/>
+      <c r="A194" s="22"/>
+      <c r="B194" s="28"/>
       <c r="C194" s="32"/>
       <c r="D194" t="s">
         <v>237</v>
       </c>
-      <c r="F194" s="28" t="s">
+      <c r="F194" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="26"/>
-      <c r="B195" s="20"/>
+      <c r="A195" s="22"/>
+      <c r="B195" s="28"/>
       <c r="C195" s="32"/>
       <c r="D195" t="s">
         <v>238</v>
       </c>
-      <c r="F195" s="28" t="s">
+      <c r="F195" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="26"/>
-      <c r="B196" s="20"/>
+      <c r="A196" s="22"/>
+      <c r="B196" s="28"/>
       <c r="C196" s="32"/>
       <c r="D196" t="s">
         <v>221</v>
       </c>
-      <c r="F196" s="28" t="s">
+      <c r="F196" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="26"/>
-      <c r="B197" s="20"/>
+      <c r="A197" s="22"/>
+      <c r="B197" s="28"/>
       <c r="C197" s="32"/>
       <c r="D197" t="s">
         <v>239</v>
       </c>
-      <c r="F197" s="28" t="s">
+      <c r="F197" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="26"/>
-      <c r="B198" s="20"/>
+      <c r="A198" s="22"/>
+      <c r="B198" s="28"/>
       <c r="C198" s="32"/>
       <c r="D198" t="s">
         <v>240</v>
       </c>
-      <c r="F198" s="28" t="s">
+      <c r="F198" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A199" s="26"/>
-      <c r="B199" s="20"/>
+      <c r="A199" s="22"/>
+      <c r="B199" s="28"/>
       <c r="C199" s="31"/>
       <c r="D199" t="s">
         <v>241</v>
       </c>
-      <c r="F199" s="28" t="s">
+      <c r="F199" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="26"/>
-      <c r="B200" s="20"/>
+      <c r="A200" s="22"/>
+      <c r="B200" s="28"/>
       <c r="C200" t="s">
         <v>242</v>
       </c>
-      <c r="F200" s="28" t="s">
+      <c r="F200" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="26"/>
-      <c r="B201" s="20"/>
+      <c r="A201" s="22"/>
+      <c r="B201" s="28"/>
       <c r="C201" t="s">
         <v>84</v>
       </c>
-      <c r="F201" s="28" t="s">
+      <c r="F201" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="26"/>
-      <c r="B202" s="20"/>
+      <c r="A202" s="22"/>
+      <c r="B202" s="28"/>
       <c r="C202" t="s">
         <v>243</v>
       </c>
-      <c r="F202" s="28" t="s">
+      <c r="F202" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A203" s="26"/>
-      <c r="B203" s="21"/>
+      <c r="A203" s="22"/>
+      <c r="B203" s="29"/>
       <c r="C203" t="s">
         <v>244</v>
       </c>
-      <c r="F203" s="28" t="s">
+      <c r="F203" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="26"/>
-      <c r="B204" s="19" t="s">
+      <c r="A204" s="22"/>
+      <c r="B204" s="27" t="s">
         <v>245</v>
       </c>
       <c r="C204" s="30" t="s">
@@ -5072,7 +5151,7 @@
       <c r="D204" t="s">
         <v>138</v>
       </c>
-      <c r="F204" s="28" t="s">
+      <c r="F204" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G204" t="s">
@@ -5080,13 +5159,13 @@
       </c>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="26"/>
-      <c r="B205" s="20"/>
+      <c r="A205" s="22"/>
+      <c r="B205" s="28"/>
       <c r="C205" s="32"/>
       <c r="D205" t="s">
         <v>246</v>
       </c>
-      <c r="F205" s="28" t="s">
+      <c r="F205" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G205" t="s">
@@ -5094,13 +5173,13 @@
       </c>
     </row>
     <row r="206" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A206" s="26"/>
-      <c r="B206" s="20"/>
+      <c r="A206" s="22"/>
+      <c r="B206" s="28"/>
       <c r="C206" s="31"/>
       <c r="D206" t="s">
         <v>221</v>
       </c>
-      <c r="F206" s="28" t="s">
+      <c r="F206" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G206" t="s">
@@ -5108,12 +5187,12 @@
       </c>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="26"/>
-      <c r="B207" s="20"/>
+      <c r="A207" s="22"/>
+      <c r="B207" s="28"/>
       <c r="C207" t="s">
         <v>206</v>
       </c>
-      <c r="F207" s="28" t="s">
+      <c r="F207" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G207" t="s">
@@ -5121,12 +5200,12 @@
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="26"/>
-      <c r="B208" s="20"/>
+      <c r="A208" s="22"/>
+      <c r="B208" s="28"/>
       <c r="C208" t="s">
         <v>224</v>
       </c>
-      <c r="F208" s="28" t="s">
+      <c r="F208" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G208" t="s">
@@ -5134,12 +5213,12 @@
       </c>
     </row>
     <row r="209" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A209" s="26"/>
-      <c r="B209" s="21"/>
+      <c r="A209" s="22"/>
+      <c r="B209" s="29"/>
       <c r="C209" t="s">
         <v>228</v>
       </c>
-      <c r="F209" s="28" t="s">
+      <c r="F209" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G209" t="s">
@@ -5147,11 +5226,11 @@
       </c>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="26"/>
+      <c r="A210" s="22"/>
       <c r="B210" t="s">
         <v>212</v>
       </c>
-      <c r="F210" s="28" t="s">
+      <c r="F210" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G210" t="s">
@@ -5159,11 +5238,11 @@
       </c>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="26"/>
+      <c r="A211" s="22"/>
       <c r="B211" t="s">
         <v>247</v>
       </c>
-      <c r="F211" s="28" t="s">
+      <c r="F211" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G211" t="s">
@@ -5171,11 +5250,11 @@
       </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="26"/>
+      <c r="A212" s="22"/>
       <c r="B212" t="s">
         <v>248</v>
       </c>
-      <c r="F212" s="28" t="s">
+      <c r="F212" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G212" t="s">
@@ -5183,11 +5262,11 @@
       </c>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="26"/>
+      <c r="A213" s="22"/>
       <c r="B213" t="s">
         <v>216</v>
       </c>
-      <c r="F213" s="28" t="s">
+      <c r="F213" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G213" t="s">
@@ -5195,11 +5274,11 @@
       </c>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="26"/>
+      <c r="A214" s="22"/>
       <c r="B214" t="s">
         <v>217</v>
       </c>
-      <c r="F214" s="28" t="s">
+      <c r="F214" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G214" t="s">
@@ -5207,11 +5286,11 @@
       </c>
     </row>
     <row r="215" spans="1:7">
-      <c r="A215" s="26"/>
+      <c r="A215" s="22"/>
       <c r="B215" t="s">
         <v>84</v>
       </c>
-      <c r="F215" s="28" t="s">
+      <c r="F215" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G215" t="s">
@@ -5219,11 +5298,11 @@
       </c>
     </row>
     <row r="216" spans="1:7">
-      <c r="A216" s="26"/>
+      <c r="A216" s="22"/>
       <c r="B216" t="s">
         <v>249</v>
       </c>
-      <c r="F216" s="28" t="s">
+      <c r="F216" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G216" t="s">
@@ -5231,11 +5310,11 @@
       </c>
     </row>
     <row r="217" spans="1:7">
-      <c r="A217" s="26"/>
+      <c r="A217" s="22"/>
       <c r="B217" t="s">
         <v>219</v>
       </c>
-      <c r="F217" s="28" t="s">
+      <c r="F217" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G217" t="s">
@@ -5243,11 +5322,11 @@
       </c>
     </row>
     <row r="218" spans="1:7">
-      <c r="A218" s="26"/>
+      <c r="A218" s="22"/>
       <c r="B218" t="s">
         <v>222</v>
       </c>
-      <c r="F218" s="28" t="s">
+      <c r="F218" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G218" t="s">
@@ -5255,11 +5334,11 @@
       </c>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" s="26"/>
+      <c r="A219" s="22"/>
       <c r="B219" t="s">
         <v>225</v>
       </c>
-      <c r="F219" s="28" t="s">
+      <c r="F219" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G219" t="s">
@@ -5267,11 +5346,11 @@
       </c>
     </row>
     <row r="220" spans="1:7">
-      <c r="A220" s="26"/>
+      <c r="A220" s="22"/>
       <c r="B220" t="s">
         <v>250</v>
       </c>
-      <c r="F220" s="28" t="s">
+      <c r="F220" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G220" t="s">
@@ -5279,11 +5358,11 @@
       </c>
     </row>
     <row r="221" spans="1:7">
-      <c r="A221" s="26"/>
+      <c r="A221" s="22"/>
       <c r="B221" t="s">
         <v>251</v>
       </c>
-      <c r="F221" s="28" t="s">
+      <c r="F221" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G221" t="s">
@@ -5291,11 +5370,11 @@
       </c>
     </row>
     <row r="222" spans="1:7">
-      <c r="A222" s="26"/>
+      <c r="A222" s="22"/>
       <c r="B222" t="s">
         <v>252</v>
       </c>
-      <c r="F222" s="28" t="s">
+      <c r="F222" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G222" t="s">
@@ -5303,11 +5382,11 @@
       </c>
     </row>
     <row r="223" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A223" s="27"/>
+      <c r="A223" s="23"/>
       <c r="B223" t="s">
         <v>230</v>
       </c>
-      <c r="F223" s="28" t="s">
+      <c r="F223" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G223" t="s">
@@ -5315,13 +5394,13 @@
       </c>
     </row>
     <row r="224" spans="1:7">
-      <c r="A224" s="25" t="s">
+      <c r="A224" s="21" t="s">
         <v>253</v>
       </c>
       <c r="B224" t="s">
         <v>254</v>
       </c>
-      <c r="F224" s="28" t="s">
+      <c r="F224" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G224" t="s">
@@ -5329,11 +5408,11 @@
       </c>
     </row>
     <row r="225" spans="1:7">
-      <c r="A225" s="26"/>
+      <c r="A225" s="22"/>
       <c r="B225" t="s">
         <v>255</v>
       </c>
-      <c r="F225" s="28" t="s">
+      <c r="F225" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G225" t="s">
@@ -5341,11 +5420,11 @@
       </c>
     </row>
     <row r="226" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A226" s="27"/>
+      <c r="A226" s="23"/>
       <c r="B226" t="s">
         <v>256</v>
       </c>
-      <c r="F226" s="28" t="s">
+      <c r="F226" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G226" t="s">
@@ -5356,7 +5435,7 @@
       <c r="A227" t="s">
         <v>257</v>
       </c>
-      <c r="F227" s="28" t="s">
+      <c r="F227" s="11" t="s">
         <v>258</v>
       </c>
     </row>
@@ -5378,6 +5457,10 @@
     <mergeCell ref="C96:C109"/>
     <mergeCell ref="D10:D14"/>
     <mergeCell ref="D15:D21"/>
+    <mergeCell ref="C10:C21"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
     <mergeCell ref="A47:A127"/>
     <mergeCell ref="B47:B49"/>
     <mergeCell ref="B50:B55"/>
@@ -5391,10 +5474,6 @@
     <mergeCell ref="B10:B23"/>
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="B31:B36"/>
-    <mergeCell ref="C10:C21"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/開發文件.xlsx
+++ b/docs/開發文件.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\YDWE1.25.10\Creation\Mod\The_Tilted_Clock_Tower\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751DC37A-8D25-47B3-A831-6200933904FF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DDB563-ED56-4CDD-BCF2-13EA8A7AB4EE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12765" activeTab="1" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="265">
   <si>
     <r>
       <rPr>
@@ -1281,6 +1281,18 @@
   </si>
   <si>
     <t>region</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1603,15 +1615,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1624,10 +1627,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1637,6 +1640,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2958,8 +2970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29018229-9EAF-4726-88C6-5A87070EDF6C}">
   <dimension ref="A1:G227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="K175" sqref="K175"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="G145" sqref="G145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2976,7 +2988,7 @@
       <c r="A1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="33" t="s">
         <v>83</v>
       </c>
       <c r="C1" t="s">
@@ -2988,7 +3000,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="22"/>
-      <c r="B2" s="25"/>
+      <c r="B2" s="34"/>
       <c r="C2" t="s">
         <v>85</v>
       </c>
@@ -2998,7 +3010,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="22"/>
-      <c r="B3" s="25"/>
+      <c r="B3" s="34"/>
       <c r="C3" t="s">
         <v>86</v>
       </c>
@@ -3008,7 +3020,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="22"/>
-      <c r="B4" s="25"/>
+      <c r="B4" s="34"/>
       <c r="C4" t="s">
         <v>87</v>
       </c>
@@ -3018,7 +3030,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="22"/>
-      <c r="B5" s="25"/>
+      <c r="B5" s="34"/>
       <c r="C5" t="s">
         <v>88</v>
       </c>
@@ -3028,7 +3040,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="22"/>
-      <c r="B6" s="25"/>
+      <c r="B6" s="34"/>
       <c r="C6" t="s">
         <v>89</v>
       </c>
@@ -3038,7 +3050,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="22"/>
-      <c r="B7" s="25"/>
+      <c r="B7" s="34"/>
       <c r="C7" t="s">
         <v>90</v>
       </c>
@@ -3048,7 +3060,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="22"/>
-      <c r="B8" s="25"/>
+      <c r="B8" s="34"/>
       <c r="C8" t="s">
         <v>91</v>
       </c>
@@ -3058,7 +3070,7 @@
     </row>
     <row r="9" spans="1:6" ht="17.25" thickBot="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="26"/>
+      <c r="B9" s="35"/>
       <c r="C9" t="s">
         <v>92</v>
       </c>
@@ -3068,13 +3080,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="22"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="30" t="s">
         <v>95</v>
       </c>
       <c r="E10" t="s">
@@ -3086,9 +3098,9 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="22"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="31"/>
       <c r="E11" t="s">
         <v>97</v>
       </c>
@@ -3098,9 +3110,9 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="22"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="31"/>
       <c r="E12" t="s">
         <v>98</v>
       </c>
@@ -3110,9 +3122,9 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="22"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="31"/>
       <c r="E13" t="s">
         <v>99</v>
       </c>
@@ -3122,9 +3134,9 @@
     </row>
     <row r="14" spans="1:6" ht="17.25" thickBot="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="35"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="32"/>
       <c r="E14" t="s">
         <v>100</v>
       </c>
@@ -3134,9 +3146,9 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="22"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="30" t="s">
         <v>101</v>
       </c>
       <c r="E15" t="s">
@@ -3148,9 +3160,9 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="22"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="31"/>
       <c r="E16" t="s">
         <v>103</v>
       </c>
@@ -3160,9 +3172,9 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="22"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="31"/>
       <c r="E17" t="s">
         <v>104</v>
       </c>
@@ -3172,9 +3184,9 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="22"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="31"/>
       <c r="E18" t="s">
         <v>105</v>
       </c>
@@ -3184,9 +3196,9 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="31"/>
       <c r="E19" t="s">
         <v>106</v>
       </c>
@@ -3196,9 +3208,9 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="22"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="31"/>
       <c r="E20" t="s">
         <v>107</v>
       </c>
@@ -3208,9 +3220,9 @@
     </row>
     <row r="21" spans="1:6" ht="17.25" thickBot="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="35"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="32"/>
       <c r="E21" t="s">
         <v>108</v>
       </c>
@@ -3220,7 +3232,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="22"/>
-      <c r="B22" s="25"/>
+      <c r="B22" s="34"/>
       <c r="C22" t="s">
         <v>109</v>
       </c>
@@ -3230,7 +3242,7 @@
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="26"/>
+      <c r="B23" s="35"/>
       <c r="C23" t="s">
         <v>84</v>
       </c>
@@ -3240,7 +3252,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="22"/>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="24" t="s">
         <v>110</v>
       </c>
       <c r="C24" t="s">
@@ -3252,7 +3264,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="22"/>
-      <c r="B25" s="28"/>
+      <c r="B25" s="25"/>
       <c r="C25" t="s">
         <v>111</v>
       </c>
@@ -3262,7 +3274,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="22"/>
-      <c r="B26" s="28"/>
+      <c r="B26" s="25"/>
       <c r="C26" t="s">
         <v>112</v>
       </c>
@@ -3272,7 +3284,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="22"/>
-      <c r="B27" s="28"/>
+      <c r="B27" s="25"/>
       <c r="C27" t="s">
         <v>113</v>
       </c>
@@ -3282,7 +3294,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="22"/>
-      <c r="B28" s="28"/>
+      <c r="B28" s="25"/>
       <c r="C28" t="s">
         <v>114</v>
       </c>
@@ -3292,7 +3304,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="22"/>
-      <c r="B29" s="28"/>
+      <c r="B29" s="25"/>
       <c r="C29" t="s">
         <v>115</v>
       </c>
@@ -3302,7 +3314,7 @@
     </row>
     <row r="30" spans="1:6" ht="17.25" thickBot="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="29"/>
+      <c r="B30" s="26"/>
       <c r="C30" t="s">
         <v>116</v>
       </c>
@@ -3312,10 +3324,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="22"/>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="27" t="s">
         <v>118</v>
       </c>
       <c r="D31" t="s">
@@ -3327,8 +3339,8 @@
     </row>
     <row r="32" spans="1:6" ht="17.25" thickBot="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="31"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="29"/>
       <c r="D32" t="s">
         <v>120</v>
       </c>
@@ -3338,8 +3350,8 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="22"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="30" t="s">
+      <c r="B33" s="25"/>
+      <c r="C33" s="27" t="s">
         <v>121</v>
       </c>
       <c r="D33" t="s">
@@ -3351,8 +3363,8 @@
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1">
       <c r="A34" s="22"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="31"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="29"/>
       <c r="D34" t="s">
         <v>123</v>
       </c>
@@ -3362,8 +3374,8 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="22"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="30" t="s">
+      <c r="B35" s="25"/>
+      <c r="C35" s="27" t="s">
         <v>124</v>
       </c>
       <c r="D35" t="s">
@@ -3375,8 +3387,8 @@
     </row>
     <row r="36" spans="1:7" ht="17.25" thickBot="1">
       <c r="A36" s="22"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="31"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="29"/>
       <c r="D36" t="s">
         <v>123</v>
       </c>
@@ -3478,7 +3490,7 @@
       <c r="A47" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="24" t="s">
         <v>136</v>
       </c>
       <c r="C47" t="s">
@@ -3493,7 +3505,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="22"/>
-      <c r="B48" s="28"/>
+      <c r="B48" s="25"/>
       <c r="C48" t="s">
         <v>138</v>
       </c>
@@ -3506,7 +3518,7 @@
     </row>
     <row r="49" spans="1:7" ht="17.25" thickBot="1">
       <c r="A49" s="22"/>
-      <c r="B49" s="29"/>
+      <c r="B49" s="26"/>
       <c r="C49" t="s">
         <v>139</v>
       </c>
@@ -3519,10 +3531,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="22"/>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="27" t="s">
         <v>141</v>
       </c>
       <c r="D50" t="s">
@@ -3537,8 +3549,8 @@
     </row>
     <row r="51" spans="1:7" ht="17.25" thickBot="1">
       <c r="A51" s="22"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="31"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="29"/>
       <c r="D51" t="s">
         <v>142</v>
       </c>
@@ -3551,7 +3563,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="22"/>
-      <c r="B52" s="28"/>
+      <c r="B52" s="25"/>
       <c r="C52" t="s">
         <v>138</v>
       </c>
@@ -3564,7 +3576,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="22"/>
-      <c r="B53" s="28"/>
+      <c r="B53" s="25"/>
       <c r="C53" t="s">
         <v>84</v>
       </c>
@@ -3577,7 +3589,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="22"/>
-      <c r="B54" s="28"/>
+      <c r="B54" s="25"/>
       <c r="C54" t="s">
         <v>143</v>
       </c>
@@ -3590,7 +3602,7 @@
     </row>
     <row r="55" spans="1:7" ht="17.25" thickBot="1">
       <c r="A55" s="22"/>
-      <c r="B55" s="29"/>
+      <c r="B55" s="26"/>
       <c r="C55" t="s">
         <v>144</v>
       </c>
@@ -3603,7 +3615,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="22"/>
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="24" t="s">
         <v>145</v>
       </c>
       <c r="C56" t="s">
@@ -3618,7 +3630,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="22"/>
-      <c r="B57" s="28"/>
+      <c r="B57" s="25"/>
       <c r="C57" t="s">
         <v>147</v>
       </c>
@@ -3631,7 +3643,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="22"/>
-      <c r="B58" s="28"/>
+      <c r="B58" s="25"/>
       <c r="C58" t="s">
         <v>148</v>
       </c>
@@ -3644,7 +3656,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="22"/>
-      <c r="B59" s="28"/>
+      <c r="B59" s="25"/>
       <c r="C59" t="s">
         <v>149</v>
       </c>
@@ -3657,7 +3669,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="22"/>
-      <c r="B60" s="28"/>
+      <c r="B60" s="25"/>
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -3670,7 +3682,7 @@
     </row>
     <row r="61" spans="1:7" ht="17.25" thickBot="1">
       <c r="A61" s="22"/>
-      <c r="B61" s="29"/>
+      <c r="B61" s="26"/>
       <c r="C61" t="s">
         <v>151</v>
       </c>
@@ -3683,7 +3695,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="22"/>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="24" t="s">
         <v>152</v>
       </c>
       <c r="C62" t="s">
@@ -3698,7 +3710,7 @@
     </row>
     <row r="63" spans="1:7" ht="17.25" thickBot="1">
       <c r="A63" s="22"/>
-      <c r="B63" s="29"/>
+      <c r="B63" s="26"/>
       <c r="C63" t="s">
         <v>138</v>
       </c>
@@ -3711,10 +3723,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="22"/>
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C64" s="27" t="s">
         <v>155</v>
       </c>
       <c r="D64" t="s">
@@ -3726,8 +3738,8 @@
     </row>
     <row r="65" spans="1:6" ht="17.25" thickBot="1">
       <c r="A65" s="22"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="31"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="29"/>
       <c r="D65" t="s">
         <v>156</v>
       </c>
@@ -3737,7 +3749,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="22"/>
-      <c r="B66" s="28"/>
+      <c r="B66" s="25"/>
       <c r="C66" t="s">
         <v>157</v>
       </c>
@@ -3747,7 +3759,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="22"/>
-      <c r="B67" s="28"/>
+      <c r="B67" s="25"/>
       <c r="C67" t="s">
         <v>158</v>
       </c>
@@ -3757,7 +3769,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="22"/>
-      <c r="B68" s="28"/>
+      <c r="B68" s="25"/>
       <c r="C68" t="s">
         <v>159</v>
       </c>
@@ -3767,7 +3779,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="22"/>
-      <c r="B69" s="28"/>
+      <c r="B69" s="25"/>
       <c r="C69" t="s">
         <v>138</v>
       </c>
@@ -3777,7 +3789,7 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="22"/>
-      <c r="B70" s="28"/>
+      <c r="B70" s="25"/>
       <c r="C70" t="s">
         <v>160</v>
       </c>
@@ -3787,7 +3799,7 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="22"/>
-      <c r="B71" s="28"/>
+      <c r="B71" s="25"/>
       <c r="C71" t="s">
         <v>161</v>
       </c>
@@ -3797,7 +3809,7 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="22"/>
-      <c r="B72" s="28"/>
+      <c r="B72" s="25"/>
       <c r="C72" t="s">
         <v>162</v>
       </c>
@@ -3807,7 +3819,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="22"/>
-      <c r="B73" s="28"/>
+      <c r="B73" s="25"/>
       <c r="C73" t="s">
         <v>84</v>
       </c>
@@ -3817,7 +3829,7 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="22"/>
-      <c r="B74" s="28"/>
+      <c r="B74" s="25"/>
       <c r="C74" t="s">
         <v>163</v>
       </c>
@@ -3827,7 +3839,7 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="22"/>
-      <c r="B75" s="28"/>
+      <c r="B75" s="25"/>
       <c r="C75" t="s">
         <v>164</v>
       </c>
@@ -3837,7 +3849,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="22"/>
-      <c r="B76" s="28"/>
+      <c r="B76" s="25"/>
       <c r="C76" t="s">
         <v>165</v>
       </c>
@@ -3847,7 +3859,7 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="22"/>
-      <c r="B77" s="28"/>
+      <c r="B77" s="25"/>
       <c r="C77" t="s">
         <v>166</v>
       </c>
@@ -3857,7 +3869,7 @@
     </row>
     <row r="78" spans="1:6" ht="17.25" thickBot="1">
       <c r="A78" s="22"/>
-      <c r="B78" s="29"/>
+      <c r="B78" s="26"/>
       <c r="C78" t="s">
         <v>167</v>
       </c>
@@ -3867,7 +3879,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="22"/>
-      <c r="B79" s="27" t="s">
+      <c r="B79" s="24" t="s">
         <v>168</v>
       </c>
       <c r="C79" t="s">
@@ -3879,7 +3891,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="22"/>
-      <c r="B80" s="28"/>
+      <c r="B80" s="25"/>
       <c r="C80" t="s">
         <v>169</v>
       </c>
@@ -3889,7 +3901,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="22"/>
-      <c r="B81" s="28"/>
+      <c r="B81" s="25"/>
       <c r="C81" t="s">
         <v>170</v>
       </c>
@@ -3899,7 +3911,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="22"/>
-      <c r="B82" s="28"/>
+      <c r="B82" s="25"/>
       <c r="C82" t="s">
         <v>171</v>
       </c>
@@ -3909,7 +3921,7 @@
     </row>
     <row r="83" spans="1:7" ht="17.25" thickBot="1">
       <c r="A83" s="22"/>
-      <c r="B83" s="29"/>
+      <c r="B83" s="26"/>
       <c r="C83" t="s">
         <v>172</v>
       </c>
@@ -3919,7 +3931,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="22"/>
-      <c r="B84" s="27" t="s">
+      <c r="B84" s="24" t="s">
         <v>173</v>
       </c>
       <c r="C84" t="s">
@@ -3931,7 +3943,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="22"/>
-      <c r="B85" s="28"/>
+      <c r="B85" s="25"/>
       <c r="C85" t="s">
         <v>144</v>
       </c>
@@ -3941,7 +3953,7 @@
     </row>
     <row r="86" spans="1:7" ht="17.25" thickBot="1">
       <c r="A86" s="22"/>
-      <c r="B86" s="29"/>
+      <c r="B86" s="26"/>
       <c r="C86" t="s">
         <v>172</v>
       </c>
@@ -3951,7 +3963,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="22"/>
-      <c r="B87" s="27" t="s">
+      <c r="B87" s="24" t="s">
         <v>123</v>
       </c>
       <c r="C87" t="s">
@@ -3963,7 +3975,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="22"/>
-      <c r="B88" s="28"/>
+      <c r="B88" s="25"/>
       <c r="C88" t="s">
         <v>138</v>
       </c>
@@ -3973,7 +3985,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="22"/>
-      <c r="B89" s="28"/>
+      <c r="B89" s="25"/>
       <c r="C89" t="s">
         <v>161</v>
       </c>
@@ -3983,7 +3995,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="22"/>
-      <c r="B90" s="28"/>
+      <c r="B90" s="25"/>
       <c r="C90" t="s">
         <v>84</v>
       </c>
@@ -3993,7 +4005,7 @@
     </row>
     <row r="91" spans="1:7" ht="17.25" thickBot="1">
       <c r="A91" s="22"/>
-      <c r="B91" s="29"/>
+      <c r="B91" s="26"/>
       <c r="C91" t="s">
         <v>172</v>
       </c>
@@ -4003,7 +4015,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="22"/>
-      <c r="B92" s="27" t="s">
+      <c r="B92" s="24" t="s">
         <v>175</v>
       </c>
       <c r="C92" t="s">
@@ -4018,7 +4030,7 @@
     </row>
     <row r="93" spans="1:7" ht="17.25" thickBot="1">
       <c r="A93" s="22"/>
-      <c r="B93" s="29"/>
+      <c r="B93" s="26"/>
       <c r="C93" t="s">
         <v>138</v>
       </c>
@@ -4031,7 +4043,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="22"/>
-      <c r="B94" s="27" t="s">
+      <c r="B94" s="24" t="s">
         <v>177</v>
       </c>
       <c r="C94" t="s">
@@ -4046,7 +4058,7 @@
     </row>
     <row r="95" spans="1:7" ht="17.25" thickBot="1">
       <c r="A95" s="22"/>
-      <c r="B95" s="29"/>
+      <c r="B95" s="26"/>
       <c r="C95" t="s">
         <v>84</v>
       </c>
@@ -4059,10 +4071,10 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="22"/>
-      <c r="B96" s="27" t="s">
+      <c r="B96" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="C96" s="30" t="s">
+      <c r="C96" s="27" t="s">
         <v>141</v>
       </c>
       <c r="D96" t="s">
@@ -4074,8 +4086,8 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="22"/>
-      <c r="B97" s="28"/>
-      <c r="C97" s="32"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="28"/>
       <c r="D97" t="s">
         <v>178</v>
       </c>
@@ -4085,8 +4097,8 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="22"/>
-      <c r="B98" s="28"/>
-      <c r="C98" s="32"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="28"/>
       <c r="D98" t="s">
         <v>179</v>
       </c>
@@ -4096,8 +4108,8 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="22"/>
-      <c r="B99" s="28"/>
-      <c r="C99" s="32"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="28"/>
       <c r="D99" t="s">
         <v>180</v>
       </c>
@@ -4107,8 +4119,8 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="22"/>
-      <c r="B100" s="28"/>
-      <c r="C100" s="32"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="28"/>
       <c r="D100" t="s">
         <v>181</v>
       </c>
@@ -4118,8 +4130,8 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="22"/>
-      <c r="B101" s="28"/>
-      <c r="C101" s="32"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="28"/>
       <c r="D101" t="s">
         <v>182</v>
       </c>
@@ -4129,8 +4141,8 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="22"/>
-      <c r="B102" s="28"/>
-      <c r="C102" s="32"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="28"/>
       <c r="D102" t="s">
         <v>183</v>
       </c>
@@ -4140,8 +4152,8 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="22"/>
-      <c r="B103" s="28"/>
-      <c r="C103" s="32"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="28"/>
       <c r="D103" t="s">
         <v>184</v>
       </c>
@@ -4151,8 +4163,8 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="22"/>
-      <c r="B104" s="28"/>
-      <c r="C104" s="32"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="28"/>
       <c r="D104" t="s">
         <v>185</v>
       </c>
@@ -4162,8 +4174,8 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="22"/>
-      <c r="B105" s="28"/>
-      <c r="C105" s="32"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="28"/>
       <c r="D105" t="s">
         <v>186</v>
       </c>
@@ -4173,8 +4185,8 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="22"/>
-      <c r="B106" s="28"/>
-      <c r="C106" s="32"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="28"/>
       <c r="D106" t="s">
         <v>187</v>
       </c>
@@ -4184,8 +4196,8 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="22"/>
-      <c r="B107" s="28"/>
-      <c r="C107" s="32"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="28"/>
       <c r="D107" t="s">
         <v>188</v>
       </c>
@@ -4195,8 +4207,8 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="22"/>
-      <c r="B108" s="28"/>
-      <c r="C108" s="32"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="28"/>
       <c r="D108" t="s">
         <v>189</v>
       </c>
@@ -4206,8 +4218,8 @@
     </row>
     <row r="109" spans="1:6" ht="17.25" thickBot="1">
       <c r="A109" s="22"/>
-      <c r="B109" s="28"/>
-      <c r="C109" s="31"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="29"/>
       <c r="D109" t="s">
         <v>190</v>
       </c>
@@ -4217,7 +4229,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="22"/>
-      <c r="B110" s="28"/>
+      <c r="B110" s="25"/>
       <c r="C110" t="s">
         <v>138</v>
       </c>
@@ -4227,7 +4239,7 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="22"/>
-      <c r="B111" s="28"/>
+      <c r="B111" s="25"/>
       <c r="C111" t="s">
         <v>161</v>
       </c>
@@ -4237,7 +4249,7 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="22"/>
-      <c r="B112" s="28"/>
+      <c r="B112" s="25"/>
       <c r="C112" t="s">
         <v>191</v>
       </c>
@@ -4247,7 +4259,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="22"/>
-      <c r="B113" s="28"/>
+      <c r="B113" s="25"/>
       <c r="C113" t="s">
         <v>143</v>
       </c>
@@ -4257,7 +4269,7 @@
     </row>
     <row r="114" spans="1:7" ht="17.25" thickBot="1">
       <c r="A114" s="22"/>
-      <c r="B114" s="29"/>
+      <c r="B114" s="26"/>
       <c r="C114" t="s">
         <v>192</v>
       </c>
@@ -4432,7 +4444,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:7">
       <c r="A129" s="22"/>
       <c r="B129" t="s">
         <v>205</v>
@@ -4441,7 +4453,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:7">
       <c r="A130" s="22"/>
       <c r="B130" t="s">
         <v>206</v>
@@ -4449,8 +4461,11 @@
       <c r="F130" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="131" spans="1:6">
+      <c r="G130" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" s="22"/>
       <c r="B131" t="s">
         <v>136</v>
@@ -4459,7 +4474,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:7">
       <c r="A132" s="22"/>
       <c r="B132" t="s">
         <v>209</v>
@@ -4467,8 +4482,11 @@
       <c r="F132" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="133" spans="1:6">
+      <c r="G132" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" s="22"/>
       <c r="B133" t="s">
         <v>208</v>
@@ -4476,8 +4494,11 @@
       <c r="F133" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="134" spans="1:6">
+      <c r="G133" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" s="22"/>
       <c r="B134" t="s">
         <v>158</v>
@@ -4486,7 +4507,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:7">
       <c r="A135" s="22"/>
       <c r="B135" t="s">
         <v>140</v>
@@ -4495,7 +4516,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:7">
       <c r="A136" s="22"/>
       <c r="B136" t="s">
         <v>210</v>
@@ -4503,8 +4524,11 @@
       <c r="F136" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="137" spans="1:6">
+      <c r="G136" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" s="22"/>
       <c r="B137" t="s">
         <v>211</v>
@@ -4512,8 +4536,11 @@
       <c r="F137" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="138" spans="1:6">
+      <c r="G137" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" s="22"/>
       <c r="B138" t="s">
         <v>137</v>
@@ -4522,7 +4549,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:7">
       <c r="A139" s="22"/>
       <c r="B139" t="s">
         <v>212</v>
@@ -4530,8 +4557,11 @@
       <c r="F139" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="140" spans="1:6">
+      <c r="G139" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" s="22"/>
       <c r="B140" t="s">
         <v>213</v>
@@ -4540,7 +4570,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:7">
       <c r="A141" s="22"/>
       <c r="B141" t="s">
         <v>159</v>
@@ -4549,7 +4579,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:7">
       <c r="A142" s="22"/>
       <c r="B142" t="s">
         <v>138</v>
@@ -4558,7 +4588,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:7">
       <c r="A143" s="22"/>
       <c r="B143" t="s">
         <v>214</v>
@@ -4567,7 +4597,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:7">
       <c r="A144" s="22"/>
       <c r="B144" t="s">
         <v>148</v>
@@ -4576,7 +4606,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:7">
       <c r="A145" s="22"/>
       <c r="B145" t="s">
         <v>193</v>
@@ -4584,8 +4614,11 @@
       <c r="F145" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="146" spans="1:6">
+      <c r="G145" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" s="22"/>
       <c r="B146" t="s">
         <v>160</v>
@@ -4594,7 +4627,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:7">
       <c r="A147" s="22"/>
       <c r="B147" t="s">
         <v>155</v>
@@ -4603,7 +4636,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:7">
       <c r="A148" s="22"/>
       <c r="B148" t="s">
         <v>161</v>
@@ -4611,8 +4644,11 @@
       <c r="F148" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="149" spans="1:6">
+      <c r="G148" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" s="22"/>
       <c r="B149" t="s">
         <v>215</v>
@@ -4621,7 +4657,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:7">
       <c r="A150" s="22"/>
       <c r="B150" t="s">
         <v>194</v>
@@ -4629,8 +4665,11 @@
       <c r="F150" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="151" spans="1:6">
+      <c r="G150" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" s="22"/>
       <c r="B151" t="s">
         <v>216</v>
@@ -4638,8 +4677,11 @@
       <c r="F151" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="152" spans="1:6">
+      <c r="G151" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" s="22"/>
       <c r="B152" t="s">
         <v>152</v>
@@ -4648,7 +4690,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:7">
       <c r="A153" s="22"/>
       <c r="B153" t="s">
         <v>93</v>
@@ -4657,7 +4699,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:7">
       <c r="A154" s="22"/>
       <c r="B154" t="s">
         <v>217</v>
@@ -4665,8 +4707,11 @@
       <c r="F154" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="155" spans="1:6">
+      <c r="G154" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" s="22"/>
       <c r="B155" t="s">
         <v>195</v>
@@ -4675,7 +4720,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:7">
       <c r="A156" s="22"/>
       <c r="B156" t="s">
         <v>130</v>
@@ -4684,7 +4729,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:7">
       <c r="A157" s="22"/>
       <c r="B157" t="s">
         <v>154</v>
@@ -4693,7 +4738,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:7">
       <c r="A158" s="22"/>
       <c r="B158" t="s">
         <v>169</v>
@@ -4702,7 +4747,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:7">
       <c r="A159" s="22"/>
       <c r="B159" t="s">
         <v>218</v>
@@ -4710,8 +4755,11 @@
       <c r="F159" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="160" spans="1:6">
+      <c r="G159" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" s="22"/>
       <c r="B160" t="s">
         <v>219</v>
@@ -4719,8 +4767,11 @@
       <c r="F160" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="161" spans="1:6">
+      <c r="G160" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161" s="22"/>
       <c r="B161" t="s">
         <v>220</v>
@@ -4729,7 +4780,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:7">
       <c r="A162" s="22"/>
       <c r="B162" t="s">
         <v>170</v>
@@ -4738,7 +4789,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:7">
       <c r="A163" s="22"/>
       <c r="B163" t="s">
         <v>221</v>
@@ -4746,8 +4797,11 @@
       <c r="F163" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="164" spans="1:6">
+      <c r="G163" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164" s="22"/>
       <c r="B164" t="s">
         <v>222</v>
@@ -4755,8 +4809,11 @@
       <c r="F164" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="165" spans="1:6">
+      <c r="G164" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165" s="22"/>
       <c r="B165" t="s">
         <v>192</v>
@@ -4765,7 +4822,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:7">
       <c r="A166" s="22"/>
       <c r="B166" t="s">
         <v>199</v>
@@ -4774,7 +4831,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:7">
       <c r="A167" s="22"/>
       <c r="B167" t="s">
         <v>200</v>
@@ -4782,8 +4839,11 @@
       <c r="F167" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="168" spans="1:6">
+      <c r="G167" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168" s="22"/>
       <c r="B168" t="s">
         <v>201</v>
@@ -4792,7 +4852,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:7">
       <c r="A169" s="22"/>
       <c r="B169" t="s">
         <v>131</v>
@@ -4801,7 +4861,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:7">
       <c r="A170" s="22"/>
       <c r="B170" t="s">
         <v>165</v>
@@ -4810,7 +4870,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:7">
       <c r="A171" s="22"/>
       <c r="B171" t="s">
         <v>223</v>
@@ -4819,7 +4879,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:7">
       <c r="A172" s="22"/>
       <c r="B172" t="s">
         <v>173</v>
@@ -4828,7 +4888,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:7">
       <c r="A173" s="22"/>
       <c r="B173" t="s">
         <v>224</v>
@@ -4836,8 +4896,11 @@
       <c r="F173" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="174" spans="1:6">
+      <c r="G173" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174" s="22"/>
       <c r="B174" t="s">
         <v>225</v>
@@ -4845,8 +4908,11 @@
       <c r="F174" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="175" spans="1:6">
+      <c r="G174" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175" s="22"/>
       <c r="B175" t="s">
         <v>226</v>
@@ -4855,7 +4921,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:7">
       <c r="A176" s="22"/>
       <c r="B176" t="s">
         <v>133</v>
@@ -4908,6 +4974,9 @@
       <c r="F181" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="G181" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="22"/>
@@ -4917,6 +4986,9 @@
       <c r="F182" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="G182" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="22"/>
@@ -4956,6 +5028,9 @@
       <c r="F186" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="G186" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="22"/>
@@ -4965,6 +5040,9 @@
       <c r="F187" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="G187" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="22"/>
@@ -4988,10 +5066,10 @@
       <c r="A190" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="B190" s="27" t="s">
+      <c r="B190" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="C190" s="30" t="s">
+      <c r="C190" s="27" t="s">
         <v>232</v>
       </c>
       <c r="D190" t="s">
@@ -5003,8 +5081,8 @@
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="22"/>
-      <c r="B191" s="28"/>
-      <c r="C191" s="32"/>
+      <c r="B191" s="25"/>
+      <c r="C191" s="28"/>
       <c r="D191" t="s">
         <v>234</v>
       </c>
@@ -5014,8 +5092,8 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="22"/>
-      <c r="B192" s="28"/>
-      <c r="C192" s="32"/>
+      <c r="B192" s="25"/>
+      <c r="C192" s="28"/>
       <c r="D192" t="s">
         <v>235</v>
       </c>
@@ -5025,8 +5103,8 @@
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="22"/>
-      <c r="B193" s="28"/>
-      <c r="C193" s="32"/>
+      <c r="B193" s="25"/>
+      <c r="C193" s="28"/>
       <c r="D193" t="s">
         <v>236</v>
       </c>
@@ -5036,8 +5114,8 @@
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="22"/>
-      <c r="B194" s="28"/>
-      <c r="C194" s="32"/>
+      <c r="B194" s="25"/>
+      <c r="C194" s="28"/>
       <c r="D194" t="s">
         <v>237</v>
       </c>
@@ -5047,8 +5125,8 @@
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="22"/>
-      <c r="B195" s="28"/>
-      <c r="C195" s="32"/>
+      <c r="B195" s="25"/>
+      <c r="C195" s="28"/>
       <c r="D195" t="s">
         <v>238</v>
       </c>
@@ -5058,8 +5136,8 @@
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="22"/>
-      <c r="B196" s="28"/>
-      <c r="C196" s="32"/>
+      <c r="B196" s="25"/>
+      <c r="C196" s="28"/>
       <c r="D196" t="s">
         <v>221</v>
       </c>
@@ -5069,8 +5147,8 @@
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="22"/>
-      <c r="B197" s="28"/>
-      <c r="C197" s="32"/>
+      <c r="B197" s="25"/>
+      <c r="C197" s="28"/>
       <c r="D197" t="s">
         <v>239</v>
       </c>
@@ -5080,8 +5158,8 @@
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="22"/>
-      <c r="B198" s="28"/>
-      <c r="C198" s="32"/>
+      <c r="B198" s="25"/>
+      <c r="C198" s="28"/>
       <c r="D198" t="s">
         <v>240</v>
       </c>
@@ -5091,8 +5169,8 @@
     </row>
     <row r="199" spans="1:7" ht="17.25" thickBot="1">
       <c r="A199" s="22"/>
-      <c r="B199" s="28"/>
-      <c r="C199" s="31"/>
+      <c r="B199" s="25"/>
+      <c r="C199" s="29"/>
       <c r="D199" t="s">
         <v>241</v>
       </c>
@@ -5102,7 +5180,7 @@
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="22"/>
-      <c r="B200" s="28"/>
+      <c r="B200" s="25"/>
       <c r="C200" t="s">
         <v>242</v>
       </c>
@@ -5112,7 +5190,7 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="22"/>
-      <c r="B201" s="28"/>
+      <c r="B201" s="25"/>
       <c r="C201" t="s">
         <v>84</v>
       </c>
@@ -5122,7 +5200,7 @@
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="22"/>
-      <c r="B202" s="28"/>
+      <c r="B202" s="25"/>
       <c r="C202" t="s">
         <v>243</v>
       </c>
@@ -5132,7 +5210,7 @@
     </row>
     <row r="203" spans="1:7" ht="17.25" thickBot="1">
       <c r="A203" s="22"/>
-      <c r="B203" s="29"/>
+      <c r="B203" s="26"/>
       <c r="C203" t="s">
         <v>244</v>
       </c>
@@ -5142,10 +5220,10 @@
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="22"/>
-      <c r="B204" s="27" t="s">
+      <c r="B204" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="C204" s="30" t="s">
+      <c r="C204" s="27" t="s">
         <v>218</v>
       </c>
       <c r="D204" t="s">
@@ -5160,8 +5238,8 @@
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="22"/>
-      <c r="B205" s="28"/>
-      <c r="C205" s="32"/>
+      <c r="B205" s="25"/>
+      <c r="C205" s="28"/>
       <c r="D205" t="s">
         <v>246</v>
       </c>
@@ -5174,8 +5252,8 @@
     </row>
     <row r="206" spans="1:7" ht="17.25" thickBot="1">
       <c r="A206" s="22"/>
-      <c r="B206" s="28"/>
-      <c r="C206" s="31"/>
+      <c r="B206" s="25"/>
+      <c r="C206" s="29"/>
       <c r="D206" t="s">
         <v>221</v>
       </c>
@@ -5188,7 +5266,7 @@
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="22"/>
-      <c r="B207" s="28"/>
+      <c r="B207" s="25"/>
       <c r="C207" t="s">
         <v>206</v>
       </c>
@@ -5201,7 +5279,7 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="22"/>
-      <c r="B208" s="28"/>
+      <c r="B208" s="25"/>
       <c r="C208" t="s">
         <v>224</v>
       </c>
@@ -5214,7 +5292,7 @@
     </row>
     <row r="209" spans="1:7" ht="17.25" thickBot="1">
       <c r="A209" s="22"/>
-      <c r="B209" s="29"/>
+      <c r="B209" s="26"/>
       <c r="C209" t="s">
         <v>228</v>
       </c>
@@ -5441,17 +5519,19 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="A128:A189"/>
-    <mergeCell ref="A190:A223"/>
-    <mergeCell ref="B190:B203"/>
-    <mergeCell ref="B204:B209"/>
-    <mergeCell ref="C190:C199"/>
-    <mergeCell ref="C204:C206"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B114"/>
+    <mergeCell ref="A1:A46"/>
+    <mergeCell ref="B1:B9"/>
+    <mergeCell ref="B10:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A47:A127"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B78"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B84:B86"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="C96:C109"/>
@@ -5461,19 +5541,17 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A47:A127"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B78"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="A1:A46"/>
-    <mergeCell ref="B1:B9"/>
-    <mergeCell ref="B10:B23"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C190:C199"/>
+    <mergeCell ref="C204:C206"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B114"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="A128:A189"/>
+    <mergeCell ref="A190:A223"/>
+    <mergeCell ref="B190:B203"/>
+    <mergeCell ref="B204:B209"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/開發文件.xlsx
+++ b/docs/開發文件.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\YDWE1.25.10\Creation\Mod\The_Tilted_Clock_Tower\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DDB563-ED56-4CDD-BCF2-13EA8A7AB4EE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490377DC-7CAA-47E2-8B00-F702BEA86CE6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12765" activeTab="1" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="266">
   <si>
     <r>
       <rPr>
@@ -1281,6 +1281,10 @@
   </si>
   <si>
     <t>region</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1615,6 +1619,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1627,10 +1640,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1640,15 +1653,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2016,7 +2020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75">
+    <row r="2" spans="1:9" ht="19.5">
       <c r="A2" s="17" t="s">
         <v>77</v>
       </c>
@@ -2970,8 +2974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29018229-9EAF-4726-88C6-5A87070EDF6C}">
   <dimension ref="A1:G227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="G145" sqref="G145"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="G178" sqref="G178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2988,7 +2992,7 @@
       <c r="A1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="24" t="s">
         <v>83</v>
       </c>
       <c r="C1" t="s">
@@ -3000,7 +3004,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="22"/>
-      <c r="B2" s="34"/>
+      <c r="B2" s="25"/>
       <c r="C2" t="s">
         <v>85</v>
       </c>
@@ -3010,7 +3014,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="22"/>
-      <c r="B3" s="34"/>
+      <c r="B3" s="25"/>
       <c r="C3" t="s">
         <v>86</v>
       </c>
@@ -3020,7 +3024,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="22"/>
-      <c r="B4" s="34"/>
+      <c r="B4" s="25"/>
       <c r="C4" t="s">
         <v>87</v>
       </c>
@@ -3030,7 +3034,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="22"/>
-      <c r="B5" s="34"/>
+      <c r="B5" s="25"/>
       <c r="C5" t="s">
         <v>88</v>
       </c>
@@ -3040,7 +3044,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="22"/>
-      <c r="B6" s="34"/>
+      <c r="B6" s="25"/>
       <c r="C6" t="s">
         <v>89</v>
       </c>
@@ -3050,7 +3054,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="22"/>
-      <c r="B7" s="34"/>
+      <c r="B7" s="25"/>
       <c r="C7" t="s">
         <v>90</v>
       </c>
@@ -3060,7 +3064,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="22"/>
-      <c r="B8" s="34"/>
+      <c r="B8" s="25"/>
       <c r="C8" t="s">
         <v>91</v>
       </c>
@@ -3070,7 +3074,7 @@
     </row>
     <row r="9" spans="1:6" ht="17.25" thickBot="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="35"/>
+      <c r="B9" s="26"/>
       <c r="C9" t="s">
         <v>92</v>
       </c>
@@ -3080,13 +3084,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="22"/>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="33" t="s">
         <v>95</v>
       </c>
       <c r="E10" t="s">
@@ -3098,9 +3102,9 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="22"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="34"/>
       <c r="E11" t="s">
         <v>97</v>
       </c>
@@ -3110,9 +3114,9 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="22"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="31"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="34"/>
       <c r="E12" t="s">
         <v>98</v>
       </c>
@@ -3122,9 +3126,9 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="22"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="34"/>
       <c r="E13" t="s">
         <v>99</v>
       </c>
@@ -3134,9 +3138,9 @@
     </row>
     <row r="14" spans="1:6" ht="17.25" thickBot="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="32"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="35"/>
       <c r="E14" t="s">
         <v>100</v>
       </c>
@@ -3146,9 +3150,9 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="22"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="30" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33" t="s">
         <v>101</v>
       </c>
       <c r="E15" t="s">
@@ -3160,9 +3164,9 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="22"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="31"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="34"/>
       <c r="E16" t="s">
         <v>103</v>
       </c>
@@ -3172,9 +3176,9 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="22"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="31"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="34"/>
       <c r="E17" t="s">
         <v>104</v>
       </c>
@@ -3184,9 +3188,9 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="22"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="31"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="34"/>
       <c r="E18" t="s">
         <v>105</v>
       </c>
@@ -3196,9 +3200,9 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="31"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="34"/>
       <c r="E19" t="s">
         <v>106</v>
       </c>
@@ -3208,9 +3212,9 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="22"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="31"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="34"/>
       <c r="E20" t="s">
         <v>107</v>
       </c>
@@ -3220,9 +3224,9 @@
     </row>
     <row r="21" spans="1:6" ht="17.25" thickBot="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="32"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="35"/>
       <c r="E21" t="s">
         <v>108</v>
       </c>
@@ -3232,7 +3236,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="22"/>
-      <c r="B22" s="34"/>
+      <c r="B22" s="25"/>
       <c r="C22" t="s">
         <v>109</v>
       </c>
@@ -3242,7 +3246,7 @@
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="35"/>
+      <c r="B23" s="26"/>
       <c r="C23" t="s">
         <v>84</v>
       </c>
@@ -3252,7 +3256,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="22"/>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="27" t="s">
         <v>110</v>
       </c>
       <c r="C24" t="s">
@@ -3264,7 +3268,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="22"/>
-      <c r="B25" s="25"/>
+      <c r="B25" s="28"/>
       <c r="C25" t="s">
         <v>111</v>
       </c>
@@ -3274,7 +3278,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="22"/>
-      <c r="B26" s="25"/>
+      <c r="B26" s="28"/>
       <c r="C26" t="s">
         <v>112</v>
       </c>
@@ -3284,7 +3288,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="22"/>
-      <c r="B27" s="25"/>
+      <c r="B27" s="28"/>
       <c r="C27" t="s">
         <v>113</v>
       </c>
@@ -3294,7 +3298,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="22"/>
-      <c r="B28" s="25"/>
+      <c r="B28" s="28"/>
       <c r="C28" t="s">
         <v>114</v>
       </c>
@@ -3304,7 +3308,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="22"/>
-      <c r="B29" s="25"/>
+      <c r="B29" s="28"/>
       <c r="C29" t="s">
         <v>115</v>
       </c>
@@ -3314,7 +3318,7 @@
     </row>
     <row r="30" spans="1:6" ht="17.25" thickBot="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="26"/>
+      <c r="B30" s="29"/>
       <c r="C30" t="s">
         <v>116</v>
       </c>
@@ -3324,10 +3328,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="22"/>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="30" t="s">
         <v>118</v>
       </c>
       <c r="D31" t="s">
@@ -3339,8 +3343,8 @@
     </row>
     <row r="32" spans="1:6" ht="17.25" thickBot="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="29"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="31"/>
       <c r="D32" t="s">
         <v>120</v>
       </c>
@@ -3350,8 +3354,8 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="22"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="27" t="s">
+      <c r="B33" s="28"/>
+      <c r="C33" s="30" t="s">
         <v>121</v>
       </c>
       <c r="D33" t="s">
@@ -3363,8 +3367,8 @@
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1">
       <c r="A34" s="22"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="29"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="31"/>
       <c r="D34" t="s">
         <v>123</v>
       </c>
@@ -3374,8 +3378,8 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="22"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="27" t="s">
+      <c r="B35" s="28"/>
+      <c r="C35" s="30" t="s">
         <v>124</v>
       </c>
       <c r="D35" t="s">
@@ -3387,8 +3391,8 @@
     </row>
     <row r="36" spans="1:7" ht="17.25" thickBot="1">
       <c r="A36" s="22"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="31"/>
       <c r="D36" t="s">
         <v>123</v>
       </c>
@@ -3490,7 +3494,7 @@
       <c r="A47" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="27" t="s">
         <v>136</v>
       </c>
       <c r="C47" t="s">
@@ -3505,7 +3509,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="22"/>
-      <c r="B48" s="25"/>
+      <c r="B48" s="28"/>
       <c r="C48" t="s">
         <v>138</v>
       </c>
@@ -3518,7 +3522,7 @@
     </row>
     <row r="49" spans="1:7" ht="17.25" thickBot="1">
       <c r="A49" s="22"/>
-      <c r="B49" s="26"/>
+      <c r="B49" s="29"/>
       <c r="C49" t="s">
         <v>139</v>
       </c>
@@ -3531,10 +3535,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="22"/>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="30" t="s">
         <v>141</v>
       </c>
       <c r="D50" t="s">
@@ -3549,8 +3553,8 @@
     </row>
     <row r="51" spans="1:7" ht="17.25" thickBot="1">
       <c r="A51" s="22"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="29"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="31"/>
       <c r="D51" t="s">
         <v>142</v>
       </c>
@@ -3563,7 +3567,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="22"/>
-      <c r="B52" s="25"/>
+      <c r="B52" s="28"/>
       <c r="C52" t="s">
         <v>138</v>
       </c>
@@ -3576,7 +3580,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="22"/>
-      <c r="B53" s="25"/>
+      <c r="B53" s="28"/>
       <c r="C53" t="s">
         <v>84</v>
       </c>
@@ -3589,7 +3593,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="22"/>
-      <c r="B54" s="25"/>
+      <c r="B54" s="28"/>
       <c r="C54" t="s">
         <v>143</v>
       </c>
@@ -3602,7 +3606,7 @@
     </row>
     <row r="55" spans="1:7" ht="17.25" thickBot="1">
       <c r="A55" s="22"/>
-      <c r="B55" s="26"/>
+      <c r="B55" s="29"/>
       <c r="C55" t="s">
         <v>144</v>
       </c>
@@ -3615,7 +3619,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="22"/>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="27" t="s">
         <v>145</v>
       </c>
       <c r="C56" t="s">
@@ -3630,7 +3634,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="22"/>
-      <c r="B57" s="25"/>
+      <c r="B57" s="28"/>
       <c r="C57" t="s">
         <v>147</v>
       </c>
@@ -3643,7 +3647,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="22"/>
-      <c r="B58" s="25"/>
+      <c r="B58" s="28"/>
       <c r="C58" t="s">
         <v>148</v>
       </c>
@@ -3656,7 +3660,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="22"/>
-      <c r="B59" s="25"/>
+      <c r="B59" s="28"/>
       <c r="C59" t="s">
         <v>149</v>
       </c>
@@ -3669,7 +3673,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="22"/>
-      <c r="B60" s="25"/>
+      <c r="B60" s="28"/>
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -3682,7 +3686,7 @@
     </row>
     <row r="61" spans="1:7" ht="17.25" thickBot="1">
       <c r="A61" s="22"/>
-      <c r="B61" s="26"/>
+      <c r="B61" s="29"/>
       <c r="C61" t="s">
         <v>151</v>
       </c>
@@ -3695,7 +3699,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="22"/>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="27" t="s">
         <v>152</v>
       </c>
       <c r="C62" t="s">
@@ -3710,7 +3714,7 @@
     </row>
     <row r="63" spans="1:7" ht="17.25" thickBot="1">
       <c r="A63" s="22"/>
-      <c r="B63" s="26"/>
+      <c r="B63" s="29"/>
       <c r="C63" t="s">
         <v>138</v>
       </c>
@@ -3723,10 +3727,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="22"/>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="30" t="s">
         <v>155</v>
       </c>
       <c r="D64" t="s">
@@ -3738,8 +3742,8 @@
     </row>
     <row r="65" spans="1:6" ht="17.25" thickBot="1">
       <c r="A65" s="22"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="29"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="31"/>
       <c r="D65" t="s">
         <v>156</v>
       </c>
@@ -3749,7 +3753,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="22"/>
-      <c r="B66" s="25"/>
+      <c r="B66" s="28"/>
       <c r="C66" t="s">
         <v>157</v>
       </c>
@@ -3759,7 +3763,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="22"/>
-      <c r="B67" s="25"/>
+      <c r="B67" s="28"/>
       <c r="C67" t="s">
         <v>158</v>
       </c>
@@ -3769,7 +3773,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="22"/>
-      <c r="B68" s="25"/>
+      <c r="B68" s="28"/>
       <c r="C68" t="s">
         <v>159</v>
       </c>
@@ -3779,7 +3783,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="22"/>
-      <c r="B69" s="25"/>
+      <c r="B69" s="28"/>
       <c r="C69" t="s">
         <v>138</v>
       </c>
@@ -3789,7 +3793,7 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="22"/>
-      <c r="B70" s="25"/>
+      <c r="B70" s="28"/>
       <c r="C70" t="s">
         <v>160</v>
       </c>
@@ -3799,7 +3803,7 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="22"/>
-      <c r="B71" s="25"/>
+      <c r="B71" s="28"/>
       <c r="C71" t="s">
         <v>161</v>
       </c>
@@ -3809,7 +3813,7 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="22"/>
-      <c r="B72" s="25"/>
+      <c r="B72" s="28"/>
       <c r="C72" t="s">
         <v>162</v>
       </c>
@@ -3819,7 +3823,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="22"/>
-      <c r="B73" s="25"/>
+      <c r="B73" s="28"/>
       <c r="C73" t="s">
         <v>84</v>
       </c>
@@ -3829,7 +3833,7 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="22"/>
-      <c r="B74" s="25"/>
+      <c r="B74" s="28"/>
       <c r="C74" t="s">
         <v>163</v>
       </c>
@@ -3839,7 +3843,7 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="22"/>
-      <c r="B75" s="25"/>
+      <c r="B75" s="28"/>
       <c r="C75" t="s">
         <v>164</v>
       </c>
@@ -3849,7 +3853,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="22"/>
-      <c r="B76" s="25"/>
+      <c r="B76" s="28"/>
       <c r="C76" t="s">
         <v>165</v>
       </c>
@@ -3859,7 +3863,7 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="22"/>
-      <c r="B77" s="25"/>
+      <c r="B77" s="28"/>
       <c r="C77" t="s">
         <v>166</v>
       </c>
@@ -3869,7 +3873,7 @@
     </row>
     <row r="78" spans="1:6" ht="17.25" thickBot="1">
       <c r="A78" s="22"/>
-      <c r="B78" s="26"/>
+      <c r="B78" s="29"/>
       <c r="C78" t="s">
         <v>167</v>
       </c>
@@ -3879,7 +3883,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="22"/>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="27" t="s">
         <v>168</v>
       </c>
       <c r="C79" t="s">
@@ -3891,7 +3895,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="22"/>
-      <c r="B80" s="25"/>
+      <c r="B80" s="28"/>
       <c r="C80" t="s">
         <v>169</v>
       </c>
@@ -3901,7 +3905,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="22"/>
-      <c r="B81" s="25"/>
+      <c r="B81" s="28"/>
       <c r="C81" t="s">
         <v>170</v>
       </c>
@@ -3911,7 +3915,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="22"/>
-      <c r="B82" s="25"/>
+      <c r="B82" s="28"/>
       <c r="C82" t="s">
         <v>171</v>
       </c>
@@ -3921,7 +3925,7 @@
     </row>
     <row r="83" spans="1:7" ht="17.25" thickBot="1">
       <c r="A83" s="22"/>
-      <c r="B83" s="26"/>
+      <c r="B83" s="29"/>
       <c r="C83" t="s">
         <v>172</v>
       </c>
@@ -3931,7 +3935,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="22"/>
-      <c r="B84" s="24" t="s">
+      <c r="B84" s="27" t="s">
         <v>173</v>
       </c>
       <c r="C84" t="s">
@@ -3940,20 +3944,26 @@
       <c r="F84" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="G84" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="22"/>
-      <c r="B85" s="25"/>
+      <c r="B85" s="28"/>
       <c r="C85" t="s">
         <v>144</v>
       </c>
       <c r="F85" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="G85" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="86" spans="1:7" ht="17.25" thickBot="1">
       <c r="A86" s="22"/>
-      <c r="B86" s="26"/>
+      <c r="B86" s="29"/>
       <c r="C86" t="s">
         <v>172</v>
       </c>
@@ -3963,7 +3973,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="22"/>
-      <c r="B87" s="24" t="s">
+      <c r="B87" s="27" t="s">
         <v>123</v>
       </c>
       <c r="C87" t="s">
@@ -3972,50 +3982,65 @@
       <c r="F87" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="G87" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="22"/>
-      <c r="B88" s="25"/>
+      <c r="B88" s="28"/>
       <c r="C88" t="s">
         <v>138</v>
       </c>
       <c r="F88" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="G88" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="22"/>
-      <c r="B89" s="25"/>
+      <c r="B89" s="28"/>
       <c r="C89" t="s">
         <v>161</v>
       </c>
       <c r="F89" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="G89" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="22"/>
-      <c r="B90" s="25"/>
+      <c r="B90" s="28"/>
       <c r="C90" t="s">
         <v>84</v>
       </c>
       <c r="F90" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="G90" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="91" spans="1:7" ht="17.25" thickBot="1">
       <c r="A91" s="22"/>
-      <c r="B91" s="26"/>
+      <c r="B91" s="29"/>
       <c r="C91" t="s">
         <v>172</v>
       </c>
       <c r="F91" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="G91" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="22"/>
-      <c r="B92" s="24" t="s">
+      <c r="B92" s="27" t="s">
         <v>175</v>
       </c>
       <c r="C92" t="s">
@@ -4030,7 +4055,7 @@
     </row>
     <row r="93" spans="1:7" ht="17.25" thickBot="1">
       <c r="A93" s="22"/>
-      <c r="B93" s="26"/>
+      <c r="B93" s="29"/>
       <c r="C93" t="s">
         <v>138</v>
       </c>
@@ -4043,7 +4068,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="22"/>
-      <c r="B94" s="24" t="s">
+      <c r="B94" s="27" t="s">
         <v>177</v>
       </c>
       <c r="C94" t="s">
@@ -4058,7 +4083,7 @@
     </row>
     <row r="95" spans="1:7" ht="17.25" thickBot="1">
       <c r="A95" s="22"/>
-      <c r="B95" s="26"/>
+      <c r="B95" s="29"/>
       <c r="C95" t="s">
         <v>84</v>
       </c>
@@ -4071,10 +4096,10 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="22"/>
-      <c r="B96" s="24" t="s">
+      <c r="B96" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C96" s="27" t="s">
+      <c r="C96" s="30" t="s">
         <v>141</v>
       </c>
       <c r="D96" t="s">
@@ -4083,193 +4108,247 @@
       <c r="F96" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="22"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="28"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="32"/>
       <c r="D97" t="s">
         <v>178</v>
       </c>
       <c r="F97" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="22"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="28"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="32"/>
       <c r="D98" t="s">
         <v>179</v>
       </c>
       <c r="F98" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="G98" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="22"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="28"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="32"/>
       <c r="D99" t="s">
         <v>180</v>
       </c>
       <c r="F99" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="22"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="28"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="32"/>
       <c r="D100" t="s">
         <v>181</v>
       </c>
       <c r="F100" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="22"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="28"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="32"/>
       <c r="D101" t="s">
         <v>182</v>
       </c>
       <c r="F101" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="G101" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="22"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="28"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="32"/>
       <c r="D102" t="s">
         <v>183</v>
       </c>
       <c r="F102" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="22"/>
-      <c r="B103" s="25"/>
-      <c r="C103" s="28"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="32"/>
       <c r="D103" t="s">
         <v>184</v>
       </c>
       <c r="F103" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="22"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="28"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="32"/>
       <c r="D104" t="s">
         <v>185</v>
       </c>
       <c r="F104" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="G104" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="22"/>
-      <c r="B105" s="25"/>
-      <c r="C105" s="28"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="32"/>
       <c r="D105" t="s">
         <v>186</v>
       </c>
       <c r="F105" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="G105" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="22"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="28"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="32"/>
       <c r="D106" t="s">
         <v>187</v>
       </c>
       <c r="F106" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="G106" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="22"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="28"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="32"/>
       <c r="D107" t="s">
         <v>188</v>
       </c>
       <c r="F107" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="G107" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="22"/>
-      <c r="B108" s="25"/>
-      <c r="C108" s="28"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="32"/>
       <c r="D108" t="s">
         <v>189</v>
       </c>
       <c r="F108" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" ht="17.25" thickBot="1">
+      <c r="G108" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="17.25" thickBot="1">
       <c r="A109" s="22"/>
-      <c r="B109" s="25"/>
-      <c r="C109" s="29"/>
+      <c r="B109" s="28"/>
+      <c r="C109" s="31"/>
       <c r="D109" t="s">
         <v>190</v>
       </c>
       <c r="F109" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="G109" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="22"/>
-      <c r="B110" s="25"/>
+      <c r="B110" s="28"/>
       <c r="C110" t="s">
         <v>138</v>
       </c>
       <c r="F110" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="G110" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="22"/>
-      <c r="B111" s="25"/>
+      <c r="B111" s="28"/>
       <c r="C111" t="s">
         <v>161</v>
       </c>
       <c r="F111" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="G111" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="22"/>
-      <c r="B112" s="25"/>
+      <c r="B112" s="28"/>
       <c r="C112" t="s">
         <v>191</v>
       </c>
       <c r="F112" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="G112" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="22"/>
-      <c r="B113" s="25"/>
+      <c r="B113" s="28"/>
       <c r="C113" t="s">
         <v>143</v>
       </c>
       <c r="F113" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="G113" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="114" spans="1:7" ht="17.25" thickBot="1">
       <c r="A114" s="22"/>
-      <c r="B114" s="26"/>
+      <c r="B114" s="29"/>
       <c r="C114" t="s">
         <v>192</v>
       </c>
@@ -4452,6 +4531,9 @@
       <c r="F129" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="G129" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="22"/>
@@ -4473,6 +4555,9 @@
       <c r="F131" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="G131" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="22"/>
@@ -4548,6 +4633,9 @@
       <c r="F138" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="G138" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="22"/>
@@ -4569,6 +4657,9 @@
       <c r="F140" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="G140" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="22"/>
@@ -4689,14 +4780,20 @@
       <c r="F152" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="G152" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="22"/>
       <c r="B153" t="s">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c r="F153" s="11" t="s">
         <v>258</v>
+      </c>
+      <c r="G153" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4719,6 +4816,9 @@
       <c r="F155" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="G155" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="22"/>
@@ -4821,6 +4921,9 @@
       <c r="F165" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="G165" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="22"/>
@@ -4830,6 +4933,9 @@
       <c r="F166" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="G166" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="22"/>
@@ -4851,6 +4957,9 @@
       <c r="F168" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="G168" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="22"/>
@@ -4920,14 +5029,20 @@
       <c r="F175" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="G175" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="22"/>
       <c r="B176" t="s">
-        <v>133</v>
+        <v>259</v>
       </c>
       <c r="F176" s="11" t="s">
         <v>258</v>
+      </c>
+      <c r="G176" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4947,6 +5062,9 @@
       <c r="F178" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="G178" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="22"/>
@@ -5007,6 +5125,9 @@
       <c r="F184" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="G184" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="22"/>
@@ -5052,6 +5173,9 @@
       <c r="F188" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="G188" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="189" spans="1:7" ht="17.25" thickBot="1">
       <c r="A189" s="23"/>
@@ -5061,15 +5185,18 @@
       <c r="F189" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="G189" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="B190" s="24" t="s">
+      <c r="B190" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="C190" s="27" t="s">
+      <c r="C190" s="30" t="s">
         <v>232</v>
       </c>
       <c r="D190" t="s">
@@ -5081,8 +5208,8 @@
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="22"/>
-      <c r="B191" s="25"/>
-      <c r="C191" s="28"/>
+      <c r="B191" s="28"/>
+      <c r="C191" s="32"/>
       <c r="D191" t="s">
         <v>234</v>
       </c>
@@ -5092,8 +5219,8 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="22"/>
-      <c r="B192" s="25"/>
-      <c r="C192" s="28"/>
+      <c r="B192" s="28"/>
+      <c r="C192" s="32"/>
       <c r="D192" t="s">
         <v>235</v>
       </c>
@@ -5103,8 +5230,8 @@
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="22"/>
-      <c r="B193" s="25"/>
-      <c r="C193" s="28"/>
+      <c r="B193" s="28"/>
+      <c r="C193" s="32"/>
       <c r="D193" t="s">
         <v>236</v>
       </c>
@@ -5114,8 +5241,8 @@
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="22"/>
-      <c r="B194" s="25"/>
-      <c r="C194" s="28"/>
+      <c r="B194" s="28"/>
+      <c r="C194" s="32"/>
       <c r="D194" t="s">
         <v>237</v>
       </c>
@@ -5125,8 +5252,8 @@
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="22"/>
-      <c r="B195" s="25"/>
-      <c r="C195" s="28"/>
+      <c r="B195" s="28"/>
+      <c r="C195" s="32"/>
       <c r="D195" t="s">
         <v>238</v>
       </c>
@@ -5136,8 +5263,8 @@
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="22"/>
-      <c r="B196" s="25"/>
-      <c r="C196" s="28"/>
+      <c r="B196" s="28"/>
+      <c r="C196" s="32"/>
       <c r="D196" t="s">
         <v>221</v>
       </c>
@@ -5147,8 +5274,8 @@
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="22"/>
-      <c r="B197" s="25"/>
-      <c r="C197" s="28"/>
+      <c r="B197" s="28"/>
+      <c r="C197" s="32"/>
       <c r="D197" t="s">
         <v>239</v>
       </c>
@@ -5158,8 +5285,8 @@
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="22"/>
-      <c r="B198" s="25"/>
-      <c r="C198" s="28"/>
+      <c r="B198" s="28"/>
+      <c r="C198" s="32"/>
       <c r="D198" t="s">
         <v>240</v>
       </c>
@@ -5169,8 +5296,8 @@
     </row>
     <row r="199" spans="1:7" ht="17.25" thickBot="1">
       <c r="A199" s="22"/>
-      <c r="B199" s="25"/>
-      <c r="C199" s="29"/>
+      <c r="B199" s="28"/>
+      <c r="C199" s="31"/>
       <c r="D199" t="s">
         <v>241</v>
       </c>
@@ -5180,7 +5307,7 @@
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="22"/>
-      <c r="B200" s="25"/>
+      <c r="B200" s="28"/>
       <c r="C200" t="s">
         <v>242</v>
       </c>
@@ -5190,7 +5317,7 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="22"/>
-      <c r="B201" s="25"/>
+      <c r="B201" s="28"/>
       <c r="C201" t="s">
         <v>84</v>
       </c>
@@ -5200,7 +5327,7 @@
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="22"/>
-      <c r="B202" s="25"/>
+      <c r="B202" s="28"/>
       <c r="C202" t="s">
         <v>243</v>
       </c>
@@ -5210,7 +5337,7 @@
     </row>
     <row r="203" spans="1:7" ht="17.25" thickBot="1">
       <c r="A203" s="22"/>
-      <c r="B203" s="26"/>
+      <c r="B203" s="29"/>
       <c r="C203" t="s">
         <v>244</v>
       </c>
@@ -5220,10 +5347,10 @@
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="22"/>
-      <c r="B204" s="24" t="s">
+      <c r="B204" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="C204" s="27" t="s">
+      <c r="C204" s="30" t="s">
         <v>218</v>
       </c>
       <c r="D204" t="s">
@@ -5238,8 +5365,8 @@
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="22"/>
-      <c r="B205" s="25"/>
-      <c r="C205" s="28"/>
+      <c r="B205" s="28"/>
+      <c r="C205" s="32"/>
       <c r="D205" t="s">
         <v>246</v>
       </c>
@@ -5252,8 +5379,8 @@
     </row>
     <row r="206" spans="1:7" ht="17.25" thickBot="1">
       <c r="A206" s="22"/>
-      <c r="B206" s="25"/>
-      <c r="C206" s="29"/>
+      <c r="B206" s="28"/>
+      <c r="C206" s="31"/>
       <c r="D206" t="s">
         <v>221</v>
       </c>
@@ -5266,7 +5393,7 @@
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="22"/>
-      <c r="B207" s="25"/>
+      <c r="B207" s="28"/>
       <c r="C207" t="s">
         <v>206</v>
       </c>
@@ -5279,7 +5406,7 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="22"/>
-      <c r="B208" s="25"/>
+      <c r="B208" s="28"/>
       <c r="C208" t="s">
         <v>224</v>
       </c>
@@ -5292,7 +5419,7 @@
     </row>
     <row r="209" spans="1:7" ht="17.25" thickBot="1">
       <c r="A209" s="22"/>
-      <c r="B209" s="26"/>
+      <c r="B209" s="29"/>
       <c r="C209" t="s">
         <v>228</v>
       </c>
@@ -5519,19 +5646,17 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:A46"/>
-    <mergeCell ref="B1:B9"/>
-    <mergeCell ref="B10:B23"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="A47:A127"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B78"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="A128:A189"/>
+    <mergeCell ref="A190:A223"/>
+    <mergeCell ref="B190:B203"/>
+    <mergeCell ref="B204:B209"/>
+    <mergeCell ref="C190:C199"/>
+    <mergeCell ref="C204:C206"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B114"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="C96:C109"/>
@@ -5541,17 +5666,19 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C190:C199"/>
-    <mergeCell ref="C204:C206"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B114"/>
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="A128:A189"/>
-    <mergeCell ref="A190:A223"/>
-    <mergeCell ref="B190:B203"/>
-    <mergeCell ref="B204:B209"/>
+    <mergeCell ref="A47:A127"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B78"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="A1:A46"/>
+    <mergeCell ref="B1:B9"/>
+    <mergeCell ref="B10:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/開發文件.xlsx
+++ b/docs/開發文件.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\YDWE1.25.10\Creation\Mod\The_Tilted_Clock_Tower\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490377DC-7CAA-47E2-8B00-F702BEA86CE6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE67751-B007-4464-9609-452F1B55E19E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12765" activeTab="1" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
   </bookViews>
   <sheets>
     <sheet name="項目" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="267">
   <si>
     <r>
       <rPr>
@@ -1281,6 +1281,10 @@
   </si>
   <si>
     <t>region</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1619,15 +1623,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1640,10 +1635,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1653,6 +1648,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2974,8 +2978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29018229-9EAF-4726-88C6-5A87070EDF6C}">
   <dimension ref="A1:G227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="G178" sqref="G178"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2992,7 +2996,7 @@
       <c r="A1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="33" t="s">
         <v>83</v>
       </c>
       <c r="C1" t="s">
@@ -3004,7 +3008,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="22"/>
-      <c r="B2" s="25"/>
+      <c r="B2" s="34"/>
       <c r="C2" t="s">
         <v>85</v>
       </c>
@@ -3014,7 +3018,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="22"/>
-      <c r="B3" s="25"/>
+      <c r="B3" s="34"/>
       <c r="C3" t="s">
         <v>86</v>
       </c>
@@ -3024,7 +3028,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="22"/>
-      <c r="B4" s="25"/>
+      <c r="B4" s="34"/>
       <c r="C4" t="s">
         <v>87</v>
       </c>
@@ -3034,7 +3038,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="22"/>
-      <c r="B5" s="25"/>
+      <c r="B5" s="34"/>
       <c r="C5" t="s">
         <v>88</v>
       </c>
@@ -3044,7 +3048,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="22"/>
-      <c r="B6" s="25"/>
+      <c r="B6" s="34"/>
       <c r="C6" t="s">
         <v>89</v>
       </c>
@@ -3054,7 +3058,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="22"/>
-      <c r="B7" s="25"/>
+      <c r="B7" s="34"/>
       <c r="C7" t="s">
         <v>90</v>
       </c>
@@ -3064,7 +3068,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="22"/>
-      <c r="B8" s="25"/>
+      <c r="B8" s="34"/>
       <c r="C8" t="s">
         <v>91</v>
       </c>
@@ -3074,7 +3078,7 @@
     </row>
     <row r="9" spans="1:6" ht="17.25" thickBot="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="26"/>
+      <c r="B9" s="35"/>
       <c r="C9" t="s">
         <v>92</v>
       </c>
@@ -3084,13 +3088,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="22"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="30" t="s">
         <v>95</v>
       </c>
       <c r="E10" t="s">
@@ -3102,9 +3106,9 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="22"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="31"/>
       <c r="E11" t="s">
         <v>97</v>
       </c>
@@ -3114,9 +3118,9 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="22"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="31"/>
       <c r="E12" t="s">
         <v>98</v>
       </c>
@@ -3126,9 +3130,9 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="22"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="31"/>
       <c r="E13" t="s">
         <v>99</v>
       </c>
@@ -3138,9 +3142,9 @@
     </row>
     <row r="14" spans="1:6" ht="17.25" thickBot="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="35"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="32"/>
       <c r="E14" t="s">
         <v>100</v>
       </c>
@@ -3150,9 +3154,9 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="22"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="30" t="s">
         <v>101</v>
       </c>
       <c r="E15" t="s">
@@ -3164,9 +3168,9 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="22"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="31"/>
       <c r="E16" t="s">
         <v>103</v>
       </c>
@@ -3176,9 +3180,9 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="22"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="31"/>
       <c r="E17" t="s">
         <v>104</v>
       </c>
@@ -3188,9 +3192,9 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="22"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="31"/>
       <c r="E18" t="s">
         <v>105</v>
       </c>
@@ -3200,9 +3204,9 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="31"/>
       <c r="E19" t="s">
         <v>106</v>
       </c>
@@ -3212,9 +3216,9 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="22"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="31"/>
       <c r="E20" t="s">
         <v>107</v>
       </c>
@@ -3224,9 +3228,9 @@
     </row>
     <row r="21" spans="1:6" ht="17.25" thickBot="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="35"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="32"/>
       <c r="E21" t="s">
         <v>108</v>
       </c>
@@ -3236,7 +3240,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="22"/>
-      <c r="B22" s="25"/>
+      <c r="B22" s="34"/>
       <c r="C22" t="s">
         <v>109</v>
       </c>
@@ -3246,7 +3250,7 @@
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="26"/>
+      <c r="B23" s="35"/>
       <c r="C23" t="s">
         <v>84</v>
       </c>
@@ -3256,7 +3260,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="22"/>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="24" t="s">
         <v>110</v>
       </c>
       <c r="C24" t="s">
@@ -3268,7 +3272,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="22"/>
-      <c r="B25" s="28"/>
+      <c r="B25" s="25"/>
       <c r="C25" t="s">
         <v>111</v>
       </c>
@@ -3278,7 +3282,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="22"/>
-      <c r="B26" s="28"/>
+      <c r="B26" s="25"/>
       <c r="C26" t="s">
         <v>112</v>
       </c>
@@ -3288,7 +3292,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="22"/>
-      <c r="B27" s="28"/>
+      <c r="B27" s="25"/>
       <c r="C27" t="s">
         <v>113</v>
       </c>
@@ -3298,7 +3302,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="22"/>
-      <c r="B28" s="28"/>
+      <c r="B28" s="25"/>
       <c r="C28" t="s">
         <v>114</v>
       </c>
@@ -3308,7 +3312,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="22"/>
-      <c r="B29" s="28"/>
+      <c r="B29" s="25"/>
       <c r="C29" t="s">
         <v>115</v>
       </c>
@@ -3318,7 +3322,7 @@
     </row>
     <row r="30" spans="1:6" ht="17.25" thickBot="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="29"/>
+      <c r="B30" s="26"/>
       <c r="C30" t="s">
         <v>116</v>
       </c>
@@ -3328,10 +3332,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="22"/>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="27" t="s">
         <v>118</v>
       </c>
       <c r="D31" t="s">
@@ -3343,8 +3347,8 @@
     </row>
     <row r="32" spans="1:6" ht="17.25" thickBot="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="31"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="29"/>
       <c r="D32" t="s">
         <v>120</v>
       </c>
@@ -3354,8 +3358,8 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="22"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="30" t="s">
+      <c r="B33" s="25"/>
+      <c r="C33" s="27" t="s">
         <v>121</v>
       </c>
       <c r="D33" t="s">
@@ -3367,8 +3371,8 @@
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1">
       <c r="A34" s="22"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="31"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="29"/>
       <c r="D34" t="s">
         <v>123</v>
       </c>
@@ -3378,8 +3382,8 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="22"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="30" t="s">
+      <c r="B35" s="25"/>
+      <c r="C35" s="27" t="s">
         <v>124</v>
       </c>
       <c r="D35" t="s">
@@ -3391,8 +3395,8 @@
     </row>
     <row r="36" spans="1:7" ht="17.25" thickBot="1">
       <c r="A36" s="22"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="31"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="29"/>
       <c r="D36" t="s">
         <v>123</v>
       </c>
@@ -3494,7 +3498,7 @@
       <c r="A47" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="24" t="s">
         <v>136</v>
       </c>
       <c r="C47" t="s">
@@ -3509,7 +3513,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="22"/>
-      <c r="B48" s="28"/>
+      <c r="B48" s="25"/>
       <c r="C48" t="s">
         <v>138</v>
       </c>
@@ -3522,7 +3526,7 @@
     </row>
     <row r="49" spans="1:7" ht="17.25" thickBot="1">
       <c r="A49" s="22"/>
-      <c r="B49" s="29"/>
+      <c r="B49" s="26"/>
       <c r="C49" t="s">
         <v>139</v>
       </c>
@@ -3535,10 +3539,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="22"/>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="27" t="s">
         <v>141</v>
       </c>
       <c r="D50" t="s">
@@ -3553,8 +3557,8 @@
     </row>
     <row r="51" spans="1:7" ht="17.25" thickBot="1">
       <c r="A51" s="22"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="31"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="29"/>
       <c r="D51" t="s">
         <v>142</v>
       </c>
@@ -3567,7 +3571,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="22"/>
-      <c r="B52" s="28"/>
+      <c r="B52" s="25"/>
       <c r="C52" t="s">
         <v>138</v>
       </c>
@@ -3580,7 +3584,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="22"/>
-      <c r="B53" s="28"/>
+      <c r="B53" s="25"/>
       <c r="C53" t="s">
         <v>84</v>
       </c>
@@ -3593,7 +3597,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="22"/>
-      <c r="B54" s="28"/>
+      <c r="B54" s="25"/>
       <c r="C54" t="s">
         <v>143</v>
       </c>
@@ -3606,7 +3610,7 @@
     </row>
     <row r="55" spans="1:7" ht="17.25" thickBot="1">
       <c r="A55" s="22"/>
-      <c r="B55" s="29"/>
+      <c r="B55" s="26"/>
       <c r="C55" t="s">
         <v>144</v>
       </c>
@@ -3619,7 +3623,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="22"/>
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="24" t="s">
         <v>145</v>
       </c>
       <c r="C56" t="s">
@@ -3634,7 +3638,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="22"/>
-      <c r="B57" s="28"/>
+      <c r="B57" s="25"/>
       <c r="C57" t="s">
         <v>147</v>
       </c>
@@ -3647,7 +3651,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="22"/>
-      <c r="B58" s="28"/>
+      <c r="B58" s="25"/>
       <c r="C58" t="s">
         <v>148</v>
       </c>
@@ -3660,7 +3664,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="22"/>
-      <c r="B59" s="28"/>
+      <c r="B59" s="25"/>
       <c r="C59" t="s">
         <v>149</v>
       </c>
@@ -3673,7 +3677,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="22"/>
-      <c r="B60" s="28"/>
+      <c r="B60" s="25"/>
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -3686,7 +3690,7 @@
     </row>
     <row r="61" spans="1:7" ht="17.25" thickBot="1">
       <c r="A61" s="22"/>
-      <c r="B61" s="29"/>
+      <c r="B61" s="26"/>
       <c r="C61" t="s">
         <v>151</v>
       </c>
@@ -3699,7 +3703,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="22"/>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="24" t="s">
         <v>152</v>
       </c>
       <c r="C62" t="s">
@@ -3714,7 +3718,7 @@
     </row>
     <row r="63" spans="1:7" ht="17.25" thickBot="1">
       <c r="A63" s="22"/>
-      <c r="B63" s="29"/>
+      <c r="B63" s="26"/>
       <c r="C63" t="s">
         <v>138</v>
       </c>
@@ -3727,10 +3731,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="22"/>
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C64" s="27" t="s">
         <v>155</v>
       </c>
       <c r="D64" t="s">
@@ -3740,10 +3744,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="17.25" thickBot="1">
+    <row r="65" spans="1:7" ht="17.25" thickBot="1">
       <c r="A65" s="22"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="31"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="29"/>
       <c r="D65" t="s">
         <v>156</v>
       </c>
@@ -3751,9 +3755,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:7">
       <c r="A66" s="22"/>
-      <c r="B66" s="28"/>
+      <c r="B66" s="25"/>
       <c r="C66" t="s">
         <v>157</v>
       </c>
@@ -3761,9 +3765,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:7">
       <c r="A67" s="22"/>
-      <c r="B67" s="28"/>
+      <c r="B67" s="25"/>
       <c r="C67" t="s">
         <v>158</v>
       </c>
@@ -3771,9 +3775,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:7">
       <c r="A68" s="22"/>
-      <c r="B68" s="28"/>
+      <c r="B68" s="25"/>
       <c r="C68" t="s">
         <v>159</v>
       </c>
@@ -3781,9 +3785,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:7">
       <c r="A69" s="22"/>
-      <c r="B69" s="28"/>
+      <c r="B69" s="25"/>
       <c r="C69" t="s">
         <v>138</v>
       </c>
@@ -3791,9 +3795,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:7">
       <c r="A70" s="22"/>
-      <c r="B70" s="28"/>
+      <c r="B70" s="25"/>
       <c r="C70" t="s">
         <v>160</v>
       </c>
@@ -3801,9 +3805,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:7">
       <c r="A71" s="22"/>
-      <c r="B71" s="28"/>
+      <c r="B71" s="25"/>
       <c r="C71" t="s">
         <v>161</v>
       </c>
@@ -3811,9 +3815,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:7">
       <c r="A72" s="22"/>
-      <c r="B72" s="28"/>
+      <c r="B72" s="25"/>
       <c r="C72" t="s">
         <v>162</v>
       </c>
@@ -3821,9 +3825,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:7">
       <c r="A73" s="22"/>
-      <c r="B73" s="28"/>
+      <c r="B73" s="25"/>
       <c r="C73" t="s">
         <v>84</v>
       </c>
@@ -3831,9 +3835,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:7">
       <c r="A74" s="22"/>
-      <c r="B74" s="28"/>
+      <c r="B74" s="25"/>
       <c r="C74" t="s">
         <v>163</v>
       </c>
@@ -3841,9 +3845,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:7">
       <c r="A75" s="22"/>
-      <c r="B75" s="28"/>
+      <c r="B75" s="25"/>
       <c r="C75" t="s">
         <v>164</v>
       </c>
@@ -3851,9 +3855,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:7">
       <c r="A76" s="22"/>
-      <c r="B76" s="28"/>
+      <c r="B76" s="25"/>
       <c r="C76" t="s">
         <v>165</v>
       </c>
@@ -3861,9 +3865,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:7">
       <c r="A77" s="22"/>
-      <c r="B77" s="28"/>
+      <c r="B77" s="25"/>
       <c r="C77" t="s">
         <v>166</v>
       </c>
@@ -3871,9 +3875,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="17.25" thickBot="1">
+    <row r="78" spans="1:7" ht="17.25" thickBot="1">
       <c r="A78" s="22"/>
-      <c r="B78" s="29"/>
+      <c r="B78" s="26"/>
       <c r="C78" t="s">
         <v>167</v>
       </c>
@@ -3881,9 +3885,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:7">
       <c r="A79" s="22"/>
-      <c r="B79" s="27" t="s">
+      <c r="B79" s="24" t="s">
         <v>168</v>
       </c>
       <c r="C79" t="s">
@@ -3892,10 +3896,13 @@
       <c r="F79" s="11" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="22"/>
-      <c r="B80" s="28"/>
+      <c r="B80" s="25"/>
       <c r="C80" t="s">
         <v>169</v>
       </c>
@@ -3905,37 +3912,46 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="22"/>
-      <c r="B81" s="28"/>
+      <c r="B81" s="25"/>
       <c r="C81" t="s">
         <v>170</v>
       </c>
       <c r="F81" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="G81" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="22"/>
-      <c r="B82" s="28"/>
+      <c r="B82" s="25"/>
       <c r="C82" t="s">
         <v>171</v>
       </c>
       <c r="F82" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="G82" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="83" spans="1:7" ht="17.25" thickBot="1">
       <c r="A83" s="22"/>
-      <c r="B83" s="29"/>
+      <c r="B83" s="26"/>
       <c r="C83" t="s">
         <v>172</v>
       </c>
       <c r="F83" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="G83" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="22"/>
-      <c r="B84" s="27" t="s">
+      <c r="B84" s="24" t="s">
         <v>173</v>
       </c>
       <c r="C84" t="s">
@@ -3950,7 +3966,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="22"/>
-      <c r="B85" s="28"/>
+      <c r="B85" s="25"/>
       <c r="C85" t="s">
         <v>144</v>
       </c>
@@ -3963,7 +3979,7 @@
     </row>
     <row r="86" spans="1:7" ht="17.25" thickBot="1">
       <c r="A86" s="22"/>
-      <c r="B86" s="29"/>
+      <c r="B86" s="26"/>
       <c r="C86" t="s">
         <v>172</v>
       </c>
@@ -3973,7 +3989,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="22"/>
-      <c r="B87" s="27" t="s">
+      <c r="B87" s="24" t="s">
         <v>123</v>
       </c>
       <c r="C87" t="s">
@@ -3988,7 +4004,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="22"/>
-      <c r="B88" s="28"/>
+      <c r="B88" s="25"/>
       <c r="C88" t="s">
         <v>138</v>
       </c>
@@ -4001,7 +4017,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="22"/>
-      <c r="B89" s="28"/>
+      <c r="B89" s="25"/>
       <c r="C89" t="s">
         <v>161</v>
       </c>
@@ -4014,7 +4030,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="22"/>
-      <c r="B90" s="28"/>
+      <c r="B90" s="25"/>
       <c r="C90" t="s">
         <v>84</v>
       </c>
@@ -4027,7 +4043,7 @@
     </row>
     <row r="91" spans="1:7" ht="17.25" thickBot="1">
       <c r="A91" s="22"/>
-      <c r="B91" s="29"/>
+      <c r="B91" s="26"/>
       <c r="C91" t="s">
         <v>172</v>
       </c>
@@ -4040,7 +4056,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="22"/>
-      <c r="B92" s="27" t="s">
+      <c r="B92" s="24" t="s">
         <v>175</v>
       </c>
       <c r="C92" t="s">
@@ -4055,7 +4071,7 @@
     </row>
     <row r="93" spans="1:7" ht="17.25" thickBot="1">
       <c r="A93" s="22"/>
-      <c r="B93" s="29"/>
+      <c r="B93" s="26"/>
       <c r="C93" t="s">
         <v>138</v>
       </c>
@@ -4068,7 +4084,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="22"/>
-      <c r="B94" s="27" t="s">
+      <c r="B94" s="24" t="s">
         <v>177</v>
       </c>
       <c r="C94" t="s">
@@ -4083,7 +4099,7 @@
     </row>
     <row r="95" spans="1:7" ht="17.25" thickBot="1">
       <c r="A95" s="22"/>
-      <c r="B95" s="29"/>
+      <c r="B95" s="26"/>
       <c r="C95" t="s">
         <v>84</v>
       </c>
@@ -4096,10 +4112,10 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="22"/>
-      <c r="B96" s="27" t="s">
+      <c r="B96" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="C96" s="30" t="s">
+      <c r="C96" s="27" t="s">
         <v>141</v>
       </c>
       <c r="D96" t="s">
@@ -4114,8 +4130,8 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="22"/>
-      <c r="B97" s="28"/>
-      <c r="C97" s="32"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="28"/>
       <c r="D97" t="s">
         <v>178</v>
       </c>
@@ -4128,8 +4144,8 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="22"/>
-      <c r="B98" s="28"/>
-      <c r="C98" s="32"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="28"/>
       <c r="D98" t="s">
         <v>179</v>
       </c>
@@ -4142,8 +4158,8 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="22"/>
-      <c r="B99" s="28"/>
-      <c r="C99" s="32"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="28"/>
       <c r="D99" t="s">
         <v>180</v>
       </c>
@@ -4156,8 +4172,8 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="22"/>
-      <c r="B100" s="28"/>
-      <c r="C100" s="32"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="28"/>
       <c r="D100" t="s">
         <v>181</v>
       </c>
@@ -4170,8 +4186,8 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="22"/>
-      <c r="B101" s="28"/>
-      <c r="C101" s="32"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="28"/>
       <c r="D101" t="s">
         <v>182</v>
       </c>
@@ -4184,8 +4200,8 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="22"/>
-      <c r="B102" s="28"/>
-      <c r="C102" s="32"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="28"/>
       <c r="D102" t="s">
         <v>183</v>
       </c>
@@ -4198,8 +4214,8 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="22"/>
-      <c r="B103" s="28"/>
-      <c r="C103" s="32"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="28"/>
       <c r="D103" t="s">
         <v>184</v>
       </c>
@@ -4212,8 +4228,8 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="22"/>
-      <c r="B104" s="28"/>
-      <c r="C104" s="32"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="28"/>
       <c r="D104" t="s">
         <v>185</v>
       </c>
@@ -4226,8 +4242,8 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="22"/>
-      <c r="B105" s="28"/>
-      <c r="C105" s="32"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="28"/>
       <c r="D105" t="s">
         <v>186</v>
       </c>
@@ -4240,8 +4256,8 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="22"/>
-      <c r="B106" s="28"/>
-      <c r="C106" s="32"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="28"/>
       <c r="D106" t="s">
         <v>187</v>
       </c>
@@ -4254,8 +4270,8 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="22"/>
-      <c r="B107" s="28"/>
-      <c r="C107" s="32"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="28"/>
       <c r="D107" t="s">
         <v>188</v>
       </c>
@@ -4268,8 +4284,8 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="22"/>
-      <c r="B108" s="28"/>
-      <c r="C108" s="32"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="28"/>
       <c r="D108" t="s">
         <v>189</v>
       </c>
@@ -4282,8 +4298,8 @@
     </row>
     <row r="109" spans="1:7" ht="17.25" thickBot="1">
       <c r="A109" s="22"/>
-      <c r="B109" s="28"/>
-      <c r="C109" s="31"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="29"/>
       <c r="D109" t="s">
         <v>190</v>
       </c>
@@ -4296,7 +4312,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="22"/>
-      <c r="B110" s="28"/>
+      <c r="B110" s="25"/>
       <c r="C110" t="s">
         <v>138</v>
       </c>
@@ -4309,7 +4325,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="22"/>
-      <c r="B111" s="28"/>
+      <c r="B111" s="25"/>
       <c r="C111" t="s">
         <v>161</v>
       </c>
@@ -4322,7 +4338,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="22"/>
-      <c r="B112" s="28"/>
+      <c r="B112" s="25"/>
       <c r="C112" t="s">
         <v>191</v>
       </c>
@@ -4335,7 +4351,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="22"/>
-      <c r="B113" s="28"/>
+      <c r="B113" s="25"/>
       <c r="C113" t="s">
         <v>143</v>
       </c>
@@ -4348,12 +4364,15 @@
     </row>
     <row r="114" spans="1:7" ht="17.25" thickBot="1">
       <c r="A114" s="22"/>
-      <c r="B114" s="29"/>
+      <c r="B114" s="26"/>
       <c r="C114" t="s">
         <v>192</v>
       </c>
       <c r="F114" s="11" t="s">
         <v>258</v>
+      </c>
+      <c r="G114" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4888,6 +4907,9 @@
       <c r="F162" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="G162" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="22"/>
@@ -5193,10 +5215,10 @@
       <c r="A190" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="B190" s="27" t="s">
+      <c r="B190" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="C190" s="30" t="s">
+      <c r="C190" s="27" t="s">
         <v>232</v>
       </c>
       <c r="D190" t="s">
@@ -5208,8 +5230,8 @@
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="22"/>
-      <c r="B191" s="28"/>
-      <c r="C191" s="32"/>
+      <c r="B191" s="25"/>
+      <c r="C191" s="28"/>
       <c r="D191" t="s">
         <v>234</v>
       </c>
@@ -5219,8 +5241,8 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="22"/>
-      <c r="B192" s="28"/>
-      <c r="C192" s="32"/>
+      <c r="B192" s="25"/>
+      <c r="C192" s="28"/>
       <c r="D192" t="s">
         <v>235</v>
       </c>
@@ -5230,8 +5252,8 @@
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="22"/>
-      <c r="B193" s="28"/>
-      <c r="C193" s="32"/>
+      <c r="B193" s="25"/>
+      <c r="C193" s="28"/>
       <c r="D193" t="s">
         <v>236</v>
       </c>
@@ -5241,8 +5263,8 @@
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="22"/>
-      <c r="B194" s="28"/>
-      <c r="C194" s="32"/>
+      <c r="B194" s="25"/>
+      <c r="C194" s="28"/>
       <c r="D194" t="s">
         <v>237</v>
       </c>
@@ -5252,8 +5274,8 @@
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="22"/>
-      <c r="B195" s="28"/>
-      <c r="C195" s="32"/>
+      <c r="B195" s="25"/>
+      <c r="C195" s="28"/>
       <c r="D195" t="s">
         <v>238</v>
       </c>
@@ -5263,8 +5285,8 @@
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="22"/>
-      <c r="B196" s="28"/>
-      <c r="C196" s="32"/>
+      <c r="B196" s="25"/>
+      <c r="C196" s="28"/>
       <c r="D196" t="s">
         <v>221</v>
       </c>
@@ -5274,8 +5296,8 @@
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="22"/>
-      <c r="B197" s="28"/>
-      <c r="C197" s="32"/>
+      <c r="B197" s="25"/>
+      <c r="C197" s="28"/>
       <c r="D197" t="s">
         <v>239</v>
       </c>
@@ -5285,8 +5307,8 @@
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="22"/>
-      <c r="B198" s="28"/>
-      <c r="C198" s="32"/>
+      <c r="B198" s="25"/>
+      <c r="C198" s="28"/>
       <c r="D198" t="s">
         <v>240</v>
       </c>
@@ -5296,8 +5318,8 @@
     </row>
     <row r="199" spans="1:7" ht="17.25" thickBot="1">
       <c r="A199" s="22"/>
-      <c r="B199" s="28"/>
-      <c r="C199" s="31"/>
+      <c r="B199" s="25"/>
+      <c r="C199" s="29"/>
       <c r="D199" t="s">
         <v>241</v>
       </c>
@@ -5307,7 +5329,7 @@
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="22"/>
-      <c r="B200" s="28"/>
+      <c r="B200" s="25"/>
       <c r="C200" t="s">
         <v>242</v>
       </c>
@@ -5317,7 +5339,7 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="22"/>
-      <c r="B201" s="28"/>
+      <c r="B201" s="25"/>
       <c r="C201" t="s">
         <v>84</v>
       </c>
@@ -5327,7 +5349,7 @@
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="22"/>
-      <c r="B202" s="28"/>
+      <c r="B202" s="25"/>
       <c r="C202" t="s">
         <v>243</v>
       </c>
@@ -5337,7 +5359,7 @@
     </row>
     <row r="203" spans="1:7" ht="17.25" thickBot="1">
       <c r="A203" s="22"/>
-      <c r="B203" s="29"/>
+      <c r="B203" s="26"/>
       <c r="C203" t="s">
         <v>244</v>
       </c>
@@ -5347,10 +5369,10 @@
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="22"/>
-      <c r="B204" s="27" t="s">
+      <c r="B204" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="C204" s="30" t="s">
+      <c r="C204" s="27" t="s">
         <v>218</v>
       </c>
       <c r="D204" t="s">
@@ -5365,8 +5387,8 @@
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="22"/>
-      <c r="B205" s="28"/>
-      <c r="C205" s="32"/>
+      <c r="B205" s="25"/>
+      <c r="C205" s="28"/>
       <c r="D205" t="s">
         <v>246</v>
       </c>
@@ -5379,8 +5401,8 @@
     </row>
     <row r="206" spans="1:7" ht="17.25" thickBot="1">
       <c r="A206" s="22"/>
-      <c r="B206" s="28"/>
-      <c r="C206" s="31"/>
+      <c r="B206" s="25"/>
+      <c r="C206" s="29"/>
       <c r="D206" t="s">
         <v>221</v>
       </c>
@@ -5393,7 +5415,7 @@
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="22"/>
-      <c r="B207" s="28"/>
+      <c r="B207" s="25"/>
       <c r="C207" t="s">
         <v>206</v>
       </c>
@@ -5406,7 +5428,7 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="22"/>
-      <c r="B208" s="28"/>
+      <c r="B208" s="25"/>
       <c r="C208" t="s">
         <v>224</v>
       </c>
@@ -5419,7 +5441,7 @@
     </row>
     <row r="209" spans="1:7" ht="17.25" thickBot="1">
       <c r="A209" s="22"/>
-      <c r="B209" s="29"/>
+      <c r="B209" s="26"/>
       <c r="C209" t="s">
         <v>228</v>
       </c>
@@ -5646,17 +5668,19 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="A128:A189"/>
-    <mergeCell ref="A190:A223"/>
-    <mergeCell ref="B190:B203"/>
-    <mergeCell ref="B204:B209"/>
-    <mergeCell ref="C190:C199"/>
-    <mergeCell ref="C204:C206"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B114"/>
+    <mergeCell ref="A1:A46"/>
+    <mergeCell ref="B1:B9"/>
+    <mergeCell ref="B10:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A47:A127"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B78"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B84:B86"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="C96:C109"/>
@@ -5666,19 +5690,17 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A47:A127"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B78"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="A1:A46"/>
-    <mergeCell ref="B1:B9"/>
-    <mergeCell ref="B10:B23"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C190:C199"/>
+    <mergeCell ref="C204:C206"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B114"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="A128:A189"/>
+    <mergeCell ref="A190:A223"/>
+    <mergeCell ref="B190:B203"/>
+    <mergeCell ref="B204:B209"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/開發文件.xlsx
+++ b/docs/開發文件.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\YDWE1.25.10\Creation\Mod\The_Tilted_Clock_Tower\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE67751-B007-4464-9609-452F1B55E19E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC46A60-3F88-41DB-82C2-0E0CCDACE221}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="269">
   <si>
     <r>
       <rPr>
@@ -1305,6 +1305,14 @@
   </si>
   <si>
     <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mover</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1623,6 +1631,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1635,10 +1652,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1648,15 +1665,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2976,10 +2984,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29018229-9EAF-4726-88C6-5A87070EDF6C}">
-  <dimension ref="A1:G227"/>
+  <dimension ref="A1:G228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="D150" sqref="D150"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2996,7 +3004,7 @@
       <c r="A1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="24" t="s">
         <v>83</v>
       </c>
       <c r="C1" t="s">
@@ -3008,7 +3016,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="22"/>
-      <c r="B2" s="34"/>
+      <c r="B2" s="25"/>
       <c r="C2" t="s">
         <v>85</v>
       </c>
@@ -3018,7 +3026,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="22"/>
-      <c r="B3" s="34"/>
+      <c r="B3" s="25"/>
       <c r="C3" t="s">
         <v>86</v>
       </c>
@@ -3028,7 +3036,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="22"/>
-      <c r="B4" s="34"/>
+      <c r="B4" s="25"/>
       <c r="C4" t="s">
         <v>87</v>
       </c>
@@ -3038,7 +3046,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="22"/>
-      <c r="B5" s="34"/>
+      <c r="B5" s="25"/>
       <c r="C5" t="s">
         <v>88</v>
       </c>
@@ -3048,7 +3056,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="22"/>
-      <c r="B6" s="34"/>
+      <c r="B6" s="25"/>
       <c r="C6" t="s">
         <v>89</v>
       </c>
@@ -3058,7 +3066,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="22"/>
-      <c r="B7" s="34"/>
+      <c r="B7" s="25"/>
       <c r="C7" t="s">
         <v>90</v>
       </c>
@@ -3068,7 +3076,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="22"/>
-      <c r="B8" s="34"/>
+      <c r="B8" s="25"/>
       <c r="C8" t="s">
         <v>91</v>
       </c>
@@ -3078,7 +3086,7 @@
     </row>
     <row r="9" spans="1:6" ht="17.25" thickBot="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="35"/>
+      <c r="B9" s="26"/>
       <c r="C9" t="s">
         <v>92</v>
       </c>
@@ -3088,13 +3096,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="22"/>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="33" t="s">
         <v>95</v>
       </c>
       <c r="E10" t="s">
@@ -3106,9 +3114,9 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="22"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="34"/>
       <c r="E11" t="s">
         <v>97</v>
       </c>
@@ -3118,9 +3126,9 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="22"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="31"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="34"/>
       <c r="E12" t="s">
         <v>98</v>
       </c>
@@ -3130,9 +3138,9 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="22"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="34"/>
       <c r="E13" t="s">
         <v>99</v>
       </c>
@@ -3142,9 +3150,9 @@
     </row>
     <row r="14" spans="1:6" ht="17.25" thickBot="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="32"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="35"/>
       <c r="E14" t="s">
         <v>100</v>
       </c>
@@ -3154,9 +3162,9 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="22"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="30" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33" t="s">
         <v>101</v>
       </c>
       <c r="E15" t="s">
@@ -3168,9 +3176,9 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="22"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="31"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="34"/>
       <c r="E16" t="s">
         <v>103</v>
       </c>
@@ -3180,9 +3188,9 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="22"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="31"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="34"/>
       <c r="E17" t="s">
         <v>104</v>
       </c>
@@ -3192,9 +3200,9 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="22"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="31"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="34"/>
       <c r="E18" t="s">
         <v>105</v>
       </c>
@@ -3204,9 +3212,9 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="31"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="34"/>
       <c r="E19" t="s">
         <v>106</v>
       </c>
@@ -3216,9 +3224,9 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="22"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="31"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="34"/>
       <c r="E20" t="s">
         <v>107</v>
       </c>
@@ -3228,9 +3236,9 @@
     </row>
     <row r="21" spans="1:6" ht="17.25" thickBot="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="32"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="35"/>
       <c r="E21" t="s">
         <v>108</v>
       </c>
@@ -3240,7 +3248,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="22"/>
-      <c r="B22" s="34"/>
+      <c r="B22" s="25"/>
       <c r="C22" t="s">
         <v>109</v>
       </c>
@@ -3250,7 +3258,7 @@
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="35"/>
+      <c r="B23" s="26"/>
       <c r="C23" t="s">
         <v>84</v>
       </c>
@@ -3260,7 +3268,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="22"/>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="27" t="s">
         <v>110</v>
       </c>
       <c r="C24" t="s">
@@ -3272,7 +3280,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="22"/>
-      <c r="B25" s="25"/>
+      <c r="B25" s="28"/>
       <c r="C25" t="s">
         <v>111</v>
       </c>
@@ -3282,7 +3290,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="22"/>
-      <c r="B26" s="25"/>
+      <c r="B26" s="28"/>
       <c r="C26" t="s">
         <v>112</v>
       </c>
@@ -3292,7 +3300,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="22"/>
-      <c r="B27" s="25"/>
+      <c r="B27" s="28"/>
       <c r="C27" t="s">
         <v>113</v>
       </c>
@@ -3302,7 +3310,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="22"/>
-      <c r="B28" s="25"/>
+      <c r="B28" s="28"/>
       <c r="C28" t="s">
         <v>114</v>
       </c>
@@ -3312,7 +3320,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="22"/>
-      <c r="B29" s="25"/>
+      <c r="B29" s="28"/>
       <c r="C29" t="s">
         <v>115</v>
       </c>
@@ -3322,7 +3330,7 @@
     </row>
     <row r="30" spans="1:6" ht="17.25" thickBot="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="26"/>
+      <c r="B30" s="29"/>
       <c r="C30" t="s">
         <v>116</v>
       </c>
@@ -3332,10 +3340,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="22"/>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="30" t="s">
         <v>118</v>
       </c>
       <c r="D31" t="s">
@@ -3347,8 +3355,8 @@
     </row>
     <row r="32" spans="1:6" ht="17.25" thickBot="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="29"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="31"/>
       <c r="D32" t="s">
         <v>120</v>
       </c>
@@ -3358,8 +3366,8 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="22"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="27" t="s">
+      <c r="B33" s="28"/>
+      <c r="C33" s="30" t="s">
         <v>121</v>
       </c>
       <c r="D33" t="s">
@@ -3371,8 +3379,8 @@
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1">
       <c r="A34" s="22"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="29"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="31"/>
       <c r="D34" t="s">
         <v>123</v>
       </c>
@@ -3382,8 +3390,8 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="22"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="27" t="s">
+      <c r="B35" s="28"/>
+      <c r="C35" s="30" t="s">
         <v>124</v>
       </c>
       <c r="D35" t="s">
@@ -3395,8 +3403,8 @@
     </row>
     <row r="36" spans="1:7" ht="17.25" thickBot="1">
       <c r="A36" s="22"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="31"/>
       <c r="D36" t="s">
         <v>123</v>
       </c>
@@ -3498,7 +3506,7 @@
       <c r="A47" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="27" t="s">
         <v>136</v>
       </c>
       <c r="C47" t="s">
@@ -3513,7 +3521,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="22"/>
-      <c r="B48" s="25"/>
+      <c r="B48" s="28"/>
       <c r="C48" t="s">
         <v>138</v>
       </c>
@@ -3526,7 +3534,7 @@
     </row>
     <row r="49" spans="1:7" ht="17.25" thickBot="1">
       <c r="A49" s="22"/>
-      <c r="B49" s="26"/>
+      <c r="B49" s="29"/>
       <c r="C49" t="s">
         <v>139</v>
       </c>
@@ -3539,10 +3547,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="22"/>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="30" t="s">
         <v>141</v>
       </c>
       <c r="D50" t="s">
@@ -3557,8 +3565,8 @@
     </row>
     <row r="51" spans="1:7" ht="17.25" thickBot="1">
       <c r="A51" s="22"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="29"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="31"/>
       <c r="D51" t="s">
         <v>142</v>
       </c>
@@ -3571,7 +3579,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="22"/>
-      <c r="B52" s="25"/>
+      <c r="B52" s="28"/>
       <c r="C52" t="s">
         <v>138</v>
       </c>
@@ -3584,7 +3592,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="22"/>
-      <c r="B53" s="25"/>
+      <c r="B53" s="28"/>
       <c r="C53" t="s">
         <v>84</v>
       </c>
@@ -3597,7 +3605,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="22"/>
-      <c r="B54" s="25"/>
+      <c r="B54" s="28"/>
       <c r="C54" t="s">
         <v>143</v>
       </c>
@@ -3610,7 +3618,7 @@
     </row>
     <row r="55" spans="1:7" ht="17.25" thickBot="1">
       <c r="A55" s="22"/>
-      <c r="B55" s="26"/>
+      <c r="B55" s="29"/>
       <c r="C55" t="s">
         <v>144</v>
       </c>
@@ -3623,7 +3631,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="22"/>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="27" t="s">
         <v>145</v>
       </c>
       <c r="C56" t="s">
@@ -3638,7 +3646,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="22"/>
-      <c r="B57" s="25"/>
+      <c r="B57" s="28"/>
       <c r="C57" t="s">
         <v>147</v>
       </c>
@@ -3651,7 +3659,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="22"/>
-      <c r="B58" s="25"/>
+      <c r="B58" s="28"/>
       <c r="C58" t="s">
         <v>148</v>
       </c>
@@ -3664,7 +3672,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="22"/>
-      <c r="B59" s="25"/>
+      <c r="B59" s="28"/>
       <c r="C59" t="s">
         <v>149</v>
       </c>
@@ -3677,7 +3685,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="22"/>
-      <c r="B60" s="25"/>
+      <c r="B60" s="28"/>
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -3690,7 +3698,7 @@
     </row>
     <row r="61" spans="1:7" ht="17.25" thickBot="1">
       <c r="A61" s="22"/>
-      <c r="B61" s="26"/>
+      <c r="B61" s="29"/>
       <c r="C61" t="s">
         <v>151</v>
       </c>
@@ -3703,7 +3711,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="22"/>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="27" t="s">
         <v>152</v>
       </c>
       <c r="C62" t="s">
@@ -3718,7 +3726,7 @@
     </row>
     <row r="63" spans="1:7" ht="17.25" thickBot="1">
       <c r="A63" s="22"/>
-      <c r="B63" s="26"/>
+      <c r="B63" s="29"/>
       <c r="C63" t="s">
         <v>138</v>
       </c>
@@ -3731,10 +3739,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="22"/>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="30" t="s">
         <v>155</v>
       </c>
       <c r="D64" t="s">
@@ -3746,8 +3754,8 @@
     </row>
     <row r="65" spans="1:7" ht="17.25" thickBot="1">
       <c r="A65" s="22"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="29"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="31"/>
       <c r="D65" t="s">
         <v>156</v>
       </c>
@@ -3757,7 +3765,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="22"/>
-      <c r="B66" s="25"/>
+      <c r="B66" s="28"/>
       <c r="C66" t="s">
         <v>157</v>
       </c>
@@ -3767,7 +3775,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="22"/>
-      <c r="B67" s="25"/>
+      <c r="B67" s="28"/>
       <c r="C67" t="s">
         <v>158</v>
       </c>
@@ -3777,7 +3785,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="22"/>
-      <c r="B68" s="25"/>
+      <c r="B68" s="28"/>
       <c r="C68" t="s">
         <v>159</v>
       </c>
@@ -3787,7 +3795,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="22"/>
-      <c r="B69" s="25"/>
+      <c r="B69" s="28"/>
       <c r="C69" t="s">
         <v>138</v>
       </c>
@@ -3797,7 +3805,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="22"/>
-      <c r="B70" s="25"/>
+      <c r="B70" s="28"/>
       <c r="C70" t="s">
         <v>160</v>
       </c>
@@ -3807,7 +3815,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="22"/>
-      <c r="B71" s="25"/>
+      <c r="B71" s="28"/>
       <c r="C71" t="s">
         <v>161</v>
       </c>
@@ -3817,7 +3825,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="22"/>
-      <c r="B72" s="25"/>
+      <c r="B72" s="28"/>
       <c r="C72" t="s">
         <v>162</v>
       </c>
@@ -3827,7 +3835,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="22"/>
-      <c r="B73" s="25"/>
+      <c r="B73" s="28"/>
       <c r="C73" t="s">
         <v>84</v>
       </c>
@@ -3837,7 +3845,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="22"/>
-      <c r="B74" s="25"/>
+      <c r="B74" s="28"/>
       <c r="C74" t="s">
         <v>163</v>
       </c>
@@ -3847,7 +3855,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="22"/>
-      <c r="B75" s="25"/>
+      <c r="B75" s="28"/>
       <c r="C75" t="s">
         <v>164</v>
       </c>
@@ -3857,7 +3865,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="22"/>
-      <c r="B76" s="25"/>
+      <c r="B76" s="28"/>
       <c r="C76" t="s">
         <v>165</v>
       </c>
@@ -3867,7 +3875,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="22"/>
-      <c r="B77" s="25"/>
+      <c r="B77" s="28"/>
       <c r="C77" t="s">
         <v>166</v>
       </c>
@@ -3877,7 +3885,7 @@
     </row>
     <row r="78" spans="1:7" ht="17.25" thickBot="1">
       <c r="A78" s="22"/>
-      <c r="B78" s="26"/>
+      <c r="B78" s="29"/>
       <c r="C78" t="s">
         <v>167</v>
       </c>
@@ -3887,7 +3895,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="22"/>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="27" t="s">
         <v>168</v>
       </c>
       <c r="C79" t="s">
@@ -3902,7 +3910,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="22"/>
-      <c r="B80" s="25"/>
+      <c r="B80" s="28"/>
       <c r="C80" t="s">
         <v>169</v>
       </c>
@@ -3912,20 +3920,17 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="22"/>
-      <c r="B81" s="25"/>
+      <c r="B81" s="28"/>
       <c r="C81" t="s">
         <v>170</v>
       </c>
       <c r="F81" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="G81" t="s">
-        <v>266</v>
-      </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="22"/>
-      <c r="B82" s="25"/>
+      <c r="B82" s="28"/>
       <c r="C82" t="s">
         <v>171</v>
       </c>
@@ -3938,7 +3943,7 @@
     </row>
     <row r="83" spans="1:7" ht="17.25" thickBot="1">
       <c r="A83" s="22"/>
-      <c r="B83" s="26"/>
+      <c r="B83" s="29"/>
       <c r="C83" t="s">
         <v>172</v>
       </c>
@@ -3951,7 +3956,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="22"/>
-      <c r="B84" s="24" t="s">
+      <c r="B84" s="27" t="s">
         <v>173</v>
       </c>
       <c r="C84" t="s">
@@ -3966,7 +3971,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="22"/>
-      <c r="B85" s="25"/>
+      <c r="B85" s="28"/>
       <c r="C85" t="s">
         <v>144</v>
       </c>
@@ -3979,7 +3984,7 @@
     </row>
     <row r="86" spans="1:7" ht="17.25" thickBot="1">
       <c r="A86" s="22"/>
-      <c r="B86" s="26"/>
+      <c r="B86" s="29"/>
       <c r="C86" t="s">
         <v>172</v>
       </c>
@@ -3989,7 +3994,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="22"/>
-      <c r="B87" s="24" t="s">
+      <c r="B87" s="27" t="s">
         <v>123</v>
       </c>
       <c r="C87" t="s">
@@ -4004,7 +4009,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="22"/>
-      <c r="B88" s="25"/>
+      <c r="B88" s="28"/>
       <c r="C88" t="s">
         <v>138</v>
       </c>
@@ -4017,7 +4022,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="22"/>
-      <c r="B89" s="25"/>
+      <c r="B89" s="28"/>
       <c r="C89" t="s">
         <v>161</v>
       </c>
@@ -4030,7 +4035,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="22"/>
-      <c r="B90" s="25"/>
+      <c r="B90" s="28"/>
       <c r="C90" t="s">
         <v>84</v>
       </c>
@@ -4043,7 +4048,7 @@
     </row>
     <row r="91" spans="1:7" ht="17.25" thickBot="1">
       <c r="A91" s="22"/>
-      <c r="B91" s="26"/>
+      <c r="B91" s="29"/>
       <c r="C91" t="s">
         <v>172</v>
       </c>
@@ -4056,7 +4061,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="22"/>
-      <c r="B92" s="24" t="s">
+      <c r="B92" s="27" t="s">
         <v>175</v>
       </c>
       <c r="C92" t="s">
@@ -4071,7 +4076,7 @@
     </row>
     <row r="93" spans="1:7" ht="17.25" thickBot="1">
       <c r="A93" s="22"/>
-      <c r="B93" s="26"/>
+      <c r="B93" s="29"/>
       <c r="C93" t="s">
         <v>138</v>
       </c>
@@ -4084,7 +4089,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="22"/>
-      <c r="B94" s="24" t="s">
+      <c r="B94" s="27" t="s">
         <v>177</v>
       </c>
       <c r="C94" t="s">
@@ -4099,7 +4104,7 @@
     </row>
     <row r="95" spans="1:7" ht="17.25" thickBot="1">
       <c r="A95" s="22"/>
-      <c r="B95" s="26"/>
+      <c r="B95" s="29"/>
       <c r="C95" t="s">
         <v>84</v>
       </c>
@@ -4112,10 +4117,10 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="22"/>
-      <c r="B96" s="24" t="s">
+      <c r="B96" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C96" s="27" t="s">
+      <c r="C96" s="30" t="s">
         <v>141</v>
       </c>
       <c r="D96" t="s">
@@ -4130,8 +4135,8 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="22"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="28"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="32"/>
       <c r="D97" t="s">
         <v>178</v>
       </c>
@@ -4144,8 +4149,8 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="22"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="28"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="32"/>
       <c r="D98" t="s">
         <v>179</v>
       </c>
@@ -4158,8 +4163,8 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="22"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="28"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="32"/>
       <c r="D99" t="s">
         <v>180</v>
       </c>
@@ -4172,8 +4177,8 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="22"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="28"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="32"/>
       <c r="D100" t="s">
         <v>181</v>
       </c>
@@ -4186,8 +4191,8 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="22"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="28"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="32"/>
       <c r="D101" t="s">
         <v>182</v>
       </c>
@@ -4200,8 +4205,8 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="22"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="28"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="32"/>
       <c r="D102" t="s">
         <v>183</v>
       </c>
@@ -4214,8 +4219,8 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="22"/>
-      <c r="B103" s="25"/>
-      <c r="C103" s="28"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="32"/>
       <c r="D103" t="s">
         <v>184</v>
       </c>
@@ -4228,8 +4233,8 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="22"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="28"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="32"/>
       <c r="D104" t="s">
         <v>185</v>
       </c>
@@ -4242,8 +4247,8 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="22"/>
-      <c r="B105" s="25"/>
-      <c r="C105" s="28"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="32"/>
       <c r="D105" t="s">
         <v>186</v>
       </c>
@@ -4256,8 +4261,8 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="22"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="28"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="32"/>
       <c r="D106" t="s">
         <v>187</v>
       </c>
@@ -4270,8 +4275,8 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="22"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="28"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="32"/>
       <c r="D107" t="s">
         <v>188</v>
       </c>
@@ -4284,8 +4289,8 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="22"/>
-      <c r="B108" s="25"/>
-      <c r="C108" s="28"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="32"/>
       <c r="D108" t="s">
         <v>189</v>
       </c>
@@ -4298,8 +4303,8 @@
     </row>
     <row r="109" spans="1:7" ht="17.25" thickBot="1">
       <c r="A109" s="22"/>
-      <c r="B109" s="25"/>
-      <c r="C109" s="29"/>
+      <c r="B109" s="28"/>
+      <c r="C109" s="31"/>
       <c r="D109" t="s">
         <v>190</v>
       </c>
@@ -4312,7 +4317,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="22"/>
-      <c r="B110" s="25"/>
+      <c r="B110" s="28"/>
       <c r="C110" t="s">
         <v>138</v>
       </c>
@@ -4325,7 +4330,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="22"/>
-      <c r="B111" s="25"/>
+      <c r="B111" s="28"/>
       <c r="C111" t="s">
         <v>161</v>
       </c>
@@ -4338,7 +4343,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="22"/>
-      <c r="B112" s="25"/>
+      <c r="B112" s="28"/>
       <c r="C112" t="s">
         <v>191</v>
       </c>
@@ -4351,7 +4356,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="22"/>
-      <c r="B113" s="25"/>
+      <c r="B113" s="28"/>
       <c r="C113" t="s">
         <v>143</v>
       </c>
@@ -4364,7 +4369,7 @@
     </row>
     <row r="114" spans="1:7" ht="17.25" thickBot="1">
       <c r="A114" s="22"/>
-      <c r="B114" s="26"/>
+      <c r="B114" s="29"/>
       <c r="C114" t="s">
         <v>192</v>
       </c>
@@ -4907,26 +4912,21 @@
       <c r="F162" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="G162" t="s">
-        <v>266</v>
-      </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="22"/>
       <c r="B163" t="s">
-        <v>221</v>
-      </c>
-      <c r="F163" s="11" t="s">
-        <v>258</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="F163" s="11"/>
       <c r="G163" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="22"/>
       <c r="B164" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F164" s="11" t="s">
         <v>258</v>
@@ -4938,19 +4938,19 @@
     <row r="165" spans="1:7">
       <c r="A165" s="22"/>
       <c r="B165" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F165" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G165" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="22"/>
       <c r="B166" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F166" s="11" t="s">
         <v>258</v>
@@ -4962,40 +4962,43 @@
     <row r="167" spans="1:7">
       <c r="A167" s="22"/>
       <c r="B167" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F167" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G167" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="22"/>
       <c r="B168" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F168" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G168" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="22"/>
       <c r="B169" t="s">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="F169" s="11" t="s">
         <v>258</v>
+      </c>
+      <c r="G169" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="22"/>
       <c r="B170" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="F170" s="11" t="s">
         <v>258</v>
@@ -5004,7 +5007,7 @@
     <row r="171" spans="1:7">
       <c r="A171" s="22"/>
       <c r="B171" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="F171" s="11" t="s">
         <v>258</v>
@@ -5013,7 +5016,7 @@
     <row r="172" spans="1:7">
       <c r="A172" s="22"/>
       <c r="B172" t="s">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="F172" s="11" t="s">
         <v>258</v>
@@ -5022,19 +5025,16 @@
     <row r="173" spans="1:7">
       <c r="A173" s="22"/>
       <c r="B173" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="F173" s="11" t="s">
         <v>258</v>
-      </c>
-      <c r="G173" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="22"/>
       <c r="B174" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F174" s="11" t="s">
         <v>258</v>
@@ -5046,19 +5046,19 @@
     <row r="175" spans="1:7">
       <c r="A175" s="22"/>
       <c r="B175" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F175" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G175" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="22"/>
       <c r="B176" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="F176" s="11" t="s">
         <v>258</v>
@@ -5070,37 +5070,40 @@
     <row r="177" spans="1:7">
       <c r="A177" s="22"/>
       <c r="B177" t="s">
-        <v>134</v>
+        <v>259</v>
       </c>
       <c r="F177" s="11" t="s">
         <v>258</v>
+      </c>
+      <c r="G177" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="22"/>
       <c r="B178" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F178" s="11" t="s">
         <v>258</v>
-      </c>
-      <c r="G178" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="22"/>
       <c r="B179" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="F179" s="11" t="s">
         <v>258</v>
+      </c>
+      <c r="G179" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="22"/>
       <c r="B180" t="s">
-        <v>227</v>
+        <v>123</v>
       </c>
       <c r="F180" s="11" t="s">
         <v>258</v>
@@ -5109,19 +5112,16 @@
     <row r="181" spans="1:7">
       <c r="A181" s="22"/>
       <c r="B181" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F181" s="11" t="s">
         <v>258</v>
-      </c>
-      <c r="G181" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="22"/>
       <c r="B182" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F182" s="11" t="s">
         <v>258</v>
@@ -5133,76 +5133,76 @@
     <row r="183" spans="1:7">
       <c r="A183" s="22"/>
       <c r="B183" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="F183" s="11" t="s">
         <v>258</v>
+      </c>
+      <c r="G183" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="22"/>
       <c r="B184" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="F184" s="11" t="s">
         <v>258</v>
-      </c>
-      <c r="G184" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="22"/>
       <c r="B185" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F185" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G185" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="22"/>
       <c r="B186" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="F186" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G186" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="22"/>
       <c r="B187" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="F187" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G187" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="22"/>
       <c r="B188" t="s">
+        <v>230</v>
+      </c>
+      <c r="F188" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G188" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="22"/>
+      <c r="B189" t="s">
         <v>231</v>
-      </c>
-      <c r="F188" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="G188" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A189" s="23"/>
-      <c r="B189" t="s">
-        <v>144</v>
       </c>
       <c r="F189" s="11" t="s">
         <v>258</v>
@@ -5211,29 +5211,30 @@
         <v>265</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
-      <c r="A190" s="21" t="s">
+    <row r="190" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A190" s="23"/>
+      <c r="B190" t="s">
+        <v>144</v>
+      </c>
+      <c r="F190" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G190" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="B190" s="24" t="s">
+      <c r="B191" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="C190" s="27" t="s">
+      <c r="C191" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D191" t="s">
         <v>233</v>
-      </c>
-      <c r="F190" s="11" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
-      <c r="A191" s="22"/>
-      <c r="B191" s="25"/>
-      <c r="C191" s="28"/>
-      <c r="D191" t="s">
-        <v>234</v>
       </c>
       <c r="F191" s="11" t="s">
         <v>258</v>
@@ -5241,10 +5242,10 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="22"/>
-      <c r="B192" s="25"/>
-      <c r="C192" s="28"/>
+      <c r="B192" s="28"/>
+      <c r="C192" s="32"/>
       <c r="D192" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F192" s="11" t="s">
         <v>258</v>
@@ -5252,10 +5253,10 @@
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="22"/>
-      <c r="B193" s="25"/>
-      <c r="C193" s="28"/>
+      <c r="B193" s="28"/>
+      <c r="C193" s="32"/>
       <c r="D193" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F193" s="11" t="s">
         <v>258</v>
@@ -5263,10 +5264,10 @@
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="22"/>
-      <c r="B194" s="25"/>
-      <c r="C194" s="28"/>
+      <c r="B194" s="28"/>
+      <c r="C194" s="32"/>
       <c r="D194" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F194" s="11" t="s">
         <v>258</v>
@@ -5274,10 +5275,10 @@
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="22"/>
-      <c r="B195" s="25"/>
-      <c r="C195" s="28"/>
+      <c r="B195" s="28"/>
+      <c r="C195" s="32"/>
       <c r="D195" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F195" s="11" t="s">
         <v>258</v>
@@ -5285,10 +5286,10 @@
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="22"/>
-      <c r="B196" s="25"/>
-      <c r="C196" s="28"/>
+      <c r="B196" s="28"/>
+      <c r="C196" s="32"/>
       <c r="D196" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="F196" s="11" t="s">
         <v>258</v>
@@ -5296,10 +5297,10 @@
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="22"/>
-      <c r="B197" s="25"/>
-      <c r="C197" s="28"/>
+      <c r="B197" s="28"/>
+      <c r="C197" s="32"/>
       <c r="D197" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="F197" s="11" t="s">
         <v>258</v>
@@ -5307,31 +5308,32 @@
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="22"/>
-      <c r="B198" s="25"/>
-      <c r="C198" s="28"/>
+      <c r="B198" s="28"/>
+      <c r="C198" s="32"/>
       <c r="D198" t="s">
+        <v>239</v>
+      </c>
+      <c r="F198" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="22"/>
+      <c r="B199" s="28"/>
+      <c r="C199" s="32"/>
+      <c r="D199" t="s">
         <v>240</v>
       </c>
-      <c r="F198" s="11" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A199" s="22"/>
-      <c r="B199" s="25"/>
-      <c r="C199" s="29"/>
-      <c r="D199" t="s">
+      <c r="F199" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A200" s="22"/>
+      <c r="B200" s="28"/>
+      <c r="C200" s="31"/>
+      <c r="D200" t="s">
         <v>241</v>
-      </c>
-      <c r="F199" s="11" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
-      <c r="A200" s="22"/>
-      <c r="B200" s="25"/>
-      <c r="C200" t="s">
-        <v>242</v>
       </c>
       <c r="F200" s="11" t="s">
         <v>258</v>
@@ -5339,9 +5341,9 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="22"/>
-      <c r="B201" s="25"/>
+      <c r="B201" s="28"/>
       <c r="C201" t="s">
-        <v>84</v>
+        <v>242</v>
       </c>
       <c r="F201" s="11" t="s">
         <v>258</v>
@@ -5349,75 +5351,72 @@
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="22"/>
-      <c r="B202" s="25"/>
+      <c r="B202" s="28"/>
       <c r="C202" t="s">
+        <v>84</v>
+      </c>
+      <c r="F202" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="22"/>
+      <c r="B203" s="28"/>
+      <c r="C203" t="s">
         <v>243</v>
       </c>
-      <c r="F202" s="11" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A203" s="22"/>
-      <c r="B203" s="26"/>
-      <c r="C203" t="s">
+      <c r="F203" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A204" s="22"/>
+      <c r="B204" s="29"/>
+      <c r="C204" t="s">
         <v>244</v>
       </c>
-      <c r="F203" s="11" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
-      <c r="A204" s="22"/>
-      <c r="B204" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="C204" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="D204" t="s">
-        <v>138</v>
-      </c>
       <c r="F204" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="G204" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="22"/>
-      <c r="B205" s="25"/>
-      <c r="C205" s="28"/>
+      <c r="B205" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="C205" s="30" t="s">
+        <v>218</v>
+      </c>
       <c r="D205" t="s">
+        <v>138</v>
+      </c>
+      <c r="F205" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G205" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="22"/>
+      <c r="B206" s="28"/>
+      <c r="C206" s="32"/>
+      <c r="D206" t="s">
         <v>246</v>
       </c>
-      <c r="F205" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="G205" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A206" s="22"/>
-      <c r="B206" s="25"/>
-      <c r="C206" s="29"/>
-      <c r="D206" t="s">
+      <c r="F206" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G206" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A207" s="22"/>
+      <c r="B207" s="28"/>
+      <c r="C207" s="31"/>
+      <c r="D207" t="s">
         <v>221</v>
-      </c>
-      <c r="F206" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="G206" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
-      <c r="A207" s="22"/>
-      <c r="B207" s="25"/>
-      <c r="C207" t="s">
-        <v>206</v>
       </c>
       <c r="F207" s="11" t="s">
         <v>258</v>
@@ -5428,34 +5427,35 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="22"/>
-      <c r="B208" s="25"/>
+      <c r="B208" s="28"/>
       <c r="C208" t="s">
+        <v>206</v>
+      </c>
+      <c r="F208" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G208" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="22"/>
+      <c r="B209" s="28"/>
+      <c r="C209" t="s">
         <v>224</v>
       </c>
-      <c r="F208" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="G208" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A209" s="22"/>
-      <c r="B209" s="26"/>
-      <c r="C209" t="s">
+      <c r="F209" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G209" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A210" s="22"/>
+      <c r="B210" s="29"/>
+      <c r="C210" t="s">
         <v>228</v>
-      </c>
-      <c r="F209" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="G209" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7">
-      <c r="A210" s="22"/>
-      <c r="B210" t="s">
-        <v>212</v>
       </c>
       <c r="F210" s="11" t="s">
         <v>258</v>
@@ -5467,7 +5467,7 @@
     <row r="211" spans="1:7">
       <c r="A211" s="22"/>
       <c r="B211" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="F211" s="11" t="s">
         <v>258</v>
@@ -5479,7 +5479,7 @@
     <row r="212" spans="1:7">
       <c r="A212" s="22"/>
       <c r="B212" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F212" s="11" t="s">
         <v>258</v>
@@ -5491,7 +5491,7 @@
     <row r="213" spans="1:7">
       <c r="A213" s="22"/>
       <c r="B213" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="F213" s="11" t="s">
         <v>258</v>
@@ -5503,7 +5503,7 @@
     <row r="214" spans="1:7">
       <c r="A214" s="22"/>
       <c r="B214" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F214" s="11" t="s">
         <v>258</v>
@@ -5515,7 +5515,7 @@
     <row r="215" spans="1:7">
       <c r="A215" s="22"/>
       <c r="B215" t="s">
-        <v>84</v>
+        <v>217</v>
       </c>
       <c r="F215" s="11" t="s">
         <v>258</v>
@@ -5527,7 +5527,7 @@
     <row r="216" spans="1:7">
       <c r="A216" s="22"/>
       <c r="B216" t="s">
-        <v>249</v>
+        <v>84</v>
       </c>
       <c r="F216" s="11" t="s">
         <v>258</v>
@@ -5539,7 +5539,7 @@
     <row r="217" spans="1:7">
       <c r="A217" s="22"/>
       <c r="B217" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="F217" s="11" t="s">
         <v>258</v>
@@ -5551,7 +5551,7 @@
     <row r="218" spans="1:7">
       <c r="A218" s="22"/>
       <c r="B218" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F218" s="11" t="s">
         <v>258</v>
@@ -5563,7 +5563,7 @@
     <row r="219" spans="1:7">
       <c r="A219" s="22"/>
       <c r="B219" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F219" s="11" t="s">
         <v>258</v>
@@ -5575,7 +5575,7 @@
     <row r="220" spans="1:7">
       <c r="A220" s="22"/>
       <c r="B220" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="F220" s="11" t="s">
         <v>258</v>
@@ -5587,7 +5587,7 @@
     <row r="221" spans="1:7">
       <c r="A221" s="22"/>
       <c r="B221" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F221" s="11" t="s">
         <v>258</v>
@@ -5599,88 +5599,98 @@
     <row r="222" spans="1:7">
       <c r="A222" s="22"/>
       <c r="B222" t="s">
+        <v>251</v>
+      </c>
+      <c r="F222" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G222" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="22"/>
+      <c r="B223" t="s">
         <v>252</v>
       </c>
-      <c r="F222" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="G222" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A223" s="23"/>
-      <c r="B223" t="s">
+      <c r="F223" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G223" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A224" s="23"/>
+      <c r="B224" t="s">
         <v>230</v>
       </c>
-      <c r="F223" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="G223" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7">
-      <c r="A224" s="21" t="s">
+      <c r="F224" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G224" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B225" t="s">
         <v>254</v>
       </c>
-      <c r="F224" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="G224" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7">
-      <c r="A225" s="22"/>
-      <c r="B225" t="s">
+      <c r="F225" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G225" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="22"/>
+      <c r="B226" t="s">
         <v>255</v>
       </c>
-      <c r="F225" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="G225" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A226" s="23"/>
-      <c r="B226" t="s">
+      <c r="F226" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G226" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A227" s="23"/>
+      <c r="B227" t="s">
         <v>256</v>
       </c>
-      <c r="F226" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="G226" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7">
-      <c r="A227" t="s">
+      <c r="F227" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G227" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" t="s">
         <v>257</v>
       </c>
-      <c r="F227" s="11" t="s">
+      <c r="F228" s="11" t="s">
         <v>258</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:A46"/>
-    <mergeCell ref="B1:B9"/>
-    <mergeCell ref="B10:B23"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="A47:A127"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B78"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="A225:A227"/>
+    <mergeCell ref="A128:A190"/>
+    <mergeCell ref="A191:A224"/>
+    <mergeCell ref="B191:B204"/>
+    <mergeCell ref="B205:B210"/>
+    <mergeCell ref="C191:C200"/>
+    <mergeCell ref="C205:C207"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B114"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="C96:C109"/>
@@ -5690,17 +5700,19 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C190:C199"/>
-    <mergeCell ref="C204:C206"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B114"/>
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="A128:A189"/>
-    <mergeCell ref="A190:A223"/>
-    <mergeCell ref="B190:B203"/>
-    <mergeCell ref="B204:B209"/>
+    <mergeCell ref="A47:A127"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B78"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="A1:A46"/>
+    <mergeCell ref="B1:B9"/>
+    <mergeCell ref="B10:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/開發文件.xlsx
+++ b/docs/開發文件.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\YDWE1.25.10\Creation\Mod\The_Tilted_Clock_Tower\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC46A60-3F88-41DB-82C2-0E0CCDACE221}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1F723E-6DA0-460D-A0F8-8023526BC993}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="270">
   <si>
     <r>
       <rPr>
@@ -1313,6 +1313,10 @@
   </si>
   <si>
     <t>mover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1631,15 +1635,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1652,10 +1647,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1665,6 +1660,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2986,8 +2990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29018229-9EAF-4726-88C6-5A87070EDF6C}">
   <dimension ref="A1:G228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="G162" sqref="G162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3004,7 +3008,7 @@
       <c r="A1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="33" t="s">
         <v>83</v>
       </c>
       <c r="C1" t="s">
@@ -3016,7 +3020,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="22"/>
-      <c r="B2" s="25"/>
+      <c r="B2" s="34"/>
       <c r="C2" t="s">
         <v>85</v>
       </c>
@@ -3026,7 +3030,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="22"/>
-      <c r="B3" s="25"/>
+      <c r="B3" s="34"/>
       <c r="C3" t="s">
         <v>86</v>
       </c>
@@ -3036,7 +3040,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="22"/>
-      <c r="B4" s="25"/>
+      <c r="B4" s="34"/>
       <c r="C4" t="s">
         <v>87</v>
       </c>
@@ -3046,7 +3050,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="22"/>
-      <c r="B5" s="25"/>
+      <c r="B5" s="34"/>
       <c r="C5" t="s">
         <v>88</v>
       </c>
@@ -3056,7 +3060,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="22"/>
-      <c r="B6" s="25"/>
+      <c r="B6" s="34"/>
       <c r="C6" t="s">
         <v>89</v>
       </c>
@@ -3066,7 +3070,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="22"/>
-      <c r="B7" s="25"/>
+      <c r="B7" s="34"/>
       <c r="C7" t="s">
         <v>90</v>
       </c>
@@ -3076,7 +3080,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="22"/>
-      <c r="B8" s="25"/>
+      <c r="B8" s="34"/>
       <c r="C8" t="s">
         <v>91</v>
       </c>
@@ -3086,7 +3090,7 @@
     </row>
     <row r="9" spans="1:6" ht="17.25" thickBot="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="26"/>
+      <c r="B9" s="35"/>
       <c r="C9" t="s">
         <v>92</v>
       </c>
@@ -3096,13 +3100,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="22"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="30" t="s">
         <v>95</v>
       </c>
       <c r="E10" t="s">
@@ -3114,9 +3118,9 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="22"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="31"/>
       <c r="E11" t="s">
         <v>97</v>
       </c>
@@ -3126,9 +3130,9 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="22"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="31"/>
       <c r="E12" t="s">
         <v>98</v>
       </c>
@@ -3138,9 +3142,9 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="22"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="31"/>
       <c r="E13" t="s">
         <v>99</v>
       </c>
@@ -3150,9 +3154,9 @@
     </row>
     <row r="14" spans="1:6" ht="17.25" thickBot="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="35"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="32"/>
       <c r="E14" t="s">
         <v>100</v>
       </c>
@@ -3162,9 +3166,9 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="22"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="30" t="s">
         <v>101</v>
       </c>
       <c r="E15" t="s">
@@ -3176,9 +3180,9 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="22"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="31"/>
       <c r="E16" t="s">
         <v>103</v>
       </c>
@@ -3188,9 +3192,9 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="22"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="31"/>
       <c r="E17" t="s">
         <v>104</v>
       </c>
@@ -3200,9 +3204,9 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="22"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="31"/>
       <c r="E18" t="s">
         <v>105</v>
       </c>
@@ -3212,9 +3216,9 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="31"/>
       <c r="E19" t="s">
         <v>106</v>
       </c>
@@ -3224,9 +3228,9 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="22"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="31"/>
       <c r="E20" t="s">
         <v>107</v>
       </c>
@@ -3236,9 +3240,9 @@
     </row>
     <row r="21" spans="1:6" ht="17.25" thickBot="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="35"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="32"/>
       <c r="E21" t="s">
         <v>108</v>
       </c>
@@ -3248,7 +3252,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="22"/>
-      <c r="B22" s="25"/>
+      <c r="B22" s="34"/>
       <c r="C22" t="s">
         <v>109</v>
       </c>
@@ -3258,7 +3262,7 @@
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="26"/>
+      <c r="B23" s="35"/>
       <c r="C23" t="s">
         <v>84</v>
       </c>
@@ -3268,7 +3272,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="22"/>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="24" t="s">
         <v>110</v>
       </c>
       <c r="C24" t="s">
@@ -3280,7 +3284,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="22"/>
-      <c r="B25" s="28"/>
+      <c r="B25" s="25"/>
       <c r="C25" t="s">
         <v>111</v>
       </c>
@@ -3290,7 +3294,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="22"/>
-      <c r="B26" s="28"/>
+      <c r="B26" s="25"/>
       <c r="C26" t="s">
         <v>112</v>
       </c>
@@ -3300,7 +3304,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="22"/>
-      <c r="B27" s="28"/>
+      <c r="B27" s="25"/>
       <c r="C27" t="s">
         <v>113</v>
       </c>
@@ -3310,7 +3314,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="22"/>
-      <c r="B28" s="28"/>
+      <c r="B28" s="25"/>
       <c r="C28" t="s">
         <v>114</v>
       </c>
@@ -3320,7 +3324,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="22"/>
-      <c r="B29" s="28"/>
+      <c r="B29" s="25"/>
       <c r="C29" t="s">
         <v>115</v>
       </c>
@@ -3330,7 +3334,7 @@
     </row>
     <row r="30" spans="1:6" ht="17.25" thickBot="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="29"/>
+      <c r="B30" s="26"/>
       <c r="C30" t="s">
         <v>116</v>
       </c>
@@ -3340,10 +3344,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="22"/>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="27" t="s">
         <v>118</v>
       </c>
       <c r="D31" t="s">
@@ -3355,8 +3359,8 @@
     </row>
     <row r="32" spans="1:6" ht="17.25" thickBot="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="31"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="29"/>
       <c r="D32" t="s">
         <v>120</v>
       </c>
@@ -3366,8 +3370,8 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="22"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="30" t="s">
+      <c r="B33" s="25"/>
+      <c r="C33" s="27" t="s">
         <v>121</v>
       </c>
       <c r="D33" t="s">
@@ -3379,8 +3383,8 @@
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1">
       <c r="A34" s="22"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="31"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="29"/>
       <c r="D34" t="s">
         <v>123</v>
       </c>
@@ -3390,8 +3394,8 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="22"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="30" t="s">
+      <c r="B35" s="25"/>
+      <c r="C35" s="27" t="s">
         <v>124</v>
       </c>
       <c r="D35" t="s">
@@ -3403,8 +3407,8 @@
     </row>
     <row r="36" spans="1:7" ht="17.25" thickBot="1">
       <c r="A36" s="22"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="31"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="29"/>
       <c r="D36" t="s">
         <v>123</v>
       </c>
@@ -3506,7 +3510,7 @@
       <c r="A47" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="24" t="s">
         <v>136</v>
       </c>
       <c r="C47" t="s">
@@ -3521,7 +3525,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="22"/>
-      <c r="B48" s="28"/>
+      <c r="B48" s="25"/>
       <c r="C48" t="s">
         <v>138</v>
       </c>
@@ -3534,7 +3538,7 @@
     </row>
     <row r="49" spans="1:7" ht="17.25" thickBot="1">
       <c r="A49" s="22"/>
-      <c r="B49" s="29"/>
+      <c r="B49" s="26"/>
       <c r="C49" t="s">
         <v>139</v>
       </c>
@@ -3547,10 +3551,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="22"/>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="27" t="s">
         <v>141</v>
       </c>
       <c r="D50" t="s">
@@ -3565,8 +3569,8 @@
     </row>
     <row r="51" spans="1:7" ht="17.25" thickBot="1">
       <c r="A51" s="22"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="31"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="29"/>
       <c r="D51" t="s">
         <v>142</v>
       </c>
@@ -3579,7 +3583,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="22"/>
-      <c r="B52" s="28"/>
+      <c r="B52" s="25"/>
       <c r="C52" t="s">
         <v>138</v>
       </c>
@@ -3592,7 +3596,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="22"/>
-      <c r="B53" s="28"/>
+      <c r="B53" s="25"/>
       <c r="C53" t="s">
         <v>84</v>
       </c>
@@ -3605,7 +3609,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="22"/>
-      <c r="B54" s="28"/>
+      <c r="B54" s="25"/>
       <c r="C54" t="s">
         <v>143</v>
       </c>
@@ -3618,7 +3622,7 @@
     </row>
     <row r="55" spans="1:7" ht="17.25" thickBot="1">
       <c r="A55" s="22"/>
-      <c r="B55" s="29"/>
+      <c r="B55" s="26"/>
       <c r="C55" t="s">
         <v>144</v>
       </c>
@@ -3631,7 +3635,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="22"/>
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="24" t="s">
         <v>145</v>
       </c>
       <c r="C56" t="s">
@@ -3646,7 +3650,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="22"/>
-      <c r="B57" s="28"/>
+      <c r="B57" s="25"/>
       <c r="C57" t="s">
         <v>147</v>
       </c>
@@ -3659,7 +3663,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="22"/>
-      <c r="B58" s="28"/>
+      <c r="B58" s="25"/>
       <c r="C58" t="s">
         <v>148</v>
       </c>
@@ -3672,7 +3676,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="22"/>
-      <c r="B59" s="28"/>
+      <c r="B59" s="25"/>
       <c r="C59" t="s">
         <v>149</v>
       </c>
@@ -3685,7 +3689,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="22"/>
-      <c r="B60" s="28"/>
+      <c r="B60" s="25"/>
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -3698,7 +3702,7 @@
     </row>
     <row r="61" spans="1:7" ht="17.25" thickBot="1">
       <c r="A61" s="22"/>
-      <c r="B61" s="29"/>
+      <c r="B61" s="26"/>
       <c r="C61" t="s">
         <v>151</v>
       </c>
@@ -3711,7 +3715,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="22"/>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="24" t="s">
         <v>152</v>
       </c>
       <c r="C62" t="s">
@@ -3726,7 +3730,7 @@
     </row>
     <row r="63" spans="1:7" ht="17.25" thickBot="1">
       <c r="A63" s="22"/>
-      <c r="B63" s="29"/>
+      <c r="B63" s="26"/>
       <c r="C63" t="s">
         <v>138</v>
       </c>
@@ -3739,10 +3743,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="22"/>
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C64" s="27" t="s">
         <v>155</v>
       </c>
       <c r="D64" t="s">
@@ -3754,8 +3758,8 @@
     </row>
     <row r="65" spans="1:7" ht="17.25" thickBot="1">
       <c r="A65" s="22"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="31"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="29"/>
       <c r="D65" t="s">
         <v>156</v>
       </c>
@@ -3765,7 +3769,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="22"/>
-      <c r="B66" s="28"/>
+      <c r="B66" s="25"/>
       <c r="C66" t="s">
         <v>157</v>
       </c>
@@ -3775,7 +3779,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="22"/>
-      <c r="B67" s="28"/>
+      <c r="B67" s="25"/>
       <c r="C67" t="s">
         <v>158</v>
       </c>
@@ -3785,7 +3789,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="22"/>
-      <c r="B68" s="28"/>
+      <c r="B68" s="25"/>
       <c r="C68" t="s">
         <v>159</v>
       </c>
@@ -3795,7 +3799,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="22"/>
-      <c r="B69" s="28"/>
+      <c r="B69" s="25"/>
       <c r="C69" t="s">
         <v>138</v>
       </c>
@@ -3805,7 +3809,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="22"/>
-      <c r="B70" s="28"/>
+      <c r="B70" s="25"/>
       <c r="C70" t="s">
         <v>160</v>
       </c>
@@ -3815,7 +3819,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="22"/>
-      <c r="B71" s="28"/>
+      <c r="B71" s="25"/>
       <c r="C71" t="s">
         <v>161</v>
       </c>
@@ -3825,7 +3829,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="22"/>
-      <c r="B72" s="28"/>
+      <c r="B72" s="25"/>
       <c r="C72" t="s">
         <v>162</v>
       </c>
@@ -3835,7 +3839,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="22"/>
-      <c r="B73" s="28"/>
+      <c r="B73" s="25"/>
       <c r="C73" t="s">
         <v>84</v>
       </c>
@@ -3845,7 +3849,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="22"/>
-      <c r="B74" s="28"/>
+      <c r="B74" s="25"/>
       <c r="C74" t="s">
         <v>163</v>
       </c>
@@ -3855,7 +3859,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="22"/>
-      <c r="B75" s="28"/>
+      <c r="B75" s="25"/>
       <c r="C75" t="s">
         <v>164</v>
       </c>
@@ -3865,7 +3869,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="22"/>
-      <c r="B76" s="28"/>
+      <c r="B76" s="25"/>
       <c r="C76" t="s">
         <v>165</v>
       </c>
@@ -3875,7 +3879,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="22"/>
-      <c r="B77" s="28"/>
+      <c r="B77" s="25"/>
       <c r="C77" t="s">
         <v>166</v>
       </c>
@@ -3885,7 +3889,7 @@
     </row>
     <row r="78" spans="1:7" ht="17.25" thickBot="1">
       <c r="A78" s="22"/>
-      <c r="B78" s="29"/>
+      <c r="B78" s="26"/>
       <c r="C78" t="s">
         <v>167</v>
       </c>
@@ -3895,7 +3899,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="22"/>
-      <c r="B79" s="27" t="s">
+      <c r="B79" s="24" t="s">
         <v>168</v>
       </c>
       <c r="C79" t="s">
@@ -3910,27 +3914,33 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="22"/>
-      <c r="B80" s="28"/>
+      <c r="B80" s="25"/>
       <c r="C80" t="s">
         <v>169</v>
       </c>
       <c r="F80" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="G80" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="22"/>
-      <c r="B81" s="28"/>
+      <c r="B81" s="25"/>
       <c r="C81" t="s">
         <v>170</v>
       </c>
       <c r="F81" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="G81" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="22"/>
-      <c r="B82" s="28"/>
+      <c r="B82" s="25"/>
       <c r="C82" t="s">
         <v>171</v>
       </c>
@@ -3943,7 +3953,7 @@
     </row>
     <row r="83" spans="1:7" ht="17.25" thickBot="1">
       <c r="A83" s="22"/>
-      <c r="B83" s="29"/>
+      <c r="B83" s="26"/>
       <c r="C83" t="s">
         <v>172</v>
       </c>
@@ -3956,7 +3966,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="22"/>
-      <c r="B84" s="27" t="s">
+      <c r="B84" s="24" t="s">
         <v>173</v>
       </c>
       <c r="C84" t="s">
@@ -3971,7 +3981,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="22"/>
-      <c r="B85" s="28"/>
+      <c r="B85" s="25"/>
       <c r="C85" t="s">
         <v>144</v>
       </c>
@@ -3984,7 +3994,7 @@
     </row>
     <row r="86" spans="1:7" ht="17.25" thickBot="1">
       <c r="A86" s="22"/>
-      <c r="B86" s="29"/>
+      <c r="B86" s="26"/>
       <c r="C86" t="s">
         <v>172</v>
       </c>
@@ -3994,7 +4004,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="22"/>
-      <c r="B87" s="27" t="s">
+      <c r="B87" s="24" t="s">
         <v>123</v>
       </c>
       <c r="C87" t="s">
@@ -4009,7 +4019,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="22"/>
-      <c r="B88" s="28"/>
+      <c r="B88" s="25"/>
       <c r="C88" t="s">
         <v>138</v>
       </c>
@@ -4022,7 +4032,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="22"/>
-      <c r="B89" s="28"/>
+      <c r="B89" s="25"/>
       <c r="C89" t="s">
         <v>161</v>
       </c>
@@ -4035,7 +4045,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="22"/>
-      <c r="B90" s="28"/>
+      <c r="B90" s="25"/>
       <c r="C90" t="s">
         <v>84</v>
       </c>
@@ -4048,7 +4058,7 @@
     </row>
     <row r="91" spans="1:7" ht="17.25" thickBot="1">
       <c r="A91" s="22"/>
-      <c r="B91" s="29"/>
+      <c r="B91" s="26"/>
       <c r="C91" t="s">
         <v>172</v>
       </c>
@@ -4061,7 +4071,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="22"/>
-      <c r="B92" s="27" t="s">
+      <c r="B92" s="24" t="s">
         <v>175</v>
       </c>
       <c r="C92" t="s">
@@ -4076,7 +4086,7 @@
     </row>
     <row r="93" spans="1:7" ht="17.25" thickBot="1">
       <c r="A93" s="22"/>
-      <c r="B93" s="29"/>
+      <c r="B93" s="26"/>
       <c r="C93" t="s">
         <v>138</v>
       </c>
@@ -4089,7 +4099,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="22"/>
-      <c r="B94" s="27" t="s">
+      <c r="B94" s="24" t="s">
         <v>177</v>
       </c>
       <c r="C94" t="s">
@@ -4104,7 +4114,7 @@
     </row>
     <row r="95" spans="1:7" ht="17.25" thickBot="1">
       <c r="A95" s="22"/>
-      <c r="B95" s="29"/>
+      <c r="B95" s="26"/>
       <c r="C95" t="s">
         <v>84</v>
       </c>
@@ -4117,10 +4127,10 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="22"/>
-      <c r="B96" s="27" t="s">
+      <c r="B96" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="C96" s="30" t="s">
+      <c r="C96" s="27" t="s">
         <v>141</v>
       </c>
       <c r="D96" t="s">
@@ -4135,8 +4145,8 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="22"/>
-      <c r="B97" s="28"/>
-      <c r="C97" s="32"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="28"/>
       <c r="D97" t="s">
         <v>178</v>
       </c>
@@ -4149,8 +4159,8 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="22"/>
-      <c r="B98" s="28"/>
-      <c r="C98" s="32"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="28"/>
       <c r="D98" t="s">
         <v>179</v>
       </c>
@@ -4163,8 +4173,8 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="22"/>
-      <c r="B99" s="28"/>
-      <c r="C99" s="32"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="28"/>
       <c r="D99" t="s">
         <v>180</v>
       </c>
@@ -4177,8 +4187,8 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="22"/>
-      <c r="B100" s="28"/>
-      <c r="C100" s="32"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="28"/>
       <c r="D100" t="s">
         <v>181</v>
       </c>
@@ -4191,8 +4201,8 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="22"/>
-      <c r="B101" s="28"/>
-      <c r="C101" s="32"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="28"/>
       <c r="D101" t="s">
         <v>182</v>
       </c>
@@ -4205,8 +4215,8 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="22"/>
-      <c r="B102" s="28"/>
-      <c r="C102" s="32"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="28"/>
       <c r="D102" t="s">
         <v>183</v>
       </c>
@@ -4219,8 +4229,8 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="22"/>
-      <c r="B103" s="28"/>
-      <c r="C103" s="32"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="28"/>
       <c r="D103" t="s">
         <v>184</v>
       </c>
@@ -4233,8 +4243,8 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="22"/>
-      <c r="B104" s="28"/>
-      <c r="C104" s="32"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="28"/>
       <c r="D104" t="s">
         <v>185</v>
       </c>
@@ -4247,8 +4257,8 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="22"/>
-      <c r="B105" s="28"/>
-      <c r="C105" s="32"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="28"/>
       <c r="D105" t="s">
         <v>186</v>
       </c>
@@ -4261,8 +4271,8 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="22"/>
-      <c r="B106" s="28"/>
-      <c r="C106" s="32"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="28"/>
       <c r="D106" t="s">
         <v>187</v>
       </c>
@@ -4275,8 +4285,8 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="22"/>
-      <c r="B107" s="28"/>
-      <c r="C107" s="32"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="28"/>
       <c r="D107" t="s">
         <v>188</v>
       </c>
@@ -4289,8 +4299,8 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="22"/>
-      <c r="B108" s="28"/>
-      <c r="C108" s="32"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="28"/>
       <c r="D108" t="s">
         <v>189</v>
       </c>
@@ -4303,8 +4313,8 @@
     </row>
     <row r="109" spans="1:7" ht="17.25" thickBot="1">
       <c r="A109" s="22"/>
-      <c r="B109" s="28"/>
-      <c r="C109" s="31"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="29"/>
       <c r="D109" t="s">
         <v>190</v>
       </c>
@@ -4317,7 +4327,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="22"/>
-      <c r="B110" s="28"/>
+      <c r="B110" s="25"/>
       <c r="C110" t="s">
         <v>138</v>
       </c>
@@ -4330,7 +4340,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="22"/>
-      <c r="B111" s="28"/>
+      <c r="B111" s="25"/>
       <c r="C111" t="s">
         <v>161</v>
       </c>
@@ -4343,7 +4353,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="22"/>
-      <c r="B112" s="28"/>
+      <c r="B112" s="25"/>
       <c r="C112" t="s">
         <v>191</v>
       </c>
@@ -4356,7 +4366,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="22"/>
-      <c r="B113" s="28"/>
+      <c r="B113" s="25"/>
       <c r="C113" t="s">
         <v>143</v>
       </c>
@@ -4369,7 +4379,7 @@
     </row>
     <row r="114" spans="1:7" ht="17.25" thickBot="1">
       <c r="A114" s="22"/>
-      <c r="B114" s="29"/>
+      <c r="B114" s="26"/>
       <c r="C114" t="s">
         <v>192</v>
       </c>
@@ -4870,6 +4880,9 @@
       <c r="F158" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="G158" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="22"/>
@@ -4912,6 +4925,9 @@
       <c r="F162" s="11" t="s">
         <v>258</v>
       </c>
+      <c r="G162" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="22"/>
@@ -5227,10 +5243,10 @@
       <c r="A191" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="B191" s="27" t="s">
+      <c r="B191" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="C191" s="30" t="s">
+      <c r="C191" s="27" t="s">
         <v>232</v>
       </c>
       <c r="D191" t="s">
@@ -5242,8 +5258,8 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="22"/>
-      <c r="B192" s="28"/>
-      <c r="C192" s="32"/>
+      <c r="B192" s="25"/>
+      <c r="C192" s="28"/>
       <c r="D192" t="s">
         <v>234</v>
       </c>
@@ -5253,8 +5269,8 @@
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="22"/>
-      <c r="B193" s="28"/>
-      <c r="C193" s="32"/>
+      <c r="B193" s="25"/>
+      <c r="C193" s="28"/>
       <c r="D193" t="s">
         <v>235</v>
       </c>
@@ -5264,8 +5280,8 @@
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="22"/>
-      <c r="B194" s="28"/>
-      <c r="C194" s="32"/>
+      <c r="B194" s="25"/>
+      <c r="C194" s="28"/>
       <c r="D194" t="s">
         <v>236</v>
       </c>
@@ -5275,8 +5291,8 @@
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="22"/>
-      <c r="B195" s="28"/>
-      <c r="C195" s="32"/>
+      <c r="B195" s="25"/>
+      <c r="C195" s="28"/>
       <c r="D195" t="s">
         <v>237</v>
       </c>
@@ -5286,8 +5302,8 @@
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="22"/>
-      <c r="B196" s="28"/>
-      <c r="C196" s="32"/>
+      <c r="B196" s="25"/>
+      <c r="C196" s="28"/>
       <c r="D196" t="s">
         <v>238</v>
       </c>
@@ -5297,8 +5313,8 @@
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="22"/>
-      <c r="B197" s="28"/>
-      <c r="C197" s="32"/>
+      <c r="B197" s="25"/>
+      <c r="C197" s="28"/>
       <c r="D197" t="s">
         <v>221</v>
       </c>
@@ -5308,8 +5324,8 @@
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="22"/>
-      <c r="B198" s="28"/>
-      <c r="C198" s="32"/>
+      <c r="B198" s="25"/>
+      <c r="C198" s="28"/>
       <c r="D198" t="s">
         <v>239</v>
       </c>
@@ -5319,8 +5335,8 @@
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="22"/>
-      <c r="B199" s="28"/>
-      <c r="C199" s="32"/>
+      <c r="B199" s="25"/>
+      <c r="C199" s="28"/>
       <c r="D199" t="s">
         <v>240</v>
       </c>
@@ -5330,8 +5346,8 @@
     </row>
     <row r="200" spans="1:7" ht="17.25" thickBot="1">
       <c r="A200" s="22"/>
-      <c r="B200" s="28"/>
-      <c r="C200" s="31"/>
+      <c r="B200" s="25"/>
+      <c r="C200" s="29"/>
       <c r="D200" t="s">
         <v>241</v>
       </c>
@@ -5341,7 +5357,7 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="22"/>
-      <c r="B201" s="28"/>
+      <c r="B201" s="25"/>
       <c r="C201" t="s">
         <v>242</v>
       </c>
@@ -5351,7 +5367,7 @@
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="22"/>
-      <c r="B202" s="28"/>
+      <c r="B202" s="25"/>
       <c r="C202" t="s">
         <v>84</v>
       </c>
@@ -5361,7 +5377,7 @@
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="22"/>
-      <c r="B203" s="28"/>
+      <c r="B203" s="25"/>
       <c r="C203" t="s">
         <v>243</v>
       </c>
@@ -5371,7 +5387,7 @@
     </row>
     <row r="204" spans="1:7" ht="17.25" thickBot="1">
       <c r="A204" s="22"/>
-      <c r="B204" s="29"/>
+      <c r="B204" s="26"/>
       <c r="C204" t="s">
         <v>244</v>
       </c>
@@ -5381,10 +5397,10 @@
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="22"/>
-      <c r="B205" s="27" t="s">
+      <c r="B205" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="C205" s="30" t="s">
+      <c r="C205" s="27" t="s">
         <v>218</v>
       </c>
       <c r="D205" t="s">
@@ -5399,8 +5415,8 @@
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="22"/>
-      <c r="B206" s="28"/>
-      <c r="C206" s="32"/>
+      <c r="B206" s="25"/>
+      <c r="C206" s="28"/>
       <c r="D206" t="s">
         <v>246</v>
       </c>
@@ -5413,8 +5429,8 @@
     </row>
     <row r="207" spans="1:7" ht="17.25" thickBot="1">
       <c r="A207" s="22"/>
-      <c r="B207" s="28"/>
-      <c r="C207" s="31"/>
+      <c r="B207" s="25"/>
+      <c r="C207" s="29"/>
       <c r="D207" t="s">
         <v>221</v>
       </c>
@@ -5427,7 +5443,7 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="22"/>
-      <c r="B208" s="28"/>
+      <c r="B208" s="25"/>
       <c r="C208" t="s">
         <v>206</v>
       </c>
@@ -5440,7 +5456,7 @@
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="22"/>
-      <c r="B209" s="28"/>
+      <c r="B209" s="25"/>
       <c r="C209" t="s">
         <v>224</v>
       </c>
@@ -5453,7 +5469,7 @@
     </row>
     <row r="210" spans="1:7" ht="17.25" thickBot="1">
       <c r="A210" s="22"/>
-      <c r="B210" s="29"/>
+      <c r="B210" s="26"/>
       <c r="C210" t="s">
         <v>228</v>
       </c>
@@ -5680,17 +5696,19 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A225:A227"/>
-    <mergeCell ref="A128:A190"/>
-    <mergeCell ref="A191:A224"/>
-    <mergeCell ref="B191:B204"/>
-    <mergeCell ref="B205:B210"/>
-    <mergeCell ref="C191:C200"/>
-    <mergeCell ref="C205:C207"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B114"/>
+    <mergeCell ref="A1:A46"/>
+    <mergeCell ref="B1:B9"/>
+    <mergeCell ref="B10:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A47:A127"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B78"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B84:B86"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="C96:C109"/>
@@ -5700,19 +5718,17 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A47:A127"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B78"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="A1:A46"/>
-    <mergeCell ref="B1:B9"/>
-    <mergeCell ref="B10:B23"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C191:C200"/>
+    <mergeCell ref="C205:C207"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B114"/>
+    <mergeCell ref="A225:A227"/>
+    <mergeCell ref="A128:A190"/>
+    <mergeCell ref="A191:A224"/>
+    <mergeCell ref="B191:B204"/>
+    <mergeCell ref="B205:B210"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/開發文件.xlsx
+++ b/docs/開發文件.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\YDWE1.25.10\Creation\Mod\The_Tilted_Clock_Tower\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1F723E-6DA0-460D-A0F8-8023526BC993}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5C98A5-8264-416C-8CD8-A124FD1F4D03}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
   </bookViews>
   <sheets>
     <sheet name="項目" sheetId="1" r:id="rId1"/>
-    <sheet name="重構紀錄" sheetId="2" r:id="rId2"/>
+    <sheet name="目錄" sheetId="3" r:id="rId2"/>
+    <sheet name="架構" sheetId="4" r:id="rId3"/>
+    <sheet name="流程" sheetId="5" r:id="rId4"/>
+    <sheet name="重構紀錄" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -1635,6 +1638,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1647,10 +1659,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1660,15 +1672,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1996,7 +1999,7 @@
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2987,11 +2990,52 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2349F37A-6151-425C-9B02-255B48A064C4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A49064-508F-4BCD-89C6-B182FEBF2CD7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336849DF-D3F4-435E-87DA-A99B863A554D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29018229-9EAF-4726-88C6-5A87070EDF6C}">
   <dimension ref="A1:G228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="G162" sqref="G162"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="F139" sqref="F139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3008,7 +3052,7 @@
       <c r="A1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="24" t="s">
         <v>83</v>
       </c>
       <c r="C1" t="s">
@@ -3020,7 +3064,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="22"/>
-      <c r="B2" s="34"/>
+      <c r="B2" s="25"/>
       <c r="C2" t="s">
         <v>85</v>
       </c>
@@ -3030,7 +3074,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="22"/>
-      <c r="B3" s="34"/>
+      <c r="B3" s="25"/>
       <c r="C3" t="s">
         <v>86</v>
       </c>
@@ -3040,7 +3084,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="22"/>
-      <c r="B4" s="34"/>
+      <c r="B4" s="25"/>
       <c r="C4" t="s">
         <v>87</v>
       </c>
@@ -3050,7 +3094,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="22"/>
-      <c r="B5" s="34"/>
+      <c r="B5" s="25"/>
       <c r="C5" t="s">
         <v>88</v>
       </c>
@@ -3060,7 +3104,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="22"/>
-      <c r="B6" s="34"/>
+      <c r="B6" s="25"/>
       <c r="C6" t="s">
         <v>89</v>
       </c>
@@ -3070,7 +3114,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="22"/>
-      <c r="B7" s="34"/>
+      <c r="B7" s="25"/>
       <c r="C7" t="s">
         <v>90</v>
       </c>
@@ -3080,7 +3124,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="22"/>
-      <c r="B8" s="34"/>
+      <c r="B8" s="25"/>
       <c r="C8" t="s">
         <v>91</v>
       </c>
@@ -3090,7 +3134,7 @@
     </row>
     <row r="9" spans="1:6" ht="17.25" thickBot="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="35"/>
+      <c r="B9" s="26"/>
       <c r="C9" t="s">
         <v>92</v>
       </c>
@@ -3100,13 +3144,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="22"/>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="33" t="s">
         <v>95</v>
       </c>
       <c r="E10" t="s">
@@ -3118,9 +3162,9 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="22"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="34"/>
       <c r="E11" t="s">
         <v>97</v>
       </c>
@@ -3130,9 +3174,9 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="22"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="31"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="34"/>
       <c r="E12" t="s">
         <v>98</v>
       </c>
@@ -3142,9 +3186,9 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="22"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="34"/>
       <c r="E13" t="s">
         <v>99</v>
       </c>
@@ -3154,9 +3198,9 @@
     </row>
     <row r="14" spans="1:6" ht="17.25" thickBot="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="32"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="35"/>
       <c r="E14" t="s">
         <v>100</v>
       </c>
@@ -3166,9 +3210,9 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="22"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="30" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33" t="s">
         <v>101</v>
       </c>
       <c r="E15" t="s">
@@ -3180,9 +3224,9 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="22"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="31"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="34"/>
       <c r="E16" t="s">
         <v>103</v>
       </c>
@@ -3192,9 +3236,9 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="22"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="31"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="34"/>
       <c r="E17" t="s">
         <v>104</v>
       </c>
@@ -3204,9 +3248,9 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="22"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="31"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="34"/>
       <c r="E18" t="s">
         <v>105</v>
       </c>
@@ -3216,9 +3260,9 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="31"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="34"/>
       <c r="E19" t="s">
         <v>106</v>
       </c>
@@ -3228,9 +3272,9 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="22"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="31"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="34"/>
       <c r="E20" t="s">
         <v>107</v>
       </c>
@@ -3240,9 +3284,9 @@
     </row>
     <row r="21" spans="1:6" ht="17.25" thickBot="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="32"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="35"/>
       <c r="E21" t="s">
         <v>108</v>
       </c>
@@ -3252,7 +3296,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="22"/>
-      <c r="B22" s="34"/>
+      <c r="B22" s="25"/>
       <c r="C22" t="s">
         <v>109</v>
       </c>
@@ -3262,7 +3306,7 @@
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="35"/>
+      <c r="B23" s="26"/>
       <c r="C23" t="s">
         <v>84</v>
       </c>
@@ -3272,7 +3316,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="22"/>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="27" t="s">
         <v>110</v>
       </c>
       <c r="C24" t="s">
@@ -3284,7 +3328,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="22"/>
-      <c r="B25" s="25"/>
+      <c r="B25" s="28"/>
       <c r="C25" t="s">
         <v>111</v>
       </c>
@@ -3294,7 +3338,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="22"/>
-      <c r="B26" s="25"/>
+      <c r="B26" s="28"/>
       <c r="C26" t="s">
         <v>112</v>
       </c>
@@ -3304,7 +3348,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="22"/>
-      <c r="B27" s="25"/>
+      <c r="B27" s="28"/>
       <c r="C27" t="s">
         <v>113</v>
       </c>
@@ -3314,7 +3358,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="22"/>
-      <c r="B28" s="25"/>
+      <c r="B28" s="28"/>
       <c r="C28" t="s">
         <v>114</v>
       </c>
@@ -3324,7 +3368,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="22"/>
-      <c r="B29" s="25"/>
+      <c r="B29" s="28"/>
       <c r="C29" t="s">
         <v>115</v>
       </c>
@@ -3334,7 +3378,7 @@
     </row>
     <row r="30" spans="1:6" ht="17.25" thickBot="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="26"/>
+      <c r="B30" s="29"/>
       <c r="C30" t="s">
         <v>116</v>
       </c>
@@ -3344,10 +3388,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="22"/>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="30" t="s">
         <v>118</v>
       </c>
       <c r="D31" t="s">
@@ -3359,8 +3403,8 @@
     </row>
     <row r="32" spans="1:6" ht="17.25" thickBot="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="29"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="31"/>
       <c r="D32" t="s">
         <v>120</v>
       </c>
@@ -3370,8 +3414,8 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="22"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="27" t="s">
+      <c r="B33" s="28"/>
+      <c r="C33" s="30" t="s">
         <v>121</v>
       </c>
       <c r="D33" t="s">
@@ -3383,8 +3427,8 @@
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1">
       <c r="A34" s="22"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="29"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="31"/>
       <c r="D34" t="s">
         <v>123</v>
       </c>
@@ -3394,8 +3438,8 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="22"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="27" t="s">
+      <c r="B35" s="28"/>
+      <c r="C35" s="30" t="s">
         <v>124</v>
       </c>
       <c r="D35" t="s">
@@ -3407,8 +3451,8 @@
     </row>
     <row r="36" spans="1:7" ht="17.25" thickBot="1">
       <c r="A36" s="22"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="31"/>
       <c r="D36" t="s">
         <v>123</v>
       </c>
@@ -3510,7 +3554,7 @@
       <c r="A47" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="27" t="s">
         <v>136</v>
       </c>
       <c r="C47" t="s">
@@ -3525,7 +3569,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="22"/>
-      <c r="B48" s="25"/>
+      <c r="B48" s="28"/>
       <c r="C48" t="s">
         <v>138</v>
       </c>
@@ -3538,7 +3582,7 @@
     </row>
     <row r="49" spans="1:7" ht="17.25" thickBot="1">
       <c r="A49" s="22"/>
-      <c r="B49" s="26"/>
+      <c r="B49" s="29"/>
       <c r="C49" t="s">
         <v>139</v>
       </c>
@@ -3551,10 +3595,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="22"/>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="30" t="s">
         <v>141</v>
       </c>
       <c r="D50" t="s">
@@ -3569,8 +3613,8 @@
     </row>
     <row r="51" spans="1:7" ht="17.25" thickBot="1">
       <c r="A51" s="22"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="29"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="31"/>
       <c r="D51" t="s">
         <v>142</v>
       </c>
@@ -3583,7 +3627,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="22"/>
-      <c r="B52" s="25"/>
+      <c r="B52" s="28"/>
       <c r="C52" t="s">
         <v>138</v>
       </c>
@@ -3596,7 +3640,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="22"/>
-      <c r="B53" s="25"/>
+      <c r="B53" s="28"/>
       <c r="C53" t="s">
         <v>84</v>
       </c>
@@ -3609,7 +3653,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="22"/>
-      <c r="B54" s="25"/>
+      <c r="B54" s="28"/>
       <c r="C54" t="s">
         <v>143</v>
       </c>
@@ -3622,7 +3666,7 @@
     </row>
     <row r="55" spans="1:7" ht="17.25" thickBot="1">
       <c r="A55" s="22"/>
-      <c r="B55" s="26"/>
+      <c r="B55" s="29"/>
       <c r="C55" t="s">
         <v>144</v>
       </c>
@@ -3635,7 +3679,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="22"/>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="27" t="s">
         <v>145</v>
       </c>
       <c r="C56" t="s">
@@ -3650,7 +3694,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="22"/>
-      <c r="B57" s="25"/>
+      <c r="B57" s="28"/>
       <c r="C57" t="s">
         <v>147</v>
       </c>
@@ -3663,7 +3707,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="22"/>
-      <c r="B58" s="25"/>
+      <c r="B58" s="28"/>
       <c r="C58" t="s">
         <v>148</v>
       </c>
@@ -3676,7 +3720,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="22"/>
-      <c r="B59" s="25"/>
+      <c r="B59" s="28"/>
       <c r="C59" t="s">
         <v>149</v>
       </c>
@@ -3689,7 +3733,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="22"/>
-      <c r="B60" s="25"/>
+      <c r="B60" s="28"/>
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -3702,7 +3746,7 @@
     </row>
     <row r="61" spans="1:7" ht="17.25" thickBot="1">
       <c r="A61" s="22"/>
-      <c r="B61" s="26"/>
+      <c r="B61" s="29"/>
       <c r="C61" t="s">
         <v>151</v>
       </c>
@@ -3715,7 +3759,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="22"/>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="27" t="s">
         <v>152</v>
       </c>
       <c r="C62" t="s">
@@ -3730,7 +3774,7 @@
     </row>
     <row r="63" spans="1:7" ht="17.25" thickBot="1">
       <c r="A63" s="22"/>
-      <c r="B63" s="26"/>
+      <c r="B63" s="29"/>
       <c r="C63" t="s">
         <v>138</v>
       </c>
@@ -3743,10 +3787,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="22"/>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="30" t="s">
         <v>155</v>
       </c>
       <c r="D64" t="s">
@@ -3758,8 +3802,8 @@
     </row>
     <row r="65" spans="1:7" ht="17.25" thickBot="1">
       <c r="A65" s="22"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="29"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="31"/>
       <c r="D65" t="s">
         <v>156</v>
       </c>
@@ -3769,7 +3813,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="22"/>
-      <c r="B66" s="25"/>
+      <c r="B66" s="28"/>
       <c r="C66" t="s">
         <v>157</v>
       </c>
@@ -3779,7 +3823,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="22"/>
-      <c r="B67" s="25"/>
+      <c r="B67" s="28"/>
       <c r="C67" t="s">
         <v>158</v>
       </c>
@@ -3789,7 +3833,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="22"/>
-      <c r="B68" s="25"/>
+      <c r="B68" s="28"/>
       <c r="C68" t="s">
         <v>159</v>
       </c>
@@ -3799,7 +3843,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="22"/>
-      <c r="B69" s="25"/>
+      <c r="B69" s="28"/>
       <c r="C69" t="s">
         <v>138</v>
       </c>
@@ -3809,7 +3853,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="22"/>
-      <c r="B70" s="25"/>
+      <c r="B70" s="28"/>
       <c r="C70" t="s">
         <v>160</v>
       </c>
@@ -3819,7 +3863,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="22"/>
-      <c r="B71" s="25"/>
+      <c r="B71" s="28"/>
       <c r="C71" t="s">
         <v>161</v>
       </c>
@@ -3829,7 +3873,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="22"/>
-      <c r="B72" s="25"/>
+      <c r="B72" s="28"/>
       <c r="C72" t="s">
         <v>162</v>
       </c>
@@ -3839,7 +3883,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="22"/>
-      <c r="B73" s="25"/>
+      <c r="B73" s="28"/>
       <c r="C73" t="s">
         <v>84</v>
       </c>
@@ -3849,7 +3893,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="22"/>
-      <c r="B74" s="25"/>
+      <c r="B74" s="28"/>
       <c r="C74" t="s">
         <v>163</v>
       </c>
@@ -3859,7 +3903,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="22"/>
-      <c r="B75" s="25"/>
+      <c r="B75" s="28"/>
       <c r="C75" t="s">
         <v>164</v>
       </c>
@@ -3869,7 +3913,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="22"/>
-      <c r="B76" s="25"/>
+      <c r="B76" s="28"/>
       <c r="C76" t="s">
         <v>165</v>
       </c>
@@ -3879,7 +3923,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="22"/>
-      <c r="B77" s="25"/>
+      <c r="B77" s="28"/>
       <c r="C77" t="s">
         <v>166</v>
       </c>
@@ -3889,7 +3933,7 @@
     </row>
     <row r="78" spans="1:7" ht="17.25" thickBot="1">
       <c r="A78" s="22"/>
-      <c r="B78" s="26"/>
+      <c r="B78" s="29"/>
       <c r="C78" t="s">
         <v>167</v>
       </c>
@@ -3899,7 +3943,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="22"/>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="27" t="s">
         <v>168</v>
       </c>
       <c r="C79" t="s">
@@ -3914,7 +3958,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="22"/>
-      <c r="B80" s="25"/>
+      <c r="B80" s="28"/>
       <c r="C80" t="s">
         <v>169</v>
       </c>
@@ -3927,7 +3971,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="22"/>
-      <c r="B81" s="25"/>
+      <c r="B81" s="28"/>
       <c r="C81" t="s">
         <v>170</v>
       </c>
@@ -3940,7 +3984,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="22"/>
-      <c r="B82" s="25"/>
+      <c r="B82" s="28"/>
       <c r="C82" t="s">
         <v>171</v>
       </c>
@@ -3953,7 +3997,7 @@
     </row>
     <row r="83" spans="1:7" ht="17.25" thickBot="1">
       <c r="A83" s="22"/>
-      <c r="B83" s="26"/>
+      <c r="B83" s="29"/>
       <c r="C83" t="s">
         <v>172</v>
       </c>
@@ -3966,7 +4010,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="22"/>
-      <c r="B84" s="24" t="s">
+      <c r="B84" s="27" t="s">
         <v>173</v>
       </c>
       <c r="C84" t="s">
@@ -3981,7 +4025,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="22"/>
-      <c r="B85" s="25"/>
+      <c r="B85" s="28"/>
       <c r="C85" t="s">
         <v>144</v>
       </c>
@@ -3994,7 +4038,7 @@
     </row>
     <row r="86" spans="1:7" ht="17.25" thickBot="1">
       <c r="A86" s="22"/>
-      <c r="B86" s="26"/>
+      <c r="B86" s="29"/>
       <c r="C86" t="s">
         <v>172</v>
       </c>
@@ -4004,7 +4048,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="22"/>
-      <c r="B87" s="24" t="s">
+      <c r="B87" s="27" t="s">
         <v>123</v>
       </c>
       <c r="C87" t="s">
@@ -4019,7 +4063,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="22"/>
-      <c r="B88" s="25"/>
+      <c r="B88" s="28"/>
       <c r="C88" t="s">
         <v>138</v>
       </c>
@@ -4032,7 +4076,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="22"/>
-      <c r="B89" s="25"/>
+      <c r="B89" s="28"/>
       <c r="C89" t="s">
         <v>161</v>
       </c>
@@ -4045,7 +4089,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="22"/>
-      <c r="B90" s="25"/>
+      <c r="B90" s="28"/>
       <c r="C90" t="s">
         <v>84</v>
       </c>
@@ -4058,7 +4102,7 @@
     </row>
     <row r="91" spans="1:7" ht="17.25" thickBot="1">
       <c r="A91" s="22"/>
-      <c r="B91" s="26"/>
+      <c r="B91" s="29"/>
       <c r="C91" t="s">
         <v>172</v>
       </c>
@@ -4071,7 +4115,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="22"/>
-      <c r="B92" s="24" t="s">
+      <c r="B92" s="27" t="s">
         <v>175</v>
       </c>
       <c r="C92" t="s">
@@ -4086,7 +4130,7 @@
     </row>
     <row r="93" spans="1:7" ht="17.25" thickBot="1">
       <c r="A93" s="22"/>
-      <c r="B93" s="26"/>
+      <c r="B93" s="29"/>
       <c r="C93" t="s">
         <v>138</v>
       </c>
@@ -4099,7 +4143,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="22"/>
-      <c r="B94" s="24" t="s">
+      <c r="B94" s="27" t="s">
         <v>177</v>
       </c>
       <c r="C94" t="s">
@@ -4114,7 +4158,7 @@
     </row>
     <row r="95" spans="1:7" ht="17.25" thickBot="1">
       <c r="A95" s="22"/>
-      <c r="B95" s="26"/>
+      <c r="B95" s="29"/>
       <c r="C95" t="s">
         <v>84</v>
       </c>
@@ -4127,10 +4171,10 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="22"/>
-      <c r="B96" s="24" t="s">
+      <c r="B96" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C96" s="27" t="s">
+      <c r="C96" s="30" t="s">
         <v>141</v>
       </c>
       <c r="D96" t="s">
@@ -4145,8 +4189,8 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="22"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="28"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="32"/>
       <c r="D97" t="s">
         <v>178</v>
       </c>
@@ -4159,8 +4203,8 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="22"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="28"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="32"/>
       <c r="D98" t="s">
         <v>179</v>
       </c>
@@ -4173,8 +4217,8 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="22"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="28"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="32"/>
       <c r="D99" t="s">
         <v>180</v>
       </c>
@@ -4187,8 +4231,8 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="22"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="28"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="32"/>
       <c r="D100" t="s">
         <v>181</v>
       </c>
@@ -4201,8 +4245,8 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="22"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="28"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="32"/>
       <c r="D101" t="s">
         <v>182</v>
       </c>
@@ -4215,8 +4259,8 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="22"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="28"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="32"/>
       <c r="D102" t="s">
         <v>183</v>
       </c>
@@ -4229,8 +4273,8 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="22"/>
-      <c r="B103" s="25"/>
-      <c r="C103" s="28"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="32"/>
       <c r="D103" t="s">
         <v>184</v>
       </c>
@@ -4243,8 +4287,8 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="22"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="28"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="32"/>
       <c r="D104" t="s">
         <v>185</v>
       </c>
@@ -4257,8 +4301,8 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="22"/>
-      <c r="B105" s="25"/>
-      <c r="C105" s="28"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="32"/>
       <c r="D105" t="s">
         <v>186</v>
       </c>
@@ -4271,8 +4315,8 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="22"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="28"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="32"/>
       <c r="D106" t="s">
         <v>187</v>
       </c>
@@ -4285,8 +4329,8 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="22"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="28"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="32"/>
       <c r="D107" t="s">
         <v>188</v>
       </c>
@@ -4299,8 +4343,8 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="22"/>
-      <c r="B108" s="25"/>
-      <c r="C108" s="28"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="32"/>
       <c r="D108" t="s">
         <v>189</v>
       </c>
@@ -4313,8 +4357,8 @@
     </row>
     <row r="109" spans="1:7" ht="17.25" thickBot="1">
       <c r="A109" s="22"/>
-      <c r="B109" s="25"/>
-      <c r="C109" s="29"/>
+      <c r="B109" s="28"/>
+      <c r="C109" s="31"/>
       <c r="D109" t="s">
         <v>190</v>
       </c>
@@ -4327,7 +4371,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="22"/>
-      <c r="B110" s="25"/>
+      <c r="B110" s="28"/>
       <c r="C110" t="s">
         <v>138</v>
       </c>
@@ -4340,7 +4384,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="22"/>
-      <c r="B111" s="25"/>
+      <c r="B111" s="28"/>
       <c r="C111" t="s">
         <v>161</v>
       </c>
@@ -4353,7 +4397,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="22"/>
-      <c r="B112" s="25"/>
+      <c r="B112" s="28"/>
       <c r="C112" t="s">
         <v>191</v>
       </c>
@@ -4366,7 +4410,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="22"/>
-      <c r="B113" s="25"/>
+      <c r="B113" s="28"/>
       <c r="C113" t="s">
         <v>143</v>
       </c>
@@ -4379,7 +4423,7 @@
     </row>
     <row r="114" spans="1:7" ht="17.25" thickBot="1">
       <c r="A114" s="22"/>
-      <c r="B114" s="26"/>
+      <c r="B114" s="29"/>
       <c r="C114" t="s">
         <v>192</v>
       </c>
@@ -5243,10 +5287,10 @@
       <c r="A191" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="B191" s="24" t="s">
+      <c r="B191" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="C191" s="27" t="s">
+      <c r="C191" s="30" t="s">
         <v>232</v>
       </c>
       <c r="D191" t="s">
@@ -5258,8 +5302,8 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="22"/>
-      <c r="B192" s="25"/>
-      <c r="C192" s="28"/>
+      <c r="B192" s="28"/>
+      <c r="C192" s="32"/>
       <c r="D192" t="s">
         <v>234</v>
       </c>
@@ -5269,8 +5313,8 @@
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="22"/>
-      <c r="B193" s="25"/>
-      <c r="C193" s="28"/>
+      <c r="B193" s="28"/>
+      <c r="C193" s="32"/>
       <c r="D193" t="s">
         <v>235</v>
       </c>
@@ -5280,8 +5324,8 @@
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="22"/>
-      <c r="B194" s="25"/>
-      <c r="C194" s="28"/>
+      <c r="B194" s="28"/>
+      <c r="C194" s="32"/>
       <c r="D194" t="s">
         <v>236</v>
       </c>
@@ -5291,8 +5335,8 @@
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="22"/>
-      <c r="B195" s="25"/>
-      <c r="C195" s="28"/>
+      <c r="B195" s="28"/>
+      <c r="C195" s="32"/>
       <c r="D195" t="s">
         <v>237</v>
       </c>
@@ -5302,8 +5346,8 @@
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="22"/>
-      <c r="B196" s="25"/>
-      <c r="C196" s="28"/>
+      <c r="B196" s="28"/>
+      <c r="C196" s="32"/>
       <c r="D196" t="s">
         <v>238</v>
       </c>
@@ -5313,8 +5357,8 @@
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="22"/>
-      <c r="B197" s="25"/>
-      <c r="C197" s="28"/>
+      <c r="B197" s="28"/>
+      <c r="C197" s="32"/>
       <c r="D197" t="s">
         <v>221</v>
       </c>
@@ -5324,8 +5368,8 @@
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="22"/>
-      <c r="B198" s="25"/>
-      <c r="C198" s="28"/>
+      <c r="B198" s="28"/>
+      <c r="C198" s="32"/>
       <c r="D198" t="s">
         <v>239</v>
       </c>
@@ -5335,8 +5379,8 @@
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="22"/>
-      <c r="B199" s="25"/>
-      <c r="C199" s="28"/>
+      <c r="B199" s="28"/>
+      <c r="C199" s="32"/>
       <c r="D199" t="s">
         <v>240</v>
       </c>
@@ -5346,8 +5390,8 @@
     </row>
     <row r="200" spans="1:7" ht="17.25" thickBot="1">
       <c r="A200" s="22"/>
-      <c r="B200" s="25"/>
-      <c r="C200" s="29"/>
+      <c r="B200" s="28"/>
+      <c r="C200" s="31"/>
       <c r="D200" t="s">
         <v>241</v>
       </c>
@@ -5357,7 +5401,7 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="22"/>
-      <c r="B201" s="25"/>
+      <c r="B201" s="28"/>
       <c r="C201" t="s">
         <v>242</v>
       </c>
@@ -5367,7 +5411,7 @@
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="22"/>
-      <c r="B202" s="25"/>
+      <c r="B202" s="28"/>
       <c r="C202" t="s">
         <v>84</v>
       </c>
@@ -5377,7 +5421,7 @@
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="22"/>
-      <c r="B203" s="25"/>
+      <c r="B203" s="28"/>
       <c r="C203" t="s">
         <v>243</v>
       </c>
@@ -5387,7 +5431,7 @@
     </row>
     <row r="204" spans="1:7" ht="17.25" thickBot="1">
       <c r="A204" s="22"/>
-      <c r="B204" s="26"/>
+      <c r="B204" s="29"/>
       <c r="C204" t="s">
         <v>244</v>
       </c>
@@ -5397,10 +5441,10 @@
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="22"/>
-      <c r="B205" s="24" t="s">
+      <c r="B205" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="C205" s="27" t="s">
+      <c r="C205" s="30" t="s">
         <v>218</v>
       </c>
       <c r="D205" t="s">
@@ -5415,8 +5459,8 @@
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="22"/>
-      <c r="B206" s="25"/>
-      <c r="C206" s="28"/>
+      <c r="B206" s="28"/>
+      <c r="C206" s="32"/>
       <c r="D206" t="s">
         <v>246</v>
       </c>
@@ -5429,8 +5473,8 @@
     </row>
     <row r="207" spans="1:7" ht="17.25" thickBot="1">
       <c r="A207" s="22"/>
-      <c r="B207" s="25"/>
-      <c r="C207" s="29"/>
+      <c r="B207" s="28"/>
+      <c r="C207" s="31"/>
       <c r="D207" t="s">
         <v>221</v>
       </c>
@@ -5443,7 +5487,7 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="22"/>
-      <c r="B208" s="25"/>
+      <c r="B208" s="28"/>
       <c r="C208" t="s">
         <v>206</v>
       </c>
@@ -5456,7 +5500,7 @@
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="22"/>
-      <c r="B209" s="25"/>
+      <c r="B209" s="28"/>
       <c r="C209" t="s">
         <v>224</v>
       </c>
@@ -5469,7 +5513,7 @@
     </row>
     <row r="210" spans="1:7" ht="17.25" thickBot="1">
       <c r="A210" s="22"/>
-      <c r="B210" s="26"/>
+      <c r="B210" s="29"/>
       <c r="C210" t="s">
         <v>228</v>
       </c>
@@ -5696,19 +5740,17 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:A46"/>
-    <mergeCell ref="B1:B9"/>
-    <mergeCell ref="B10:B23"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="A47:A127"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B78"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="A225:A227"/>
+    <mergeCell ref="A128:A190"/>
+    <mergeCell ref="A191:A224"/>
+    <mergeCell ref="B191:B204"/>
+    <mergeCell ref="B205:B210"/>
+    <mergeCell ref="C191:C200"/>
+    <mergeCell ref="C205:C207"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B114"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="C96:C109"/>
@@ -5718,17 +5760,19 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C191:C200"/>
-    <mergeCell ref="C205:C207"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B114"/>
-    <mergeCell ref="A225:A227"/>
-    <mergeCell ref="A128:A190"/>
-    <mergeCell ref="A191:A224"/>
-    <mergeCell ref="B191:B204"/>
-    <mergeCell ref="B205:B210"/>
+    <mergeCell ref="A47:A127"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B78"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="A1:A46"/>
+    <mergeCell ref="B1:B9"/>
+    <mergeCell ref="B10:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/開發文件.xlsx
+++ b/docs/開發文件.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\YDWE1.25.10\Creation\Mod\The_Tilted_Clock_Tower\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5C98A5-8264-416C-8CD8-A124FD1F4D03}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761A45BC-8588-48A0-BEDB-3676800D95CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
   </bookViews>
   <sheets>
     <sheet name="項目" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="273">
   <si>
     <r>
       <rPr>
@@ -1320,6 +1320,18 @@
   </si>
   <si>
     <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>point</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3019,7 +3031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336849DF-D3F4-435E-87DA-A99B863A554D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
@@ -3032,10 +3044,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29018229-9EAF-4726-88C6-5A87070EDF6C}">
-  <dimension ref="A1:G228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="F139" sqref="F139"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="J218" sqref="J218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3048,7 +3060,7 @@
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="21" t="s">
         <v>82</v>
       </c>
@@ -3061,8 +3073,11 @@
       <c r="F1" s="12">
         <v>43451</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="H1" s="12">
+        <v>43589</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="22"/>
       <c r="B2" s="25"/>
       <c r="C2" t="s">
@@ -3072,7 +3087,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="22"/>
       <c r="B3" s="25"/>
       <c r="C3" t="s">
@@ -3082,7 +3097,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="22"/>
       <c r="B4" s="25"/>
       <c r="C4" t="s">
@@ -3092,7 +3107,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="22"/>
       <c r="B5" s="25"/>
       <c r="C5" t="s">
@@ -3102,7 +3117,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="22"/>
       <c r="B6" s="25"/>
       <c r="C6" t="s">
@@ -3112,7 +3127,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="22"/>
       <c r="B7" s="25"/>
       <c r="C7" t="s">
@@ -3122,7 +3137,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8" s="22"/>
       <c r="B8" s="25"/>
       <c r="C8" t="s">
@@ -3132,7 +3147,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.25" thickBot="1">
+    <row r="9" spans="1:8" ht="17.25" thickBot="1">
       <c r="A9" s="22"/>
       <c r="B9" s="26"/>
       <c r="C9" t="s">
@@ -3142,7 +3157,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:8">
       <c r="A10" s="22"/>
       <c r="B10" s="24" t="s">
         <v>93</v>
@@ -3160,7 +3175,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8">
       <c r="A11" s="22"/>
       <c r="B11" s="25"/>
       <c r="C11" s="32"/>
@@ -3172,7 +3187,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:8">
       <c r="A12" s="22"/>
       <c r="B12" s="25"/>
       <c r="C12" s="32"/>
@@ -3184,7 +3199,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:8">
       <c r="A13" s="22"/>
       <c r="B13" s="25"/>
       <c r="C13" s="32"/>
@@ -3196,7 +3211,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.25" thickBot="1">
+    <row r="14" spans="1:8" ht="17.25" thickBot="1">
       <c r="A14" s="22"/>
       <c r="B14" s="25"/>
       <c r="C14" s="32"/>
@@ -3208,7 +3223,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:8">
       <c r="A15" s="22"/>
       <c r="B15" s="25"/>
       <c r="C15" s="32"/>
@@ -3222,7 +3237,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:8">
       <c r="A16" s="22"/>
       <c r="B16" s="25"/>
       <c r="C16" s="32"/>
@@ -5498,7 +5513,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:8">
       <c r="A209" s="22"/>
       <c r="B209" s="28"/>
       <c r="C209" t="s">
@@ -5511,7 +5526,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="17.25" thickBot="1">
+    <row r="210" spans="1:8" ht="17.25" thickBot="1">
       <c r="A210" s="22"/>
       <c r="B210" s="29"/>
       <c r="C210" t="s">
@@ -5524,7 +5539,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:8">
       <c r="A211" s="22"/>
       <c r="B211" t="s">
         <v>212</v>
@@ -5535,8 +5550,11 @@
       <c r="G211" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="212" spans="1:7">
+      <c r="H211" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" s="22"/>
       <c r="B212" t="s">
         <v>247</v>
@@ -5547,8 +5565,11 @@
       <c r="G212" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="213" spans="1:7">
+      <c r="H212" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" s="22"/>
       <c r="B213" t="s">
         <v>248</v>
@@ -5560,7 +5581,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:8">
       <c r="A214" s="22"/>
       <c r="B214" t="s">
         <v>216</v>
@@ -5572,7 +5593,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:8">
       <c r="A215" s="22"/>
       <c r="B215" t="s">
         <v>217</v>
@@ -5583,8 +5604,11 @@
       <c r="G215" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="216" spans="1:7">
+      <c r="H215" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216" s="22"/>
       <c r="B216" t="s">
         <v>84</v>
@@ -5596,7 +5620,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:8">
       <c r="A217" s="22"/>
       <c r="B217" t="s">
         <v>249</v>
@@ -5608,7 +5632,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:8">
       <c r="A218" s="22"/>
       <c r="B218" t="s">
         <v>219</v>
@@ -5620,7 +5644,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:8">
       <c r="A219" s="22"/>
       <c r="B219" t="s">
         <v>222</v>
@@ -5632,22 +5656,20 @@
         <v>258</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:8">
       <c r="A220" s="22"/>
       <c r="B220" t="s">
-        <v>225</v>
-      </c>
-      <c r="F220" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="G220" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7">
+        <v>271</v>
+      </c>
+      <c r="F220" s="11"/>
+      <c r="H220" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221" s="22"/>
       <c r="B221" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="F221" s="11" t="s">
         <v>258</v>
@@ -5656,10 +5678,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:8">
       <c r="A222" s="22"/>
       <c r="B222" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F222" s="11" t="s">
         <v>258</v>
@@ -5668,81 +5690,93 @@
         <v>258</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:8">
       <c r="A223" s="22"/>
       <c r="B223" t="s">
+        <v>251</v>
+      </c>
+      <c r="F223" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G223" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" s="22"/>
+      <c r="B224" t="s">
         <v>252</v>
       </c>
-      <c r="F223" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="G223" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A224" s="23"/>
-      <c r="B224" t="s">
+      <c r="F224" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G224" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A225" s="23"/>
+      <c r="B225" t="s">
         <v>230</v>
       </c>
-      <c r="F224" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="G224" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7">
-      <c r="A225" s="21" t="s">
+      <c r="F225" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G225" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B226" t="s">
         <v>254</v>
       </c>
-      <c r="F225" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="G225" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7">
-      <c r="A226" s="22"/>
-      <c r="B226" t="s">
+      <c r="F226" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G226" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="22"/>
+      <c r="B227" t="s">
         <v>255</v>
       </c>
-      <c r="F226" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="G226" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A227" s="23"/>
-      <c r="B227" t="s">
+      <c r="F227" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G227" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A228" s="23"/>
+      <c r="B228" t="s">
         <v>256</v>
       </c>
-      <c r="F227" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="G227" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7">
-      <c r="A228" t="s">
+      <c r="F228" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G228" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" t="s">
         <v>257</v>
       </c>
-      <c r="F228" s="11" t="s">
+      <c r="F229" s="11" t="s">
         <v>258</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A225:A227"/>
+    <mergeCell ref="A226:A228"/>
     <mergeCell ref="A128:A190"/>
-    <mergeCell ref="A191:A224"/>
+    <mergeCell ref="A191:A225"/>
     <mergeCell ref="B191:B204"/>
     <mergeCell ref="B205:B210"/>
     <mergeCell ref="C191:C200"/>

--- a/docs/開發文件.xlsx
+++ b/docs/開發文件.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\YDWE1.25.10\Creation\Mod\The_Tilted_Clock_Tower\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761A45BC-8588-48A0-BEDB-3676800D95CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BEB777-1B73-4FF4-AEA1-2F7F316927E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="275">
   <si>
     <r>
       <rPr>
@@ -1336,6 +1336,14 @@
   </si>
   <si>
     <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_nil</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1650,15 +1658,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1671,10 +1670,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1684,6 +1683,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3046,8 +3054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29018229-9EAF-4726-88C6-5A87070EDF6C}">
   <dimension ref="A1:H229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="J218" sqref="J218"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="H221" sqref="H221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3064,7 +3072,7 @@
       <c r="A1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="33" t="s">
         <v>83</v>
       </c>
       <c r="C1" t="s">
@@ -3079,7 +3087,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="22"/>
-      <c r="B2" s="25"/>
+      <c r="B2" s="34"/>
       <c r="C2" t="s">
         <v>85</v>
       </c>
@@ -3089,7 +3097,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="22"/>
-      <c r="B3" s="25"/>
+      <c r="B3" s="34"/>
       <c r="C3" t="s">
         <v>86</v>
       </c>
@@ -3099,7 +3107,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="22"/>
-      <c r="B4" s="25"/>
+      <c r="B4" s="34"/>
       <c r="C4" t="s">
         <v>87</v>
       </c>
@@ -3109,7 +3117,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="22"/>
-      <c r="B5" s="25"/>
+      <c r="B5" s="34"/>
       <c r="C5" t="s">
         <v>88</v>
       </c>
@@ -3119,7 +3127,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="22"/>
-      <c r="B6" s="25"/>
+      <c r="B6" s="34"/>
       <c r="C6" t="s">
         <v>89</v>
       </c>
@@ -3129,7 +3137,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="22"/>
-      <c r="B7" s="25"/>
+      <c r="B7" s="34"/>
       <c r="C7" t="s">
         <v>90</v>
       </c>
@@ -3139,7 +3147,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="22"/>
-      <c r="B8" s="25"/>
+      <c r="B8" s="34"/>
       <c r="C8" t="s">
         <v>91</v>
       </c>
@@ -3149,7 +3157,7 @@
     </row>
     <row r="9" spans="1:8" ht="17.25" thickBot="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="26"/>
+      <c r="B9" s="35"/>
       <c r="C9" t="s">
         <v>92</v>
       </c>
@@ -3159,13 +3167,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="22"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="30" t="s">
         <v>95</v>
       </c>
       <c r="E10" t="s">
@@ -3177,9 +3185,9 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="22"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="31"/>
       <c r="E11" t="s">
         <v>97</v>
       </c>
@@ -3189,9 +3197,9 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="22"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="31"/>
       <c r="E12" t="s">
         <v>98</v>
       </c>
@@ -3201,9 +3209,9 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="22"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="31"/>
       <c r="E13" t="s">
         <v>99</v>
       </c>
@@ -3213,9 +3221,9 @@
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="35"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="32"/>
       <c r="E14" t="s">
         <v>100</v>
       </c>
@@ -3225,9 +3233,9 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="22"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="30" t="s">
         <v>101</v>
       </c>
       <c r="E15" t="s">
@@ -3239,9 +3247,9 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="22"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="31"/>
       <c r="E16" t="s">
         <v>103</v>
       </c>
@@ -3251,9 +3259,9 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="22"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="31"/>
       <c r="E17" t="s">
         <v>104</v>
       </c>
@@ -3263,9 +3271,9 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="22"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="31"/>
       <c r="E18" t="s">
         <v>105</v>
       </c>
@@ -3275,9 +3283,9 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="31"/>
       <c r="E19" t="s">
         <v>106</v>
       </c>
@@ -3287,9 +3295,9 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="22"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="31"/>
       <c r="E20" t="s">
         <v>107</v>
       </c>
@@ -3299,9 +3307,9 @@
     </row>
     <row r="21" spans="1:6" ht="17.25" thickBot="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="35"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="32"/>
       <c r="E21" t="s">
         <v>108</v>
       </c>
@@ -3311,7 +3319,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="22"/>
-      <c r="B22" s="25"/>
+      <c r="B22" s="34"/>
       <c r="C22" t="s">
         <v>109</v>
       </c>
@@ -3321,7 +3329,7 @@
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="26"/>
+      <c r="B23" s="35"/>
       <c r="C23" t="s">
         <v>84</v>
       </c>
@@ -3331,7 +3339,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="22"/>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="24" t="s">
         <v>110</v>
       </c>
       <c r="C24" t="s">
@@ -3343,7 +3351,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="22"/>
-      <c r="B25" s="28"/>
+      <c r="B25" s="25"/>
       <c r="C25" t="s">
         <v>111</v>
       </c>
@@ -3353,7 +3361,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="22"/>
-      <c r="B26" s="28"/>
+      <c r="B26" s="25"/>
       <c r="C26" t="s">
         <v>112</v>
       </c>
@@ -3363,7 +3371,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="22"/>
-      <c r="B27" s="28"/>
+      <c r="B27" s="25"/>
       <c r="C27" t="s">
         <v>113</v>
       </c>
@@ -3373,7 +3381,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="22"/>
-      <c r="B28" s="28"/>
+      <c r="B28" s="25"/>
       <c r="C28" t="s">
         <v>114</v>
       </c>
@@ -3383,7 +3391,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="22"/>
-      <c r="B29" s="28"/>
+      <c r="B29" s="25"/>
       <c r="C29" t="s">
         <v>115</v>
       </c>
@@ -3393,7 +3401,7 @@
     </row>
     <row r="30" spans="1:6" ht="17.25" thickBot="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="29"/>
+      <c r="B30" s="26"/>
       <c r="C30" t="s">
         <v>116</v>
       </c>
@@ -3403,10 +3411,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="22"/>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="27" t="s">
         <v>118</v>
       </c>
       <c r="D31" t="s">
@@ -3418,8 +3426,8 @@
     </row>
     <row r="32" spans="1:6" ht="17.25" thickBot="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="31"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="29"/>
       <c r="D32" t="s">
         <v>120</v>
       </c>
@@ -3429,8 +3437,8 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="22"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="30" t="s">
+      <c r="B33" s="25"/>
+      <c r="C33" s="27" t="s">
         <v>121</v>
       </c>
       <c r="D33" t="s">
@@ -3442,8 +3450,8 @@
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1">
       <c r="A34" s="22"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="31"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="29"/>
       <c r="D34" t="s">
         <v>123</v>
       </c>
@@ -3453,8 +3461,8 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="22"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="30" t="s">
+      <c r="B35" s="25"/>
+      <c r="C35" s="27" t="s">
         <v>124</v>
       </c>
       <c r="D35" t="s">
@@ -3466,8 +3474,8 @@
     </row>
     <row r="36" spans="1:7" ht="17.25" thickBot="1">
       <c r="A36" s="22"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="31"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="29"/>
       <c r="D36" t="s">
         <v>123</v>
       </c>
@@ -3569,7 +3577,7 @@
       <c r="A47" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="24" t="s">
         <v>136</v>
       </c>
       <c r="C47" t="s">
@@ -3584,7 +3592,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="22"/>
-      <c r="B48" s="28"/>
+      <c r="B48" s="25"/>
       <c r="C48" t="s">
         <v>138</v>
       </c>
@@ -3597,7 +3605,7 @@
     </row>
     <row r="49" spans="1:7" ht="17.25" thickBot="1">
       <c r="A49" s="22"/>
-      <c r="B49" s="29"/>
+      <c r="B49" s="26"/>
       <c r="C49" t="s">
         <v>139</v>
       </c>
@@ -3610,10 +3618,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="22"/>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="27" t="s">
         <v>141</v>
       </c>
       <c r="D50" t="s">
@@ -3628,8 +3636,8 @@
     </row>
     <row r="51" spans="1:7" ht="17.25" thickBot="1">
       <c r="A51" s="22"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="31"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="29"/>
       <c r="D51" t="s">
         <v>142</v>
       </c>
@@ -3642,7 +3650,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="22"/>
-      <c r="B52" s="28"/>
+      <c r="B52" s="25"/>
       <c r="C52" t="s">
         <v>138</v>
       </c>
@@ -3655,7 +3663,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="22"/>
-      <c r="B53" s="28"/>
+      <c r="B53" s="25"/>
       <c r="C53" t="s">
         <v>84</v>
       </c>
@@ -3668,7 +3676,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="22"/>
-      <c r="B54" s="28"/>
+      <c r="B54" s="25"/>
       <c r="C54" t="s">
         <v>143</v>
       </c>
@@ -3681,7 +3689,7 @@
     </row>
     <row r="55" spans="1:7" ht="17.25" thickBot="1">
       <c r="A55" s="22"/>
-      <c r="B55" s="29"/>
+      <c r="B55" s="26"/>
       <c r="C55" t="s">
         <v>144</v>
       </c>
@@ -3694,7 +3702,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="22"/>
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="24" t="s">
         <v>145</v>
       </c>
       <c r="C56" t="s">
@@ -3709,7 +3717,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="22"/>
-      <c r="B57" s="28"/>
+      <c r="B57" s="25"/>
       <c r="C57" t="s">
         <v>147</v>
       </c>
@@ -3722,7 +3730,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="22"/>
-      <c r="B58" s="28"/>
+      <c r="B58" s="25"/>
       <c r="C58" t="s">
         <v>148</v>
       </c>
@@ -3735,7 +3743,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="22"/>
-      <c r="B59" s="28"/>
+      <c r="B59" s="25"/>
       <c r="C59" t="s">
         <v>149</v>
       </c>
@@ -3748,7 +3756,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="22"/>
-      <c r="B60" s="28"/>
+      <c r="B60" s="25"/>
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -3761,7 +3769,7 @@
     </row>
     <row r="61" spans="1:7" ht="17.25" thickBot="1">
       <c r="A61" s="22"/>
-      <c r="B61" s="29"/>
+      <c r="B61" s="26"/>
       <c r="C61" t="s">
         <v>151</v>
       </c>
@@ -3774,7 +3782,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="22"/>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="24" t="s">
         <v>152</v>
       </c>
       <c r="C62" t="s">
@@ -3789,7 +3797,7 @@
     </row>
     <row r="63" spans="1:7" ht="17.25" thickBot="1">
       <c r="A63" s="22"/>
-      <c r="B63" s="29"/>
+      <c r="B63" s="26"/>
       <c r="C63" t="s">
         <v>138</v>
       </c>
@@ -3802,10 +3810,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="22"/>
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C64" s="27" t="s">
         <v>155</v>
       </c>
       <c r="D64" t="s">
@@ -3817,8 +3825,8 @@
     </row>
     <row r="65" spans="1:7" ht="17.25" thickBot="1">
       <c r="A65" s="22"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="31"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="29"/>
       <c r="D65" t="s">
         <v>156</v>
       </c>
@@ -3828,7 +3836,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="22"/>
-      <c r="B66" s="28"/>
+      <c r="B66" s="25"/>
       <c r="C66" t="s">
         <v>157</v>
       </c>
@@ -3838,7 +3846,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="22"/>
-      <c r="B67" s="28"/>
+      <c r="B67" s="25"/>
       <c r="C67" t="s">
         <v>158</v>
       </c>
@@ -3848,7 +3856,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="22"/>
-      <c r="B68" s="28"/>
+      <c r="B68" s="25"/>
       <c r="C68" t="s">
         <v>159</v>
       </c>
@@ -3858,7 +3866,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="22"/>
-      <c r="B69" s="28"/>
+      <c r="B69" s="25"/>
       <c r="C69" t="s">
         <v>138</v>
       </c>
@@ -3868,7 +3876,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="22"/>
-      <c r="B70" s="28"/>
+      <c r="B70" s="25"/>
       <c r="C70" t="s">
         <v>160</v>
       </c>
@@ -3878,7 +3886,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="22"/>
-      <c r="B71" s="28"/>
+      <c r="B71" s="25"/>
       <c r="C71" t="s">
         <v>161</v>
       </c>
@@ -3888,7 +3896,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="22"/>
-      <c r="B72" s="28"/>
+      <c r="B72" s="25"/>
       <c r="C72" t="s">
         <v>162</v>
       </c>
@@ -3898,7 +3906,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="22"/>
-      <c r="B73" s="28"/>
+      <c r="B73" s="25"/>
       <c r="C73" t="s">
         <v>84</v>
       </c>
@@ -3908,7 +3916,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="22"/>
-      <c r="B74" s="28"/>
+      <c r="B74" s="25"/>
       <c r="C74" t="s">
         <v>163</v>
       </c>
@@ -3918,7 +3926,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="22"/>
-      <c r="B75" s="28"/>
+      <c r="B75" s="25"/>
       <c r="C75" t="s">
         <v>164</v>
       </c>
@@ -3928,7 +3936,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="22"/>
-      <c r="B76" s="28"/>
+      <c r="B76" s="25"/>
       <c r="C76" t="s">
         <v>165</v>
       </c>
@@ -3938,7 +3946,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="22"/>
-      <c r="B77" s="28"/>
+      <c r="B77" s="25"/>
       <c r="C77" t="s">
         <v>166</v>
       </c>
@@ -3948,7 +3956,7 @@
     </row>
     <row r="78" spans="1:7" ht="17.25" thickBot="1">
       <c r="A78" s="22"/>
-      <c r="B78" s="29"/>
+      <c r="B78" s="26"/>
       <c r="C78" t="s">
         <v>167</v>
       </c>
@@ -3958,7 +3966,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="22"/>
-      <c r="B79" s="27" t="s">
+      <c r="B79" s="24" t="s">
         <v>168</v>
       </c>
       <c r="C79" t="s">
@@ -3973,7 +3981,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="22"/>
-      <c r="B80" s="28"/>
+      <c r="B80" s="25"/>
       <c r="C80" t="s">
         <v>169</v>
       </c>
@@ -3986,7 +3994,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="22"/>
-      <c r="B81" s="28"/>
+      <c r="B81" s="25"/>
       <c r="C81" t="s">
         <v>170</v>
       </c>
@@ -3999,7 +4007,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="22"/>
-      <c r="B82" s="28"/>
+      <c r="B82" s="25"/>
       <c r="C82" t="s">
         <v>171</v>
       </c>
@@ -4012,7 +4020,7 @@
     </row>
     <row r="83" spans="1:7" ht="17.25" thickBot="1">
       <c r="A83" s="22"/>
-      <c r="B83" s="29"/>
+      <c r="B83" s="26"/>
       <c r="C83" t="s">
         <v>172</v>
       </c>
@@ -4025,7 +4033,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="22"/>
-      <c r="B84" s="27" t="s">
+      <c r="B84" s="24" t="s">
         <v>173</v>
       </c>
       <c r="C84" t="s">
@@ -4040,7 +4048,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="22"/>
-      <c r="B85" s="28"/>
+      <c r="B85" s="25"/>
       <c r="C85" t="s">
         <v>144</v>
       </c>
@@ -4053,7 +4061,7 @@
     </row>
     <row r="86" spans="1:7" ht="17.25" thickBot="1">
       <c r="A86" s="22"/>
-      <c r="B86" s="29"/>
+      <c r="B86" s="26"/>
       <c r="C86" t="s">
         <v>172</v>
       </c>
@@ -4063,7 +4071,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="22"/>
-      <c r="B87" s="27" t="s">
+      <c r="B87" s="24" t="s">
         <v>123</v>
       </c>
       <c r="C87" t="s">
@@ -4078,7 +4086,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="22"/>
-      <c r="B88" s="28"/>
+      <c r="B88" s="25"/>
       <c r="C88" t="s">
         <v>138</v>
       </c>
@@ -4091,7 +4099,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="22"/>
-      <c r="B89" s="28"/>
+      <c r="B89" s="25"/>
       <c r="C89" t="s">
         <v>161</v>
       </c>
@@ -4104,7 +4112,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="22"/>
-      <c r="B90" s="28"/>
+      <c r="B90" s="25"/>
       <c r="C90" t="s">
         <v>84</v>
       </c>
@@ -4117,7 +4125,7 @@
     </row>
     <row r="91" spans="1:7" ht="17.25" thickBot="1">
       <c r="A91" s="22"/>
-      <c r="B91" s="29"/>
+      <c r="B91" s="26"/>
       <c r="C91" t="s">
         <v>172</v>
       </c>
@@ -4130,7 +4138,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="22"/>
-      <c r="B92" s="27" t="s">
+      <c r="B92" s="24" t="s">
         <v>175</v>
       </c>
       <c r="C92" t="s">
@@ -4145,7 +4153,7 @@
     </row>
     <row r="93" spans="1:7" ht="17.25" thickBot="1">
       <c r="A93" s="22"/>
-      <c r="B93" s="29"/>
+      <c r="B93" s="26"/>
       <c r="C93" t="s">
         <v>138</v>
       </c>
@@ -4158,7 +4166,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="22"/>
-      <c r="B94" s="27" t="s">
+      <c r="B94" s="24" t="s">
         <v>177</v>
       </c>
       <c r="C94" t="s">
@@ -4173,7 +4181,7 @@
     </row>
     <row r="95" spans="1:7" ht="17.25" thickBot="1">
       <c r="A95" s="22"/>
-      <c r="B95" s="29"/>
+      <c r="B95" s="26"/>
       <c r="C95" t="s">
         <v>84</v>
       </c>
@@ -4186,10 +4194,10 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="22"/>
-      <c r="B96" s="27" t="s">
+      <c r="B96" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="C96" s="30" t="s">
+      <c r="C96" s="27" t="s">
         <v>141</v>
       </c>
       <c r="D96" t="s">
@@ -4204,8 +4212,8 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="22"/>
-      <c r="B97" s="28"/>
-      <c r="C97" s="32"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="28"/>
       <c r="D97" t="s">
         <v>178</v>
       </c>
@@ -4218,8 +4226,8 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="22"/>
-      <c r="B98" s="28"/>
-      <c r="C98" s="32"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="28"/>
       <c r="D98" t="s">
         <v>179</v>
       </c>
@@ -4232,8 +4240,8 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="22"/>
-      <c r="B99" s="28"/>
-      <c r="C99" s="32"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="28"/>
       <c r="D99" t="s">
         <v>180</v>
       </c>
@@ -4246,8 +4254,8 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="22"/>
-      <c r="B100" s="28"/>
-      <c r="C100" s="32"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="28"/>
       <c r="D100" t="s">
         <v>181</v>
       </c>
@@ -4260,8 +4268,8 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="22"/>
-      <c r="B101" s="28"/>
-      <c r="C101" s="32"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="28"/>
       <c r="D101" t="s">
         <v>182</v>
       </c>
@@ -4274,8 +4282,8 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="22"/>
-      <c r="B102" s="28"/>
-      <c r="C102" s="32"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="28"/>
       <c r="D102" t="s">
         <v>183</v>
       </c>
@@ -4288,8 +4296,8 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="22"/>
-      <c r="B103" s="28"/>
-      <c r="C103" s="32"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="28"/>
       <c r="D103" t="s">
         <v>184</v>
       </c>
@@ -4302,8 +4310,8 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="22"/>
-      <c r="B104" s="28"/>
-      <c r="C104" s="32"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="28"/>
       <c r="D104" t="s">
         <v>185</v>
       </c>
@@ -4316,8 +4324,8 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="22"/>
-      <c r="B105" s="28"/>
-      <c r="C105" s="32"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="28"/>
       <c r="D105" t="s">
         <v>186</v>
       </c>
@@ -4330,8 +4338,8 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="22"/>
-      <c r="B106" s="28"/>
-      <c r="C106" s="32"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="28"/>
       <c r="D106" t="s">
         <v>187</v>
       </c>
@@ -4344,8 +4352,8 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="22"/>
-      <c r="B107" s="28"/>
-      <c r="C107" s="32"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="28"/>
       <c r="D107" t="s">
         <v>188</v>
       </c>
@@ -4358,8 +4366,8 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="22"/>
-      <c r="B108" s="28"/>
-      <c r="C108" s="32"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="28"/>
       <c r="D108" t="s">
         <v>189</v>
       </c>
@@ -4372,8 +4380,8 @@
     </row>
     <row r="109" spans="1:7" ht="17.25" thickBot="1">
       <c r="A109" s="22"/>
-      <c r="B109" s="28"/>
-      <c r="C109" s="31"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="29"/>
       <c r="D109" t="s">
         <v>190</v>
       </c>
@@ -4386,7 +4394,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="22"/>
-      <c r="B110" s="28"/>
+      <c r="B110" s="25"/>
       <c r="C110" t="s">
         <v>138</v>
       </c>
@@ -4399,7 +4407,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="22"/>
-      <c r="B111" s="28"/>
+      <c r="B111" s="25"/>
       <c r="C111" t="s">
         <v>161</v>
       </c>
@@ -4412,7 +4420,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="22"/>
-      <c r="B112" s="28"/>
+      <c r="B112" s="25"/>
       <c r="C112" t="s">
         <v>191</v>
       </c>
@@ -4425,7 +4433,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="22"/>
-      <c r="B113" s="28"/>
+      <c r="B113" s="25"/>
       <c r="C113" t="s">
         <v>143</v>
       </c>
@@ -4438,7 +4446,7 @@
     </row>
     <row r="114" spans="1:7" ht="17.25" thickBot="1">
       <c r="A114" s="22"/>
-      <c r="B114" s="29"/>
+      <c r="B114" s="26"/>
       <c r="C114" t="s">
         <v>192</v>
       </c>
@@ -5302,10 +5310,10 @@
       <c r="A191" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="B191" s="27" t="s">
+      <c r="B191" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="C191" s="30" t="s">
+      <c r="C191" s="27" t="s">
         <v>232</v>
       </c>
       <c r="D191" t="s">
@@ -5317,8 +5325,8 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="22"/>
-      <c r="B192" s="28"/>
-      <c r="C192" s="32"/>
+      <c r="B192" s="25"/>
+      <c r="C192" s="28"/>
       <c r="D192" t="s">
         <v>234</v>
       </c>
@@ -5328,8 +5336,8 @@
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="22"/>
-      <c r="B193" s="28"/>
-      <c r="C193" s="32"/>
+      <c r="B193" s="25"/>
+      <c r="C193" s="28"/>
       <c r="D193" t="s">
         <v>235</v>
       </c>
@@ -5339,8 +5347,8 @@
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="22"/>
-      <c r="B194" s="28"/>
-      <c r="C194" s="32"/>
+      <c r="B194" s="25"/>
+      <c r="C194" s="28"/>
       <c r="D194" t="s">
         <v>236</v>
       </c>
@@ -5350,8 +5358,8 @@
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="22"/>
-      <c r="B195" s="28"/>
-      <c r="C195" s="32"/>
+      <c r="B195" s="25"/>
+      <c r="C195" s="28"/>
       <c r="D195" t="s">
         <v>237</v>
       </c>
@@ -5361,8 +5369,8 @@
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="22"/>
-      <c r="B196" s="28"/>
-      <c r="C196" s="32"/>
+      <c r="B196" s="25"/>
+      <c r="C196" s="28"/>
       <c r="D196" t="s">
         <v>238</v>
       </c>
@@ -5372,8 +5380,8 @@
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="22"/>
-      <c r="B197" s="28"/>
-      <c r="C197" s="32"/>
+      <c r="B197" s="25"/>
+      <c r="C197" s="28"/>
       <c r="D197" t="s">
         <v>221</v>
       </c>
@@ -5383,8 +5391,8 @@
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="22"/>
-      <c r="B198" s="28"/>
-      <c r="C198" s="32"/>
+      <c r="B198" s="25"/>
+      <c r="C198" s="28"/>
       <c r="D198" t="s">
         <v>239</v>
       </c>
@@ -5394,8 +5402,8 @@
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="22"/>
-      <c r="B199" s="28"/>
-      <c r="C199" s="32"/>
+      <c r="B199" s="25"/>
+      <c r="C199" s="28"/>
       <c r="D199" t="s">
         <v>240</v>
       </c>
@@ -5405,8 +5413,8 @@
     </row>
     <row r="200" spans="1:7" ht="17.25" thickBot="1">
       <c r="A200" s="22"/>
-      <c r="B200" s="28"/>
-      <c r="C200" s="31"/>
+      <c r="B200" s="25"/>
+      <c r="C200" s="29"/>
       <c r="D200" t="s">
         <v>241</v>
       </c>
@@ -5416,7 +5424,7 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="22"/>
-      <c r="B201" s="28"/>
+      <c r="B201" s="25"/>
       <c r="C201" t="s">
         <v>242</v>
       </c>
@@ -5426,7 +5434,7 @@
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="22"/>
-      <c r="B202" s="28"/>
+      <c r="B202" s="25"/>
       <c r="C202" t="s">
         <v>84</v>
       </c>
@@ -5436,7 +5444,7 @@
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="22"/>
-      <c r="B203" s="28"/>
+      <c r="B203" s="25"/>
       <c r="C203" t="s">
         <v>243</v>
       </c>
@@ -5446,7 +5454,7 @@
     </row>
     <row r="204" spans="1:7" ht="17.25" thickBot="1">
       <c r="A204" s="22"/>
-      <c r="B204" s="29"/>
+      <c r="B204" s="26"/>
       <c r="C204" t="s">
         <v>244</v>
       </c>
@@ -5456,10 +5464,10 @@
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="22"/>
-      <c r="B205" s="27" t="s">
+      <c r="B205" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="C205" s="30" t="s">
+      <c r="C205" s="27" t="s">
         <v>218</v>
       </c>
       <c r="D205" t="s">
@@ -5474,8 +5482,8 @@
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="22"/>
-      <c r="B206" s="28"/>
-      <c r="C206" s="32"/>
+      <c r="B206" s="25"/>
+      <c r="C206" s="28"/>
       <c r="D206" t="s">
         <v>246</v>
       </c>
@@ -5488,8 +5496,8 @@
     </row>
     <row r="207" spans="1:7" ht="17.25" thickBot="1">
       <c r="A207" s="22"/>
-      <c r="B207" s="28"/>
-      <c r="C207" s="31"/>
+      <c r="B207" s="25"/>
+      <c r="C207" s="29"/>
       <c r="D207" t="s">
         <v>221</v>
       </c>
@@ -5502,7 +5510,7 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="22"/>
-      <c r="B208" s="28"/>
+      <c r="B208" s="25"/>
       <c r="C208" t="s">
         <v>206</v>
       </c>
@@ -5515,7 +5523,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="22"/>
-      <c r="B209" s="28"/>
+      <c r="B209" s="25"/>
       <c r="C209" t="s">
         <v>224</v>
       </c>
@@ -5528,7 +5536,7 @@
     </row>
     <row r="210" spans="1:8" ht="17.25" thickBot="1">
       <c r="A210" s="22"/>
-      <c r="B210" s="29"/>
+      <c r="B210" s="26"/>
       <c r="C210" t="s">
         <v>228</v>
       </c>
@@ -5580,6 +5588,9 @@
       <c r="G213" t="s">
         <v>258</v>
       </c>
+      <c r="H213" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="22"/>
@@ -5592,6 +5603,9 @@
       <c r="G214" t="s">
         <v>258</v>
       </c>
+      <c r="H214" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="22"/>
@@ -5605,19 +5619,17 @@
         <v>258</v>
       </c>
       <c r="H215" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="22"/>
       <c r="B216" t="s">
-        <v>84</v>
-      </c>
-      <c r="F216" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="G216" t="s">
-        <v>258</v>
+        <v>274</v>
+      </c>
+      <c r="F216" s="11"/>
+      <c r="H216" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -5643,6 +5655,9 @@
       <c r="G218" t="s">
         <v>258</v>
       </c>
+      <c r="H218" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="22"/>
@@ -5655,6 +5670,9 @@
       <c r="G219" t="s">
         <v>258</v>
       </c>
+      <c r="H219" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="22"/>
@@ -5677,6 +5695,9 @@
       <c r="G221" t="s">
         <v>258</v>
       </c>
+      <c r="H221" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="22"/>
@@ -5774,17 +5795,19 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A226:A228"/>
-    <mergeCell ref="A128:A190"/>
-    <mergeCell ref="A191:A225"/>
-    <mergeCell ref="B191:B204"/>
-    <mergeCell ref="B205:B210"/>
-    <mergeCell ref="C191:C200"/>
-    <mergeCell ref="C205:C207"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B114"/>
+    <mergeCell ref="A1:A46"/>
+    <mergeCell ref="B1:B9"/>
+    <mergeCell ref="B10:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A47:A127"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B78"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B84:B86"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="C96:C109"/>
@@ -5794,19 +5817,17 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A47:A127"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B78"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="A1:A46"/>
-    <mergeCell ref="B1:B9"/>
-    <mergeCell ref="B10:B23"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C191:C200"/>
+    <mergeCell ref="C205:C207"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B114"/>
+    <mergeCell ref="A226:A228"/>
+    <mergeCell ref="A128:A190"/>
+    <mergeCell ref="A191:A225"/>
+    <mergeCell ref="B191:B204"/>
+    <mergeCell ref="B205:B210"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/開發文件.xlsx
+++ b/docs/開發文件.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\YDWE1.25.10\Creation\Mod\The_Tilted_Clock_Tower\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BEB777-1B73-4FF4-AEA1-2F7F316927E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EEE281-3011-4C56-AEB1-97C2CFDBC478}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
+    <workbookView xWindow="-26145" yWindow="2265" windowWidth="21600" windowHeight="11835" activeTab="4" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
   </bookViews>
   <sheets>
     <sheet name="項目" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="276">
   <si>
     <r>
       <rPr>
@@ -1344,6 +1344,10 @@
   </si>
   <si>
     <t>is_nil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1658,6 +1662,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1670,10 +1683,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1683,15 +1696,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3054,8 +3058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29018229-9EAF-4726-88C6-5A87070EDF6C}">
   <dimension ref="A1:H229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="H221" sqref="H221"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="H224" sqref="H224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3072,7 +3076,7 @@
       <c r="A1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="24" t="s">
         <v>83</v>
       </c>
       <c r="C1" t="s">
@@ -3087,7 +3091,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="22"/>
-      <c r="B2" s="34"/>
+      <c r="B2" s="25"/>
       <c r="C2" t="s">
         <v>85</v>
       </c>
@@ -3097,7 +3101,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="22"/>
-      <c r="B3" s="34"/>
+      <c r="B3" s="25"/>
       <c r="C3" t="s">
         <v>86</v>
       </c>
@@ -3107,7 +3111,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="22"/>
-      <c r="B4" s="34"/>
+      <c r="B4" s="25"/>
       <c r="C4" t="s">
         <v>87</v>
       </c>
@@ -3117,7 +3121,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="22"/>
-      <c r="B5" s="34"/>
+      <c r="B5" s="25"/>
       <c r="C5" t="s">
         <v>88</v>
       </c>
@@ -3127,7 +3131,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="22"/>
-      <c r="B6" s="34"/>
+      <c r="B6" s="25"/>
       <c r="C6" t="s">
         <v>89</v>
       </c>
@@ -3137,7 +3141,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="22"/>
-      <c r="B7" s="34"/>
+      <c r="B7" s="25"/>
       <c r="C7" t="s">
         <v>90</v>
       </c>
@@ -3147,7 +3151,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="22"/>
-      <c r="B8" s="34"/>
+      <c r="B8" s="25"/>
       <c r="C8" t="s">
         <v>91</v>
       </c>
@@ -3157,7 +3161,7 @@
     </row>
     <row r="9" spans="1:8" ht="17.25" thickBot="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="35"/>
+      <c r="B9" s="26"/>
       <c r="C9" t="s">
         <v>92</v>
       </c>
@@ -3167,13 +3171,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="22"/>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="33" t="s">
         <v>95</v>
       </c>
       <c r="E10" t="s">
@@ -3185,9 +3189,9 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="22"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="34"/>
       <c r="E11" t="s">
         <v>97</v>
       </c>
@@ -3197,9 +3201,9 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="22"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="31"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="34"/>
       <c r="E12" t="s">
         <v>98</v>
       </c>
@@ -3209,9 +3213,9 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="22"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="34"/>
       <c r="E13" t="s">
         <v>99</v>
       </c>
@@ -3221,9 +3225,9 @@
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="32"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="35"/>
       <c r="E14" t="s">
         <v>100</v>
       </c>
@@ -3233,9 +3237,9 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="22"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="30" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33" t="s">
         <v>101</v>
       </c>
       <c r="E15" t="s">
@@ -3247,9 +3251,9 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="22"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="31"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="34"/>
       <c r="E16" t="s">
         <v>103</v>
       </c>
@@ -3259,9 +3263,9 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="22"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="31"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="34"/>
       <c r="E17" t="s">
         <v>104</v>
       </c>
@@ -3271,9 +3275,9 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="22"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="31"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="34"/>
       <c r="E18" t="s">
         <v>105</v>
       </c>
@@ -3283,9 +3287,9 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="31"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="34"/>
       <c r="E19" t="s">
         <v>106</v>
       </c>
@@ -3295,9 +3299,9 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="22"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="31"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="34"/>
       <c r="E20" t="s">
         <v>107</v>
       </c>
@@ -3307,9 +3311,9 @@
     </row>
     <row r="21" spans="1:6" ht="17.25" thickBot="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="32"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="35"/>
       <c r="E21" t="s">
         <v>108</v>
       </c>
@@ -3319,7 +3323,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="22"/>
-      <c r="B22" s="34"/>
+      <c r="B22" s="25"/>
       <c r="C22" t="s">
         <v>109</v>
       </c>
@@ -3329,7 +3333,7 @@
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="35"/>
+      <c r="B23" s="26"/>
       <c r="C23" t="s">
         <v>84</v>
       </c>
@@ -3339,7 +3343,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="22"/>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="27" t="s">
         <v>110</v>
       </c>
       <c r="C24" t="s">
@@ -3351,7 +3355,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="22"/>
-      <c r="B25" s="25"/>
+      <c r="B25" s="28"/>
       <c r="C25" t="s">
         <v>111</v>
       </c>
@@ -3361,7 +3365,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="22"/>
-      <c r="B26" s="25"/>
+      <c r="B26" s="28"/>
       <c r="C26" t="s">
         <v>112</v>
       </c>
@@ -3371,7 +3375,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="22"/>
-      <c r="B27" s="25"/>
+      <c r="B27" s="28"/>
       <c r="C27" t="s">
         <v>113</v>
       </c>
@@ -3381,7 +3385,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="22"/>
-      <c r="B28" s="25"/>
+      <c r="B28" s="28"/>
       <c r="C28" t="s">
         <v>114</v>
       </c>
@@ -3391,7 +3395,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="22"/>
-      <c r="B29" s="25"/>
+      <c r="B29" s="28"/>
       <c r="C29" t="s">
         <v>115</v>
       </c>
@@ -3401,7 +3405,7 @@
     </row>
     <row r="30" spans="1:6" ht="17.25" thickBot="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="26"/>
+      <c r="B30" s="29"/>
       <c r="C30" t="s">
         <v>116</v>
       </c>
@@ -3411,10 +3415,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="22"/>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="30" t="s">
         <v>118</v>
       </c>
       <c r="D31" t="s">
@@ -3426,8 +3430,8 @@
     </row>
     <row r="32" spans="1:6" ht="17.25" thickBot="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="29"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="31"/>
       <c r="D32" t="s">
         <v>120</v>
       </c>
@@ -3437,8 +3441,8 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="22"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="27" t="s">
+      <c r="B33" s="28"/>
+      <c r="C33" s="30" t="s">
         <v>121</v>
       </c>
       <c r="D33" t="s">
@@ -3450,8 +3454,8 @@
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1">
       <c r="A34" s="22"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="29"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="31"/>
       <c r="D34" t="s">
         <v>123</v>
       </c>
@@ -3461,8 +3465,8 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="22"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="27" t="s">
+      <c r="B35" s="28"/>
+      <c r="C35" s="30" t="s">
         <v>124</v>
       </c>
       <c r="D35" t="s">
@@ -3474,8 +3478,8 @@
     </row>
     <row r="36" spans="1:7" ht="17.25" thickBot="1">
       <c r="A36" s="22"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="31"/>
       <c r="D36" t="s">
         <v>123</v>
       </c>
@@ -3577,7 +3581,7 @@
       <c r="A47" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="27" t="s">
         <v>136</v>
       </c>
       <c r="C47" t="s">
@@ -3592,7 +3596,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="22"/>
-      <c r="B48" s="25"/>
+      <c r="B48" s="28"/>
       <c r="C48" t="s">
         <v>138</v>
       </c>
@@ -3605,7 +3609,7 @@
     </row>
     <row r="49" spans="1:7" ht="17.25" thickBot="1">
       <c r="A49" s="22"/>
-      <c r="B49" s="26"/>
+      <c r="B49" s="29"/>
       <c r="C49" t="s">
         <v>139</v>
       </c>
@@ -3618,10 +3622,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="22"/>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="30" t="s">
         <v>141</v>
       </c>
       <c r="D50" t="s">
@@ -3636,8 +3640,8 @@
     </row>
     <row r="51" spans="1:7" ht="17.25" thickBot="1">
       <c r="A51" s="22"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="29"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="31"/>
       <c r="D51" t="s">
         <v>142</v>
       </c>
@@ -3650,7 +3654,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="22"/>
-      <c r="B52" s="25"/>
+      <c r="B52" s="28"/>
       <c r="C52" t="s">
         <v>138</v>
       </c>
@@ -3663,7 +3667,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="22"/>
-      <c r="B53" s="25"/>
+      <c r="B53" s="28"/>
       <c r="C53" t="s">
         <v>84</v>
       </c>
@@ -3676,7 +3680,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="22"/>
-      <c r="B54" s="25"/>
+      <c r="B54" s="28"/>
       <c r="C54" t="s">
         <v>143</v>
       </c>
@@ -3689,7 +3693,7 @@
     </row>
     <row r="55" spans="1:7" ht="17.25" thickBot="1">
       <c r="A55" s="22"/>
-      <c r="B55" s="26"/>
+      <c r="B55" s="29"/>
       <c r="C55" t="s">
         <v>144</v>
       </c>
@@ -3702,7 +3706,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="22"/>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="27" t="s">
         <v>145</v>
       </c>
       <c r="C56" t="s">
@@ -3717,7 +3721,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="22"/>
-      <c r="B57" s="25"/>
+      <c r="B57" s="28"/>
       <c r="C57" t="s">
         <v>147</v>
       </c>
@@ -3730,7 +3734,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="22"/>
-      <c r="B58" s="25"/>
+      <c r="B58" s="28"/>
       <c r="C58" t="s">
         <v>148</v>
       </c>
@@ -3743,7 +3747,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="22"/>
-      <c r="B59" s="25"/>
+      <c r="B59" s="28"/>
       <c r="C59" t="s">
         <v>149</v>
       </c>
@@ -3756,7 +3760,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="22"/>
-      <c r="B60" s="25"/>
+      <c r="B60" s="28"/>
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -3769,7 +3773,7 @@
     </row>
     <row r="61" spans="1:7" ht="17.25" thickBot="1">
       <c r="A61" s="22"/>
-      <c r="B61" s="26"/>
+      <c r="B61" s="29"/>
       <c r="C61" t="s">
         <v>151</v>
       </c>
@@ -3782,7 +3786,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="22"/>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="27" t="s">
         <v>152</v>
       </c>
       <c r="C62" t="s">
@@ -3797,7 +3801,7 @@
     </row>
     <row r="63" spans="1:7" ht="17.25" thickBot="1">
       <c r="A63" s="22"/>
-      <c r="B63" s="26"/>
+      <c r="B63" s="29"/>
       <c r="C63" t="s">
         <v>138</v>
       </c>
@@ -3810,10 +3814,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="22"/>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="30" t="s">
         <v>155</v>
       </c>
       <c r="D64" t="s">
@@ -3825,8 +3829,8 @@
     </row>
     <row r="65" spans="1:7" ht="17.25" thickBot="1">
       <c r="A65" s="22"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="29"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="31"/>
       <c r="D65" t="s">
         <v>156</v>
       </c>
@@ -3836,7 +3840,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="22"/>
-      <c r="B66" s="25"/>
+      <c r="B66" s="28"/>
       <c r="C66" t="s">
         <v>157</v>
       </c>
@@ -3846,7 +3850,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="22"/>
-      <c r="B67" s="25"/>
+      <c r="B67" s="28"/>
       <c r="C67" t="s">
         <v>158</v>
       </c>
@@ -3856,7 +3860,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="22"/>
-      <c r="B68" s="25"/>
+      <c r="B68" s="28"/>
       <c r="C68" t="s">
         <v>159</v>
       </c>
@@ -3866,7 +3870,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="22"/>
-      <c r="B69" s="25"/>
+      <c r="B69" s="28"/>
       <c r="C69" t="s">
         <v>138</v>
       </c>
@@ -3876,7 +3880,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="22"/>
-      <c r="B70" s="25"/>
+      <c r="B70" s="28"/>
       <c r="C70" t="s">
         <v>160</v>
       </c>
@@ -3886,7 +3890,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="22"/>
-      <c r="B71" s="25"/>
+      <c r="B71" s="28"/>
       <c r="C71" t="s">
         <v>161</v>
       </c>
@@ -3896,7 +3900,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="22"/>
-      <c r="B72" s="25"/>
+      <c r="B72" s="28"/>
       <c r="C72" t="s">
         <v>162</v>
       </c>
@@ -3906,7 +3910,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="22"/>
-      <c r="B73" s="25"/>
+      <c r="B73" s="28"/>
       <c r="C73" t="s">
         <v>84</v>
       </c>
@@ -3916,7 +3920,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="22"/>
-      <c r="B74" s="25"/>
+      <c r="B74" s="28"/>
       <c r="C74" t="s">
         <v>163</v>
       </c>
@@ -3926,7 +3930,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="22"/>
-      <c r="B75" s="25"/>
+      <c r="B75" s="28"/>
       <c r="C75" t="s">
         <v>164</v>
       </c>
@@ -3936,7 +3940,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="22"/>
-      <c r="B76" s="25"/>
+      <c r="B76" s="28"/>
       <c r="C76" t="s">
         <v>165</v>
       </c>
@@ -3946,7 +3950,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="22"/>
-      <c r="B77" s="25"/>
+      <c r="B77" s="28"/>
       <c r="C77" t="s">
         <v>166</v>
       </c>
@@ -3956,7 +3960,7 @@
     </row>
     <row r="78" spans="1:7" ht="17.25" thickBot="1">
       <c r="A78" s="22"/>
-      <c r="B78" s="26"/>
+      <c r="B78" s="29"/>
       <c r="C78" t="s">
         <v>167</v>
       </c>
@@ -3966,7 +3970,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="22"/>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="27" t="s">
         <v>168</v>
       </c>
       <c r="C79" t="s">
@@ -3981,7 +3985,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="22"/>
-      <c r="B80" s="25"/>
+      <c r="B80" s="28"/>
       <c r="C80" t="s">
         <v>169</v>
       </c>
@@ -3994,7 +3998,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="22"/>
-      <c r="B81" s="25"/>
+      <c r="B81" s="28"/>
       <c r="C81" t="s">
         <v>170</v>
       </c>
@@ -4007,7 +4011,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="22"/>
-      <c r="B82" s="25"/>
+      <c r="B82" s="28"/>
       <c r="C82" t="s">
         <v>171</v>
       </c>
@@ -4020,7 +4024,7 @@
     </row>
     <row r="83" spans="1:7" ht="17.25" thickBot="1">
       <c r="A83" s="22"/>
-      <c r="B83" s="26"/>
+      <c r="B83" s="29"/>
       <c r="C83" t="s">
         <v>172</v>
       </c>
@@ -4033,7 +4037,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="22"/>
-      <c r="B84" s="24" t="s">
+      <c r="B84" s="27" t="s">
         <v>173</v>
       </c>
       <c r="C84" t="s">
@@ -4048,7 +4052,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="22"/>
-      <c r="B85" s="25"/>
+      <c r="B85" s="28"/>
       <c r="C85" t="s">
         <v>144</v>
       </c>
@@ -4061,7 +4065,7 @@
     </row>
     <row r="86" spans="1:7" ht="17.25" thickBot="1">
       <c r="A86" s="22"/>
-      <c r="B86" s="26"/>
+      <c r="B86" s="29"/>
       <c r="C86" t="s">
         <v>172</v>
       </c>
@@ -4071,7 +4075,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="22"/>
-      <c r="B87" s="24" t="s">
+      <c r="B87" s="27" t="s">
         <v>123</v>
       </c>
       <c r="C87" t="s">
@@ -4086,7 +4090,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="22"/>
-      <c r="B88" s="25"/>
+      <c r="B88" s="28"/>
       <c r="C88" t="s">
         <v>138</v>
       </c>
@@ -4099,7 +4103,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="22"/>
-      <c r="B89" s="25"/>
+      <c r="B89" s="28"/>
       <c r="C89" t="s">
         <v>161</v>
       </c>
@@ -4112,7 +4116,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="22"/>
-      <c r="B90" s="25"/>
+      <c r="B90" s="28"/>
       <c r="C90" t="s">
         <v>84</v>
       </c>
@@ -4125,7 +4129,7 @@
     </row>
     <row r="91" spans="1:7" ht="17.25" thickBot="1">
       <c r="A91" s="22"/>
-      <c r="B91" s="26"/>
+      <c r="B91" s="29"/>
       <c r="C91" t="s">
         <v>172</v>
       </c>
@@ -4138,7 +4142,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="22"/>
-      <c r="B92" s="24" t="s">
+      <c r="B92" s="27" t="s">
         <v>175</v>
       </c>
       <c r="C92" t="s">
@@ -4153,7 +4157,7 @@
     </row>
     <row r="93" spans="1:7" ht="17.25" thickBot="1">
       <c r="A93" s="22"/>
-      <c r="B93" s="26"/>
+      <c r="B93" s="29"/>
       <c r="C93" t="s">
         <v>138</v>
       </c>
@@ -4166,7 +4170,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="22"/>
-      <c r="B94" s="24" t="s">
+      <c r="B94" s="27" t="s">
         <v>177</v>
       </c>
       <c r="C94" t="s">
@@ -4181,7 +4185,7 @@
     </row>
     <row r="95" spans="1:7" ht="17.25" thickBot="1">
       <c r="A95" s="22"/>
-      <c r="B95" s="26"/>
+      <c r="B95" s="29"/>
       <c r="C95" t="s">
         <v>84</v>
       </c>
@@ -4194,10 +4198,10 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="22"/>
-      <c r="B96" s="24" t="s">
+      <c r="B96" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C96" s="27" t="s">
+      <c r="C96" s="30" t="s">
         <v>141</v>
       </c>
       <c r="D96" t="s">
@@ -4212,8 +4216,8 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="22"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="28"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="32"/>
       <c r="D97" t="s">
         <v>178</v>
       </c>
@@ -4226,8 +4230,8 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="22"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="28"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="32"/>
       <c r="D98" t="s">
         <v>179</v>
       </c>
@@ -4240,8 +4244,8 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="22"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="28"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="32"/>
       <c r="D99" t="s">
         <v>180</v>
       </c>
@@ -4254,8 +4258,8 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="22"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="28"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="32"/>
       <c r="D100" t="s">
         <v>181</v>
       </c>
@@ -4268,8 +4272,8 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="22"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="28"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="32"/>
       <c r="D101" t="s">
         <v>182</v>
       </c>
@@ -4282,8 +4286,8 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="22"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="28"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="32"/>
       <c r="D102" t="s">
         <v>183</v>
       </c>
@@ -4296,8 +4300,8 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="22"/>
-      <c r="B103" s="25"/>
-      <c r="C103" s="28"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="32"/>
       <c r="D103" t="s">
         <v>184</v>
       </c>
@@ -4310,8 +4314,8 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="22"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="28"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="32"/>
       <c r="D104" t="s">
         <v>185</v>
       </c>
@@ -4324,8 +4328,8 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="22"/>
-      <c r="B105" s="25"/>
-      <c r="C105" s="28"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="32"/>
       <c r="D105" t="s">
         <v>186</v>
       </c>
@@ -4338,8 +4342,8 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="22"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="28"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="32"/>
       <c r="D106" t="s">
         <v>187</v>
       </c>
@@ -4352,8 +4356,8 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="22"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="28"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="32"/>
       <c r="D107" t="s">
         <v>188</v>
       </c>
@@ -4366,8 +4370,8 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="22"/>
-      <c r="B108" s="25"/>
-      <c r="C108" s="28"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="32"/>
       <c r="D108" t="s">
         <v>189</v>
       </c>
@@ -4380,8 +4384,8 @@
     </row>
     <row r="109" spans="1:7" ht="17.25" thickBot="1">
       <c r="A109" s="22"/>
-      <c r="B109" s="25"/>
-      <c r="C109" s="29"/>
+      <c r="B109" s="28"/>
+      <c r="C109" s="31"/>
       <c r="D109" t="s">
         <v>190</v>
       </c>
@@ -4394,7 +4398,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="22"/>
-      <c r="B110" s="25"/>
+      <c r="B110" s="28"/>
       <c r="C110" t="s">
         <v>138</v>
       </c>
@@ -4407,7 +4411,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="22"/>
-      <c r="B111" s="25"/>
+      <c r="B111" s="28"/>
       <c r="C111" t="s">
         <v>161</v>
       </c>
@@ -4420,7 +4424,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="22"/>
-      <c r="B112" s="25"/>
+      <c r="B112" s="28"/>
       <c r="C112" t="s">
         <v>191</v>
       </c>
@@ -4433,7 +4437,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="22"/>
-      <c r="B113" s="25"/>
+      <c r="B113" s="28"/>
       <c r="C113" t="s">
         <v>143</v>
       </c>
@@ -4446,7 +4450,7 @@
     </row>
     <row r="114" spans="1:7" ht="17.25" thickBot="1">
       <c r="A114" s="22"/>
-      <c r="B114" s="26"/>
+      <c r="B114" s="29"/>
       <c r="C114" t="s">
         <v>192</v>
       </c>
@@ -5310,10 +5314,10 @@
       <c r="A191" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="B191" s="24" t="s">
+      <c r="B191" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="C191" s="27" t="s">
+      <c r="C191" s="30" t="s">
         <v>232</v>
       </c>
       <c r="D191" t="s">
@@ -5325,8 +5329,8 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="22"/>
-      <c r="B192" s="25"/>
-      <c r="C192" s="28"/>
+      <c r="B192" s="28"/>
+      <c r="C192" s="32"/>
       <c r="D192" t="s">
         <v>234</v>
       </c>
@@ -5336,8 +5340,8 @@
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="22"/>
-      <c r="B193" s="25"/>
-      <c r="C193" s="28"/>
+      <c r="B193" s="28"/>
+      <c r="C193" s="32"/>
       <c r="D193" t="s">
         <v>235</v>
       </c>
@@ -5347,8 +5351,8 @@
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="22"/>
-      <c r="B194" s="25"/>
-      <c r="C194" s="28"/>
+      <c r="B194" s="28"/>
+      <c r="C194" s="32"/>
       <c r="D194" t="s">
         <v>236</v>
       </c>
@@ -5358,8 +5362,8 @@
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="22"/>
-      <c r="B195" s="25"/>
-      <c r="C195" s="28"/>
+      <c r="B195" s="28"/>
+      <c r="C195" s="32"/>
       <c r="D195" t="s">
         <v>237</v>
       </c>
@@ -5369,8 +5373,8 @@
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="22"/>
-      <c r="B196" s="25"/>
-      <c r="C196" s="28"/>
+      <c r="B196" s="28"/>
+      <c r="C196" s="32"/>
       <c r="D196" t="s">
         <v>238</v>
       </c>
@@ -5380,8 +5384,8 @@
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="22"/>
-      <c r="B197" s="25"/>
-      <c r="C197" s="28"/>
+      <c r="B197" s="28"/>
+      <c r="C197" s="32"/>
       <c r="D197" t="s">
         <v>221</v>
       </c>
@@ -5391,8 +5395,8 @@
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="22"/>
-      <c r="B198" s="25"/>
-      <c r="C198" s="28"/>
+      <c r="B198" s="28"/>
+      <c r="C198" s="32"/>
       <c r="D198" t="s">
         <v>239</v>
       </c>
@@ -5402,8 +5406,8 @@
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="22"/>
-      <c r="B199" s="25"/>
-      <c r="C199" s="28"/>
+      <c r="B199" s="28"/>
+      <c r="C199" s="32"/>
       <c r="D199" t="s">
         <v>240</v>
       </c>
@@ -5413,8 +5417,8 @@
     </row>
     <row r="200" spans="1:7" ht="17.25" thickBot="1">
       <c r="A200" s="22"/>
-      <c r="B200" s="25"/>
-      <c r="C200" s="29"/>
+      <c r="B200" s="28"/>
+      <c r="C200" s="31"/>
       <c r="D200" t="s">
         <v>241</v>
       </c>
@@ -5424,7 +5428,7 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="22"/>
-      <c r="B201" s="25"/>
+      <c r="B201" s="28"/>
       <c r="C201" t="s">
         <v>242</v>
       </c>
@@ -5434,7 +5438,7 @@
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="22"/>
-      <c r="B202" s="25"/>
+      <c r="B202" s="28"/>
       <c r="C202" t="s">
         <v>84</v>
       </c>
@@ -5444,7 +5448,7 @@
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="22"/>
-      <c r="B203" s="25"/>
+      <c r="B203" s="28"/>
       <c r="C203" t="s">
         <v>243</v>
       </c>
@@ -5454,7 +5458,7 @@
     </row>
     <row r="204" spans="1:7" ht="17.25" thickBot="1">
       <c r="A204" s="22"/>
-      <c r="B204" s="26"/>
+      <c r="B204" s="29"/>
       <c r="C204" t="s">
         <v>244</v>
       </c>
@@ -5464,10 +5468,10 @@
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="22"/>
-      <c r="B205" s="24" t="s">
+      <c r="B205" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="C205" s="27" t="s">
+      <c r="C205" s="30" t="s">
         <v>218</v>
       </c>
       <c r="D205" t="s">
@@ -5482,8 +5486,8 @@
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="22"/>
-      <c r="B206" s="25"/>
-      <c r="C206" s="28"/>
+      <c r="B206" s="28"/>
+      <c r="C206" s="32"/>
       <c r="D206" t="s">
         <v>246</v>
       </c>
@@ -5496,8 +5500,8 @@
     </row>
     <row r="207" spans="1:7" ht="17.25" thickBot="1">
       <c r="A207" s="22"/>
-      <c r="B207" s="25"/>
-      <c r="C207" s="29"/>
+      <c r="B207" s="28"/>
+      <c r="C207" s="31"/>
       <c r="D207" t="s">
         <v>221</v>
       </c>
@@ -5510,7 +5514,7 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="22"/>
-      <c r="B208" s="25"/>
+      <c r="B208" s="28"/>
       <c r="C208" t="s">
         <v>206</v>
       </c>
@@ -5523,7 +5527,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="22"/>
-      <c r="B209" s="25"/>
+      <c r="B209" s="28"/>
       <c r="C209" t="s">
         <v>224</v>
       </c>
@@ -5536,7 +5540,7 @@
     </row>
     <row r="210" spans="1:8" ht="17.25" thickBot="1">
       <c r="A210" s="22"/>
-      <c r="B210" s="26"/>
+      <c r="B210" s="29"/>
       <c r="C210" t="s">
         <v>228</v>
       </c>
@@ -5710,6 +5714,9 @@
       <c r="G222" t="s">
         <v>258</v>
       </c>
+      <c r="H222" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="22"/>
@@ -5722,6 +5729,9 @@
       <c r="G223" t="s">
         <v>258</v>
       </c>
+      <c r="H223" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="22"/>
@@ -5734,8 +5744,11 @@
       <c r="G224" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" ht="17.25" thickBot="1">
+      <c r="H224" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="17.25" thickBot="1">
       <c r="A225" s="23"/>
       <c r="B225" t="s">
         <v>230</v>
@@ -5746,8 +5759,11 @@
       <c r="G225" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="226" spans="1:7">
+      <c r="H225" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226" s="21" t="s">
         <v>253</v>
       </c>
@@ -5761,7 +5777,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:8">
       <c r="A227" s="22"/>
       <c r="B227" t="s">
         <v>255</v>
@@ -5773,7 +5789,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="17.25" thickBot="1">
+    <row r="228" spans="1:8" ht="17.25" thickBot="1">
       <c r="A228" s="23"/>
       <c r="B228" t="s">
         <v>256</v>
@@ -5785,7 +5801,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:8">
       <c r="A229" t="s">
         <v>257</v>
       </c>
@@ -5795,19 +5811,17 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:A46"/>
-    <mergeCell ref="B1:B9"/>
-    <mergeCell ref="B10:B23"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="A47:A127"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B78"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="A226:A228"/>
+    <mergeCell ref="A128:A190"/>
+    <mergeCell ref="A191:A225"/>
+    <mergeCell ref="B191:B204"/>
+    <mergeCell ref="B205:B210"/>
+    <mergeCell ref="C191:C200"/>
+    <mergeCell ref="C205:C207"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B114"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="C96:C109"/>
@@ -5817,17 +5831,19 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C191:C200"/>
-    <mergeCell ref="C205:C207"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B114"/>
-    <mergeCell ref="A226:A228"/>
-    <mergeCell ref="A128:A190"/>
-    <mergeCell ref="A191:A225"/>
-    <mergeCell ref="B191:B204"/>
-    <mergeCell ref="B205:B210"/>
+    <mergeCell ref="A47:A127"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B78"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="A1:A46"/>
+    <mergeCell ref="B1:B9"/>
+    <mergeCell ref="B10:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/開發文件.xlsx
+++ b/docs/開發文件.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\YDWE1.25.10\Creation\Mod\The_Tilted_Clock_Tower\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EEE281-3011-4C56-AEB1-97C2CFDBC478}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766FAC17-64F6-430F-9A5D-57F798D732FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26145" yWindow="2265" windowWidth="21600" windowHeight="11835" activeTab="4" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="277">
   <si>
     <r>
       <rPr>
@@ -1344,6 +1344,10 @@
   </si>
   <si>
     <t>is_nil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1662,15 +1666,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1683,10 +1678,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1696,6 +1691,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3058,8 +3062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29018229-9EAF-4726-88C6-5A87070EDF6C}">
   <dimension ref="A1:H229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="H224" sqref="H224"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="H208" sqref="H208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3076,7 +3080,7 @@
       <c r="A1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="33" t="s">
         <v>83</v>
       </c>
       <c r="C1" t="s">
@@ -3091,7 +3095,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="22"/>
-      <c r="B2" s="25"/>
+      <c r="B2" s="34"/>
       <c r="C2" t="s">
         <v>85</v>
       </c>
@@ -3101,7 +3105,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="22"/>
-      <c r="B3" s="25"/>
+      <c r="B3" s="34"/>
       <c r="C3" t="s">
         <v>86</v>
       </c>
@@ -3111,7 +3115,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="22"/>
-      <c r="B4" s="25"/>
+      <c r="B4" s="34"/>
       <c r="C4" t="s">
         <v>87</v>
       </c>
@@ -3121,7 +3125,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="22"/>
-      <c r="B5" s="25"/>
+      <c r="B5" s="34"/>
       <c r="C5" t="s">
         <v>88</v>
       </c>
@@ -3131,7 +3135,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="22"/>
-      <c r="B6" s="25"/>
+      <c r="B6" s="34"/>
       <c r="C6" t="s">
         <v>89</v>
       </c>
@@ -3141,7 +3145,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="22"/>
-      <c r="B7" s="25"/>
+      <c r="B7" s="34"/>
       <c r="C7" t="s">
         <v>90</v>
       </c>
@@ -3151,7 +3155,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="22"/>
-      <c r="B8" s="25"/>
+      <c r="B8" s="34"/>
       <c r="C8" t="s">
         <v>91</v>
       </c>
@@ -3161,7 +3165,7 @@
     </row>
     <row r="9" spans="1:8" ht="17.25" thickBot="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="26"/>
+      <c r="B9" s="35"/>
       <c r="C9" t="s">
         <v>92</v>
       </c>
@@ -3171,13 +3175,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="22"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="30" t="s">
         <v>95</v>
       </c>
       <c r="E10" t="s">
@@ -3189,9 +3193,9 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="22"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="31"/>
       <c r="E11" t="s">
         <v>97</v>
       </c>
@@ -3201,9 +3205,9 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="22"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="31"/>
       <c r="E12" t="s">
         <v>98</v>
       </c>
@@ -3213,9 +3217,9 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="22"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="31"/>
       <c r="E13" t="s">
         <v>99</v>
       </c>
@@ -3225,9 +3229,9 @@
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="35"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="32"/>
       <c r="E14" t="s">
         <v>100</v>
       </c>
@@ -3237,9 +3241,9 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="22"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="30" t="s">
         <v>101</v>
       </c>
       <c r="E15" t="s">
@@ -3251,9 +3255,9 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="22"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="31"/>
       <c r="E16" t="s">
         <v>103</v>
       </c>
@@ -3263,9 +3267,9 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="22"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="31"/>
       <c r="E17" t="s">
         <v>104</v>
       </c>
@@ -3275,9 +3279,9 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="22"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="31"/>
       <c r="E18" t="s">
         <v>105</v>
       </c>
@@ -3287,9 +3291,9 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="31"/>
       <c r="E19" t="s">
         <v>106</v>
       </c>
@@ -3299,9 +3303,9 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="22"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="31"/>
       <c r="E20" t="s">
         <v>107</v>
       </c>
@@ -3311,9 +3315,9 @@
     </row>
     <row r="21" spans="1:6" ht="17.25" thickBot="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="35"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="32"/>
       <c r="E21" t="s">
         <v>108</v>
       </c>
@@ -3323,7 +3327,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="22"/>
-      <c r="B22" s="25"/>
+      <c r="B22" s="34"/>
       <c r="C22" t="s">
         <v>109</v>
       </c>
@@ -3333,7 +3337,7 @@
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="26"/>
+      <c r="B23" s="35"/>
       <c r="C23" t="s">
         <v>84</v>
       </c>
@@ -3343,7 +3347,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="22"/>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="24" t="s">
         <v>110</v>
       </c>
       <c r="C24" t="s">
@@ -3355,7 +3359,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="22"/>
-      <c r="B25" s="28"/>
+      <c r="B25" s="25"/>
       <c r="C25" t="s">
         <v>111</v>
       </c>
@@ -3365,7 +3369,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="22"/>
-      <c r="B26" s="28"/>
+      <c r="B26" s="25"/>
       <c r="C26" t="s">
         <v>112</v>
       </c>
@@ -3375,7 +3379,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="22"/>
-      <c r="B27" s="28"/>
+      <c r="B27" s="25"/>
       <c r="C27" t="s">
         <v>113</v>
       </c>
@@ -3385,7 +3389,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="22"/>
-      <c r="B28" s="28"/>
+      <c r="B28" s="25"/>
       <c r="C28" t="s">
         <v>114</v>
       </c>
@@ -3395,7 +3399,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="22"/>
-      <c r="B29" s="28"/>
+      <c r="B29" s="25"/>
       <c r="C29" t="s">
         <v>115</v>
       </c>
@@ -3405,7 +3409,7 @@
     </row>
     <row r="30" spans="1:6" ht="17.25" thickBot="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="29"/>
+      <c r="B30" s="26"/>
       <c r="C30" t="s">
         <v>116</v>
       </c>
@@ -3415,10 +3419,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="22"/>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="27" t="s">
         <v>118</v>
       </c>
       <c r="D31" t="s">
@@ -3430,8 +3434,8 @@
     </row>
     <row r="32" spans="1:6" ht="17.25" thickBot="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="31"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="29"/>
       <c r="D32" t="s">
         <v>120</v>
       </c>
@@ -3441,8 +3445,8 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="22"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="30" t="s">
+      <c r="B33" s="25"/>
+      <c r="C33" s="27" t="s">
         <v>121</v>
       </c>
       <c r="D33" t="s">
@@ -3454,8 +3458,8 @@
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1">
       <c r="A34" s="22"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="31"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="29"/>
       <c r="D34" t="s">
         <v>123</v>
       </c>
@@ -3465,8 +3469,8 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="22"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="30" t="s">
+      <c r="B35" s="25"/>
+      <c r="C35" s="27" t="s">
         <v>124</v>
       </c>
       <c r="D35" t="s">
@@ -3478,8 +3482,8 @@
     </row>
     <row r="36" spans="1:7" ht="17.25" thickBot="1">
       <c r="A36" s="22"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="31"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="29"/>
       <c r="D36" t="s">
         <v>123</v>
       </c>
@@ -3581,7 +3585,7 @@
       <c r="A47" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="24" t="s">
         <v>136</v>
       </c>
       <c r="C47" t="s">
@@ -3596,7 +3600,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="22"/>
-      <c r="B48" s="28"/>
+      <c r="B48" s="25"/>
       <c r="C48" t="s">
         <v>138</v>
       </c>
@@ -3609,7 +3613,7 @@
     </row>
     <row r="49" spans="1:7" ht="17.25" thickBot="1">
       <c r="A49" s="22"/>
-      <c r="B49" s="29"/>
+      <c r="B49" s="26"/>
       <c r="C49" t="s">
         <v>139</v>
       </c>
@@ -3622,10 +3626,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="22"/>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="27" t="s">
         <v>141</v>
       </c>
       <c r="D50" t="s">
@@ -3640,8 +3644,8 @@
     </row>
     <row r="51" spans="1:7" ht="17.25" thickBot="1">
       <c r="A51" s="22"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="31"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="29"/>
       <c r="D51" t="s">
         <v>142</v>
       </c>
@@ -3654,7 +3658,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="22"/>
-      <c r="B52" s="28"/>
+      <c r="B52" s="25"/>
       <c r="C52" t="s">
         <v>138</v>
       </c>
@@ -3667,7 +3671,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="22"/>
-      <c r="B53" s="28"/>
+      <c r="B53" s="25"/>
       <c r="C53" t="s">
         <v>84</v>
       </c>
@@ -3680,7 +3684,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="22"/>
-      <c r="B54" s="28"/>
+      <c r="B54" s="25"/>
       <c r="C54" t="s">
         <v>143</v>
       </c>
@@ -3693,7 +3697,7 @@
     </row>
     <row r="55" spans="1:7" ht="17.25" thickBot="1">
       <c r="A55" s="22"/>
-      <c r="B55" s="29"/>
+      <c r="B55" s="26"/>
       <c r="C55" t="s">
         <v>144</v>
       </c>
@@ -3706,7 +3710,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="22"/>
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="24" t="s">
         <v>145</v>
       </c>
       <c r="C56" t="s">
@@ -3721,7 +3725,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="22"/>
-      <c r="B57" s="28"/>
+      <c r="B57" s="25"/>
       <c r="C57" t="s">
         <v>147</v>
       </c>
@@ -3734,7 +3738,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="22"/>
-      <c r="B58" s="28"/>
+      <c r="B58" s="25"/>
       <c r="C58" t="s">
         <v>148</v>
       </c>
@@ -3747,7 +3751,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="22"/>
-      <c r="B59" s="28"/>
+      <c r="B59" s="25"/>
       <c r="C59" t="s">
         <v>149</v>
       </c>
@@ -3760,7 +3764,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="22"/>
-      <c r="B60" s="28"/>
+      <c r="B60" s="25"/>
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -3773,7 +3777,7 @@
     </row>
     <row r="61" spans="1:7" ht="17.25" thickBot="1">
       <c r="A61" s="22"/>
-      <c r="B61" s="29"/>
+      <c r="B61" s="26"/>
       <c r="C61" t="s">
         <v>151</v>
       </c>
@@ -3786,7 +3790,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="22"/>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="24" t="s">
         <v>152</v>
       </c>
       <c r="C62" t="s">
@@ -3801,7 +3805,7 @@
     </row>
     <row r="63" spans="1:7" ht="17.25" thickBot="1">
       <c r="A63" s="22"/>
-      <c r="B63" s="29"/>
+      <c r="B63" s="26"/>
       <c r="C63" t="s">
         <v>138</v>
       </c>
@@ -3814,10 +3818,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="22"/>
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C64" s="27" t="s">
         <v>155</v>
       </c>
       <c r="D64" t="s">
@@ -3829,8 +3833,8 @@
     </row>
     <row r="65" spans="1:7" ht="17.25" thickBot="1">
       <c r="A65" s="22"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="31"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="29"/>
       <c r="D65" t="s">
         <v>156</v>
       </c>
@@ -3840,7 +3844,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="22"/>
-      <c r="B66" s="28"/>
+      <c r="B66" s="25"/>
       <c r="C66" t="s">
         <v>157</v>
       </c>
@@ -3850,7 +3854,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="22"/>
-      <c r="B67" s="28"/>
+      <c r="B67" s="25"/>
       <c r="C67" t="s">
         <v>158</v>
       </c>
@@ -3860,7 +3864,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="22"/>
-      <c r="B68" s="28"/>
+      <c r="B68" s="25"/>
       <c r="C68" t="s">
         <v>159</v>
       </c>
@@ -3870,7 +3874,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="22"/>
-      <c r="B69" s="28"/>
+      <c r="B69" s="25"/>
       <c r="C69" t="s">
         <v>138</v>
       </c>
@@ -3880,7 +3884,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="22"/>
-      <c r="B70" s="28"/>
+      <c r="B70" s="25"/>
       <c r="C70" t="s">
         <v>160</v>
       </c>
@@ -3890,7 +3894,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="22"/>
-      <c r="B71" s="28"/>
+      <c r="B71" s="25"/>
       <c r="C71" t="s">
         <v>161</v>
       </c>
@@ -3900,7 +3904,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="22"/>
-      <c r="B72" s="28"/>
+      <c r="B72" s="25"/>
       <c r="C72" t="s">
         <v>162</v>
       </c>
@@ -3910,7 +3914,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="22"/>
-      <c r="B73" s="28"/>
+      <c r="B73" s="25"/>
       <c r="C73" t="s">
         <v>84</v>
       </c>
@@ -3920,7 +3924,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="22"/>
-      <c r="B74" s="28"/>
+      <c r="B74" s="25"/>
       <c r="C74" t="s">
         <v>163</v>
       </c>
@@ -3930,7 +3934,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="22"/>
-      <c r="B75" s="28"/>
+      <c r="B75" s="25"/>
       <c r="C75" t="s">
         <v>164</v>
       </c>
@@ -3940,7 +3944,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="22"/>
-      <c r="B76" s="28"/>
+      <c r="B76" s="25"/>
       <c r="C76" t="s">
         <v>165</v>
       </c>
@@ -3950,7 +3954,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="22"/>
-      <c r="B77" s="28"/>
+      <c r="B77" s="25"/>
       <c r="C77" t="s">
         <v>166</v>
       </c>
@@ -3960,7 +3964,7 @@
     </row>
     <row r="78" spans="1:7" ht="17.25" thickBot="1">
       <c r="A78" s="22"/>
-      <c r="B78" s="29"/>
+      <c r="B78" s="26"/>
       <c r="C78" t="s">
         <v>167</v>
       </c>
@@ -3970,7 +3974,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="22"/>
-      <c r="B79" s="27" t="s">
+      <c r="B79" s="24" t="s">
         <v>168</v>
       </c>
       <c r="C79" t="s">
@@ -3985,7 +3989,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="22"/>
-      <c r="B80" s="28"/>
+      <c r="B80" s="25"/>
       <c r="C80" t="s">
         <v>169</v>
       </c>
@@ -3998,7 +4002,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="22"/>
-      <c r="B81" s="28"/>
+      <c r="B81" s="25"/>
       <c r="C81" t="s">
         <v>170</v>
       </c>
@@ -4011,7 +4015,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="22"/>
-      <c r="B82" s="28"/>
+      <c r="B82" s="25"/>
       <c r="C82" t="s">
         <v>171</v>
       </c>
@@ -4024,7 +4028,7 @@
     </row>
     <row r="83" spans="1:7" ht="17.25" thickBot="1">
       <c r="A83" s="22"/>
-      <c r="B83" s="29"/>
+      <c r="B83" s="26"/>
       <c r="C83" t="s">
         <v>172</v>
       </c>
@@ -4037,7 +4041,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="22"/>
-      <c r="B84" s="27" t="s">
+      <c r="B84" s="24" t="s">
         <v>173</v>
       </c>
       <c r="C84" t="s">
@@ -4052,7 +4056,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="22"/>
-      <c r="B85" s="28"/>
+      <c r="B85" s="25"/>
       <c r="C85" t="s">
         <v>144</v>
       </c>
@@ -4065,7 +4069,7 @@
     </row>
     <row r="86" spans="1:7" ht="17.25" thickBot="1">
       <c r="A86" s="22"/>
-      <c r="B86" s="29"/>
+      <c r="B86" s="26"/>
       <c r="C86" t="s">
         <v>172</v>
       </c>
@@ -4075,7 +4079,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="22"/>
-      <c r="B87" s="27" t="s">
+      <c r="B87" s="24" t="s">
         <v>123</v>
       </c>
       <c r="C87" t="s">
@@ -4090,7 +4094,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="22"/>
-      <c r="B88" s="28"/>
+      <c r="B88" s="25"/>
       <c r="C88" t="s">
         <v>138</v>
       </c>
@@ -4103,7 +4107,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="22"/>
-      <c r="B89" s="28"/>
+      <c r="B89" s="25"/>
       <c r="C89" t="s">
         <v>161</v>
       </c>
@@ -4116,7 +4120,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="22"/>
-      <c r="B90" s="28"/>
+      <c r="B90" s="25"/>
       <c r="C90" t="s">
         <v>84</v>
       </c>
@@ -4129,7 +4133,7 @@
     </row>
     <row r="91" spans="1:7" ht="17.25" thickBot="1">
       <c r="A91" s="22"/>
-      <c r="B91" s="29"/>
+      <c r="B91" s="26"/>
       <c r="C91" t="s">
         <v>172</v>
       </c>
@@ -4142,7 +4146,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="22"/>
-      <c r="B92" s="27" t="s">
+      <c r="B92" s="24" t="s">
         <v>175</v>
       </c>
       <c r="C92" t="s">
@@ -4157,7 +4161,7 @@
     </row>
     <row r="93" spans="1:7" ht="17.25" thickBot="1">
       <c r="A93" s="22"/>
-      <c r="B93" s="29"/>
+      <c r="B93" s="26"/>
       <c r="C93" t="s">
         <v>138</v>
       </c>
@@ -4170,7 +4174,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="22"/>
-      <c r="B94" s="27" t="s">
+      <c r="B94" s="24" t="s">
         <v>177</v>
       </c>
       <c r="C94" t="s">
@@ -4185,7 +4189,7 @@
     </row>
     <row r="95" spans="1:7" ht="17.25" thickBot="1">
       <c r="A95" s="22"/>
-      <c r="B95" s="29"/>
+      <c r="B95" s="26"/>
       <c r="C95" t="s">
         <v>84</v>
       </c>
@@ -4198,10 +4202,10 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="22"/>
-      <c r="B96" s="27" t="s">
+      <c r="B96" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="C96" s="30" t="s">
+      <c r="C96" s="27" t="s">
         <v>141</v>
       </c>
       <c r="D96" t="s">
@@ -4216,8 +4220,8 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="22"/>
-      <c r="B97" s="28"/>
-      <c r="C97" s="32"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="28"/>
       <c r="D97" t="s">
         <v>178</v>
       </c>
@@ -4230,8 +4234,8 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="22"/>
-      <c r="B98" s="28"/>
-      <c r="C98" s="32"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="28"/>
       <c r="D98" t="s">
         <v>179</v>
       </c>
@@ -4244,8 +4248,8 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="22"/>
-      <c r="B99" s="28"/>
-      <c r="C99" s="32"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="28"/>
       <c r="D99" t="s">
         <v>180</v>
       </c>
@@ -4258,8 +4262,8 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="22"/>
-      <c r="B100" s="28"/>
-      <c r="C100" s="32"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="28"/>
       <c r="D100" t="s">
         <v>181</v>
       </c>
@@ -4272,8 +4276,8 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="22"/>
-      <c r="B101" s="28"/>
-      <c r="C101" s="32"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="28"/>
       <c r="D101" t="s">
         <v>182</v>
       </c>
@@ -4286,8 +4290,8 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="22"/>
-      <c r="B102" s="28"/>
-      <c r="C102" s="32"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="28"/>
       <c r="D102" t="s">
         <v>183</v>
       </c>
@@ -4300,8 +4304,8 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="22"/>
-      <c r="B103" s="28"/>
-      <c r="C103" s="32"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="28"/>
       <c r="D103" t="s">
         <v>184</v>
       </c>
@@ -4314,8 +4318,8 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="22"/>
-      <c r="B104" s="28"/>
-      <c r="C104" s="32"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="28"/>
       <c r="D104" t="s">
         <v>185</v>
       </c>
@@ -4328,8 +4332,8 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="22"/>
-      <c r="B105" s="28"/>
-      <c r="C105" s="32"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="28"/>
       <c r="D105" t="s">
         <v>186</v>
       </c>
@@ -4342,8 +4346,8 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="22"/>
-      <c r="B106" s="28"/>
-      <c r="C106" s="32"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="28"/>
       <c r="D106" t="s">
         <v>187</v>
       </c>
@@ -4356,8 +4360,8 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="22"/>
-      <c r="B107" s="28"/>
-      <c r="C107" s="32"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="28"/>
       <c r="D107" t="s">
         <v>188</v>
       </c>
@@ -4370,8 +4374,8 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="22"/>
-      <c r="B108" s="28"/>
-      <c r="C108" s="32"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="28"/>
       <c r="D108" t="s">
         <v>189</v>
       </c>
@@ -4384,8 +4388,8 @@
     </row>
     <row r="109" spans="1:7" ht="17.25" thickBot="1">
       <c r="A109" s="22"/>
-      <c r="B109" s="28"/>
-      <c r="C109" s="31"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="29"/>
       <c r="D109" t="s">
         <v>190</v>
       </c>
@@ -4398,7 +4402,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="22"/>
-      <c r="B110" s="28"/>
+      <c r="B110" s="25"/>
       <c r="C110" t="s">
         <v>138</v>
       </c>
@@ -4411,7 +4415,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="22"/>
-      <c r="B111" s="28"/>
+      <c r="B111" s="25"/>
       <c r="C111" t="s">
         <v>161</v>
       </c>
@@ -4424,7 +4428,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="22"/>
-      <c r="B112" s="28"/>
+      <c r="B112" s="25"/>
       <c r="C112" t="s">
         <v>191</v>
       </c>
@@ -4437,7 +4441,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="22"/>
-      <c r="B113" s="28"/>
+      <c r="B113" s="25"/>
       <c r="C113" t="s">
         <v>143</v>
       </c>
@@ -4450,7 +4454,7 @@
     </row>
     <row r="114" spans="1:7" ht="17.25" thickBot="1">
       <c r="A114" s="22"/>
-      <c r="B114" s="29"/>
+      <c r="B114" s="26"/>
       <c r="C114" t="s">
         <v>192</v>
       </c>
@@ -5314,10 +5318,10 @@
       <c r="A191" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="B191" s="27" t="s">
+      <c r="B191" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="C191" s="30" t="s">
+      <c r="C191" s="27" t="s">
         <v>232</v>
       </c>
       <c r="D191" t="s">
@@ -5329,8 +5333,8 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="22"/>
-      <c r="B192" s="28"/>
-      <c r="C192" s="32"/>
+      <c r="B192" s="25"/>
+      <c r="C192" s="28"/>
       <c r="D192" t="s">
         <v>234</v>
       </c>
@@ -5338,10 +5342,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:8">
       <c r="A193" s="22"/>
-      <c r="B193" s="28"/>
-      <c r="C193" s="32"/>
+      <c r="B193" s="25"/>
+      <c r="C193" s="28"/>
       <c r="D193" t="s">
         <v>235</v>
       </c>
@@ -5349,10 +5353,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:8">
       <c r="A194" s="22"/>
-      <c r="B194" s="28"/>
-      <c r="C194" s="32"/>
+      <c r="B194" s="25"/>
+      <c r="C194" s="28"/>
       <c r="D194" t="s">
         <v>236</v>
       </c>
@@ -5360,10 +5364,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:8">
       <c r="A195" s="22"/>
-      <c r="B195" s="28"/>
-      <c r="C195" s="32"/>
+      <c r="B195" s="25"/>
+      <c r="C195" s="28"/>
       <c r="D195" t="s">
         <v>237</v>
       </c>
@@ -5371,10 +5375,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:8">
       <c r="A196" s="22"/>
-      <c r="B196" s="28"/>
-      <c r="C196" s="32"/>
+      <c r="B196" s="25"/>
+      <c r="C196" s="28"/>
       <c r="D196" t="s">
         <v>238</v>
       </c>
@@ -5382,10 +5386,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:8">
       <c r="A197" s="22"/>
-      <c r="B197" s="28"/>
-      <c r="C197" s="32"/>
+      <c r="B197" s="25"/>
+      <c r="C197" s="28"/>
       <c r="D197" t="s">
         <v>221</v>
       </c>
@@ -5393,10 +5397,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:8">
       <c r="A198" s="22"/>
-      <c r="B198" s="28"/>
-      <c r="C198" s="32"/>
+      <c r="B198" s="25"/>
+      <c r="C198" s="28"/>
       <c r="D198" t="s">
         <v>239</v>
       </c>
@@ -5404,10 +5408,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:8">
       <c r="A199" s="22"/>
-      <c r="B199" s="28"/>
-      <c r="C199" s="32"/>
+      <c r="B199" s="25"/>
+      <c r="C199" s="28"/>
       <c r="D199" t="s">
         <v>240</v>
       </c>
@@ -5415,10 +5419,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="17.25" thickBot="1">
+    <row r="200" spans="1:8" ht="17.25" thickBot="1">
       <c r="A200" s="22"/>
-      <c r="B200" s="28"/>
-      <c r="C200" s="31"/>
+      <c r="B200" s="25"/>
+      <c r="C200" s="29"/>
       <c r="D200" t="s">
         <v>241</v>
       </c>
@@ -5426,9 +5430,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:8">
       <c r="A201" s="22"/>
-      <c r="B201" s="28"/>
+      <c r="B201" s="25"/>
       <c r="C201" t="s">
         <v>242</v>
       </c>
@@ -5436,9 +5440,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:8">
       <c r="A202" s="22"/>
-      <c r="B202" s="28"/>
+      <c r="B202" s="25"/>
       <c r="C202" t="s">
         <v>84</v>
       </c>
@@ -5446,9 +5450,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:8">
       <c r="A203" s="22"/>
-      <c r="B203" s="28"/>
+      <c r="B203" s="25"/>
       <c r="C203" t="s">
         <v>243</v>
       </c>
@@ -5456,9 +5460,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="17.25" thickBot="1">
+    <row r="204" spans="1:8" ht="17.25" thickBot="1">
       <c r="A204" s="22"/>
-      <c r="B204" s="29"/>
+      <c r="B204" s="26"/>
       <c r="C204" t="s">
         <v>244</v>
       </c>
@@ -5466,12 +5470,12 @@
         <v>258</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:8">
       <c r="A205" s="22"/>
-      <c r="B205" s="27" t="s">
+      <c r="B205" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="C205" s="30" t="s">
+      <c r="C205" s="27" t="s">
         <v>218</v>
       </c>
       <c r="D205" t="s">
@@ -5484,10 +5488,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:8">
       <c r="A206" s="22"/>
-      <c r="B206" s="28"/>
-      <c r="C206" s="32"/>
+      <c r="B206" s="25"/>
+      <c r="C206" s="28"/>
       <c r="D206" t="s">
         <v>246</v>
       </c>
@@ -5498,10 +5502,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="17.25" thickBot="1">
+    <row r="207" spans="1:8" ht="17.25" thickBot="1">
       <c r="A207" s="22"/>
-      <c r="B207" s="28"/>
-      <c r="C207" s="31"/>
+      <c r="B207" s="25"/>
+      <c r="C207" s="29"/>
       <c r="D207" t="s">
         <v>221</v>
       </c>
@@ -5512,9 +5516,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:8">
       <c r="A208" s="22"/>
-      <c r="B208" s="28"/>
+      <c r="B208" s="25"/>
       <c r="C208" t="s">
         <v>206</v>
       </c>
@@ -5524,10 +5528,13 @@
       <c r="G208" t="s">
         <v>258</v>
       </c>
+      <c r="H208" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="22"/>
-      <c r="B209" s="28"/>
+      <c r="B209" s="25"/>
       <c r="C209" t="s">
         <v>224</v>
       </c>
@@ -5540,7 +5547,7 @@
     </row>
     <row r="210" spans="1:8" ht="17.25" thickBot="1">
       <c r="A210" s="22"/>
-      <c r="B210" s="29"/>
+      <c r="B210" s="26"/>
       <c r="C210" t="s">
         <v>228</v>
       </c>
@@ -5811,17 +5818,19 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A226:A228"/>
-    <mergeCell ref="A128:A190"/>
-    <mergeCell ref="A191:A225"/>
-    <mergeCell ref="B191:B204"/>
-    <mergeCell ref="B205:B210"/>
-    <mergeCell ref="C191:C200"/>
-    <mergeCell ref="C205:C207"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B114"/>
+    <mergeCell ref="A1:A46"/>
+    <mergeCell ref="B1:B9"/>
+    <mergeCell ref="B10:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A47:A127"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B78"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B84:B86"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="C96:C109"/>
@@ -5831,19 +5840,17 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A47:A127"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B78"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="A1:A46"/>
-    <mergeCell ref="B1:B9"/>
-    <mergeCell ref="B10:B23"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C191:C200"/>
+    <mergeCell ref="C205:C207"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B114"/>
+    <mergeCell ref="A226:A228"/>
+    <mergeCell ref="A128:A190"/>
+    <mergeCell ref="A191:A225"/>
+    <mergeCell ref="B191:B204"/>
+    <mergeCell ref="B205:B210"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/開發文件.xlsx
+++ b/docs/開發文件.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\YDWE1.25.10\Creation\Mod\The_Tilted_Clock_Tower\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766FAC17-64F6-430F-9A5D-57F798D732FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02768FBD-183A-4F85-973D-C0899F9685B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26145" yWindow="2265" windowWidth="21600" windowHeight="11835" activeTab="4" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="278">
   <si>
     <r>
       <rPr>
@@ -1344,6 +1344,10 @@
   </si>
   <si>
     <t>is_nil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1666,6 +1670,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1678,10 +1691,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1691,15 +1704,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3062,8 +3066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29018229-9EAF-4726-88C6-5A87070EDF6C}">
   <dimension ref="A1:H229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="H208" sqref="H208"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="H210" sqref="H210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3080,7 +3084,7 @@
       <c r="A1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="24" t="s">
         <v>83</v>
       </c>
       <c r="C1" t="s">
@@ -3095,7 +3099,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="22"/>
-      <c r="B2" s="34"/>
+      <c r="B2" s="25"/>
       <c r="C2" t="s">
         <v>85</v>
       </c>
@@ -3105,7 +3109,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="22"/>
-      <c r="B3" s="34"/>
+      <c r="B3" s="25"/>
       <c r="C3" t="s">
         <v>86</v>
       </c>
@@ -3115,7 +3119,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="22"/>
-      <c r="B4" s="34"/>
+      <c r="B4" s="25"/>
       <c r="C4" t="s">
         <v>87</v>
       </c>
@@ -3125,7 +3129,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="22"/>
-      <c r="B5" s="34"/>
+      <c r="B5" s="25"/>
       <c r="C5" t="s">
         <v>88</v>
       </c>
@@ -3135,7 +3139,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="22"/>
-      <c r="B6" s="34"/>
+      <c r="B6" s="25"/>
       <c r="C6" t="s">
         <v>89</v>
       </c>
@@ -3145,7 +3149,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="22"/>
-      <c r="B7" s="34"/>
+      <c r="B7" s="25"/>
       <c r="C7" t="s">
         <v>90</v>
       </c>
@@ -3155,7 +3159,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="22"/>
-      <c r="B8" s="34"/>
+      <c r="B8" s="25"/>
       <c r="C8" t="s">
         <v>91</v>
       </c>
@@ -3165,7 +3169,7 @@
     </row>
     <row r="9" spans="1:8" ht="17.25" thickBot="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="35"/>
+      <c r="B9" s="26"/>
       <c r="C9" t="s">
         <v>92</v>
       </c>
@@ -3175,13 +3179,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="22"/>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="33" t="s">
         <v>95</v>
       </c>
       <c r="E10" t="s">
@@ -3193,9 +3197,9 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="22"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="34"/>
       <c r="E11" t="s">
         <v>97</v>
       </c>
@@ -3205,9 +3209,9 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="22"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="31"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="34"/>
       <c r="E12" t="s">
         <v>98</v>
       </c>
@@ -3217,9 +3221,9 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="22"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="34"/>
       <c r="E13" t="s">
         <v>99</v>
       </c>
@@ -3229,9 +3233,9 @@
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="32"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="35"/>
       <c r="E14" t="s">
         <v>100</v>
       </c>
@@ -3241,9 +3245,9 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="22"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="30" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33" t="s">
         <v>101</v>
       </c>
       <c r="E15" t="s">
@@ -3255,9 +3259,9 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="22"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="31"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="34"/>
       <c r="E16" t="s">
         <v>103</v>
       </c>
@@ -3267,9 +3271,9 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="22"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="31"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="34"/>
       <c r="E17" t="s">
         <v>104</v>
       </c>
@@ -3279,9 +3283,9 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="22"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="31"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="34"/>
       <c r="E18" t="s">
         <v>105</v>
       </c>
@@ -3291,9 +3295,9 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="31"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="34"/>
       <c r="E19" t="s">
         <v>106</v>
       </c>
@@ -3303,9 +3307,9 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="22"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="31"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="34"/>
       <c r="E20" t="s">
         <v>107</v>
       </c>
@@ -3315,9 +3319,9 @@
     </row>
     <row r="21" spans="1:6" ht="17.25" thickBot="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="32"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="35"/>
       <c r="E21" t="s">
         <v>108</v>
       </c>
@@ -3327,7 +3331,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="22"/>
-      <c r="B22" s="34"/>
+      <c r="B22" s="25"/>
       <c r="C22" t="s">
         <v>109</v>
       </c>
@@ -3337,7 +3341,7 @@
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="35"/>
+      <c r="B23" s="26"/>
       <c r="C23" t="s">
         <v>84</v>
       </c>
@@ -3347,7 +3351,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="22"/>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="27" t="s">
         <v>110</v>
       </c>
       <c r="C24" t="s">
@@ -3359,7 +3363,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="22"/>
-      <c r="B25" s="25"/>
+      <c r="B25" s="28"/>
       <c r="C25" t="s">
         <v>111</v>
       </c>
@@ -3369,7 +3373,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="22"/>
-      <c r="B26" s="25"/>
+      <c r="B26" s="28"/>
       <c r="C26" t="s">
         <v>112</v>
       </c>
@@ -3379,7 +3383,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="22"/>
-      <c r="B27" s="25"/>
+      <c r="B27" s="28"/>
       <c r="C27" t="s">
         <v>113</v>
       </c>
@@ -3389,7 +3393,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="22"/>
-      <c r="B28" s="25"/>
+      <c r="B28" s="28"/>
       <c r="C28" t="s">
         <v>114</v>
       </c>
@@ -3399,7 +3403,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="22"/>
-      <c r="B29" s="25"/>
+      <c r="B29" s="28"/>
       <c r="C29" t="s">
         <v>115</v>
       </c>
@@ -3409,7 +3413,7 @@
     </row>
     <row r="30" spans="1:6" ht="17.25" thickBot="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="26"/>
+      <c r="B30" s="29"/>
       <c r="C30" t="s">
         <v>116</v>
       </c>
@@ -3419,10 +3423,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="22"/>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="30" t="s">
         <v>118</v>
       </c>
       <c r="D31" t="s">
@@ -3434,8 +3438,8 @@
     </row>
     <row r="32" spans="1:6" ht="17.25" thickBot="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="29"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="31"/>
       <c r="D32" t="s">
         <v>120</v>
       </c>
@@ -3445,8 +3449,8 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="22"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="27" t="s">
+      <c r="B33" s="28"/>
+      <c r="C33" s="30" t="s">
         <v>121</v>
       </c>
       <c r="D33" t="s">
@@ -3458,8 +3462,8 @@
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1">
       <c r="A34" s="22"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="29"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="31"/>
       <c r="D34" t="s">
         <v>123</v>
       </c>
@@ -3469,8 +3473,8 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="22"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="27" t="s">
+      <c r="B35" s="28"/>
+      <c r="C35" s="30" t="s">
         <v>124</v>
       </c>
       <c r="D35" t="s">
@@ -3482,8 +3486,8 @@
     </row>
     <row r="36" spans="1:7" ht="17.25" thickBot="1">
       <c r="A36" s="22"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="31"/>
       <c r="D36" t="s">
         <v>123</v>
       </c>
@@ -3585,7 +3589,7 @@
       <c r="A47" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="27" t="s">
         <v>136</v>
       </c>
       <c r="C47" t="s">
@@ -3600,7 +3604,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="22"/>
-      <c r="B48" s="25"/>
+      <c r="B48" s="28"/>
       <c r="C48" t="s">
         <v>138</v>
       </c>
@@ -3613,7 +3617,7 @@
     </row>
     <row r="49" spans="1:7" ht="17.25" thickBot="1">
       <c r="A49" s="22"/>
-      <c r="B49" s="26"/>
+      <c r="B49" s="29"/>
       <c r="C49" t="s">
         <v>139</v>
       </c>
@@ -3626,10 +3630,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="22"/>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="30" t="s">
         <v>141</v>
       </c>
       <c r="D50" t="s">
@@ -3644,8 +3648,8 @@
     </row>
     <row r="51" spans="1:7" ht="17.25" thickBot="1">
       <c r="A51" s="22"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="29"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="31"/>
       <c r="D51" t="s">
         <v>142</v>
       </c>
@@ -3658,7 +3662,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="22"/>
-      <c r="B52" s="25"/>
+      <c r="B52" s="28"/>
       <c r="C52" t="s">
         <v>138</v>
       </c>
@@ -3671,7 +3675,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="22"/>
-      <c r="B53" s="25"/>
+      <c r="B53" s="28"/>
       <c r="C53" t="s">
         <v>84</v>
       </c>
@@ -3684,7 +3688,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="22"/>
-      <c r="B54" s="25"/>
+      <c r="B54" s="28"/>
       <c r="C54" t="s">
         <v>143</v>
       </c>
@@ -3697,7 +3701,7 @@
     </row>
     <row r="55" spans="1:7" ht="17.25" thickBot="1">
       <c r="A55" s="22"/>
-      <c r="B55" s="26"/>
+      <c r="B55" s="29"/>
       <c r="C55" t="s">
         <v>144</v>
       </c>
@@ -3710,7 +3714,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="22"/>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="27" t="s">
         <v>145</v>
       </c>
       <c r="C56" t="s">
@@ -3725,7 +3729,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="22"/>
-      <c r="B57" s="25"/>
+      <c r="B57" s="28"/>
       <c r="C57" t="s">
         <v>147</v>
       </c>
@@ -3738,7 +3742,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="22"/>
-      <c r="B58" s="25"/>
+      <c r="B58" s="28"/>
       <c r="C58" t="s">
         <v>148</v>
       </c>
@@ -3751,7 +3755,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="22"/>
-      <c r="B59" s="25"/>
+      <c r="B59" s="28"/>
       <c r="C59" t="s">
         <v>149</v>
       </c>
@@ -3764,7 +3768,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="22"/>
-      <c r="B60" s="25"/>
+      <c r="B60" s="28"/>
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -3777,7 +3781,7 @@
     </row>
     <row r="61" spans="1:7" ht="17.25" thickBot="1">
       <c r="A61" s="22"/>
-      <c r="B61" s="26"/>
+      <c r="B61" s="29"/>
       <c r="C61" t="s">
         <v>151</v>
       </c>
@@ -3790,7 +3794,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="22"/>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="27" t="s">
         <v>152</v>
       </c>
       <c r="C62" t="s">
@@ -3805,7 +3809,7 @@
     </row>
     <row r="63" spans="1:7" ht="17.25" thickBot="1">
       <c r="A63" s="22"/>
-      <c r="B63" s="26"/>
+      <c r="B63" s="29"/>
       <c r="C63" t="s">
         <v>138</v>
       </c>
@@ -3818,10 +3822,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="22"/>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="30" t="s">
         <v>155</v>
       </c>
       <c r="D64" t="s">
@@ -3833,8 +3837,8 @@
     </row>
     <row r="65" spans="1:7" ht="17.25" thickBot="1">
       <c r="A65" s="22"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="29"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="31"/>
       <c r="D65" t="s">
         <v>156</v>
       </c>
@@ -3844,7 +3848,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="22"/>
-      <c r="B66" s="25"/>
+      <c r="B66" s="28"/>
       <c r="C66" t="s">
         <v>157</v>
       </c>
@@ -3854,7 +3858,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="22"/>
-      <c r="B67" s="25"/>
+      <c r="B67" s="28"/>
       <c r="C67" t="s">
         <v>158</v>
       </c>
@@ -3864,7 +3868,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="22"/>
-      <c r="B68" s="25"/>
+      <c r="B68" s="28"/>
       <c r="C68" t="s">
         <v>159</v>
       </c>
@@ -3874,7 +3878,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="22"/>
-      <c r="B69" s="25"/>
+      <c r="B69" s="28"/>
       <c r="C69" t="s">
         <v>138</v>
       </c>
@@ -3884,7 +3888,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="22"/>
-      <c r="B70" s="25"/>
+      <c r="B70" s="28"/>
       <c r="C70" t="s">
         <v>160</v>
       </c>
@@ -3894,7 +3898,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="22"/>
-      <c r="B71" s="25"/>
+      <c r="B71" s="28"/>
       <c r="C71" t="s">
         <v>161</v>
       </c>
@@ -3904,7 +3908,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="22"/>
-      <c r="B72" s="25"/>
+      <c r="B72" s="28"/>
       <c r="C72" t="s">
         <v>162</v>
       </c>
@@ -3914,7 +3918,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="22"/>
-      <c r="B73" s="25"/>
+      <c r="B73" s="28"/>
       <c r="C73" t="s">
         <v>84</v>
       </c>
@@ -3924,7 +3928,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="22"/>
-      <c r="B74" s="25"/>
+      <c r="B74" s="28"/>
       <c r="C74" t="s">
         <v>163</v>
       </c>
@@ -3934,7 +3938,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="22"/>
-      <c r="B75" s="25"/>
+      <c r="B75" s="28"/>
       <c r="C75" t="s">
         <v>164</v>
       </c>
@@ -3944,7 +3948,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="22"/>
-      <c r="B76" s="25"/>
+      <c r="B76" s="28"/>
       <c r="C76" t="s">
         <v>165</v>
       </c>
@@ -3954,7 +3958,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="22"/>
-      <c r="B77" s="25"/>
+      <c r="B77" s="28"/>
       <c r="C77" t="s">
         <v>166</v>
       </c>
@@ -3964,7 +3968,7 @@
     </row>
     <row r="78" spans="1:7" ht="17.25" thickBot="1">
       <c r="A78" s="22"/>
-      <c r="B78" s="26"/>
+      <c r="B78" s="29"/>
       <c r="C78" t="s">
         <v>167</v>
       </c>
@@ -3974,7 +3978,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="22"/>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="27" t="s">
         <v>168</v>
       </c>
       <c r="C79" t="s">
@@ -3989,7 +3993,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="22"/>
-      <c r="B80" s="25"/>
+      <c r="B80" s="28"/>
       <c r="C80" t="s">
         <v>169</v>
       </c>
@@ -4002,7 +4006,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="22"/>
-      <c r="B81" s="25"/>
+      <c r="B81" s="28"/>
       <c r="C81" t="s">
         <v>170</v>
       </c>
@@ -4015,7 +4019,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="22"/>
-      <c r="B82" s="25"/>
+      <c r="B82" s="28"/>
       <c r="C82" t="s">
         <v>171</v>
       </c>
@@ -4028,7 +4032,7 @@
     </row>
     <row r="83" spans="1:7" ht="17.25" thickBot="1">
       <c r="A83" s="22"/>
-      <c r="B83" s="26"/>
+      <c r="B83" s="29"/>
       <c r="C83" t="s">
         <v>172</v>
       </c>
@@ -4041,7 +4045,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="22"/>
-      <c r="B84" s="24" t="s">
+      <c r="B84" s="27" t="s">
         <v>173</v>
       </c>
       <c r="C84" t="s">
@@ -4056,7 +4060,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="22"/>
-      <c r="B85" s="25"/>
+      <c r="B85" s="28"/>
       <c r="C85" t="s">
         <v>144</v>
       </c>
@@ -4069,7 +4073,7 @@
     </row>
     <row r="86" spans="1:7" ht="17.25" thickBot="1">
       <c r="A86" s="22"/>
-      <c r="B86" s="26"/>
+      <c r="B86" s="29"/>
       <c r="C86" t="s">
         <v>172</v>
       </c>
@@ -4079,7 +4083,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="22"/>
-      <c r="B87" s="24" t="s">
+      <c r="B87" s="27" t="s">
         <v>123</v>
       </c>
       <c r="C87" t="s">
@@ -4094,7 +4098,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="22"/>
-      <c r="B88" s="25"/>
+      <c r="B88" s="28"/>
       <c r="C88" t="s">
         <v>138</v>
       </c>
@@ -4107,7 +4111,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="22"/>
-      <c r="B89" s="25"/>
+      <c r="B89" s="28"/>
       <c r="C89" t="s">
         <v>161</v>
       </c>
@@ -4120,7 +4124,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="22"/>
-      <c r="B90" s="25"/>
+      <c r="B90" s="28"/>
       <c r="C90" t="s">
         <v>84</v>
       </c>
@@ -4133,7 +4137,7 @@
     </row>
     <row r="91" spans="1:7" ht="17.25" thickBot="1">
       <c r="A91" s="22"/>
-      <c r="B91" s="26"/>
+      <c r="B91" s="29"/>
       <c r="C91" t="s">
         <v>172</v>
       </c>
@@ -4146,7 +4150,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="22"/>
-      <c r="B92" s="24" t="s">
+      <c r="B92" s="27" t="s">
         <v>175</v>
       </c>
       <c r="C92" t="s">
@@ -4161,7 +4165,7 @@
     </row>
     <row r="93" spans="1:7" ht="17.25" thickBot="1">
       <c r="A93" s="22"/>
-      <c r="B93" s="26"/>
+      <c r="B93" s="29"/>
       <c r="C93" t="s">
         <v>138</v>
       </c>
@@ -4174,7 +4178,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="22"/>
-      <c r="B94" s="24" t="s">
+      <c r="B94" s="27" t="s">
         <v>177</v>
       </c>
       <c r="C94" t="s">
@@ -4189,7 +4193,7 @@
     </row>
     <row r="95" spans="1:7" ht="17.25" thickBot="1">
       <c r="A95" s="22"/>
-      <c r="B95" s="26"/>
+      <c r="B95" s="29"/>
       <c r="C95" t="s">
         <v>84</v>
       </c>
@@ -4202,10 +4206,10 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="22"/>
-      <c r="B96" s="24" t="s">
+      <c r="B96" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C96" s="27" t="s">
+      <c r="C96" s="30" t="s">
         <v>141</v>
       </c>
       <c r="D96" t="s">
@@ -4220,8 +4224,8 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="22"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="28"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="32"/>
       <c r="D97" t="s">
         <v>178</v>
       </c>
@@ -4234,8 +4238,8 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="22"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="28"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="32"/>
       <c r="D98" t="s">
         <v>179</v>
       </c>
@@ -4248,8 +4252,8 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="22"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="28"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="32"/>
       <c r="D99" t="s">
         <v>180</v>
       </c>
@@ -4262,8 +4266,8 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="22"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="28"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="32"/>
       <c r="D100" t="s">
         <v>181</v>
       </c>
@@ -4276,8 +4280,8 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="22"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="28"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="32"/>
       <c r="D101" t="s">
         <v>182</v>
       </c>
@@ -4290,8 +4294,8 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="22"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="28"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="32"/>
       <c r="D102" t="s">
         <v>183</v>
       </c>
@@ -4304,8 +4308,8 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="22"/>
-      <c r="B103" s="25"/>
-      <c r="C103" s="28"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="32"/>
       <c r="D103" t="s">
         <v>184</v>
       </c>
@@ -4318,8 +4322,8 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="22"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="28"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="32"/>
       <c r="D104" t="s">
         <v>185</v>
       </c>
@@ -4332,8 +4336,8 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="22"/>
-      <c r="B105" s="25"/>
-      <c r="C105" s="28"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="32"/>
       <c r="D105" t="s">
         <v>186</v>
       </c>
@@ -4346,8 +4350,8 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="22"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="28"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="32"/>
       <c r="D106" t="s">
         <v>187</v>
       </c>
@@ -4360,8 +4364,8 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="22"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="28"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="32"/>
       <c r="D107" t="s">
         <v>188</v>
       </c>
@@ -4374,8 +4378,8 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="22"/>
-      <c r="B108" s="25"/>
-      <c r="C108" s="28"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="32"/>
       <c r="D108" t="s">
         <v>189</v>
       </c>
@@ -4388,8 +4392,8 @@
     </row>
     <row r="109" spans="1:7" ht="17.25" thickBot="1">
       <c r="A109" s="22"/>
-      <c r="B109" s="25"/>
-      <c r="C109" s="29"/>
+      <c r="B109" s="28"/>
+      <c r="C109" s="31"/>
       <c r="D109" t="s">
         <v>190</v>
       </c>
@@ -4402,7 +4406,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="22"/>
-      <c r="B110" s="25"/>
+      <c r="B110" s="28"/>
       <c r="C110" t="s">
         <v>138</v>
       </c>
@@ -4415,7 +4419,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="22"/>
-      <c r="B111" s="25"/>
+      <c r="B111" s="28"/>
       <c r="C111" t="s">
         <v>161</v>
       </c>
@@ -4428,7 +4432,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="22"/>
-      <c r="B112" s="25"/>
+      <c r="B112" s="28"/>
       <c r="C112" t="s">
         <v>191</v>
       </c>
@@ -4441,7 +4445,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="22"/>
-      <c r="B113" s="25"/>
+      <c r="B113" s="28"/>
       <c r="C113" t="s">
         <v>143</v>
       </c>
@@ -4454,7 +4458,7 @@
     </row>
     <row r="114" spans="1:7" ht="17.25" thickBot="1">
       <c r="A114" s="22"/>
-      <c r="B114" s="26"/>
+      <c r="B114" s="29"/>
       <c r="C114" t="s">
         <v>192</v>
       </c>
@@ -5318,10 +5322,10 @@
       <c r="A191" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="B191" s="24" t="s">
+      <c r="B191" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="C191" s="27" t="s">
+      <c r="C191" s="30" t="s">
         <v>232</v>
       </c>
       <c r="D191" t="s">
@@ -5333,8 +5337,8 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="22"/>
-      <c r="B192" s="25"/>
-      <c r="C192" s="28"/>
+      <c r="B192" s="28"/>
+      <c r="C192" s="32"/>
       <c r="D192" t="s">
         <v>234</v>
       </c>
@@ -5344,8 +5348,8 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="22"/>
-      <c r="B193" s="25"/>
-      <c r="C193" s="28"/>
+      <c r="B193" s="28"/>
+      <c r="C193" s="32"/>
       <c r="D193" t="s">
         <v>235</v>
       </c>
@@ -5355,8 +5359,8 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="22"/>
-      <c r="B194" s="25"/>
-      <c r="C194" s="28"/>
+      <c r="B194" s="28"/>
+      <c r="C194" s="32"/>
       <c r="D194" t="s">
         <v>236</v>
       </c>
@@ -5366,8 +5370,8 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="22"/>
-      <c r="B195" s="25"/>
-      <c r="C195" s="28"/>
+      <c r="B195" s="28"/>
+      <c r="C195" s="32"/>
       <c r="D195" t="s">
         <v>237</v>
       </c>
@@ -5377,8 +5381,8 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="22"/>
-      <c r="B196" s="25"/>
-      <c r="C196" s="28"/>
+      <c r="B196" s="28"/>
+      <c r="C196" s="32"/>
       <c r="D196" t="s">
         <v>238</v>
       </c>
@@ -5388,8 +5392,8 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="22"/>
-      <c r="B197" s="25"/>
-      <c r="C197" s="28"/>
+      <c r="B197" s="28"/>
+      <c r="C197" s="32"/>
       <c r="D197" t="s">
         <v>221</v>
       </c>
@@ -5399,8 +5403,8 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="22"/>
-      <c r="B198" s="25"/>
-      <c r="C198" s="28"/>
+      <c r="B198" s="28"/>
+      <c r="C198" s="32"/>
       <c r="D198" t="s">
         <v>239</v>
       </c>
@@ -5410,8 +5414,8 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="22"/>
-      <c r="B199" s="25"/>
-      <c r="C199" s="28"/>
+      <c r="B199" s="28"/>
+      <c r="C199" s="32"/>
       <c r="D199" t="s">
         <v>240</v>
       </c>
@@ -5421,8 +5425,8 @@
     </row>
     <row r="200" spans="1:8" ht="17.25" thickBot="1">
       <c r="A200" s="22"/>
-      <c r="B200" s="25"/>
-      <c r="C200" s="29"/>
+      <c r="B200" s="28"/>
+      <c r="C200" s="31"/>
       <c r="D200" t="s">
         <v>241</v>
       </c>
@@ -5432,7 +5436,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="22"/>
-      <c r="B201" s="25"/>
+      <c r="B201" s="28"/>
       <c r="C201" t="s">
         <v>242</v>
       </c>
@@ -5442,7 +5446,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="22"/>
-      <c r="B202" s="25"/>
+      <c r="B202" s="28"/>
       <c r="C202" t="s">
         <v>84</v>
       </c>
@@ -5452,7 +5456,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="22"/>
-      <c r="B203" s="25"/>
+      <c r="B203" s="28"/>
       <c r="C203" t="s">
         <v>243</v>
       </c>
@@ -5462,7 +5466,7 @@
     </row>
     <row r="204" spans="1:8" ht="17.25" thickBot="1">
       <c r="A204" s="22"/>
-      <c r="B204" s="26"/>
+      <c r="B204" s="29"/>
       <c r="C204" t="s">
         <v>244</v>
       </c>
@@ -5472,10 +5476,10 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="22"/>
-      <c r="B205" s="24" t="s">
+      <c r="B205" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="C205" s="27" t="s">
+      <c r="C205" s="30" t="s">
         <v>218</v>
       </c>
       <c r="D205" t="s">
@@ -5490,8 +5494,8 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="22"/>
-      <c r="B206" s="25"/>
-      <c r="C206" s="28"/>
+      <c r="B206" s="28"/>
+      <c r="C206" s="32"/>
       <c r="D206" t="s">
         <v>246</v>
       </c>
@@ -5504,8 +5508,8 @@
     </row>
     <row r="207" spans="1:8" ht="17.25" thickBot="1">
       <c r="A207" s="22"/>
-      <c r="B207" s="25"/>
-      <c r="C207" s="29"/>
+      <c r="B207" s="28"/>
+      <c r="C207" s="31"/>
       <c r="D207" t="s">
         <v>221</v>
       </c>
@@ -5518,7 +5522,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="22"/>
-      <c r="B208" s="25"/>
+      <c r="B208" s="28"/>
       <c r="C208" t="s">
         <v>206</v>
       </c>
@@ -5534,7 +5538,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="22"/>
-      <c r="B209" s="25"/>
+      <c r="B209" s="28"/>
       <c r="C209" t="s">
         <v>224</v>
       </c>
@@ -5544,10 +5548,13 @@
       <c r="G209" t="s">
         <v>258</v>
       </c>
+      <c r="H209" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="210" spans="1:8" ht="17.25" thickBot="1">
       <c r="A210" s="22"/>
-      <c r="B210" s="26"/>
+      <c r="B210" s="29"/>
       <c r="C210" t="s">
         <v>228</v>
       </c>
@@ -5556,6 +5563,9 @@
       </c>
       <c r="G210" t="s">
         <v>258</v>
+      </c>
+      <c r="H210" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5818,19 +5828,17 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:A46"/>
-    <mergeCell ref="B1:B9"/>
-    <mergeCell ref="B10:B23"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="A47:A127"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B78"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="A226:A228"/>
+    <mergeCell ref="A128:A190"/>
+    <mergeCell ref="A191:A225"/>
+    <mergeCell ref="B191:B204"/>
+    <mergeCell ref="B205:B210"/>
+    <mergeCell ref="C191:C200"/>
+    <mergeCell ref="C205:C207"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B114"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="C96:C109"/>
@@ -5840,17 +5848,19 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C191:C200"/>
-    <mergeCell ref="C205:C207"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B114"/>
-    <mergeCell ref="A226:A228"/>
-    <mergeCell ref="A128:A190"/>
-    <mergeCell ref="A191:A225"/>
-    <mergeCell ref="B191:B204"/>
-    <mergeCell ref="B205:B210"/>
+    <mergeCell ref="A47:A127"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B78"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="A1:A46"/>
+    <mergeCell ref="B1:B9"/>
+    <mergeCell ref="B10:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/開發文件.xlsx
+++ b/docs/開發文件.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\YDWE1.25.10\Creation\Mod\The_Tilted_Clock_Tower\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02768FBD-183A-4F85-973D-C0899F9685B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA133CA-C2FE-4315-AE74-4CC5A3426504}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26145" yWindow="2265" windowWidth="21600" windowHeight="11835" activeTab="4" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
   </bookViews>
   <sheets>
     <sheet name="項目" sheetId="1" r:id="rId1"/>
-    <sheet name="目錄" sheetId="3" r:id="rId2"/>
-    <sheet name="架構" sheetId="4" r:id="rId3"/>
-    <sheet name="流程" sheetId="5" r:id="rId4"/>
-    <sheet name="重構紀錄" sheetId="2" r:id="rId5"/>
+    <sheet name="架構" sheetId="4" r:id="rId2"/>
+    <sheet name="流程" sheetId="5" r:id="rId3"/>
+    <sheet name="重構紀錄" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -1670,15 +1669,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1691,10 +1681,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1704,6 +1694,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1729,6 +1728,289 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形: 圓角 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF1C9A54-588D-4C7F-AC43-445181A9C8B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5972176" y="742951"/>
+          <a:ext cx="1581150" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>主題</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>魔法世界的復仇之旅</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形: 圓角 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B78DD69-820D-4C71-87E4-D37F2D132EAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4400551" y="1762126"/>
+          <a:ext cx="1581150" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>概念</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>組合屬性擊敗高難度的敵人</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形: 圓角 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53F79A66-EC53-4213-8010-30F70BF9B962}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8886825" y="1285875"/>
+          <a:ext cx="542925" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>系統</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形: 圓角 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66860155-48AB-4BEF-99DD-4454A6C387A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7867650" y="2143125"/>
+          <a:ext cx="1533525" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>序列構裝</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>使用秘物解鎖構裝上的序列，點擊序列可讓英雄獲得該能力。能力連成一線</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3022,32 +3304,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2349F37A-6151-425C-9B02-255B48A064C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A49064-508F-4BCD-89C6-B182FEBF2CD7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A49064-508F-4BCD-89C6-B182FEBF2CD7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336849DF-D3F4-435E-87DA-A99B863A554D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3062,11 +3334,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29018229-9EAF-4726-88C6-5A87070EDF6C}">
   <dimension ref="A1:H229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+    <sheetView topLeftCell="A193" workbookViewId="0">
       <selection activeCell="H210" sqref="H210"/>
     </sheetView>
   </sheetViews>
@@ -3084,7 +3356,7 @@
       <c r="A1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="33" t="s">
         <v>83</v>
       </c>
       <c r="C1" t="s">
@@ -3099,7 +3371,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="22"/>
-      <c r="B2" s="25"/>
+      <c r="B2" s="34"/>
       <c r="C2" t="s">
         <v>85</v>
       </c>
@@ -3109,7 +3381,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="22"/>
-      <c r="B3" s="25"/>
+      <c r="B3" s="34"/>
       <c r="C3" t="s">
         <v>86</v>
       </c>
@@ -3119,7 +3391,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="22"/>
-      <c r="B4" s="25"/>
+      <c r="B4" s="34"/>
       <c r="C4" t="s">
         <v>87</v>
       </c>
@@ -3129,7 +3401,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="22"/>
-      <c r="B5" s="25"/>
+      <c r="B5" s="34"/>
       <c r="C5" t="s">
         <v>88</v>
       </c>
@@ -3139,7 +3411,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="22"/>
-      <c r="B6" s="25"/>
+      <c r="B6" s="34"/>
       <c r="C6" t="s">
         <v>89</v>
       </c>
@@ -3149,7 +3421,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="22"/>
-      <c r="B7" s="25"/>
+      <c r="B7" s="34"/>
       <c r="C7" t="s">
         <v>90</v>
       </c>
@@ -3159,7 +3431,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="22"/>
-      <c r="B8" s="25"/>
+      <c r="B8" s="34"/>
       <c r="C8" t="s">
         <v>91</v>
       </c>
@@ -3169,7 +3441,7 @@
     </row>
     <row r="9" spans="1:8" ht="17.25" thickBot="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="26"/>
+      <c r="B9" s="35"/>
       <c r="C9" t="s">
         <v>92</v>
       </c>
@@ -3179,13 +3451,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="22"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="30" t="s">
         <v>95</v>
       </c>
       <c r="E10" t="s">
@@ -3197,9 +3469,9 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="22"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="31"/>
       <c r="E11" t="s">
         <v>97</v>
       </c>
@@ -3209,9 +3481,9 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="22"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="31"/>
       <c r="E12" t="s">
         <v>98</v>
       </c>
@@ -3221,9 +3493,9 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="22"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="31"/>
       <c r="E13" t="s">
         <v>99</v>
       </c>
@@ -3233,9 +3505,9 @@
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="35"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="32"/>
       <c r="E14" t="s">
         <v>100</v>
       </c>
@@ -3245,9 +3517,9 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="22"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="30" t="s">
         <v>101</v>
       </c>
       <c r="E15" t="s">
@@ -3259,9 +3531,9 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="22"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="31"/>
       <c r="E16" t="s">
         <v>103</v>
       </c>
@@ -3271,9 +3543,9 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="22"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="31"/>
       <c r="E17" t="s">
         <v>104</v>
       </c>
@@ -3283,9 +3555,9 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="22"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="31"/>
       <c r="E18" t="s">
         <v>105</v>
       </c>
@@ -3295,9 +3567,9 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="31"/>
       <c r="E19" t="s">
         <v>106</v>
       </c>
@@ -3307,9 +3579,9 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="22"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="31"/>
       <c r="E20" t="s">
         <v>107</v>
       </c>
@@ -3319,9 +3591,9 @@
     </row>
     <row r="21" spans="1:6" ht="17.25" thickBot="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="35"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="32"/>
       <c r="E21" t="s">
         <v>108</v>
       </c>
@@ -3331,7 +3603,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="22"/>
-      <c r="B22" s="25"/>
+      <c r="B22" s="34"/>
       <c r="C22" t="s">
         <v>109</v>
       </c>
@@ -3341,7 +3613,7 @@
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="26"/>
+      <c r="B23" s="35"/>
       <c r="C23" t="s">
         <v>84</v>
       </c>
@@ -3351,7 +3623,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="22"/>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="24" t="s">
         <v>110</v>
       </c>
       <c r="C24" t="s">
@@ -3363,7 +3635,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="22"/>
-      <c r="B25" s="28"/>
+      <c r="B25" s="25"/>
       <c r="C25" t="s">
         <v>111</v>
       </c>
@@ -3373,7 +3645,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="22"/>
-      <c r="B26" s="28"/>
+      <c r="B26" s="25"/>
       <c r="C26" t="s">
         <v>112</v>
       </c>
@@ -3383,7 +3655,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="22"/>
-      <c r="B27" s="28"/>
+      <c r="B27" s="25"/>
       <c r="C27" t="s">
         <v>113</v>
       </c>
@@ -3393,7 +3665,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="22"/>
-      <c r="B28" s="28"/>
+      <c r="B28" s="25"/>
       <c r="C28" t="s">
         <v>114</v>
       </c>
@@ -3403,7 +3675,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="22"/>
-      <c r="B29" s="28"/>
+      <c r="B29" s="25"/>
       <c r="C29" t="s">
         <v>115</v>
       </c>
@@ -3413,7 +3685,7 @@
     </row>
     <row r="30" spans="1:6" ht="17.25" thickBot="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="29"/>
+      <c r="B30" s="26"/>
       <c r="C30" t="s">
         <v>116</v>
       </c>
@@ -3423,10 +3695,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="22"/>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="27" t="s">
         <v>118</v>
       </c>
       <c r="D31" t="s">
@@ -3438,8 +3710,8 @@
     </row>
     <row r="32" spans="1:6" ht="17.25" thickBot="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="31"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="29"/>
       <c r="D32" t="s">
         <v>120</v>
       </c>
@@ -3449,8 +3721,8 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="22"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="30" t="s">
+      <c r="B33" s="25"/>
+      <c r="C33" s="27" t="s">
         <v>121</v>
       </c>
       <c r="D33" t="s">
@@ -3462,8 +3734,8 @@
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1">
       <c r="A34" s="22"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="31"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="29"/>
       <c r="D34" t="s">
         <v>123</v>
       </c>
@@ -3473,8 +3745,8 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="22"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="30" t="s">
+      <c r="B35" s="25"/>
+      <c r="C35" s="27" t="s">
         <v>124</v>
       </c>
       <c r="D35" t="s">
@@ -3486,8 +3758,8 @@
     </row>
     <row r="36" spans="1:7" ht="17.25" thickBot="1">
       <c r="A36" s="22"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="31"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="29"/>
       <c r="D36" t="s">
         <v>123</v>
       </c>
@@ -3589,7 +3861,7 @@
       <c r="A47" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="24" t="s">
         <v>136</v>
       </c>
       <c r="C47" t="s">
@@ -3604,7 +3876,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="22"/>
-      <c r="B48" s="28"/>
+      <c r="B48" s="25"/>
       <c r="C48" t="s">
         <v>138</v>
       </c>
@@ -3617,7 +3889,7 @@
     </row>
     <row r="49" spans="1:7" ht="17.25" thickBot="1">
       <c r="A49" s="22"/>
-      <c r="B49" s="29"/>
+      <c r="B49" s="26"/>
       <c r="C49" t="s">
         <v>139</v>
       </c>
@@ -3630,10 +3902,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="22"/>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="27" t="s">
         <v>141</v>
       </c>
       <c r="D50" t="s">
@@ -3648,8 +3920,8 @@
     </row>
     <row r="51" spans="1:7" ht="17.25" thickBot="1">
       <c r="A51" s="22"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="31"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="29"/>
       <c r="D51" t="s">
         <v>142</v>
       </c>
@@ -3662,7 +3934,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="22"/>
-      <c r="B52" s="28"/>
+      <c r="B52" s="25"/>
       <c r="C52" t="s">
         <v>138</v>
       </c>
@@ -3675,7 +3947,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="22"/>
-      <c r="B53" s="28"/>
+      <c r="B53" s="25"/>
       <c r="C53" t="s">
         <v>84</v>
       </c>
@@ -3688,7 +3960,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="22"/>
-      <c r="B54" s="28"/>
+      <c r="B54" s="25"/>
       <c r="C54" t="s">
         <v>143</v>
       </c>
@@ -3701,7 +3973,7 @@
     </row>
     <row r="55" spans="1:7" ht="17.25" thickBot="1">
       <c r="A55" s="22"/>
-      <c r="B55" s="29"/>
+      <c r="B55" s="26"/>
       <c r="C55" t="s">
         <v>144</v>
       </c>
@@ -3714,7 +3986,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="22"/>
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="24" t="s">
         <v>145</v>
       </c>
       <c r="C56" t="s">
@@ -3729,7 +4001,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="22"/>
-      <c r="B57" s="28"/>
+      <c r="B57" s="25"/>
       <c r="C57" t="s">
         <v>147</v>
       </c>
@@ -3742,7 +4014,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="22"/>
-      <c r="B58" s="28"/>
+      <c r="B58" s="25"/>
       <c r="C58" t="s">
         <v>148</v>
       </c>
@@ -3755,7 +4027,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="22"/>
-      <c r="B59" s="28"/>
+      <c r="B59" s="25"/>
       <c r="C59" t="s">
         <v>149</v>
       </c>
@@ -3768,7 +4040,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="22"/>
-      <c r="B60" s="28"/>
+      <c r="B60" s="25"/>
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -3781,7 +4053,7 @@
     </row>
     <row r="61" spans="1:7" ht="17.25" thickBot="1">
       <c r="A61" s="22"/>
-      <c r="B61" s="29"/>
+      <c r="B61" s="26"/>
       <c r="C61" t="s">
         <v>151</v>
       </c>
@@ -3794,7 +4066,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="22"/>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="24" t="s">
         <v>152</v>
       </c>
       <c r="C62" t="s">
@@ -3809,7 +4081,7 @@
     </row>
     <row r="63" spans="1:7" ht="17.25" thickBot="1">
       <c r="A63" s="22"/>
-      <c r="B63" s="29"/>
+      <c r="B63" s="26"/>
       <c r="C63" t="s">
         <v>138</v>
       </c>
@@ -3822,10 +4094,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="22"/>
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C64" s="27" t="s">
         <v>155</v>
       </c>
       <c r="D64" t="s">
@@ -3837,8 +4109,8 @@
     </row>
     <row r="65" spans="1:7" ht="17.25" thickBot="1">
       <c r="A65" s="22"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="31"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="29"/>
       <c r="D65" t="s">
         <v>156</v>
       </c>
@@ -3848,7 +4120,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="22"/>
-      <c r="B66" s="28"/>
+      <c r="B66" s="25"/>
       <c r="C66" t="s">
         <v>157</v>
       </c>
@@ -3858,7 +4130,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="22"/>
-      <c r="B67" s="28"/>
+      <c r="B67" s="25"/>
       <c r="C67" t="s">
         <v>158</v>
       </c>
@@ -3868,7 +4140,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="22"/>
-      <c r="B68" s="28"/>
+      <c r="B68" s="25"/>
       <c r="C68" t="s">
         <v>159</v>
       </c>
@@ -3878,7 +4150,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="22"/>
-      <c r="B69" s="28"/>
+      <c r="B69" s="25"/>
       <c r="C69" t="s">
         <v>138</v>
       </c>
@@ -3888,7 +4160,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="22"/>
-      <c r="B70" s="28"/>
+      <c r="B70" s="25"/>
       <c r="C70" t="s">
         <v>160</v>
       </c>
@@ -3898,7 +4170,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="22"/>
-      <c r="B71" s="28"/>
+      <c r="B71" s="25"/>
       <c r="C71" t="s">
         <v>161</v>
       </c>
@@ -3908,7 +4180,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="22"/>
-      <c r="B72" s="28"/>
+      <c r="B72" s="25"/>
       <c r="C72" t="s">
         <v>162</v>
       </c>
@@ -3918,7 +4190,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="22"/>
-      <c r="B73" s="28"/>
+      <c r="B73" s="25"/>
       <c r="C73" t="s">
         <v>84</v>
       </c>
@@ -3928,7 +4200,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="22"/>
-      <c r="B74" s="28"/>
+      <c r="B74" s="25"/>
       <c r="C74" t="s">
         <v>163</v>
       </c>
@@ -3938,7 +4210,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="22"/>
-      <c r="B75" s="28"/>
+      <c r="B75" s="25"/>
       <c r="C75" t="s">
         <v>164</v>
       </c>
@@ -3948,7 +4220,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="22"/>
-      <c r="B76" s="28"/>
+      <c r="B76" s="25"/>
       <c r="C76" t="s">
         <v>165</v>
       </c>
@@ -3958,7 +4230,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="22"/>
-      <c r="B77" s="28"/>
+      <c r="B77" s="25"/>
       <c r="C77" t="s">
         <v>166</v>
       </c>
@@ -3968,7 +4240,7 @@
     </row>
     <row r="78" spans="1:7" ht="17.25" thickBot="1">
       <c r="A78" s="22"/>
-      <c r="B78" s="29"/>
+      <c r="B78" s="26"/>
       <c r="C78" t="s">
         <v>167</v>
       </c>
@@ -3978,7 +4250,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="22"/>
-      <c r="B79" s="27" t="s">
+      <c r="B79" s="24" t="s">
         <v>168</v>
       </c>
       <c r="C79" t="s">
@@ -3993,7 +4265,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="22"/>
-      <c r="B80" s="28"/>
+      <c r="B80" s="25"/>
       <c r="C80" t="s">
         <v>169</v>
       </c>
@@ -4006,7 +4278,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="22"/>
-      <c r="B81" s="28"/>
+      <c r="B81" s="25"/>
       <c r="C81" t="s">
         <v>170</v>
       </c>
@@ -4019,7 +4291,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="22"/>
-      <c r="B82" s="28"/>
+      <c r="B82" s="25"/>
       <c r="C82" t="s">
         <v>171</v>
       </c>
@@ -4032,7 +4304,7 @@
     </row>
     <row r="83" spans="1:7" ht="17.25" thickBot="1">
       <c r="A83" s="22"/>
-      <c r="B83" s="29"/>
+      <c r="B83" s="26"/>
       <c r="C83" t="s">
         <v>172</v>
       </c>
@@ -4045,7 +4317,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="22"/>
-      <c r="B84" s="27" t="s">
+      <c r="B84" s="24" t="s">
         <v>173</v>
       </c>
       <c r="C84" t="s">
@@ -4060,7 +4332,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="22"/>
-      <c r="B85" s="28"/>
+      <c r="B85" s="25"/>
       <c r="C85" t="s">
         <v>144</v>
       </c>
@@ -4073,7 +4345,7 @@
     </row>
     <row r="86" spans="1:7" ht="17.25" thickBot="1">
       <c r="A86" s="22"/>
-      <c r="B86" s="29"/>
+      <c r="B86" s="26"/>
       <c r="C86" t="s">
         <v>172</v>
       </c>
@@ -4083,7 +4355,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="22"/>
-      <c r="B87" s="27" t="s">
+      <c r="B87" s="24" t="s">
         <v>123</v>
       </c>
       <c r="C87" t="s">
@@ -4098,7 +4370,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="22"/>
-      <c r="B88" s="28"/>
+      <c r="B88" s="25"/>
       <c r="C88" t="s">
         <v>138</v>
       </c>
@@ -4111,7 +4383,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="22"/>
-      <c r="B89" s="28"/>
+      <c r="B89" s="25"/>
       <c r="C89" t="s">
         <v>161</v>
       </c>
@@ -4124,7 +4396,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="22"/>
-      <c r="B90" s="28"/>
+      <c r="B90" s="25"/>
       <c r="C90" t="s">
         <v>84</v>
       </c>
@@ -4137,7 +4409,7 @@
     </row>
     <row r="91" spans="1:7" ht="17.25" thickBot="1">
       <c r="A91" s="22"/>
-      <c r="B91" s="29"/>
+      <c r="B91" s="26"/>
       <c r="C91" t="s">
         <v>172</v>
       </c>
@@ -4150,7 +4422,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="22"/>
-      <c r="B92" s="27" t="s">
+      <c r="B92" s="24" t="s">
         <v>175</v>
       </c>
       <c r="C92" t="s">
@@ -4165,7 +4437,7 @@
     </row>
     <row r="93" spans="1:7" ht="17.25" thickBot="1">
       <c r="A93" s="22"/>
-      <c r="B93" s="29"/>
+      <c r="B93" s="26"/>
       <c r="C93" t="s">
         <v>138</v>
       </c>
@@ -4178,7 +4450,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="22"/>
-      <c r="B94" s="27" t="s">
+      <c r="B94" s="24" t="s">
         <v>177</v>
       </c>
       <c r="C94" t="s">
@@ -4193,7 +4465,7 @@
     </row>
     <row r="95" spans="1:7" ht="17.25" thickBot="1">
       <c r="A95" s="22"/>
-      <c r="B95" s="29"/>
+      <c r="B95" s="26"/>
       <c r="C95" t="s">
         <v>84</v>
       </c>
@@ -4206,10 +4478,10 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="22"/>
-      <c r="B96" s="27" t="s">
+      <c r="B96" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="C96" s="30" t="s">
+      <c r="C96" s="27" t="s">
         <v>141</v>
       </c>
       <c r="D96" t="s">
@@ -4224,8 +4496,8 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="22"/>
-      <c r="B97" s="28"/>
-      <c r="C97" s="32"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="28"/>
       <c r="D97" t="s">
         <v>178</v>
       </c>
@@ -4238,8 +4510,8 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="22"/>
-      <c r="B98" s="28"/>
-      <c r="C98" s="32"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="28"/>
       <c r="D98" t="s">
         <v>179</v>
       </c>
@@ -4252,8 +4524,8 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="22"/>
-      <c r="B99" s="28"/>
-      <c r="C99" s="32"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="28"/>
       <c r="D99" t="s">
         <v>180</v>
       </c>
@@ -4266,8 +4538,8 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="22"/>
-      <c r="B100" s="28"/>
-      <c r="C100" s="32"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="28"/>
       <c r="D100" t="s">
         <v>181</v>
       </c>
@@ -4280,8 +4552,8 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="22"/>
-      <c r="B101" s="28"/>
-      <c r="C101" s="32"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="28"/>
       <c r="D101" t="s">
         <v>182</v>
       </c>
@@ -4294,8 +4566,8 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="22"/>
-      <c r="B102" s="28"/>
-      <c r="C102" s="32"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="28"/>
       <c r="D102" t="s">
         <v>183</v>
       </c>
@@ -4308,8 +4580,8 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="22"/>
-      <c r="B103" s="28"/>
-      <c r="C103" s="32"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="28"/>
       <c r="D103" t="s">
         <v>184</v>
       </c>
@@ -4322,8 +4594,8 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="22"/>
-      <c r="B104" s="28"/>
-      <c r="C104" s="32"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="28"/>
       <c r="D104" t="s">
         <v>185</v>
       </c>
@@ -4336,8 +4608,8 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="22"/>
-      <c r="B105" s="28"/>
-      <c r="C105" s="32"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="28"/>
       <c r="D105" t="s">
         <v>186</v>
       </c>
@@ -4350,8 +4622,8 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="22"/>
-      <c r="B106" s="28"/>
-      <c r="C106" s="32"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="28"/>
       <c r="D106" t="s">
         <v>187</v>
       </c>
@@ -4364,8 +4636,8 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="22"/>
-      <c r="B107" s="28"/>
-      <c r="C107" s="32"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="28"/>
       <c r="D107" t="s">
         <v>188</v>
       </c>
@@ -4378,8 +4650,8 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="22"/>
-      <c r="B108" s="28"/>
-      <c r="C108" s="32"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="28"/>
       <c r="D108" t="s">
         <v>189</v>
       </c>
@@ -4392,8 +4664,8 @@
     </row>
     <row r="109" spans="1:7" ht="17.25" thickBot="1">
       <c r="A109" s="22"/>
-      <c r="B109" s="28"/>
-      <c r="C109" s="31"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="29"/>
       <c r="D109" t="s">
         <v>190</v>
       </c>
@@ -4406,7 +4678,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="22"/>
-      <c r="B110" s="28"/>
+      <c r="B110" s="25"/>
       <c r="C110" t="s">
         <v>138</v>
       </c>
@@ -4419,7 +4691,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="22"/>
-      <c r="B111" s="28"/>
+      <c r="B111" s="25"/>
       <c r="C111" t="s">
         <v>161</v>
       </c>
@@ -4432,7 +4704,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="22"/>
-      <c r="B112" s="28"/>
+      <c r="B112" s="25"/>
       <c r="C112" t="s">
         <v>191</v>
       </c>
@@ -4445,7 +4717,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="22"/>
-      <c r="B113" s="28"/>
+      <c r="B113" s="25"/>
       <c r="C113" t="s">
         <v>143</v>
       </c>
@@ -4458,7 +4730,7 @@
     </row>
     <row r="114" spans="1:7" ht="17.25" thickBot="1">
       <c r="A114" s="22"/>
-      <c r="B114" s="29"/>
+      <c r="B114" s="26"/>
       <c r="C114" t="s">
         <v>192</v>
       </c>
@@ -5322,10 +5594,10 @@
       <c r="A191" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="B191" s="27" t="s">
+      <c r="B191" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="C191" s="30" t="s">
+      <c r="C191" s="27" t="s">
         <v>232</v>
       </c>
       <c r="D191" t="s">
@@ -5337,8 +5609,8 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="22"/>
-      <c r="B192" s="28"/>
-      <c r="C192" s="32"/>
+      <c r="B192" s="25"/>
+      <c r="C192" s="28"/>
       <c r="D192" t="s">
         <v>234</v>
       </c>
@@ -5348,8 +5620,8 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="22"/>
-      <c r="B193" s="28"/>
-      <c r="C193" s="32"/>
+      <c r="B193" s="25"/>
+      <c r="C193" s="28"/>
       <c r="D193" t="s">
         <v>235</v>
       </c>
@@ -5359,8 +5631,8 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="22"/>
-      <c r="B194" s="28"/>
-      <c r="C194" s="32"/>
+      <c r="B194" s="25"/>
+      <c r="C194" s="28"/>
       <c r="D194" t="s">
         <v>236</v>
       </c>
@@ -5370,8 +5642,8 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="22"/>
-      <c r="B195" s="28"/>
-      <c r="C195" s="32"/>
+      <c r="B195" s="25"/>
+      <c r="C195" s="28"/>
       <c r="D195" t="s">
         <v>237</v>
       </c>
@@ -5381,8 +5653,8 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="22"/>
-      <c r="B196" s="28"/>
-      <c r="C196" s="32"/>
+      <c r="B196" s="25"/>
+      <c r="C196" s="28"/>
       <c r="D196" t="s">
         <v>238</v>
       </c>
@@ -5392,8 +5664,8 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="22"/>
-      <c r="B197" s="28"/>
-      <c r="C197" s="32"/>
+      <c r="B197" s="25"/>
+      <c r="C197" s="28"/>
       <c r="D197" t="s">
         <v>221</v>
       </c>
@@ -5403,8 +5675,8 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="22"/>
-      <c r="B198" s="28"/>
-      <c r="C198" s="32"/>
+      <c r="B198" s="25"/>
+      <c r="C198" s="28"/>
       <c r="D198" t="s">
         <v>239</v>
       </c>
@@ -5414,8 +5686,8 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="22"/>
-      <c r="B199" s="28"/>
-      <c r="C199" s="32"/>
+      <c r="B199" s="25"/>
+      <c r="C199" s="28"/>
       <c r="D199" t="s">
         <v>240</v>
       </c>
@@ -5425,8 +5697,8 @@
     </row>
     <row r="200" spans="1:8" ht="17.25" thickBot="1">
       <c r="A200" s="22"/>
-      <c r="B200" s="28"/>
-      <c r="C200" s="31"/>
+      <c r="B200" s="25"/>
+      <c r="C200" s="29"/>
       <c r="D200" t="s">
         <v>241</v>
       </c>
@@ -5436,7 +5708,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="22"/>
-      <c r="B201" s="28"/>
+      <c r="B201" s="25"/>
       <c r="C201" t="s">
         <v>242</v>
       </c>
@@ -5446,7 +5718,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="22"/>
-      <c r="B202" s="28"/>
+      <c r="B202" s="25"/>
       <c r="C202" t="s">
         <v>84</v>
       </c>
@@ -5456,7 +5728,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="22"/>
-      <c r="B203" s="28"/>
+      <c r="B203" s="25"/>
       <c r="C203" t="s">
         <v>243</v>
       </c>
@@ -5466,7 +5738,7 @@
     </row>
     <row r="204" spans="1:8" ht="17.25" thickBot="1">
       <c r="A204" s="22"/>
-      <c r="B204" s="29"/>
+      <c r="B204" s="26"/>
       <c r="C204" t="s">
         <v>244</v>
       </c>
@@ -5476,10 +5748,10 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="22"/>
-      <c r="B205" s="27" t="s">
+      <c r="B205" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="C205" s="30" t="s">
+      <c r="C205" s="27" t="s">
         <v>218</v>
       </c>
       <c r="D205" t="s">
@@ -5494,8 +5766,8 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="22"/>
-      <c r="B206" s="28"/>
-      <c r="C206" s="32"/>
+      <c r="B206" s="25"/>
+      <c r="C206" s="28"/>
       <c r="D206" t="s">
         <v>246</v>
       </c>
@@ -5508,8 +5780,8 @@
     </row>
     <row r="207" spans="1:8" ht="17.25" thickBot="1">
       <c r="A207" s="22"/>
-      <c r="B207" s="28"/>
-      <c r="C207" s="31"/>
+      <c r="B207" s="25"/>
+      <c r="C207" s="29"/>
       <c r="D207" t="s">
         <v>221</v>
       </c>
@@ -5522,7 +5794,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="22"/>
-      <c r="B208" s="28"/>
+      <c r="B208" s="25"/>
       <c r="C208" t="s">
         <v>206</v>
       </c>
@@ -5538,7 +5810,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="22"/>
-      <c r="B209" s="28"/>
+      <c r="B209" s="25"/>
       <c r="C209" t="s">
         <v>224</v>
       </c>
@@ -5554,7 +5826,7 @@
     </row>
     <row r="210" spans="1:8" ht="17.25" thickBot="1">
       <c r="A210" s="22"/>
-      <c r="B210" s="29"/>
+      <c r="B210" s="26"/>
       <c r="C210" t="s">
         <v>228</v>
       </c>
@@ -5828,17 +6100,19 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A226:A228"/>
-    <mergeCell ref="A128:A190"/>
-    <mergeCell ref="A191:A225"/>
-    <mergeCell ref="B191:B204"/>
-    <mergeCell ref="B205:B210"/>
-    <mergeCell ref="C191:C200"/>
-    <mergeCell ref="C205:C207"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B114"/>
+    <mergeCell ref="A1:A46"/>
+    <mergeCell ref="B1:B9"/>
+    <mergeCell ref="B10:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A47:A127"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B78"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B84:B86"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="C96:C109"/>
@@ -5848,19 +6122,17 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A47:A127"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B78"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="A1:A46"/>
-    <mergeCell ref="B1:B9"/>
-    <mergeCell ref="B10:B23"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C191:C200"/>
+    <mergeCell ref="C205:C207"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B114"/>
+    <mergeCell ref="A226:A228"/>
+    <mergeCell ref="A128:A190"/>
+    <mergeCell ref="A191:A225"/>
+    <mergeCell ref="B191:B204"/>
+    <mergeCell ref="B205:B210"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/開發文件.xlsx
+++ b/docs/開發文件.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\YDWE1.25.10\Creation\Mod\The_Tilted_Clock_Tower\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\the-Tilted-Clock-Tower\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA133CA-C2FE-4315-AE74-4CC5A3426504}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFD5C62-0727-4C2D-B291-7C31AA02694B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
   </bookViews>
   <sheets>
     <sheet name="項目" sheetId="1" r:id="rId1"/>
-    <sheet name="架構" sheetId="4" r:id="rId2"/>
-    <sheet name="流程" sheetId="5" r:id="rId3"/>
-    <sheet name="重構紀錄" sheetId="2" r:id="rId4"/>
+    <sheet name="創意工坊" sheetId="4" r:id="rId2"/>
+    <sheet name="頭腦風暴" sheetId="6" r:id="rId3"/>
+    <sheet name="流程" sheetId="5" r:id="rId4"/>
+    <sheet name="重構紀錄" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -1669,6 +1670,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1681,10 +1691,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1694,15 +1704,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1734,23 +1735,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>3811</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>192405</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>30481</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="矩形: 圓角 1">
+        <xdr:cNvPr id="6" name="矩形: 圓角 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF1C9A54-588D-4C7F-AC43-445181A9C8B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A39B7E0B-2053-4CCE-BB38-15D11F228662}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1758,8 +1759,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5972176" y="742951"/>
-          <a:ext cx="1581150" cy="762000"/>
+          <a:off x="9757411" y="2249805"/>
+          <a:ext cx="1245870" cy="622935"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1786,15 +1787,848 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>主題</a:t>
+            <a:t>不同流派的鍛造術</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
         </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>339091</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>17145</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>365761</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形: 圓角 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDFA4CD5-4B57-4075-9D49-5A269B13F80E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8873491" y="3514725"/>
+          <a:ext cx="1245870" cy="622935"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>魔法世界的復仇之旅</a:t>
+            <a:t>分幾步驟鍛造</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>343971</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="23" name="群組 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CFA9606-8EFD-4899-BEF4-3E8F61693A6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="487680" y="198120"/>
+          <a:ext cx="10829091" cy="2560320"/>
+          <a:chOff x="137160" y="274320"/>
+          <a:chExt cx="10829091" cy="2560320"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="19" name="群組 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC10DBFB-E1CC-4268-BC89-068E95D66A47}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="137160" y="274320"/>
+            <a:ext cx="5440680" cy="2560320"/>
+            <a:chOff x="800100" y="350520"/>
+            <a:chExt cx="5440680" cy="2560320"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="矩形: 圓角 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF1C9A54-588D-4C7F-AC43-445181A9C8B3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2802256" y="502921"/>
+              <a:ext cx="1352550" cy="746760"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>主題</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>魔法世界的復仇之旅</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="矩形: 圓角 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B78DD69-820D-4C71-87E4-D37F2D132EAC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="963931" y="1746886"/>
+              <a:ext cx="1428750" cy="746760"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>概念</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>組合屬性打造強力的魔法裝備</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="矩形: 圓角 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53F79A66-EC53-4213-8010-30F70BF9B962}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4261485" y="1529715"/>
+              <a:ext cx="1826895" cy="1205865"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>系統</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>點擊</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>放入材料</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>按鈕後點擊材料。之後再點擊希望的工序，最後按下鍛造就會製作出裝備</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-TW" altLang="zh-TW">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="矩形 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0BC9397-A4DF-44B8-8FB1-5A842B8DEF91}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="800100" y="350520"/>
+              <a:ext cx="5440680" cy="2560320"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="10" name="直線單箭頭接點 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{077C4E0D-4E78-470C-B112-F60D2AED71EA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="3" idx="0"/>
+              <a:endCxn id="2" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="1678306" y="876301"/>
+              <a:ext cx="1123950" cy="870585"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:headEnd type="triangle"/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="12" name="直線單箭頭接點 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2D6E3EE-479D-4610-BB74-1B982F74C7D0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="2" idx="3"/>
+              <a:endCxn id="4" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4154806" y="876301"/>
+              <a:ext cx="1020127" cy="653414"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:headEnd type="triangle"/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="15" name="直線單箭頭接點 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14396E42-94D4-4E3D-AAAA-8BF64C1AB0E8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="3" idx="3"/>
+              <a:endCxn id="4" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2392681" y="2120266"/>
+              <a:ext cx="1868804" cy="12382"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:headEnd type="triangle"/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="矩形: 圓角 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E216549-49F0-4D7A-8C17-999876942C0A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6454140" y="922020"/>
+            <a:ext cx="1805940" cy="1333500"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>節奏</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>咚</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>放入材料</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>叮</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>放入工序</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+              <a:t>)...</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>鍛造聲</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+              <a:t>3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>聲</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>成功會有光柱、升級的音效</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>失敗會有爆炸聲</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="文字方塊 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED10905E-23BD-49EA-AE4C-4FDB9CCF44CE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5707380" y="1005840"/>
+            <a:ext cx="584071" cy="1031629"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="6000"/>
+              <a:t>X</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="6000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="文字方塊 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E54E09F-149A-4FA6-ADD6-0388FD442DDF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8511540" y="982980"/>
+            <a:ext cx="2454711" cy="1093697"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="6000"/>
+              <a:t>=</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="6000"/>
+              <a:t>  舒服</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>156210</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>169545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="矩形: 圓角 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E14544D4-EF86-4613-9422-67BAD1E2F7D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="765810" y="3049905"/>
+          <a:ext cx="1413510" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>鍛造爐的魔力表示 當前成功率</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>預設</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>0)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>最高成功率</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>預設</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>100)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1803,23 +2637,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>468631</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>184785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形: 圓角 2">
+        <xdr:cNvPr id="25" name="矩形: 圓角 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B78DD69-820D-4C71-87E4-D37F2D132EAC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7D80123-BFE2-436D-BAF5-AFE8E9784880}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1827,8 +2661,239 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4400551" y="1762126"/>
-          <a:ext cx="1581150" cy="762000"/>
+          <a:off x="2297431" y="3065145"/>
+          <a:ext cx="1093470" cy="782955"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>加入材料不會提升成功率</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>499111</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>169545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>373381</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="矩形: 圓角 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26507DE8-4059-4DB2-9E7C-5CB512A5D9E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3547111" y="3049905"/>
+          <a:ext cx="1093470" cy="782955"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>使用工法會提升一定的成功率</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>236219</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="矩形: 圓角 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1089DCB9-04F0-4970-8B2F-7C72FE8528FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4972050" y="2973705"/>
+          <a:ext cx="1360169" cy="1080135"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>設計兩個按鈕</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t> 插入、鍛造</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>插入</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t> 加入材料或使用工法</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>鍛造</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t> 生成裝備</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>49530</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形: 圓角 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C11306FF-B244-47A9-9263-D071A7F14708}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5935980" y="1798320"/>
+          <a:ext cx="1428750" cy="746760"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1863,148 +2928,8 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>組合屬性擊敗高難度的敵人</a:t>
+            <a:t>組合屬性打造強力的魔法裝備</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="矩形: 圓角 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53F79A66-EC53-4213-8010-30F70BF9B962}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8886825" y="1285875"/>
-          <a:ext cx="542925" cy="352425"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>系統</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="矩形: 圓角 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66860155-48AB-4BEF-99DD-4454A6C387A9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7867650" y="2143125"/>
-          <a:ext cx="1533525" cy="1266825"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>序列構裝</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>使用秘物解鎖構裝上的序列，點擊序列可讓英雄獲得該能力。能力連成一線</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2316,15 +3241,15 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="29.375" customWidth="1"/>
-    <col min="4" max="8" width="15.625" customWidth="1"/>
-    <col min="9" max="9" width="51.375" customWidth="1"/>
+    <col min="1" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="4" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="51.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5">
+    <row r="1" spans="1:9" ht="19.8">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2353,7 +3278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.5">
+    <row r="2" spans="1:9" ht="18.600000000000001">
       <c r="A2" s="17" t="s">
         <v>77</v>
       </c>
@@ -3308,10 +4233,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3320,6 +4245,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102EB912-690F-4A1D-A395-38C2CE3B65FD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336849DF-D3F4-435E-87DA-A99B863A554D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3327,14 +4268,14 @@
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29018229-9EAF-4726-88C6-5A87070EDF6C}">
   <dimension ref="A1:H229"/>
   <sheetViews>
@@ -3342,21 +4283,21 @@
       <selection activeCell="H210" sqref="H210"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
-    <col min="5" max="5" width="10.875" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="24" t="s">
         <v>83</v>
       </c>
       <c r="C1" t="s">
@@ -3371,7 +4312,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="22"/>
-      <c r="B2" s="34"/>
+      <c r="B2" s="25"/>
       <c r="C2" t="s">
         <v>85</v>
       </c>
@@ -3381,7 +4322,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="22"/>
-      <c r="B3" s="34"/>
+      <c r="B3" s="25"/>
       <c r="C3" t="s">
         <v>86</v>
       </c>
@@ -3391,7 +4332,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="22"/>
-      <c r="B4" s="34"/>
+      <c r="B4" s="25"/>
       <c r="C4" t="s">
         <v>87</v>
       </c>
@@ -3401,7 +4342,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="22"/>
-      <c r="B5" s="34"/>
+      <c r="B5" s="25"/>
       <c r="C5" t="s">
         <v>88</v>
       </c>
@@ -3411,7 +4352,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="22"/>
-      <c r="B6" s="34"/>
+      <c r="B6" s="25"/>
       <c r="C6" t="s">
         <v>89</v>
       </c>
@@ -3421,7 +4362,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="22"/>
-      <c r="B7" s="34"/>
+      <c r="B7" s="25"/>
       <c r="C7" t="s">
         <v>90</v>
       </c>
@@ -3431,7 +4372,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="22"/>
-      <c r="B8" s="34"/>
+      <c r="B8" s="25"/>
       <c r="C8" t="s">
         <v>91</v>
       </c>
@@ -3439,9 +4380,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17.25" thickBot="1">
+    <row r="9" spans="1:8" ht="16.8" thickBot="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="35"/>
+      <c r="B9" s="26"/>
       <c r="C9" t="s">
         <v>92</v>
       </c>
@@ -3451,13 +4392,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="22"/>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="33" t="s">
         <v>95</v>
       </c>
       <c r="E10" t="s">
@@ -3469,9 +4410,9 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="22"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="34"/>
       <c r="E11" t="s">
         <v>97</v>
       </c>
@@ -3481,9 +4422,9 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="22"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="31"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="34"/>
       <c r="E12" t="s">
         <v>98</v>
       </c>
@@ -3493,9 +4434,9 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="22"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="34"/>
       <c r="E13" t="s">
         <v>99</v>
       </c>
@@ -3503,11 +4444,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17.25" thickBot="1">
+    <row r="14" spans="1:8" ht="16.8" thickBot="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="32"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="35"/>
       <c r="E14" t="s">
         <v>100</v>
       </c>
@@ -3517,9 +4458,9 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="22"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="30" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33" t="s">
         <v>101</v>
       </c>
       <c r="E15" t="s">
@@ -3531,9 +4472,9 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="22"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="31"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="34"/>
       <c r="E16" t="s">
         <v>103</v>
       </c>
@@ -3543,9 +4484,9 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="22"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="31"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="34"/>
       <c r="E17" t="s">
         <v>104</v>
       </c>
@@ -3555,9 +4496,9 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="22"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="31"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="34"/>
       <c r="E18" t="s">
         <v>105</v>
       </c>
@@ -3567,9 +4508,9 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="31"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="34"/>
       <c r="E19" t="s">
         <v>106</v>
       </c>
@@ -3579,9 +4520,9 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="22"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="31"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="34"/>
       <c r="E20" t="s">
         <v>107</v>
       </c>
@@ -3589,11 +4530,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17.25" thickBot="1">
+    <row r="21" spans="1:6" ht="16.8" thickBot="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="32"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="35"/>
       <c r="E21" t="s">
         <v>108</v>
       </c>
@@ -3603,7 +4544,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="22"/>
-      <c r="B22" s="34"/>
+      <c r="B22" s="25"/>
       <c r="C22" t="s">
         <v>109</v>
       </c>
@@ -3611,9 +4552,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17.25" thickBot="1">
+    <row r="23" spans="1:6" ht="16.8" thickBot="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="35"/>
+      <c r="B23" s="26"/>
       <c r="C23" t="s">
         <v>84</v>
       </c>
@@ -3623,7 +4564,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="22"/>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="27" t="s">
         <v>110</v>
       </c>
       <c r="C24" t="s">
@@ -3635,7 +4576,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="22"/>
-      <c r="B25" s="25"/>
+      <c r="B25" s="28"/>
       <c r="C25" t="s">
         <v>111</v>
       </c>
@@ -3645,7 +4586,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="22"/>
-      <c r="B26" s="25"/>
+      <c r="B26" s="28"/>
       <c r="C26" t="s">
         <v>112</v>
       </c>
@@ -3655,7 +4596,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="22"/>
-      <c r="B27" s="25"/>
+      <c r="B27" s="28"/>
       <c r="C27" t="s">
         <v>113</v>
       </c>
@@ -3665,7 +4606,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="22"/>
-      <c r="B28" s="25"/>
+      <c r="B28" s="28"/>
       <c r="C28" t="s">
         <v>114</v>
       </c>
@@ -3675,7 +4616,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="22"/>
-      <c r="B29" s="25"/>
+      <c r="B29" s="28"/>
       <c r="C29" t="s">
         <v>115</v>
       </c>
@@ -3683,9 +4624,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17.25" thickBot="1">
+    <row r="30" spans="1:6" ht="16.8" thickBot="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="26"/>
+      <c r="B30" s="29"/>
       <c r="C30" t="s">
         <v>116</v>
       </c>
@@ -3695,10 +4636,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="22"/>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="30" t="s">
         <v>118</v>
       </c>
       <c r="D31" t="s">
@@ -3708,10 +4649,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17.25" thickBot="1">
+    <row r="32" spans="1:6" ht="16.8" thickBot="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="29"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="31"/>
       <c r="D32" t="s">
         <v>120</v>
       </c>
@@ -3721,8 +4662,8 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="22"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="27" t="s">
+      <c r="B33" s="28"/>
+      <c r="C33" s="30" t="s">
         <v>121</v>
       </c>
       <c r="D33" t="s">
@@ -3732,10 +4673,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17.25" thickBot="1">
+    <row r="34" spans="1:7" ht="16.8" thickBot="1">
       <c r="A34" s="22"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="29"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="31"/>
       <c r="D34" t="s">
         <v>123</v>
       </c>
@@ -3745,8 +4686,8 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="22"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="27" t="s">
+      <c r="B35" s="28"/>
+      <c r="C35" s="30" t="s">
         <v>124</v>
       </c>
       <c r="D35" t="s">
@@ -3756,10 +4697,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="17.25" thickBot="1">
+    <row r="36" spans="1:7" ht="16.8" thickBot="1">
       <c r="A36" s="22"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="31"/>
       <c r="D36" t="s">
         <v>123</v>
       </c>
@@ -3848,7 +4789,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="17.25" thickBot="1">
+    <row r="46" spans="1:7" ht="16.8" thickBot="1">
       <c r="A46" s="23"/>
       <c r="B46" t="s">
         <v>134</v>
@@ -3861,7 +4802,7 @@
       <c r="A47" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="27" t="s">
         <v>136</v>
       </c>
       <c r="C47" t="s">
@@ -3876,7 +4817,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="22"/>
-      <c r="B48" s="25"/>
+      <c r="B48" s="28"/>
       <c r="C48" t="s">
         <v>138</v>
       </c>
@@ -3887,9 +4828,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="17.25" thickBot="1">
+    <row r="49" spans="1:7" ht="16.8" thickBot="1">
       <c r="A49" s="22"/>
-      <c r="B49" s="26"/>
+      <c r="B49" s="29"/>
       <c r="C49" t="s">
         <v>139</v>
       </c>
@@ -3902,10 +4843,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="22"/>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="30" t="s">
         <v>141</v>
       </c>
       <c r="D50" t="s">
@@ -3918,10 +4859,10 @@
         <v>260</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="17.25" thickBot="1">
+    <row r="51" spans="1:7" ht="16.8" thickBot="1">
       <c r="A51" s="22"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="29"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="31"/>
       <c r="D51" t="s">
         <v>142</v>
       </c>
@@ -3934,7 +4875,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="22"/>
-      <c r="B52" s="25"/>
+      <c r="B52" s="28"/>
       <c r="C52" t="s">
         <v>138</v>
       </c>
@@ -3947,7 +4888,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="22"/>
-      <c r="B53" s="25"/>
+      <c r="B53" s="28"/>
       <c r="C53" t="s">
         <v>84</v>
       </c>
@@ -3960,7 +4901,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="22"/>
-      <c r="B54" s="25"/>
+      <c r="B54" s="28"/>
       <c r="C54" t="s">
         <v>143</v>
       </c>
@@ -3971,9 +4912,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="17.25" thickBot="1">
+    <row r="55" spans="1:7" ht="16.8" thickBot="1">
       <c r="A55" s="22"/>
-      <c r="B55" s="26"/>
+      <c r="B55" s="29"/>
       <c r="C55" t="s">
         <v>144</v>
       </c>
@@ -3986,7 +4927,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="22"/>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="27" t="s">
         <v>145</v>
       </c>
       <c r="C56" t="s">
@@ -4001,7 +4942,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="22"/>
-      <c r="B57" s="25"/>
+      <c r="B57" s="28"/>
       <c r="C57" t="s">
         <v>147</v>
       </c>
@@ -4014,7 +4955,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="22"/>
-      <c r="B58" s="25"/>
+      <c r="B58" s="28"/>
       <c r="C58" t="s">
         <v>148</v>
       </c>
@@ -4027,7 +4968,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="22"/>
-      <c r="B59" s="25"/>
+      <c r="B59" s="28"/>
       <c r="C59" t="s">
         <v>149</v>
       </c>
@@ -4040,7 +4981,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="22"/>
-      <c r="B60" s="25"/>
+      <c r="B60" s="28"/>
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -4051,9 +4992,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="17.25" thickBot="1">
+    <row r="61" spans="1:7" ht="16.8" thickBot="1">
       <c r="A61" s="22"/>
-      <c r="B61" s="26"/>
+      <c r="B61" s="29"/>
       <c r="C61" t="s">
         <v>151</v>
       </c>
@@ -4066,7 +5007,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="22"/>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="27" t="s">
         <v>152</v>
       </c>
       <c r="C62" t="s">
@@ -4079,9 +5020,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="17.25" thickBot="1">
+    <row r="63" spans="1:7" ht="16.8" thickBot="1">
       <c r="A63" s="22"/>
-      <c r="B63" s="26"/>
+      <c r="B63" s="29"/>
       <c r="C63" t="s">
         <v>138</v>
       </c>
@@ -4094,10 +5035,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="22"/>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="30" t="s">
         <v>155</v>
       </c>
       <c r="D64" t="s">
@@ -4107,10 +5048,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="17.25" thickBot="1">
+    <row r="65" spans="1:7" ht="16.8" thickBot="1">
       <c r="A65" s="22"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="29"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="31"/>
       <c r="D65" t="s">
         <v>156</v>
       </c>
@@ -4120,7 +5061,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="22"/>
-      <c r="B66" s="25"/>
+      <c r="B66" s="28"/>
       <c r="C66" t="s">
         <v>157</v>
       </c>
@@ -4130,7 +5071,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="22"/>
-      <c r="B67" s="25"/>
+      <c r="B67" s="28"/>
       <c r="C67" t="s">
         <v>158</v>
       </c>
@@ -4140,7 +5081,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="22"/>
-      <c r="B68" s="25"/>
+      <c r="B68" s="28"/>
       <c r="C68" t="s">
         <v>159</v>
       </c>
@@ -4150,7 +5091,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="22"/>
-      <c r="B69" s="25"/>
+      <c r="B69" s="28"/>
       <c r="C69" t="s">
         <v>138</v>
       </c>
@@ -4160,7 +5101,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="22"/>
-      <c r="B70" s="25"/>
+      <c r="B70" s="28"/>
       <c r="C70" t="s">
         <v>160</v>
       </c>
@@ -4170,7 +5111,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="22"/>
-      <c r="B71" s="25"/>
+      <c r="B71" s="28"/>
       <c r="C71" t="s">
         <v>161</v>
       </c>
@@ -4180,7 +5121,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="22"/>
-      <c r="B72" s="25"/>
+      <c r="B72" s="28"/>
       <c r="C72" t="s">
         <v>162</v>
       </c>
@@ -4190,7 +5131,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="22"/>
-      <c r="B73" s="25"/>
+      <c r="B73" s="28"/>
       <c r="C73" t="s">
         <v>84</v>
       </c>
@@ -4200,7 +5141,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="22"/>
-      <c r="B74" s="25"/>
+      <c r="B74" s="28"/>
       <c r="C74" t="s">
         <v>163</v>
       </c>
@@ -4210,7 +5151,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="22"/>
-      <c r="B75" s="25"/>
+      <c r="B75" s="28"/>
       <c r="C75" t="s">
         <v>164</v>
       </c>
@@ -4220,7 +5161,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="22"/>
-      <c r="B76" s="25"/>
+      <c r="B76" s="28"/>
       <c r="C76" t="s">
         <v>165</v>
       </c>
@@ -4230,7 +5171,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="22"/>
-      <c r="B77" s="25"/>
+      <c r="B77" s="28"/>
       <c r="C77" t="s">
         <v>166</v>
       </c>
@@ -4238,9 +5179,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="17.25" thickBot="1">
+    <row r="78" spans="1:7" ht="16.8" thickBot="1">
       <c r="A78" s="22"/>
-      <c r="B78" s="26"/>
+      <c r="B78" s="29"/>
       <c r="C78" t="s">
         <v>167</v>
       </c>
@@ -4250,7 +5191,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="22"/>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="27" t="s">
         <v>168</v>
       </c>
       <c r="C79" t="s">
@@ -4265,7 +5206,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="22"/>
-      <c r="B80" s="25"/>
+      <c r="B80" s="28"/>
       <c r="C80" t="s">
         <v>169</v>
       </c>
@@ -4278,7 +5219,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="22"/>
-      <c r="B81" s="25"/>
+      <c r="B81" s="28"/>
       <c r="C81" t="s">
         <v>170</v>
       </c>
@@ -4291,7 +5232,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="22"/>
-      <c r="B82" s="25"/>
+      <c r="B82" s="28"/>
       <c r="C82" t="s">
         <v>171</v>
       </c>
@@ -4302,9 +5243,9 @@
         <v>266</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="17.25" thickBot="1">
+    <row r="83" spans="1:7" ht="16.8" thickBot="1">
       <c r="A83" s="22"/>
-      <c r="B83" s="26"/>
+      <c r="B83" s="29"/>
       <c r="C83" t="s">
         <v>172</v>
       </c>
@@ -4317,7 +5258,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="22"/>
-      <c r="B84" s="24" t="s">
+      <c r="B84" s="27" t="s">
         <v>173</v>
       </c>
       <c r="C84" t="s">
@@ -4332,7 +5273,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="22"/>
-      <c r="B85" s="25"/>
+      <c r="B85" s="28"/>
       <c r="C85" t="s">
         <v>144</v>
       </c>
@@ -4343,9 +5284,9 @@
         <v>265</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="17.25" thickBot="1">
+    <row r="86" spans="1:7" ht="16.8" thickBot="1">
       <c r="A86" s="22"/>
-      <c r="B86" s="26"/>
+      <c r="B86" s="29"/>
       <c r="C86" t="s">
         <v>172</v>
       </c>
@@ -4355,7 +5296,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="22"/>
-      <c r="B87" s="24" t="s">
+      <c r="B87" s="27" t="s">
         <v>123</v>
       </c>
       <c r="C87" t="s">
@@ -4370,7 +5311,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="22"/>
-      <c r="B88" s="25"/>
+      <c r="B88" s="28"/>
       <c r="C88" t="s">
         <v>138</v>
       </c>
@@ -4383,7 +5324,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="22"/>
-      <c r="B89" s="25"/>
+      <c r="B89" s="28"/>
       <c r="C89" t="s">
         <v>161</v>
       </c>
@@ -4396,7 +5337,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="22"/>
-      <c r="B90" s="25"/>
+      <c r="B90" s="28"/>
       <c r="C90" t="s">
         <v>84</v>
       </c>
@@ -4407,9 +5348,9 @@
         <v>265</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="17.25" thickBot="1">
+    <row r="91" spans="1:7" ht="16.8" thickBot="1">
       <c r="A91" s="22"/>
-      <c r="B91" s="26"/>
+      <c r="B91" s="29"/>
       <c r="C91" t="s">
         <v>172</v>
       </c>
@@ -4422,7 +5363,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="22"/>
-      <c r="B92" s="24" t="s">
+      <c r="B92" s="27" t="s">
         <v>175</v>
       </c>
       <c r="C92" t="s">
@@ -4435,9 +5376,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="17.25" thickBot="1">
+    <row r="93" spans="1:7" ht="16.8" thickBot="1">
       <c r="A93" s="22"/>
-      <c r="B93" s="26"/>
+      <c r="B93" s="29"/>
       <c r="C93" t="s">
         <v>138</v>
       </c>
@@ -4450,7 +5391,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="22"/>
-      <c r="B94" s="24" t="s">
+      <c r="B94" s="27" t="s">
         <v>177</v>
       </c>
       <c r="C94" t="s">
@@ -4463,9 +5404,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="17.25" thickBot="1">
+    <row r="95" spans="1:7" ht="16.8" thickBot="1">
       <c r="A95" s="22"/>
-      <c r="B95" s="26"/>
+      <c r="B95" s="29"/>
       <c r="C95" t="s">
         <v>84</v>
       </c>
@@ -4478,10 +5419,10 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="22"/>
-      <c r="B96" s="24" t="s">
+      <c r="B96" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C96" s="27" t="s">
+      <c r="C96" s="30" t="s">
         <v>141</v>
       </c>
       <c r="D96" t="s">
@@ -4496,8 +5437,8 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="22"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="28"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="32"/>
       <c r="D97" t="s">
         <v>178</v>
       </c>
@@ -4510,8 +5451,8 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="22"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="28"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="32"/>
       <c r="D98" t="s">
         <v>179</v>
       </c>
@@ -4524,8 +5465,8 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="22"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="28"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="32"/>
       <c r="D99" t="s">
         <v>180</v>
       </c>
@@ -4538,8 +5479,8 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="22"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="28"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="32"/>
       <c r="D100" t="s">
         <v>181</v>
       </c>
@@ -4552,8 +5493,8 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="22"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="28"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="32"/>
       <c r="D101" t="s">
         <v>182</v>
       </c>
@@ -4566,8 +5507,8 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="22"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="28"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="32"/>
       <c r="D102" t="s">
         <v>183</v>
       </c>
@@ -4580,8 +5521,8 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="22"/>
-      <c r="B103" s="25"/>
-      <c r="C103" s="28"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="32"/>
       <c r="D103" t="s">
         <v>184</v>
       </c>
@@ -4594,8 +5535,8 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="22"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="28"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="32"/>
       <c r="D104" t="s">
         <v>185</v>
       </c>
@@ -4608,8 +5549,8 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="22"/>
-      <c r="B105" s="25"/>
-      <c r="C105" s="28"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="32"/>
       <c r="D105" t="s">
         <v>186</v>
       </c>
@@ -4622,8 +5563,8 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="22"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="28"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="32"/>
       <c r="D106" t="s">
         <v>187</v>
       </c>
@@ -4636,8 +5577,8 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="22"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="28"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="32"/>
       <c r="D107" t="s">
         <v>188</v>
       </c>
@@ -4650,8 +5591,8 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="22"/>
-      <c r="B108" s="25"/>
-      <c r="C108" s="28"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="32"/>
       <c r="D108" t="s">
         <v>189</v>
       </c>
@@ -4662,10 +5603,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="17.25" thickBot="1">
+    <row r="109" spans="1:7" ht="16.8" thickBot="1">
       <c r="A109" s="22"/>
-      <c r="B109" s="25"/>
-      <c r="C109" s="29"/>
+      <c r="B109" s="28"/>
+      <c r="C109" s="31"/>
       <c r="D109" t="s">
         <v>190</v>
       </c>
@@ -4678,7 +5619,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="22"/>
-      <c r="B110" s="25"/>
+      <c r="B110" s="28"/>
       <c r="C110" t="s">
         <v>138</v>
       </c>
@@ -4691,7 +5632,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="22"/>
-      <c r="B111" s="25"/>
+      <c r="B111" s="28"/>
       <c r="C111" t="s">
         <v>161</v>
       </c>
@@ -4704,7 +5645,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="22"/>
-      <c r="B112" s="25"/>
+      <c r="B112" s="28"/>
       <c r="C112" t="s">
         <v>191</v>
       </c>
@@ -4717,7 +5658,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="22"/>
-      <c r="B113" s="25"/>
+      <c r="B113" s="28"/>
       <c r="C113" t="s">
         <v>143</v>
       </c>
@@ -4728,9 +5669,9 @@
         <v>265</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="17.25" thickBot="1">
+    <row r="114" spans="1:7" ht="16.8" thickBot="1">
       <c r="A114" s="22"/>
-      <c r="B114" s="26"/>
+      <c r="B114" s="29"/>
       <c r="C114" t="s">
         <v>192</v>
       </c>
@@ -4885,7 +5826,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="17.25" thickBot="1">
+    <row r="127" spans="1:7" ht="16.8" thickBot="1">
       <c r="A127" s="23"/>
       <c r="B127" t="s">
         <v>203</v>
@@ -5578,7 +6519,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="17.25" thickBot="1">
+    <row r="190" spans="1:7" ht="16.8" thickBot="1">
       <c r="A190" s="23"/>
       <c r="B190" t="s">
         <v>144</v>
@@ -5594,10 +6535,10 @@
       <c r="A191" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="B191" s="24" t="s">
+      <c r="B191" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="C191" s="27" t="s">
+      <c r="C191" s="30" t="s">
         <v>232</v>
       </c>
       <c r="D191" t="s">
@@ -5609,8 +6550,8 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="22"/>
-      <c r="B192" s="25"/>
-      <c r="C192" s="28"/>
+      <c r="B192" s="28"/>
+      <c r="C192" s="32"/>
       <c r="D192" t="s">
         <v>234</v>
       </c>
@@ -5620,8 +6561,8 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="22"/>
-      <c r="B193" s="25"/>
-      <c r="C193" s="28"/>
+      <c r="B193" s="28"/>
+      <c r="C193" s="32"/>
       <c r="D193" t="s">
         <v>235</v>
       </c>
@@ -5631,8 +6572,8 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="22"/>
-      <c r="B194" s="25"/>
-      <c r="C194" s="28"/>
+      <c r="B194" s="28"/>
+      <c r="C194" s="32"/>
       <c r="D194" t="s">
         <v>236</v>
       </c>
@@ -5642,8 +6583,8 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="22"/>
-      <c r="B195" s="25"/>
-      <c r="C195" s="28"/>
+      <c r="B195" s="28"/>
+      <c r="C195" s="32"/>
       <c r="D195" t="s">
         <v>237</v>
       </c>
@@ -5653,8 +6594,8 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="22"/>
-      <c r="B196" s="25"/>
-      <c r="C196" s="28"/>
+      <c r="B196" s="28"/>
+      <c r="C196" s="32"/>
       <c r="D196" t="s">
         <v>238</v>
       </c>
@@ -5664,8 +6605,8 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="22"/>
-      <c r="B197" s="25"/>
-      <c r="C197" s="28"/>
+      <c r="B197" s="28"/>
+      <c r="C197" s="32"/>
       <c r="D197" t="s">
         <v>221</v>
       </c>
@@ -5675,8 +6616,8 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="22"/>
-      <c r="B198" s="25"/>
-      <c r="C198" s="28"/>
+      <c r="B198" s="28"/>
+      <c r="C198" s="32"/>
       <c r="D198" t="s">
         <v>239</v>
       </c>
@@ -5686,8 +6627,8 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="22"/>
-      <c r="B199" s="25"/>
-      <c r="C199" s="28"/>
+      <c r="B199" s="28"/>
+      <c r="C199" s="32"/>
       <c r="D199" t="s">
         <v>240</v>
       </c>
@@ -5695,10 +6636,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="17.25" thickBot="1">
+    <row r="200" spans="1:8" ht="16.8" thickBot="1">
       <c r="A200" s="22"/>
-      <c r="B200" s="25"/>
-      <c r="C200" s="29"/>
+      <c r="B200" s="28"/>
+      <c r="C200" s="31"/>
       <c r="D200" t="s">
         <v>241</v>
       </c>
@@ -5708,7 +6649,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="22"/>
-      <c r="B201" s="25"/>
+      <c r="B201" s="28"/>
       <c r="C201" t="s">
         <v>242</v>
       </c>
@@ -5718,7 +6659,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="22"/>
-      <c r="B202" s="25"/>
+      <c r="B202" s="28"/>
       <c r="C202" t="s">
         <v>84</v>
       </c>
@@ -5728,7 +6669,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="22"/>
-      <c r="B203" s="25"/>
+      <c r="B203" s="28"/>
       <c r="C203" t="s">
         <v>243</v>
       </c>
@@ -5736,9 +6677,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="17.25" thickBot="1">
+    <row r="204" spans="1:8" ht="16.8" thickBot="1">
       <c r="A204" s="22"/>
-      <c r="B204" s="26"/>
+      <c r="B204" s="29"/>
       <c r="C204" t="s">
         <v>244</v>
       </c>
@@ -5748,10 +6689,10 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="22"/>
-      <c r="B205" s="24" t="s">
+      <c r="B205" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="C205" s="27" t="s">
+      <c r="C205" s="30" t="s">
         <v>218</v>
       </c>
       <c r="D205" t="s">
@@ -5766,8 +6707,8 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="22"/>
-      <c r="B206" s="25"/>
-      <c r="C206" s="28"/>
+      <c r="B206" s="28"/>
+      <c r="C206" s="32"/>
       <c r="D206" t="s">
         <v>246</v>
       </c>
@@ -5778,10 +6719,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="17.25" thickBot="1">
+    <row r="207" spans="1:8" ht="16.8" thickBot="1">
       <c r="A207" s="22"/>
-      <c r="B207" s="25"/>
-      <c r="C207" s="29"/>
+      <c r="B207" s="28"/>
+      <c r="C207" s="31"/>
       <c r="D207" t="s">
         <v>221</v>
       </c>
@@ -5794,7 +6735,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="22"/>
-      <c r="B208" s="25"/>
+      <c r="B208" s="28"/>
       <c r="C208" t="s">
         <v>206</v>
       </c>
@@ -5810,7 +6751,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="22"/>
-      <c r="B209" s="25"/>
+      <c r="B209" s="28"/>
       <c r="C209" t="s">
         <v>224</v>
       </c>
@@ -5824,9 +6765,9 @@
         <v>277</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="17.25" thickBot="1">
+    <row r="210" spans="1:8" ht="16.8" thickBot="1">
       <c r="A210" s="22"/>
-      <c r="B210" s="26"/>
+      <c r="B210" s="29"/>
       <c r="C210" t="s">
         <v>228</v>
       </c>
@@ -6037,7 +6978,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="17.25" thickBot="1">
+    <row r="225" spans="1:8" ht="16.8" thickBot="1">
       <c r="A225" s="23"/>
       <c r="B225" t="s">
         <v>230</v>
@@ -6078,7 +7019,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="17.25" thickBot="1">
+    <row r="228" spans="1:8" ht="16.8" thickBot="1">
       <c r="A228" s="23"/>
       <c r="B228" t="s">
         <v>256</v>
@@ -6100,19 +7041,17 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:A46"/>
-    <mergeCell ref="B1:B9"/>
-    <mergeCell ref="B10:B23"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="A47:A127"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B78"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="A226:A228"/>
+    <mergeCell ref="A128:A190"/>
+    <mergeCell ref="A191:A225"/>
+    <mergeCell ref="B191:B204"/>
+    <mergeCell ref="B205:B210"/>
+    <mergeCell ref="C191:C200"/>
+    <mergeCell ref="C205:C207"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B114"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="C96:C109"/>
@@ -6122,17 +7061,19 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C191:C200"/>
-    <mergeCell ref="C205:C207"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B114"/>
-    <mergeCell ref="A226:A228"/>
-    <mergeCell ref="A128:A190"/>
-    <mergeCell ref="A191:A225"/>
-    <mergeCell ref="B191:B204"/>
-    <mergeCell ref="B205:B210"/>
+    <mergeCell ref="A47:A127"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B78"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="A1:A46"/>
+    <mergeCell ref="B1:B9"/>
+    <mergeCell ref="B10:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/開發文件.xlsx
+++ b/docs/開發文件.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\the-Tilted-Clock-Tower\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\YDWE1.25.10\Creation\Mod\The_Tilted_Clock_Tower\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFD5C62-0727-4C2D-B291-7C31AA02694B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050D8AFA-43A1-4223-A053-1AF2A0A5903A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
   </bookViews>
   <sheets>
     <sheet name="項目" sheetId="1" r:id="rId1"/>
@@ -1670,15 +1670,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1691,10 +1682,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1704,6 +1695,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1735,16 +1735,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>3811</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>192405</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>527686</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>135255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>30481</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>554356</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1759,8 +1759,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9757411" y="2249805"/>
-          <a:ext cx="1245870" cy="622935"/>
+          <a:off x="5328286" y="4535805"/>
+          <a:ext cx="1398270" cy="634365"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1797,16 +1797,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>339091</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>17145</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>215266</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>365761</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>241936</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1821,8 +1821,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8873491" y="3514725"/>
-          <a:ext cx="1245870" cy="622935"/>
+          <a:off x="7073266" y="4531995"/>
+          <a:ext cx="1398270" cy="634365"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1884,7 +1884,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="487680" y="198120"/>
-          <a:ext cx="10829091" cy="2560320"/>
+          <a:ext cx="12200691" cy="2609850"/>
           <a:chOff x="137160" y="274320"/>
           <a:chExt cx="10829091" cy="2560320"/>
         </a:xfrm>
@@ -2861,6 +2861,273 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>567691</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>594361</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>32385</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="矩形: 圓角 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE3703B-275B-4B61-A397-93AEA0DD747F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9483091" y="4636770"/>
+          <a:ext cx="1398270" cy="634365"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>材料有分級、限制</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>520066</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>169545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>546736</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="矩形: 圓角 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85E29FDC-9034-46B5-9296-C24ADBE7BA73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5320666" y="5408295"/>
+          <a:ext cx="1398270" cy="634365"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>鍛造大賽，讓追隨者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>AI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>穿著玩家打造的裝備互打</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15241</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>41911</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="矩形: 圓角 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C5F3FF-2C23-4744-B002-DE1FFF1A575B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6873241" y="5713095"/>
+          <a:ext cx="1398270" cy="634365"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>天驕榜</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>多人聲望榜</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>481966</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>169545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>508636</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="矩形: 圓角 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5C15BDC-5059-4299-A7CB-D1559667242E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8711566" y="5617845"/>
+          <a:ext cx="1398270" cy="634365"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>可雇傭追隨者打材料</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3241,15 +3508,15 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" customWidth="1"/>
-    <col min="4" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="51.33203125" customWidth="1"/>
+    <col min="1" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="29.375" customWidth="1"/>
+    <col min="4" max="8" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="51.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.8">
+    <row r="1" spans="1:9" ht="19.5">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3278,7 +3545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.600000000000001">
+    <row r="2" spans="1:9" ht="19.5">
       <c r="A2" s="17" t="s">
         <v>77</v>
       </c>
@@ -4233,10 +4500,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4252,7 +4519,7 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4268,7 +4535,7 @@
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4283,21 +4550,21 @@
       <selection activeCell="H210" sqref="H210"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="33" t="s">
         <v>83</v>
       </c>
       <c r="C1" t="s">
@@ -4312,7 +4579,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="22"/>
-      <c r="B2" s="25"/>
+      <c r="B2" s="34"/>
       <c r="C2" t="s">
         <v>85</v>
       </c>
@@ -4322,7 +4589,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="22"/>
-      <c r="B3" s="25"/>
+      <c r="B3" s="34"/>
       <c r="C3" t="s">
         <v>86</v>
       </c>
@@ -4332,7 +4599,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="22"/>
-      <c r="B4" s="25"/>
+      <c r="B4" s="34"/>
       <c r="C4" t="s">
         <v>87</v>
       </c>
@@ -4342,7 +4609,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="22"/>
-      <c r="B5" s="25"/>
+      <c r="B5" s="34"/>
       <c r="C5" t="s">
         <v>88</v>
       </c>
@@ -4352,7 +4619,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="22"/>
-      <c r="B6" s="25"/>
+      <c r="B6" s="34"/>
       <c r="C6" t="s">
         <v>89</v>
       </c>
@@ -4362,7 +4629,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="22"/>
-      <c r="B7" s="25"/>
+      <c r="B7" s="34"/>
       <c r="C7" t="s">
         <v>90</v>
       </c>
@@ -4372,7 +4639,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="22"/>
-      <c r="B8" s="25"/>
+      <c r="B8" s="34"/>
       <c r="C8" t="s">
         <v>91</v>
       </c>
@@ -4380,9 +4647,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.8" thickBot="1">
+    <row r="9" spans="1:8" ht="17.25" thickBot="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="26"/>
+      <c r="B9" s="35"/>
       <c r="C9" t="s">
         <v>92</v>
       </c>
@@ -4392,13 +4659,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="22"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="30" t="s">
         <v>95</v>
       </c>
       <c r="E10" t="s">
@@ -4410,9 +4677,9 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="22"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="31"/>
       <c r="E11" t="s">
         <v>97</v>
       </c>
@@ -4422,9 +4689,9 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="22"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="31"/>
       <c r="E12" t="s">
         <v>98</v>
       </c>
@@ -4434,9 +4701,9 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="22"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="31"/>
       <c r="E13" t="s">
         <v>99</v>
       </c>
@@ -4444,11 +4711,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.8" thickBot="1">
+    <row r="14" spans="1:8" ht="17.25" thickBot="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="35"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="32"/>
       <c r="E14" t="s">
         <v>100</v>
       </c>
@@ -4458,9 +4725,9 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="22"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="30" t="s">
         <v>101</v>
       </c>
       <c r="E15" t="s">
@@ -4472,9 +4739,9 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="22"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="31"/>
       <c r="E16" t="s">
         <v>103</v>
       </c>
@@ -4484,9 +4751,9 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="22"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="31"/>
       <c r="E17" t="s">
         <v>104</v>
       </c>
@@ -4496,9 +4763,9 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="22"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="31"/>
       <c r="E18" t="s">
         <v>105</v>
       </c>
@@ -4508,9 +4775,9 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="31"/>
       <c r="E19" t="s">
         <v>106</v>
       </c>
@@ -4520,9 +4787,9 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="22"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="31"/>
       <c r="E20" t="s">
         <v>107</v>
       </c>
@@ -4530,11 +4797,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16.8" thickBot="1">
+    <row r="21" spans="1:6" ht="17.25" thickBot="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="35"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="32"/>
       <c r="E21" t="s">
         <v>108</v>
       </c>
@@ -4544,7 +4811,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="22"/>
-      <c r="B22" s="25"/>
+      <c r="B22" s="34"/>
       <c r="C22" t="s">
         <v>109</v>
       </c>
@@ -4552,9 +4819,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16.8" thickBot="1">
+    <row r="23" spans="1:6" ht="17.25" thickBot="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="26"/>
+      <c r="B23" s="35"/>
       <c r="C23" t="s">
         <v>84</v>
       </c>
@@ -4564,7 +4831,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="22"/>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="24" t="s">
         <v>110</v>
       </c>
       <c r="C24" t="s">
@@ -4576,7 +4843,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="22"/>
-      <c r="B25" s="28"/>
+      <c r="B25" s="25"/>
       <c r="C25" t="s">
         <v>111</v>
       </c>
@@ -4586,7 +4853,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="22"/>
-      <c r="B26" s="28"/>
+      <c r="B26" s="25"/>
       <c r="C26" t="s">
         <v>112</v>
       </c>
@@ -4596,7 +4863,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="22"/>
-      <c r="B27" s="28"/>
+      <c r="B27" s="25"/>
       <c r="C27" t="s">
         <v>113</v>
       </c>
@@ -4606,7 +4873,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="22"/>
-      <c r="B28" s="28"/>
+      <c r="B28" s="25"/>
       <c r="C28" t="s">
         <v>114</v>
       </c>
@@ -4616,7 +4883,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="22"/>
-      <c r="B29" s="28"/>
+      <c r="B29" s="25"/>
       <c r="C29" t="s">
         <v>115</v>
       </c>
@@ -4624,9 +4891,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16.8" thickBot="1">
+    <row r="30" spans="1:6" ht="17.25" thickBot="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="29"/>
+      <c r="B30" s="26"/>
       <c r="C30" t="s">
         <v>116</v>
       </c>
@@ -4636,10 +4903,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="22"/>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="27" t="s">
         <v>118</v>
       </c>
       <c r="D31" t="s">
@@ -4649,10 +4916,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="16.8" thickBot="1">
+    <row r="32" spans="1:6" ht="17.25" thickBot="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="31"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="29"/>
       <c r="D32" t="s">
         <v>120</v>
       </c>
@@ -4662,8 +4929,8 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="22"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="30" t="s">
+      <c r="B33" s="25"/>
+      <c r="C33" s="27" t="s">
         <v>121</v>
       </c>
       <c r="D33" t="s">
@@ -4673,10 +4940,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16.8" thickBot="1">
+    <row r="34" spans="1:7" ht="17.25" thickBot="1">
       <c r="A34" s="22"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="31"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="29"/>
       <c r="D34" t="s">
         <v>123</v>
       </c>
@@ -4686,8 +4953,8 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="22"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="30" t="s">
+      <c r="B35" s="25"/>
+      <c r="C35" s="27" t="s">
         <v>124</v>
       </c>
       <c r="D35" t="s">
@@ -4697,10 +4964,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="16.8" thickBot="1">
+    <row r="36" spans="1:7" ht="17.25" thickBot="1">
       <c r="A36" s="22"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="31"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="29"/>
       <c r="D36" t="s">
         <v>123</v>
       </c>
@@ -4789,7 +5056,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="16.8" thickBot="1">
+    <row r="46" spans="1:7" ht="17.25" thickBot="1">
       <c r="A46" s="23"/>
       <c r="B46" t="s">
         <v>134</v>
@@ -4802,7 +5069,7 @@
       <c r="A47" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="24" t="s">
         <v>136</v>
       </c>
       <c r="C47" t="s">
@@ -4817,7 +5084,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="22"/>
-      <c r="B48" s="28"/>
+      <c r="B48" s="25"/>
       <c r="C48" t="s">
         <v>138</v>
       </c>
@@ -4828,9 +5095,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="16.8" thickBot="1">
+    <row r="49" spans="1:7" ht="17.25" thickBot="1">
       <c r="A49" s="22"/>
-      <c r="B49" s="29"/>
+      <c r="B49" s="26"/>
       <c r="C49" t="s">
         <v>139</v>
       </c>
@@ -4843,10 +5110,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="22"/>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="27" t="s">
         <v>141</v>
       </c>
       <c r="D50" t="s">
@@ -4859,10 +5126,10 @@
         <v>260</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="16.8" thickBot="1">
+    <row r="51" spans="1:7" ht="17.25" thickBot="1">
       <c r="A51" s="22"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="31"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="29"/>
       <c r="D51" t="s">
         <v>142</v>
       </c>
@@ -4875,7 +5142,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="22"/>
-      <c r="B52" s="28"/>
+      <c r="B52" s="25"/>
       <c r="C52" t="s">
         <v>138</v>
       </c>
@@ -4888,7 +5155,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="22"/>
-      <c r="B53" s="28"/>
+      <c r="B53" s="25"/>
       <c r="C53" t="s">
         <v>84</v>
       </c>
@@ -4901,7 +5168,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="22"/>
-      <c r="B54" s="28"/>
+      <c r="B54" s="25"/>
       <c r="C54" t="s">
         <v>143</v>
       </c>
@@ -4912,9 +5179,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="16.8" thickBot="1">
+    <row r="55" spans="1:7" ht="17.25" thickBot="1">
       <c r="A55" s="22"/>
-      <c r="B55" s="29"/>
+      <c r="B55" s="26"/>
       <c r="C55" t="s">
         <v>144</v>
       </c>
@@ -4927,7 +5194,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="22"/>
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="24" t="s">
         <v>145</v>
       </c>
       <c r="C56" t="s">
@@ -4942,7 +5209,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="22"/>
-      <c r="B57" s="28"/>
+      <c r="B57" s="25"/>
       <c r="C57" t="s">
         <v>147</v>
       </c>
@@ -4955,7 +5222,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="22"/>
-      <c r="B58" s="28"/>
+      <c r="B58" s="25"/>
       <c r="C58" t="s">
         <v>148</v>
       </c>
@@ -4968,7 +5235,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="22"/>
-      <c r="B59" s="28"/>
+      <c r="B59" s="25"/>
       <c r="C59" t="s">
         <v>149</v>
       </c>
@@ -4981,7 +5248,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="22"/>
-      <c r="B60" s="28"/>
+      <c r="B60" s="25"/>
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -4992,9 +5259,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="16.8" thickBot="1">
+    <row r="61" spans="1:7" ht="17.25" thickBot="1">
       <c r="A61" s="22"/>
-      <c r="B61" s="29"/>
+      <c r="B61" s="26"/>
       <c r="C61" t="s">
         <v>151</v>
       </c>
@@ -5007,7 +5274,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="22"/>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="24" t="s">
         <v>152</v>
       </c>
       <c r="C62" t="s">
@@ -5020,9 +5287,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="16.8" thickBot="1">
+    <row r="63" spans="1:7" ht="17.25" thickBot="1">
       <c r="A63" s="22"/>
-      <c r="B63" s="29"/>
+      <c r="B63" s="26"/>
       <c r="C63" t="s">
         <v>138</v>
       </c>
@@ -5035,10 +5302,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="22"/>
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C64" s="27" t="s">
         <v>155</v>
       </c>
       <c r="D64" t="s">
@@ -5048,10 +5315,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="16.8" thickBot="1">
+    <row r="65" spans="1:7" ht="17.25" thickBot="1">
       <c r="A65" s="22"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="31"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="29"/>
       <c r="D65" t="s">
         <v>156</v>
       </c>
@@ -5061,7 +5328,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="22"/>
-      <c r="B66" s="28"/>
+      <c r="B66" s="25"/>
       <c r="C66" t="s">
         <v>157</v>
       </c>
@@ -5071,7 +5338,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="22"/>
-      <c r="B67" s="28"/>
+      <c r="B67" s="25"/>
       <c r="C67" t="s">
         <v>158</v>
       </c>
@@ -5081,7 +5348,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="22"/>
-      <c r="B68" s="28"/>
+      <c r="B68" s="25"/>
       <c r="C68" t="s">
         <v>159</v>
       </c>
@@ -5091,7 +5358,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="22"/>
-      <c r="B69" s="28"/>
+      <c r="B69" s="25"/>
       <c r="C69" t="s">
         <v>138</v>
       </c>
@@ -5101,7 +5368,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="22"/>
-      <c r="B70" s="28"/>
+      <c r="B70" s="25"/>
       <c r="C70" t="s">
         <v>160</v>
       </c>
@@ -5111,7 +5378,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="22"/>
-      <c r="B71" s="28"/>
+      <c r="B71" s="25"/>
       <c r="C71" t="s">
         <v>161</v>
       </c>
@@ -5121,7 +5388,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="22"/>
-      <c r="B72" s="28"/>
+      <c r="B72" s="25"/>
       <c r="C72" t="s">
         <v>162</v>
       </c>
@@ -5131,7 +5398,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="22"/>
-      <c r="B73" s="28"/>
+      <c r="B73" s="25"/>
       <c r="C73" t="s">
         <v>84</v>
       </c>
@@ -5141,7 +5408,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="22"/>
-      <c r="B74" s="28"/>
+      <c r="B74" s="25"/>
       <c r="C74" t="s">
         <v>163</v>
       </c>
@@ -5151,7 +5418,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="22"/>
-      <c r="B75" s="28"/>
+      <c r="B75" s="25"/>
       <c r="C75" t="s">
         <v>164</v>
       </c>
@@ -5161,7 +5428,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="22"/>
-      <c r="B76" s="28"/>
+      <c r="B76" s="25"/>
       <c r="C76" t="s">
         <v>165</v>
       </c>
@@ -5171,7 +5438,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="22"/>
-      <c r="B77" s="28"/>
+      <c r="B77" s="25"/>
       <c r="C77" t="s">
         <v>166</v>
       </c>
@@ -5179,9 +5446,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="16.8" thickBot="1">
+    <row r="78" spans="1:7" ht="17.25" thickBot="1">
       <c r="A78" s="22"/>
-      <c r="B78" s="29"/>
+      <c r="B78" s="26"/>
       <c r="C78" t="s">
         <v>167</v>
       </c>
@@ -5191,7 +5458,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="22"/>
-      <c r="B79" s="27" t="s">
+      <c r="B79" s="24" t="s">
         <v>168</v>
       </c>
       <c r="C79" t="s">
@@ -5206,7 +5473,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="22"/>
-      <c r="B80" s="28"/>
+      <c r="B80" s="25"/>
       <c r="C80" t="s">
         <v>169</v>
       </c>
@@ -5219,7 +5486,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="22"/>
-      <c r="B81" s="28"/>
+      <c r="B81" s="25"/>
       <c r="C81" t="s">
         <v>170</v>
       </c>
@@ -5232,7 +5499,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="22"/>
-      <c r="B82" s="28"/>
+      <c r="B82" s="25"/>
       <c r="C82" t="s">
         <v>171</v>
       </c>
@@ -5243,9 +5510,9 @@
         <v>266</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="16.8" thickBot="1">
+    <row r="83" spans="1:7" ht="17.25" thickBot="1">
       <c r="A83" s="22"/>
-      <c r="B83" s="29"/>
+      <c r="B83" s="26"/>
       <c r="C83" t="s">
         <v>172</v>
       </c>
@@ -5258,7 +5525,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="22"/>
-      <c r="B84" s="27" t="s">
+      <c r="B84" s="24" t="s">
         <v>173</v>
       </c>
       <c r="C84" t="s">
@@ -5273,7 +5540,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="22"/>
-      <c r="B85" s="28"/>
+      <c r="B85" s="25"/>
       <c r="C85" t="s">
         <v>144</v>
       </c>
@@ -5284,9 +5551,9 @@
         <v>265</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="16.8" thickBot="1">
+    <row r="86" spans="1:7" ht="17.25" thickBot="1">
       <c r="A86" s="22"/>
-      <c r="B86" s="29"/>
+      <c r="B86" s="26"/>
       <c r="C86" t="s">
         <v>172</v>
       </c>
@@ -5296,7 +5563,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="22"/>
-      <c r="B87" s="27" t="s">
+      <c r="B87" s="24" t="s">
         <v>123</v>
       </c>
       <c r="C87" t="s">
@@ -5311,7 +5578,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="22"/>
-      <c r="B88" s="28"/>
+      <c r="B88" s="25"/>
       <c r="C88" t="s">
         <v>138</v>
       </c>
@@ -5324,7 +5591,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="22"/>
-      <c r="B89" s="28"/>
+      <c r="B89" s="25"/>
       <c r="C89" t="s">
         <v>161</v>
       </c>
@@ -5337,7 +5604,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="22"/>
-      <c r="B90" s="28"/>
+      <c r="B90" s="25"/>
       <c r="C90" t="s">
         <v>84</v>
       </c>
@@ -5348,9 +5615,9 @@
         <v>265</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="16.8" thickBot="1">
+    <row r="91" spans="1:7" ht="17.25" thickBot="1">
       <c r="A91" s="22"/>
-      <c r="B91" s="29"/>
+      <c r="B91" s="26"/>
       <c r="C91" t="s">
         <v>172</v>
       </c>
@@ -5363,7 +5630,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="22"/>
-      <c r="B92" s="27" t="s">
+      <c r="B92" s="24" t="s">
         <v>175</v>
       </c>
       <c r="C92" t="s">
@@ -5376,9 +5643,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="16.8" thickBot="1">
+    <row r="93" spans="1:7" ht="17.25" thickBot="1">
       <c r="A93" s="22"/>
-      <c r="B93" s="29"/>
+      <c r="B93" s="26"/>
       <c r="C93" t="s">
         <v>138</v>
       </c>
@@ -5391,7 +5658,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="22"/>
-      <c r="B94" s="27" t="s">
+      <c r="B94" s="24" t="s">
         <v>177</v>
       </c>
       <c r="C94" t="s">
@@ -5404,9 +5671,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="16.8" thickBot="1">
+    <row r="95" spans="1:7" ht="17.25" thickBot="1">
       <c r="A95" s="22"/>
-      <c r="B95" s="29"/>
+      <c r="B95" s="26"/>
       <c r="C95" t="s">
         <v>84</v>
       </c>
@@ -5419,10 +5686,10 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="22"/>
-      <c r="B96" s="27" t="s">
+      <c r="B96" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="C96" s="30" t="s">
+      <c r="C96" s="27" t="s">
         <v>141</v>
       </c>
       <c r="D96" t="s">
@@ -5437,8 +5704,8 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="22"/>
-      <c r="B97" s="28"/>
-      <c r="C97" s="32"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="28"/>
       <c r="D97" t="s">
         <v>178</v>
       </c>
@@ -5451,8 +5718,8 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="22"/>
-      <c r="B98" s="28"/>
-      <c r="C98" s="32"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="28"/>
       <c r="D98" t="s">
         <v>179</v>
       </c>
@@ -5465,8 +5732,8 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="22"/>
-      <c r="B99" s="28"/>
-      <c r="C99" s="32"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="28"/>
       <c r="D99" t="s">
         <v>180</v>
       </c>
@@ -5479,8 +5746,8 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="22"/>
-      <c r="B100" s="28"/>
-      <c r="C100" s="32"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="28"/>
       <c r="D100" t="s">
         <v>181</v>
       </c>
@@ -5493,8 +5760,8 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="22"/>
-      <c r="B101" s="28"/>
-      <c r="C101" s="32"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="28"/>
       <c r="D101" t="s">
         <v>182</v>
       </c>
@@ -5507,8 +5774,8 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="22"/>
-      <c r="B102" s="28"/>
-      <c r="C102" s="32"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="28"/>
       <c r="D102" t="s">
         <v>183</v>
       </c>
@@ -5521,8 +5788,8 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="22"/>
-      <c r="B103" s="28"/>
-      <c r="C103" s="32"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="28"/>
       <c r="D103" t="s">
         <v>184</v>
       </c>
@@ -5535,8 +5802,8 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="22"/>
-      <c r="B104" s="28"/>
-      <c r="C104" s="32"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="28"/>
       <c r="D104" t="s">
         <v>185</v>
       </c>
@@ -5549,8 +5816,8 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="22"/>
-      <c r="B105" s="28"/>
-      <c r="C105" s="32"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="28"/>
       <c r="D105" t="s">
         <v>186</v>
       </c>
@@ -5563,8 +5830,8 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="22"/>
-      <c r="B106" s="28"/>
-      <c r="C106" s="32"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="28"/>
       <c r="D106" t="s">
         <v>187</v>
       </c>
@@ -5577,8 +5844,8 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="22"/>
-      <c r="B107" s="28"/>
-      <c r="C107" s="32"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="28"/>
       <c r="D107" t="s">
         <v>188</v>
       </c>
@@ -5591,8 +5858,8 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="22"/>
-      <c r="B108" s="28"/>
-      <c r="C108" s="32"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="28"/>
       <c r="D108" t="s">
         <v>189</v>
       </c>
@@ -5603,10 +5870,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="16.8" thickBot="1">
+    <row r="109" spans="1:7" ht="17.25" thickBot="1">
       <c r="A109" s="22"/>
-      <c r="B109" s="28"/>
-      <c r="C109" s="31"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="29"/>
       <c r="D109" t="s">
         <v>190</v>
       </c>
@@ -5619,7 +5886,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="22"/>
-      <c r="B110" s="28"/>
+      <c r="B110" s="25"/>
       <c r="C110" t="s">
         <v>138</v>
       </c>
@@ -5632,7 +5899,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="22"/>
-      <c r="B111" s="28"/>
+      <c r="B111" s="25"/>
       <c r="C111" t="s">
         <v>161</v>
       </c>
@@ -5645,7 +5912,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="22"/>
-      <c r="B112" s="28"/>
+      <c r="B112" s="25"/>
       <c r="C112" t="s">
         <v>191</v>
       </c>
@@ -5658,7 +5925,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="22"/>
-      <c r="B113" s="28"/>
+      <c r="B113" s="25"/>
       <c r="C113" t="s">
         <v>143</v>
       </c>
@@ -5669,9 +5936,9 @@
         <v>265</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="16.8" thickBot="1">
+    <row r="114" spans="1:7" ht="17.25" thickBot="1">
       <c r="A114" s="22"/>
-      <c r="B114" s="29"/>
+      <c r="B114" s="26"/>
       <c r="C114" t="s">
         <v>192</v>
       </c>
@@ -5826,7 +6093,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="16.8" thickBot="1">
+    <row r="127" spans="1:7" ht="17.25" thickBot="1">
       <c r="A127" s="23"/>
       <c r="B127" t="s">
         <v>203</v>
@@ -6519,7 +6786,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="16.8" thickBot="1">
+    <row r="190" spans="1:7" ht="17.25" thickBot="1">
       <c r="A190" s="23"/>
       <c r="B190" t="s">
         <v>144</v>
@@ -6535,10 +6802,10 @@
       <c r="A191" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="B191" s="27" t="s">
+      <c r="B191" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="C191" s="30" t="s">
+      <c r="C191" s="27" t="s">
         <v>232</v>
       </c>
       <c r="D191" t="s">
@@ -6550,8 +6817,8 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="22"/>
-      <c r="B192" s="28"/>
-      <c r="C192" s="32"/>
+      <c r="B192" s="25"/>
+      <c r="C192" s="28"/>
       <c r="D192" t="s">
         <v>234</v>
       </c>
@@ -6561,8 +6828,8 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="22"/>
-      <c r="B193" s="28"/>
-      <c r="C193" s="32"/>
+      <c r="B193" s="25"/>
+      <c r="C193" s="28"/>
       <c r="D193" t="s">
         <v>235</v>
       </c>
@@ -6572,8 +6839,8 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="22"/>
-      <c r="B194" s="28"/>
-      <c r="C194" s="32"/>
+      <c r="B194" s="25"/>
+      <c r="C194" s="28"/>
       <c r="D194" t="s">
         <v>236</v>
       </c>
@@ -6583,8 +6850,8 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="22"/>
-      <c r="B195" s="28"/>
-      <c r="C195" s="32"/>
+      <c r="B195" s="25"/>
+      <c r="C195" s="28"/>
       <c r="D195" t="s">
         <v>237</v>
       </c>
@@ -6594,8 +6861,8 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="22"/>
-      <c r="B196" s="28"/>
-      <c r="C196" s="32"/>
+      <c r="B196" s="25"/>
+      <c r="C196" s="28"/>
       <c r="D196" t="s">
         <v>238</v>
       </c>
@@ -6605,8 +6872,8 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="22"/>
-      <c r="B197" s="28"/>
-      <c r="C197" s="32"/>
+      <c r="B197" s="25"/>
+      <c r="C197" s="28"/>
       <c r="D197" t="s">
         <v>221</v>
       </c>
@@ -6616,8 +6883,8 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="22"/>
-      <c r="B198" s="28"/>
-      <c r="C198" s="32"/>
+      <c r="B198" s="25"/>
+      <c r="C198" s="28"/>
       <c r="D198" t="s">
         <v>239</v>
       </c>
@@ -6627,8 +6894,8 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="22"/>
-      <c r="B199" s="28"/>
-      <c r="C199" s="32"/>
+      <c r="B199" s="25"/>
+      <c r="C199" s="28"/>
       <c r="D199" t="s">
         <v>240</v>
       </c>
@@ -6636,10 +6903,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="16.8" thickBot="1">
+    <row r="200" spans="1:8" ht="17.25" thickBot="1">
       <c r="A200" s="22"/>
-      <c r="B200" s="28"/>
-      <c r="C200" s="31"/>
+      <c r="B200" s="25"/>
+      <c r="C200" s="29"/>
       <c r="D200" t="s">
         <v>241</v>
       </c>
@@ -6649,7 +6916,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="22"/>
-      <c r="B201" s="28"/>
+      <c r="B201" s="25"/>
       <c r="C201" t="s">
         <v>242</v>
       </c>
@@ -6659,7 +6926,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="22"/>
-      <c r="B202" s="28"/>
+      <c r="B202" s="25"/>
       <c r="C202" t="s">
         <v>84</v>
       </c>
@@ -6669,7 +6936,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="22"/>
-      <c r="B203" s="28"/>
+      <c r="B203" s="25"/>
       <c r="C203" t="s">
         <v>243</v>
       </c>
@@ -6677,9 +6944,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="16.8" thickBot="1">
+    <row r="204" spans="1:8" ht="17.25" thickBot="1">
       <c r="A204" s="22"/>
-      <c r="B204" s="29"/>
+      <c r="B204" s="26"/>
       <c r="C204" t="s">
         <v>244</v>
       </c>
@@ -6689,10 +6956,10 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="22"/>
-      <c r="B205" s="27" t="s">
+      <c r="B205" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="C205" s="30" t="s">
+      <c r="C205" s="27" t="s">
         <v>218</v>
       </c>
       <c r="D205" t="s">
@@ -6707,8 +6974,8 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="22"/>
-      <c r="B206" s="28"/>
-      <c r="C206" s="32"/>
+      <c r="B206" s="25"/>
+      <c r="C206" s="28"/>
       <c r="D206" t="s">
         <v>246</v>
       </c>
@@ -6719,10 +6986,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="16.8" thickBot="1">
+    <row r="207" spans="1:8" ht="17.25" thickBot="1">
       <c r="A207" s="22"/>
-      <c r="B207" s="28"/>
-      <c r="C207" s="31"/>
+      <c r="B207" s="25"/>
+      <c r="C207" s="29"/>
       <c r="D207" t="s">
         <v>221</v>
       </c>
@@ -6735,7 +7002,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="22"/>
-      <c r="B208" s="28"/>
+      <c r="B208" s="25"/>
       <c r="C208" t="s">
         <v>206</v>
       </c>
@@ -6751,7 +7018,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="22"/>
-      <c r="B209" s="28"/>
+      <c r="B209" s="25"/>
       <c r="C209" t="s">
         <v>224</v>
       </c>
@@ -6765,9 +7032,9 @@
         <v>277</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="16.8" thickBot="1">
+    <row r="210" spans="1:8" ht="17.25" thickBot="1">
       <c r="A210" s="22"/>
-      <c r="B210" s="29"/>
+      <c r="B210" s="26"/>
       <c r="C210" t="s">
         <v>228</v>
       </c>
@@ -6978,7 +7245,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="16.8" thickBot="1">
+    <row r="225" spans="1:8" ht="17.25" thickBot="1">
       <c r="A225" s="23"/>
       <c r="B225" t="s">
         <v>230</v>
@@ -7019,7 +7286,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="16.8" thickBot="1">
+    <row r="228" spans="1:8" ht="17.25" thickBot="1">
       <c r="A228" s="23"/>
       <c r="B228" t="s">
         <v>256</v>
@@ -7041,17 +7308,19 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A226:A228"/>
-    <mergeCell ref="A128:A190"/>
-    <mergeCell ref="A191:A225"/>
-    <mergeCell ref="B191:B204"/>
-    <mergeCell ref="B205:B210"/>
-    <mergeCell ref="C191:C200"/>
-    <mergeCell ref="C205:C207"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B114"/>
+    <mergeCell ref="A1:A46"/>
+    <mergeCell ref="B1:B9"/>
+    <mergeCell ref="B10:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A47:A127"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B78"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B84:B86"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="C96:C109"/>
@@ -7061,19 +7330,17 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A47:A127"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B78"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="A1:A46"/>
-    <mergeCell ref="B1:B9"/>
-    <mergeCell ref="B10:B23"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C191:C200"/>
+    <mergeCell ref="C205:C207"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B114"/>
+    <mergeCell ref="A226:A228"/>
+    <mergeCell ref="A128:A190"/>
+    <mergeCell ref="A191:A225"/>
+    <mergeCell ref="B191:B204"/>
+    <mergeCell ref="B205:B210"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/開發文件.xlsx
+++ b/docs/開發文件.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\YDWE1.25.10\Creation\Mod\The_Tilted_Clock_Tower\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050D8AFA-43A1-4223-A053-1AF2A0A5903A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5CC80A-83E7-436F-B135-114E09259465}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
   </bookViews>
@@ -1670,6 +1670,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1682,10 +1691,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1695,15 +1704,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3128,6 +3128,130 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>177166</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>203836</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="矩形: 圓角 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE141D06-CD9A-4398-BC61-811C63AD6F44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2920366" y="4912995"/>
+          <a:ext cx="1398270" cy="634365"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>幾何形狀的插槽</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>148591</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>175261</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>165735</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="矩形: 圓角 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2238B51-ECEA-4D64-93EF-68E9A7AD6611}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3577591" y="6027420"/>
+          <a:ext cx="1398270" cy="634365"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>附魔</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4500,7 +4624,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4564,7 +4688,7 @@
       <c r="A1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="24" t="s">
         <v>83</v>
       </c>
       <c r="C1" t="s">
@@ -4579,7 +4703,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="22"/>
-      <c r="B2" s="34"/>
+      <c r="B2" s="25"/>
       <c r="C2" t="s">
         <v>85</v>
       </c>
@@ -4589,7 +4713,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="22"/>
-      <c r="B3" s="34"/>
+      <c r="B3" s="25"/>
       <c r="C3" t="s">
         <v>86</v>
       </c>
@@ -4599,7 +4723,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="22"/>
-      <c r="B4" s="34"/>
+      <c r="B4" s="25"/>
       <c r="C4" t="s">
         <v>87</v>
       </c>
@@ -4609,7 +4733,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="22"/>
-      <c r="B5" s="34"/>
+      <c r="B5" s="25"/>
       <c r="C5" t="s">
         <v>88</v>
       </c>
@@ -4619,7 +4743,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="22"/>
-      <c r="B6" s="34"/>
+      <c r="B6" s="25"/>
       <c r="C6" t="s">
         <v>89</v>
       </c>
@@ -4629,7 +4753,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="22"/>
-      <c r="B7" s="34"/>
+      <c r="B7" s="25"/>
       <c r="C7" t="s">
         <v>90</v>
       </c>
@@ -4639,7 +4763,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="22"/>
-      <c r="B8" s="34"/>
+      <c r="B8" s="25"/>
       <c r="C8" t="s">
         <v>91</v>
       </c>
@@ -4649,7 +4773,7 @@
     </row>
     <row r="9" spans="1:8" ht="17.25" thickBot="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="35"/>
+      <c r="B9" s="26"/>
       <c r="C9" t="s">
         <v>92</v>
       </c>
@@ -4659,13 +4783,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="22"/>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="33" t="s">
         <v>95</v>
       </c>
       <c r="E10" t="s">
@@ -4677,9 +4801,9 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="22"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="34"/>
       <c r="E11" t="s">
         <v>97</v>
       </c>
@@ -4689,9 +4813,9 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="22"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="31"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="34"/>
       <c r="E12" t="s">
         <v>98</v>
       </c>
@@ -4701,9 +4825,9 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="22"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="34"/>
       <c r="E13" t="s">
         <v>99</v>
       </c>
@@ -4713,9 +4837,9 @@
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="32"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="35"/>
       <c r="E14" t="s">
         <v>100</v>
       </c>
@@ -4725,9 +4849,9 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="22"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="30" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33" t="s">
         <v>101</v>
       </c>
       <c r="E15" t="s">
@@ -4739,9 +4863,9 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="22"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="31"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="34"/>
       <c r="E16" t="s">
         <v>103</v>
       </c>
@@ -4751,9 +4875,9 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="22"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="31"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="34"/>
       <c r="E17" t="s">
         <v>104</v>
       </c>
@@ -4763,9 +4887,9 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="22"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="31"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="34"/>
       <c r="E18" t="s">
         <v>105</v>
       </c>
@@ -4775,9 +4899,9 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="31"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="34"/>
       <c r="E19" t="s">
         <v>106</v>
       </c>
@@ -4787,9 +4911,9 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="22"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="31"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="34"/>
       <c r="E20" t="s">
         <v>107</v>
       </c>
@@ -4799,9 +4923,9 @@
     </row>
     <row r="21" spans="1:6" ht="17.25" thickBot="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="32"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="35"/>
       <c r="E21" t="s">
         <v>108</v>
       </c>
@@ -4811,7 +4935,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="22"/>
-      <c r="B22" s="34"/>
+      <c r="B22" s="25"/>
       <c r="C22" t="s">
         <v>109</v>
       </c>
@@ -4821,7 +4945,7 @@
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="35"/>
+      <c r="B23" s="26"/>
       <c r="C23" t="s">
         <v>84</v>
       </c>
@@ -4831,7 +4955,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="22"/>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="27" t="s">
         <v>110</v>
       </c>
       <c r="C24" t="s">
@@ -4843,7 +4967,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="22"/>
-      <c r="B25" s="25"/>
+      <c r="B25" s="28"/>
       <c r="C25" t="s">
         <v>111</v>
       </c>
@@ -4853,7 +4977,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="22"/>
-      <c r="B26" s="25"/>
+      <c r="B26" s="28"/>
       <c r="C26" t="s">
         <v>112</v>
       </c>
@@ -4863,7 +4987,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="22"/>
-      <c r="B27" s="25"/>
+      <c r="B27" s="28"/>
       <c r="C27" t="s">
         <v>113</v>
       </c>
@@ -4873,7 +4997,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="22"/>
-      <c r="B28" s="25"/>
+      <c r="B28" s="28"/>
       <c r="C28" t="s">
         <v>114</v>
       </c>
@@ -4883,7 +5007,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="22"/>
-      <c r="B29" s="25"/>
+      <c r="B29" s="28"/>
       <c r="C29" t="s">
         <v>115</v>
       </c>
@@ -4893,7 +5017,7 @@
     </row>
     <row r="30" spans="1:6" ht="17.25" thickBot="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="26"/>
+      <c r="B30" s="29"/>
       <c r="C30" t="s">
         <v>116</v>
       </c>
@@ -4903,10 +5027,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="22"/>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="30" t="s">
         <v>118</v>
       </c>
       <c r="D31" t="s">
@@ -4918,8 +5042,8 @@
     </row>
     <row r="32" spans="1:6" ht="17.25" thickBot="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="29"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="31"/>
       <c r="D32" t="s">
         <v>120</v>
       </c>
@@ -4929,8 +5053,8 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="22"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="27" t="s">
+      <c r="B33" s="28"/>
+      <c r="C33" s="30" t="s">
         <v>121</v>
       </c>
       <c r="D33" t="s">
@@ -4942,8 +5066,8 @@
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1">
       <c r="A34" s="22"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="29"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="31"/>
       <c r="D34" t="s">
         <v>123</v>
       </c>
@@ -4953,8 +5077,8 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="22"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="27" t="s">
+      <c r="B35" s="28"/>
+      <c r="C35" s="30" t="s">
         <v>124</v>
       </c>
       <c r="D35" t="s">
@@ -4966,8 +5090,8 @@
     </row>
     <row r="36" spans="1:7" ht="17.25" thickBot="1">
       <c r="A36" s="22"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="31"/>
       <c r="D36" t="s">
         <v>123</v>
       </c>
@@ -5069,7 +5193,7 @@
       <c r="A47" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="27" t="s">
         <v>136</v>
       </c>
       <c r="C47" t="s">
@@ -5084,7 +5208,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="22"/>
-      <c r="B48" s="25"/>
+      <c r="B48" s="28"/>
       <c r="C48" t="s">
         <v>138</v>
       </c>
@@ -5097,7 +5221,7 @@
     </row>
     <row r="49" spans="1:7" ht="17.25" thickBot="1">
       <c r="A49" s="22"/>
-      <c r="B49" s="26"/>
+      <c r="B49" s="29"/>
       <c r="C49" t="s">
         <v>139</v>
       </c>
@@ -5110,10 +5234,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="22"/>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="30" t="s">
         <v>141</v>
       </c>
       <c r="D50" t="s">
@@ -5128,8 +5252,8 @@
     </row>
     <row r="51" spans="1:7" ht="17.25" thickBot="1">
       <c r="A51" s="22"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="29"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="31"/>
       <c r="D51" t="s">
         <v>142</v>
       </c>
@@ -5142,7 +5266,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="22"/>
-      <c r="B52" s="25"/>
+      <c r="B52" s="28"/>
       <c r="C52" t="s">
         <v>138</v>
       </c>
@@ -5155,7 +5279,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="22"/>
-      <c r="B53" s="25"/>
+      <c r="B53" s="28"/>
       <c r="C53" t="s">
         <v>84</v>
       </c>
@@ -5168,7 +5292,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="22"/>
-      <c r="B54" s="25"/>
+      <c r="B54" s="28"/>
       <c r="C54" t="s">
         <v>143</v>
       </c>
@@ -5181,7 +5305,7 @@
     </row>
     <row r="55" spans="1:7" ht="17.25" thickBot="1">
       <c r="A55" s="22"/>
-      <c r="B55" s="26"/>
+      <c r="B55" s="29"/>
       <c r="C55" t="s">
         <v>144</v>
       </c>
@@ -5194,7 +5318,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="22"/>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="27" t="s">
         <v>145</v>
       </c>
       <c r="C56" t="s">
@@ -5209,7 +5333,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="22"/>
-      <c r="B57" s="25"/>
+      <c r="B57" s="28"/>
       <c r="C57" t="s">
         <v>147</v>
       </c>
@@ -5222,7 +5346,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="22"/>
-      <c r="B58" s="25"/>
+      <c r="B58" s="28"/>
       <c r="C58" t="s">
         <v>148</v>
       </c>
@@ -5235,7 +5359,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="22"/>
-      <c r="B59" s="25"/>
+      <c r="B59" s="28"/>
       <c r="C59" t="s">
         <v>149</v>
       </c>
@@ -5248,7 +5372,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="22"/>
-      <c r="B60" s="25"/>
+      <c r="B60" s="28"/>
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -5261,7 +5385,7 @@
     </row>
     <row r="61" spans="1:7" ht="17.25" thickBot="1">
       <c r="A61" s="22"/>
-      <c r="B61" s="26"/>
+      <c r="B61" s="29"/>
       <c r="C61" t="s">
         <v>151</v>
       </c>
@@ -5274,7 +5398,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="22"/>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="27" t="s">
         <v>152</v>
       </c>
       <c r="C62" t="s">
@@ -5289,7 +5413,7 @@
     </row>
     <row r="63" spans="1:7" ht="17.25" thickBot="1">
       <c r="A63" s="22"/>
-      <c r="B63" s="26"/>
+      <c r="B63" s="29"/>
       <c r="C63" t="s">
         <v>138</v>
       </c>
@@ -5302,10 +5426,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="22"/>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="30" t="s">
         <v>155</v>
       </c>
       <c r="D64" t="s">
@@ -5317,8 +5441,8 @@
     </row>
     <row r="65" spans="1:7" ht="17.25" thickBot="1">
       <c r="A65" s="22"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="29"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="31"/>
       <c r="D65" t="s">
         <v>156</v>
       </c>
@@ -5328,7 +5452,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="22"/>
-      <c r="B66" s="25"/>
+      <c r="B66" s="28"/>
       <c r="C66" t="s">
         <v>157</v>
       </c>
@@ -5338,7 +5462,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="22"/>
-      <c r="B67" s="25"/>
+      <c r="B67" s="28"/>
       <c r="C67" t="s">
         <v>158</v>
       </c>
@@ -5348,7 +5472,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="22"/>
-      <c r="B68" s="25"/>
+      <c r="B68" s="28"/>
       <c r="C68" t="s">
         <v>159</v>
       </c>
@@ -5358,7 +5482,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="22"/>
-      <c r="B69" s="25"/>
+      <c r="B69" s="28"/>
       <c r="C69" t="s">
         <v>138</v>
       </c>
@@ -5368,7 +5492,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="22"/>
-      <c r="B70" s="25"/>
+      <c r="B70" s="28"/>
       <c r="C70" t="s">
         <v>160</v>
       </c>
@@ -5378,7 +5502,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="22"/>
-      <c r="B71" s="25"/>
+      <c r="B71" s="28"/>
       <c r="C71" t="s">
         <v>161</v>
       </c>
@@ -5388,7 +5512,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="22"/>
-      <c r="B72" s="25"/>
+      <c r="B72" s="28"/>
       <c r="C72" t="s">
         <v>162</v>
       </c>
@@ -5398,7 +5522,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="22"/>
-      <c r="B73" s="25"/>
+      <c r="B73" s="28"/>
       <c r="C73" t="s">
         <v>84</v>
       </c>
@@ -5408,7 +5532,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="22"/>
-      <c r="B74" s="25"/>
+      <c r="B74" s="28"/>
       <c r="C74" t="s">
         <v>163</v>
       </c>
@@ -5418,7 +5542,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="22"/>
-      <c r="B75" s="25"/>
+      <c r="B75" s="28"/>
       <c r="C75" t="s">
         <v>164</v>
       </c>
@@ -5428,7 +5552,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="22"/>
-      <c r="B76" s="25"/>
+      <c r="B76" s="28"/>
       <c r="C76" t="s">
         <v>165</v>
       </c>
@@ -5438,7 +5562,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="22"/>
-      <c r="B77" s="25"/>
+      <c r="B77" s="28"/>
       <c r="C77" t="s">
         <v>166</v>
       </c>
@@ -5448,7 +5572,7 @@
     </row>
     <row r="78" spans="1:7" ht="17.25" thickBot="1">
       <c r="A78" s="22"/>
-      <c r="B78" s="26"/>
+      <c r="B78" s="29"/>
       <c r="C78" t="s">
         <v>167</v>
       </c>
@@ -5458,7 +5582,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="22"/>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="27" t="s">
         <v>168</v>
       </c>
       <c r="C79" t="s">
@@ -5473,7 +5597,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="22"/>
-      <c r="B80" s="25"/>
+      <c r="B80" s="28"/>
       <c r="C80" t="s">
         <v>169</v>
       </c>
@@ -5486,7 +5610,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="22"/>
-      <c r="B81" s="25"/>
+      <c r="B81" s="28"/>
       <c r="C81" t="s">
         <v>170</v>
       </c>
@@ -5499,7 +5623,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="22"/>
-      <c r="B82" s="25"/>
+      <c r="B82" s="28"/>
       <c r="C82" t="s">
         <v>171</v>
       </c>
@@ -5512,7 +5636,7 @@
     </row>
     <row r="83" spans="1:7" ht="17.25" thickBot="1">
       <c r="A83" s="22"/>
-      <c r="B83" s="26"/>
+      <c r="B83" s="29"/>
       <c r="C83" t="s">
         <v>172</v>
       </c>
@@ -5525,7 +5649,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="22"/>
-      <c r="B84" s="24" t="s">
+      <c r="B84" s="27" t="s">
         <v>173</v>
       </c>
       <c r="C84" t="s">
@@ -5540,7 +5664,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="22"/>
-      <c r="B85" s="25"/>
+      <c r="B85" s="28"/>
       <c r="C85" t="s">
         <v>144</v>
       </c>
@@ -5553,7 +5677,7 @@
     </row>
     <row r="86" spans="1:7" ht="17.25" thickBot="1">
       <c r="A86" s="22"/>
-      <c r="B86" s="26"/>
+      <c r="B86" s="29"/>
       <c r="C86" t="s">
         <v>172</v>
       </c>
@@ -5563,7 +5687,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="22"/>
-      <c r="B87" s="24" t="s">
+      <c r="B87" s="27" t="s">
         <v>123</v>
       </c>
       <c r="C87" t="s">
@@ -5578,7 +5702,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="22"/>
-      <c r="B88" s="25"/>
+      <c r="B88" s="28"/>
       <c r="C88" t="s">
         <v>138</v>
       </c>
@@ -5591,7 +5715,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="22"/>
-      <c r="B89" s="25"/>
+      <c r="B89" s="28"/>
       <c r="C89" t="s">
         <v>161</v>
       </c>
@@ -5604,7 +5728,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="22"/>
-      <c r="B90" s="25"/>
+      <c r="B90" s="28"/>
       <c r="C90" t="s">
         <v>84</v>
       </c>
@@ -5617,7 +5741,7 @@
     </row>
     <row r="91" spans="1:7" ht="17.25" thickBot="1">
       <c r="A91" s="22"/>
-      <c r="B91" s="26"/>
+      <c r="B91" s="29"/>
       <c r="C91" t="s">
         <v>172</v>
       </c>
@@ -5630,7 +5754,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="22"/>
-      <c r="B92" s="24" t="s">
+      <c r="B92" s="27" t="s">
         <v>175</v>
       </c>
       <c r="C92" t="s">
@@ -5645,7 +5769,7 @@
     </row>
     <row r="93" spans="1:7" ht="17.25" thickBot="1">
       <c r="A93" s="22"/>
-      <c r="B93" s="26"/>
+      <c r="B93" s="29"/>
       <c r="C93" t="s">
         <v>138</v>
       </c>
@@ -5658,7 +5782,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="22"/>
-      <c r="B94" s="24" t="s">
+      <c r="B94" s="27" t="s">
         <v>177</v>
       </c>
       <c r="C94" t="s">
@@ -5673,7 +5797,7 @@
     </row>
     <row r="95" spans="1:7" ht="17.25" thickBot="1">
       <c r="A95" s="22"/>
-      <c r="B95" s="26"/>
+      <c r="B95" s="29"/>
       <c r="C95" t="s">
         <v>84</v>
       </c>
@@ -5686,10 +5810,10 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="22"/>
-      <c r="B96" s="24" t="s">
+      <c r="B96" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C96" s="27" t="s">
+      <c r="C96" s="30" t="s">
         <v>141</v>
       </c>
       <c r="D96" t="s">
@@ -5704,8 +5828,8 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="22"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="28"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="32"/>
       <c r="D97" t="s">
         <v>178</v>
       </c>
@@ -5718,8 +5842,8 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="22"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="28"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="32"/>
       <c r="D98" t="s">
         <v>179</v>
       </c>
@@ -5732,8 +5856,8 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="22"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="28"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="32"/>
       <c r="D99" t="s">
         <v>180</v>
       </c>
@@ -5746,8 +5870,8 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="22"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="28"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="32"/>
       <c r="D100" t="s">
         <v>181</v>
       </c>
@@ -5760,8 +5884,8 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="22"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="28"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="32"/>
       <c r="D101" t="s">
         <v>182</v>
       </c>
@@ -5774,8 +5898,8 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="22"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="28"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="32"/>
       <c r="D102" t="s">
         <v>183</v>
       </c>
@@ -5788,8 +5912,8 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="22"/>
-      <c r="B103" s="25"/>
-      <c r="C103" s="28"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="32"/>
       <c r="D103" t="s">
         <v>184</v>
       </c>
@@ -5802,8 +5926,8 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="22"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="28"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="32"/>
       <c r="D104" t="s">
         <v>185</v>
       </c>
@@ -5816,8 +5940,8 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="22"/>
-      <c r="B105" s="25"/>
-      <c r="C105" s="28"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="32"/>
       <c r="D105" t="s">
         <v>186</v>
       </c>
@@ -5830,8 +5954,8 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="22"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="28"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="32"/>
       <c r="D106" t="s">
         <v>187</v>
       </c>
@@ -5844,8 +5968,8 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="22"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="28"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="32"/>
       <c r="D107" t="s">
         <v>188</v>
       </c>
@@ -5858,8 +5982,8 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="22"/>
-      <c r="B108" s="25"/>
-      <c r="C108" s="28"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="32"/>
       <c r="D108" t="s">
         <v>189</v>
       </c>
@@ -5872,8 +5996,8 @@
     </row>
     <row r="109" spans="1:7" ht="17.25" thickBot="1">
       <c r="A109" s="22"/>
-      <c r="B109" s="25"/>
-      <c r="C109" s="29"/>
+      <c r="B109" s="28"/>
+      <c r="C109" s="31"/>
       <c r="D109" t="s">
         <v>190</v>
       </c>
@@ -5886,7 +6010,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="22"/>
-      <c r="B110" s="25"/>
+      <c r="B110" s="28"/>
       <c r="C110" t="s">
         <v>138</v>
       </c>
@@ -5899,7 +6023,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="22"/>
-      <c r="B111" s="25"/>
+      <c r="B111" s="28"/>
       <c r="C111" t="s">
         <v>161</v>
       </c>
@@ -5912,7 +6036,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="22"/>
-      <c r="B112" s="25"/>
+      <c r="B112" s="28"/>
       <c r="C112" t="s">
         <v>191</v>
       </c>
@@ -5925,7 +6049,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="22"/>
-      <c r="B113" s="25"/>
+      <c r="B113" s="28"/>
       <c r="C113" t="s">
         <v>143</v>
       </c>
@@ -5938,7 +6062,7 @@
     </row>
     <row r="114" spans="1:7" ht="17.25" thickBot="1">
       <c r="A114" s="22"/>
-      <c r="B114" s="26"/>
+      <c r="B114" s="29"/>
       <c r="C114" t="s">
         <v>192</v>
       </c>
@@ -6802,10 +6926,10 @@
       <c r="A191" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="B191" s="24" t="s">
+      <c r="B191" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="C191" s="27" t="s">
+      <c r="C191" s="30" t="s">
         <v>232</v>
       </c>
       <c r="D191" t="s">
@@ -6817,8 +6941,8 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="22"/>
-      <c r="B192" s="25"/>
-      <c r="C192" s="28"/>
+      <c r="B192" s="28"/>
+      <c r="C192" s="32"/>
       <c r="D192" t="s">
         <v>234</v>
       </c>
@@ -6828,8 +6952,8 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="22"/>
-      <c r="B193" s="25"/>
-      <c r="C193" s="28"/>
+      <c r="B193" s="28"/>
+      <c r="C193" s="32"/>
       <c r="D193" t="s">
         <v>235</v>
       </c>
@@ -6839,8 +6963,8 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="22"/>
-      <c r="B194" s="25"/>
-      <c r="C194" s="28"/>
+      <c r="B194" s="28"/>
+      <c r="C194" s="32"/>
       <c r="D194" t="s">
         <v>236</v>
       </c>
@@ -6850,8 +6974,8 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="22"/>
-      <c r="B195" s="25"/>
-      <c r="C195" s="28"/>
+      <c r="B195" s="28"/>
+      <c r="C195" s="32"/>
       <c r="D195" t="s">
         <v>237</v>
       </c>
@@ -6861,8 +6985,8 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="22"/>
-      <c r="B196" s="25"/>
-      <c r="C196" s="28"/>
+      <c r="B196" s="28"/>
+      <c r="C196" s="32"/>
       <c r="D196" t="s">
         <v>238</v>
       </c>
@@ -6872,8 +6996,8 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="22"/>
-      <c r="B197" s="25"/>
-      <c r="C197" s="28"/>
+      <c r="B197" s="28"/>
+      <c r="C197" s="32"/>
       <c r="D197" t="s">
         <v>221</v>
       </c>
@@ -6883,8 +7007,8 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="22"/>
-      <c r="B198" s="25"/>
-      <c r="C198" s="28"/>
+      <c r="B198" s="28"/>
+      <c r="C198" s="32"/>
       <c r="D198" t="s">
         <v>239</v>
       </c>
@@ -6894,8 +7018,8 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="22"/>
-      <c r="B199" s="25"/>
-      <c r="C199" s="28"/>
+      <c r="B199" s="28"/>
+      <c r="C199" s="32"/>
       <c r="D199" t="s">
         <v>240</v>
       </c>
@@ -6905,8 +7029,8 @@
     </row>
     <row r="200" spans="1:8" ht="17.25" thickBot="1">
       <c r="A200" s="22"/>
-      <c r="B200" s="25"/>
-      <c r="C200" s="29"/>
+      <c r="B200" s="28"/>
+      <c r="C200" s="31"/>
       <c r="D200" t="s">
         <v>241</v>
       </c>
@@ -6916,7 +7040,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="22"/>
-      <c r="B201" s="25"/>
+      <c r="B201" s="28"/>
       <c r="C201" t="s">
         <v>242</v>
       </c>
@@ -6926,7 +7050,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="22"/>
-      <c r="B202" s="25"/>
+      <c r="B202" s="28"/>
       <c r="C202" t="s">
         <v>84</v>
       </c>
@@ -6936,7 +7060,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="22"/>
-      <c r="B203" s="25"/>
+      <c r="B203" s="28"/>
       <c r="C203" t="s">
         <v>243</v>
       </c>
@@ -6946,7 +7070,7 @@
     </row>
     <row r="204" spans="1:8" ht="17.25" thickBot="1">
       <c r="A204" s="22"/>
-      <c r="B204" s="26"/>
+      <c r="B204" s="29"/>
       <c r="C204" t="s">
         <v>244</v>
       </c>
@@ -6956,10 +7080,10 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="22"/>
-      <c r="B205" s="24" t="s">
+      <c r="B205" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="C205" s="27" t="s">
+      <c r="C205" s="30" t="s">
         <v>218</v>
       </c>
       <c r="D205" t="s">
@@ -6974,8 +7098,8 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="22"/>
-      <c r="B206" s="25"/>
-      <c r="C206" s="28"/>
+      <c r="B206" s="28"/>
+      <c r="C206" s="32"/>
       <c r="D206" t="s">
         <v>246</v>
       </c>
@@ -6988,8 +7112,8 @@
     </row>
     <row r="207" spans="1:8" ht="17.25" thickBot="1">
       <c r="A207" s="22"/>
-      <c r="B207" s="25"/>
-      <c r="C207" s="29"/>
+      <c r="B207" s="28"/>
+      <c r="C207" s="31"/>
       <c r="D207" t="s">
         <v>221</v>
       </c>
@@ -7002,7 +7126,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="22"/>
-      <c r="B208" s="25"/>
+      <c r="B208" s="28"/>
       <c r="C208" t="s">
         <v>206</v>
       </c>
@@ -7018,7 +7142,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="22"/>
-      <c r="B209" s="25"/>
+      <c r="B209" s="28"/>
       <c r="C209" t="s">
         <v>224</v>
       </c>
@@ -7034,7 +7158,7 @@
     </row>
     <row r="210" spans="1:8" ht="17.25" thickBot="1">
       <c r="A210" s="22"/>
-      <c r="B210" s="26"/>
+      <c r="B210" s="29"/>
       <c r="C210" t="s">
         <v>228</v>
       </c>
@@ -7308,19 +7432,17 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:A46"/>
-    <mergeCell ref="B1:B9"/>
-    <mergeCell ref="B10:B23"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="A47:A127"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B78"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="A226:A228"/>
+    <mergeCell ref="A128:A190"/>
+    <mergeCell ref="A191:A225"/>
+    <mergeCell ref="B191:B204"/>
+    <mergeCell ref="B205:B210"/>
+    <mergeCell ref="C191:C200"/>
+    <mergeCell ref="C205:C207"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B114"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="C96:C109"/>
@@ -7330,17 +7452,19 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C191:C200"/>
-    <mergeCell ref="C205:C207"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B114"/>
-    <mergeCell ref="A226:A228"/>
-    <mergeCell ref="A128:A190"/>
-    <mergeCell ref="A191:A225"/>
-    <mergeCell ref="B191:B204"/>
-    <mergeCell ref="B205:B210"/>
+    <mergeCell ref="A47:A127"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B78"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="A1:A46"/>
+    <mergeCell ref="B1:B9"/>
+    <mergeCell ref="B10:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/開發文件.xlsx
+++ b/docs/開發文件.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\YDWE1.25.10\Creation\Mod\The_Tilted_Clock_Tower\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5CC80A-83E7-436F-B135-114E09259465}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7BB91C-791F-4588-9C6C-D194FD3E37EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
   </bookViews>
   <sheets>
     <sheet name="項目" sheetId="1" r:id="rId1"/>
@@ -1670,15 +1670,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1691,10 +1682,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1704,6 +1695,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1733,130 +1733,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>527686</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>135255</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>554356</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="矩形: 圓角 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A39B7E0B-2053-4CCE-BB38-15D11F228662}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5328286" y="4535805"/>
-          <a:ext cx="1398270" cy="634365"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>不同流派的鍛造術</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>215266</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>131445</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>241936</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="矩形: 圓角 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDFA4CD5-4B57-4075-9D49-5A269B13F80E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7073266" y="4531995"/>
-          <a:ext cx="1398270" cy="634365"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>分幾步驟鍛造</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1957,6 +1833,14 @@
               <a:pPr algn="l"/>
               <a:r>
                 <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>冒險、益智、策略</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
                 <a:t>魔法世界的復仇之旅</a:t>
               </a:r>
             </a:p>
@@ -1975,8 +1859,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="963931" y="1746886"/>
-              <a:ext cx="1428750" cy="746760"/>
+              <a:off x="947023" y="1588033"/>
+              <a:ext cx="1428750" cy="1100413"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
               <a:avLst/>
@@ -2011,8 +1895,13 @@
               <a:pPr algn="l"/>
               <a:r>
                 <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-                <a:t>組合屬性打造強力的魔法裝備</a:t>
+                <a:t>把屬性當成積木堆起來，堆越高需要越多的技巧，不然越容易崩毀，</a:t>
               </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2029,7 +1918,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4261485" y="1529715"/>
+              <a:off x="4236123" y="1529715"/>
               <a:ext cx="1826895" cy="1205865"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
@@ -2080,7 +1969,7 @@
                 <a:defRPr/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
                   <a:solidFill>
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
@@ -2089,19 +1978,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>點擊</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"</a:t>
+                <a:t>先雙擊載體，鍛造系統會</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
@@ -2113,10 +1990,10 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>放入材料</a:t>
+                <a:t>開始</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
                   <a:solidFill>
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
@@ -2125,19 +2002,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>"</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>按鈕後點擊材料。之後再點擊希望的工序，最後按下鍛造就會製作出裝備</a:t>
+                <a:t>顯示訊息，接著點材料或工序再點載體，系統會自動鍛造，再次雙擊載體將關閉鍛造系統</a:t>
               </a:r>
               <a:endParaRPr lang="zh-TW" altLang="zh-TW">
                 <a:effectLst/>
@@ -2213,8 +2078,8 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="1678306" y="876301"/>
-              <a:ext cx="1123950" cy="870585"/>
+              <a:off x="1661398" y="876301"/>
+              <a:ext cx="1140858" cy="711732"/>
             </a:xfrm>
             <a:prstGeom prst="straightConnector1">
               <a:avLst/>
@@ -2256,7 +2121,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="4154806" y="876301"/>
-              <a:ext cx="1020127" cy="653414"/>
+              <a:ext cx="994765" cy="653415"/>
             </a:xfrm>
             <a:prstGeom prst="straightConnector1">
               <a:avLst/>
@@ -2296,9 +2161,9 @@
             </xdr:cNvCxnSpPr>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2392681" y="2120266"/>
-              <a:ext cx="1868804" cy="12382"/>
+            <a:xfrm flipV="1">
+              <a:off x="2375773" y="2132648"/>
+              <a:ext cx="1860350" cy="5592"/>
             </a:xfrm>
             <a:prstGeom prst="straightConnector1">
               <a:avLst/>
@@ -2337,8 +2202,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6454140" y="922020"/>
-            <a:ext cx="1805940" cy="1333500"/>
+            <a:off x="6378051" y="697758"/>
+            <a:ext cx="1974900" cy="1718260"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -2397,7 +2262,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-              <a:t>放入工序</a:t>
+              <a:t>加入工序</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
@@ -2421,7 +2286,19 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-              <a:t>成功會有光柱、升級的音效</a:t>
+              <a:t>成功身上會有光柱、升級的音效</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>把屬性當成積木堆起來，堆越高需要越多的技巧，不然越容易崩毀</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
           </a:p>
@@ -2540,23 +2417,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>156210</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>169545</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>478155</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="矩形: 圓角 23">
+        <xdr:cNvPr id="41" name="矩形: 圓角 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E14544D4-EF86-4613-9422-67BAD1E2F7D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0D7A2A-EF6E-4E83-9958-E797A7DF5541}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2564,8 +2441,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="765810" y="3049905"/>
-          <a:ext cx="1413510" cy="942975"/>
+          <a:off x="478155" y="3227070"/>
+          <a:ext cx="2950846" cy="2335530"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2592,44 +2469,620 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>鍛造爐的魔力表示 當前成功率</a:t>
+            <a:t>顯示鍛造訊息</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>***啟動鍛造系統***</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>對象</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-            <a:t>(</a:t>
+            <a:t>-</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>預設</a:t>
+            <a:t>魔石名字</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-            <a:t>0)</a:t>
+            <a:t>:</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t> </a:t>
+            <a:t>剩餘魔力</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-            <a:t>/ </a:t>
+            <a:t>/</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>最高成功率</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>預設</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-            <a:t>100)</a:t>
-          </a:r>
+            <a:t>最大魔力 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>魔石名字</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>剩餘魔力</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>最大魔力</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 添加</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>XXX</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>材料，耗損</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>點魔力，體魄需求提高</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>M</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>點</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>魔石名字</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>剩餘魔力</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>最大魔力</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OOO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>鍛造技，恢復</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>點魔力</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，體魄</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>降低</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>提高</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>M</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>點</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>...</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>需求</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>點體魄、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>點意志、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>點親和</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>獲得</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>XXX</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>點經驗值</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>***關閉鍛造系統***</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2637,23 +3090,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>468631</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>184785</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>201930</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>112395</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>342901</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="矩形: 圓角 24">
+        <xdr:cNvPr id="42" name="矩形: 圓角 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7D80123-BFE2-436D-BAF5-AFE8E9784880}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE4E9158-CEFE-4BB6-AD04-22677199FE1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2661,8 +3114,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2297431" y="3065145"/>
-          <a:ext cx="1093470" cy="782955"/>
+          <a:off x="3630930" y="3255645"/>
+          <a:ext cx="1645920" cy="954405"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2689,7 +3142,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>加入材料不會提升成功率</a:t>
+            <a:t>魔石儲存著魔力，每次放入材料會消耗魔力，消耗完畢便無法放入材料。</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
         </a:p>
@@ -2699,23 +3152,135 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>499111</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>169545</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581978</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>373381</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線單箭頭接點 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C39D502B-1DD0-4FE1-859C-90E8EAEFF175}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="0"/>
+          <a:endCxn id="8" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1953578" y="2807970"/>
+          <a:ext cx="1598997" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>112395</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線單箭頭接點 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EBD0CE5-6C38-4F0C-9137-6F04D2C23AB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="0"/>
+          <a:endCxn id="8" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3552575" y="2807970"/>
+          <a:ext cx="901315" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>497204</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>112394</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="矩形: 圓角 25">
+        <xdr:cNvPr id="44" name="矩形: 圓角 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26507DE8-4059-4DB2-9E7C-5CB512A5D9E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1098FBB-CFE0-4CA9-8A50-0CB787303DAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2723,8 +3288,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3547111" y="3049905"/>
-          <a:ext cx="1093470" cy="782955"/>
+          <a:off x="10098404" y="3255644"/>
+          <a:ext cx="2322195" cy="2516505"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2751,9 +3316,142 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>使用工法會提升一定的成功率</a:t>
+            <a:t>顯示構裝訊息</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>詞綴</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>魔石名字</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>需求</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>點體魄、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>點意志、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>點親和</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>屬性</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>屬性</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>...</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>秘物屬性</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>秘物屬性</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>...</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>關閉</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>相同的屬性會合併顯示</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2761,23 +3459,79 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>93345</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>236219</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>286702</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>112394</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線單箭頭接點 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B86126FF-C326-4AE5-91C0-0FB02A923395}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="0"/>
+          <a:endCxn id="8" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3552575" y="2807970"/>
+          <a:ext cx="7706927" cy="447674"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>335279</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="矩形: 圓角 26">
+        <xdr:cNvPr id="71" name="矩形: 圓角 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1089DCB9-04F0-4970-8B2F-7C72FE8528FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C14A353-7F25-44F5-AD20-CCC86CB5064D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2785,8 +3539,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4972050" y="2973705"/>
-          <a:ext cx="1360169" cy="1080135"/>
+          <a:off x="5135879" y="4884420"/>
+          <a:ext cx="1588771" cy="906780"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2813,47 +3567,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>設計兩個按鈕</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-            <a:t>:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t> 插入、鍛造</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>插入</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-            <a:t>:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t> 加入材料或使用工法</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>鍛造</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-            <a:t>:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t> 生成裝備</a:t>
+            <a:t>放入重複的材料會提高消耗。使用鍛造技會恢復魔力。</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
         </a:p>
@@ -2863,23 +3577,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>567691</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>668655</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>594361</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>32385</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="矩形: 圓角 27">
+        <xdr:cNvPr id="72" name="矩形: 圓角 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE3703B-275B-4B61-A397-93AEA0DD747F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFCE3098-4FC3-41BC-BB37-EAC40F37DD99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2887,8 +3601,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9483091" y="4636770"/>
-          <a:ext cx="1398270" cy="634365"/>
+          <a:off x="6840855" y="4884420"/>
+          <a:ext cx="1464946" cy="954405"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2915,7 +3629,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>材料有分級、限制</a:t>
+            <a:t>有些材料會相衝，導致魔力耗損巨大，若魔力為負，魔石會毀損。</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
         </a:p>
@@ -2925,23 +3639,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>520066</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>169545</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>97154</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>546736</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="矩形: 圓角 28">
+        <xdr:cNvPr id="73" name="矩形: 圓角 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85E29FDC-9034-46B5-9296-C24ADBE7BA73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BB3D82F-F715-447F-AA53-8D92ABB6B37C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2949,8 +3663,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5320666" y="5408295"/>
-          <a:ext cx="1398270" cy="634365"/>
+          <a:off x="3526154" y="4884420"/>
+          <a:ext cx="1474471" cy="678180"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2977,17 +3691,8 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>鍛造大賽，讓追隨者</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-            <a:t>AI</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>穿著玩家打造的裝備互打</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>剩餘魔力不得大於最大魔力。</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2995,23 +3700,182 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>15241</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>55245</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>148590</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直線接點 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD88575E-DECE-4ADA-A258-13825A2331C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="2"/>
+          <a:endCxn id="73" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4263390" y="4210050"/>
+          <a:ext cx="190500" cy="674370"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>443865</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="直線接點 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBD9FB57-53C9-40CC-A10D-0192B7AB0132}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="2"/>
+          <a:endCxn id="71" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4453890" y="4210050"/>
+          <a:ext cx="1476375" cy="674370"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>29528</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="直線接點 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11978CE5-D80E-4E03-A6EE-C35D64454BEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="2"/>
+          <a:endCxn id="72" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4453890" y="4210050"/>
+          <a:ext cx="3119438" cy="674370"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>41911</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="矩形: 圓角 29">
+        <xdr:cNvPr id="86" name="矩形: 圓角 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C5F3FF-2C23-4744-B002-DE1FFF1A575B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A24AA987-FC9C-4EF1-A9CF-64A0F5547568}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3019,8 +3883,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6873241" y="5713095"/>
-          <a:ext cx="1398270" cy="634365"/>
+          <a:off x="8448675" y="4912995"/>
+          <a:ext cx="1562101" cy="1402080"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3047,20 +3911,9 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>天驕榜</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>多人聲望榜</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-            <a:t>)</a:t>
-          </a:r>
+            <a:t>使用鍛造技會提高魔石的不穩定度，每顆魔石擁有不同的不穩定極限，超過就會導致魔石毀損</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3068,23 +3921,81 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>481966</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>169545</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>508636</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="直線接點 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34DB1A40-BDD9-47F7-BFE3-515C8FE6C877}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="2"/>
+          <a:endCxn id="86" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4453890" y="4210050"/>
+          <a:ext cx="4775836" cy="702945"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>344805</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>630555</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="矩形: 圓角 30">
+        <xdr:cNvPr id="2" name="橢圓 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5C15BDC-5059-4299-A7CB-D1559667242E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C11306FF-B244-47A9-9263-D071A7F14708}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3092,8 +4003,88 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8711566" y="5617845"/>
-          <a:ext cx="1398270" cy="634365"/>
+          <a:off x="7202805" y="2400298"/>
+          <a:ext cx="1657350" cy="1428751"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>概念</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>把屬性當成積木堆起來，堆越高需要越多的技巧，不然越容易崩毀</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>350519</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形: 圓角 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5277A817-A5DD-43E3-8C23-579F48D4958D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="1882140"/>
+          <a:ext cx="1226819" cy="520065"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3120,7 +4111,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>可雇傭追隨者打材料</a:t>
+            <a:t>多種材料彼此會相衝</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
         </a:p>
@@ -3130,23 +4121,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>177166</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>93345</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>194310</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>203836</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>158115</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="矩形: 圓角 31">
+        <xdr:cNvPr id="5" name="矩形: 圓角 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE141D06-CD9A-4398-BC61-811C63AD6F44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A08792FA-E6A6-4515-903C-3D7E5FF23D4A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3154,7 +4145,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2920366" y="4912995"/>
+          <a:off x="4994910" y="1828800"/>
           <a:ext cx="1398270" cy="634365"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3182,7 +4173,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>幾何形狀的插槽</a:t>
+            <a:t>伴生材料會有特殊效果</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
         </a:p>
@@ -3192,23 +4183,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>148591</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>422910</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>175261</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>165735</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>201930</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="矩形: 圓角 32">
+        <xdr:cNvPr id="6" name="矩形: 圓角 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2238B51-ECEA-4D64-93EF-68E9A7AD6611}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35DE214F-64F1-458D-ACD5-19928B4E7C2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3216,8 +4207,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3577591" y="6027420"/>
-          <a:ext cx="1398270" cy="634365"/>
+          <a:off x="9338310" y="1762125"/>
+          <a:ext cx="1398270" cy="744855"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3244,7 +4235,15 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>附魔</a:t>
+            <a:t>鍛造大賽，讓追隨者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>AI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>穿著玩家打造的裝備互打</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
         </a:p>
@@ -3252,30 +4251,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>508635</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>49530</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>535305</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="矩形: 圓角 1">
+        <xdr:cNvPr id="7" name="矩形: 圓角 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C11306FF-B244-47A9-9263-D071A7F14708}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47C1A53A-CC8D-4B0B-9B3B-5973AF14DE5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3283,8 +4277,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5935980" y="1798320"/>
-          <a:ext cx="1428750" cy="746760"/>
+          <a:off x="9424035" y="523875"/>
+          <a:ext cx="1398270" cy="634365"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3311,19 +4305,1800 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>概念</a:t>
+            <a:t>天驕榜</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>多人聲望榜</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>384810</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>186690</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形: 圓角 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74CDB679-B822-4460-8E82-C471721D653C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2442210" y="3952875"/>
+          <a:ext cx="1398270" cy="634365"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>可雇傭追隨者打材料</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形: 圓角 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A374BFA-AF17-43D7-AB84-C157FDDD1131}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4714875" y="2552700"/>
+          <a:ext cx="1790700" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>秘物附魔</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t> 給予構裝額外的效果，需要插槽。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>多個秘物按照順序可組成秘物序列，組合出強大的效果</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="zh-TW">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>組合屬性打造強力的魔法裝備</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>421005</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>283844</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>163831</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形: 圓角 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE45AF26-55B4-43F4-B6EB-48C53DD67766}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7279005" y="1219201"/>
+          <a:ext cx="1234439" cy="621030"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>特殊工序會增強材料的效果</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>7619</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形: 圓角 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D750D396-0C20-4DF5-9146-F2152AC4B322}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9471660" y="2676525"/>
+          <a:ext cx="1508759" cy="773430"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>載體稱為魔石，為魔獸凝聚的生命精華</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>80011</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>112395</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矩形: 圓角 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11D93087-368C-4806-AA0F-61D0A342E041}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4880611" y="3848100"/>
+          <a:ext cx="1403984" cy="573405"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>鑲環</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t> 替構裝添加插槽，供附魔使用</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>156211</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>340995</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>78105</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矩形: 圓角 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{595B8E7D-7C3E-4C61-9768-FCB8E45EC464}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11129011" y="3657600"/>
+          <a:ext cx="2242184" cy="821055"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>承載力</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t> 強大的構裝需要使用者有更好的承載力，不然身體會承受不了，扣血甚至當場爆體而亡</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>489585</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>516255</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>196215</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矩形: 圓角 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E27DCA77-B87D-4CBA-86CD-AFE0B2BB0812}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11462385" y="2705100"/>
+          <a:ext cx="1398270" cy="634365"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>鍛造後的魔石稱為構裝</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>327659</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>445768</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="矩形: 圓角 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A563D264-8B73-4703-BA94-3E06EE01F56A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13357859" y="2543175"/>
+          <a:ext cx="1489709" cy="963930"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>經驗槽變成鍛造才會增加，滿了需要到鍛造工會認證才能升級</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>394336</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="矩形: 圓角 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00E6C262-F0A0-449E-A315-46B48D7C1EAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6566536" y="4305300"/>
+          <a:ext cx="1403984" cy="573405"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>精煉</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t> 提升構裝的品質</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>387842</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>39053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>422910</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>94934</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線接點 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB366439-F4E9-4603-890D-26CBA31664E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="7"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8617442" y="2134553"/>
+          <a:ext cx="720868" cy="474981"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>436245</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>521970</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線接點 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5217FCCF-5837-480F-A732-600002A6AA02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="0"/>
+          <a:endCxn id="7" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10037445" y="1158240"/>
+          <a:ext cx="85725" cy="603885"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50483</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>587518</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>94934</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線接點 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82EC7AE2-2D89-40DA-88A6-56E22FE8C853}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="1"/>
+          <a:endCxn id="5" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6393180" y="2145983"/>
+          <a:ext cx="1052338" cy="463551"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>350519</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>46673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>194310</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50483</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線接點 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F64349F-BC68-4FDB-8219-4D121133E708}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="1"/>
+          <a:endCxn id="3" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4465319" y="2142173"/>
+          <a:ext cx="529591" cy="3810"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>344805</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線接點 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13D620CE-EA67-48F8-9C88-758ED3E52C0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="9" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6505575" y="3114674"/>
+          <a:ext cx="697230" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>112395</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>587518</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>153353</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線接點 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C0BBC96-9ECB-494F-962D-5FEBB1B4E9E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="12" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6284595" y="3619813"/>
+          <a:ext cx="1160923" cy="514990"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>410528</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線接點 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2652F74E-645F-41A8-B701-64255437F90D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="4"/>
+          <a:endCxn id="16" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7268528" y="3829049"/>
+          <a:ext cx="762952" cy="476251"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>630555</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="直線接點 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C294316-C017-4C19-AEB3-38B616C919BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="6"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8860155" y="3063240"/>
+          <a:ext cx="611505" cy="51434"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>7619</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>88583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>489585</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="直線接點 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F34E6A69-9EB7-417E-A0FE-E0760A1ED358}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10980419" y="3022283"/>
+          <a:ext cx="481966" cy="40957"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>516255</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>88583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>327659</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="直線接點 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21DE54A9-313E-4EA1-A119-24269390A650}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="3"/>
+          <a:endCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12860655" y="3022283"/>
+          <a:ext cx="497204" cy="2857"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>196215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>591503</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="直線接點 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38EFF38E-C8E5-41B5-A8E2-62556B8D846A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12161520" y="3339465"/>
+          <a:ext cx="88583" cy="318135"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>163831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95248</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="直線接點 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{999C6862-4847-4B37-82E4-92430F89F20E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="2" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7896225" y="1840231"/>
+          <a:ext cx="135255" cy="560067"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>230505</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>93344</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="矩形: 圓角 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{071AB5C1-FD91-40D5-BADE-514F3E6510FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5716905" y="885826"/>
+          <a:ext cx="1234439" cy="714374"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>材料有強弱，高級材料會提供比較好的屬性</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>93344</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>195263</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>587518</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>94934</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="124" name="直線接點 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D06FBB00-BA95-411B-98D7-66252A1C6D93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="117" idx="3"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6951344" y="1243013"/>
+          <a:ext cx="494174" cy="1366521"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>70485</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>97155</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="144" name="矩形: 圓角 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D047D7C-4EAC-49D3-AB1E-B976D8DDA27F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="756285" y="4467225"/>
+          <a:ext cx="1398270" cy="634365"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>拍賣行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t> 購買材料、販售構裝的地方</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>13335</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>40005</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>5715</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="矩形: 圓角 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83664D44-0993-40FC-B0FA-56199DA4E230}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2756535" y="5029200"/>
+          <a:ext cx="1398270" cy="634365"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>鍛造工會</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t> 購買鍛造技、提升等級的地方</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>661036</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="146" name="矩形: 圓角 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BF98F55-1EBA-4527-808B-53F84A242D97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8204836" y="4514850"/>
+          <a:ext cx="1403984" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>不重複放入</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>(5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>的倍數</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>種材料會增強材料效果</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>387842</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>677228</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="148" name="直線接點 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69884B1B-2394-499C-A8C5-A1099C50F217}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="5"/>
+          <a:endCxn id="146" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8617442" y="3619813"/>
+          <a:ext cx="289386" cy="895037"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>194311</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>226695</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="150" name="矩形: 圓角 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD6FCA4-BF6C-442C-9D11-169D7AF991E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9795511" y="4495800"/>
+          <a:ext cx="1403984" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>每次施放鍛造技會增加</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>hit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>數，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>hit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>數越高，可以解鎖魔石的隱藏效果</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>387842</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>210503</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="153" name="直線接點 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F9DC27-D543-4A37-AB84-ABB8CE5DBAB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="5"/>
+          <a:endCxn id="150" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8617442" y="3619813"/>
+          <a:ext cx="1880061" cy="875987"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4623,8 +7398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A49064-508F-4BCD-89C6-B182FEBF2CD7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4639,8 +7414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102EB912-690F-4A1D-A395-38C2CE3B65FD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4688,7 +7463,7 @@
       <c r="A1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="33" t="s">
         <v>83</v>
       </c>
       <c r="C1" t="s">
@@ -4703,7 +7478,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="22"/>
-      <c r="B2" s="25"/>
+      <c r="B2" s="34"/>
       <c r="C2" t="s">
         <v>85</v>
       </c>
@@ -4713,7 +7488,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="22"/>
-      <c r="B3" s="25"/>
+      <c r="B3" s="34"/>
       <c r="C3" t="s">
         <v>86</v>
       </c>
@@ -4723,7 +7498,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="22"/>
-      <c r="B4" s="25"/>
+      <c r="B4" s="34"/>
       <c r="C4" t="s">
         <v>87</v>
       </c>
@@ -4733,7 +7508,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="22"/>
-      <c r="B5" s="25"/>
+      <c r="B5" s="34"/>
       <c r="C5" t="s">
         <v>88</v>
       </c>
@@ -4743,7 +7518,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="22"/>
-      <c r="B6" s="25"/>
+      <c r="B6" s="34"/>
       <c r="C6" t="s">
         <v>89</v>
       </c>
@@ -4753,7 +7528,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="22"/>
-      <c r="B7" s="25"/>
+      <c r="B7" s="34"/>
       <c r="C7" t="s">
         <v>90</v>
       </c>
@@ -4763,7 +7538,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="22"/>
-      <c r="B8" s="25"/>
+      <c r="B8" s="34"/>
       <c r="C8" t="s">
         <v>91</v>
       </c>
@@ -4773,7 +7548,7 @@
     </row>
     <row r="9" spans="1:8" ht="17.25" thickBot="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="26"/>
+      <c r="B9" s="35"/>
       <c r="C9" t="s">
         <v>92</v>
       </c>
@@ -4783,13 +7558,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="22"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="30" t="s">
         <v>95</v>
       </c>
       <c r="E10" t="s">
@@ -4801,9 +7576,9 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="22"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="31"/>
       <c r="E11" t="s">
         <v>97</v>
       </c>
@@ -4813,9 +7588,9 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="22"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="31"/>
       <c r="E12" t="s">
         <v>98</v>
       </c>
@@ -4825,9 +7600,9 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="22"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="31"/>
       <c r="E13" t="s">
         <v>99</v>
       </c>
@@ -4837,9 +7612,9 @@
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="35"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="32"/>
       <c r="E14" t="s">
         <v>100</v>
       </c>
@@ -4849,9 +7624,9 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="22"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="30" t="s">
         <v>101</v>
       </c>
       <c r="E15" t="s">
@@ -4863,9 +7638,9 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="22"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="31"/>
       <c r="E16" t="s">
         <v>103</v>
       </c>
@@ -4875,9 +7650,9 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="22"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="31"/>
       <c r="E17" t="s">
         <v>104</v>
       </c>
@@ -4887,9 +7662,9 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="22"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="31"/>
       <c r="E18" t="s">
         <v>105</v>
       </c>
@@ -4899,9 +7674,9 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="31"/>
       <c r="E19" t="s">
         <v>106</v>
       </c>
@@ -4911,9 +7686,9 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="22"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="31"/>
       <c r="E20" t="s">
         <v>107</v>
       </c>
@@ -4923,9 +7698,9 @@
     </row>
     <row r="21" spans="1:6" ht="17.25" thickBot="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="35"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="32"/>
       <c r="E21" t="s">
         <v>108</v>
       </c>
@@ -4935,7 +7710,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="22"/>
-      <c r="B22" s="25"/>
+      <c r="B22" s="34"/>
       <c r="C22" t="s">
         <v>109</v>
       </c>
@@ -4945,7 +7720,7 @@
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="26"/>
+      <c r="B23" s="35"/>
       <c r="C23" t="s">
         <v>84</v>
       </c>
@@ -4955,7 +7730,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="22"/>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="24" t="s">
         <v>110</v>
       </c>
       <c r="C24" t="s">
@@ -4967,7 +7742,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="22"/>
-      <c r="B25" s="28"/>
+      <c r="B25" s="25"/>
       <c r="C25" t="s">
         <v>111</v>
       </c>
@@ -4977,7 +7752,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="22"/>
-      <c r="B26" s="28"/>
+      <c r="B26" s="25"/>
       <c r="C26" t="s">
         <v>112</v>
       </c>
@@ -4987,7 +7762,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="22"/>
-      <c r="B27" s="28"/>
+      <c r="B27" s="25"/>
       <c r="C27" t="s">
         <v>113</v>
       </c>
@@ -4997,7 +7772,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="22"/>
-      <c r="B28" s="28"/>
+      <c r="B28" s="25"/>
       <c r="C28" t="s">
         <v>114</v>
       </c>
@@ -5007,7 +7782,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="22"/>
-      <c r="B29" s="28"/>
+      <c r="B29" s="25"/>
       <c r="C29" t="s">
         <v>115</v>
       </c>
@@ -5017,7 +7792,7 @@
     </row>
     <row r="30" spans="1:6" ht="17.25" thickBot="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="29"/>
+      <c r="B30" s="26"/>
       <c r="C30" t="s">
         <v>116</v>
       </c>
@@ -5027,10 +7802,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="22"/>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="27" t="s">
         <v>118</v>
       </c>
       <c r="D31" t="s">
@@ -5042,8 +7817,8 @@
     </row>
     <row r="32" spans="1:6" ht="17.25" thickBot="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="31"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="29"/>
       <c r="D32" t="s">
         <v>120</v>
       </c>
@@ -5053,8 +7828,8 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="22"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="30" t="s">
+      <c r="B33" s="25"/>
+      <c r="C33" s="27" t="s">
         <v>121</v>
       </c>
       <c r="D33" t="s">
@@ -5066,8 +7841,8 @@
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1">
       <c r="A34" s="22"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="31"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="29"/>
       <c r="D34" t="s">
         <v>123</v>
       </c>
@@ -5077,8 +7852,8 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="22"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="30" t="s">
+      <c r="B35" s="25"/>
+      <c r="C35" s="27" t="s">
         <v>124</v>
       </c>
       <c r="D35" t="s">
@@ -5090,8 +7865,8 @@
     </row>
     <row r="36" spans="1:7" ht="17.25" thickBot="1">
       <c r="A36" s="22"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="31"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="29"/>
       <c r="D36" t="s">
         <v>123</v>
       </c>
@@ -5193,7 +7968,7 @@
       <c r="A47" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="24" t="s">
         <v>136</v>
       </c>
       <c r="C47" t="s">
@@ -5208,7 +7983,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="22"/>
-      <c r="B48" s="28"/>
+      <c r="B48" s="25"/>
       <c r="C48" t="s">
         <v>138</v>
       </c>
@@ -5221,7 +7996,7 @@
     </row>
     <row r="49" spans="1:7" ht="17.25" thickBot="1">
       <c r="A49" s="22"/>
-      <c r="B49" s="29"/>
+      <c r="B49" s="26"/>
       <c r="C49" t="s">
         <v>139</v>
       </c>
@@ -5234,10 +8009,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="22"/>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="27" t="s">
         <v>141</v>
       </c>
       <c r="D50" t="s">
@@ -5252,8 +8027,8 @@
     </row>
     <row r="51" spans="1:7" ht="17.25" thickBot="1">
       <c r="A51" s="22"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="31"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="29"/>
       <c r="D51" t="s">
         <v>142</v>
       </c>
@@ -5266,7 +8041,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="22"/>
-      <c r="B52" s="28"/>
+      <c r="B52" s="25"/>
       <c r="C52" t="s">
         <v>138</v>
       </c>
@@ -5279,7 +8054,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="22"/>
-      <c r="B53" s="28"/>
+      <c r="B53" s="25"/>
       <c r="C53" t="s">
         <v>84</v>
       </c>
@@ -5292,7 +8067,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="22"/>
-      <c r="B54" s="28"/>
+      <c r="B54" s="25"/>
       <c r="C54" t="s">
         <v>143</v>
       </c>
@@ -5305,7 +8080,7 @@
     </row>
     <row r="55" spans="1:7" ht="17.25" thickBot="1">
       <c r="A55" s="22"/>
-      <c r="B55" s="29"/>
+      <c r="B55" s="26"/>
       <c r="C55" t="s">
         <v>144</v>
       </c>
@@ -5318,7 +8093,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="22"/>
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="24" t="s">
         <v>145</v>
       </c>
       <c r="C56" t="s">
@@ -5333,7 +8108,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="22"/>
-      <c r="B57" s="28"/>
+      <c r="B57" s="25"/>
       <c r="C57" t="s">
         <v>147</v>
       </c>
@@ -5346,7 +8121,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="22"/>
-      <c r="B58" s="28"/>
+      <c r="B58" s="25"/>
       <c r="C58" t="s">
         <v>148</v>
       </c>
@@ -5359,7 +8134,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="22"/>
-      <c r="B59" s="28"/>
+      <c r="B59" s="25"/>
       <c r="C59" t="s">
         <v>149</v>
       </c>
@@ -5372,7 +8147,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="22"/>
-      <c r="B60" s="28"/>
+      <c r="B60" s="25"/>
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -5385,7 +8160,7 @@
     </row>
     <row r="61" spans="1:7" ht="17.25" thickBot="1">
       <c r="A61" s="22"/>
-      <c r="B61" s="29"/>
+      <c r="B61" s="26"/>
       <c r="C61" t="s">
         <v>151</v>
       </c>
@@ -5398,7 +8173,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="22"/>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="24" t="s">
         <v>152</v>
       </c>
       <c r="C62" t="s">
@@ -5413,7 +8188,7 @@
     </row>
     <row r="63" spans="1:7" ht="17.25" thickBot="1">
       <c r="A63" s="22"/>
-      <c r="B63" s="29"/>
+      <c r="B63" s="26"/>
       <c r="C63" t="s">
         <v>138</v>
       </c>
@@ -5426,10 +8201,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="22"/>
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C64" s="27" t="s">
         <v>155</v>
       </c>
       <c r="D64" t="s">
@@ -5441,8 +8216,8 @@
     </row>
     <row r="65" spans="1:7" ht="17.25" thickBot="1">
       <c r="A65" s="22"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="31"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="29"/>
       <c r="D65" t="s">
         <v>156</v>
       </c>
@@ -5452,7 +8227,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="22"/>
-      <c r="B66" s="28"/>
+      <c r="B66" s="25"/>
       <c r="C66" t="s">
         <v>157</v>
       </c>
@@ -5462,7 +8237,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="22"/>
-      <c r="B67" s="28"/>
+      <c r="B67" s="25"/>
       <c r="C67" t="s">
         <v>158</v>
       </c>
@@ -5472,7 +8247,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="22"/>
-      <c r="B68" s="28"/>
+      <c r="B68" s="25"/>
       <c r="C68" t="s">
         <v>159</v>
       </c>
@@ -5482,7 +8257,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="22"/>
-      <c r="B69" s="28"/>
+      <c r="B69" s="25"/>
       <c r="C69" t="s">
         <v>138</v>
       </c>
@@ -5492,7 +8267,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="22"/>
-      <c r="B70" s="28"/>
+      <c r="B70" s="25"/>
       <c r="C70" t="s">
         <v>160</v>
       </c>
@@ -5502,7 +8277,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="22"/>
-      <c r="B71" s="28"/>
+      <c r="B71" s="25"/>
       <c r="C71" t="s">
         <v>161</v>
       </c>
@@ -5512,7 +8287,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="22"/>
-      <c r="B72" s="28"/>
+      <c r="B72" s="25"/>
       <c r="C72" t="s">
         <v>162</v>
       </c>
@@ -5522,7 +8297,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="22"/>
-      <c r="B73" s="28"/>
+      <c r="B73" s="25"/>
       <c r="C73" t="s">
         <v>84</v>
       </c>
@@ -5532,7 +8307,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="22"/>
-      <c r="B74" s="28"/>
+      <c r="B74" s="25"/>
       <c r="C74" t="s">
         <v>163</v>
       </c>
@@ -5542,7 +8317,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="22"/>
-      <c r="B75" s="28"/>
+      <c r="B75" s="25"/>
       <c r="C75" t="s">
         <v>164</v>
       </c>
@@ -5552,7 +8327,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="22"/>
-      <c r="B76" s="28"/>
+      <c r="B76" s="25"/>
       <c r="C76" t="s">
         <v>165</v>
       </c>
@@ -5562,7 +8337,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="22"/>
-      <c r="B77" s="28"/>
+      <c r="B77" s="25"/>
       <c r="C77" t="s">
         <v>166</v>
       </c>
@@ -5572,7 +8347,7 @@
     </row>
     <row r="78" spans="1:7" ht="17.25" thickBot="1">
       <c r="A78" s="22"/>
-      <c r="B78" s="29"/>
+      <c r="B78" s="26"/>
       <c r="C78" t="s">
         <v>167</v>
       </c>
@@ -5582,7 +8357,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="22"/>
-      <c r="B79" s="27" t="s">
+      <c r="B79" s="24" t="s">
         <v>168</v>
       </c>
       <c r="C79" t="s">
@@ -5597,7 +8372,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="22"/>
-      <c r="B80" s="28"/>
+      <c r="B80" s="25"/>
       <c r="C80" t="s">
         <v>169</v>
       </c>
@@ -5610,7 +8385,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="22"/>
-      <c r="B81" s="28"/>
+      <c r="B81" s="25"/>
       <c r="C81" t="s">
         <v>170</v>
       </c>
@@ -5623,7 +8398,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="22"/>
-      <c r="B82" s="28"/>
+      <c r="B82" s="25"/>
       <c r="C82" t="s">
         <v>171</v>
       </c>
@@ -5636,7 +8411,7 @@
     </row>
     <row r="83" spans="1:7" ht="17.25" thickBot="1">
       <c r="A83" s="22"/>
-      <c r="B83" s="29"/>
+      <c r="B83" s="26"/>
       <c r="C83" t="s">
         <v>172</v>
       </c>
@@ -5649,7 +8424,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="22"/>
-      <c r="B84" s="27" t="s">
+      <c r="B84" s="24" t="s">
         <v>173</v>
       </c>
       <c r="C84" t="s">
@@ -5664,7 +8439,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="22"/>
-      <c r="B85" s="28"/>
+      <c r="B85" s="25"/>
       <c r="C85" t="s">
         <v>144</v>
       </c>
@@ -5677,7 +8452,7 @@
     </row>
     <row r="86" spans="1:7" ht="17.25" thickBot="1">
       <c r="A86" s="22"/>
-      <c r="B86" s="29"/>
+      <c r="B86" s="26"/>
       <c r="C86" t="s">
         <v>172</v>
       </c>
@@ -5687,7 +8462,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="22"/>
-      <c r="B87" s="27" t="s">
+      <c r="B87" s="24" t="s">
         <v>123</v>
       </c>
       <c r="C87" t="s">
@@ -5702,7 +8477,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="22"/>
-      <c r="B88" s="28"/>
+      <c r="B88" s="25"/>
       <c r="C88" t="s">
         <v>138</v>
       </c>
@@ -5715,7 +8490,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="22"/>
-      <c r="B89" s="28"/>
+      <c r="B89" s="25"/>
       <c r="C89" t="s">
         <v>161</v>
       </c>
@@ -5728,7 +8503,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="22"/>
-      <c r="B90" s="28"/>
+      <c r="B90" s="25"/>
       <c r="C90" t="s">
         <v>84</v>
       </c>
@@ -5741,7 +8516,7 @@
     </row>
     <row r="91" spans="1:7" ht="17.25" thickBot="1">
       <c r="A91" s="22"/>
-      <c r="B91" s="29"/>
+      <c r="B91" s="26"/>
       <c r="C91" t="s">
         <v>172</v>
       </c>
@@ -5754,7 +8529,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="22"/>
-      <c r="B92" s="27" t="s">
+      <c r="B92" s="24" t="s">
         <v>175</v>
       </c>
       <c r="C92" t="s">
@@ -5769,7 +8544,7 @@
     </row>
     <row r="93" spans="1:7" ht="17.25" thickBot="1">
       <c r="A93" s="22"/>
-      <c r="B93" s="29"/>
+      <c r="B93" s="26"/>
       <c r="C93" t="s">
         <v>138</v>
       </c>
@@ -5782,7 +8557,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="22"/>
-      <c r="B94" s="27" t="s">
+      <c r="B94" s="24" t="s">
         <v>177</v>
       </c>
       <c r="C94" t="s">
@@ -5797,7 +8572,7 @@
     </row>
     <row r="95" spans="1:7" ht="17.25" thickBot="1">
       <c r="A95" s="22"/>
-      <c r="B95" s="29"/>
+      <c r="B95" s="26"/>
       <c r="C95" t="s">
         <v>84</v>
       </c>
@@ -5810,10 +8585,10 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="22"/>
-      <c r="B96" s="27" t="s">
+      <c r="B96" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="C96" s="30" t="s">
+      <c r="C96" s="27" t="s">
         <v>141</v>
       </c>
       <c r="D96" t="s">
@@ -5828,8 +8603,8 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="22"/>
-      <c r="B97" s="28"/>
-      <c r="C97" s="32"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="28"/>
       <c r="D97" t="s">
         <v>178</v>
       </c>
@@ -5842,8 +8617,8 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="22"/>
-      <c r="B98" s="28"/>
-      <c r="C98" s="32"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="28"/>
       <c r="D98" t="s">
         <v>179</v>
       </c>
@@ -5856,8 +8631,8 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="22"/>
-      <c r="B99" s="28"/>
-      <c r="C99" s="32"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="28"/>
       <c r="D99" t="s">
         <v>180</v>
       </c>
@@ -5870,8 +8645,8 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="22"/>
-      <c r="B100" s="28"/>
-      <c r="C100" s="32"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="28"/>
       <c r="D100" t="s">
         <v>181</v>
       </c>
@@ -5884,8 +8659,8 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="22"/>
-      <c r="B101" s="28"/>
-      <c r="C101" s="32"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="28"/>
       <c r="D101" t="s">
         <v>182</v>
       </c>
@@ -5898,8 +8673,8 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="22"/>
-      <c r="B102" s="28"/>
-      <c r="C102" s="32"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="28"/>
       <c r="D102" t="s">
         <v>183</v>
       </c>
@@ -5912,8 +8687,8 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="22"/>
-      <c r="B103" s="28"/>
-      <c r="C103" s="32"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="28"/>
       <c r="D103" t="s">
         <v>184</v>
       </c>
@@ -5926,8 +8701,8 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="22"/>
-      <c r="B104" s="28"/>
-      <c r="C104" s="32"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="28"/>
       <c r="D104" t="s">
         <v>185</v>
       </c>
@@ -5940,8 +8715,8 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="22"/>
-      <c r="B105" s="28"/>
-      <c r="C105" s="32"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="28"/>
       <c r="D105" t="s">
         <v>186</v>
       </c>
@@ -5954,8 +8729,8 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="22"/>
-      <c r="B106" s="28"/>
-      <c r="C106" s="32"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="28"/>
       <c r="D106" t="s">
         <v>187</v>
       </c>
@@ -5968,8 +8743,8 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="22"/>
-      <c r="B107" s="28"/>
-      <c r="C107" s="32"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="28"/>
       <c r="D107" t="s">
         <v>188</v>
       </c>
@@ -5982,8 +8757,8 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="22"/>
-      <c r="B108" s="28"/>
-      <c r="C108" s="32"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="28"/>
       <c r="D108" t="s">
         <v>189</v>
       </c>
@@ -5996,8 +8771,8 @@
     </row>
     <row r="109" spans="1:7" ht="17.25" thickBot="1">
       <c r="A109" s="22"/>
-      <c r="B109" s="28"/>
-      <c r="C109" s="31"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="29"/>
       <c r="D109" t="s">
         <v>190</v>
       </c>
@@ -6010,7 +8785,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="22"/>
-      <c r="B110" s="28"/>
+      <c r="B110" s="25"/>
       <c r="C110" t="s">
         <v>138</v>
       </c>
@@ -6023,7 +8798,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="22"/>
-      <c r="B111" s="28"/>
+      <c r="B111" s="25"/>
       <c r="C111" t="s">
         <v>161</v>
       </c>
@@ -6036,7 +8811,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="22"/>
-      <c r="B112" s="28"/>
+      <c r="B112" s="25"/>
       <c r="C112" t="s">
         <v>191</v>
       </c>
@@ -6049,7 +8824,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="22"/>
-      <c r="B113" s="28"/>
+      <c r="B113" s="25"/>
       <c r="C113" t="s">
         <v>143</v>
       </c>
@@ -6062,7 +8837,7 @@
     </row>
     <row r="114" spans="1:7" ht="17.25" thickBot="1">
       <c r="A114" s="22"/>
-      <c r="B114" s="29"/>
+      <c r="B114" s="26"/>
       <c r="C114" t="s">
         <v>192</v>
       </c>
@@ -6926,10 +9701,10 @@
       <c r="A191" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="B191" s="27" t="s">
+      <c r="B191" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="C191" s="30" t="s">
+      <c r="C191" s="27" t="s">
         <v>232</v>
       </c>
       <c r="D191" t="s">
@@ -6941,8 +9716,8 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="22"/>
-      <c r="B192" s="28"/>
-      <c r="C192" s="32"/>
+      <c r="B192" s="25"/>
+      <c r="C192" s="28"/>
       <c r="D192" t="s">
         <v>234</v>
       </c>
@@ -6952,8 +9727,8 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="22"/>
-      <c r="B193" s="28"/>
-      <c r="C193" s="32"/>
+      <c r="B193" s="25"/>
+      <c r="C193" s="28"/>
       <c r="D193" t="s">
         <v>235</v>
       </c>
@@ -6963,8 +9738,8 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="22"/>
-      <c r="B194" s="28"/>
-      <c r="C194" s="32"/>
+      <c r="B194" s="25"/>
+      <c r="C194" s="28"/>
       <c r="D194" t="s">
         <v>236</v>
       </c>
@@ -6974,8 +9749,8 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="22"/>
-      <c r="B195" s="28"/>
-      <c r="C195" s="32"/>
+      <c r="B195" s="25"/>
+      <c r="C195" s="28"/>
       <c r="D195" t="s">
         <v>237</v>
       </c>
@@ -6985,8 +9760,8 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="22"/>
-      <c r="B196" s="28"/>
-      <c r="C196" s="32"/>
+      <c r="B196" s="25"/>
+      <c r="C196" s="28"/>
       <c r="D196" t="s">
         <v>238</v>
       </c>
@@ -6996,8 +9771,8 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="22"/>
-      <c r="B197" s="28"/>
-      <c r="C197" s="32"/>
+      <c r="B197" s="25"/>
+      <c r="C197" s="28"/>
       <c r="D197" t="s">
         <v>221</v>
       </c>
@@ -7007,8 +9782,8 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="22"/>
-      <c r="B198" s="28"/>
-      <c r="C198" s="32"/>
+      <c r="B198" s="25"/>
+      <c r="C198" s="28"/>
       <c r="D198" t="s">
         <v>239</v>
       </c>
@@ -7018,8 +9793,8 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="22"/>
-      <c r="B199" s="28"/>
-      <c r="C199" s="32"/>
+      <c r="B199" s="25"/>
+      <c r="C199" s="28"/>
       <c r="D199" t="s">
         <v>240</v>
       </c>
@@ -7029,8 +9804,8 @@
     </row>
     <row r="200" spans="1:8" ht="17.25" thickBot="1">
       <c r="A200" s="22"/>
-      <c r="B200" s="28"/>
-      <c r="C200" s="31"/>
+      <c r="B200" s="25"/>
+      <c r="C200" s="29"/>
       <c r="D200" t="s">
         <v>241</v>
       </c>
@@ -7040,7 +9815,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="22"/>
-      <c r="B201" s="28"/>
+      <c r="B201" s="25"/>
       <c r="C201" t="s">
         <v>242</v>
       </c>
@@ -7050,7 +9825,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="22"/>
-      <c r="B202" s="28"/>
+      <c r="B202" s="25"/>
       <c r="C202" t="s">
         <v>84</v>
       </c>
@@ -7060,7 +9835,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="22"/>
-      <c r="B203" s="28"/>
+      <c r="B203" s="25"/>
       <c r="C203" t="s">
         <v>243</v>
       </c>
@@ -7070,7 +9845,7 @@
     </row>
     <row r="204" spans="1:8" ht="17.25" thickBot="1">
       <c r="A204" s="22"/>
-      <c r="B204" s="29"/>
+      <c r="B204" s="26"/>
       <c r="C204" t="s">
         <v>244</v>
       </c>
@@ -7080,10 +9855,10 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="22"/>
-      <c r="B205" s="27" t="s">
+      <c r="B205" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="C205" s="30" t="s">
+      <c r="C205" s="27" t="s">
         <v>218</v>
       </c>
       <c r="D205" t="s">
@@ -7098,8 +9873,8 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="22"/>
-      <c r="B206" s="28"/>
-      <c r="C206" s="32"/>
+      <c r="B206" s="25"/>
+      <c r="C206" s="28"/>
       <c r="D206" t="s">
         <v>246</v>
       </c>
@@ -7112,8 +9887,8 @@
     </row>
     <row r="207" spans="1:8" ht="17.25" thickBot="1">
       <c r="A207" s="22"/>
-      <c r="B207" s="28"/>
-      <c r="C207" s="31"/>
+      <c r="B207" s="25"/>
+      <c r="C207" s="29"/>
       <c r="D207" t="s">
         <v>221</v>
       </c>
@@ -7126,7 +9901,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="22"/>
-      <c r="B208" s="28"/>
+      <c r="B208" s="25"/>
       <c r="C208" t="s">
         <v>206</v>
       </c>
@@ -7142,7 +9917,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="22"/>
-      <c r="B209" s="28"/>
+      <c r="B209" s="25"/>
       <c r="C209" t="s">
         <v>224</v>
       </c>
@@ -7158,7 +9933,7 @@
     </row>
     <row r="210" spans="1:8" ht="17.25" thickBot="1">
       <c r="A210" s="22"/>
-      <c r="B210" s="29"/>
+      <c r="B210" s="26"/>
       <c r="C210" t="s">
         <v>228</v>
       </c>
@@ -7432,17 +10207,19 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A226:A228"/>
-    <mergeCell ref="A128:A190"/>
-    <mergeCell ref="A191:A225"/>
-    <mergeCell ref="B191:B204"/>
-    <mergeCell ref="B205:B210"/>
-    <mergeCell ref="C191:C200"/>
-    <mergeCell ref="C205:C207"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B114"/>
+    <mergeCell ref="A1:A46"/>
+    <mergeCell ref="B1:B9"/>
+    <mergeCell ref="B10:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A47:A127"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B78"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B84:B86"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="C96:C109"/>
@@ -7452,19 +10229,17 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A47:A127"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B78"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="A1:A46"/>
-    <mergeCell ref="B1:B9"/>
-    <mergeCell ref="B10:B23"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C191:C200"/>
+    <mergeCell ref="C205:C207"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B114"/>
+    <mergeCell ref="A226:A228"/>
+    <mergeCell ref="A128:A190"/>
+    <mergeCell ref="A191:A225"/>
+    <mergeCell ref="B191:B204"/>
+    <mergeCell ref="B205:B210"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/開發文件.xlsx
+++ b/docs/開發文件.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\YDWE1.25.10\Creation\Mod\The_Tilted_Clock_Tower\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7BB91C-791F-4588-9C6C-D194FD3E37EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E7330C-2479-4D7D-9FD4-C6059C19E9D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
   </bookViews>
   <sheets>
     <sheet name="項目" sheetId="1" r:id="rId1"/>
@@ -1895,7 +1895,19 @@
               <a:pPr algn="l"/>
               <a:r>
                 <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-                <a:t>把屬性當成積木堆起來，堆越高需要越多的技巧，不然越容易崩毀，</a:t>
+                <a:t>把屬性當作積木，在一定規則下拼出自己想像好的作品</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>，從而獲得舒服的體驗</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
             </a:p>
@@ -4038,19 +4050,53 @@
           <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>把屬性當成積木堆起來，堆越高需要越多的技巧，不然越容易崩毀</a:t>
-          </a:r>
+            <a:t>把屬性當作積木拼出高大堅固的裝備</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，從而獲得舒服的體驗</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="zh-TW">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -4173,7 +4219,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>伴生材料會有特殊效果</a:t>
+            <a:t>伴生材料會給構裝額外的效果</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
         </a:p>
@@ -7398,7 +7444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A49064-508F-4BCD-89C6-B182FEBF2CD7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -7414,8 +7460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102EB912-690F-4A1D-A395-38C2CE3B65FD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U33" sqref="U33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/docs/開發文件.xlsx
+++ b/docs/開發文件.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\YDWE1.25.10\Creation\Mod\The_Tilted_Clock_Tower\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E7330C-2479-4D7D-9FD4-C6059C19E9D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADB329F-C69C-41B3-A666-D8230ACB64E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
   </bookViews>
@@ -1670,6 +1670,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1682,10 +1691,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1695,15 +1704,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3528,15 +3528,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>335279</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:colOff>649604</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>93344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3551,8 +3551,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5135879" y="4884420"/>
-          <a:ext cx="1588771" cy="906780"/>
+          <a:off x="5450204" y="3236594"/>
+          <a:ext cx="1588771" cy="1335405"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3579,69 +3579,15 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>放入重複的材料會提高消耗。使用鍛造技會恢復魔力。</a:t>
+            <a:t>使用鍛造技會將前面放入的材料組出屬性。</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
         </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>668655</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="矩形: 圓角 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFCE3098-4FC3-41BC-BB37-EAC40F37DD99}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6840855" y="4884420"/>
-          <a:ext cx="1464946" cy="954405"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>有些材料會相衝，導致魔力耗損巨大，若魔力為負，魔石會毀損。</a:t>
+            <a:t>如果材料有剩餘，魔石將留存雜質，雜質過多，將會影響屬性的強弱。</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
         </a:p>
@@ -3652,320 +3598,41 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>97154</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:colOff>123575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="矩形: 圓角 72">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BB3D82F-F715-447F-AA53-8D92ABB6B37C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3526154" y="4884420"/>
-          <a:ext cx="1474471" cy="678180"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>剩餘魔力不得大於最大魔力。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>148590</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>339090</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>72390</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>93344</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="78" name="直線接點 77">
+        <xdr:cNvPr id="14" name="直線單箭頭接點 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD88575E-DECE-4ADA-A258-13825A2331C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1FFEEC3-C15D-439F-9147-74239BA27AD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="42" idx="2"/>
-          <a:endCxn id="73" idx="0"/>
+          <a:stCxn id="71" idx="0"/>
+          <a:endCxn id="8" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4263390" y="4210050"/>
-          <a:ext cx="190500" cy="674370"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3552575" y="2807970"/>
+          <a:ext cx="2692015" cy="428624"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>339090</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>443865</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="80" name="直線接點 79">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBD9FB57-53C9-40CC-A10D-0192B7AB0132}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="42" idx="2"/>
-          <a:endCxn id="71" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4453890" y="4210050"/>
-          <a:ext cx="1476375" cy="674370"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>339090</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>29528</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="82" name="直線接點 81">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11978CE5-D80E-4E03-A6EE-C35D64454BEC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="42" idx="2"/>
-          <a:endCxn id="72" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4453890" y="4210050"/>
-          <a:ext cx="3119438" cy="674370"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>93345</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>409576</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="矩形: 圓角 85">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A24AA987-FC9C-4EF1-A9CF-64A0F5547568}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8448675" y="4912995"/>
-          <a:ext cx="1562101" cy="1402080"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>使用鍛造技會提高魔石的不穩定度，每顆魔石擁有不同的不穩定極限，超過就會導致魔石毀損</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>339090</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>93345</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="89" name="直線接點 88">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34DB1A40-BDD9-47F7-BFE3-515C8FE6C877}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="42" idx="2"/>
-          <a:endCxn id="86" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4453890" y="4210050"/>
-          <a:ext cx="4775836" cy="702945"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -6145,6 +5812,68 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>93346</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="矩形: 圓角 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADBFA811-2D3D-4B3E-A807-F90D2933CAFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="5657850"/>
+          <a:ext cx="1464946" cy="954405"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>有些材料會相衝，導致魔力耗損巨大，若魔力為負，魔石會毀損。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7445,7 +7174,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7461,7 +7190,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7509,7 +7238,7 @@
       <c r="A1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="24" t="s">
         <v>83</v>
       </c>
       <c r="C1" t="s">
@@ -7524,7 +7253,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="22"/>
-      <c r="B2" s="34"/>
+      <c r="B2" s="25"/>
       <c r="C2" t="s">
         <v>85</v>
       </c>
@@ -7534,7 +7263,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="22"/>
-      <c r="B3" s="34"/>
+      <c r="B3" s="25"/>
       <c r="C3" t="s">
         <v>86</v>
       </c>
@@ -7544,7 +7273,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="22"/>
-      <c r="B4" s="34"/>
+      <c r="B4" s="25"/>
       <c r="C4" t="s">
         <v>87</v>
       </c>
@@ -7554,7 +7283,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="22"/>
-      <c r="B5" s="34"/>
+      <c r="B5" s="25"/>
       <c r="C5" t="s">
         <v>88</v>
       </c>
@@ -7564,7 +7293,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="22"/>
-      <c r="B6" s="34"/>
+      <c r="B6" s="25"/>
       <c r="C6" t="s">
         <v>89</v>
       </c>
@@ -7574,7 +7303,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="22"/>
-      <c r="B7" s="34"/>
+      <c r="B7" s="25"/>
       <c r="C7" t="s">
         <v>90</v>
       </c>
@@ -7584,7 +7313,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="22"/>
-      <c r="B8" s="34"/>
+      <c r="B8" s="25"/>
       <c r="C8" t="s">
         <v>91</v>
       </c>
@@ -7594,7 +7323,7 @@
     </row>
     <row r="9" spans="1:8" ht="17.25" thickBot="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="35"/>
+      <c r="B9" s="26"/>
       <c r="C9" t="s">
         <v>92</v>
       </c>
@@ -7604,13 +7333,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="22"/>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="33" t="s">
         <v>95</v>
       </c>
       <c r="E10" t="s">
@@ -7622,9 +7351,9 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="22"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="34"/>
       <c r="E11" t="s">
         <v>97</v>
       </c>
@@ -7634,9 +7363,9 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="22"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="31"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="34"/>
       <c r="E12" t="s">
         <v>98</v>
       </c>
@@ -7646,9 +7375,9 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="22"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="34"/>
       <c r="E13" t="s">
         <v>99</v>
       </c>
@@ -7658,9 +7387,9 @@
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="32"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="35"/>
       <c r="E14" t="s">
         <v>100</v>
       </c>
@@ -7670,9 +7399,9 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="22"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="30" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33" t="s">
         <v>101</v>
       </c>
       <c r="E15" t="s">
@@ -7684,9 +7413,9 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="22"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="31"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="34"/>
       <c r="E16" t="s">
         <v>103</v>
       </c>
@@ -7696,9 +7425,9 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="22"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="31"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="34"/>
       <c r="E17" t="s">
         <v>104</v>
       </c>
@@ -7708,9 +7437,9 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="22"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="31"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="34"/>
       <c r="E18" t="s">
         <v>105</v>
       </c>
@@ -7720,9 +7449,9 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="31"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="34"/>
       <c r="E19" t="s">
         <v>106</v>
       </c>
@@ -7732,9 +7461,9 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="22"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="31"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="34"/>
       <c r="E20" t="s">
         <v>107</v>
       </c>
@@ -7744,9 +7473,9 @@
     </row>
     <row r="21" spans="1:6" ht="17.25" thickBot="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="32"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="35"/>
       <c r="E21" t="s">
         <v>108</v>
       </c>
@@ -7756,7 +7485,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="22"/>
-      <c r="B22" s="34"/>
+      <c r="B22" s="25"/>
       <c r="C22" t="s">
         <v>109</v>
       </c>
@@ -7766,7 +7495,7 @@
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="35"/>
+      <c r="B23" s="26"/>
       <c r="C23" t="s">
         <v>84</v>
       </c>
@@ -7776,7 +7505,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="22"/>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="27" t="s">
         <v>110</v>
       </c>
       <c r="C24" t="s">
@@ -7788,7 +7517,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="22"/>
-      <c r="B25" s="25"/>
+      <c r="B25" s="28"/>
       <c r="C25" t="s">
         <v>111</v>
       </c>
@@ -7798,7 +7527,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="22"/>
-      <c r="B26" s="25"/>
+      <c r="B26" s="28"/>
       <c r="C26" t="s">
         <v>112</v>
       </c>
@@ -7808,7 +7537,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="22"/>
-      <c r="B27" s="25"/>
+      <c r="B27" s="28"/>
       <c r="C27" t="s">
         <v>113</v>
       </c>
@@ -7818,7 +7547,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="22"/>
-      <c r="B28" s="25"/>
+      <c r="B28" s="28"/>
       <c r="C28" t="s">
         <v>114</v>
       </c>
@@ -7828,7 +7557,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="22"/>
-      <c r="B29" s="25"/>
+      <c r="B29" s="28"/>
       <c r="C29" t="s">
         <v>115</v>
       </c>
@@ -7838,7 +7567,7 @@
     </row>
     <row r="30" spans="1:6" ht="17.25" thickBot="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="26"/>
+      <c r="B30" s="29"/>
       <c r="C30" t="s">
         <v>116</v>
       </c>
@@ -7848,10 +7577,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="22"/>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="30" t="s">
         <v>118</v>
       </c>
       <c r="D31" t="s">
@@ -7863,8 +7592,8 @@
     </row>
     <row r="32" spans="1:6" ht="17.25" thickBot="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="29"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="31"/>
       <c r="D32" t="s">
         <v>120</v>
       </c>
@@ -7874,8 +7603,8 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="22"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="27" t="s">
+      <c r="B33" s="28"/>
+      <c r="C33" s="30" t="s">
         <v>121</v>
       </c>
       <c r="D33" t="s">
@@ -7887,8 +7616,8 @@
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1">
       <c r="A34" s="22"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="29"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="31"/>
       <c r="D34" t="s">
         <v>123</v>
       </c>
@@ -7898,8 +7627,8 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="22"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="27" t="s">
+      <c r="B35" s="28"/>
+      <c r="C35" s="30" t="s">
         <v>124</v>
       </c>
       <c r="D35" t="s">
@@ -7911,8 +7640,8 @@
     </row>
     <row r="36" spans="1:7" ht="17.25" thickBot="1">
       <c r="A36" s="22"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="31"/>
       <c r="D36" t="s">
         <v>123</v>
       </c>
@@ -8014,7 +7743,7 @@
       <c r="A47" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="27" t="s">
         <v>136</v>
       </c>
       <c r="C47" t="s">
@@ -8029,7 +7758,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="22"/>
-      <c r="B48" s="25"/>
+      <c r="B48" s="28"/>
       <c r="C48" t="s">
         <v>138</v>
       </c>
@@ -8042,7 +7771,7 @@
     </row>
     <row r="49" spans="1:7" ht="17.25" thickBot="1">
       <c r="A49" s="22"/>
-      <c r="B49" s="26"/>
+      <c r="B49" s="29"/>
       <c r="C49" t="s">
         <v>139</v>
       </c>
@@ -8055,10 +7784,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="22"/>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="30" t="s">
         <v>141</v>
       </c>
       <c r="D50" t="s">
@@ -8073,8 +7802,8 @@
     </row>
     <row r="51" spans="1:7" ht="17.25" thickBot="1">
       <c r="A51" s="22"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="29"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="31"/>
       <c r="D51" t="s">
         <v>142</v>
       </c>
@@ -8087,7 +7816,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="22"/>
-      <c r="B52" s="25"/>
+      <c r="B52" s="28"/>
       <c r="C52" t="s">
         <v>138</v>
       </c>
@@ -8100,7 +7829,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="22"/>
-      <c r="B53" s="25"/>
+      <c r="B53" s="28"/>
       <c r="C53" t="s">
         <v>84</v>
       </c>
@@ -8113,7 +7842,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="22"/>
-      <c r="B54" s="25"/>
+      <c r="B54" s="28"/>
       <c r="C54" t="s">
         <v>143</v>
       </c>
@@ -8126,7 +7855,7 @@
     </row>
     <row r="55" spans="1:7" ht="17.25" thickBot="1">
       <c r="A55" s="22"/>
-      <c r="B55" s="26"/>
+      <c r="B55" s="29"/>
       <c r="C55" t="s">
         <v>144</v>
       </c>
@@ -8139,7 +7868,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="22"/>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="27" t="s">
         <v>145</v>
       </c>
       <c r="C56" t="s">
@@ -8154,7 +7883,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="22"/>
-      <c r="B57" s="25"/>
+      <c r="B57" s="28"/>
       <c r="C57" t="s">
         <v>147</v>
       </c>
@@ -8167,7 +7896,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="22"/>
-      <c r="B58" s="25"/>
+      <c r="B58" s="28"/>
       <c r="C58" t="s">
         <v>148</v>
       </c>
@@ -8180,7 +7909,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="22"/>
-      <c r="B59" s="25"/>
+      <c r="B59" s="28"/>
       <c r="C59" t="s">
         <v>149</v>
       </c>
@@ -8193,7 +7922,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="22"/>
-      <c r="B60" s="25"/>
+      <c r="B60" s="28"/>
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -8206,7 +7935,7 @@
     </row>
     <row r="61" spans="1:7" ht="17.25" thickBot="1">
       <c r="A61" s="22"/>
-      <c r="B61" s="26"/>
+      <c r="B61" s="29"/>
       <c r="C61" t="s">
         <v>151</v>
       </c>
@@ -8219,7 +7948,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="22"/>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="27" t="s">
         <v>152</v>
       </c>
       <c r="C62" t="s">
@@ -8234,7 +7963,7 @@
     </row>
     <row r="63" spans="1:7" ht="17.25" thickBot="1">
       <c r="A63" s="22"/>
-      <c r="B63" s="26"/>
+      <c r="B63" s="29"/>
       <c r="C63" t="s">
         <v>138</v>
       </c>
@@ -8247,10 +7976,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="22"/>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="30" t="s">
         <v>155</v>
       </c>
       <c r="D64" t="s">
@@ -8262,8 +7991,8 @@
     </row>
     <row r="65" spans="1:7" ht="17.25" thickBot="1">
       <c r="A65" s="22"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="29"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="31"/>
       <c r="D65" t="s">
         <v>156</v>
       </c>
@@ -8273,7 +8002,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="22"/>
-      <c r="B66" s="25"/>
+      <c r="B66" s="28"/>
       <c r="C66" t="s">
         <v>157</v>
       </c>
@@ -8283,7 +8012,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="22"/>
-      <c r="B67" s="25"/>
+      <c r="B67" s="28"/>
       <c r="C67" t="s">
         <v>158</v>
       </c>
@@ -8293,7 +8022,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="22"/>
-      <c r="B68" s="25"/>
+      <c r="B68" s="28"/>
       <c r="C68" t="s">
         <v>159</v>
       </c>
@@ -8303,7 +8032,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="22"/>
-      <c r="B69" s="25"/>
+      <c r="B69" s="28"/>
       <c r="C69" t="s">
         <v>138</v>
       </c>
@@ -8313,7 +8042,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="22"/>
-      <c r="B70" s="25"/>
+      <c r="B70" s="28"/>
       <c r="C70" t="s">
         <v>160</v>
       </c>
@@ -8323,7 +8052,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="22"/>
-      <c r="B71" s="25"/>
+      <c r="B71" s="28"/>
       <c r="C71" t="s">
         <v>161</v>
       </c>
@@ -8333,7 +8062,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="22"/>
-      <c r="B72" s="25"/>
+      <c r="B72" s="28"/>
       <c r="C72" t="s">
         <v>162</v>
       </c>
@@ -8343,7 +8072,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="22"/>
-      <c r="B73" s="25"/>
+      <c r="B73" s="28"/>
       <c r="C73" t="s">
         <v>84</v>
       </c>
@@ -8353,7 +8082,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="22"/>
-      <c r="B74" s="25"/>
+      <c r="B74" s="28"/>
       <c r="C74" t="s">
         <v>163</v>
       </c>
@@ -8363,7 +8092,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="22"/>
-      <c r="B75" s="25"/>
+      <c r="B75" s="28"/>
       <c r="C75" t="s">
         <v>164</v>
       </c>
@@ -8373,7 +8102,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="22"/>
-      <c r="B76" s="25"/>
+      <c r="B76" s="28"/>
       <c r="C76" t="s">
         <v>165</v>
       </c>
@@ -8383,7 +8112,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="22"/>
-      <c r="B77" s="25"/>
+      <c r="B77" s="28"/>
       <c r="C77" t="s">
         <v>166</v>
       </c>
@@ -8393,7 +8122,7 @@
     </row>
     <row r="78" spans="1:7" ht="17.25" thickBot="1">
       <c r="A78" s="22"/>
-      <c r="B78" s="26"/>
+      <c r="B78" s="29"/>
       <c r="C78" t="s">
         <v>167</v>
       </c>
@@ -8403,7 +8132,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="22"/>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="27" t="s">
         <v>168</v>
       </c>
       <c r="C79" t="s">
@@ -8418,7 +8147,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="22"/>
-      <c r="B80" s="25"/>
+      <c r="B80" s="28"/>
       <c r="C80" t="s">
         <v>169</v>
       </c>
@@ -8431,7 +8160,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="22"/>
-      <c r="B81" s="25"/>
+      <c r="B81" s="28"/>
       <c r="C81" t="s">
         <v>170</v>
       </c>
@@ -8444,7 +8173,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="22"/>
-      <c r="B82" s="25"/>
+      <c r="B82" s="28"/>
       <c r="C82" t="s">
         <v>171</v>
       </c>
@@ -8457,7 +8186,7 @@
     </row>
     <row r="83" spans="1:7" ht="17.25" thickBot="1">
       <c r="A83" s="22"/>
-      <c r="B83" s="26"/>
+      <c r="B83" s="29"/>
       <c r="C83" t="s">
         <v>172</v>
       </c>
@@ -8470,7 +8199,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="22"/>
-      <c r="B84" s="24" t="s">
+      <c r="B84" s="27" t="s">
         <v>173</v>
       </c>
       <c r="C84" t="s">
@@ -8485,7 +8214,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="22"/>
-      <c r="B85" s="25"/>
+      <c r="B85" s="28"/>
       <c r="C85" t="s">
         <v>144</v>
       </c>
@@ -8498,7 +8227,7 @@
     </row>
     <row r="86" spans="1:7" ht="17.25" thickBot="1">
       <c r="A86" s="22"/>
-      <c r="B86" s="26"/>
+      <c r="B86" s="29"/>
       <c r="C86" t="s">
         <v>172</v>
       </c>
@@ -8508,7 +8237,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="22"/>
-      <c r="B87" s="24" t="s">
+      <c r="B87" s="27" t="s">
         <v>123</v>
       </c>
       <c r="C87" t="s">
@@ -8523,7 +8252,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="22"/>
-      <c r="B88" s="25"/>
+      <c r="B88" s="28"/>
       <c r="C88" t="s">
         <v>138</v>
       </c>
@@ -8536,7 +8265,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="22"/>
-      <c r="B89" s="25"/>
+      <c r="B89" s="28"/>
       <c r="C89" t="s">
         <v>161</v>
       </c>
@@ -8549,7 +8278,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="22"/>
-      <c r="B90" s="25"/>
+      <c r="B90" s="28"/>
       <c r="C90" t="s">
         <v>84</v>
       </c>
@@ -8562,7 +8291,7 @@
     </row>
     <row r="91" spans="1:7" ht="17.25" thickBot="1">
       <c r="A91" s="22"/>
-      <c r="B91" s="26"/>
+      <c r="B91" s="29"/>
       <c r="C91" t="s">
         <v>172</v>
       </c>
@@ -8575,7 +8304,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="22"/>
-      <c r="B92" s="24" t="s">
+      <c r="B92" s="27" t="s">
         <v>175</v>
       </c>
       <c r="C92" t="s">
@@ -8590,7 +8319,7 @@
     </row>
     <row r="93" spans="1:7" ht="17.25" thickBot="1">
       <c r="A93" s="22"/>
-      <c r="B93" s="26"/>
+      <c r="B93" s="29"/>
       <c r="C93" t="s">
         <v>138</v>
       </c>
@@ -8603,7 +8332,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="22"/>
-      <c r="B94" s="24" t="s">
+      <c r="B94" s="27" t="s">
         <v>177</v>
       </c>
       <c r="C94" t="s">
@@ -8618,7 +8347,7 @@
     </row>
     <row r="95" spans="1:7" ht="17.25" thickBot="1">
       <c r="A95" s="22"/>
-      <c r="B95" s="26"/>
+      <c r="B95" s="29"/>
       <c r="C95" t="s">
         <v>84</v>
       </c>
@@ -8631,10 +8360,10 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="22"/>
-      <c r="B96" s="24" t="s">
+      <c r="B96" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C96" s="27" t="s">
+      <c r="C96" s="30" t="s">
         <v>141</v>
       </c>
       <c r="D96" t="s">
@@ -8649,8 +8378,8 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="22"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="28"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="32"/>
       <c r="D97" t="s">
         <v>178</v>
       </c>
@@ -8663,8 +8392,8 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="22"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="28"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="32"/>
       <c r="D98" t="s">
         <v>179</v>
       </c>
@@ -8677,8 +8406,8 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="22"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="28"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="32"/>
       <c r="D99" t="s">
         <v>180</v>
       </c>
@@ -8691,8 +8420,8 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="22"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="28"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="32"/>
       <c r="D100" t="s">
         <v>181</v>
       </c>
@@ -8705,8 +8434,8 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="22"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="28"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="32"/>
       <c r="D101" t="s">
         <v>182</v>
       </c>
@@ -8719,8 +8448,8 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="22"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="28"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="32"/>
       <c r="D102" t="s">
         <v>183</v>
       </c>
@@ -8733,8 +8462,8 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="22"/>
-      <c r="B103" s="25"/>
-      <c r="C103" s="28"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="32"/>
       <c r="D103" t="s">
         <v>184</v>
       </c>
@@ -8747,8 +8476,8 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="22"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="28"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="32"/>
       <c r="D104" t="s">
         <v>185</v>
       </c>
@@ -8761,8 +8490,8 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="22"/>
-      <c r="B105" s="25"/>
-      <c r="C105" s="28"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="32"/>
       <c r="D105" t="s">
         <v>186</v>
       </c>
@@ -8775,8 +8504,8 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="22"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="28"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="32"/>
       <c r="D106" t="s">
         <v>187</v>
       </c>
@@ -8789,8 +8518,8 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="22"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="28"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="32"/>
       <c r="D107" t="s">
         <v>188</v>
       </c>
@@ -8803,8 +8532,8 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="22"/>
-      <c r="B108" s="25"/>
-      <c r="C108" s="28"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="32"/>
       <c r="D108" t="s">
         <v>189</v>
       </c>
@@ -8817,8 +8546,8 @@
     </row>
     <row r="109" spans="1:7" ht="17.25" thickBot="1">
       <c r="A109" s="22"/>
-      <c r="B109" s="25"/>
-      <c r="C109" s="29"/>
+      <c r="B109" s="28"/>
+      <c r="C109" s="31"/>
       <c r="D109" t="s">
         <v>190</v>
       </c>
@@ -8831,7 +8560,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="22"/>
-      <c r="B110" s="25"/>
+      <c r="B110" s="28"/>
       <c r="C110" t="s">
         <v>138</v>
       </c>
@@ -8844,7 +8573,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="22"/>
-      <c r="B111" s="25"/>
+      <c r="B111" s="28"/>
       <c r="C111" t="s">
         <v>161</v>
       </c>
@@ -8857,7 +8586,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="22"/>
-      <c r="B112" s="25"/>
+      <c r="B112" s="28"/>
       <c r="C112" t="s">
         <v>191</v>
       </c>
@@ -8870,7 +8599,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="22"/>
-      <c r="B113" s="25"/>
+      <c r="B113" s="28"/>
       <c r="C113" t="s">
         <v>143</v>
       </c>
@@ -8883,7 +8612,7 @@
     </row>
     <row r="114" spans="1:7" ht="17.25" thickBot="1">
       <c r="A114" s="22"/>
-      <c r="B114" s="26"/>
+      <c r="B114" s="29"/>
       <c r="C114" t="s">
         <v>192</v>
       </c>
@@ -9747,10 +9476,10 @@
       <c r="A191" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="B191" s="24" t="s">
+      <c r="B191" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="C191" s="27" t="s">
+      <c r="C191" s="30" t="s">
         <v>232</v>
       </c>
       <c r="D191" t="s">
@@ -9762,8 +9491,8 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="22"/>
-      <c r="B192" s="25"/>
-      <c r="C192" s="28"/>
+      <c r="B192" s="28"/>
+      <c r="C192" s="32"/>
       <c r="D192" t="s">
         <v>234</v>
       </c>
@@ -9773,8 +9502,8 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="22"/>
-      <c r="B193" s="25"/>
-      <c r="C193" s="28"/>
+      <c r="B193" s="28"/>
+      <c r="C193" s="32"/>
       <c r="D193" t="s">
         <v>235</v>
       </c>
@@ -9784,8 +9513,8 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="22"/>
-      <c r="B194" s="25"/>
-      <c r="C194" s="28"/>
+      <c r="B194" s="28"/>
+      <c r="C194" s="32"/>
       <c r="D194" t="s">
         <v>236</v>
       </c>
@@ -9795,8 +9524,8 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="22"/>
-      <c r="B195" s="25"/>
-      <c r="C195" s="28"/>
+      <c r="B195" s="28"/>
+      <c r="C195" s="32"/>
       <c r="D195" t="s">
         <v>237</v>
       </c>
@@ -9806,8 +9535,8 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="22"/>
-      <c r="B196" s="25"/>
-      <c r="C196" s="28"/>
+      <c r="B196" s="28"/>
+      <c r="C196" s="32"/>
       <c r="D196" t="s">
         <v>238</v>
       </c>
@@ -9817,8 +9546,8 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="22"/>
-      <c r="B197" s="25"/>
-      <c r="C197" s="28"/>
+      <c r="B197" s="28"/>
+      <c r="C197" s="32"/>
       <c r="D197" t="s">
         <v>221</v>
       </c>
@@ -9828,8 +9557,8 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="22"/>
-      <c r="B198" s="25"/>
-      <c r="C198" s="28"/>
+      <c r="B198" s="28"/>
+      <c r="C198" s="32"/>
       <c r="D198" t="s">
         <v>239</v>
       </c>
@@ -9839,8 +9568,8 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="22"/>
-      <c r="B199" s="25"/>
-      <c r="C199" s="28"/>
+      <c r="B199" s="28"/>
+      <c r="C199" s="32"/>
       <c r="D199" t="s">
         <v>240</v>
       </c>
@@ -9850,8 +9579,8 @@
     </row>
     <row r="200" spans="1:8" ht="17.25" thickBot="1">
       <c r="A200" s="22"/>
-      <c r="B200" s="25"/>
-      <c r="C200" s="29"/>
+      <c r="B200" s="28"/>
+      <c r="C200" s="31"/>
       <c r="D200" t="s">
         <v>241</v>
       </c>
@@ -9861,7 +9590,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="22"/>
-      <c r="B201" s="25"/>
+      <c r="B201" s="28"/>
       <c r="C201" t="s">
         <v>242</v>
       </c>
@@ -9871,7 +9600,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="22"/>
-      <c r="B202" s="25"/>
+      <c r="B202" s="28"/>
       <c r="C202" t="s">
         <v>84</v>
       </c>
@@ -9881,7 +9610,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="22"/>
-      <c r="B203" s="25"/>
+      <c r="B203" s="28"/>
       <c r="C203" t="s">
         <v>243</v>
       </c>
@@ -9891,7 +9620,7 @@
     </row>
     <row r="204" spans="1:8" ht="17.25" thickBot="1">
       <c r="A204" s="22"/>
-      <c r="B204" s="26"/>
+      <c r="B204" s="29"/>
       <c r="C204" t="s">
         <v>244</v>
       </c>
@@ -9901,10 +9630,10 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="22"/>
-      <c r="B205" s="24" t="s">
+      <c r="B205" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="C205" s="27" t="s">
+      <c r="C205" s="30" t="s">
         <v>218</v>
       </c>
       <c r="D205" t="s">
@@ -9919,8 +9648,8 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="22"/>
-      <c r="B206" s="25"/>
-      <c r="C206" s="28"/>
+      <c r="B206" s="28"/>
+      <c r="C206" s="32"/>
       <c r="D206" t="s">
         <v>246</v>
       </c>
@@ -9933,8 +9662,8 @@
     </row>
     <row r="207" spans="1:8" ht="17.25" thickBot="1">
       <c r="A207" s="22"/>
-      <c r="B207" s="25"/>
-      <c r="C207" s="29"/>
+      <c r="B207" s="28"/>
+      <c r="C207" s="31"/>
       <c r="D207" t="s">
         <v>221</v>
       </c>
@@ -9947,7 +9676,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="22"/>
-      <c r="B208" s="25"/>
+      <c r="B208" s="28"/>
       <c r="C208" t="s">
         <v>206</v>
       </c>
@@ -9963,7 +9692,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="22"/>
-      <c r="B209" s="25"/>
+      <c r="B209" s="28"/>
       <c r="C209" t="s">
         <v>224</v>
       </c>
@@ -9979,7 +9708,7 @@
     </row>
     <row r="210" spans="1:8" ht="17.25" thickBot="1">
       <c r="A210" s="22"/>
-      <c r="B210" s="26"/>
+      <c r="B210" s="29"/>
       <c r="C210" t="s">
         <v>228</v>
       </c>
@@ -10253,19 +9982,17 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:A46"/>
-    <mergeCell ref="B1:B9"/>
-    <mergeCell ref="B10:B23"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="A47:A127"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B78"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="A226:A228"/>
+    <mergeCell ref="A128:A190"/>
+    <mergeCell ref="A191:A225"/>
+    <mergeCell ref="B191:B204"/>
+    <mergeCell ref="B205:B210"/>
+    <mergeCell ref="C191:C200"/>
+    <mergeCell ref="C205:C207"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B114"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="C96:C109"/>
@@ -10275,17 +10002,19 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C191:C200"/>
-    <mergeCell ref="C205:C207"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B114"/>
-    <mergeCell ref="A226:A228"/>
-    <mergeCell ref="A128:A190"/>
-    <mergeCell ref="A191:A225"/>
-    <mergeCell ref="B191:B204"/>
-    <mergeCell ref="B205:B210"/>
+    <mergeCell ref="A47:A127"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B78"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="A1:A46"/>
+    <mergeCell ref="B1:B9"/>
+    <mergeCell ref="B10:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/開發文件.xlsx
+++ b/docs/開發文件.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\YDWE1.25.10\Creation\Mod\The_Tilted_Clock_Tower\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADB329F-C69C-41B3-A666-D8230ACB64E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEAD1B1-C6F9-4F74-8AA0-8F6E10D4D3EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
   </bookViews>
@@ -1670,15 +1670,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1691,10 +1682,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1704,6 +1695,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7173,8 +7173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A49064-508F-4BCD-89C6-B182FEBF2CD7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7238,7 +7238,7 @@
       <c r="A1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="33" t="s">
         <v>83</v>
       </c>
       <c r="C1" t="s">
@@ -7253,7 +7253,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="22"/>
-      <c r="B2" s="25"/>
+      <c r="B2" s="34"/>
       <c r="C2" t="s">
         <v>85</v>
       </c>
@@ -7263,7 +7263,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="22"/>
-      <c r="B3" s="25"/>
+      <c r="B3" s="34"/>
       <c r="C3" t="s">
         <v>86</v>
       </c>
@@ -7273,7 +7273,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="22"/>
-      <c r="B4" s="25"/>
+      <c r="B4" s="34"/>
       <c r="C4" t="s">
         <v>87</v>
       </c>
@@ -7283,7 +7283,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="22"/>
-      <c r="B5" s="25"/>
+      <c r="B5" s="34"/>
       <c r="C5" t="s">
         <v>88</v>
       </c>
@@ -7293,7 +7293,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="22"/>
-      <c r="B6" s="25"/>
+      <c r="B6" s="34"/>
       <c r="C6" t="s">
         <v>89</v>
       </c>
@@ -7303,7 +7303,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="22"/>
-      <c r="B7" s="25"/>
+      <c r="B7" s="34"/>
       <c r="C7" t="s">
         <v>90</v>
       </c>
@@ -7313,7 +7313,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="22"/>
-      <c r="B8" s="25"/>
+      <c r="B8" s="34"/>
       <c r="C8" t="s">
         <v>91</v>
       </c>
@@ -7323,7 +7323,7 @@
     </row>
     <row r="9" spans="1:8" ht="17.25" thickBot="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="26"/>
+      <c r="B9" s="35"/>
       <c r="C9" t="s">
         <v>92</v>
       </c>
@@ -7333,13 +7333,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="22"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="30" t="s">
         <v>95</v>
       </c>
       <c r="E10" t="s">
@@ -7351,9 +7351,9 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="22"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="31"/>
       <c r="E11" t="s">
         <v>97</v>
       </c>
@@ -7363,9 +7363,9 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="22"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="31"/>
       <c r="E12" t="s">
         <v>98</v>
       </c>
@@ -7375,9 +7375,9 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="22"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="31"/>
       <c r="E13" t="s">
         <v>99</v>
       </c>
@@ -7387,9 +7387,9 @@
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="35"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="32"/>
       <c r="E14" t="s">
         <v>100</v>
       </c>
@@ -7399,9 +7399,9 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="22"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="30" t="s">
         <v>101</v>
       </c>
       <c r="E15" t="s">
@@ -7413,9 +7413,9 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="22"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="31"/>
       <c r="E16" t="s">
         <v>103</v>
       </c>
@@ -7425,9 +7425,9 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="22"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="31"/>
       <c r="E17" t="s">
         <v>104</v>
       </c>
@@ -7437,9 +7437,9 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="22"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="31"/>
       <c r="E18" t="s">
         <v>105</v>
       </c>
@@ -7449,9 +7449,9 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="31"/>
       <c r="E19" t="s">
         <v>106</v>
       </c>
@@ -7461,9 +7461,9 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="22"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="31"/>
       <c r="E20" t="s">
         <v>107</v>
       </c>
@@ -7473,9 +7473,9 @@
     </row>
     <row r="21" spans="1:6" ht="17.25" thickBot="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="35"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="32"/>
       <c r="E21" t="s">
         <v>108</v>
       </c>
@@ -7485,7 +7485,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="22"/>
-      <c r="B22" s="25"/>
+      <c r="B22" s="34"/>
       <c r="C22" t="s">
         <v>109</v>
       </c>
@@ -7495,7 +7495,7 @@
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="26"/>
+      <c r="B23" s="35"/>
       <c r="C23" t="s">
         <v>84</v>
       </c>
@@ -7505,7 +7505,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="22"/>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="24" t="s">
         <v>110</v>
       </c>
       <c r="C24" t="s">
@@ -7517,7 +7517,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="22"/>
-      <c r="B25" s="28"/>
+      <c r="B25" s="25"/>
       <c r="C25" t="s">
         <v>111</v>
       </c>
@@ -7527,7 +7527,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="22"/>
-      <c r="B26" s="28"/>
+      <c r="B26" s="25"/>
       <c r="C26" t="s">
         <v>112</v>
       </c>
@@ -7537,7 +7537,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="22"/>
-      <c r="B27" s="28"/>
+      <c r="B27" s="25"/>
       <c r="C27" t="s">
         <v>113</v>
       </c>
@@ -7547,7 +7547,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="22"/>
-      <c r="B28" s="28"/>
+      <c r="B28" s="25"/>
       <c r="C28" t="s">
         <v>114</v>
       </c>
@@ -7557,7 +7557,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="22"/>
-      <c r="B29" s="28"/>
+      <c r="B29" s="25"/>
       <c r="C29" t="s">
         <v>115</v>
       </c>
@@ -7567,7 +7567,7 @@
     </row>
     <row r="30" spans="1:6" ht="17.25" thickBot="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="29"/>
+      <c r="B30" s="26"/>
       <c r="C30" t="s">
         <v>116</v>
       </c>
@@ -7577,10 +7577,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="22"/>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="27" t="s">
         <v>118</v>
       </c>
       <c r="D31" t="s">
@@ -7592,8 +7592,8 @@
     </row>
     <row r="32" spans="1:6" ht="17.25" thickBot="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="31"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="29"/>
       <c r="D32" t="s">
         <v>120</v>
       </c>
@@ -7603,8 +7603,8 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="22"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="30" t="s">
+      <c r="B33" s="25"/>
+      <c r="C33" s="27" t="s">
         <v>121</v>
       </c>
       <c r="D33" t="s">
@@ -7616,8 +7616,8 @@
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1">
       <c r="A34" s="22"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="31"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="29"/>
       <c r="D34" t="s">
         <v>123</v>
       </c>
@@ -7627,8 +7627,8 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="22"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="30" t="s">
+      <c r="B35" s="25"/>
+      <c r="C35" s="27" t="s">
         <v>124</v>
       </c>
       <c r="D35" t="s">
@@ -7640,8 +7640,8 @@
     </row>
     <row r="36" spans="1:7" ht="17.25" thickBot="1">
       <c r="A36" s="22"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="31"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="29"/>
       <c r="D36" t="s">
         <v>123</v>
       </c>
@@ -7743,7 +7743,7 @@
       <c r="A47" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="24" t="s">
         <v>136</v>
       </c>
       <c r="C47" t="s">
@@ -7758,7 +7758,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="22"/>
-      <c r="B48" s="28"/>
+      <c r="B48" s="25"/>
       <c r="C48" t="s">
         <v>138</v>
       </c>
@@ -7771,7 +7771,7 @@
     </row>
     <row r="49" spans="1:7" ht="17.25" thickBot="1">
       <c r="A49" s="22"/>
-      <c r="B49" s="29"/>
+      <c r="B49" s="26"/>
       <c r="C49" t="s">
         <v>139</v>
       </c>
@@ -7784,10 +7784,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="22"/>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="27" t="s">
         <v>141</v>
       </c>
       <c r="D50" t="s">
@@ -7802,8 +7802,8 @@
     </row>
     <row r="51" spans="1:7" ht="17.25" thickBot="1">
       <c r="A51" s="22"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="31"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="29"/>
       <c r="D51" t="s">
         <v>142</v>
       </c>
@@ -7816,7 +7816,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="22"/>
-      <c r="B52" s="28"/>
+      <c r="B52" s="25"/>
       <c r="C52" t="s">
         <v>138</v>
       </c>
@@ -7829,7 +7829,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="22"/>
-      <c r="B53" s="28"/>
+      <c r="B53" s="25"/>
       <c r="C53" t="s">
         <v>84</v>
       </c>
@@ -7842,7 +7842,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="22"/>
-      <c r="B54" s="28"/>
+      <c r="B54" s="25"/>
       <c r="C54" t="s">
         <v>143</v>
       </c>
@@ -7855,7 +7855,7 @@
     </row>
     <row r="55" spans="1:7" ht="17.25" thickBot="1">
       <c r="A55" s="22"/>
-      <c r="B55" s="29"/>
+      <c r="B55" s="26"/>
       <c r="C55" t="s">
         <v>144</v>
       </c>
@@ -7868,7 +7868,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="22"/>
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="24" t="s">
         <v>145</v>
       </c>
       <c r="C56" t="s">
@@ -7883,7 +7883,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="22"/>
-      <c r="B57" s="28"/>
+      <c r="B57" s="25"/>
       <c r="C57" t="s">
         <v>147</v>
       </c>
@@ -7896,7 +7896,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="22"/>
-      <c r="B58" s="28"/>
+      <c r="B58" s="25"/>
       <c r="C58" t="s">
         <v>148</v>
       </c>
@@ -7909,7 +7909,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="22"/>
-      <c r="B59" s="28"/>
+      <c r="B59" s="25"/>
       <c r="C59" t="s">
         <v>149</v>
       </c>
@@ -7922,7 +7922,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="22"/>
-      <c r="B60" s="28"/>
+      <c r="B60" s="25"/>
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -7935,7 +7935,7 @@
     </row>
     <row r="61" spans="1:7" ht="17.25" thickBot="1">
       <c r="A61" s="22"/>
-      <c r="B61" s="29"/>
+      <c r="B61" s="26"/>
       <c r="C61" t="s">
         <v>151</v>
       </c>
@@ -7948,7 +7948,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="22"/>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="24" t="s">
         <v>152</v>
       </c>
       <c r="C62" t="s">
@@ -7963,7 +7963,7 @@
     </row>
     <row r="63" spans="1:7" ht="17.25" thickBot="1">
       <c r="A63" s="22"/>
-      <c r="B63" s="29"/>
+      <c r="B63" s="26"/>
       <c r="C63" t="s">
         <v>138</v>
       </c>
@@ -7976,10 +7976,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="22"/>
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C64" s="27" t="s">
         <v>155</v>
       </c>
       <c r="D64" t="s">
@@ -7991,8 +7991,8 @@
     </row>
     <row r="65" spans="1:7" ht="17.25" thickBot="1">
       <c r="A65" s="22"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="31"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="29"/>
       <c r="D65" t="s">
         <v>156</v>
       </c>
@@ -8002,7 +8002,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="22"/>
-      <c r="B66" s="28"/>
+      <c r="B66" s="25"/>
       <c r="C66" t="s">
         <v>157</v>
       </c>
@@ -8012,7 +8012,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="22"/>
-      <c r="B67" s="28"/>
+      <c r="B67" s="25"/>
       <c r="C67" t="s">
         <v>158</v>
       </c>
@@ -8022,7 +8022,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="22"/>
-      <c r="B68" s="28"/>
+      <c r="B68" s="25"/>
       <c r="C68" t="s">
         <v>159</v>
       </c>
@@ -8032,7 +8032,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="22"/>
-      <c r="B69" s="28"/>
+      <c r="B69" s="25"/>
       <c r="C69" t="s">
         <v>138</v>
       </c>
@@ -8042,7 +8042,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="22"/>
-      <c r="B70" s="28"/>
+      <c r="B70" s="25"/>
       <c r="C70" t="s">
         <v>160</v>
       </c>
@@ -8052,7 +8052,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="22"/>
-      <c r="B71" s="28"/>
+      <c r="B71" s="25"/>
       <c r="C71" t="s">
         <v>161</v>
       </c>
@@ -8062,7 +8062,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="22"/>
-      <c r="B72" s="28"/>
+      <c r="B72" s="25"/>
       <c r="C72" t="s">
         <v>162</v>
       </c>
@@ -8072,7 +8072,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="22"/>
-      <c r="B73" s="28"/>
+      <c r="B73" s="25"/>
       <c r="C73" t="s">
         <v>84</v>
       </c>
@@ -8082,7 +8082,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="22"/>
-      <c r="B74" s="28"/>
+      <c r="B74" s="25"/>
       <c r="C74" t="s">
         <v>163</v>
       </c>
@@ -8092,7 +8092,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="22"/>
-      <c r="B75" s="28"/>
+      <c r="B75" s="25"/>
       <c r="C75" t="s">
         <v>164</v>
       </c>
@@ -8102,7 +8102,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="22"/>
-      <c r="B76" s="28"/>
+      <c r="B76" s="25"/>
       <c r="C76" t="s">
         <v>165</v>
       </c>
@@ -8112,7 +8112,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="22"/>
-      <c r="B77" s="28"/>
+      <c r="B77" s="25"/>
       <c r="C77" t="s">
         <v>166</v>
       </c>
@@ -8122,7 +8122,7 @@
     </row>
     <row r="78" spans="1:7" ht="17.25" thickBot="1">
       <c r="A78" s="22"/>
-      <c r="B78" s="29"/>
+      <c r="B78" s="26"/>
       <c r="C78" t="s">
         <v>167</v>
       </c>
@@ -8132,7 +8132,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="22"/>
-      <c r="B79" s="27" t="s">
+      <c r="B79" s="24" t="s">
         <v>168</v>
       </c>
       <c r="C79" t="s">
@@ -8147,7 +8147,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="22"/>
-      <c r="B80" s="28"/>
+      <c r="B80" s="25"/>
       <c r="C80" t="s">
         <v>169</v>
       </c>
@@ -8160,7 +8160,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="22"/>
-      <c r="B81" s="28"/>
+      <c r="B81" s="25"/>
       <c r="C81" t="s">
         <v>170</v>
       </c>
@@ -8173,7 +8173,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="22"/>
-      <c r="B82" s="28"/>
+      <c r="B82" s="25"/>
       <c r="C82" t="s">
         <v>171</v>
       </c>
@@ -8186,7 +8186,7 @@
     </row>
     <row r="83" spans="1:7" ht="17.25" thickBot="1">
       <c r="A83" s="22"/>
-      <c r="B83" s="29"/>
+      <c r="B83" s="26"/>
       <c r="C83" t="s">
         <v>172</v>
       </c>
@@ -8199,7 +8199,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="22"/>
-      <c r="B84" s="27" t="s">
+      <c r="B84" s="24" t="s">
         <v>173</v>
       </c>
       <c r="C84" t="s">
@@ -8214,7 +8214,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="22"/>
-      <c r="B85" s="28"/>
+      <c r="B85" s="25"/>
       <c r="C85" t="s">
         <v>144</v>
       </c>
@@ -8227,7 +8227,7 @@
     </row>
     <row r="86" spans="1:7" ht="17.25" thickBot="1">
       <c r="A86" s="22"/>
-      <c r="B86" s="29"/>
+      <c r="B86" s="26"/>
       <c r="C86" t="s">
         <v>172</v>
       </c>
@@ -8237,7 +8237,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="22"/>
-      <c r="B87" s="27" t="s">
+      <c r="B87" s="24" t="s">
         <v>123</v>
       </c>
       <c r="C87" t="s">
@@ -8252,7 +8252,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="22"/>
-      <c r="B88" s="28"/>
+      <c r="B88" s="25"/>
       <c r="C88" t="s">
         <v>138</v>
       </c>
@@ -8265,7 +8265,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="22"/>
-      <c r="B89" s="28"/>
+      <c r="B89" s="25"/>
       <c r="C89" t="s">
         <v>161</v>
       </c>
@@ -8278,7 +8278,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="22"/>
-      <c r="B90" s="28"/>
+      <c r="B90" s="25"/>
       <c r="C90" t="s">
         <v>84</v>
       </c>
@@ -8291,7 +8291,7 @@
     </row>
     <row r="91" spans="1:7" ht="17.25" thickBot="1">
       <c r="A91" s="22"/>
-      <c r="B91" s="29"/>
+      <c r="B91" s="26"/>
       <c r="C91" t="s">
         <v>172</v>
       </c>
@@ -8304,7 +8304,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="22"/>
-      <c r="B92" s="27" t="s">
+      <c r="B92" s="24" t="s">
         <v>175</v>
       </c>
       <c r="C92" t="s">
@@ -8319,7 +8319,7 @@
     </row>
     <row r="93" spans="1:7" ht="17.25" thickBot="1">
       <c r="A93" s="22"/>
-      <c r="B93" s="29"/>
+      <c r="B93" s="26"/>
       <c r="C93" t="s">
         <v>138</v>
       </c>
@@ -8332,7 +8332,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="22"/>
-      <c r="B94" s="27" t="s">
+      <c r="B94" s="24" t="s">
         <v>177</v>
       </c>
       <c r="C94" t="s">
@@ -8347,7 +8347,7 @@
     </row>
     <row r="95" spans="1:7" ht="17.25" thickBot="1">
       <c r="A95" s="22"/>
-      <c r="B95" s="29"/>
+      <c r="B95" s="26"/>
       <c r="C95" t="s">
         <v>84</v>
       </c>
@@ -8360,10 +8360,10 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="22"/>
-      <c r="B96" s="27" t="s">
+      <c r="B96" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="C96" s="30" t="s">
+      <c r="C96" s="27" t="s">
         <v>141</v>
       </c>
       <c r="D96" t="s">
@@ -8378,8 +8378,8 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="22"/>
-      <c r="B97" s="28"/>
-      <c r="C97" s="32"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="28"/>
       <c r="D97" t="s">
         <v>178</v>
       </c>
@@ -8392,8 +8392,8 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="22"/>
-      <c r="B98" s="28"/>
-      <c r="C98" s="32"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="28"/>
       <c r="D98" t="s">
         <v>179</v>
       </c>
@@ -8406,8 +8406,8 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="22"/>
-      <c r="B99" s="28"/>
-      <c r="C99" s="32"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="28"/>
       <c r="D99" t="s">
         <v>180</v>
       </c>
@@ -8420,8 +8420,8 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="22"/>
-      <c r="B100" s="28"/>
-      <c r="C100" s="32"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="28"/>
       <c r="D100" t="s">
         <v>181</v>
       </c>
@@ -8434,8 +8434,8 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="22"/>
-      <c r="B101" s="28"/>
-      <c r="C101" s="32"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="28"/>
       <c r="D101" t="s">
         <v>182</v>
       </c>
@@ -8448,8 +8448,8 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="22"/>
-      <c r="B102" s="28"/>
-      <c r="C102" s="32"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="28"/>
       <c r="D102" t="s">
         <v>183</v>
       </c>
@@ -8462,8 +8462,8 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="22"/>
-      <c r="B103" s="28"/>
-      <c r="C103" s="32"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="28"/>
       <c r="D103" t="s">
         <v>184</v>
       </c>
@@ -8476,8 +8476,8 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="22"/>
-      <c r="B104" s="28"/>
-      <c r="C104" s="32"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="28"/>
       <c r="D104" t="s">
         <v>185</v>
       </c>
@@ -8490,8 +8490,8 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="22"/>
-      <c r="B105" s="28"/>
-      <c r="C105" s="32"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="28"/>
       <c r="D105" t="s">
         <v>186</v>
       </c>
@@ -8504,8 +8504,8 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="22"/>
-      <c r="B106" s="28"/>
-      <c r="C106" s="32"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="28"/>
       <c r="D106" t="s">
         <v>187</v>
       </c>
@@ -8518,8 +8518,8 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="22"/>
-      <c r="B107" s="28"/>
-      <c r="C107" s="32"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="28"/>
       <c r="D107" t="s">
         <v>188</v>
       </c>
@@ -8532,8 +8532,8 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="22"/>
-      <c r="B108" s="28"/>
-      <c r="C108" s="32"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="28"/>
       <c r="D108" t="s">
         <v>189</v>
       </c>
@@ -8546,8 +8546,8 @@
     </row>
     <row r="109" spans="1:7" ht="17.25" thickBot="1">
       <c r="A109" s="22"/>
-      <c r="B109" s="28"/>
-      <c r="C109" s="31"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="29"/>
       <c r="D109" t="s">
         <v>190</v>
       </c>
@@ -8560,7 +8560,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="22"/>
-      <c r="B110" s="28"/>
+      <c r="B110" s="25"/>
       <c r="C110" t="s">
         <v>138</v>
       </c>
@@ -8573,7 +8573,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="22"/>
-      <c r="B111" s="28"/>
+      <c r="B111" s="25"/>
       <c r="C111" t="s">
         <v>161</v>
       </c>
@@ -8586,7 +8586,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="22"/>
-      <c r="B112" s="28"/>
+      <c r="B112" s="25"/>
       <c r="C112" t="s">
         <v>191</v>
       </c>
@@ -8599,7 +8599,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="22"/>
-      <c r="B113" s="28"/>
+      <c r="B113" s="25"/>
       <c r="C113" t="s">
         <v>143</v>
       </c>
@@ -8612,7 +8612,7 @@
     </row>
     <row r="114" spans="1:7" ht="17.25" thickBot="1">
       <c r="A114" s="22"/>
-      <c r="B114" s="29"/>
+      <c r="B114" s="26"/>
       <c r="C114" t="s">
         <v>192</v>
       </c>
@@ -9476,10 +9476,10 @@
       <c r="A191" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="B191" s="27" t="s">
+      <c r="B191" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="C191" s="30" t="s">
+      <c r="C191" s="27" t="s">
         <v>232</v>
       </c>
       <c r="D191" t="s">
@@ -9491,8 +9491,8 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="22"/>
-      <c r="B192" s="28"/>
-      <c r="C192" s="32"/>
+      <c r="B192" s="25"/>
+      <c r="C192" s="28"/>
       <c r="D192" t="s">
         <v>234</v>
       </c>
@@ -9502,8 +9502,8 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="22"/>
-      <c r="B193" s="28"/>
-      <c r="C193" s="32"/>
+      <c r="B193" s="25"/>
+      <c r="C193" s="28"/>
       <c r="D193" t="s">
         <v>235</v>
       </c>
@@ -9513,8 +9513,8 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="22"/>
-      <c r="B194" s="28"/>
-      <c r="C194" s="32"/>
+      <c r="B194" s="25"/>
+      <c r="C194" s="28"/>
       <c r="D194" t="s">
         <v>236</v>
       </c>
@@ -9524,8 +9524,8 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="22"/>
-      <c r="B195" s="28"/>
-      <c r="C195" s="32"/>
+      <c r="B195" s="25"/>
+      <c r="C195" s="28"/>
       <c r="D195" t="s">
         <v>237</v>
       </c>
@@ -9535,8 +9535,8 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="22"/>
-      <c r="B196" s="28"/>
-      <c r="C196" s="32"/>
+      <c r="B196" s="25"/>
+      <c r="C196" s="28"/>
       <c r="D196" t="s">
         <v>238</v>
       </c>
@@ -9546,8 +9546,8 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="22"/>
-      <c r="B197" s="28"/>
-      <c r="C197" s="32"/>
+      <c r="B197" s="25"/>
+      <c r="C197" s="28"/>
       <c r="D197" t="s">
         <v>221</v>
       </c>
@@ -9557,8 +9557,8 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="22"/>
-      <c r="B198" s="28"/>
-      <c r="C198" s="32"/>
+      <c r="B198" s="25"/>
+      <c r="C198" s="28"/>
       <c r="D198" t="s">
         <v>239</v>
       </c>
@@ -9568,8 +9568,8 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="22"/>
-      <c r="B199" s="28"/>
-      <c r="C199" s="32"/>
+      <c r="B199" s="25"/>
+      <c r="C199" s="28"/>
       <c r="D199" t="s">
         <v>240</v>
       </c>
@@ -9579,8 +9579,8 @@
     </row>
     <row r="200" spans="1:8" ht="17.25" thickBot="1">
       <c r="A200" s="22"/>
-      <c r="B200" s="28"/>
-      <c r="C200" s="31"/>
+      <c r="B200" s="25"/>
+      <c r="C200" s="29"/>
       <c r="D200" t="s">
         <v>241</v>
       </c>
@@ -9590,7 +9590,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="22"/>
-      <c r="B201" s="28"/>
+      <c r="B201" s="25"/>
       <c r="C201" t="s">
         <v>242</v>
       </c>
@@ -9600,7 +9600,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="22"/>
-      <c r="B202" s="28"/>
+      <c r="B202" s="25"/>
       <c r="C202" t="s">
         <v>84</v>
       </c>
@@ -9610,7 +9610,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="22"/>
-      <c r="B203" s="28"/>
+      <c r="B203" s="25"/>
       <c r="C203" t="s">
         <v>243</v>
       </c>
@@ -9620,7 +9620,7 @@
     </row>
     <row r="204" spans="1:8" ht="17.25" thickBot="1">
       <c r="A204" s="22"/>
-      <c r="B204" s="29"/>
+      <c r="B204" s="26"/>
       <c r="C204" t="s">
         <v>244</v>
       </c>
@@ -9630,10 +9630,10 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="22"/>
-      <c r="B205" s="27" t="s">
+      <c r="B205" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="C205" s="30" t="s">
+      <c r="C205" s="27" t="s">
         <v>218</v>
       </c>
       <c r="D205" t="s">
@@ -9648,8 +9648,8 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="22"/>
-      <c r="B206" s="28"/>
-      <c r="C206" s="32"/>
+      <c r="B206" s="25"/>
+      <c r="C206" s="28"/>
       <c r="D206" t="s">
         <v>246</v>
       </c>
@@ -9662,8 +9662,8 @@
     </row>
     <row r="207" spans="1:8" ht="17.25" thickBot="1">
       <c r="A207" s="22"/>
-      <c r="B207" s="28"/>
-      <c r="C207" s="31"/>
+      <c r="B207" s="25"/>
+      <c r="C207" s="29"/>
       <c r="D207" t="s">
         <v>221</v>
       </c>
@@ -9676,7 +9676,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="22"/>
-      <c r="B208" s="28"/>
+      <c r="B208" s="25"/>
       <c r="C208" t="s">
         <v>206</v>
       </c>
@@ -9692,7 +9692,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="22"/>
-      <c r="B209" s="28"/>
+      <c r="B209" s="25"/>
       <c r="C209" t="s">
         <v>224</v>
       </c>
@@ -9708,7 +9708,7 @@
     </row>
     <row r="210" spans="1:8" ht="17.25" thickBot="1">
       <c r="A210" s="22"/>
-      <c r="B210" s="29"/>
+      <c r="B210" s="26"/>
       <c r="C210" t="s">
         <v>228</v>
       </c>
@@ -9982,17 +9982,19 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A226:A228"/>
-    <mergeCell ref="A128:A190"/>
-    <mergeCell ref="A191:A225"/>
-    <mergeCell ref="B191:B204"/>
-    <mergeCell ref="B205:B210"/>
-    <mergeCell ref="C191:C200"/>
-    <mergeCell ref="C205:C207"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B114"/>
+    <mergeCell ref="A1:A46"/>
+    <mergeCell ref="B1:B9"/>
+    <mergeCell ref="B10:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A47:A127"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B78"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B84:B86"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="C96:C109"/>
@@ -10002,19 +10004,17 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A47:A127"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B78"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="A1:A46"/>
-    <mergeCell ref="B1:B9"/>
-    <mergeCell ref="B10:B23"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C191:C200"/>
+    <mergeCell ref="C205:C207"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B114"/>
+    <mergeCell ref="A226:A228"/>
+    <mergeCell ref="A128:A190"/>
+    <mergeCell ref="A191:A225"/>
+    <mergeCell ref="B191:B204"/>
+    <mergeCell ref="B205:B210"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/開發文件.xlsx
+++ b/docs/開發文件.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\YDWE1.25.10\Creation\Mod\The_Tilted_Clock_Tower\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\the-Tilted-Clock-Tower\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADB329F-C69C-41B3-A666-D8230ACB64E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5787D01E-CEB3-4828-8433-04387452178D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
   </bookViews>
   <sheets>
     <sheet name="項目" sheetId="1" r:id="rId1"/>
     <sheet name="創意工坊" sheetId="4" r:id="rId2"/>
     <sheet name="頭腦風暴" sheetId="6" r:id="rId3"/>
-    <sheet name="流程" sheetId="5" r:id="rId4"/>
-    <sheet name="重構紀錄" sheetId="2" r:id="rId5"/>
+    <sheet name="經過驗證的擴充創意" sheetId="7" r:id="rId4"/>
+    <sheet name="流程" sheetId="5" r:id="rId5"/>
+    <sheet name="重構紀錄" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="286">
   <si>
     <r>
       <rPr>
@@ -1356,6 +1357,38 @@
   </si>
   <si>
     <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解決方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只放材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔石儲存著魔力，每次放入材料都會消耗不等魔力，魔力歸零後就無法放入材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只用鍛造技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放入多餘材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果沒有材料就直接使用鍛造技，系統會提示此鍛造技無效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用鍛造技後會產生雜質，它會使屬性按百分比降低</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1597,7 +1630,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1670,15 +1703,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1691,10 +1715,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1705,6 +1729,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1760,7 +1799,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="487680" y="198120"/>
-          <a:ext cx="12200691" cy="2609850"/>
+          <a:ext cx="10829091" cy="2560320"/>
           <a:chOff x="137160" y="274320"/>
           <a:chExt cx="10829091" cy="2560320"/>
         </a:xfrm>
@@ -1859,8 +1898,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="947023" y="1588033"/>
-              <a:ext cx="1428750" cy="1100413"/>
+              <a:off x="939402" y="1516381"/>
+              <a:ext cx="1636157" cy="1233026"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
               <a:avLst/>
@@ -2090,8 +2129,8 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="1661398" y="876301"/>
-              <a:ext cx="1140858" cy="711732"/>
+              <a:off x="1757481" y="876301"/>
+              <a:ext cx="1044775" cy="640080"/>
             </a:xfrm>
             <a:prstGeom prst="straightConnector1">
               <a:avLst/>
@@ -2174,8 +2213,8 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="2375773" y="2132648"/>
-              <a:ext cx="1860350" cy="5592"/>
+              <a:off x="2575559" y="2132648"/>
+              <a:ext cx="1660564" cy="246"/>
             </a:xfrm>
             <a:prstGeom prst="straightConnector1">
               <a:avLst/>
@@ -3659,15 +3698,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>344805</xdr:colOff>
+      <xdr:colOff>139064</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>95248</xdr:rowOff>
+      <xdr:rowOff>26668</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>630555</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>106679</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3682,8 +3721,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7202805" y="2400298"/>
-          <a:ext cx="1657350" cy="1428751"/>
+          <a:off x="6235064" y="2289808"/>
+          <a:ext cx="1796415" cy="1558292"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4663,59 +4702,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>387842</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>39053</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>422910</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>94934</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直線接點 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB366439-F4E9-4603-890D-26CBA31664E1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="7"/>
-          <a:endCxn id="6" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8617442" y="2134553"/>
-          <a:ext cx="720868" cy="474981"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>436245</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -4769,59 +4755,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>50483</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>587518</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>94934</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直線接點 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82EC7AE2-2D89-40DA-88A6-56E22FE8C853}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="1"/>
-          <a:endCxn id="5" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6393180" y="2145983"/>
-          <a:ext cx="1052338" cy="463551"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>350519</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -4851,218 +4784,6 @@
         <a:xfrm flipH="1" flipV="1">
           <a:off x="4465319" y="2142173"/>
           <a:ext cx="529591" cy="3810"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>344805</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="直線接點 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13D620CE-EA67-48F8-9C88-758ED3E52C0D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="9" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6505575" y="3114674"/>
-          <a:ext cx="697230" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>112395</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57463</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>587518</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>153353</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="直線接點 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C0BBC96-9ECB-494F-962D-5FEBB1B4E9E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="12" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6284595" y="3619813"/>
-          <a:ext cx="1160923" cy="514990"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>410528</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="直線接點 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2652F74E-645F-41A8-B701-64255437F90D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="4"/>
-          <a:endCxn id="16" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7268528" y="3829049"/>
-          <a:ext cx="762952" cy="476251"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>630555</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="76" name="直線接點 75">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C294316-C017-4C19-AEB3-38B616C919BF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="6"/>
-          <a:endCxn id="11" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8860155" y="3063240"/>
-          <a:ext cx="611505" cy="51434"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5246,59 +4967,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>163831</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95248</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="104" name="直線接點 103">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{999C6862-4847-4B37-82E4-92430F89F20E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="2"/>
-          <a:endCxn id="2" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7896225" y="1840231"/>
-          <a:ext cx="135255" cy="560067"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>230505</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -5357,59 +5025,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>93344</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>195263</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>587518</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>94934</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="124" name="直線接點 123">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D06FBB00-BA95-411B-98D7-66252A1C6D93}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="117" idx="3"/>
-          <a:endCxn id="2" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6951344" y="1243013"/>
-          <a:ext cx="494174" cy="1366521"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -5632,59 +5247,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>387842</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57463</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>677228</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="148" name="直線接點 147">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69884B1B-2394-499C-A8C5-A1099C50F217}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="5"/>
-          <a:endCxn id="146" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8617442" y="3619813"/>
-          <a:ext cx="289386" cy="895037"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>194311</xdr:colOff>
       <xdr:row>21</xdr:row>
@@ -5693,8 +5255,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>226695</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5709,8 +5271,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9795511" y="4495800"/>
-          <a:ext cx="1403984" cy="962025"/>
+          <a:off x="8728711" y="4415790"/>
+          <a:ext cx="1251584" cy="1268730"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5759,59 +5321,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>387842</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57463</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>210503</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="153" name="直線接點 152">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F9DC27-D543-4A37-AB84-ABB8CE5DBAB0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="5"/>
-          <a:endCxn id="150" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8617442" y="3619813"/>
-          <a:ext cx="1880061" cy="875987"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -5871,6 +5380,88 @@
             <a:t>有些材料會相衝，導致魔力耗損巨大，若魔力為負，魔石會毀損。</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形: 圓角 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E7EE982-5F8C-41D8-84C3-50C68B3C1FE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5753100" y="182880"/>
+          <a:ext cx="1562100" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>把屬性當作積木，在一定規則下拼出自己想像好的作品，從而獲得舒服的體驗</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="zh-TW">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6182,15 +5773,15 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="29.375" customWidth="1"/>
-    <col min="4" max="8" width="15.625" customWidth="1"/>
-    <col min="9" max="9" width="51.375" customWidth="1"/>
+    <col min="1" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="4" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="51.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5">
+    <row r="1" spans="1:9" ht="19.8">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -6219,7 +5810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.5">
+    <row r="2" spans="1:9" ht="18.600000000000001">
       <c r="A2" s="17" t="s">
         <v>77</v>
       </c>
@@ -7171,14 +6762,93 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A49064-508F-4BCD-89C6-B182FEBF2CD7}">
-  <dimension ref="A1"/>
+  <dimension ref="A29:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetData>
+    <row r="29" spans="1:11">
+      <c r="A29" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="C31:K31"/>
+    <mergeCell ref="C32:K32"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7189,11 +6859,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102EB912-690F-4A1D-A395-38C2CE3B65FD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7202,6 +6872,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20BE4C2E-6C8F-4F77-B507-01D1CE479D63}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336849DF-D3F4-435E-87DA-A99B863A554D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7209,14 +6895,14 @@
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29018229-9EAF-4726-88C6-5A87070EDF6C}">
   <dimension ref="A1:H229"/>
   <sheetViews>
@@ -7224,21 +6910,21 @@
       <selection activeCell="H210" sqref="H210"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
-    <col min="5" max="5" width="10.875" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="33" t="s">
         <v>83</v>
       </c>
       <c r="C1" t="s">
@@ -7253,7 +6939,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="22"/>
-      <c r="B2" s="25"/>
+      <c r="B2" s="34"/>
       <c r="C2" t="s">
         <v>85</v>
       </c>
@@ -7263,7 +6949,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="22"/>
-      <c r="B3" s="25"/>
+      <c r="B3" s="34"/>
       <c r="C3" t="s">
         <v>86</v>
       </c>
@@ -7273,7 +6959,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="22"/>
-      <c r="B4" s="25"/>
+      <c r="B4" s="34"/>
       <c r="C4" t="s">
         <v>87</v>
       </c>
@@ -7283,7 +6969,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="22"/>
-      <c r="B5" s="25"/>
+      <c r="B5" s="34"/>
       <c r="C5" t="s">
         <v>88</v>
       </c>
@@ -7293,7 +6979,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="22"/>
-      <c r="B6" s="25"/>
+      <c r="B6" s="34"/>
       <c r="C6" t="s">
         <v>89</v>
       </c>
@@ -7303,7 +6989,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="22"/>
-      <c r="B7" s="25"/>
+      <c r="B7" s="34"/>
       <c r="C7" t="s">
         <v>90</v>
       </c>
@@ -7313,7 +6999,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="22"/>
-      <c r="B8" s="25"/>
+      <c r="B8" s="34"/>
       <c r="C8" t="s">
         <v>91</v>
       </c>
@@ -7321,9 +7007,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17.25" thickBot="1">
+    <row r="9" spans="1:8" ht="16.8" thickBot="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="26"/>
+      <c r="B9" s="35"/>
       <c r="C9" t="s">
         <v>92</v>
       </c>
@@ -7333,13 +7019,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="22"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="30" t="s">
         <v>95</v>
       </c>
       <c r="E10" t="s">
@@ -7351,9 +7037,9 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="22"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="31"/>
       <c r="E11" t="s">
         <v>97</v>
       </c>
@@ -7363,9 +7049,9 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="22"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="31"/>
       <c r="E12" t="s">
         <v>98</v>
       </c>
@@ -7375,9 +7061,9 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="22"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="31"/>
       <c r="E13" t="s">
         <v>99</v>
       </c>
@@ -7385,11 +7071,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17.25" thickBot="1">
+    <row r="14" spans="1:8" ht="16.8" thickBot="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="35"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="32"/>
       <c r="E14" t="s">
         <v>100</v>
       </c>
@@ -7399,9 +7085,9 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="22"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="30" t="s">
         <v>101</v>
       </c>
       <c r="E15" t="s">
@@ -7413,9 +7099,9 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="22"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="31"/>
       <c r="E16" t="s">
         <v>103</v>
       </c>
@@ -7425,9 +7111,9 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="22"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="31"/>
       <c r="E17" t="s">
         <v>104</v>
       </c>
@@ -7437,9 +7123,9 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="22"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="31"/>
       <c r="E18" t="s">
         <v>105</v>
       </c>
@@ -7449,9 +7135,9 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="31"/>
       <c r="E19" t="s">
         <v>106</v>
       </c>
@@ -7461,9 +7147,9 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="22"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="31"/>
       <c r="E20" t="s">
         <v>107</v>
       </c>
@@ -7471,11 +7157,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17.25" thickBot="1">
+    <row r="21" spans="1:6" ht="16.8" thickBot="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="35"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="32"/>
       <c r="E21" t="s">
         <v>108</v>
       </c>
@@ -7485,7 +7171,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="22"/>
-      <c r="B22" s="25"/>
+      <c r="B22" s="34"/>
       <c r="C22" t="s">
         <v>109</v>
       </c>
@@ -7493,9 +7179,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17.25" thickBot="1">
+    <row r="23" spans="1:6" ht="16.8" thickBot="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="26"/>
+      <c r="B23" s="35"/>
       <c r="C23" t="s">
         <v>84</v>
       </c>
@@ -7505,7 +7191,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="22"/>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="24" t="s">
         <v>110</v>
       </c>
       <c r="C24" t="s">
@@ -7517,7 +7203,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="22"/>
-      <c r="B25" s="28"/>
+      <c r="B25" s="25"/>
       <c r="C25" t="s">
         <v>111</v>
       </c>
@@ -7527,7 +7213,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="22"/>
-      <c r="B26" s="28"/>
+      <c r="B26" s="25"/>
       <c r="C26" t="s">
         <v>112</v>
       </c>
@@ -7537,7 +7223,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="22"/>
-      <c r="B27" s="28"/>
+      <c r="B27" s="25"/>
       <c r="C27" t="s">
         <v>113</v>
       </c>
@@ -7547,7 +7233,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="22"/>
-      <c r="B28" s="28"/>
+      <c r="B28" s="25"/>
       <c r="C28" t="s">
         <v>114</v>
       </c>
@@ -7557,7 +7243,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="22"/>
-      <c r="B29" s="28"/>
+      <c r="B29" s="25"/>
       <c r="C29" t="s">
         <v>115</v>
       </c>
@@ -7565,9 +7251,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17.25" thickBot="1">
+    <row r="30" spans="1:6" ht="16.8" thickBot="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="29"/>
+      <c r="B30" s="26"/>
       <c r="C30" t="s">
         <v>116</v>
       </c>
@@ -7577,10 +7263,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="22"/>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="27" t="s">
         <v>118</v>
       </c>
       <c r="D31" t="s">
@@ -7590,10 +7276,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17.25" thickBot="1">
+    <row r="32" spans="1:6" ht="16.8" thickBot="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="31"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="29"/>
       <c r="D32" t="s">
         <v>120</v>
       </c>
@@ -7603,8 +7289,8 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="22"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="30" t="s">
+      <c r="B33" s="25"/>
+      <c r="C33" s="27" t="s">
         <v>121</v>
       </c>
       <c r="D33" t="s">
@@ -7614,10 +7300,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17.25" thickBot="1">
+    <row r="34" spans="1:7" ht="16.8" thickBot="1">
       <c r="A34" s="22"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="31"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="29"/>
       <c r="D34" t="s">
         <v>123</v>
       </c>
@@ -7627,8 +7313,8 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="22"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="30" t="s">
+      <c r="B35" s="25"/>
+      <c r="C35" s="27" t="s">
         <v>124</v>
       </c>
       <c r="D35" t="s">
@@ -7638,10 +7324,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="17.25" thickBot="1">
+    <row r="36" spans="1:7" ht="16.8" thickBot="1">
       <c r="A36" s="22"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="31"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="29"/>
       <c r="D36" t="s">
         <v>123</v>
       </c>
@@ -7730,7 +7416,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="17.25" thickBot="1">
+    <row r="46" spans="1:7" ht="16.8" thickBot="1">
       <c r="A46" s="23"/>
       <c r="B46" t="s">
         <v>134</v>
@@ -7743,7 +7429,7 @@
       <c r="A47" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="24" t="s">
         <v>136</v>
       </c>
       <c r="C47" t="s">
@@ -7758,7 +7444,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="22"/>
-      <c r="B48" s="28"/>
+      <c r="B48" s="25"/>
       <c r="C48" t="s">
         <v>138</v>
       </c>
@@ -7769,9 +7455,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="17.25" thickBot="1">
+    <row r="49" spans="1:7" ht="16.8" thickBot="1">
       <c r="A49" s="22"/>
-      <c r="B49" s="29"/>
+      <c r="B49" s="26"/>
       <c r="C49" t="s">
         <v>139</v>
       </c>
@@ -7784,10 +7470,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="22"/>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="27" t="s">
         <v>141</v>
       </c>
       <c r="D50" t="s">
@@ -7800,10 +7486,10 @@
         <v>260</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="17.25" thickBot="1">
+    <row r="51" spans="1:7" ht="16.8" thickBot="1">
       <c r="A51" s="22"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="31"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="29"/>
       <c r="D51" t="s">
         <v>142</v>
       </c>
@@ -7816,7 +7502,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="22"/>
-      <c r="B52" s="28"/>
+      <c r="B52" s="25"/>
       <c r="C52" t="s">
         <v>138</v>
       </c>
@@ -7829,7 +7515,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="22"/>
-      <c r="B53" s="28"/>
+      <c r="B53" s="25"/>
       <c r="C53" t="s">
         <v>84</v>
       </c>
@@ -7842,7 +7528,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="22"/>
-      <c r="B54" s="28"/>
+      <c r="B54" s="25"/>
       <c r="C54" t="s">
         <v>143</v>
       </c>
@@ -7853,9 +7539,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="17.25" thickBot="1">
+    <row r="55" spans="1:7" ht="16.8" thickBot="1">
       <c r="A55" s="22"/>
-      <c r="B55" s="29"/>
+      <c r="B55" s="26"/>
       <c r="C55" t="s">
         <v>144</v>
       </c>
@@ -7868,7 +7554,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="22"/>
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="24" t="s">
         <v>145</v>
       </c>
       <c r="C56" t="s">
@@ -7883,7 +7569,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="22"/>
-      <c r="B57" s="28"/>
+      <c r="B57" s="25"/>
       <c r="C57" t="s">
         <v>147</v>
       </c>
@@ -7896,7 +7582,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="22"/>
-      <c r="B58" s="28"/>
+      <c r="B58" s="25"/>
       <c r="C58" t="s">
         <v>148</v>
       </c>
@@ -7909,7 +7595,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="22"/>
-      <c r="B59" s="28"/>
+      <c r="B59" s="25"/>
       <c r="C59" t="s">
         <v>149</v>
       </c>
@@ -7922,7 +7608,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="22"/>
-      <c r="B60" s="28"/>
+      <c r="B60" s="25"/>
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -7933,9 +7619,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="17.25" thickBot="1">
+    <row r="61" spans="1:7" ht="16.8" thickBot="1">
       <c r="A61" s="22"/>
-      <c r="B61" s="29"/>
+      <c r="B61" s="26"/>
       <c r="C61" t="s">
         <v>151</v>
       </c>
@@ -7948,7 +7634,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="22"/>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="24" t="s">
         <v>152</v>
       </c>
       <c r="C62" t="s">
@@ -7961,9 +7647,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="17.25" thickBot="1">
+    <row r="63" spans="1:7" ht="16.8" thickBot="1">
       <c r="A63" s="22"/>
-      <c r="B63" s="29"/>
+      <c r="B63" s="26"/>
       <c r="C63" t="s">
         <v>138</v>
       </c>
@@ -7976,10 +7662,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="22"/>
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C64" s="27" t="s">
         <v>155</v>
       </c>
       <c r="D64" t="s">
@@ -7989,10 +7675,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="17.25" thickBot="1">
+    <row r="65" spans="1:7" ht="16.8" thickBot="1">
       <c r="A65" s="22"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="31"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="29"/>
       <c r="D65" t="s">
         <v>156</v>
       </c>
@@ -8002,7 +7688,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="22"/>
-      <c r="B66" s="28"/>
+      <c r="B66" s="25"/>
       <c r="C66" t="s">
         <v>157</v>
       </c>
@@ -8012,7 +7698,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="22"/>
-      <c r="B67" s="28"/>
+      <c r="B67" s="25"/>
       <c r="C67" t="s">
         <v>158</v>
       </c>
@@ -8022,7 +7708,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="22"/>
-      <c r="B68" s="28"/>
+      <c r="B68" s="25"/>
       <c r="C68" t="s">
         <v>159</v>
       </c>
@@ -8032,7 +7718,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="22"/>
-      <c r="B69" s="28"/>
+      <c r="B69" s="25"/>
       <c r="C69" t="s">
         <v>138</v>
       </c>
@@ -8042,7 +7728,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="22"/>
-      <c r="B70" s="28"/>
+      <c r="B70" s="25"/>
       <c r="C70" t="s">
         <v>160</v>
       </c>
@@ -8052,7 +7738,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="22"/>
-      <c r="B71" s="28"/>
+      <c r="B71" s="25"/>
       <c r="C71" t="s">
         <v>161</v>
       </c>
@@ -8062,7 +7748,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="22"/>
-      <c r="B72" s="28"/>
+      <c r="B72" s="25"/>
       <c r="C72" t="s">
         <v>162</v>
       </c>
@@ -8072,7 +7758,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="22"/>
-      <c r="B73" s="28"/>
+      <c r="B73" s="25"/>
       <c r="C73" t="s">
         <v>84</v>
       </c>
@@ -8082,7 +7768,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="22"/>
-      <c r="B74" s="28"/>
+      <c r="B74" s="25"/>
       <c r="C74" t="s">
         <v>163</v>
       </c>
@@ -8092,7 +7778,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="22"/>
-      <c r="B75" s="28"/>
+      <c r="B75" s="25"/>
       <c r="C75" t="s">
         <v>164</v>
       </c>
@@ -8102,7 +7788,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="22"/>
-      <c r="B76" s="28"/>
+      <c r="B76" s="25"/>
       <c r="C76" t="s">
         <v>165</v>
       </c>
@@ -8112,7 +7798,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="22"/>
-      <c r="B77" s="28"/>
+      <c r="B77" s="25"/>
       <c r="C77" t="s">
         <v>166</v>
       </c>
@@ -8120,9 +7806,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="17.25" thickBot="1">
+    <row r="78" spans="1:7" ht="16.8" thickBot="1">
       <c r="A78" s="22"/>
-      <c r="B78" s="29"/>
+      <c r="B78" s="26"/>
       <c r="C78" t="s">
         <v>167</v>
       </c>
@@ -8132,7 +7818,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="22"/>
-      <c r="B79" s="27" t="s">
+      <c r="B79" s="24" t="s">
         <v>168</v>
       </c>
       <c r="C79" t="s">
@@ -8147,7 +7833,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="22"/>
-      <c r="B80" s="28"/>
+      <c r="B80" s="25"/>
       <c r="C80" t="s">
         <v>169</v>
       </c>
@@ -8160,7 +7846,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="22"/>
-      <c r="B81" s="28"/>
+      <c r="B81" s="25"/>
       <c r="C81" t="s">
         <v>170</v>
       </c>
@@ -8173,7 +7859,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="22"/>
-      <c r="B82" s="28"/>
+      <c r="B82" s="25"/>
       <c r="C82" t="s">
         <v>171</v>
       </c>
@@ -8184,9 +7870,9 @@
         <v>266</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="17.25" thickBot="1">
+    <row r="83" spans="1:7" ht="16.8" thickBot="1">
       <c r="A83" s="22"/>
-      <c r="B83" s="29"/>
+      <c r="B83" s="26"/>
       <c r="C83" t="s">
         <v>172</v>
       </c>
@@ -8199,7 +7885,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="22"/>
-      <c r="B84" s="27" t="s">
+      <c r="B84" s="24" t="s">
         <v>173</v>
       </c>
       <c r="C84" t="s">
@@ -8214,7 +7900,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="22"/>
-      <c r="B85" s="28"/>
+      <c r="B85" s="25"/>
       <c r="C85" t="s">
         <v>144</v>
       </c>
@@ -8225,9 +7911,9 @@
         <v>265</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="17.25" thickBot="1">
+    <row r="86" spans="1:7" ht="16.8" thickBot="1">
       <c r="A86" s="22"/>
-      <c r="B86" s="29"/>
+      <c r="B86" s="26"/>
       <c r="C86" t="s">
         <v>172</v>
       </c>
@@ -8237,7 +7923,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="22"/>
-      <c r="B87" s="27" t="s">
+      <c r="B87" s="24" t="s">
         <v>123</v>
       </c>
       <c r="C87" t="s">
@@ -8252,7 +7938,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="22"/>
-      <c r="B88" s="28"/>
+      <c r="B88" s="25"/>
       <c r="C88" t="s">
         <v>138</v>
       </c>
@@ -8265,7 +7951,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="22"/>
-      <c r="B89" s="28"/>
+      <c r="B89" s="25"/>
       <c r="C89" t="s">
         <v>161</v>
       </c>
@@ -8278,7 +7964,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="22"/>
-      <c r="B90" s="28"/>
+      <c r="B90" s="25"/>
       <c r="C90" t="s">
         <v>84</v>
       </c>
@@ -8289,9 +7975,9 @@
         <v>265</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="17.25" thickBot="1">
+    <row r="91" spans="1:7" ht="16.8" thickBot="1">
       <c r="A91" s="22"/>
-      <c r="B91" s="29"/>
+      <c r="B91" s="26"/>
       <c r="C91" t="s">
         <v>172</v>
       </c>
@@ -8304,7 +7990,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="22"/>
-      <c r="B92" s="27" t="s">
+      <c r="B92" s="24" t="s">
         <v>175</v>
       </c>
       <c r="C92" t="s">
@@ -8317,9 +8003,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="17.25" thickBot="1">
+    <row r="93" spans="1:7" ht="16.8" thickBot="1">
       <c r="A93" s="22"/>
-      <c r="B93" s="29"/>
+      <c r="B93" s="26"/>
       <c r="C93" t="s">
         <v>138</v>
       </c>
@@ -8332,7 +8018,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="22"/>
-      <c r="B94" s="27" t="s">
+      <c r="B94" s="24" t="s">
         <v>177</v>
       </c>
       <c r="C94" t="s">
@@ -8345,9 +8031,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="17.25" thickBot="1">
+    <row r="95" spans="1:7" ht="16.8" thickBot="1">
       <c r="A95" s="22"/>
-      <c r="B95" s="29"/>
+      <c r="B95" s="26"/>
       <c r="C95" t="s">
         <v>84</v>
       </c>
@@ -8360,10 +8046,10 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="22"/>
-      <c r="B96" s="27" t="s">
+      <c r="B96" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="C96" s="30" t="s">
+      <c r="C96" s="27" t="s">
         <v>141</v>
       </c>
       <c r="D96" t="s">
@@ -8378,8 +8064,8 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="22"/>
-      <c r="B97" s="28"/>
-      <c r="C97" s="32"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="28"/>
       <c r="D97" t="s">
         <v>178</v>
       </c>
@@ -8392,8 +8078,8 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="22"/>
-      <c r="B98" s="28"/>
-      <c r="C98" s="32"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="28"/>
       <c r="D98" t="s">
         <v>179</v>
       </c>
@@ -8406,8 +8092,8 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="22"/>
-      <c r="B99" s="28"/>
-      <c r="C99" s="32"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="28"/>
       <c r="D99" t="s">
         <v>180</v>
       </c>
@@ -8420,8 +8106,8 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="22"/>
-      <c r="B100" s="28"/>
-      <c r="C100" s="32"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="28"/>
       <c r="D100" t="s">
         <v>181</v>
       </c>
@@ -8434,8 +8120,8 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="22"/>
-      <c r="B101" s="28"/>
-      <c r="C101" s="32"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="28"/>
       <c r="D101" t="s">
         <v>182</v>
       </c>
@@ -8448,8 +8134,8 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="22"/>
-      <c r="B102" s="28"/>
-      <c r="C102" s="32"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="28"/>
       <c r="D102" t="s">
         <v>183</v>
       </c>
@@ -8462,8 +8148,8 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="22"/>
-      <c r="B103" s="28"/>
-      <c r="C103" s="32"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="28"/>
       <c r="D103" t="s">
         <v>184</v>
       </c>
@@ -8476,8 +8162,8 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="22"/>
-      <c r="B104" s="28"/>
-      <c r="C104" s="32"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="28"/>
       <c r="D104" t="s">
         <v>185</v>
       </c>
@@ -8490,8 +8176,8 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="22"/>
-      <c r="B105" s="28"/>
-      <c r="C105" s="32"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="28"/>
       <c r="D105" t="s">
         <v>186</v>
       </c>
@@ -8504,8 +8190,8 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="22"/>
-      <c r="B106" s="28"/>
-      <c r="C106" s="32"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="28"/>
       <c r="D106" t="s">
         <v>187</v>
       </c>
@@ -8518,8 +8204,8 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="22"/>
-      <c r="B107" s="28"/>
-      <c r="C107" s="32"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="28"/>
       <c r="D107" t="s">
         <v>188</v>
       </c>
@@ -8532,8 +8218,8 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="22"/>
-      <c r="B108" s="28"/>
-      <c r="C108" s="32"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="28"/>
       <c r="D108" t="s">
         <v>189</v>
       </c>
@@ -8544,10 +8230,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="17.25" thickBot="1">
+    <row r="109" spans="1:7" ht="16.8" thickBot="1">
       <c r="A109" s="22"/>
-      <c r="B109" s="28"/>
-      <c r="C109" s="31"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="29"/>
       <c r="D109" t="s">
         <v>190</v>
       </c>
@@ -8560,7 +8246,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="22"/>
-      <c r="B110" s="28"/>
+      <c r="B110" s="25"/>
       <c r="C110" t="s">
         <v>138</v>
       </c>
@@ -8573,7 +8259,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="22"/>
-      <c r="B111" s="28"/>
+      <c r="B111" s="25"/>
       <c r="C111" t="s">
         <v>161</v>
       </c>
@@ -8586,7 +8272,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="22"/>
-      <c r="B112" s="28"/>
+      <c r="B112" s="25"/>
       <c r="C112" t="s">
         <v>191</v>
       </c>
@@ -8599,7 +8285,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="22"/>
-      <c r="B113" s="28"/>
+      <c r="B113" s="25"/>
       <c r="C113" t="s">
         <v>143</v>
       </c>
@@ -8610,9 +8296,9 @@
         <v>265</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="17.25" thickBot="1">
+    <row r="114" spans="1:7" ht="16.8" thickBot="1">
       <c r="A114" s="22"/>
-      <c r="B114" s="29"/>
+      <c r="B114" s="26"/>
       <c r="C114" t="s">
         <v>192</v>
       </c>
@@ -8767,7 +8453,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="17.25" thickBot="1">
+    <row r="127" spans="1:7" ht="16.8" thickBot="1">
       <c r="A127" s="23"/>
       <c r="B127" t="s">
         <v>203</v>
@@ -9460,7 +9146,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="17.25" thickBot="1">
+    <row r="190" spans="1:7" ht="16.8" thickBot="1">
       <c r="A190" s="23"/>
       <c r="B190" t="s">
         <v>144</v>
@@ -9476,10 +9162,10 @@
       <c r="A191" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="B191" s="27" t="s">
+      <c r="B191" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="C191" s="30" t="s">
+      <c r="C191" s="27" t="s">
         <v>232</v>
       </c>
       <c r="D191" t="s">
@@ -9491,8 +9177,8 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="22"/>
-      <c r="B192" s="28"/>
-      <c r="C192" s="32"/>
+      <c r="B192" s="25"/>
+      <c r="C192" s="28"/>
       <c r="D192" t="s">
         <v>234</v>
       </c>
@@ -9502,8 +9188,8 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="22"/>
-      <c r="B193" s="28"/>
-      <c r="C193" s="32"/>
+      <c r="B193" s="25"/>
+      <c r="C193" s="28"/>
       <c r="D193" t="s">
         <v>235</v>
       </c>
@@ -9513,8 +9199,8 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="22"/>
-      <c r="B194" s="28"/>
-      <c r="C194" s="32"/>
+      <c r="B194" s="25"/>
+      <c r="C194" s="28"/>
       <c r="D194" t="s">
         <v>236</v>
       </c>
@@ -9524,8 +9210,8 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="22"/>
-      <c r="B195" s="28"/>
-      <c r="C195" s="32"/>
+      <c r="B195" s="25"/>
+      <c r="C195" s="28"/>
       <c r="D195" t="s">
         <v>237</v>
       </c>
@@ -9535,8 +9221,8 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="22"/>
-      <c r="B196" s="28"/>
-      <c r="C196" s="32"/>
+      <c r="B196" s="25"/>
+      <c r="C196" s="28"/>
       <c r="D196" t="s">
         <v>238</v>
       </c>
@@ -9546,8 +9232,8 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="22"/>
-      <c r="B197" s="28"/>
-      <c r="C197" s="32"/>
+      <c r="B197" s="25"/>
+      <c r="C197" s="28"/>
       <c r="D197" t="s">
         <v>221</v>
       </c>
@@ -9557,8 +9243,8 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="22"/>
-      <c r="B198" s="28"/>
-      <c r="C198" s="32"/>
+      <c r="B198" s="25"/>
+      <c r="C198" s="28"/>
       <c r="D198" t="s">
         <v>239</v>
       </c>
@@ -9568,8 +9254,8 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="22"/>
-      <c r="B199" s="28"/>
-      <c r="C199" s="32"/>
+      <c r="B199" s="25"/>
+      <c r="C199" s="28"/>
       <c r="D199" t="s">
         <v>240</v>
       </c>
@@ -9577,10 +9263,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="17.25" thickBot="1">
+    <row r="200" spans="1:8" ht="16.8" thickBot="1">
       <c r="A200" s="22"/>
-      <c r="B200" s="28"/>
-      <c r="C200" s="31"/>
+      <c r="B200" s="25"/>
+      <c r="C200" s="29"/>
       <c r="D200" t="s">
         <v>241</v>
       </c>
@@ -9590,7 +9276,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="22"/>
-      <c r="B201" s="28"/>
+      <c r="B201" s="25"/>
       <c r="C201" t="s">
         <v>242</v>
       </c>
@@ -9600,7 +9286,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="22"/>
-      <c r="B202" s="28"/>
+      <c r="B202" s="25"/>
       <c r="C202" t="s">
         <v>84</v>
       </c>
@@ -9610,7 +9296,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="22"/>
-      <c r="B203" s="28"/>
+      <c r="B203" s="25"/>
       <c r="C203" t="s">
         <v>243</v>
       </c>
@@ -9618,9 +9304,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="17.25" thickBot="1">
+    <row r="204" spans="1:8" ht="16.8" thickBot="1">
       <c r="A204" s="22"/>
-      <c r="B204" s="29"/>
+      <c r="B204" s="26"/>
       <c r="C204" t="s">
         <v>244</v>
       </c>
@@ -9630,10 +9316,10 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="22"/>
-      <c r="B205" s="27" t="s">
+      <c r="B205" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="C205" s="30" t="s">
+      <c r="C205" s="27" t="s">
         <v>218</v>
       </c>
       <c r="D205" t="s">
@@ -9648,8 +9334,8 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="22"/>
-      <c r="B206" s="28"/>
-      <c r="C206" s="32"/>
+      <c r="B206" s="25"/>
+      <c r="C206" s="28"/>
       <c r="D206" t="s">
         <v>246</v>
       </c>
@@ -9660,10 +9346,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="17.25" thickBot="1">
+    <row r="207" spans="1:8" ht="16.8" thickBot="1">
       <c r="A207" s="22"/>
-      <c r="B207" s="28"/>
-      <c r="C207" s="31"/>
+      <c r="B207" s="25"/>
+      <c r="C207" s="29"/>
       <c r="D207" t="s">
         <v>221</v>
       </c>
@@ -9676,7 +9362,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="22"/>
-      <c r="B208" s="28"/>
+      <c r="B208" s="25"/>
       <c r="C208" t="s">
         <v>206</v>
       </c>
@@ -9692,7 +9378,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="22"/>
-      <c r="B209" s="28"/>
+      <c r="B209" s="25"/>
       <c r="C209" t="s">
         <v>224</v>
       </c>
@@ -9706,9 +9392,9 @@
         <v>277</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="17.25" thickBot="1">
+    <row r="210" spans="1:8" ht="16.8" thickBot="1">
       <c r="A210" s="22"/>
-      <c r="B210" s="29"/>
+      <c r="B210" s="26"/>
       <c r="C210" t="s">
         <v>228</v>
       </c>
@@ -9919,7 +9605,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="17.25" thickBot="1">
+    <row r="225" spans="1:8" ht="16.8" thickBot="1">
       <c r="A225" s="23"/>
       <c r="B225" t="s">
         <v>230</v>
@@ -9960,7 +9646,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="17.25" thickBot="1">
+    <row r="228" spans="1:8" ht="16.8" thickBot="1">
       <c r="A228" s="23"/>
       <c r="B228" t="s">
         <v>256</v>
@@ -9982,17 +9668,19 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A226:A228"/>
-    <mergeCell ref="A128:A190"/>
-    <mergeCell ref="A191:A225"/>
-    <mergeCell ref="B191:B204"/>
-    <mergeCell ref="B205:B210"/>
-    <mergeCell ref="C191:C200"/>
-    <mergeCell ref="C205:C207"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B114"/>
+    <mergeCell ref="A1:A46"/>
+    <mergeCell ref="B1:B9"/>
+    <mergeCell ref="B10:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A47:A127"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B78"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B84:B86"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="C96:C109"/>
@@ -10002,19 +9690,17 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A47:A127"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B78"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="A1:A46"/>
-    <mergeCell ref="B1:B9"/>
-    <mergeCell ref="B10:B23"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C191:C200"/>
+    <mergeCell ref="C205:C207"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B114"/>
+    <mergeCell ref="A226:A228"/>
+    <mergeCell ref="A128:A190"/>
+    <mergeCell ref="A191:A225"/>
+    <mergeCell ref="B191:B204"/>
+    <mergeCell ref="B205:B210"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/開發文件.xlsx
+++ b/docs/開發文件.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\YDWE1.25.10\Creation\Mod\The_Tilted_Clock_Tower\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEAD1B1-C6F9-4F74-8AA0-8F6E10D4D3EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC9863F-A34D-4660-AFA2-BBFC2F736575}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
   </bookViews>
   <sheets>
     <sheet name="項目" sheetId="1" r:id="rId1"/>
     <sheet name="創意工坊" sheetId="4" r:id="rId2"/>
     <sheet name="頭腦風暴" sheetId="6" r:id="rId3"/>
-    <sheet name="流程" sheetId="5" r:id="rId4"/>
-    <sheet name="重構紀錄" sheetId="2" r:id="rId5"/>
+    <sheet name="經過驗證的擴充創意" sheetId="7" r:id="rId4"/>
+    <sheet name="流程" sheetId="5" r:id="rId5"/>
+    <sheet name="重構紀錄" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -1670,6 +1671,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1682,10 +1692,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1695,15 +1705,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5484,76 +5485,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>13335</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>40005</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>5715</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="145" name="矩形: 圓角 144">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83664D44-0993-40FC-B0FA-56199DA4E230}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2756535" y="5029200"/>
-          <a:ext cx="1398270" cy="634365"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>鍛造工會</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-            <a:t>:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t> 購買鍛造技、提升等級的地方</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>661036</xdr:colOff>
       <xdr:row>21</xdr:row>
@@ -5685,84 +5616,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>194311</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>226695</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="150" name="矩形: 圓角 149">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD6FCA4-BF6C-442C-9D11-169D7AF991E9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9795511" y="4495800"/>
-          <a:ext cx="1403984" cy="962025"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>每次施放鍛造技會增加</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-            <a:t>hit</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>數，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-            <a:t>hit</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>數越高，可以解鎖魔石的隱藏效果</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>387842</xdr:colOff>
       <xdr:row>17</xdr:row>
@@ -5785,7 +5638,6 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="5"/>
-          <a:endCxn id="150" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5871,6 +5723,1470 @@
             <a:t>有些材料會相衝，導致魔力耗損巨大，若魔力為負，魔石會毀損。</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>91799</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>129899</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="橢圓 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEF5DF5E-97E9-49E7-A6C1-120CE5A2DDA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315199" y="2419349"/>
+          <a:ext cx="1692000" cy="1692000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>把屬性當作積木，在一定規則下拼出自己設計好的作品</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，從而獲得舒服的體驗</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文字方塊 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C789E8B9-1F10-40CD-8E91-ED1A4571F41C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4429125" cy="1219201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600"/>
+            <a:t>檢驗方式</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600"/>
+            <a:t>為了實現</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1600"/>
+            <a:t>__</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600"/>
+            <a:t>概念</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1600"/>
+            <a:t>__</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600"/>
+            <a:t>，有了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1600"/>
+            <a:t>__</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600"/>
+            <a:t>擴充創意</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1600"/>
+            <a:t>__</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600"/>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600"/>
+            <a:t>因為有了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1600"/>
+            <a:t>__</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600"/>
+            <a:t>擴充創意</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1600"/>
+            <a:t>__</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600"/>
+            <a:t>，所以實現了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1600"/>
+            <a:t>__</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600" u="none"/>
+            <a:t>概念</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1600"/>
+            <a:t>__</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1600"/>
+            <a:t>。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形: 圓角 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7CF38B3-5967-4D25-9A1A-727371FC8C6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="3267075"/>
+          <a:ext cx="1200150" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>材料相生相剋會使該次鍛造出的屬性改變</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矩形: 圓角 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4275FD2E-732F-4D31-8AF8-081C0FE5DC3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1685925" y="2638425"/>
+          <a:ext cx="1200150" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>材料共鳴會使該次鍛造出的屬性提升</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矩形: 圓角 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2ADA355-D5B9-4569-BBD5-0CE9E711E55E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704975" y="3876675"/>
+          <a:ext cx="1200150" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>材料相衝會使該次鍛造出的屬性下降</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線接點 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B60626A-6B06-4D9B-8571-E8F44D8F495B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="1"/>
+          <a:endCxn id="12" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2886075" y="3005138"/>
+          <a:ext cx="771525" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線接點 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B98FC58B-D52A-45FD-A5AD-64A8E2FA6909}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="1"/>
+          <a:endCxn id="13" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2905125" y="3633788"/>
+          <a:ext cx="752475" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形: 圓角 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B49056-C497-457C-93D6-614CA5160086}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12839699" y="2638426"/>
+          <a:ext cx="1219201" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>追隨者穿著匠師的裝備和別的追隨者對戰</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矩形: 圓角 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2119F86E-8267-4331-9BDE-F21F8C07CE3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12020550" y="4581525"/>
+          <a:ext cx="1398270" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>鍛造工會</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t> 購買鍛造技、提升技能等級的地方</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>565784</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="矩形: 圓角 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9868F091-2FD1-4B9F-B5EB-EDBB39490D59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12877800" y="5819775"/>
+          <a:ext cx="1403984" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>能量節點</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t> 使用鍛造技會生成一個節點，附魔指定的秘物會激發秘物的效果</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>375285</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>549592</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線接點 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E8E51BF-84E4-460E-B0E2-9BEF92A7CADB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+          <a:endCxn id="16" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12719685" y="5334000"/>
+          <a:ext cx="860107" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>272325</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>110399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="橢圓 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D6DCA2E-49C6-4DAA-B6CE-F22EB9314454}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7781925" y="1066799"/>
+          <a:ext cx="720000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>鍛造</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>420825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>77924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="橢圓 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{744DE90A-9487-4531-82E5-9A3855240E9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9267825" y="1990724"/>
+          <a:ext cx="1440000" cy="1440000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>刻劃魔法陣，強化基礎屬性或添加特殊效果</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>73724</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>188024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="橢圓 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E98B57A-D339-40BC-A76F-937094F149C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8848724" y="4124324"/>
+          <a:ext cx="1512000" cy="1512000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>利用魔法陣共用的節點會殘留魔力的特性，通過附魔激發秘物的效果</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>131999</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>17699</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="橢圓 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB789706-A441-4E53-8D19-39A8BA8D9D6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6019799" y="4019549"/>
+          <a:ext cx="1656000" cy="1656000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>秘物會吸引大氣中的魔導粒子，將其共振會重組魔石結構，可增幅所有屬性</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552448</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>367048</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="橢圓 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5833CA53-817B-4B53-9F43-F6BEC80C474C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5353048" y="1390650"/>
+          <a:ext cx="1872000" cy="1872000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>魔導粒子共振到極致會形成超魔現象，使用者與此頻率同步，可激發超魔構裝，獲得強大的主動效果</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="矩形: 圓角 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C38A0949-0DF0-460B-B62E-456640E89A94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7686674" y="533401"/>
+          <a:ext cx="962025" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>學徒</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>普通級構裝</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="矩形: 圓角 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9359DB89-675C-4AA3-9321-53BD5F5FC891}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9515475" y="1619251"/>
+          <a:ext cx="942975" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>匠人</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>優秀級構裝</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="矩形: 圓角 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{102B145B-036E-4DB6-B47C-D650C6F68E07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9153525" y="3695701"/>
+          <a:ext cx="981075" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>匠師</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>精良級構裝</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="矩形: 圓角 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11883FB6-43B1-4F4B-BCBA-A47CF0D0CE13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6305550" y="3590926"/>
+          <a:ext cx="981075" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>大師</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>稀有級構裝</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="矩形: 圓角 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AEEE384-F29E-4776-9A86-4C8B608FF5F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5810250" y="971551"/>
+          <a:ext cx="981075" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>神匠</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>傳奇級構裝</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7173,7 +8489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A49064-508F-4BCD-89C6-B182FEBF2CD7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
@@ -7190,7 +8506,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7202,6 +8518,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4C37A9-3500-4D1C-B102-1E629D48F036}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="N6:O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336849DF-D3F4-435E-87DA-A99B863A554D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7216,7 +8548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29018229-9EAF-4726-88C6-5A87070EDF6C}">
   <dimension ref="A1:H229"/>
   <sheetViews>
@@ -7238,7 +8570,7 @@
       <c r="A1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="24" t="s">
         <v>83</v>
       </c>
       <c r="C1" t="s">
@@ -7253,7 +8585,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="22"/>
-      <c r="B2" s="34"/>
+      <c r="B2" s="25"/>
       <c r="C2" t="s">
         <v>85</v>
       </c>
@@ -7263,7 +8595,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="22"/>
-      <c r="B3" s="34"/>
+      <c r="B3" s="25"/>
       <c r="C3" t="s">
         <v>86</v>
       </c>
@@ -7273,7 +8605,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="22"/>
-      <c r="B4" s="34"/>
+      <c r="B4" s="25"/>
       <c r="C4" t="s">
         <v>87</v>
       </c>
@@ -7283,7 +8615,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="22"/>
-      <c r="B5" s="34"/>
+      <c r="B5" s="25"/>
       <c r="C5" t="s">
         <v>88</v>
       </c>
@@ -7293,7 +8625,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="22"/>
-      <c r="B6" s="34"/>
+      <c r="B6" s="25"/>
       <c r="C6" t="s">
         <v>89</v>
       </c>
@@ -7303,7 +8635,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="22"/>
-      <c r="B7" s="34"/>
+      <c r="B7" s="25"/>
       <c r="C7" t="s">
         <v>90</v>
       </c>
@@ -7313,7 +8645,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="22"/>
-      <c r="B8" s="34"/>
+      <c r="B8" s="25"/>
       <c r="C8" t="s">
         <v>91</v>
       </c>
@@ -7323,7 +8655,7 @@
     </row>
     <row r="9" spans="1:8" ht="17.25" thickBot="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="35"/>
+      <c r="B9" s="26"/>
       <c r="C9" t="s">
         <v>92</v>
       </c>
@@ -7333,13 +8665,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="22"/>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="33" t="s">
         <v>95</v>
       </c>
       <c r="E10" t="s">
@@ -7351,9 +8683,9 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="22"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="34"/>
       <c r="E11" t="s">
         <v>97</v>
       </c>
@@ -7363,9 +8695,9 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="22"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="31"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="34"/>
       <c r="E12" t="s">
         <v>98</v>
       </c>
@@ -7375,9 +8707,9 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="22"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="34"/>
       <c r="E13" t="s">
         <v>99</v>
       </c>
@@ -7387,9 +8719,9 @@
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="32"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="35"/>
       <c r="E14" t="s">
         <v>100</v>
       </c>
@@ -7399,9 +8731,9 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="22"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="30" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33" t="s">
         <v>101</v>
       </c>
       <c r="E15" t="s">
@@ -7413,9 +8745,9 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="22"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="31"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="34"/>
       <c r="E16" t="s">
         <v>103</v>
       </c>
@@ -7425,9 +8757,9 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="22"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="31"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="34"/>
       <c r="E17" t="s">
         <v>104</v>
       </c>
@@ -7437,9 +8769,9 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="22"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="31"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="34"/>
       <c r="E18" t="s">
         <v>105</v>
       </c>
@@ -7449,9 +8781,9 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="31"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="34"/>
       <c r="E19" t="s">
         <v>106</v>
       </c>
@@ -7461,9 +8793,9 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="22"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="31"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="34"/>
       <c r="E20" t="s">
         <v>107</v>
       </c>
@@ -7473,9 +8805,9 @@
     </row>
     <row r="21" spans="1:6" ht="17.25" thickBot="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="32"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="35"/>
       <c r="E21" t="s">
         <v>108</v>
       </c>
@@ -7485,7 +8817,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="22"/>
-      <c r="B22" s="34"/>
+      <c r="B22" s="25"/>
       <c r="C22" t="s">
         <v>109</v>
       </c>
@@ -7495,7 +8827,7 @@
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="35"/>
+      <c r="B23" s="26"/>
       <c r="C23" t="s">
         <v>84</v>
       </c>
@@ -7505,7 +8837,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="22"/>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="27" t="s">
         <v>110</v>
       </c>
       <c r="C24" t="s">
@@ -7517,7 +8849,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="22"/>
-      <c r="B25" s="25"/>
+      <c r="B25" s="28"/>
       <c r="C25" t="s">
         <v>111</v>
       </c>
@@ -7527,7 +8859,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="22"/>
-      <c r="B26" s="25"/>
+      <c r="B26" s="28"/>
       <c r="C26" t="s">
         <v>112</v>
       </c>
@@ -7537,7 +8869,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="22"/>
-      <c r="B27" s="25"/>
+      <c r="B27" s="28"/>
       <c r="C27" t="s">
         <v>113</v>
       </c>
@@ -7547,7 +8879,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="22"/>
-      <c r="B28" s="25"/>
+      <c r="B28" s="28"/>
       <c r="C28" t="s">
         <v>114</v>
       </c>
@@ -7557,7 +8889,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="22"/>
-      <c r="B29" s="25"/>
+      <c r="B29" s="28"/>
       <c r="C29" t="s">
         <v>115</v>
       </c>
@@ -7567,7 +8899,7 @@
     </row>
     <row r="30" spans="1:6" ht="17.25" thickBot="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="26"/>
+      <c r="B30" s="29"/>
       <c r="C30" t="s">
         <v>116</v>
       </c>
@@ -7577,10 +8909,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="22"/>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="30" t="s">
         <v>118</v>
       </c>
       <c r="D31" t="s">
@@ -7592,8 +8924,8 @@
     </row>
     <row r="32" spans="1:6" ht="17.25" thickBot="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="29"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="31"/>
       <c r="D32" t="s">
         <v>120</v>
       </c>
@@ -7603,8 +8935,8 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="22"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="27" t="s">
+      <c r="B33" s="28"/>
+      <c r="C33" s="30" t="s">
         <v>121</v>
       </c>
       <c r="D33" t="s">
@@ -7616,8 +8948,8 @@
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1">
       <c r="A34" s="22"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="29"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="31"/>
       <c r="D34" t="s">
         <v>123</v>
       </c>
@@ -7627,8 +8959,8 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="22"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="27" t="s">
+      <c r="B35" s="28"/>
+      <c r="C35" s="30" t="s">
         <v>124</v>
       </c>
       <c r="D35" t="s">
@@ -7640,8 +8972,8 @@
     </row>
     <row r="36" spans="1:7" ht="17.25" thickBot="1">
       <c r="A36" s="22"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="31"/>
       <c r="D36" t="s">
         <v>123</v>
       </c>
@@ -7743,7 +9075,7 @@
       <c r="A47" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="27" t="s">
         <v>136</v>
       </c>
       <c r="C47" t="s">
@@ -7758,7 +9090,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="22"/>
-      <c r="B48" s="25"/>
+      <c r="B48" s="28"/>
       <c r="C48" t="s">
         <v>138</v>
       </c>
@@ -7771,7 +9103,7 @@
     </row>
     <row r="49" spans="1:7" ht="17.25" thickBot="1">
       <c r="A49" s="22"/>
-      <c r="B49" s="26"/>
+      <c r="B49" s="29"/>
       <c r="C49" t="s">
         <v>139</v>
       </c>
@@ -7784,10 +9116,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="22"/>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="30" t="s">
         <v>141</v>
       </c>
       <c r="D50" t="s">
@@ -7802,8 +9134,8 @@
     </row>
     <row r="51" spans="1:7" ht="17.25" thickBot="1">
       <c r="A51" s="22"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="29"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="31"/>
       <c r="D51" t="s">
         <v>142</v>
       </c>
@@ -7816,7 +9148,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="22"/>
-      <c r="B52" s="25"/>
+      <c r="B52" s="28"/>
       <c r="C52" t="s">
         <v>138</v>
       </c>
@@ -7829,7 +9161,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="22"/>
-      <c r="B53" s="25"/>
+      <c r="B53" s="28"/>
       <c r="C53" t="s">
         <v>84</v>
       </c>
@@ -7842,7 +9174,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="22"/>
-      <c r="B54" s="25"/>
+      <c r="B54" s="28"/>
       <c r="C54" t="s">
         <v>143</v>
       </c>
@@ -7855,7 +9187,7 @@
     </row>
     <row r="55" spans="1:7" ht="17.25" thickBot="1">
       <c r="A55" s="22"/>
-      <c r="B55" s="26"/>
+      <c r="B55" s="29"/>
       <c r="C55" t="s">
         <v>144</v>
       </c>
@@ -7868,7 +9200,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="22"/>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="27" t="s">
         <v>145</v>
       </c>
       <c r="C56" t="s">
@@ -7883,7 +9215,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="22"/>
-      <c r="B57" s="25"/>
+      <c r="B57" s="28"/>
       <c r="C57" t="s">
         <v>147</v>
       </c>
@@ -7896,7 +9228,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="22"/>
-      <c r="B58" s="25"/>
+      <c r="B58" s="28"/>
       <c r="C58" t="s">
         <v>148</v>
       </c>
@@ -7909,7 +9241,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="22"/>
-      <c r="B59" s="25"/>
+      <c r="B59" s="28"/>
       <c r="C59" t="s">
         <v>149</v>
       </c>
@@ -7922,7 +9254,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="22"/>
-      <c r="B60" s="25"/>
+      <c r="B60" s="28"/>
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -7935,7 +9267,7 @@
     </row>
     <row r="61" spans="1:7" ht="17.25" thickBot="1">
       <c r="A61" s="22"/>
-      <c r="B61" s="26"/>
+      <c r="B61" s="29"/>
       <c r="C61" t="s">
         <v>151</v>
       </c>
@@ -7948,7 +9280,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="22"/>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="27" t="s">
         <v>152</v>
       </c>
       <c r="C62" t="s">
@@ -7963,7 +9295,7 @@
     </row>
     <row r="63" spans="1:7" ht="17.25" thickBot="1">
       <c r="A63" s="22"/>
-      <c r="B63" s="26"/>
+      <c r="B63" s="29"/>
       <c r="C63" t="s">
         <v>138</v>
       </c>
@@ -7976,10 +9308,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="22"/>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="30" t="s">
         <v>155</v>
       </c>
       <c r="D64" t="s">
@@ -7991,8 +9323,8 @@
     </row>
     <row r="65" spans="1:7" ht="17.25" thickBot="1">
       <c r="A65" s="22"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="29"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="31"/>
       <c r="D65" t="s">
         <v>156</v>
       </c>
@@ -8002,7 +9334,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="22"/>
-      <c r="B66" s="25"/>
+      <c r="B66" s="28"/>
       <c r="C66" t="s">
         <v>157</v>
       </c>
@@ -8012,7 +9344,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="22"/>
-      <c r="B67" s="25"/>
+      <c r="B67" s="28"/>
       <c r="C67" t="s">
         <v>158</v>
       </c>
@@ -8022,7 +9354,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="22"/>
-      <c r="B68" s="25"/>
+      <c r="B68" s="28"/>
       <c r="C68" t="s">
         <v>159</v>
       </c>
@@ -8032,7 +9364,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="22"/>
-      <c r="B69" s="25"/>
+      <c r="B69" s="28"/>
       <c r="C69" t="s">
         <v>138</v>
       </c>
@@ -8042,7 +9374,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="22"/>
-      <c r="B70" s="25"/>
+      <c r="B70" s="28"/>
       <c r="C70" t="s">
         <v>160</v>
       </c>
@@ -8052,7 +9384,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="22"/>
-      <c r="B71" s="25"/>
+      <c r="B71" s="28"/>
       <c r="C71" t="s">
         <v>161</v>
       </c>
@@ -8062,7 +9394,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="22"/>
-      <c r="B72" s="25"/>
+      <c r="B72" s="28"/>
       <c r="C72" t="s">
         <v>162</v>
       </c>
@@ -8072,7 +9404,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="22"/>
-      <c r="B73" s="25"/>
+      <c r="B73" s="28"/>
       <c r="C73" t="s">
         <v>84</v>
       </c>
@@ -8082,7 +9414,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="22"/>
-      <c r="B74" s="25"/>
+      <c r="B74" s="28"/>
       <c r="C74" t="s">
         <v>163</v>
       </c>
@@ -8092,7 +9424,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="22"/>
-      <c r="B75" s="25"/>
+      <c r="B75" s="28"/>
       <c r="C75" t="s">
         <v>164</v>
       </c>
@@ -8102,7 +9434,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="22"/>
-      <c r="B76" s="25"/>
+      <c r="B76" s="28"/>
       <c r="C76" t="s">
         <v>165</v>
       </c>
@@ -8112,7 +9444,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="22"/>
-      <c r="B77" s="25"/>
+      <c r="B77" s="28"/>
       <c r="C77" t="s">
         <v>166</v>
       </c>
@@ -8122,7 +9454,7 @@
     </row>
     <row r="78" spans="1:7" ht="17.25" thickBot="1">
       <c r="A78" s="22"/>
-      <c r="B78" s="26"/>
+      <c r="B78" s="29"/>
       <c r="C78" t="s">
         <v>167</v>
       </c>
@@ -8132,7 +9464,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="22"/>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="27" t="s">
         <v>168</v>
       </c>
       <c r="C79" t="s">
@@ -8147,7 +9479,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="22"/>
-      <c r="B80" s="25"/>
+      <c r="B80" s="28"/>
       <c r="C80" t="s">
         <v>169</v>
       </c>
@@ -8160,7 +9492,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="22"/>
-      <c r="B81" s="25"/>
+      <c r="B81" s="28"/>
       <c r="C81" t="s">
         <v>170</v>
       </c>
@@ -8173,7 +9505,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="22"/>
-      <c r="B82" s="25"/>
+      <c r="B82" s="28"/>
       <c r="C82" t="s">
         <v>171</v>
       </c>
@@ -8186,7 +9518,7 @@
     </row>
     <row r="83" spans="1:7" ht="17.25" thickBot="1">
       <c r="A83" s="22"/>
-      <c r="B83" s="26"/>
+      <c r="B83" s="29"/>
       <c r="C83" t="s">
         <v>172</v>
       </c>
@@ -8199,7 +9531,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="22"/>
-      <c r="B84" s="24" t="s">
+      <c r="B84" s="27" t="s">
         <v>173</v>
       </c>
       <c r="C84" t="s">
@@ -8214,7 +9546,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="22"/>
-      <c r="B85" s="25"/>
+      <c r="B85" s="28"/>
       <c r="C85" t="s">
         <v>144</v>
       </c>
@@ -8227,7 +9559,7 @@
     </row>
     <row r="86" spans="1:7" ht="17.25" thickBot="1">
       <c r="A86" s="22"/>
-      <c r="B86" s="26"/>
+      <c r="B86" s="29"/>
       <c r="C86" t="s">
         <v>172</v>
       </c>
@@ -8237,7 +9569,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="22"/>
-      <c r="B87" s="24" t="s">
+      <c r="B87" s="27" t="s">
         <v>123</v>
       </c>
       <c r="C87" t="s">
@@ -8252,7 +9584,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="22"/>
-      <c r="B88" s="25"/>
+      <c r="B88" s="28"/>
       <c r="C88" t="s">
         <v>138</v>
       </c>
@@ -8265,7 +9597,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="22"/>
-      <c r="B89" s="25"/>
+      <c r="B89" s="28"/>
       <c r="C89" t="s">
         <v>161</v>
       </c>
@@ -8278,7 +9610,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="22"/>
-      <c r="B90" s="25"/>
+      <c r="B90" s="28"/>
       <c r="C90" t="s">
         <v>84</v>
       </c>
@@ -8291,7 +9623,7 @@
     </row>
     <row r="91" spans="1:7" ht="17.25" thickBot="1">
       <c r="A91" s="22"/>
-      <c r="B91" s="26"/>
+      <c r="B91" s="29"/>
       <c r="C91" t="s">
         <v>172</v>
       </c>
@@ -8304,7 +9636,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="22"/>
-      <c r="B92" s="24" t="s">
+      <c r="B92" s="27" t="s">
         <v>175</v>
       </c>
       <c r="C92" t="s">
@@ -8319,7 +9651,7 @@
     </row>
     <row r="93" spans="1:7" ht="17.25" thickBot="1">
       <c r="A93" s="22"/>
-      <c r="B93" s="26"/>
+      <c r="B93" s="29"/>
       <c r="C93" t="s">
         <v>138</v>
       </c>
@@ -8332,7 +9664,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="22"/>
-      <c r="B94" s="24" t="s">
+      <c r="B94" s="27" t="s">
         <v>177</v>
       </c>
       <c r="C94" t="s">
@@ -8347,7 +9679,7 @@
     </row>
     <row r="95" spans="1:7" ht="17.25" thickBot="1">
       <c r="A95" s="22"/>
-      <c r="B95" s="26"/>
+      <c r="B95" s="29"/>
       <c r="C95" t="s">
         <v>84</v>
       </c>
@@ -8360,10 +9692,10 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="22"/>
-      <c r="B96" s="24" t="s">
+      <c r="B96" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C96" s="27" t="s">
+      <c r="C96" s="30" t="s">
         <v>141</v>
       </c>
       <c r="D96" t="s">
@@ -8378,8 +9710,8 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="22"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="28"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="32"/>
       <c r="D97" t="s">
         <v>178</v>
       </c>
@@ -8392,8 +9724,8 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="22"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="28"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="32"/>
       <c r="D98" t="s">
         <v>179</v>
       </c>
@@ -8406,8 +9738,8 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="22"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="28"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="32"/>
       <c r="D99" t="s">
         <v>180</v>
       </c>
@@ -8420,8 +9752,8 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="22"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="28"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="32"/>
       <c r="D100" t="s">
         <v>181</v>
       </c>
@@ -8434,8 +9766,8 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="22"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="28"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="32"/>
       <c r="D101" t="s">
         <v>182</v>
       </c>
@@ -8448,8 +9780,8 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="22"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="28"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="32"/>
       <c r="D102" t="s">
         <v>183</v>
       </c>
@@ -8462,8 +9794,8 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="22"/>
-      <c r="B103" s="25"/>
-      <c r="C103" s="28"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="32"/>
       <c r="D103" t="s">
         <v>184</v>
       </c>
@@ -8476,8 +9808,8 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="22"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="28"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="32"/>
       <c r="D104" t="s">
         <v>185</v>
       </c>
@@ -8490,8 +9822,8 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="22"/>
-      <c r="B105" s="25"/>
-      <c r="C105" s="28"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="32"/>
       <c r="D105" t="s">
         <v>186</v>
       </c>
@@ -8504,8 +9836,8 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="22"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="28"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="32"/>
       <c r="D106" t="s">
         <v>187</v>
       </c>
@@ -8518,8 +9850,8 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="22"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="28"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="32"/>
       <c r="D107" t="s">
         <v>188</v>
       </c>
@@ -8532,8 +9864,8 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="22"/>
-      <c r="B108" s="25"/>
-      <c r="C108" s="28"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="32"/>
       <c r="D108" t="s">
         <v>189</v>
       </c>
@@ -8546,8 +9878,8 @@
     </row>
     <row r="109" spans="1:7" ht="17.25" thickBot="1">
       <c r="A109" s="22"/>
-      <c r="B109" s="25"/>
-      <c r="C109" s="29"/>
+      <c r="B109" s="28"/>
+      <c r="C109" s="31"/>
       <c r="D109" t="s">
         <v>190</v>
       </c>
@@ -8560,7 +9892,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="22"/>
-      <c r="B110" s="25"/>
+      <c r="B110" s="28"/>
       <c r="C110" t="s">
         <v>138</v>
       </c>
@@ -8573,7 +9905,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="22"/>
-      <c r="B111" s="25"/>
+      <c r="B111" s="28"/>
       <c r="C111" t="s">
         <v>161</v>
       </c>
@@ -8586,7 +9918,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="22"/>
-      <c r="B112" s="25"/>
+      <c r="B112" s="28"/>
       <c r="C112" t="s">
         <v>191</v>
       </c>
@@ -8599,7 +9931,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="22"/>
-      <c r="B113" s="25"/>
+      <c r="B113" s="28"/>
       <c r="C113" t="s">
         <v>143</v>
       </c>
@@ -8612,7 +9944,7 @@
     </row>
     <row r="114" spans="1:7" ht="17.25" thickBot="1">
       <c r="A114" s="22"/>
-      <c r="B114" s="26"/>
+      <c r="B114" s="29"/>
       <c r="C114" t="s">
         <v>192</v>
       </c>
@@ -9476,10 +10808,10 @@
       <c r="A191" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="B191" s="24" t="s">
+      <c r="B191" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="C191" s="27" t="s">
+      <c r="C191" s="30" t="s">
         <v>232</v>
       </c>
       <c r="D191" t="s">
@@ -9491,8 +10823,8 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="22"/>
-      <c r="B192" s="25"/>
-      <c r="C192" s="28"/>
+      <c r="B192" s="28"/>
+      <c r="C192" s="32"/>
       <c r="D192" t="s">
         <v>234</v>
       </c>
@@ -9502,8 +10834,8 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="22"/>
-      <c r="B193" s="25"/>
-      <c r="C193" s="28"/>
+      <c r="B193" s="28"/>
+      <c r="C193" s="32"/>
       <c r="D193" t="s">
         <v>235</v>
       </c>
@@ -9513,8 +10845,8 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="22"/>
-      <c r="B194" s="25"/>
-      <c r="C194" s="28"/>
+      <c r="B194" s="28"/>
+      <c r="C194" s="32"/>
       <c r="D194" t="s">
         <v>236</v>
       </c>
@@ -9524,8 +10856,8 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="22"/>
-      <c r="B195" s="25"/>
-      <c r="C195" s="28"/>
+      <c r="B195" s="28"/>
+      <c r="C195" s="32"/>
       <c r="D195" t="s">
         <v>237</v>
       </c>
@@ -9535,8 +10867,8 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="22"/>
-      <c r="B196" s="25"/>
-      <c r="C196" s="28"/>
+      <c r="B196" s="28"/>
+      <c r="C196" s="32"/>
       <c r="D196" t="s">
         <v>238</v>
       </c>
@@ -9546,8 +10878,8 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="22"/>
-      <c r="B197" s="25"/>
-      <c r="C197" s="28"/>
+      <c r="B197" s="28"/>
+      <c r="C197" s="32"/>
       <c r="D197" t="s">
         <v>221</v>
       </c>
@@ -9557,8 +10889,8 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="22"/>
-      <c r="B198" s="25"/>
-      <c r="C198" s="28"/>
+      <c r="B198" s="28"/>
+      <c r="C198" s="32"/>
       <c r="D198" t="s">
         <v>239</v>
       </c>
@@ -9568,8 +10900,8 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="22"/>
-      <c r="B199" s="25"/>
-      <c r="C199" s="28"/>
+      <c r="B199" s="28"/>
+      <c r="C199" s="32"/>
       <c r="D199" t="s">
         <v>240</v>
       </c>
@@ -9579,8 +10911,8 @@
     </row>
     <row r="200" spans="1:8" ht="17.25" thickBot="1">
       <c r="A200" s="22"/>
-      <c r="B200" s="25"/>
-      <c r="C200" s="29"/>
+      <c r="B200" s="28"/>
+      <c r="C200" s="31"/>
       <c r="D200" t="s">
         <v>241</v>
       </c>
@@ -9590,7 +10922,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="22"/>
-      <c r="B201" s="25"/>
+      <c r="B201" s="28"/>
       <c r="C201" t="s">
         <v>242</v>
       </c>
@@ -9600,7 +10932,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="22"/>
-      <c r="B202" s="25"/>
+      <c r="B202" s="28"/>
       <c r="C202" t="s">
         <v>84</v>
       </c>
@@ -9610,7 +10942,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="22"/>
-      <c r="B203" s="25"/>
+      <c r="B203" s="28"/>
       <c r="C203" t="s">
         <v>243</v>
       </c>
@@ -9620,7 +10952,7 @@
     </row>
     <row r="204" spans="1:8" ht="17.25" thickBot="1">
       <c r="A204" s="22"/>
-      <c r="B204" s="26"/>
+      <c r="B204" s="29"/>
       <c r="C204" t="s">
         <v>244</v>
       </c>
@@ -9630,10 +10962,10 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="22"/>
-      <c r="B205" s="24" t="s">
+      <c r="B205" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="C205" s="27" t="s">
+      <c r="C205" s="30" t="s">
         <v>218</v>
       </c>
       <c r="D205" t="s">
@@ -9648,8 +10980,8 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="22"/>
-      <c r="B206" s="25"/>
-      <c r="C206" s="28"/>
+      <c r="B206" s="28"/>
+      <c r="C206" s="32"/>
       <c r="D206" t="s">
         <v>246</v>
       </c>
@@ -9662,8 +10994,8 @@
     </row>
     <row r="207" spans="1:8" ht="17.25" thickBot="1">
       <c r="A207" s="22"/>
-      <c r="B207" s="25"/>
-      <c r="C207" s="29"/>
+      <c r="B207" s="28"/>
+      <c r="C207" s="31"/>
       <c r="D207" t="s">
         <v>221</v>
       </c>
@@ -9676,7 +11008,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="22"/>
-      <c r="B208" s="25"/>
+      <c r="B208" s="28"/>
       <c r="C208" t="s">
         <v>206</v>
       </c>
@@ -9692,7 +11024,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="22"/>
-      <c r="B209" s="25"/>
+      <c r="B209" s="28"/>
       <c r="C209" t="s">
         <v>224</v>
       </c>
@@ -9708,7 +11040,7 @@
     </row>
     <row r="210" spans="1:8" ht="17.25" thickBot="1">
       <c r="A210" s="22"/>
-      <c r="B210" s="26"/>
+      <c r="B210" s="29"/>
       <c r="C210" t="s">
         <v>228</v>
       </c>
@@ -9982,19 +11314,17 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:A46"/>
-    <mergeCell ref="B1:B9"/>
-    <mergeCell ref="B10:B23"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="A47:A127"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B78"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="A226:A228"/>
+    <mergeCell ref="A128:A190"/>
+    <mergeCell ref="A191:A225"/>
+    <mergeCell ref="B191:B204"/>
+    <mergeCell ref="B205:B210"/>
+    <mergeCell ref="C191:C200"/>
+    <mergeCell ref="C205:C207"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B114"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="C96:C109"/>
@@ -10004,17 +11334,19 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C191:C200"/>
-    <mergeCell ref="C205:C207"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B114"/>
-    <mergeCell ref="A226:A228"/>
-    <mergeCell ref="A128:A190"/>
-    <mergeCell ref="A191:A225"/>
-    <mergeCell ref="B191:B204"/>
-    <mergeCell ref="B205:B210"/>
+    <mergeCell ref="A47:A127"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B78"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="A1:A46"/>
+    <mergeCell ref="B1:B9"/>
+    <mergeCell ref="B10:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/開發文件.xlsx
+++ b/docs/開發文件.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\YDWE1.25.10\Creation\Mod\The_Tilted_Clock_Tower\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC9863F-A34D-4660-AFA2-BBFC2F736575}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52B4173-563F-4684-8ADF-C585F03AFC57}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
   </bookViews>
@@ -5735,104 +5735,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>91799</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>129899</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="橢圓 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEF5DF5E-97E9-49E7-A6C1-120CE5A2DDA6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7315199" y="2419349"/>
-          <a:ext cx="1692000" cy="1692000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>把屬性當作積木，在一定規則下拼出自己設計好的作品</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>，從而獲得舒服的體驗</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5847,7 +5759,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="0" y="19050"/>
           <a:ext cx="4429125" cy="1219201"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5974,16 +5886,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5998,7 +5910,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3657600" y="3267075"/>
+          <a:off x="5810250" y="2543175"/>
           <a:ext cx="1200150" cy="733425"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6036,15 +5948,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6060,7 +5972,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1685925" y="2638425"/>
+          <a:off x="3609975" y="1800225"/>
           <a:ext cx="1200150" cy="733425"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6098,16 +6010,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6122,7 +6034,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1704975" y="3876675"/>
+          <a:off x="3629025" y="3181350"/>
           <a:ext cx="1200150" cy="733425"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6160,122 +6072,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線接點 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B60626A-6B06-4D9B-8571-E8F44D8F495B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="1"/>
-          <a:endCxn id="12" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2886075" y="3005138"/>
-          <a:ext cx="771525" cy="628650"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>52388</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線接點 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B98FC58B-D52A-45FD-A5AD-64A8E2FA6909}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="1"/>
-          <a:endCxn id="13" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2905125" y="3633788"/>
-          <a:ext cx="752475" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6290,7 +6096,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12839699" y="2638426"/>
+          <a:off x="16059149" y="3752851"/>
           <a:ext cx="1219201" cy="742950"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6330,16 +6136,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6354,7 +6160,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12020550" y="4581525"/>
+          <a:off x="16859250" y="4857750"/>
           <a:ext cx="1398270" cy="752475"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6400,23 +6206,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>565784</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>377549</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>6074</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="矩形: 圓角 15">
+        <xdr:cNvPr id="2" name="橢圓 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9868F091-2FD1-4B9F-B5EB-EDBB39490D59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEF5DF5E-97E9-49E7-A6C1-120CE5A2DDA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6424,25 +6230,27 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12877800" y="5819775"/>
-          <a:ext cx="1403984" cy="1200150"/>
+          <a:off x="7600949" y="200024"/>
+          <a:ext cx="1692000" cy="1692000"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
+        <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -6451,18 +6259,34 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>能量節點</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-            <a:t>:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t> 使用鍛造技會生成一個節點，附魔指定的秘物會激發秘物的效果</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>把屬性當作積木，在一定規則下拼出自己設計好的作品</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，從而獲得舒服的體驗</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6470,69 +6294,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>375285</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>549592</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線接點 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E8E51BF-84E4-460E-B0E2-9BEF92A7CADB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="14" idx="2"/>
-          <a:endCxn id="16" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12719685" y="5334000"/>
-          <a:ext cx="860107" cy="485775"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>272325</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>110399</xdr:rowOff>
+      <xdr:colOff>577125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>129449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6547,7 +6318,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7781925" y="1066799"/>
+          <a:off x="8086725" y="2552699"/>
           <a:ext cx="720000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6586,16 +6357,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>420825</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>77924</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>335100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>87449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6610,7 +6381,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9267825" y="1990724"/>
+          <a:off x="9867900" y="2419349"/>
           <a:ext cx="1440000" cy="1440000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6650,16 +6421,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>619124</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>73724</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>188024</xdr:rowOff>
+      <xdr:colOff>216599</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>207074</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6674,7 +6445,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8848724" y="4124324"/>
+          <a:off x="8991599" y="4352924"/>
           <a:ext cx="1512000" cy="1512000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6713,16 +6484,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>131999</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>17699</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>65324</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>27224</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6737,7 +6508,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6019799" y="4019549"/>
+          <a:off x="6638924" y="5286374"/>
           <a:ext cx="1656000" cy="1656000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6776,16 +6547,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>552448</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361948</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>367048</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>119400</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>176548</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>195600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6800,7 +6571,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5353048" y="1390650"/>
+          <a:off x="7905748" y="7124700"/>
           <a:ext cx="1872000" cy="1872000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6839,16 +6610,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6863,7 +6634,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7686674" y="533401"/>
+          <a:off x="8553449" y="2105026"/>
           <a:ext cx="962025" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6910,16 +6681,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6934,7 +6705,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9515475" y="1619251"/>
+          <a:off x="10429875" y="2057401"/>
           <a:ext cx="942975" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6982,15 +6753,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7005,7 +6776,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9153525" y="3695701"/>
+          <a:off x="9001125" y="3914776"/>
           <a:ext cx="981075" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7052,15 +6823,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7076,7 +6847,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6305550" y="3590926"/>
+          <a:off x="6953250" y="4848226"/>
           <a:ext cx="981075" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7123,16 +6894,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7147,7 +6918,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5810250" y="971551"/>
+          <a:off x="8505825" y="6753226"/>
           <a:ext cx="981075" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7190,6 +6961,1161 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>195263</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線接點 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{493E4C71-67B3-4EB2-A432-C70E97B61B09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="1"/>
+          <a:endCxn id="13" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4829175" y="2909888"/>
+          <a:ext cx="981075" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線接點 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CD887F7-4415-4B2A-9786-E73AD63D3AAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="1"/>
+          <a:endCxn id="12" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4810125" y="2166938"/>
+          <a:ext cx="1000125" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="矩形: 圓角 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6795F33F-7354-492C-AD99-524514ACA8BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5724525" y="3533775"/>
+          <a:ext cx="1257300" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>精加工</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t> 提升材料的品質，從小積木變成大積木</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>245745</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="矩形: 圓角 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3785F15B-1CFE-4FDA-8ABA-3A8F946D16FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15992475" y="2562225"/>
+          <a:ext cx="1398270" cy="744855"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>鍛造大賽，讓追隨者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>AI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>穿著玩家打造的裝備互打</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>139065</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="矩形: 圓角 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C712DD25-889D-4632-8B06-5709144AA91B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15982950" y="1390650"/>
+          <a:ext cx="1398270" cy="634365"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>天驕榜</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>多人聲望榜</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>232410</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線接點 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95AEDE14-B71C-4E00-A5A5-0B5AAAFC5858}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="0"/>
+          <a:endCxn id="45" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16668750" y="3307080"/>
+          <a:ext cx="22860" cy="445771"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>222885</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>139065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>232410</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線接點 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C7E9918-22BE-45DA-A702-D74AF5065C88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="0"/>
+          <a:endCxn id="46" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="16682085" y="2025015"/>
+          <a:ext cx="9525" cy="537210"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>169545</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="矩形: 圓角 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB0B2AC6-9E41-40C2-9B7A-805FD2442C34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17973675" y="4029075"/>
+          <a:ext cx="1398270" cy="634365"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>拍賣行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t> 購買材料、販售構裝的地方</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>577125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>188549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>205649</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直線單箭頭接點 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5F7639B-DBEF-4331-BC4F-DC9AC9DD72C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="6"/>
+          <a:endCxn id="22" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8806725" y="2912699"/>
+          <a:ext cx="1061175" cy="226650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>680972</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>87449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>300900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>173801</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直線單箭頭接點 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{667628FC-0B6B-4A85-B655-CA145327757D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="4"/>
+          <a:endCxn id="23" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10282172" y="3859349"/>
+          <a:ext cx="305728" cy="715002"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>508608</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>79724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>80590</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="直線單箭頭接點 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A3B9E20-C1F5-47D0-8D39-298256B8B933}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="2"/>
+          <a:endCxn id="27" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8052408" y="5108924"/>
+          <a:ext cx="939191" cy="419966"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>508608</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>203808</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>636096</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>64598</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="直線單箭頭接點 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{720B14F1-D248-415C-9ADE-EA7E731142F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="5"/>
+          <a:endCxn id="28" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8052408" y="6699858"/>
+          <a:ext cx="127488" cy="698990"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>188549</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="直線接點 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5841D690-4959-41EE-9D99-C03E2C55BD80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+          <a:endCxn id="8" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7010400" y="2909888"/>
+          <a:ext cx="1076325" cy="2811"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>24007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>648367</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="直線接點 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{985356BA-6122-423E-AB37-0916C55247BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="3"/>
+          <a:endCxn id="37" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6981825" y="3167257"/>
+          <a:ext cx="1210342" cy="742756"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="矩形: 圓角 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E585D56-1789-46C8-822B-55D6A6B1BD79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12068175" y="1571625"/>
+          <a:ext cx="2057400" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>雕紋陣</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t> 將秘銀、精金等等超導材料磨成粉，在魔石上雕刻魔法陣並把粉倒入，最後使用魔獸血凝固，形成魔法陣。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>材料好壞、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>雜質多寡</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>都</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>會影響魔法陣的數量</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>335100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>205649</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="直線接點 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AB74DE4-698F-4130-ADEF-5E384647958E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="6"/>
+          <a:endCxn id="105" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11307900" y="2352675"/>
+          <a:ext cx="760275" cy="786674"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>217125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>6074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>217349</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="直線單箭頭接點 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2D3C243-9981-4869-88F7-FE014A4067FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="4"/>
+          <a:endCxn id="21" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8446725" y="1892024"/>
+          <a:ext cx="224" cy="660675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="矩形: 圓角 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D6391B0-2715-4ADA-8094-0B138CABE00B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5562599" y="1104900"/>
+          <a:ext cx="1533525" cy="1152525"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>材料是元素的組合，使用鍛造技會根據材料的元素搜尋相似的配方，根據比例生成屬性</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>648367</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>143541</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線接點 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE042FED-6A7C-4DC7-932A-58513FF1212B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="1"/>
+          <a:endCxn id="38" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7096124" y="1681163"/>
+          <a:ext cx="1096043" cy="976978"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8506,7 +9432,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8522,7 +9448,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="N6:O6"/>
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/docs/開發文件.xlsx
+++ b/docs/開發文件.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\YDWE1.25.10\Creation\Mod\The_Tilted_Clock_Tower\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52B4173-563F-4684-8ADF-C585F03AFC57}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CFCC3F-9A34-4101-878C-FD4CC456C910}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
   </bookViews>
   <sheets>
     <sheet name="項目" sheetId="1" r:id="rId1"/>
     <sheet name="創意工坊" sheetId="4" r:id="rId2"/>
     <sheet name="頭腦風暴" sheetId="6" r:id="rId3"/>
     <sheet name="經過驗證的擴充創意" sheetId="7" r:id="rId4"/>
-    <sheet name="流程" sheetId="5" r:id="rId5"/>
-    <sheet name="重構紀錄" sheetId="2" r:id="rId6"/>
+    <sheet name="效果系統" sheetId="8" r:id="rId5"/>
+    <sheet name="流程" sheetId="5" r:id="rId6"/>
+    <sheet name="重構紀錄" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -1671,15 +1672,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1692,10 +1684,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1705,6 +1697,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8121,6 +8122,6139 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="250" name="矩形 249">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E810878-07E5-4DA1-8238-0D81F8256EED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="9639301"/>
+          <a:ext cx="14344649" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="213" name="矩形 212">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B843BE63-6507-4575-A76F-AB118B3B7AB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2066925" y="4800600"/>
+          <a:ext cx="14344649" cy="4648199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="矩形 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A2E5A57-C1A2-49D1-8330-56738C70D8A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047876" y="1304926"/>
+          <a:ext cx="11582400" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>490538</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="直線接點 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91D6F4DE-60F7-4FF2-ABB6-01F1B1B0A2EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="84" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8629650" y="2581275"/>
+          <a:ext cx="4205288" cy="2295524"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="直線接點 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83225EBE-7639-459B-A4F3-952637C05FF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="84" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="2581275"/>
+          <a:ext cx="5010150" cy="2295524"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形: 圓角 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FFFD67A-F95A-4ECB-A965-067FB593B12D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8124825" y="504825"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1800"/>
+            <a:t>Effect</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形: 圓角 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{186D3D1B-CCE0-4A7B-BC58-9DDC5C873297}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3124200" y="2000250"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>護盾</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形: 圓角 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6135369-36F9-4BDC-A6C9-A3EB19942858}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5762625" y="2028825"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1800"/>
+            <a:t>buff</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形: 圓角 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5F1386A-F94C-4178-A3E3-F4AEE8162FA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10668000" y="2019300"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1800"/>
+            <a:t>debuff</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形: 圓角 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{262A7C0D-0427-46C3-AAB1-319AE4030488}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8134350" y="2057400"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1800"/>
+            <a:t>dot</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形: 圓角 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D13F92CB-232E-44A0-8D0A-E799A6A48904}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12325350" y="2009775"/>
+          <a:ext cx="1019175" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1800"/>
+            <a:t>damage</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形: 圓角 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF7AA869-D029-493C-980A-F1B615CA027D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="3352800"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>個人屬性</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形: 圓角 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFE80F55-63E6-4E04-BD60-B9D3DD87E6B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5095875" y="3362325"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>技能效果</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形: 圓角 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7AEF579-65BF-4B8C-AAA3-EED5F445669E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="3343275"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>盟友屬性</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形: 圓角 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32FF3F77-6011-457D-857E-2C45ACF8F6C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7400925" y="3362325"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>恢復能量</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線接點 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3103D53A-95B4-4BBB-B27A-EE0BF1E5CFF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5576888" y="2600325"/>
+          <a:ext cx="666750" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>290513</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線接點 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCF63D5F-3E9F-4750-9005-F1E4B7523E0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4405313" y="2600325"/>
+          <a:ext cx="1838325" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>557213</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線接點 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{527E3412-A7AA-4295-BB48-57184D23D260}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6243638" y="2600325"/>
+          <a:ext cx="485775" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線接點 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20C84787-9267-4594-B45D-A8D1CE05F363}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6243638" y="2600325"/>
+          <a:ext cx="1638300" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="矩形: 圓角 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47DC10A0-5755-46C9-81D0-3FBBECE076E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9001125" y="3314700"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>個人屬性</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="矩形: 圓角 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61455C65-E3EE-4563-B8F2-ECD6F1653D5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10153650" y="3314700"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>技能效果</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="矩形: 圓角 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBB51B89-7A88-40C7-B69B-65EA4E53B36D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11258550" y="3295650"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>敵軍屬性</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="矩形: 圓角 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5285C3C-7830-4CD5-95FE-4CC2C56BE796}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12449175" y="3295650"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>特殊</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>566738</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>176213</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線接點 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88B94DCB-2921-41AF-99E5-F3971981396D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="21" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9482138" y="2590800"/>
+          <a:ext cx="1666875" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>176213</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線接點 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D92F544-90CC-473B-9E2D-B67221644568}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="22" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10634663" y="2590800"/>
+          <a:ext cx="514350" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>176213</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>80963</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線接點 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E971D47-445A-46F7-B4D4-13354E349E0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="23" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11149013" y="2590800"/>
+          <a:ext cx="590550" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>176213</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>585788</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線接點 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FD954BF-1EF9-4643-8B20-220B17380F99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="24" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11149013" y="2590800"/>
+          <a:ext cx="1781175" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>176213</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>376238</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線接點 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13C6A7FC-445C-4A7C-8C4C-07E13E289B1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3605213" y="1076325"/>
+          <a:ext cx="5000625" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>376238</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線接點 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E61B1E3-169C-403D-9F6E-3F625BC870FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6243638" y="1076325"/>
+          <a:ext cx="2362200" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>376238</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>385763</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線接點 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58E39C96-C076-43CB-9F48-CFE3ED522B09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8605838" y="1076325"/>
+          <a:ext cx="9525" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>376238</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>176213</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線接點 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBE14B0E-0830-48E0-B74E-237176FD8F37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8605838" y="1076325"/>
+          <a:ext cx="2543175" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>376238</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>490538</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線接點 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3840716A-E447-4A3A-B789-1D68C6F23360}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8605838" y="1076325"/>
+          <a:ext cx="4229100" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="957634" cy="561949"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="文字方塊 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35C58F6C-367D-4289-9260-A174BB6265D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2066925" y="1323975"/>
+          <a:ext cx="957634" cy="561949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="3000"/>
+            <a:t>View</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="3000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="矩形: 圓角 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26A03913-1C23-42AA-B7A4-6C8B10135B7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7848600" y="4876799"/>
+          <a:ext cx="1562100" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1800"/>
+            <a:t>&lt;&lt;interface&gt;&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1800"/>
+            <a:t>Effect</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="矩形: 圓角 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B83CD07-5D6D-4658-8ED3-AB48A0411946}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7972425" y="8848725"/>
+          <a:ext cx="1143000" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>是否可疊加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="矩形: 圓角 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E4E8672-C879-4526-94C8-1CCBF45CEDFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9182100" y="6324600"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>持續時間</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="矩形: 圓角 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FB335C2-D8D8-4090-A51C-5447ED52232E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="6343650"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>等級</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="矩形: 圓角 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4AAB481-622E-4AEB-BD16-B2FF59297F51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8001000" y="6334125"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>能否驅散</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="矩形: 圓角 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F01284C9-7C75-4D4B-AB04-268F023ECA51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6848475" y="8801100"/>
+          <a:ext cx="904875" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>優先級</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="矩形: 圓角 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDBE5018-1135-4F53-933C-0877BEFAA476}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10382250" y="6305550"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>其他規則</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="直線接點 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE0BE2E-47EF-49D9-B9C9-8E7488FFC0C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="84" idx="2"/>
+          <a:endCxn id="86" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8629650" y="5667374"/>
+          <a:ext cx="1033463" cy="657226"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="直線接點 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADE39300-8723-4E18-A1B4-08534BDAE0D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="84" idx="2"/>
+          <a:endCxn id="87" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7186613" y="5667374"/>
+          <a:ext cx="1443037" cy="676276"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>252413</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="直線接點 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83F850E8-8228-4715-9BA2-E164A1F63018}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="84" idx="2"/>
+          <a:endCxn id="88" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8482013" y="5667374"/>
+          <a:ext cx="147637" cy="666751"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>185738</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="直線接點 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20F09E61-7A4B-474B-BEDE-4782D192ECD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="84" idx="2"/>
+          <a:endCxn id="153" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5672138" y="5667374"/>
+          <a:ext cx="2957512" cy="695326"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>576263</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="直線接點 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8C5F083-5F5D-4AA8-B8F9-9C74B7AD9AA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="84" idx="2"/>
+          <a:endCxn id="90" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8629650" y="5667374"/>
+          <a:ext cx="2233613" cy="638176"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>290513</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="直線接點 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A785D0F-C903-4B1C-A48B-A0166BA98D44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="84" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4405313" y="3924300"/>
+          <a:ext cx="4224337" cy="952499"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="118" name="直線接點 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{405706C4-23F3-48CA-B320-C24C4B064A05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="84" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5576888" y="3933825"/>
+          <a:ext cx="3052762" cy="942974"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>557213</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="直線接點 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0BBCAB-24A2-41E0-95FF-B7AE104936C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="84" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6729413" y="3914775"/>
+          <a:ext cx="1900237" cy="962024"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="直線接點 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE591359-4542-4E34-BDF9-647E0ED221A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="84" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7881938" y="3933825"/>
+          <a:ext cx="747712" cy="942974"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>385763</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="124" name="直線接點 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB0E31D7-8E64-4C00-A2EF-0C56F1C6CA14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="84" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8615363" y="2628900"/>
+          <a:ext cx="14287" cy="2247899"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>566738</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="直線接點 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{371FEB41-F840-4963-9B87-0A6BE38A51AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+          <a:endCxn id="84" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8629650" y="3886200"/>
+          <a:ext cx="852488" cy="990599"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="直線接點 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6F1DEB1-1AD3-430A-9FA0-1F1A443CA4C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="2"/>
+          <a:endCxn id="84" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8629650" y="3886200"/>
+          <a:ext cx="2005013" cy="990599"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>80963</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="直線接點 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4674CE8E-C889-408F-86FB-97E8F20121BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="2"/>
+          <a:endCxn id="84" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8629650" y="3867150"/>
+          <a:ext cx="3109913" cy="1009649"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>585788</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="132" name="直線接點 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E07B9CA6-4720-4489-9914-111498C48146}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="2"/>
+          <a:endCxn id="84" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8629650" y="3867150"/>
+          <a:ext cx="4300538" cy="1009649"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="矩形: 圓角 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BACA94-6292-46B6-B137-9C1E0A1F8949}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5734050" y="8801100"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>有效數量</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="矩形: 圓角 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7B5C90F-2CD5-4849-9274-919C0C05E7A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3371850" y="7772400"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>獨佔</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="150" name="矩形: 圓角 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88D67FD6-8A55-432B-B5B0-F4802DAAA079}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6829425" y="7800975"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>共存</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="153" name="矩形: 圓角 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE549851-885A-44F6-97C9-53A04961B868}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5191125" y="6362700"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>模式</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>423863</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>185738</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="158" name="直線接點 157">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C12BBCE5-81C5-48C3-860D-513BA2D8BE5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="153" idx="2"/>
+          <a:endCxn id="149" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3852863" y="6934200"/>
+          <a:ext cx="1819275" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>185738</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="160" name="直線接點 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3706C82-569F-4598-BEE8-D083EA89127A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="153" idx="2"/>
+          <a:endCxn id="150" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5672138" y="6934200"/>
+          <a:ext cx="1638300" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>42863</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="164" name="直線接點 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0973969-19E8-466A-952F-C391D08B40C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="150" idx="2"/>
+          <a:endCxn id="143" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6215063" y="8372475"/>
+          <a:ext cx="1095375" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>442913</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="166" name="直線接點 165">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DB47F50-7F20-430D-9C40-FACF249CC954}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="150" idx="2"/>
+          <a:endCxn id="89" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7300913" y="8372475"/>
+          <a:ext cx="9525" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="170" name="直線接點 169">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED45F17F-0265-42EC-A37B-A3931B96A2EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="150" idx="2"/>
+          <a:endCxn id="85" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7310438" y="8372475"/>
+          <a:ext cx="1233487" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="171" name="矩形: 圓角 170">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F766F39-CB4B-4378-9FB7-C545E013AC4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438650" y="8829675"/>
+          <a:ext cx="1143000" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>是否可疊加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="172" name="矩形: 圓角 171">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6E467F6-AC89-4704-9E2E-D9E86BE4D089}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3390900" y="8791575"/>
+          <a:ext cx="904875" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>優先級</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="173" name="矩形: 圓角 172">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{800BFD3B-B6AA-48A7-B09D-08795A2780DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143126" y="8801100"/>
+          <a:ext cx="1047750" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>是否覆蓋</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>423863</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="175" name="直線接點 174">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57407594-E81F-4BEF-9BE2-841B4DA0E7A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="149" idx="2"/>
+          <a:endCxn id="171" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3852863" y="8343900"/>
+          <a:ext cx="1157287" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>414338</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>423863</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="177" name="直線接點 176">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA2D15B1-49B0-43C8-9571-CBE8EB2394CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="149" idx="2"/>
+          <a:endCxn id="172" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3843338" y="8343900"/>
+          <a:ext cx="9525" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>423863</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="179" name="直線接點 178">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEED24C9-F41C-4322-B994-F6A10C0F8138}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="149" idx="2"/>
+          <a:endCxn id="173" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2667001" y="8343900"/>
+          <a:ext cx="1185862" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1762790" cy="561949"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="214" name="文字方塊 213">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5094C46-92BB-47D9-B0BE-BBDDA11D864B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="4800600"/>
+          <a:ext cx="1762790" cy="561949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="3000"/>
+            <a:t>Controller</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="3000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="215" name="矩形: 圓角 214">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F790647F-DF11-47AE-AA24-1C47CEB019A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11553825" y="6305550"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>介面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>376238</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="217" name="直線接點 216">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDFFD274-DA8F-4853-9AD5-2A3302DFCA15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="84" idx="2"/>
+          <a:endCxn id="215" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8629650" y="5667374"/>
+          <a:ext cx="3405188" cy="638176"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="220" name="矩形: 圓角 219">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCB9941C-05BC-478F-AEF7-1963A3D4B33C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12706350" y="6296025"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>觸發事件</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>157163</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="222" name="直線接點 221">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F786419C-6ECB-41D5-A1A6-2185B7CBF24B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="84" idx="2"/>
+          <a:endCxn id="220" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8629650" y="5667374"/>
+          <a:ext cx="4557713" cy="628651"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="224" name="矩形: 圓角 223">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF29F009-43B6-4125-9FF5-9DE259F25F4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10239375" y="7791450"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>添加事件</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="225" name="矩形: 圓角 224">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAA85CD5-D705-4750-BEEE-04A7EB3B04FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9172575" y="7820025"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>刪除事件</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="226" name="矩形: 圓角 225">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0289593-E8A2-4853-BF65-F23C620F1A89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11287125" y="7791450"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>完成事件</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="227" name="矩形: 圓角 226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DDCDC1F-24F4-40BF-8AF7-3CE53C9C49A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12363450" y="7772400"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>週期事件</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="228" name="矩形: 圓角 227">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95C4385-0B31-4F60-AC77-55E22994A442}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13449300" y="7781925"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>覆蓋事件</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>157163</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="230" name="直線接點 229">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{467A38B5-BBD1-469D-B4F4-5B833B4402AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="220" idx="2"/>
+          <a:endCxn id="228" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13187363" y="6867525"/>
+          <a:ext cx="742950" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>500063</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>157163</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="232" name="直線接點 231">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B716A5DF-1D2C-490B-A5E3-44E9C427A844}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="220" idx="2"/>
+          <a:endCxn id="227" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12844463" y="6867525"/>
+          <a:ext cx="342900" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>157163</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="234" name="直線接點 233">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A50EBDD1-B236-4406-99AC-ADF950B9EDD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="220" idx="2"/>
+          <a:endCxn id="226" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11768138" y="6867525"/>
+          <a:ext cx="1419225" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>433388</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>157163</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="236" name="直線接點 235">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D57665A4-C005-49E2-89C9-C3ABE167C8B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="220" idx="2"/>
+          <a:endCxn id="224" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10720388" y="6867525"/>
+          <a:ext cx="2466975" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>157163</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="238" name="直線接點 237">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C0993D-2F39-4CB2-9CDC-17CB34339843}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="220" idx="2"/>
+          <a:endCxn id="225" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9653588" y="6867525"/>
+          <a:ext cx="3533775" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>252413</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="240" name="直線單箭頭接點 239">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77F3FF3F-DEDB-482D-8775-413D0E9496FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="88" idx="2"/>
+          <a:endCxn id="225" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8482013" y="6905625"/>
+          <a:ext cx="1171575" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1198277" cy="561949"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="251" name="文字方塊 250">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8CF732B-6082-4CFC-A192-711F4DCA04C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2190750" y="9667875"/>
+          <a:ext cx="1198277" cy="561949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="3000"/>
+            <a:t>Model</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="3000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="266" name="矩形: 圓角 265">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F409E1BA-72FF-4FEA-8F1A-4A3AFD965A73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4810125" y="9686924"/>
+          <a:ext cx="1562100" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1800"/>
+            <a:t>Templates</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="267" name="矩形: 圓角 266">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F258D77-AEA8-424F-A2FB-89766C6795DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2314575" y="10925175"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>時間</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="268" name="矩形: 圓角 267">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E5037D5-6C63-4449-A277-50C0E4329AC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3409950" y="10934700"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>事件</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="269" name="矩形: 圓角 268">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00555B11-868C-41D4-9296-73223A4E2DA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4514850" y="10953750"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>參數</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="270" name="矩形: 圓角 269">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D718F29-5944-49A7-8208-1D469FEE5727}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829550" y="10925175"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>文字說明</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="271" name="矩形: 圓角 270">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E54C43A-D456-4BED-98EE-E28308BC4690}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6734175" y="10944225"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>視覺效果</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="272" name="矩形: 圓角 271">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71E97CA1-2B70-40BD-9CED-1FC9B62B5BF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5610225" y="10944225"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>名稱</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="274" name="直線接點 273">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52DD2AAB-54EB-4A29-8BA1-58757D028010}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="266" idx="2"/>
+          <a:endCxn id="267" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2795588" y="10477499"/>
+          <a:ext cx="2795587" cy="447676"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>461963</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="278" name="直線接點 277">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0613BCE2-37AE-4B4E-BA21-CBD6CA13101F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="266" idx="2"/>
+          <a:endCxn id="268" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3890963" y="10477499"/>
+          <a:ext cx="1700212" cy="457201"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>195263</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="280" name="直線接點 279">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F09F4E6-6BF7-477E-90EC-A58F667788B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="266" idx="2"/>
+          <a:endCxn id="269" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4995863" y="10477499"/>
+          <a:ext cx="595312" cy="476251"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>604838</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="291" name="直線接點 290">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A8510BE-F534-43A8-89FE-E3702BDCDA8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="266" idx="2"/>
+          <a:endCxn id="272" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591175" y="10477499"/>
+          <a:ext cx="500063" cy="466726"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="293" name="直線接點 292">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D43B0C8A-FC66-42F7-8346-B0D1831F4106}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="266" idx="2"/>
+          <a:endCxn id="271" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591175" y="10477499"/>
+          <a:ext cx="1624013" cy="466726"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>80963</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="295" name="直線接點 294">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A750DF88-B3D5-4690-8CA8-8D9161DA53A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="266" idx="2"/>
+          <a:endCxn id="270" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591175" y="10477499"/>
+          <a:ext cx="2719388" cy="447676"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="308" name="矩形: 圓角 307">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B099161-4AD1-4647-8DFC-66453D7C114A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11591925" y="9734549"/>
+          <a:ext cx="1152525" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1800"/>
+            <a:t>Manager</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="309" name="矩形: 圓角 308">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25AC3C46-E0AC-45CA-A1A8-0F41DA86D489}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10448925" y="10953750"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>模板管理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="310" name="矩形: 圓角 309">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8B1D4B3-C040-4DB2-A7AA-EE87B1C8CB40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11677650" y="10944225"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>添加模板</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="311" name="矩形: 圓角 310">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{804EDBA7-4ED5-4559-9DA7-9AF1FE9B65DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12915900" y="10944225"/>
+          <a:ext cx="962025" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
+            <a:t>搜尋模板</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>642938</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>509588</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="313" name="直線接點 312">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89E0F98A-BDF4-4FFC-B7B9-2D2DBE503824}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="308" idx="2"/>
+          <a:endCxn id="309" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10929938" y="10525124"/>
+          <a:ext cx="1238250" cy="428626"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>500063</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>509588</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="316" name="直線接點 315">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{428CC55B-42F5-4B6F-8661-485D48BB0DEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="308" idx="2"/>
+          <a:endCxn id="310" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12158663" y="10525124"/>
+          <a:ext cx="9525" cy="419101"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>509588</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>366713</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="319" name="直線接點 318">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF85746D-F933-43EA-9BA2-1491A874F343}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="308" idx="2"/>
+          <a:endCxn id="311" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12168188" y="10525124"/>
+          <a:ext cx="1228725" cy="419101"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
@@ -9447,8 +15581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4C37A9-3500-4D1C-B102-1E629D48F036}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9460,6 +15594,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31534E49-32C8-426A-8FA9-DD7F342C6180}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Q54" sqref="Q54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336849DF-D3F4-435E-87DA-A99B863A554D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -9474,7 +15624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29018229-9EAF-4726-88C6-5A87070EDF6C}">
   <dimension ref="A1:H229"/>
   <sheetViews>
@@ -9496,7 +15646,7 @@
       <c r="A1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="33" t="s">
         <v>83</v>
       </c>
       <c r="C1" t="s">
@@ -9511,7 +15661,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="22"/>
-      <c r="B2" s="25"/>
+      <c r="B2" s="34"/>
       <c r="C2" t="s">
         <v>85</v>
       </c>
@@ -9521,7 +15671,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="22"/>
-      <c r="B3" s="25"/>
+      <c r="B3" s="34"/>
       <c r="C3" t="s">
         <v>86</v>
       </c>
@@ -9531,7 +15681,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="22"/>
-      <c r="B4" s="25"/>
+      <c r="B4" s="34"/>
       <c r="C4" t="s">
         <v>87</v>
       </c>
@@ -9541,7 +15691,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="22"/>
-      <c r="B5" s="25"/>
+      <c r="B5" s="34"/>
       <c r="C5" t="s">
         <v>88</v>
       </c>
@@ -9551,7 +15701,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="22"/>
-      <c r="B6" s="25"/>
+      <c r="B6" s="34"/>
       <c r="C6" t="s">
         <v>89</v>
       </c>
@@ -9561,7 +15711,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="22"/>
-      <c r="B7" s="25"/>
+      <c r="B7" s="34"/>
       <c r="C7" t="s">
         <v>90</v>
       </c>
@@ -9571,7 +15721,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="22"/>
-      <c r="B8" s="25"/>
+      <c r="B8" s="34"/>
       <c r="C8" t="s">
         <v>91</v>
       </c>
@@ -9581,7 +15731,7 @@
     </row>
     <row r="9" spans="1:8" ht="17.25" thickBot="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="26"/>
+      <c r="B9" s="35"/>
       <c r="C9" t="s">
         <v>92</v>
       </c>
@@ -9591,13 +15741,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="22"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="30" t="s">
         <v>95</v>
       </c>
       <c r="E10" t="s">
@@ -9609,9 +15759,9 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="22"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="31"/>
       <c r="E11" t="s">
         <v>97</v>
       </c>
@@ -9621,9 +15771,9 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="22"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="31"/>
       <c r="E12" t="s">
         <v>98</v>
       </c>
@@ -9633,9 +15783,9 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="22"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="31"/>
       <c r="E13" t="s">
         <v>99</v>
       </c>
@@ -9645,9 +15795,9 @@
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="35"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="32"/>
       <c r="E14" t="s">
         <v>100</v>
       </c>
@@ -9657,9 +15807,9 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="22"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="30" t="s">
         <v>101</v>
       </c>
       <c r="E15" t="s">
@@ -9671,9 +15821,9 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="22"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="31"/>
       <c r="E16" t="s">
         <v>103</v>
       </c>
@@ -9683,9 +15833,9 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="22"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="31"/>
       <c r="E17" t="s">
         <v>104</v>
       </c>
@@ -9695,9 +15845,9 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="22"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="31"/>
       <c r="E18" t="s">
         <v>105</v>
       </c>
@@ -9707,9 +15857,9 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="31"/>
       <c r="E19" t="s">
         <v>106</v>
       </c>
@@ -9719,9 +15869,9 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="22"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="31"/>
       <c r="E20" t="s">
         <v>107</v>
       </c>
@@ -9731,9 +15881,9 @@
     </row>
     <row r="21" spans="1:6" ht="17.25" thickBot="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="35"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="32"/>
       <c r="E21" t="s">
         <v>108</v>
       </c>
@@ -9743,7 +15893,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="22"/>
-      <c r="B22" s="25"/>
+      <c r="B22" s="34"/>
       <c r="C22" t="s">
         <v>109</v>
       </c>
@@ -9753,7 +15903,7 @@
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="26"/>
+      <c r="B23" s="35"/>
       <c r="C23" t="s">
         <v>84</v>
       </c>
@@ -9763,7 +15913,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="22"/>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="24" t="s">
         <v>110</v>
       </c>
       <c r="C24" t="s">
@@ -9775,7 +15925,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="22"/>
-      <c r="B25" s="28"/>
+      <c r="B25" s="25"/>
       <c r="C25" t="s">
         <v>111</v>
       </c>
@@ -9785,7 +15935,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="22"/>
-      <c r="B26" s="28"/>
+      <c r="B26" s="25"/>
       <c r="C26" t="s">
         <v>112</v>
       </c>
@@ -9795,7 +15945,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="22"/>
-      <c r="B27" s="28"/>
+      <c r="B27" s="25"/>
       <c r="C27" t="s">
         <v>113</v>
       </c>
@@ -9805,7 +15955,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="22"/>
-      <c r="B28" s="28"/>
+      <c r="B28" s="25"/>
       <c r="C28" t="s">
         <v>114</v>
       </c>
@@ -9815,7 +15965,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="22"/>
-      <c r="B29" s="28"/>
+      <c r="B29" s="25"/>
       <c r="C29" t="s">
         <v>115</v>
       </c>
@@ -9825,7 +15975,7 @@
     </row>
     <row r="30" spans="1:6" ht="17.25" thickBot="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="29"/>
+      <c r="B30" s="26"/>
       <c r="C30" t="s">
         <v>116</v>
       </c>
@@ -9835,10 +15985,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="22"/>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="27" t="s">
         <v>118</v>
       </c>
       <c r="D31" t="s">
@@ -9850,8 +16000,8 @@
     </row>
     <row r="32" spans="1:6" ht="17.25" thickBot="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="31"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="29"/>
       <c r="D32" t="s">
         <v>120</v>
       </c>
@@ -9861,8 +16011,8 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="22"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="30" t="s">
+      <c r="B33" s="25"/>
+      <c r="C33" s="27" t="s">
         <v>121</v>
       </c>
       <c r="D33" t="s">
@@ -9874,8 +16024,8 @@
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1">
       <c r="A34" s="22"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="31"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="29"/>
       <c r="D34" t="s">
         <v>123</v>
       </c>
@@ -9885,8 +16035,8 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="22"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="30" t="s">
+      <c r="B35" s="25"/>
+      <c r="C35" s="27" t="s">
         <v>124</v>
       </c>
       <c r="D35" t="s">
@@ -9898,8 +16048,8 @@
     </row>
     <row r="36" spans="1:7" ht="17.25" thickBot="1">
       <c r="A36" s="22"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="31"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="29"/>
       <c r="D36" t="s">
         <v>123</v>
       </c>
@@ -10001,7 +16151,7 @@
       <c r="A47" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="24" t="s">
         <v>136</v>
       </c>
       <c r="C47" t="s">
@@ -10016,7 +16166,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="22"/>
-      <c r="B48" s="28"/>
+      <c r="B48" s="25"/>
       <c r="C48" t="s">
         <v>138</v>
       </c>
@@ -10029,7 +16179,7 @@
     </row>
     <row r="49" spans="1:7" ht="17.25" thickBot="1">
       <c r="A49" s="22"/>
-      <c r="B49" s="29"/>
+      <c r="B49" s="26"/>
       <c r="C49" t="s">
         <v>139</v>
       </c>
@@ -10042,10 +16192,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="22"/>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="27" t="s">
         <v>141</v>
       </c>
       <c r="D50" t="s">
@@ -10060,8 +16210,8 @@
     </row>
     <row r="51" spans="1:7" ht="17.25" thickBot="1">
       <c r="A51" s="22"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="31"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="29"/>
       <c r="D51" t="s">
         <v>142</v>
       </c>
@@ -10074,7 +16224,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="22"/>
-      <c r="B52" s="28"/>
+      <c r="B52" s="25"/>
       <c r="C52" t="s">
         <v>138</v>
       </c>
@@ -10087,7 +16237,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="22"/>
-      <c r="B53" s="28"/>
+      <c r="B53" s="25"/>
       <c r="C53" t="s">
         <v>84</v>
       </c>
@@ -10100,7 +16250,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="22"/>
-      <c r="B54" s="28"/>
+      <c r="B54" s="25"/>
       <c r="C54" t="s">
         <v>143</v>
       </c>
@@ -10113,7 +16263,7 @@
     </row>
     <row r="55" spans="1:7" ht="17.25" thickBot="1">
       <c r="A55" s="22"/>
-      <c r="B55" s="29"/>
+      <c r="B55" s="26"/>
       <c r="C55" t="s">
         <v>144</v>
       </c>
@@ -10126,7 +16276,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="22"/>
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="24" t="s">
         <v>145</v>
       </c>
       <c r="C56" t="s">
@@ -10141,7 +16291,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="22"/>
-      <c r="B57" s="28"/>
+      <c r="B57" s="25"/>
       <c r="C57" t="s">
         <v>147</v>
       </c>
@@ -10154,7 +16304,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="22"/>
-      <c r="B58" s="28"/>
+      <c r="B58" s="25"/>
       <c r="C58" t="s">
         <v>148</v>
       </c>
@@ -10167,7 +16317,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="22"/>
-      <c r="B59" s="28"/>
+      <c r="B59" s="25"/>
       <c r="C59" t="s">
         <v>149</v>
       </c>
@@ -10180,7 +16330,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="22"/>
-      <c r="B60" s="28"/>
+      <c r="B60" s="25"/>
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -10193,7 +16343,7 @@
     </row>
     <row r="61" spans="1:7" ht="17.25" thickBot="1">
       <c r="A61" s="22"/>
-      <c r="B61" s="29"/>
+      <c r="B61" s="26"/>
       <c r="C61" t="s">
         <v>151</v>
       </c>
@@ -10206,7 +16356,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="22"/>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="24" t="s">
         <v>152</v>
       </c>
       <c r="C62" t="s">
@@ -10221,7 +16371,7 @@
     </row>
     <row r="63" spans="1:7" ht="17.25" thickBot="1">
       <c r="A63" s="22"/>
-      <c r="B63" s="29"/>
+      <c r="B63" s="26"/>
       <c r="C63" t="s">
         <v>138</v>
       </c>
@@ -10234,10 +16384,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="22"/>
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C64" s="27" t="s">
         <v>155</v>
       </c>
       <c r="D64" t="s">
@@ -10249,8 +16399,8 @@
     </row>
     <row r="65" spans="1:7" ht="17.25" thickBot="1">
       <c r="A65" s="22"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="31"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="29"/>
       <c r="D65" t="s">
         <v>156</v>
       </c>
@@ -10260,7 +16410,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="22"/>
-      <c r="B66" s="28"/>
+      <c r="B66" s="25"/>
       <c r="C66" t="s">
         <v>157</v>
       </c>
@@ -10270,7 +16420,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="22"/>
-      <c r="B67" s="28"/>
+      <c r="B67" s="25"/>
       <c r="C67" t="s">
         <v>158</v>
       </c>
@@ -10280,7 +16430,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="22"/>
-      <c r="B68" s="28"/>
+      <c r="B68" s="25"/>
       <c r="C68" t="s">
         <v>159</v>
       </c>
@@ -10290,7 +16440,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="22"/>
-      <c r="B69" s="28"/>
+      <c r="B69" s="25"/>
       <c r="C69" t="s">
         <v>138</v>
       </c>
@@ -10300,7 +16450,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="22"/>
-      <c r="B70" s="28"/>
+      <c r="B70" s="25"/>
       <c r="C70" t="s">
         <v>160</v>
       </c>
@@ -10310,7 +16460,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="22"/>
-      <c r="B71" s="28"/>
+      <c r="B71" s="25"/>
       <c r="C71" t="s">
         <v>161</v>
       </c>
@@ -10320,7 +16470,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="22"/>
-      <c r="B72" s="28"/>
+      <c r="B72" s="25"/>
       <c r="C72" t="s">
         <v>162</v>
       </c>
@@ -10330,7 +16480,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="22"/>
-      <c r="B73" s="28"/>
+      <c r="B73" s="25"/>
       <c r="C73" t="s">
         <v>84</v>
       </c>
@@ -10340,7 +16490,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="22"/>
-      <c r="B74" s="28"/>
+      <c r="B74" s="25"/>
       <c r="C74" t="s">
         <v>163</v>
       </c>
@@ -10350,7 +16500,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="22"/>
-      <c r="B75" s="28"/>
+      <c r="B75" s="25"/>
       <c r="C75" t="s">
         <v>164</v>
       </c>
@@ -10360,7 +16510,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="22"/>
-      <c r="B76" s="28"/>
+      <c r="B76" s="25"/>
       <c r="C76" t="s">
         <v>165</v>
       </c>
@@ -10370,7 +16520,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="22"/>
-      <c r="B77" s="28"/>
+      <c r="B77" s="25"/>
       <c r="C77" t="s">
         <v>166</v>
       </c>
@@ -10380,7 +16530,7 @@
     </row>
     <row r="78" spans="1:7" ht="17.25" thickBot="1">
       <c r="A78" s="22"/>
-      <c r="B78" s="29"/>
+      <c r="B78" s="26"/>
       <c r="C78" t="s">
         <v>167</v>
       </c>
@@ -10390,7 +16540,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="22"/>
-      <c r="B79" s="27" t="s">
+      <c r="B79" s="24" t="s">
         <v>168</v>
       </c>
       <c r="C79" t="s">
@@ -10405,7 +16555,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="22"/>
-      <c r="B80" s="28"/>
+      <c r="B80" s="25"/>
       <c r="C80" t="s">
         <v>169</v>
       </c>
@@ -10418,7 +16568,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="22"/>
-      <c r="B81" s="28"/>
+      <c r="B81" s="25"/>
       <c r="C81" t="s">
         <v>170</v>
       </c>
@@ -10431,7 +16581,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="22"/>
-      <c r="B82" s="28"/>
+      <c r="B82" s="25"/>
       <c r="C82" t="s">
         <v>171</v>
       </c>
@@ -10444,7 +16594,7 @@
     </row>
     <row r="83" spans="1:7" ht="17.25" thickBot="1">
       <c r="A83" s="22"/>
-      <c r="B83" s="29"/>
+      <c r="B83" s="26"/>
       <c r="C83" t="s">
         <v>172</v>
       </c>
@@ -10457,7 +16607,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="22"/>
-      <c r="B84" s="27" t="s">
+      <c r="B84" s="24" t="s">
         <v>173</v>
       </c>
       <c r="C84" t="s">
@@ -10472,7 +16622,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="22"/>
-      <c r="B85" s="28"/>
+      <c r="B85" s="25"/>
       <c r="C85" t="s">
         <v>144</v>
       </c>
@@ -10485,7 +16635,7 @@
     </row>
     <row r="86" spans="1:7" ht="17.25" thickBot="1">
       <c r="A86" s="22"/>
-      <c r="B86" s="29"/>
+      <c r="B86" s="26"/>
       <c r="C86" t="s">
         <v>172</v>
       </c>
@@ -10495,7 +16645,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="22"/>
-      <c r="B87" s="27" t="s">
+      <c r="B87" s="24" t="s">
         <v>123</v>
       </c>
       <c r="C87" t="s">
@@ -10510,7 +16660,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="22"/>
-      <c r="B88" s="28"/>
+      <c r="B88" s="25"/>
       <c r="C88" t="s">
         <v>138</v>
       </c>
@@ -10523,7 +16673,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="22"/>
-      <c r="B89" s="28"/>
+      <c r="B89" s="25"/>
       <c r="C89" t="s">
         <v>161</v>
       </c>
@@ -10536,7 +16686,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="22"/>
-      <c r="B90" s="28"/>
+      <c r="B90" s="25"/>
       <c r="C90" t="s">
         <v>84</v>
       </c>
@@ -10549,7 +16699,7 @@
     </row>
     <row r="91" spans="1:7" ht="17.25" thickBot="1">
       <c r="A91" s="22"/>
-      <c r="B91" s="29"/>
+      <c r="B91" s="26"/>
       <c r="C91" t="s">
         <v>172</v>
       </c>
@@ -10562,7 +16712,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="22"/>
-      <c r="B92" s="27" t="s">
+      <c r="B92" s="24" t="s">
         <v>175</v>
       </c>
       <c r="C92" t="s">
@@ -10577,7 +16727,7 @@
     </row>
     <row r="93" spans="1:7" ht="17.25" thickBot="1">
       <c r="A93" s="22"/>
-      <c r="B93" s="29"/>
+      <c r="B93" s="26"/>
       <c r="C93" t="s">
         <v>138</v>
       </c>
@@ -10590,7 +16740,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="22"/>
-      <c r="B94" s="27" t="s">
+      <c r="B94" s="24" t="s">
         <v>177</v>
       </c>
       <c r="C94" t="s">
@@ -10605,7 +16755,7 @@
     </row>
     <row r="95" spans="1:7" ht="17.25" thickBot="1">
       <c r="A95" s="22"/>
-      <c r="B95" s="29"/>
+      <c r="B95" s="26"/>
       <c r="C95" t="s">
         <v>84</v>
       </c>
@@ -10618,10 +16768,10 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="22"/>
-      <c r="B96" s="27" t="s">
+      <c r="B96" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="C96" s="30" t="s">
+      <c r="C96" s="27" t="s">
         <v>141</v>
       </c>
       <c r="D96" t="s">
@@ -10636,8 +16786,8 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="22"/>
-      <c r="B97" s="28"/>
-      <c r="C97" s="32"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="28"/>
       <c r="D97" t="s">
         <v>178</v>
       </c>
@@ -10650,8 +16800,8 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="22"/>
-      <c r="B98" s="28"/>
-      <c r="C98" s="32"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="28"/>
       <c r="D98" t="s">
         <v>179</v>
       </c>
@@ -10664,8 +16814,8 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="22"/>
-      <c r="B99" s="28"/>
-      <c r="C99" s="32"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="28"/>
       <c r="D99" t="s">
         <v>180</v>
       </c>
@@ -10678,8 +16828,8 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="22"/>
-      <c r="B100" s="28"/>
-      <c r="C100" s="32"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="28"/>
       <c r="D100" t="s">
         <v>181</v>
       </c>
@@ -10692,8 +16842,8 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="22"/>
-      <c r="B101" s="28"/>
-      <c r="C101" s="32"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="28"/>
       <c r="D101" t="s">
         <v>182</v>
       </c>
@@ -10706,8 +16856,8 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="22"/>
-      <c r="B102" s="28"/>
-      <c r="C102" s="32"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="28"/>
       <c r="D102" t="s">
         <v>183</v>
       </c>
@@ -10720,8 +16870,8 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="22"/>
-      <c r="B103" s="28"/>
-      <c r="C103" s="32"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="28"/>
       <c r="D103" t="s">
         <v>184</v>
       </c>
@@ -10734,8 +16884,8 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="22"/>
-      <c r="B104" s="28"/>
-      <c r="C104" s="32"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="28"/>
       <c r="D104" t="s">
         <v>185</v>
       </c>
@@ -10748,8 +16898,8 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="22"/>
-      <c r="B105" s="28"/>
-      <c r="C105" s="32"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="28"/>
       <c r="D105" t="s">
         <v>186</v>
       </c>
@@ -10762,8 +16912,8 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="22"/>
-      <c r="B106" s="28"/>
-      <c r="C106" s="32"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="28"/>
       <c r="D106" t="s">
         <v>187</v>
       </c>
@@ -10776,8 +16926,8 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="22"/>
-      <c r="B107" s="28"/>
-      <c r="C107" s="32"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="28"/>
       <c r="D107" t="s">
         <v>188</v>
       </c>
@@ -10790,8 +16940,8 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="22"/>
-      <c r="B108" s="28"/>
-      <c r="C108" s="32"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="28"/>
       <c r="D108" t="s">
         <v>189</v>
       </c>
@@ -10804,8 +16954,8 @@
     </row>
     <row r="109" spans="1:7" ht="17.25" thickBot="1">
       <c r="A109" s="22"/>
-      <c r="B109" s="28"/>
-      <c r="C109" s="31"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="29"/>
       <c r="D109" t="s">
         <v>190</v>
       </c>
@@ -10818,7 +16968,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="22"/>
-      <c r="B110" s="28"/>
+      <c r="B110" s="25"/>
       <c r="C110" t="s">
         <v>138</v>
       </c>
@@ -10831,7 +16981,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="22"/>
-      <c r="B111" s="28"/>
+      <c r="B111" s="25"/>
       <c r="C111" t="s">
         <v>161</v>
       </c>
@@ -10844,7 +16994,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="22"/>
-      <c r="B112" s="28"/>
+      <c r="B112" s="25"/>
       <c r="C112" t="s">
         <v>191</v>
       </c>
@@ -10857,7 +17007,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="22"/>
-      <c r="B113" s="28"/>
+      <c r="B113" s="25"/>
       <c r="C113" t="s">
         <v>143</v>
       </c>
@@ -10870,7 +17020,7 @@
     </row>
     <row r="114" spans="1:7" ht="17.25" thickBot="1">
       <c r="A114" s="22"/>
-      <c r="B114" s="29"/>
+      <c r="B114" s="26"/>
       <c r="C114" t="s">
         <v>192</v>
       </c>
@@ -11734,10 +17884,10 @@
       <c r="A191" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="B191" s="27" t="s">
+      <c r="B191" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="C191" s="30" t="s">
+      <c r="C191" s="27" t="s">
         <v>232</v>
       </c>
       <c r="D191" t="s">
@@ -11749,8 +17899,8 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="22"/>
-      <c r="B192" s="28"/>
-      <c r="C192" s="32"/>
+      <c r="B192" s="25"/>
+      <c r="C192" s="28"/>
       <c r="D192" t="s">
         <v>234</v>
       </c>
@@ -11760,8 +17910,8 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="22"/>
-      <c r="B193" s="28"/>
-      <c r="C193" s="32"/>
+      <c r="B193" s="25"/>
+      <c r="C193" s="28"/>
       <c r="D193" t="s">
         <v>235</v>
       </c>
@@ -11771,8 +17921,8 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="22"/>
-      <c r="B194" s="28"/>
-      <c r="C194" s="32"/>
+      <c r="B194" s="25"/>
+      <c r="C194" s="28"/>
       <c r="D194" t="s">
         <v>236</v>
       </c>
@@ -11782,8 +17932,8 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="22"/>
-      <c r="B195" s="28"/>
-      <c r="C195" s="32"/>
+      <c r="B195" s="25"/>
+      <c r="C195" s="28"/>
       <c r="D195" t="s">
         <v>237</v>
       </c>
@@ -11793,8 +17943,8 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="22"/>
-      <c r="B196" s="28"/>
-      <c r="C196" s="32"/>
+      <c r="B196" s="25"/>
+      <c r="C196" s="28"/>
       <c r="D196" t="s">
         <v>238</v>
       </c>
@@ -11804,8 +17954,8 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="22"/>
-      <c r="B197" s="28"/>
-      <c r="C197" s="32"/>
+      <c r="B197" s="25"/>
+      <c r="C197" s="28"/>
       <c r="D197" t="s">
         <v>221</v>
       </c>
@@ -11815,8 +17965,8 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="22"/>
-      <c r="B198" s="28"/>
-      <c r="C198" s="32"/>
+      <c r="B198" s="25"/>
+      <c r="C198" s="28"/>
       <c r="D198" t="s">
         <v>239</v>
       </c>
@@ -11826,8 +17976,8 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="22"/>
-      <c r="B199" s="28"/>
-      <c r="C199" s="32"/>
+      <c r="B199" s="25"/>
+      <c r="C199" s="28"/>
       <c r="D199" t="s">
         <v>240</v>
       </c>
@@ -11837,8 +17987,8 @@
     </row>
     <row r="200" spans="1:8" ht="17.25" thickBot="1">
       <c r="A200" s="22"/>
-      <c r="B200" s="28"/>
-      <c r="C200" s="31"/>
+      <c r="B200" s="25"/>
+      <c r="C200" s="29"/>
       <c r="D200" t="s">
         <v>241</v>
       </c>
@@ -11848,7 +17998,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="22"/>
-      <c r="B201" s="28"/>
+      <c r="B201" s="25"/>
       <c r="C201" t="s">
         <v>242</v>
       </c>
@@ -11858,7 +18008,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="22"/>
-      <c r="B202" s="28"/>
+      <c r="B202" s="25"/>
       <c r="C202" t="s">
         <v>84</v>
       </c>
@@ -11868,7 +18018,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="22"/>
-      <c r="B203" s="28"/>
+      <c r="B203" s="25"/>
       <c r="C203" t="s">
         <v>243</v>
       </c>
@@ -11878,7 +18028,7 @@
     </row>
     <row r="204" spans="1:8" ht="17.25" thickBot="1">
       <c r="A204" s="22"/>
-      <c r="B204" s="29"/>
+      <c r="B204" s="26"/>
       <c r="C204" t="s">
         <v>244</v>
       </c>
@@ -11888,10 +18038,10 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="22"/>
-      <c r="B205" s="27" t="s">
+      <c r="B205" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="C205" s="30" t="s">
+      <c r="C205" s="27" t="s">
         <v>218</v>
       </c>
       <c r="D205" t="s">
@@ -11906,8 +18056,8 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="22"/>
-      <c r="B206" s="28"/>
-      <c r="C206" s="32"/>
+      <c r="B206" s="25"/>
+      <c r="C206" s="28"/>
       <c r="D206" t="s">
         <v>246</v>
       </c>
@@ -11920,8 +18070,8 @@
     </row>
     <row r="207" spans="1:8" ht="17.25" thickBot="1">
       <c r="A207" s="22"/>
-      <c r="B207" s="28"/>
-      <c r="C207" s="31"/>
+      <c r="B207" s="25"/>
+      <c r="C207" s="29"/>
       <c r="D207" t="s">
         <v>221</v>
       </c>
@@ -11934,7 +18084,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="22"/>
-      <c r="B208" s="28"/>
+      <c r="B208" s="25"/>
       <c r="C208" t="s">
         <v>206</v>
       </c>
@@ -11950,7 +18100,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="22"/>
-      <c r="B209" s="28"/>
+      <c r="B209" s="25"/>
       <c r="C209" t="s">
         <v>224</v>
       </c>
@@ -11966,7 +18116,7 @@
     </row>
     <row r="210" spans="1:8" ht="17.25" thickBot="1">
       <c r="A210" s="22"/>
-      <c r="B210" s="29"/>
+      <c r="B210" s="26"/>
       <c r="C210" t="s">
         <v>228</v>
       </c>
@@ -12240,17 +18390,19 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A226:A228"/>
-    <mergeCell ref="A128:A190"/>
-    <mergeCell ref="A191:A225"/>
-    <mergeCell ref="B191:B204"/>
-    <mergeCell ref="B205:B210"/>
-    <mergeCell ref="C191:C200"/>
-    <mergeCell ref="C205:C207"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B114"/>
+    <mergeCell ref="A1:A46"/>
+    <mergeCell ref="B1:B9"/>
+    <mergeCell ref="B10:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A47:A127"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B78"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B84:B86"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="C96:C109"/>
@@ -12260,19 +18412,17 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A47:A127"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B78"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="A1:A46"/>
-    <mergeCell ref="B1:B9"/>
-    <mergeCell ref="B10:B23"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C191:C200"/>
+    <mergeCell ref="C205:C207"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B114"/>
+    <mergeCell ref="A226:A228"/>
+    <mergeCell ref="A128:A190"/>
+    <mergeCell ref="A191:A225"/>
+    <mergeCell ref="B191:B204"/>
+    <mergeCell ref="B205:B210"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/開發文件.xlsx
+++ b/docs/開發文件.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\YDWE1.25.10\Creation\Mod\The_Tilted_Clock_Tower\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CFCC3F-9A34-4101-878C-FD4CC456C910}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2E705C-16EF-4F63-B5CA-F5A32C2F3409}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
   </bookViews>
   <sheets>
     <sheet name="項目" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="頭腦風暴" sheetId="6" r:id="rId3"/>
     <sheet name="經過驗證的擴充創意" sheetId="7" r:id="rId4"/>
     <sheet name="效果系統" sheetId="8" r:id="rId5"/>
-    <sheet name="流程" sheetId="5" r:id="rId6"/>
-    <sheet name="重構紀錄" sheetId="2" r:id="rId7"/>
+    <sheet name="效果系統架構" sheetId="9" r:id="rId6"/>
+    <sheet name="流程" sheetId="5" r:id="rId7"/>
+    <sheet name="重構紀錄" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -1672,6 +1673,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1684,10 +1694,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1697,15 +1707,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -14255,6 +14256,666 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5FE84A1-F5B3-42A4-9081-7B0BF8876341}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2314576" y="1038225"/>
+          <a:ext cx="676274" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>模板</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D699B9-5391-4F7E-908E-48A532C954A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733801" y="762000"/>
+          <a:ext cx="1504950" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>effect</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>內容</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t> 可被外部修改部分數值</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t> 可套用模板</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF9762AE-2E74-45E3-AF25-22F648F92B45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5838826" y="762000"/>
+          <a:ext cx="1504950" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>生成器</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t> 把內容轉成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>lua</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>實例</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t> 加入演算法</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B65021B1-C5BC-4399-9C7B-35DDAD83B7F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7962901" y="762000"/>
+          <a:ext cx="1504950" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>控制器</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t> 操作生成器</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t> 根據</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Adapter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>創建生成器</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>204788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>204788</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線單箭頭接點 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{508FAD5B-3FA2-4834-BE57-3C0789D0F0E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2990850" y="1252538"/>
+          <a:ext cx="742951" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>204788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>204788</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線單箭頭接點 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF244623-F5F8-418C-916F-E4CBDA0B67B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5238751" y="1252538"/>
+          <a:ext cx="600075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>204788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>204788</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線單箭頭接點 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F936531-43BC-49A8-B9F1-099817013B1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7343776" y="1252538"/>
+          <a:ext cx="619125" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矩形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA2A22A4-C7D6-412E-8813-2388ED8B2BF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10001251" y="771525"/>
+          <a:ext cx="1504950" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>適配器</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t> 修改接口名稱</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t> 加入特殊函數</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>204788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線單箭頭接點 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED0EE05-B0E3-4B55-885D-72B747BEE3F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9467851" y="1252538"/>
+          <a:ext cx="533400" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
@@ -15597,7 +16258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31534E49-32C8-426A-8FA9-DD7F342C6180}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="Q54" sqref="Q54"/>
     </sheetView>
   </sheetViews>
@@ -15610,6 +16271,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B581C4C-E1F5-42B5-B96F-ECBF37D9D780}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336849DF-D3F4-435E-87DA-A99B863A554D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -15624,7 +16301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29018229-9EAF-4726-88C6-5A87070EDF6C}">
   <dimension ref="A1:H229"/>
   <sheetViews>
@@ -15646,7 +16323,7 @@
       <c r="A1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="24" t="s">
         <v>83</v>
       </c>
       <c r="C1" t="s">
@@ -15661,7 +16338,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="22"/>
-      <c r="B2" s="34"/>
+      <c r="B2" s="25"/>
       <c r="C2" t="s">
         <v>85</v>
       </c>
@@ -15671,7 +16348,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="22"/>
-      <c r="B3" s="34"/>
+      <c r="B3" s="25"/>
       <c r="C3" t="s">
         <v>86</v>
       </c>
@@ -15681,7 +16358,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="22"/>
-      <c r="B4" s="34"/>
+      <c r="B4" s="25"/>
       <c r="C4" t="s">
         <v>87</v>
       </c>
@@ -15691,7 +16368,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="22"/>
-      <c r="B5" s="34"/>
+      <c r="B5" s="25"/>
       <c r="C5" t="s">
         <v>88</v>
       </c>
@@ -15701,7 +16378,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="22"/>
-      <c r="B6" s="34"/>
+      <c r="B6" s="25"/>
       <c r="C6" t="s">
         <v>89</v>
       </c>
@@ -15711,7 +16388,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="22"/>
-      <c r="B7" s="34"/>
+      <c r="B7" s="25"/>
       <c r="C7" t="s">
         <v>90</v>
       </c>
@@ -15721,7 +16398,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="22"/>
-      <c r="B8" s="34"/>
+      <c r="B8" s="25"/>
       <c r="C8" t="s">
         <v>91</v>
       </c>
@@ -15731,7 +16408,7 @@
     </row>
     <row r="9" spans="1:8" ht="17.25" thickBot="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="35"/>
+      <c r="B9" s="26"/>
       <c r="C9" t="s">
         <v>92</v>
       </c>
@@ -15741,13 +16418,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="22"/>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="33" t="s">
         <v>95</v>
       </c>
       <c r="E10" t="s">
@@ -15759,9 +16436,9 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="22"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="34"/>
       <c r="E11" t="s">
         <v>97</v>
       </c>
@@ -15771,9 +16448,9 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="22"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="31"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="34"/>
       <c r="E12" t="s">
         <v>98</v>
       </c>
@@ -15783,9 +16460,9 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="22"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="34"/>
       <c r="E13" t="s">
         <v>99</v>
       </c>
@@ -15795,9 +16472,9 @@
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="32"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="35"/>
       <c r="E14" t="s">
         <v>100</v>
       </c>
@@ -15807,9 +16484,9 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="22"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="30" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33" t="s">
         <v>101</v>
       </c>
       <c r="E15" t="s">
@@ -15821,9 +16498,9 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="22"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="31"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="34"/>
       <c r="E16" t="s">
         <v>103</v>
       </c>
@@ -15833,9 +16510,9 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="22"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="31"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="34"/>
       <c r="E17" t="s">
         <v>104</v>
       </c>
@@ -15845,9 +16522,9 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="22"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="31"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="34"/>
       <c r="E18" t="s">
         <v>105</v>
       </c>
@@ -15857,9 +16534,9 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="31"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="34"/>
       <c r="E19" t="s">
         <v>106</v>
       </c>
@@ -15869,9 +16546,9 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="22"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="31"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="34"/>
       <c r="E20" t="s">
         <v>107</v>
       </c>
@@ -15881,9 +16558,9 @@
     </row>
     <row r="21" spans="1:6" ht="17.25" thickBot="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="32"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="35"/>
       <c r="E21" t="s">
         <v>108</v>
       </c>
@@ -15893,7 +16570,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="22"/>
-      <c r="B22" s="34"/>
+      <c r="B22" s="25"/>
       <c r="C22" t="s">
         <v>109</v>
       </c>
@@ -15903,7 +16580,7 @@
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="35"/>
+      <c r="B23" s="26"/>
       <c r="C23" t="s">
         <v>84</v>
       </c>
@@ -15913,7 +16590,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="22"/>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="27" t="s">
         <v>110</v>
       </c>
       <c r="C24" t="s">
@@ -15925,7 +16602,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="22"/>
-      <c r="B25" s="25"/>
+      <c r="B25" s="28"/>
       <c r="C25" t="s">
         <v>111</v>
       </c>
@@ -15935,7 +16612,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="22"/>
-      <c r="B26" s="25"/>
+      <c r="B26" s="28"/>
       <c r="C26" t="s">
         <v>112</v>
       </c>
@@ -15945,7 +16622,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="22"/>
-      <c r="B27" s="25"/>
+      <c r="B27" s="28"/>
       <c r="C27" t="s">
         <v>113</v>
       </c>
@@ -15955,7 +16632,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="22"/>
-      <c r="B28" s="25"/>
+      <c r="B28" s="28"/>
       <c r="C28" t="s">
         <v>114</v>
       </c>
@@ -15965,7 +16642,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="22"/>
-      <c r="B29" s="25"/>
+      <c r="B29" s="28"/>
       <c r="C29" t="s">
         <v>115</v>
       </c>
@@ -15975,7 +16652,7 @@
     </row>
     <row r="30" spans="1:6" ht="17.25" thickBot="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="26"/>
+      <c r="B30" s="29"/>
       <c r="C30" t="s">
         <v>116</v>
       </c>
@@ -15985,10 +16662,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="22"/>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="30" t="s">
         <v>118</v>
       </c>
       <c r="D31" t="s">
@@ -16000,8 +16677,8 @@
     </row>
     <row r="32" spans="1:6" ht="17.25" thickBot="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="29"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="31"/>
       <c r="D32" t="s">
         <v>120</v>
       </c>
@@ -16011,8 +16688,8 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="22"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="27" t="s">
+      <c r="B33" s="28"/>
+      <c r="C33" s="30" t="s">
         <v>121</v>
       </c>
       <c r="D33" t="s">
@@ -16024,8 +16701,8 @@
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1">
       <c r="A34" s="22"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="29"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="31"/>
       <c r="D34" t="s">
         <v>123</v>
       </c>
@@ -16035,8 +16712,8 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="22"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="27" t="s">
+      <c r="B35" s="28"/>
+      <c r="C35" s="30" t="s">
         <v>124</v>
       </c>
       <c r="D35" t="s">
@@ -16048,8 +16725,8 @@
     </row>
     <row r="36" spans="1:7" ht="17.25" thickBot="1">
       <c r="A36" s="22"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="31"/>
       <c r="D36" t="s">
         <v>123</v>
       </c>
@@ -16151,7 +16828,7 @@
       <c r="A47" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="27" t="s">
         <v>136</v>
       </c>
       <c r="C47" t="s">
@@ -16166,7 +16843,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="22"/>
-      <c r="B48" s="25"/>
+      <c r="B48" s="28"/>
       <c r="C48" t="s">
         <v>138</v>
       </c>
@@ -16179,7 +16856,7 @@
     </row>
     <row r="49" spans="1:7" ht="17.25" thickBot="1">
       <c r="A49" s="22"/>
-      <c r="B49" s="26"/>
+      <c r="B49" s="29"/>
       <c r="C49" t="s">
         <v>139</v>
       </c>
@@ -16192,10 +16869,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="22"/>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="30" t="s">
         <v>141</v>
       </c>
       <c r="D50" t="s">
@@ -16210,8 +16887,8 @@
     </row>
     <row r="51" spans="1:7" ht="17.25" thickBot="1">
       <c r="A51" s="22"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="29"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="31"/>
       <c r="D51" t="s">
         <v>142</v>
       </c>
@@ -16224,7 +16901,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="22"/>
-      <c r="B52" s="25"/>
+      <c r="B52" s="28"/>
       <c r="C52" t="s">
         <v>138</v>
       </c>
@@ -16237,7 +16914,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="22"/>
-      <c r="B53" s="25"/>
+      <c r="B53" s="28"/>
       <c r="C53" t="s">
         <v>84</v>
       </c>
@@ -16250,7 +16927,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="22"/>
-      <c r="B54" s="25"/>
+      <c r="B54" s="28"/>
       <c r="C54" t="s">
         <v>143</v>
       </c>
@@ -16263,7 +16940,7 @@
     </row>
     <row r="55" spans="1:7" ht="17.25" thickBot="1">
       <c r="A55" s="22"/>
-      <c r="B55" s="26"/>
+      <c r="B55" s="29"/>
       <c r="C55" t="s">
         <v>144</v>
       </c>
@@ -16276,7 +16953,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="22"/>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="27" t="s">
         <v>145</v>
       </c>
       <c r="C56" t="s">
@@ -16291,7 +16968,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="22"/>
-      <c r="B57" s="25"/>
+      <c r="B57" s="28"/>
       <c r="C57" t="s">
         <v>147</v>
       </c>
@@ -16304,7 +16981,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="22"/>
-      <c r="B58" s="25"/>
+      <c r="B58" s="28"/>
       <c r="C58" t="s">
         <v>148</v>
       </c>
@@ -16317,7 +16994,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="22"/>
-      <c r="B59" s="25"/>
+      <c r="B59" s="28"/>
       <c r="C59" t="s">
         <v>149</v>
       </c>
@@ -16330,7 +17007,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="22"/>
-      <c r="B60" s="25"/>
+      <c r="B60" s="28"/>
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -16343,7 +17020,7 @@
     </row>
     <row r="61" spans="1:7" ht="17.25" thickBot="1">
       <c r="A61" s="22"/>
-      <c r="B61" s="26"/>
+      <c r="B61" s="29"/>
       <c r="C61" t="s">
         <v>151</v>
       </c>
@@ -16356,7 +17033,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="22"/>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="27" t="s">
         <v>152</v>
       </c>
       <c r="C62" t="s">
@@ -16371,7 +17048,7 @@
     </row>
     <row r="63" spans="1:7" ht="17.25" thickBot="1">
       <c r="A63" s="22"/>
-      <c r="B63" s="26"/>
+      <c r="B63" s="29"/>
       <c r="C63" t="s">
         <v>138</v>
       </c>
@@ -16384,10 +17061,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="22"/>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="30" t="s">
         <v>155</v>
       </c>
       <c r="D64" t="s">
@@ -16399,8 +17076,8 @@
     </row>
     <row r="65" spans="1:7" ht="17.25" thickBot="1">
       <c r="A65" s="22"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="29"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="31"/>
       <c r="D65" t="s">
         <v>156</v>
       </c>
@@ -16410,7 +17087,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="22"/>
-      <c r="B66" s="25"/>
+      <c r="B66" s="28"/>
       <c r="C66" t="s">
         <v>157</v>
       </c>
@@ -16420,7 +17097,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="22"/>
-      <c r="B67" s="25"/>
+      <c r="B67" s="28"/>
       <c r="C67" t="s">
         <v>158</v>
       </c>
@@ -16430,7 +17107,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="22"/>
-      <c r="B68" s="25"/>
+      <c r="B68" s="28"/>
       <c r="C68" t="s">
         <v>159</v>
       </c>
@@ -16440,7 +17117,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="22"/>
-      <c r="B69" s="25"/>
+      <c r="B69" s="28"/>
       <c r="C69" t="s">
         <v>138</v>
       </c>
@@ -16450,7 +17127,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="22"/>
-      <c r="B70" s="25"/>
+      <c r="B70" s="28"/>
       <c r="C70" t="s">
         <v>160</v>
       </c>
@@ -16460,7 +17137,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="22"/>
-      <c r="B71" s="25"/>
+      <c r="B71" s="28"/>
       <c r="C71" t="s">
         <v>161</v>
       </c>
@@ -16470,7 +17147,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="22"/>
-      <c r="B72" s="25"/>
+      <c r="B72" s="28"/>
       <c r="C72" t="s">
         <v>162</v>
       </c>
@@ -16480,7 +17157,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="22"/>
-      <c r="B73" s="25"/>
+      <c r="B73" s="28"/>
       <c r="C73" t="s">
         <v>84</v>
       </c>
@@ -16490,7 +17167,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="22"/>
-      <c r="B74" s="25"/>
+      <c r="B74" s="28"/>
       <c r="C74" t="s">
         <v>163</v>
       </c>
@@ -16500,7 +17177,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="22"/>
-      <c r="B75" s="25"/>
+      <c r="B75" s="28"/>
       <c r="C75" t="s">
         <v>164</v>
       </c>
@@ -16510,7 +17187,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="22"/>
-      <c r="B76" s="25"/>
+      <c r="B76" s="28"/>
       <c r="C76" t="s">
         <v>165</v>
       </c>
@@ -16520,7 +17197,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="22"/>
-      <c r="B77" s="25"/>
+      <c r="B77" s="28"/>
       <c r="C77" t="s">
         <v>166</v>
       </c>
@@ -16530,7 +17207,7 @@
     </row>
     <row r="78" spans="1:7" ht="17.25" thickBot="1">
       <c r="A78" s="22"/>
-      <c r="B78" s="26"/>
+      <c r="B78" s="29"/>
       <c r="C78" t="s">
         <v>167</v>
       </c>
@@ -16540,7 +17217,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="22"/>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="27" t="s">
         <v>168</v>
       </c>
       <c r="C79" t="s">
@@ -16555,7 +17232,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="22"/>
-      <c r="B80" s="25"/>
+      <c r="B80" s="28"/>
       <c r="C80" t="s">
         <v>169</v>
       </c>
@@ -16568,7 +17245,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="22"/>
-      <c r="B81" s="25"/>
+      <c r="B81" s="28"/>
       <c r="C81" t="s">
         <v>170</v>
       </c>
@@ -16581,7 +17258,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="22"/>
-      <c r="B82" s="25"/>
+      <c r="B82" s="28"/>
       <c r="C82" t="s">
         <v>171</v>
       </c>
@@ -16594,7 +17271,7 @@
     </row>
     <row r="83" spans="1:7" ht="17.25" thickBot="1">
       <c r="A83" s="22"/>
-      <c r="B83" s="26"/>
+      <c r="B83" s="29"/>
       <c r="C83" t="s">
         <v>172</v>
       </c>
@@ -16607,7 +17284,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="22"/>
-      <c r="B84" s="24" t="s">
+      <c r="B84" s="27" t="s">
         <v>173</v>
       </c>
       <c r="C84" t="s">
@@ -16622,7 +17299,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="22"/>
-      <c r="B85" s="25"/>
+      <c r="B85" s="28"/>
       <c r="C85" t="s">
         <v>144</v>
       </c>
@@ -16635,7 +17312,7 @@
     </row>
     <row r="86" spans="1:7" ht="17.25" thickBot="1">
       <c r="A86" s="22"/>
-      <c r="B86" s="26"/>
+      <c r="B86" s="29"/>
       <c r="C86" t="s">
         <v>172</v>
       </c>
@@ -16645,7 +17322,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="22"/>
-      <c r="B87" s="24" t="s">
+      <c r="B87" s="27" t="s">
         <v>123</v>
       </c>
       <c r="C87" t="s">
@@ -16660,7 +17337,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="22"/>
-      <c r="B88" s="25"/>
+      <c r="B88" s="28"/>
       <c r="C88" t="s">
         <v>138</v>
       </c>
@@ -16673,7 +17350,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="22"/>
-      <c r="B89" s="25"/>
+      <c r="B89" s="28"/>
       <c r="C89" t="s">
         <v>161</v>
       </c>
@@ -16686,7 +17363,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="22"/>
-      <c r="B90" s="25"/>
+      <c r="B90" s="28"/>
       <c r="C90" t="s">
         <v>84</v>
       </c>
@@ -16699,7 +17376,7 @@
     </row>
     <row r="91" spans="1:7" ht="17.25" thickBot="1">
       <c r="A91" s="22"/>
-      <c r="B91" s="26"/>
+      <c r="B91" s="29"/>
       <c r="C91" t="s">
         <v>172</v>
       </c>
@@ -16712,7 +17389,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="22"/>
-      <c r="B92" s="24" t="s">
+      <c r="B92" s="27" t="s">
         <v>175</v>
       </c>
       <c r="C92" t="s">
@@ -16727,7 +17404,7 @@
     </row>
     <row r="93" spans="1:7" ht="17.25" thickBot="1">
       <c r="A93" s="22"/>
-      <c r="B93" s="26"/>
+      <c r="B93" s="29"/>
       <c r="C93" t="s">
         <v>138</v>
       </c>
@@ -16740,7 +17417,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="22"/>
-      <c r="B94" s="24" t="s">
+      <c r="B94" s="27" t="s">
         <v>177</v>
       </c>
       <c r="C94" t="s">
@@ -16755,7 +17432,7 @@
     </row>
     <row r="95" spans="1:7" ht="17.25" thickBot="1">
       <c r="A95" s="22"/>
-      <c r="B95" s="26"/>
+      <c r="B95" s="29"/>
       <c r="C95" t="s">
         <v>84</v>
       </c>
@@ -16768,10 +17445,10 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="22"/>
-      <c r="B96" s="24" t="s">
+      <c r="B96" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C96" s="27" t="s">
+      <c r="C96" s="30" t="s">
         <v>141</v>
       </c>
       <c r="D96" t="s">
@@ -16786,8 +17463,8 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="22"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="28"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="32"/>
       <c r="D97" t="s">
         <v>178</v>
       </c>
@@ -16800,8 +17477,8 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="22"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="28"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="32"/>
       <c r="D98" t="s">
         <v>179</v>
       </c>
@@ -16814,8 +17491,8 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="22"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="28"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="32"/>
       <c r="D99" t="s">
         <v>180</v>
       </c>
@@ -16828,8 +17505,8 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="22"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="28"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="32"/>
       <c r="D100" t="s">
         <v>181</v>
       </c>
@@ -16842,8 +17519,8 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="22"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="28"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="32"/>
       <c r="D101" t="s">
         <v>182</v>
       </c>
@@ -16856,8 +17533,8 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="22"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="28"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="32"/>
       <c r="D102" t="s">
         <v>183</v>
       </c>
@@ -16870,8 +17547,8 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="22"/>
-      <c r="B103" s="25"/>
-      <c r="C103" s="28"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="32"/>
       <c r="D103" t="s">
         <v>184</v>
       </c>
@@ -16884,8 +17561,8 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="22"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="28"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="32"/>
       <c r="D104" t="s">
         <v>185</v>
       </c>
@@ -16898,8 +17575,8 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="22"/>
-      <c r="B105" s="25"/>
-      <c r="C105" s="28"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="32"/>
       <c r="D105" t="s">
         <v>186</v>
       </c>
@@ -16912,8 +17589,8 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="22"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="28"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="32"/>
       <c r="D106" t="s">
         <v>187</v>
       </c>
@@ -16926,8 +17603,8 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="22"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="28"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="32"/>
       <c r="D107" t="s">
         <v>188</v>
       </c>
@@ -16940,8 +17617,8 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="22"/>
-      <c r="B108" s="25"/>
-      <c r="C108" s="28"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="32"/>
       <c r="D108" t="s">
         <v>189</v>
       </c>
@@ -16954,8 +17631,8 @@
     </row>
     <row r="109" spans="1:7" ht="17.25" thickBot="1">
       <c r="A109" s="22"/>
-      <c r="B109" s="25"/>
-      <c r="C109" s="29"/>
+      <c r="B109" s="28"/>
+      <c r="C109" s="31"/>
       <c r="D109" t="s">
         <v>190</v>
       </c>
@@ -16968,7 +17645,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="22"/>
-      <c r="B110" s="25"/>
+      <c r="B110" s="28"/>
       <c r="C110" t="s">
         <v>138</v>
       </c>
@@ -16981,7 +17658,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="22"/>
-      <c r="B111" s="25"/>
+      <c r="B111" s="28"/>
       <c r="C111" t="s">
         <v>161</v>
       </c>
@@ -16994,7 +17671,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="22"/>
-      <c r="B112" s="25"/>
+      <c r="B112" s="28"/>
       <c r="C112" t="s">
         <v>191</v>
       </c>
@@ -17007,7 +17684,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="22"/>
-      <c r="B113" s="25"/>
+      <c r="B113" s="28"/>
       <c r="C113" t="s">
         <v>143</v>
       </c>
@@ -17020,7 +17697,7 @@
     </row>
     <row r="114" spans="1:7" ht="17.25" thickBot="1">
       <c r="A114" s="22"/>
-      <c r="B114" s="26"/>
+      <c r="B114" s="29"/>
       <c r="C114" t="s">
         <v>192</v>
       </c>
@@ -17884,10 +18561,10 @@
       <c r="A191" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="B191" s="24" t="s">
+      <c r="B191" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="C191" s="27" t="s">
+      <c r="C191" s="30" t="s">
         <v>232</v>
       </c>
       <c r="D191" t="s">
@@ -17899,8 +18576,8 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="22"/>
-      <c r="B192" s="25"/>
-      <c r="C192" s="28"/>
+      <c r="B192" s="28"/>
+      <c r="C192" s="32"/>
       <c r="D192" t="s">
         <v>234</v>
       </c>
@@ -17910,8 +18587,8 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="22"/>
-      <c r="B193" s="25"/>
-      <c r="C193" s="28"/>
+      <c r="B193" s="28"/>
+      <c r="C193" s="32"/>
       <c r="D193" t="s">
         <v>235</v>
       </c>
@@ -17921,8 +18598,8 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="22"/>
-      <c r="B194" s="25"/>
-      <c r="C194" s="28"/>
+      <c r="B194" s="28"/>
+      <c r="C194" s="32"/>
       <c r="D194" t="s">
         <v>236</v>
       </c>
@@ -17932,8 +18609,8 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="22"/>
-      <c r="B195" s="25"/>
-      <c r="C195" s="28"/>
+      <c r="B195" s="28"/>
+      <c r="C195" s="32"/>
       <c r="D195" t="s">
         <v>237</v>
       </c>
@@ -17943,8 +18620,8 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="22"/>
-      <c r="B196" s="25"/>
-      <c r="C196" s="28"/>
+      <c r="B196" s="28"/>
+      <c r="C196" s="32"/>
       <c r="D196" t="s">
         <v>238</v>
       </c>
@@ -17954,8 +18631,8 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="22"/>
-      <c r="B197" s="25"/>
-      <c r="C197" s="28"/>
+      <c r="B197" s="28"/>
+      <c r="C197" s="32"/>
       <c r="D197" t="s">
         <v>221</v>
       </c>
@@ -17965,8 +18642,8 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="22"/>
-      <c r="B198" s="25"/>
-      <c r="C198" s="28"/>
+      <c r="B198" s="28"/>
+      <c r="C198" s="32"/>
       <c r="D198" t="s">
         <v>239</v>
       </c>
@@ -17976,8 +18653,8 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="22"/>
-      <c r="B199" s="25"/>
-      <c r="C199" s="28"/>
+      <c r="B199" s="28"/>
+      <c r="C199" s="32"/>
       <c r="D199" t="s">
         <v>240</v>
       </c>
@@ -17987,8 +18664,8 @@
     </row>
     <row r="200" spans="1:8" ht="17.25" thickBot="1">
       <c r="A200" s="22"/>
-      <c r="B200" s="25"/>
-      <c r="C200" s="29"/>
+      <c r="B200" s="28"/>
+      <c r="C200" s="31"/>
       <c r="D200" t="s">
         <v>241</v>
       </c>
@@ -17998,7 +18675,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="22"/>
-      <c r="B201" s="25"/>
+      <c r="B201" s="28"/>
       <c r="C201" t="s">
         <v>242</v>
       </c>
@@ -18008,7 +18685,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="22"/>
-      <c r="B202" s="25"/>
+      <c r="B202" s="28"/>
       <c r="C202" t="s">
         <v>84</v>
       </c>
@@ -18018,7 +18695,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="22"/>
-      <c r="B203" s="25"/>
+      <c r="B203" s="28"/>
       <c r="C203" t="s">
         <v>243</v>
       </c>
@@ -18028,7 +18705,7 @@
     </row>
     <row r="204" spans="1:8" ht="17.25" thickBot="1">
       <c r="A204" s="22"/>
-      <c r="B204" s="26"/>
+      <c r="B204" s="29"/>
       <c r="C204" t="s">
         <v>244</v>
       </c>
@@ -18038,10 +18715,10 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="22"/>
-      <c r="B205" s="24" t="s">
+      <c r="B205" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="C205" s="27" t="s">
+      <c r="C205" s="30" t="s">
         <v>218</v>
       </c>
       <c r="D205" t="s">
@@ -18056,8 +18733,8 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="22"/>
-      <c r="B206" s="25"/>
-      <c r="C206" s="28"/>
+      <c r="B206" s="28"/>
+      <c r="C206" s="32"/>
       <c r="D206" t="s">
         <v>246</v>
       </c>
@@ -18070,8 +18747,8 @@
     </row>
     <row r="207" spans="1:8" ht="17.25" thickBot="1">
       <c r="A207" s="22"/>
-      <c r="B207" s="25"/>
-      <c r="C207" s="29"/>
+      <c r="B207" s="28"/>
+      <c r="C207" s="31"/>
       <c r="D207" t="s">
         <v>221</v>
       </c>
@@ -18084,7 +18761,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="22"/>
-      <c r="B208" s="25"/>
+      <c r="B208" s="28"/>
       <c r="C208" t="s">
         <v>206</v>
       </c>
@@ -18100,7 +18777,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="22"/>
-      <c r="B209" s="25"/>
+      <c r="B209" s="28"/>
       <c r="C209" t="s">
         <v>224</v>
       </c>
@@ -18116,7 +18793,7 @@
     </row>
     <row r="210" spans="1:8" ht="17.25" thickBot="1">
       <c r="A210" s="22"/>
-      <c r="B210" s="26"/>
+      <c r="B210" s="29"/>
       <c r="C210" t="s">
         <v>228</v>
       </c>
@@ -18390,19 +19067,17 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:A46"/>
-    <mergeCell ref="B1:B9"/>
-    <mergeCell ref="B10:B23"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="A47:A127"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B78"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="A226:A228"/>
+    <mergeCell ref="A128:A190"/>
+    <mergeCell ref="A191:A225"/>
+    <mergeCell ref="B191:B204"/>
+    <mergeCell ref="B205:B210"/>
+    <mergeCell ref="C191:C200"/>
+    <mergeCell ref="C205:C207"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B114"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="C96:C109"/>
@@ -18412,17 +19087,19 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C191:C200"/>
-    <mergeCell ref="C205:C207"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B114"/>
-    <mergeCell ref="A226:A228"/>
-    <mergeCell ref="A128:A190"/>
-    <mergeCell ref="A191:A225"/>
-    <mergeCell ref="B191:B204"/>
-    <mergeCell ref="B205:B210"/>
+    <mergeCell ref="A47:A127"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B78"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="A1:A46"/>
+    <mergeCell ref="B1:B9"/>
+    <mergeCell ref="B10:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/開發文件.xlsx
+++ b/docs/開發文件.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\YDWE1.25.10\Creation\Mod\The_Tilted_Clock_Tower\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2E705C-16EF-4F63-B5CA-F5A32C2F3409}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D518151-F736-4B68-9841-D5C9BB136139}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
   </bookViews>
@@ -18,9 +18,8 @@
     <sheet name="頭腦風暴" sheetId="6" r:id="rId3"/>
     <sheet name="經過驗證的擴充創意" sheetId="7" r:id="rId4"/>
     <sheet name="效果系統" sheetId="8" r:id="rId5"/>
-    <sheet name="效果系統架構" sheetId="9" r:id="rId6"/>
-    <sheet name="流程" sheetId="5" r:id="rId7"/>
-    <sheet name="重構紀錄" sheetId="2" r:id="rId8"/>
+    <sheet name="節奏&amp;關卡設計" sheetId="5" r:id="rId6"/>
+    <sheet name="重構紀錄" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="280">
   <si>
     <r>
       <rPr>
@@ -1359,6 +1358,14 @@
   </si>
   <si>
     <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中BOSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1466,7 +1473,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1594,13 +1601,141 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1673,15 +1808,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1694,10 +1820,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1707,6 +1833,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5737,6 +5902,59 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>169545</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>129449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>217125</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>126683</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線接點 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{169A8F42-0D64-44B8-9580-C8C406084808}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="4"/>
+          <a:endCxn id="54" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6341745" y="3272699"/>
+          <a:ext cx="2104980" cy="2511834"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -6138,16 +6356,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>150495</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6162,7 +6380,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16859250" y="4857750"/>
+          <a:off x="4924425" y="4505325"/>
           <a:ext cx="1398270" cy="752475"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7392,16 +7610,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>169545</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7416,7 +7634,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17973675" y="4029075"/>
+          <a:off x="4943475" y="5467350"/>
           <a:ext cx="1398270" cy="634365"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -8120,6 +8338,59 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>150495</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>129449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>217125</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線接點 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DD3BB7B-ADEF-48CE-A4C1-89967F986E72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="4"/>
+          <a:endCxn id="14" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6322695" y="3272699"/>
+          <a:ext cx="2124030" cy="1608864"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14261,22 +14532,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5FE84A1-F5B3-42A4-9081-7B0BF8876341}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF52067A-73E4-4603-84A2-8AD317DC3089}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14284,8 +14555,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2314576" y="1038225"/>
-          <a:ext cx="676274" cy="428625"/>
+          <a:off x="2705100" y="352425"/>
+          <a:ext cx="12734925" cy="1133475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14305,6 +14576,273 @@
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="2400"/>
+            <a:t>神匠</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="zh-TW" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>把屬性當作積木，在一定規則下拼出自己設計好的作品，從而獲得舒服的體驗</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92591972-9BD7-4F0F-B2E1-87D0A0AE2E80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="1485900"/>
+          <a:ext cx="3619500" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="2400"/>
+            <a:t>連點多個物品</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBC05BE3-0E02-497A-9E30-1CDA356F47E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6315075" y="1485900"/>
+          <a:ext cx="4705350" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="2400"/>
+            <a:t>使用鍛造技</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF8790C3-C137-4005-B598-70DCF6FB2FED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11020425" y="1485900"/>
+          <a:ext cx="4419600" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="2400"/>
+            <a:t>鍛造完成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>477525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>204375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2582341-EEDE-48D4-9FCC-DA1AE5E22EC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2752725" y="2466975"/>
+          <a:ext cx="468000" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -14314,7 +14852,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>模板</a:t>
+            <a:t>鍛造</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -14323,23 +14861,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>438151</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>496575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>61500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D699B9-5391-4F7E-908E-48A532C954A5}"/>
+        <xdr:cNvPr id="7" name="矩形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C535B13-F86B-4A45-88AE-1C6E3E45AA3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14347,8 +14885,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3733801" y="762000"/>
-          <a:ext cx="1504950" cy="981075"/>
+          <a:off x="4143375" y="2743200"/>
+          <a:ext cx="468000" cy="252000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14356,18 +14894,158 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>雕紋</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="zh-TW">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>496575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>147225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A237008-08B4-4A77-8C30-AFE86D946E14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5514975" y="3038475"/>
+          <a:ext cx="468000" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>附魔</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="zh-TW">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>506100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>204375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26012AE5-C3CD-4561-980D-A079ECDE7299}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6896100" y="3305175"/>
+          <a:ext cx="468000" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -14376,36 +15054,8 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-            <a:t>effect</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>內容</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t> 可被外部修改部分數值</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t> 可套用模板</a:t>
+            <a:t>共振</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -14414,23 +15064,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>352426</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>487050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>90075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="矩形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF9762AE-2E74-45E3-AF25-22F648F92B45}"/>
+        <xdr:cNvPr id="10" name="矩形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BC85510-8C38-4AEF-8A83-02CF1EF96E6F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14438,8 +15088,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5838826" y="762000"/>
-          <a:ext cx="1504950" cy="981075"/>
+          <a:off x="8248650" y="3609975"/>
+          <a:ext cx="468000" cy="252000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14447,18 +15097,16 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -14468,39 +15116,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>生成器</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t> 把內容轉成</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-            <a:t>lua</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>實例</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t> 加入演算法</a:t>
+            <a:t>超魔</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -14509,130 +15125,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>419101</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>477525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>552451</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="矩形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B65021B1-C5BC-4399-9C7B-35DDAD83B7F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7962901" y="762000"/>
-          <a:ext cx="1504950" cy="981075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>控制器</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t> 操作生成器</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t> 根據</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-            <a:t>Adapter</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>創建生成器</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>204788</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>204788</xdr:rowOff>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>78375</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線單箭頭接點 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{508FAD5B-3FA2-4834-BE57-3C0789D0F0E3}"/>
+        <xdr:cNvPr id="12" name="直線單箭頭接點 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C6F1C67-5B3D-4C19-A8D8-65549BDC6E4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="3" idx="1"/>
+          <a:stCxn id="6" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2990850" y="1252538"/>
-          <a:ext cx="742951" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="3220725" y="2590800"/>
+          <a:ext cx="12181200" cy="2175"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -14660,234 +15180,199 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>438151</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>204788</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>352426</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>204788</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線單箭頭接點 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF244623-F5F8-418C-916F-E4CBDA0B67B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="4" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5238751" y="1252538"/>
-          <a:ext cx="600075" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>204788</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>419101</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>204788</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線單箭頭接點 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F936531-43BC-49A8-B9F1-099817013B1B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="5" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7343776" y="1252538"/>
-          <a:ext cx="619125" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>533401</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="矩形 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA2A22A4-C7D6-412E-8813-2388ED8B2BF6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10001251" y="771525"/>
-          <a:ext cx="1504950" cy="981075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>適配器</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t> 修改接口名稱</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t> 加入特殊函數</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>552451</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>204788</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>496575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>145050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="14" name="直線單箭頭接點 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED0EE05-B0E3-4B55-885D-72B747BEE3F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED6814E6-2548-4F64-AC70-A01DC86CB0FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="3"/>
-          <a:endCxn id="12" idx="1"/>
+          <a:stCxn id="7" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9467851" y="1252538"/>
-          <a:ext cx="533400" cy="9525"/>
+          <a:off x="5773425" y="2869200"/>
+          <a:ext cx="9647550" cy="7350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>496575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>21225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線單箭頭接點 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BAE8431-1526-4387-853D-E2D288514B0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5982975" y="3164475"/>
+          <a:ext cx="3637275" cy="7350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>506100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>78375</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線單箭頭接點 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6BB9CCF-295F-4740-B976-5DD071EC1046}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7364100" y="3429000"/>
+          <a:ext cx="2265675" cy="2175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>487050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>173625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線單箭頭接點 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A39F11F-A890-47BF-AD3D-A4FB6BE3F1CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8716650" y="3733800"/>
+          <a:ext cx="884550" cy="2175"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -16211,7 +16696,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16227,7 +16712,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16242,8 +16727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4C37A9-3500-4D1C-B102-1E629D48F036}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16258,7 +16743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31534E49-32C8-426A-8FA9-DD7F342C6180}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q54" sqref="Q54"/>
     </sheetView>
   </sheetViews>
@@ -16271,15 +16756,214 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B581C4C-E1F5-42B5-B96F-ECBF37D9D780}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336849DF-D3F4-435E-87DA-A99B863A554D}">
+  <dimension ref="D19:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G35" sqref="G34:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="14" width="16.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="19" spans="4:14" ht="17.25" thickBot="1">
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+    </row>
+    <row r="20" spans="4:14" ht="17.25" thickTop="1">
+      <c r="D20" s="38"/>
+      <c r="E20" s="39">
+        <v>1</v>
+      </c>
+      <c r="F20" s="40">
+        <v>2</v>
+      </c>
+      <c r="G20" s="39">
+        <v>3</v>
+      </c>
+      <c r="H20" s="40">
+        <v>4</v>
+      </c>
+      <c r="I20" s="39">
+        <v>5</v>
+      </c>
+      <c r="J20" s="40">
+        <v>6</v>
+      </c>
+      <c r="K20" s="39">
+        <v>7</v>
+      </c>
+      <c r="L20" s="40">
+        <v>8</v>
+      </c>
+      <c r="M20" s="39">
+        <v>9</v>
+      </c>
+      <c r="N20" s="40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14">
+      <c r="D21" s="38"/>
+      <c r="E21" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="I21" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="J21" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="K21" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="L21" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="M21" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="N21" s="37" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14">
+      <c r="D22" s="38"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="37"/>
+    </row>
+    <row r="23" spans="4:14">
+      <c r="D23" s="38"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="37"/>
+    </row>
+    <row r="24" spans="4:14">
+      <c r="D24" s="38"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="37"/>
+    </row>
+    <row r="25" spans="4:14">
+      <c r="D25" s="38"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="37"/>
+    </row>
+    <row r="26" spans="4:14">
+      <c r="D26" s="38"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="37"/>
+    </row>
+    <row r="27" spans="4:14">
+      <c r="D27" s="38"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="37"/>
+    </row>
+    <row r="28" spans="4:14">
+      <c r="D28" s="38"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="37"/>
+    </row>
+    <row r="29" spans="4:14" ht="17.25" thickBot="1">
+      <c r="D29" s="38"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="44"/>
+    </row>
+    <row r="30" spans="4:14" ht="17.25" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="K21:K29"/>
+    <mergeCell ref="L21:L29"/>
+    <mergeCell ref="M21:M29"/>
+    <mergeCell ref="N21:N29"/>
+    <mergeCell ref="E21:E29"/>
+    <mergeCell ref="F21:F29"/>
+    <mergeCell ref="G21:G29"/>
+    <mergeCell ref="H21:H29"/>
+    <mergeCell ref="I21:I29"/>
+    <mergeCell ref="J21:J29"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16287,21 +16971,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336849DF-D3F4-435E-87DA-A99B863A554D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29018229-9EAF-4726-88C6-5A87070EDF6C}">
   <dimension ref="A1:H229"/>
   <sheetViews>
@@ -16323,7 +16992,7 @@
       <c r="A1" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="33" t="s">
         <v>83</v>
       </c>
       <c r="C1" t="s">
@@ -16338,7 +17007,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="22"/>
-      <c r="B2" s="25"/>
+      <c r="B2" s="34"/>
       <c r="C2" t="s">
         <v>85</v>
       </c>
@@ -16348,7 +17017,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="22"/>
-      <c r="B3" s="25"/>
+      <c r="B3" s="34"/>
       <c r="C3" t="s">
         <v>86</v>
       </c>
@@ -16358,7 +17027,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="22"/>
-      <c r="B4" s="25"/>
+      <c r="B4" s="34"/>
       <c r="C4" t="s">
         <v>87</v>
       </c>
@@ -16368,7 +17037,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="22"/>
-      <c r="B5" s="25"/>
+      <c r="B5" s="34"/>
       <c r="C5" t="s">
         <v>88</v>
       </c>
@@ -16378,7 +17047,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="22"/>
-      <c r="B6" s="25"/>
+      <c r="B6" s="34"/>
       <c r="C6" t="s">
         <v>89</v>
       </c>
@@ -16388,7 +17057,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="22"/>
-      <c r="B7" s="25"/>
+      <c r="B7" s="34"/>
       <c r="C7" t="s">
         <v>90</v>
       </c>
@@ -16398,7 +17067,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="22"/>
-      <c r="B8" s="25"/>
+      <c r="B8" s="34"/>
       <c r="C8" t="s">
         <v>91</v>
       </c>
@@ -16408,7 +17077,7 @@
     </row>
     <row r="9" spans="1:8" ht="17.25" thickBot="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="26"/>
+      <c r="B9" s="35"/>
       <c r="C9" t="s">
         <v>92</v>
       </c>
@@ -16418,13 +17087,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="22"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="30" t="s">
         <v>95</v>
       </c>
       <c r="E10" t="s">
@@ -16436,9 +17105,9 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="22"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="31"/>
       <c r="E11" t="s">
         <v>97</v>
       </c>
@@ -16448,9 +17117,9 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="22"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="31"/>
       <c r="E12" t="s">
         <v>98</v>
       </c>
@@ -16460,9 +17129,9 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="22"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="31"/>
       <c r="E13" t="s">
         <v>99</v>
       </c>
@@ -16472,9 +17141,9 @@
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="35"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="32"/>
       <c r="E14" t="s">
         <v>100</v>
       </c>
@@ -16484,9 +17153,9 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="22"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="30" t="s">
         <v>101</v>
       </c>
       <c r="E15" t="s">
@@ -16498,9 +17167,9 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="22"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="31"/>
       <c r="E16" t="s">
         <v>103</v>
       </c>
@@ -16510,9 +17179,9 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="22"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="31"/>
       <c r="E17" t="s">
         <v>104</v>
       </c>
@@ -16522,9 +17191,9 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="22"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="31"/>
       <c r="E18" t="s">
         <v>105</v>
       </c>
@@ -16534,9 +17203,9 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="22"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="31"/>
       <c r="E19" t="s">
         <v>106</v>
       </c>
@@ -16546,9 +17215,9 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="22"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="31"/>
       <c r="E20" t="s">
         <v>107</v>
       </c>
@@ -16558,9 +17227,9 @@
     </row>
     <row r="21" spans="1:6" ht="17.25" thickBot="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="35"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="32"/>
       <c r="E21" t="s">
         <v>108</v>
       </c>
@@ -16570,7 +17239,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="22"/>
-      <c r="B22" s="25"/>
+      <c r="B22" s="34"/>
       <c r="C22" t="s">
         <v>109</v>
       </c>
@@ -16580,7 +17249,7 @@
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="26"/>
+      <c r="B23" s="35"/>
       <c r="C23" t="s">
         <v>84</v>
       </c>
@@ -16590,7 +17259,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="22"/>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="24" t="s">
         <v>110</v>
       </c>
       <c r="C24" t="s">
@@ -16602,7 +17271,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="22"/>
-      <c r="B25" s="28"/>
+      <c r="B25" s="25"/>
       <c r="C25" t="s">
         <v>111</v>
       </c>
@@ -16612,7 +17281,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="22"/>
-      <c r="B26" s="28"/>
+      <c r="B26" s="25"/>
       <c r="C26" t="s">
         <v>112</v>
       </c>
@@ -16622,7 +17291,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="22"/>
-      <c r="B27" s="28"/>
+      <c r="B27" s="25"/>
       <c r="C27" t="s">
         <v>113</v>
       </c>
@@ -16632,7 +17301,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="22"/>
-      <c r="B28" s="28"/>
+      <c r="B28" s="25"/>
       <c r="C28" t="s">
         <v>114</v>
       </c>
@@ -16642,7 +17311,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="22"/>
-      <c r="B29" s="28"/>
+      <c r="B29" s="25"/>
       <c r="C29" t="s">
         <v>115</v>
       </c>
@@ -16652,7 +17321,7 @@
     </row>
     <row r="30" spans="1:6" ht="17.25" thickBot="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="29"/>
+      <c r="B30" s="26"/>
       <c r="C30" t="s">
         <v>116</v>
       </c>
@@ -16662,10 +17331,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="22"/>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="27" t="s">
         <v>118</v>
       </c>
       <c r="D31" t="s">
@@ -16677,8 +17346,8 @@
     </row>
     <row r="32" spans="1:6" ht="17.25" thickBot="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="31"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="29"/>
       <c r="D32" t="s">
         <v>120</v>
       </c>
@@ -16688,8 +17357,8 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="22"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="30" t="s">
+      <c r="B33" s="25"/>
+      <c r="C33" s="27" t="s">
         <v>121</v>
       </c>
       <c r="D33" t="s">
@@ -16701,8 +17370,8 @@
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1">
       <c r="A34" s="22"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="31"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="29"/>
       <c r="D34" t="s">
         <v>123</v>
       </c>
@@ -16712,8 +17381,8 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="22"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="30" t="s">
+      <c r="B35" s="25"/>
+      <c r="C35" s="27" t="s">
         <v>124</v>
       </c>
       <c r="D35" t="s">
@@ -16725,8 +17394,8 @@
     </row>
     <row r="36" spans="1:7" ht="17.25" thickBot="1">
       <c r="A36" s="22"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="31"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="29"/>
       <c r="D36" t="s">
         <v>123</v>
       </c>
@@ -16828,7 +17497,7 @@
       <c r="A47" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="24" t="s">
         <v>136</v>
       </c>
       <c r="C47" t="s">
@@ -16843,7 +17512,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="22"/>
-      <c r="B48" s="28"/>
+      <c r="B48" s="25"/>
       <c r="C48" t="s">
         <v>138</v>
       </c>
@@ -16856,7 +17525,7 @@
     </row>
     <row r="49" spans="1:7" ht="17.25" thickBot="1">
       <c r="A49" s="22"/>
-      <c r="B49" s="29"/>
+      <c r="B49" s="26"/>
       <c r="C49" t="s">
         <v>139</v>
       </c>
@@ -16869,10 +17538,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="22"/>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="27" t="s">
         <v>141</v>
       </c>
       <c r="D50" t="s">
@@ -16887,8 +17556,8 @@
     </row>
     <row r="51" spans="1:7" ht="17.25" thickBot="1">
       <c r="A51" s="22"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="31"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="29"/>
       <c r="D51" t="s">
         <v>142</v>
       </c>
@@ -16901,7 +17570,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="22"/>
-      <c r="B52" s="28"/>
+      <c r="B52" s="25"/>
       <c r="C52" t="s">
         <v>138</v>
       </c>
@@ -16914,7 +17583,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="22"/>
-      <c r="B53" s="28"/>
+      <c r="B53" s="25"/>
       <c r="C53" t="s">
         <v>84</v>
       </c>
@@ -16927,7 +17596,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="22"/>
-      <c r="B54" s="28"/>
+      <c r="B54" s="25"/>
       <c r="C54" t="s">
         <v>143</v>
       </c>
@@ -16940,7 +17609,7 @@
     </row>
     <row r="55" spans="1:7" ht="17.25" thickBot="1">
       <c r="A55" s="22"/>
-      <c r="B55" s="29"/>
+      <c r="B55" s="26"/>
       <c r="C55" t="s">
         <v>144</v>
       </c>
@@ -16953,7 +17622,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="22"/>
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="24" t="s">
         <v>145</v>
       </c>
       <c r="C56" t="s">
@@ -16968,7 +17637,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="22"/>
-      <c r="B57" s="28"/>
+      <c r="B57" s="25"/>
       <c r="C57" t="s">
         <v>147</v>
       </c>
@@ -16981,7 +17650,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="22"/>
-      <c r="B58" s="28"/>
+      <c r="B58" s="25"/>
       <c r="C58" t="s">
         <v>148</v>
       </c>
@@ -16994,7 +17663,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="22"/>
-      <c r="B59" s="28"/>
+      <c r="B59" s="25"/>
       <c r="C59" t="s">
         <v>149</v>
       </c>
@@ -17007,7 +17676,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="22"/>
-      <c r="B60" s="28"/>
+      <c r="B60" s="25"/>
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -17020,7 +17689,7 @@
     </row>
     <row r="61" spans="1:7" ht="17.25" thickBot="1">
       <c r="A61" s="22"/>
-      <c r="B61" s="29"/>
+      <c r="B61" s="26"/>
       <c r="C61" t="s">
         <v>151</v>
       </c>
@@ -17033,7 +17702,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="22"/>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="24" t="s">
         <v>152</v>
       </c>
       <c r="C62" t="s">
@@ -17048,7 +17717,7 @@
     </row>
     <row r="63" spans="1:7" ht="17.25" thickBot="1">
       <c r="A63" s="22"/>
-      <c r="B63" s="29"/>
+      <c r="B63" s="26"/>
       <c r="C63" t="s">
         <v>138</v>
       </c>
@@ -17061,10 +17730,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="22"/>
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C64" s="27" t="s">
         <v>155</v>
       </c>
       <c r="D64" t="s">
@@ -17076,8 +17745,8 @@
     </row>
     <row r="65" spans="1:7" ht="17.25" thickBot="1">
       <c r="A65" s="22"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="31"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="29"/>
       <c r="D65" t="s">
         <v>156</v>
       </c>
@@ -17087,7 +17756,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="22"/>
-      <c r="B66" s="28"/>
+      <c r="B66" s="25"/>
       <c r="C66" t="s">
         <v>157</v>
       </c>
@@ -17097,7 +17766,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="22"/>
-      <c r="B67" s="28"/>
+      <c r="B67" s="25"/>
       <c r="C67" t="s">
         <v>158</v>
       </c>
@@ -17107,7 +17776,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="22"/>
-      <c r="B68" s="28"/>
+      <c r="B68" s="25"/>
       <c r="C68" t="s">
         <v>159</v>
       </c>
@@ -17117,7 +17786,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="22"/>
-      <c r="B69" s="28"/>
+      <c r="B69" s="25"/>
       <c r="C69" t="s">
         <v>138</v>
       </c>
@@ -17127,7 +17796,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="22"/>
-      <c r="B70" s="28"/>
+      <c r="B70" s="25"/>
       <c r="C70" t="s">
         <v>160</v>
       </c>
@@ -17137,7 +17806,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="22"/>
-      <c r="B71" s="28"/>
+      <c r="B71" s="25"/>
       <c r="C71" t="s">
         <v>161</v>
       </c>
@@ -17147,7 +17816,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="22"/>
-      <c r="B72" s="28"/>
+      <c r="B72" s="25"/>
       <c r="C72" t="s">
         <v>162</v>
       </c>
@@ -17157,7 +17826,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="22"/>
-      <c r="B73" s="28"/>
+      <c r="B73" s="25"/>
       <c r="C73" t="s">
         <v>84</v>
       </c>
@@ -17167,7 +17836,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="22"/>
-      <c r="B74" s="28"/>
+      <c r="B74" s="25"/>
       <c r="C74" t="s">
         <v>163</v>
       </c>
@@ -17177,7 +17846,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="22"/>
-      <c r="B75" s="28"/>
+      <c r="B75" s="25"/>
       <c r="C75" t="s">
         <v>164</v>
       </c>
@@ -17187,7 +17856,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="22"/>
-      <c r="B76" s="28"/>
+      <c r="B76" s="25"/>
       <c r="C76" t="s">
         <v>165</v>
       </c>
@@ -17197,7 +17866,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="22"/>
-      <c r="B77" s="28"/>
+      <c r="B77" s="25"/>
       <c r="C77" t="s">
         <v>166</v>
       </c>
@@ -17207,7 +17876,7 @@
     </row>
     <row r="78" spans="1:7" ht="17.25" thickBot="1">
       <c r="A78" s="22"/>
-      <c r="B78" s="29"/>
+      <c r="B78" s="26"/>
       <c r="C78" t="s">
         <v>167</v>
       </c>
@@ -17217,7 +17886,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="22"/>
-      <c r="B79" s="27" t="s">
+      <c r="B79" s="24" t="s">
         <v>168</v>
       </c>
       <c r="C79" t="s">
@@ -17232,7 +17901,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="22"/>
-      <c r="B80" s="28"/>
+      <c r="B80" s="25"/>
       <c r="C80" t="s">
         <v>169</v>
       </c>
@@ -17245,7 +17914,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="22"/>
-      <c r="B81" s="28"/>
+      <c r="B81" s="25"/>
       <c r="C81" t="s">
         <v>170</v>
       </c>
@@ -17258,7 +17927,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="22"/>
-      <c r="B82" s="28"/>
+      <c r="B82" s="25"/>
       <c r="C82" t="s">
         <v>171</v>
       </c>
@@ -17271,7 +17940,7 @@
     </row>
     <row r="83" spans="1:7" ht="17.25" thickBot="1">
       <c r="A83" s="22"/>
-      <c r="B83" s="29"/>
+      <c r="B83" s="26"/>
       <c r="C83" t="s">
         <v>172</v>
       </c>
@@ -17284,7 +17953,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="22"/>
-      <c r="B84" s="27" t="s">
+      <c r="B84" s="24" t="s">
         <v>173</v>
       </c>
       <c r="C84" t="s">
@@ -17299,7 +17968,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="22"/>
-      <c r="B85" s="28"/>
+      <c r="B85" s="25"/>
       <c r="C85" t="s">
         <v>144</v>
       </c>
@@ -17312,7 +17981,7 @@
     </row>
     <row r="86" spans="1:7" ht="17.25" thickBot="1">
       <c r="A86" s="22"/>
-      <c r="B86" s="29"/>
+      <c r="B86" s="26"/>
       <c r="C86" t="s">
         <v>172</v>
       </c>
@@ -17322,7 +17991,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="22"/>
-      <c r="B87" s="27" t="s">
+      <c r="B87" s="24" t="s">
         <v>123</v>
       </c>
       <c r="C87" t="s">
@@ -17337,7 +18006,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="22"/>
-      <c r="B88" s="28"/>
+      <c r="B88" s="25"/>
       <c r="C88" t="s">
         <v>138</v>
       </c>
@@ -17350,7 +18019,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="22"/>
-      <c r="B89" s="28"/>
+      <c r="B89" s="25"/>
       <c r="C89" t="s">
         <v>161</v>
       </c>
@@ -17363,7 +18032,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="22"/>
-      <c r="B90" s="28"/>
+      <c r="B90" s="25"/>
       <c r="C90" t="s">
         <v>84</v>
       </c>
@@ -17376,7 +18045,7 @@
     </row>
     <row r="91" spans="1:7" ht="17.25" thickBot="1">
       <c r="A91" s="22"/>
-      <c r="B91" s="29"/>
+      <c r="B91" s="26"/>
       <c r="C91" t="s">
         <v>172</v>
       </c>
@@ -17389,7 +18058,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="22"/>
-      <c r="B92" s="27" t="s">
+      <c r="B92" s="24" t="s">
         <v>175</v>
       </c>
       <c r="C92" t="s">
@@ -17404,7 +18073,7 @@
     </row>
     <row r="93" spans="1:7" ht="17.25" thickBot="1">
       <c r="A93" s="22"/>
-      <c r="B93" s="29"/>
+      <c r="B93" s="26"/>
       <c r="C93" t="s">
         <v>138</v>
       </c>
@@ -17417,7 +18086,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="22"/>
-      <c r="B94" s="27" t="s">
+      <c r="B94" s="24" t="s">
         <v>177</v>
       </c>
       <c r="C94" t="s">
@@ -17432,7 +18101,7 @@
     </row>
     <row r="95" spans="1:7" ht="17.25" thickBot="1">
       <c r="A95" s="22"/>
-      <c r="B95" s="29"/>
+      <c r="B95" s="26"/>
       <c r="C95" t="s">
         <v>84</v>
       </c>
@@ -17445,10 +18114,10 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="22"/>
-      <c r="B96" s="27" t="s">
+      <c r="B96" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="C96" s="30" t="s">
+      <c r="C96" s="27" t="s">
         <v>141</v>
       </c>
       <c r="D96" t="s">
@@ -17463,8 +18132,8 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="22"/>
-      <c r="B97" s="28"/>
-      <c r="C97" s="32"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="28"/>
       <c r="D97" t="s">
         <v>178</v>
       </c>
@@ -17477,8 +18146,8 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="22"/>
-      <c r="B98" s="28"/>
-      <c r="C98" s="32"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="28"/>
       <c r="D98" t="s">
         <v>179</v>
       </c>
@@ -17491,8 +18160,8 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="22"/>
-      <c r="B99" s="28"/>
-      <c r="C99" s="32"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="28"/>
       <c r="D99" t="s">
         <v>180</v>
       </c>
@@ -17505,8 +18174,8 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="22"/>
-      <c r="B100" s="28"/>
-      <c r="C100" s="32"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="28"/>
       <c r="D100" t="s">
         <v>181</v>
       </c>
@@ -17519,8 +18188,8 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="22"/>
-      <c r="B101" s="28"/>
-      <c r="C101" s="32"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="28"/>
       <c r="D101" t="s">
         <v>182</v>
       </c>
@@ -17533,8 +18202,8 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="22"/>
-      <c r="B102" s="28"/>
-      <c r="C102" s="32"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="28"/>
       <c r="D102" t="s">
         <v>183</v>
       </c>
@@ -17547,8 +18216,8 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="22"/>
-      <c r="B103" s="28"/>
-      <c r="C103" s="32"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="28"/>
       <c r="D103" t="s">
         <v>184</v>
       </c>
@@ -17561,8 +18230,8 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="22"/>
-      <c r="B104" s="28"/>
-      <c r="C104" s="32"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="28"/>
       <c r="D104" t="s">
         <v>185</v>
       </c>
@@ -17575,8 +18244,8 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="22"/>
-      <c r="B105" s="28"/>
-      <c r="C105" s="32"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="28"/>
       <c r="D105" t="s">
         <v>186</v>
       </c>
@@ -17589,8 +18258,8 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="22"/>
-      <c r="B106" s="28"/>
-      <c r="C106" s="32"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="28"/>
       <c r="D106" t="s">
         <v>187</v>
       </c>
@@ -17603,8 +18272,8 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="22"/>
-      <c r="B107" s="28"/>
-      <c r="C107" s="32"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="28"/>
       <c r="D107" t="s">
         <v>188</v>
       </c>
@@ -17617,8 +18286,8 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="22"/>
-      <c r="B108" s="28"/>
-      <c r="C108" s="32"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="28"/>
       <c r="D108" t="s">
         <v>189</v>
       </c>
@@ -17631,8 +18300,8 @@
     </row>
     <row r="109" spans="1:7" ht="17.25" thickBot="1">
       <c r="A109" s="22"/>
-      <c r="B109" s="28"/>
-      <c r="C109" s="31"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="29"/>
       <c r="D109" t="s">
         <v>190</v>
       </c>
@@ -17645,7 +18314,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="22"/>
-      <c r="B110" s="28"/>
+      <c r="B110" s="25"/>
       <c r="C110" t="s">
         <v>138</v>
       </c>
@@ -17658,7 +18327,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="22"/>
-      <c r="B111" s="28"/>
+      <c r="B111" s="25"/>
       <c r="C111" t="s">
         <v>161</v>
       </c>
@@ -17671,7 +18340,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="22"/>
-      <c r="B112" s="28"/>
+      <c r="B112" s="25"/>
       <c r="C112" t="s">
         <v>191</v>
       </c>
@@ -17684,7 +18353,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="22"/>
-      <c r="B113" s="28"/>
+      <c r="B113" s="25"/>
       <c r="C113" t="s">
         <v>143</v>
       </c>
@@ -17697,7 +18366,7 @@
     </row>
     <row r="114" spans="1:7" ht="17.25" thickBot="1">
       <c r="A114" s="22"/>
-      <c r="B114" s="29"/>
+      <c r="B114" s="26"/>
       <c r="C114" t="s">
         <v>192</v>
       </c>
@@ -18561,10 +19230,10 @@
       <c r="A191" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="B191" s="27" t="s">
+      <c r="B191" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="C191" s="30" t="s">
+      <c r="C191" s="27" t="s">
         <v>232</v>
       </c>
       <c r="D191" t="s">
@@ -18576,8 +19245,8 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="22"/>
-      <c r="B192" s="28"/>
-      <c r="C192" s="32"/>
+      <c r="B192" s="25"/>
+      <c r="C192" s="28"/>
       <c r="D192" t="s">
         <v>234</v>
       </c>
@@ -18587,8 +19256,8 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="22"/>
-      <c r="B193" s="28"/>
-      <c r="C193" s="32"/>
+      <c r="B193" s="25"/>
+      <c r="C193" s="28"/>
       <c r="D193" t="s">
         <v>235</v>
       </c>
@@ -18598,8 +19267,8 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="22"/>
-      <c r="B194" s="28"/>
-      <c r="C194" s="32"/>
+      <c r="B194" s="25"/>
+      <c r="C194" s="28"/>
       <c r="D194" t="s">
         <v>236</v>
       </c>
@@ -18609,8 +19278,8 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="22"/>
-      <c r="B195" s="28"/>
-      <c r="C195" s="32"/>
+      <c r="B195" s="25"/>
+      <c r="C195" s="28"/>
       <c r="D195" t="s">
         <v>237</v>
       </c>
@@ -18620,8 +19289,8 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="22"/>
-      <c r="B196" s="28"/>
-      <c r="C196" s="32"/>
+      <c r="B196" s="25"/>
+      <c r="C196" s="28"/>
       <c r="D196" t="s">
         <v>238</v>
       </c>
@@ -18631,8 +19300,8 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="22"/>
-      <c r="B197" s="28"/>
-      <c r="C197" s="32"/>
+      <c r="B197" s="25"/>
+      <c r="C197" s="28"/>
       <c r="D197" t="s">
         <v>221</v>
       </c>
@@ -18642,8 +19311,8 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="22"/>
-      <c r="B198" s="28"/>
-      <c r="C198" s="32"/>
+      <c r="B198" s="25"/>
+      <c r="C198" s="28"/>
       <c r="D198" t="s">
         <v>239</v>
       </c>
@@ -18653,8 +19322,8 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="22"/>
-      <c r="B199" s="28"/>
-      <c r="C199" s="32"/>
+      <c r="B199" s="25"/>
+      <c r="C199" s="28"/>
       <c r="D199" t="s">
         <v>240</v>
       </c>
@@ -18664,8 +19333,8 @@
     </row>
     <row r="200" spans="1:8" ht="17.25" thickBot="1">
       <c r="A200" s="22"/>
-      <c r="B200" s="28"/>
-      <c r="C200" s="31"/>
+      <c r="B200" s="25"/>
+      <c r="C200" s="29"/>
       <c r="D200" t="s">
         <v>241</v>
       </c>
@@ -18675,7 +19344,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="22"/>
-      <c r="B201" s="28"/>
+      <c r="B201" s="25"/>
       <c r="C201" t="s">
         <v>242</v>
       </c>
@@ -18685,7 +19354,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="22"/>
-      <c r="B202" s="28"/>
+      <c r="B202" s="25"/>
       <c r="C202" t="s">
         <v>84</v>
       </c>
@@ -18695,7 +19364,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="22"/>
-      <c r="B203" s="28"/>
+      <c r="B203" s="25"/>
       <c r="C203" t="s">
         <v>243</v>
       </c>
@@ -18705,7 +19374,7 @@
     </row>
     <row r="204" spans="1:8" ht="17.25" thickBot="1">
       <c r="A204" s="22"/>
-      <c r="B204" s="29"/>
+      <c r="B204" s="26"/>
       <c r="C204" t="s">
         <v>244</v>
       </c>
@@ -18715,10 +19384,10 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="22"/>
-      <c r="B205" s="27" t="s">
+      <c r="B205" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="C205" s="30" t="s">
+      <c r="C205" s="27" t="s">
         <v>218</v>
       </c>
       <c r="D205" t="s">
@@ -18733,8 +19402,8 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="22"/>
-      <c r="B206" s="28"/>
-      <c r="C206" s="32"/>
+      <c r="B206" s="25"/>
+      <c r="C206" s="28"/>
       <c r="D206" t="s">
         <v>246</v>
       </c>
@@ -18747,8 +19416,8 @@
     </row>
     <row r="207" spans="1:8" ht="17.25" thickBot="1">
       <c r="A207" s="22"/>
-      <c r="B207" s="28"/>
-      <c r="C207" s="31"/>
+      <c r="B207" s="25"/>
+      <c r="C207" s="29"/>
       <c r="D207" t="s">
         <v>221</v>
       </c>
@@ -18761,7 +19430,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="22"/>
-      <c r="B208" s="28"/>
+      <c r="B208" s="25"/>
       <c r="C208" t="s">
         <v>206</v>
       </c>
@@ -18777,7 +19446,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="22"/>
-      <c r="B209" s="28"/>
+      <c r="B209" s="25"/>
       <c r="C209" t="s">
         <v>224</v>
       </c>
@@ -18793,7 +19462,7 @@
     </row>
     <row r="210" spans="1:8" ht="17.25" thickBot="1">
       <c r="A210" s="22"/>
-      <c r="B210" s="29"/>
+      <c r="B210" s="26"/>
       <c r="C210" t="s">
         <v>228</v>
       </c>
@@ -19067,17 +19736,19 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A226:A228"/>
-    <mergeCell ref="A128:A190"/>
-    <mergeCell ref="A191:A225"/>
-    <mergeCell ref="B191:B204"/>
-    <mergeCell ref="B205:B210"/>
-    <mergeCell ref="C191:C200"/>
-    <mergeCell ref="C205:C207"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B114"/>
+    <mergeCell ref="A1:A46"/>
+    <mergeCell ref="B1:B9"/>
+    <mergeCell ref="B10:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="A47:A127"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B78"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B84:B86"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="C96:C109"/>
@@ -19087,19 +19758,17 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A47:A127"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B78"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="A1:A46"/>
-    <mergeCell ref="B1:B9"/>
-    <mergeCell ref="B10:B23"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C191:C200"/>
+    <mergeCell ref="C205:C207"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B114"/>
+    <mergeCell ref="A226:A228"/>
+    <mergeCell ref="A128:A190"/>
+    <mergeCell ref="A191:A225"/>
+    <mergeCell ref="B191:B204"/>
+    <mergeCell ref="B205:B210"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/開發文件.xlsx
+++ b/docs/開發文件.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\YDWE1.25.10\Creation\Mod\The_Tilted_Clock_Tower\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D518151-F736-4B68-9841-D5C9BB136139}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84126AA9-7F12-434A-B257-C9631CD92370}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="301">
   <si>
     <r>
       <rPr>
@@ -1366,6 +1366,90 @@
   </si>
   <si>
     <t>BOSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少鍛造出1條屬性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鍛造2條屬性分數較高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少鍛造出3條屬性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>評分至少10分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少強化50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出1個特殊效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>評分至少25分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附魔1件秘物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附魔3件秘物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1個稀有秘物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少強化15%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少增幅20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少增幅50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共振1個特殊效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>評分至少50分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>評分至少100分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>評分至少200分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>產生1個普通的超魔效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>產生1個稀有的超魔效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>評分至少250分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>評分至少500分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1775,6 +1859,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1799,6 +1895,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1806,6 +1920,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1820,10 +1943,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1833,45 +1956,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6758,7 +6842,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>秘物會吸引大氣中的魔導粒子，將其共振會重組魔石結構，可增幅所有屬性</a:t>
+            <a:t>秘物會吸引大氣中的魔導粒子，將其共振會重組魔石結構，可增幅所有屬共性</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -15742,10 +15826,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="20" t="s">
         <v>67</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -15769,8 +15853,8 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="18"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -15780,8 +15864,8 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="18"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="17" t="s">
         <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -15795,8 +15879,8 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="18"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
@@ -15810,8 +15894,8 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="18"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
@@ -15825,8 +15909,8 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="18"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="19"/>
       <c r="D7" s="5"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -15835,8 +15919,8 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="18"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -15852,8 +15936,8 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="18"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
@@ -15865,8 +15949,8 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="18"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
@@ -15878,8 +15962,8 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="18"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
@@ -15891,8 +15975,8 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="18"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="19"/>
       <c r="D12" s="5"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -15901,8 +15985,8 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="18"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="17" t="s">
         <v>70</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -15916,8 +16000,8 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="18"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
@@ -15929,8 +16013,8 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="18"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
@@ -15942,8 +16026,8 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="18"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="19"/>
       <c r="D16" s="5"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -15952,8 +16036,8 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="18"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="17" t="s">
         <v>71</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -15969,8 +16053,8 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="18"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="2" t="s">
         <v>27</v>
       </c>
@@ -15984,8 +16068,8 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="18"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="2" t="s">
         <v>28</v>
       </c>
@@ -15999,8 +16083,8 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="18"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="2" t="s">
         <v>29</v>
       </c>
@@ -16014,8 +16098,8 @@
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="18"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="2" t="s">
         <v>30</v>
       </c>
@@ -16029,8 +16113,8 @@
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="18"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="2" t="s">
         <v>31</v>
       </c>
@@ -16044,8 +16128,8 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="18"/>
-      <c r="B23" s="14"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="2" t="s">
         <v>32</v>
       </c>
@@ -16059,8 +16143,8 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="18"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="2" t="s">
         <v>33</v>
       </c>
@@ -16074,8 +16158,8 @@
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="18"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="2" t="s">
         <v>34</v>
       </c>
@@ -16089,8 +16173,8 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="18"/>
-      <c r="B26" s="14"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="2" t="s">
         <v>35</v>
       </c>
@@ -16104,8 +16188,8 @@
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="18"/>
-      <c r="B27" s="14"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="2" t="s">
         <v>81</v>
       </c>
@@ -16119,8 +16203,8 @@
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="19"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="2"/>
       <c r="D28" s="5"/>
       <c r="E28" s="3"/>
@@ -16130,10 +16214,10 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="17" t="s">
         <v>72</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -16147,8 +16231,8 @@
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="20"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="2" t="s">
         <v>37</v>
       </c>
@@ -16160,8 +16244,8 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="20"/>
-      <c r="B31" s="14"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="2" t="s">
         <v>38</v>
       </c>
@@ -16173,8 +16257,8 @@
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="20"/>
-      <c r="B32" s="14"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="2" t="s">
         <v>39</v>
       </c>
@@ -16186,8 +16270,8 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="20"/>
-      <c r="B33" s="15"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="19"/>
       <c r="D33" s="5"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -16196,8 +16280,8 @@
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="20"/>
-      <c r="B34" s="13" t="s">
+      <c r="A34" s="24"/>
+      <c r="B34" s="17" t="s">
         <v>73</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -16213,8 +16297,8 @@
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="20"/>
-      <c r="B35" s="14"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="8" t="s">
         <v>41</v>
       </c>
@@ -16228,8 +16312,8 @@
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="20"/>
-      <c r="B36" s="14"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="2" t="s">
         <v>43</v>
       </c>
@@ -16241,8 +16325,8 @@
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="20"/>
-      <c r="B37" s="14"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="2" t="s">
         <v>42</v>
       </c>
@@ -16254,8 +16338,8 @@
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="20"/>
-      <c r="B38" s="14"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="2" t="s">
         <v>44</v>
       </c>
@@ -16267,8 +16351,8 @@
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="20"/>
-      <c r="B39" s="14"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="2" t="s">
         <v>45</v>
       </c>
@@ -16280,8 +16364,8 @@
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="20"/>
-      <c r="B40" s="14"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="2" t="s">
         <v>46</v>
       </c>
@@ -16293,8 +16377,8 @@
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="20"/>
-      <c r="B41" s="14"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="2" t="s">
         <v>47</v>
       </c>
@@ -16306,8 +16390,8 @@
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="20"/>
-      <c r="B42" s="14"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="2" t="s">
         <v>48</v>
       </c>
@@ -16319,8 +16403,8 @@
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="20"/>
-      <c r="B43" s="14"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="18"/>
       <c r="C43" s="2" t="s">
         <v>49</v>
       </c>
@@ -16332,8 +16416,8 @@
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="20"/>
-      <c r="B44" s="14"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="18"/>
       <c r="C44" s="2" t="s">
         <v>50</v>
       </c>
@@ -16345,8 +16429,8 @@
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="20"/>
-      <c r="B45" s="14"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="18"/>
       <c r="C45" s="2" t="s">
         <v>51</v>
       </c>
@@ -16358,8 +16442,8 @@
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="20"/>
-      <c r="B46" s="14"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="2" t="s">
         <v>52</v>
       </c>
@@ -16371,8 +16455,8 @@
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="20"/>
-      <c r="B47" s="14"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="18"/>
       <c r="C47" s="2" t="s">
         <v>53</v>
       </c>
@@ -16384,8 +16468,8 @@
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="20"/>
-      <c r="B48" s="14"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="18"/>
       <c r="C48" s="2" t="s">
         <v>54</v>
       </c>
@@ -16397,8 +16481,8 @@
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="20"/>
-      <c r="B49" s="14"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="18"/>
       <c r="C49" s="2" t="s">
         <v>55</v>
       </c>
@@ -16410,8 +16494,8 @@
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="20"/>
-      <c r="B50" s="14"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="18"/>
       <c r="C50" s="2" t="s">
         <v>56</v>
       </c>
@@ -16423,8 +16507,8 @@
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="20"/>
-      <c r="B51" s="14"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="18"/>
       <c r="C51" s="2" t="s">
         <v>57</v>
       </c>
@@ -16436,8 +16520,8 @@
       <c r="I51" s="2"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="20"/>
-      <c r="B52" s="14"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="18"/>
       <c r="C52" s="2" t="s">
         <v>58</v>
       </c>
@@ -16449,8 +16533,8 @@
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="20"/>
-      <c r="B53" s="14"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="18"/>
       <c r="C53" s="2" t="s">
         <v>59</v>
       </c>
@@ -16462,8 +16546,8 @@
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="20"/>
-      <c r="B54" s="14"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="18"/>
       <c r="C54" s="2" t="s">
         <v>60</v>
       </c>
@@ -16475,8 +16559,8 @@
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="20"/>
-      <c r="B55" s="14"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="18"/>
       <c r="C55" s="2" t="s">
         <v>61</v>
       </c>
@@ -16488,8 +16572,8 @@
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="20"/>
-      <c r="B56" s="14"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="18"/>
       <c r="C56" s="2" t="s">
         <v>62</v>
       </c>
@@ -16501,8 +16585,8 @@
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="20"/>
-      <c r="B57" s="14"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="18"/>
       <c r="C57" s="2" t="s">
         <v>63</v>
       </c>
@@ -16514,8 +16598,8 @@
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="20"/>
-      <c r="B58" s="15"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="19"/>
       <c r="D58" s="5"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -16524,10 +16608,10 @@
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="20" t="s">
         <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -16541,8 +16625,8 @@
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="18"/>
-      <c r="B60" s="16"/>
+      <c r="A60" s="22"/>
+      <c r="B60" s="20"/>
       <c r="C60" s="2"/>
       <c r="D60" s="5"/>
       <c r="E60" s="3"/>
@@ -16552,8 +16636,8 @@
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="18"/>
-      <c r="B61" s="13" t="s">
+      <c r="A61" s="22"/>
+      <c r="B61" s="17" t="s">
         <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -16567,8 +16651,8 @@
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="18"/>
-      <c r="B62" s="14"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="18"/>
       <c r="C62" s="2" t="s">
         <v>21</v>
       </c>
@@ -16580,8 +16664,8 @@
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="18"/>
-      <c r="B63" s="14"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="18"/>
       <c r="C63" s="2" t="s">
         <v>22</v>
       </c>
@@ -16593,8 +16677,8 @@
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="18"/>
-      <c r="B64" s="14"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="18"/>
       <c r="C64" s="2" t="s">
         <v>23</v>
       </c>
@@ -16606,8 +16690,8 @@
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="18"/>
-      <c r="B65" s="15"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="19"/>
       <c r="D65" s="5"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -16616,8 +16700,8 @@
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="18"/>
-      <c r="B66" s="13" t="s">
+      <c r="A66" s="22"/>
+      <c r="B66" s="17" t="s">
         <v>76</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -16631,8 +16715,8 @@
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="18"/>
-      <c r="B67" s="14"/>
+      <c r="A67" s="22"/>
+      <c r="B67" s="18"/>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
@@ -16644,8 +16728,8 @@
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="19"/>
-      <c r="B68" s="15"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="19"/>
       <c r="C68" s="2"/>
       <c r="D68" s="5"/>
       <c r="E68" s="3"/>
@@ -16727,8 +16811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4C37A9-3500-4D1C-B102-1E629D48F036}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16743,7 +16827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31534E49-32C8-426A-8FA9-DD7F342C6180}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="Q54" sqref="Q54"/>
     </sheetView>
   </sheetViews>
@@ -16757,10 +16841,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336849DF-D3F4-435E-87DA-A99B863A554D}">
-  <dimension ref="D19:N30"/>
+  <dimension ref="D19:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G35" sqref="G34:G35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16769,188 +16853,257 @@
   </cols>
   <sheetData>
     <row r="19" spans="4:14" ht="17.25" thickBot="1">
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
     </row>
     <row r="20" spans="4:14" ht="17.25" thickTop="1">
-      <c r="D20" s="38"/>
-      <c r="E20" s="39">
+      <c r="D20" s="13"/>
+      <c r="E20" s="14">
         <v>1</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="15">
         <v>2</v>
       </c>
-      <c r="G20" s="39">
+      <c r="G20" s="14">
         <v>3</v>
       </c>
-      <c r="H20" s="40">
+      <c r="H20" s="15">
         <v>4</v>
       </c>
-      <c r="I20" s="39">
+      <c r="I20" s="14">
         <v>5</v>
       </c>
-      <c r="J20" s="40">
+      <c r="J20" s="15">
         <v>6</v>
       </c>
-      <c r="K20" s="39">
+      <c r="K20" s="14">
         <v>7</v>
       </c>
-      <c r="L20" s="40">
+      <c r="L20" s="15">
         <v>8</v>
       </c>
-      <c r="M20" s="39">
+      <c r="M20" s="14">
         <v>9</v>
       </c>
-      <c r="N20" s="40">
+      <c r="N20" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="4:14">
-      <c r="D21" s="38"/>
-      <c r="E21" s="42" t="s">
+      <c r="D21" s="13"/>
+      <c r="E21" s="29" t="s">
         <v>278</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="H21" s="37" t="s">
+      <c r="H21" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="I21" s="36" t="s">
+      <c r="I21" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="J21" s="37" t="s">
+      <c r="J21" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="K21" s="36" t="s">
+      <c r="K21" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="L21" s="37" t="s">
+      <c r="L21" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="M21" s="36" t="s">
+      <c r="M21" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="N21" s="37" t="s">
+      <c r="N21" s="27" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="22" spans="4:14">
-      <c r="D22" s="38"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="37"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="27"/>
     </row>
     <row r="23" spans="4:14">
-      <c r="D23" s="38"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="37"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="27"/>
     </row>
     <row r="24" spans="4:14">
-      <c r="D24" s="38"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="37"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="27"/>
     </row>
     <row r="25" spans="4:14">
-      <c r="D25" s="38"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="37"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="27"/>
     </row>
     <row r="26" spans="4:14">
-      <c r="D26" s="38"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="37"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="27"/>
     </row>
     <row r="27" spans="4:14">
-      <c r="D27" s="38"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="37"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="27"/>
     </row>
     <row r="28" spans="4:14">
-      <c r="D28" s="38"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="37"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="27"/>
     </row>
     <row r="29" spans="4:14" ht="17.25" thickBot="1">
-      <c r="D29" s="38"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="44"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="28"/>
     </row>
     <row r="30" spans="4:14" ht="17.25" thickTop="1"/>
+    <row r="31" spans="4:14">
+      <c r="E31" t="s">
+        <v>280</v>
+      </c>
+      <c r="F31" t="s">
+        <v>282</v>
+      </c>
+      <c r="G31" t="s">
+        <v>290</v>
+      </c>
+      <c r="H31" t="s">
+        <v>284</v>
+      </c>
+      <c r="I31" t="s">
+        <v>287</v>
+      </c>
+      <c r="J31" t="s">
+        <v>288</v>
+      </c>
+      <c r="K31" t="s">
+        <v>291</v>
+      </c>
+      <c r="L31" t="s">
+        <v>292</v>
+      </c>
+      <c r="M31" t="s">
+        <v>297</v>
+      </c>
+      <c r="N31" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="32" spans="4:14">
+      <c r="E32" t="s">
+        <v>281</v>
+      </c>
+      <c r="F32" t="s">
+        <v>283</v>
+      </c>
+      <c r="H32" t="s">
+        <v>285</v>
+      </c>
+      <c r="J32" t="s">
+        <v>289</v>
+      </c>
+      <c r="K32" t="s">
+        <v>295</v>
+      </c>
+      <c r="L32" t="s">
+        <v>293</v>
+      </c>
+      <c r="M32" t="s">
+        <v>299</v>
+      </c>
+      <c r="N32" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="8:12">
+      <c r="H33" t="s">
+        <v>286</v>
+      </c>
+      <c r="J33" t="s">
+        <v>294</v>
+      </c>
+      <c r="L33" t="s">
+        <v>296</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="K21:K29"/>
@@ -16989,10 +17142,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>83</v>
       </c>
       <c r="C1" t="s">
@@ -17006,8 +17159,8 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="22"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="35"/>
       <c r="C2" t="s">
         <v>85</v>
       </c>
@@ -17016,8 +17169,8 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="22"/>
-      <c r="B3" s="34"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="35"/>
       <c r="C3" t="s">
         <v>86</v>
       </c>
@@ -17026,8 +17179,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="22"/>
-      <c r="B4" s="34"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="35"/>
       <c r="C4" t="s">
         <v>87</v>
       </c>
@@ -17036,8 +17189,8 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="22"/>
-      <c r="B5" s="34"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="35"/>
       <c r="C5" t="s">
         <v>88</v>
       </c>
@@ -17046,8 +17199,8 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="22"/>
-      <c r="B6" s="34"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="35"/>
       <c r="C6" t="s">
         <v>89</v>
       </c>
@@ -17056,8 +17209,8 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="22"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="35"/>
       <c r="C7" t="s">
         <v>90</v>
       </c>
@@ -17066,8 +17219,8 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="22"/>
-      <c r="B8" s="34"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="35"/>
       <c r="C8" t="s">
         <v>91</v>
       </c>
@@ -17076,8 +17229,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="36"/>
       <c r="C9" t="s">
         <v>92</v>
       </c>
@@ -17086,14 +17239,14 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="22"/>
-      <c r="B10" s="33" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="43" t="s">
         <v>95</v>
       </c>
       <c r="E10" t="s">
@@ -17104,10 +17257,10 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="22"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="31"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="44"/>
       <c r="E11" t="s">
         <v>97</v>
       </c>
@@ -17116,10 +17269,10 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="22"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="31"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="44"/>
       <c r="E12" t="s">
         <v>98</v>
       </c>
@@ -17128,10 +17281,10 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="22"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="31"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="44"/>
       <c r="E13" t="s">
         <v>99</v>
       </c>
@@ -17140,10 +17293,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A14" s="22"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="32"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="45"/>
       <c r="E14" t="s">
         <v>100</v>
       </c>
@@ -17152,10 +17305,10 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="22"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="30" t="s">
+      <c r="A15" s="32"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="43" t="s">
         <v>101</v>
       </c>
       <c r="E15" t="s">
@@ -17166,10 +17319,10 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="22"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="31"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="44"/>
       <c r="E16" t="s">
         <v>103</v>
       </c>
@@ -17178,10 +17331,10 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="22"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="31"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="44"/>
       <c r="E17" t="s">
         <v>104</v>
       </c>
@@ -17190,10 +17343,10 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="22"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="31"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="44"/>
       <c r="E18" t="s">
         <v>105</v>
       </c>
@@ -17202,10 +17355,10 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="22"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="31"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="44"/>
       <c r="E19" t="s">
         <v>106</v>
       </c>
@@ -17214,10 +17367,10 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="22"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="31"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="44"/>
       <c r="E20" t="s">
         <v>107</v>
       </c>
@@ -17226,10 +17379,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A21" s="22"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="32"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="45"/>
       <c r="E21" t="s">
         <v>108</v>
       </c>
@@ -17238,8 +17391,8 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="22"/>
-      <c r="B22" s="34"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="35"/>
       <c r="C22" t="s">
         <v>109</v>
       </c>
@@ -17248,8 +17401,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="35"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="36"/>
       <c r="C23" t="s">
         <v>84</v>
       </c>
@@ -17258,8 +17411,8 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="22"/>
-      <c r="B24" s="24" t="s">
+      <c r="A24" s="32"/>
+      <c r="B24" s="37" t="s">
         <v>110</v>
       </c>
       <c r="C24" t="s">
@@ -17270,8 +17423,8 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="22"/>
-      <c r="B25" s="25"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="38"/>
       <c r="C25" t="s">
         <v>111</v>
       </c>
@@ -17280,8 +17433,8 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="22"/>
-      <c r="B26" s="25"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="38"/>
       <c r="C26" t="s">
         <v>112</v>
       </c>
@@ -17290,8 +17443,8 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="22"/>
-      <c r="B27" s="25"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="38"/>
       <c r="C27" t="s">
         <v>113</v>
       </c>
@@ -17300,8 +17453,8 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="22"/>
-      <c r="B28" s="25"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="38"/>
       <c r="C28" t="s">
         <v>114</v>
       </c>
@@ -17310,8 +17463,8 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="22"/>
-      <c r="B29" s="25"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="38"/>
       <c r="C29" t="s">
         <v>115</v>
       </c>
@@ -17320,8 +17473,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A30" s="22"/>
-      <c r="B30" s="26"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="39"/>
       <c r="C30" t="s">
         <v>116</v>
       </c>
@@ -17330,11 +17483,11 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="22"/>
-      <c r="B31" s="24" t="s">
+      <c r="A31" s="32"/>
+      <c r="B31" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="40" t="s">
         <v>118</v>
       </c>
       <c r="D31" t="s">
@@ -17345,9 +17498,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A32" s="22"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="29"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="41"/>
       <c r="D32" t="s">
         <v>120</v>
       </c>
@@ -17356,9 +17509,9 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="22"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="27" t="s">
+      <c r="A33" s="32"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="40" t="s">
         <v>121</v>
       </c>
       <c r="D33" t="s">
@@ -17369,9 +17522,9 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A34" s="22"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="29"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="41"/>
       <c r="D34" t="s">
         <v>123</v>
       </c>
@@ -17380,9 +17533,9 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="22"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="27" t="s">
+      <c r="A35" s="32"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="40" t="s">
         <v>124</v>
       </c>
       <c r="D35" t="s">
@@ -17393,9 +17546,9 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A36" s="22"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="29"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="41"/>
       <c r="D36" t="s">
         <v>123</v>
       </c>
@@ -17404,7 +17557,7 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="22"/>
+      <c r="A37" s="32"/>
       <c r="B37" t="s">
         <v>125</v>
       </c>
@@ -17413,7 +17566,7 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="22"/>
+      <c r="A38" s="32"/>
       <c r="B38" t="s">
         <v>126</v>
       </c>
@@ -17422,7 +17575,7 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="22"/>
+      <c r="A39" s="32"/>
       <c r="B39" t="s">
         <v>127</v>
       </c>
@@ -17431,7 +17584,7 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="22"/>
+      <c r="A40" s="32"/>
       <c r="B40" t="s">
         <v>128</v>
       </c>
@@ -17440,7 +17593,7 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="22"/>
+      <c r="A41" s="32"/>
       <c r="B41" t="s">
         <v>129</v>
       </c>
@@ -17449,7 +17602,7 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="22"/>
+      <c r="A42" s="32"/>
       <c r="B42" t="s">
         <v>130</v>
       </c>
@@ -17458,7 +17611,7 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="22"/>
+      <c r="A43" s="32"/>
       <c r="B43" t="s">
         <v>131</v>
       </c>
@@ -17467,7 +17620,7 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="22"/>
+      <c r="A44" s="32"/>
       <c r="B44" t="s">
         <v>132</v>
       </c>
@@ -17476,7 +17629,7 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="22"/>
+      <c r="A45" s="32"/>
       <c r="B45" t="s">
         <v>133</v>
       </c>
@@ -17485,7 +17638,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A46" s="23"/>
+      <c r="A46" s="33"/>
       <c r="B46" t="s">
         <v>134</v>
       </c>
@@ -17494,10 +17647,10 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="37" t="s">
         <v>136</v>
       </c>
       <c r="C47" t="s">
@@ -17511,8 +17664,8 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="22"/>
-      <c r="B48" s="25"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="38"/>
       <c r="C48" t="s">
         <v>138</v>
       </c>
@@ -17524,8 +17677,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A49" s="22"/>
-      <c r="B49" s="26"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="39"/>
       <c r="C49" t="s">
         <v>139</v>
       </c>
@@ -17537,11 +17690,11 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="22"/>
-      <c r="B50" s="24" t="s">
+      <c r="A50" s="32"/>
+      <c r="B50" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="40" t="s">
         <v>141</v>
       </c>
       <c r="D50" t="s">
@@ -17555,9 +17708,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A51" s="22"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="29"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="41"/>
       <c r="D51" t="s">
         <v>142</v>
       </c>
@@ -17569,8 +17722,8 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="22"/>
-      <c r="B52" s="25"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="38"/>
       <c r="C52" t="s">
         <v>138</v>
       </c>
@@ -17582,8 +17735,8 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="22"/>
-      <c r="B53" s="25"/>
+      <c r="A53" s="32"/>
+      <c r="B53" s="38"/>
       <c r="C53" t="s">
         <v>84</v>
       </c>
@@ -17595,8 +17748,8 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="22"/>
-      <c r="B54" s="25"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="38"/>
       <c r="C54" t="s">
         <v>143</v>
       </c>
@@ -17608,8 +17761,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A55" s="22"/>
-      <c r="B55" s="26"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="39"/>
       <c r="C55" t="s">
         <v>144</v>
       </c>
@@ -17621,8 +17774,8 @@
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="22"/>
-      <c r="B56" s="24" t="s">
+      <c r="A56" s="32"/>
+      <c r="B56" s="37" t="s">
         <v>145</v>
       </c>
       <c r="C56" t="s">
@@ -17636,8 +17789,8 @@
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="22"/>
-      <c r="B57" s="25"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="38"/>
       <c r="C57" t="s">
         <v>147</v>
       </c>
@@ -17649,8 +17802,8 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="22"/>
-      <c r="B58" s="25"/>
+      <c r="A58" s="32"/>
+      <c r="B58" s="38"/>
       <c r="C58" t="s">
         <v>148</v>
       </c>
@@ -17662,8 +17815,8 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="22"/>
-      <c r="B59" s="25"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="38"/>
       <c r="C59" t="s">
         <v>149</v>
       </c>
@@ -17675,8 +17828,8 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="22"/>
-      <c r="B60" s="25"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="38"/>
       <c r="C60" t="s">
         <v>150</v>
       </c>
@@ -17688,8 +17841,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A61" s="22"/>
-      <c r="B61" s="26"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="39"/>
       <c r="C61" t="s">
         <v>151</v>
       </c>
@@ -17701,8 +17854,8 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="22"/>
-      <c r="B62" s="24" t="s">
+      <c r="A62" s="32"/>
+      <c r="B62" s="37" t="s">
         <v>152</v>
       </c>
       <c r="C62" t="s">
@@ -17716,8 +17869,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A63" s="22"/>
-      <c r="B63" s="26"/>
+      <c r="A63" s="32"/>
+      <c r="B63" s="39"/>
       <c r="C63" t="s">
         <v>138</v>
       </c>
@@ -17729,11 +17882,11 @@
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="22"/>
-      <c r="B64" s="24" t="s">
+      <c r="A64" s="32"/>
+      <c r="B64" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="40" t="s">
         <v>155</v>
       </c>
       <c r="D64" t="s">
@@ -17744,9 +17897,9 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A65" s="22"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="29"/>
+      <c r="A65" s="32"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="41"/>
       <c r="D65" t="s">
         <v>156</v>
       </c>
@@ -17755,8 +17908,8 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="22"/>
-      <c r="B66" s="25"/>
+      <c r="A66" s="32"/>
+      <c r="B66" s="38"/>
       <c r="C66" t="s">
         <v>157</v>
       </c>
@@ -17765,8 +17918,8 @@
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="22"/>
-      <c r="B67" s="25"/>
+      <c r="A67" s="32"/>
+      <c r="B67" s="38"/>
       <c r="C67" t="s">
         <v>158</v>
       </c>
@@ -17775,8 +17928,8 @@
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="22"/>
-      <c r="B68" s="25"/>
+      <c r="A68" s="32"/>
+      <c r="B68" s="38"/>
       <c r="C68" t="s">
         <v>159</v>
       </c>
@@ -17785,8 +17938,8 @@
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="22"/>
-      <c r="B69" s="25"/>
+      <c r="A69" s="32"/>
+      <c r="B69" s="38"/>
       <c r="C69" t="s">
         <v>138</v>
       </c>
@@ -17795,8 +17948,8 @@
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="22"/>
-      <c r="B70" s="25"/>
+      <c r="A70" s="32"/>
+      <c r="B70" s="38"/>
       <c r="C70" t="s">
         <v>160</v>
       </c>
@@ -17805,8 +17958,8 @@
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="22"/>
-      <c r="B71" s="25"/>
+      <c r="A71" s="32"/>
+      <c r="B71" s="38"/>
       <c r="C71" t="s">
         <v>161</v>
       </c>
@@ -17815,8 +17968,8 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="22"/>
-      <c r="B72" s="25"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="38"/>
       <c r="C72" t="s">
         <v>162</v>
       </c>
@@ -17825,8 +17978,8 @@
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="22"/>
-      <c r="B73" s="25"/>
+      <c r="A73" s="32"/>
+      <c r="B73" s="38"/>
       <c r="C73" t="s">
         <v>84</v>
       </c>
@@ -17835,8 +17988,8 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="22"/>
-      <c r="B74" s="25"/>
+      <c r="A74" s="32"/>
+      <c r="B74" s="38"/>
       <c r="C74" t="s">
         <v>163</v>
       </c>
@@ -17845,8 +17998,8 @@
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="22"/>
-      <c r="B75" s="25"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="38"/>
       <c r="C75" t="s">
         <v>164</v>
       </c>
@@ -17855,8 +18008,8 @@
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="22"/>
-      <c r="B76" s="25"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="38"/>
       <c r="C76" t="s">
         <v>165</v>
       </c>
@@ -17865,8 +18018,8 @@
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="22"/>
-      <c r="B77" s="25"/>
+      <c r="A77" s="32"/>
+      <c r="B77" s="38"/>
       <c r="C77" t="s">
         <v>166</v>
       </c>
@@ -17875,8 +18028,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A78" s="22"/>
-      <c r="B78" s="26"/>
+      <c r="A78" s="32"/>
+      <c r="B78" s="39"/>
       <c r="C78" t="s">
         <v>167</v>
       </c>
@@ -17885,8 +18038,8 @@
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="22"/>
-      <c r="B79" s="24" t="s">
+      <c r="A79" s="32"/>
+      <c r="B79" s="37" t="s">
         <v>168</v>
       </c>
       <c r="C79" t="s">
@@ -17900,8 +18053,8 @@
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="22"/>
-      <c r="B80" s="25"/>
+      <c r="A80" s="32"/>
+      <c r="B80" s="38"/>
       <c r="C80" t="s">
         <v>169</v>
       </c>
@@ -17913,8 +18066,8 @@
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="22"/>
-      <c r="B81" s="25"/>
+      <c r="A81" s="32"/>
+      <c r="B81" s="38"/>
       <c r="C81" t="s">
         <v>170</v>
       </c>
@@ -17926,8 +18079,8 @@
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="22"/>
-      <c r="B82" s="25"/>
+      <c r="A82" s="32"/>
+      <c r="B82" s="38"/>
       <c r="C82" t="s">
         <v>171</v>
       </c>
@@ -17939,8 +18092,8 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A83" s="22"/>
-      <c r="B83" s="26"/>
+      <c r="A83" s="32"/>
+      <c r="B83" s="39"/>
       <c r="C83" t="s">
         <v>172</v>
       </c>
@@ -17952,8 +18105,8 @@
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="22"/>
-      <c r="B84" s="24" t="s">
+      <c r="A84" s="32"/>
+      <c r="B84" s="37" t="s">
         <v>173</v>
       </c>
       <c r="C84" t="s">
@@ -17967,8 +18120,8 @@
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="22"/>
-      <c r="B85" s="25"/>
+      <c r="A85" s="32"/>
+      <c r="B85" s="38"/>
       <c r="C85" t="s">
         <v>144</v>
       </c>
@@ -17980,8 +18133,8 @@
       </c>
     </row>
     <row r="86" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A86" s="22"/>
-      <c r="B86" s="26"/>
+      <c r="A86" s="32"/>
+      <c r="B86" s="39"/>
       <c r="C86" t="s">
         <v>172</v>
       </c>
@@ -17990,8 +18143,8 @@
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="22"/>
-      <c r="B87" s="24" t="s">
+      <c r="A87" s="32"/>
+      <c r="B87" s="37" t="s">
         <v>123</v>
       </c>
       <c r="C87" t="s">
@@ -18005,8 +18158,8 @@
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="22"/>
-      <c r="B88" s="25"/>
+      <c r="A88" s="32"/>
+      <c r="B88" s="38"/>
       <c r="C88" t="s">
         <v>138</v>
       </c>
@@ -18018,8 +18171,8 @@
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="22"/>
-      <c r="B89" s="25"/>
+      <c r="A89" s="32"/>
+      <c r="B89" s="38"/>
       <c r="C89" t="s">
         <v>161</v>
       </c>
@@ -18031,8 +18184,8 @@
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="22"/>
-      <c r="B90" s="25"/>
+      <c r="A90" s="32"/>
+      <c r="B90" s="38"/>
       <c r="C90" t="s">
         <v>84</v>
       </c>
@@ -18044,8 +18197,8 @@
       </c>
     </row>
     <row r="91" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A91" s="22"/>
-      <c r="B91" s="26"/>
+      <c r="A91" s="32"/>
+      <c r="B91" s="39"/>
       <c r="C91" t="s">
         <v>172</v>
       </c>
@@ -18057,8 +18210,8 @@
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="22"/>
-      <c r="B92" s="24" t="s">
+      <c r="A92" s="32"/>
+      <c r="B92" s="37" t="s">
         <v>175</v>
       </c>
       <c r="C92" t="s">
@@ -18072,8 +18225,8 @@
       </c>
     </row>
     <row r="93" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A93" s="22"/>
-      <c r="B93" s="26"/>
+      <c r="A93" s="32"/>
+      <c r="B93" s="39"/>
       <c r="C93" t="s">
         <v>138</v>
       </c>
@@ -18085,8 +18238,8 @@
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="22"/>
-      <c r="B94" s="24" t="s">
+      <c r="A94" s="32"/>
+      <c r="B94" s="37" t="s">
         <v>177</v>
       </c>
       <c r="C94" t="s">
@@ -18100,8 +18253,8 @@
       </c>
     </row>
     <row r="95" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A95" s="22"/>
-      <c r="B95" s="26"/>
+      <c r="A95" s="32"/>
+      <c r="B95" s="39"/>
       <c r="C95" t="s">
         <v>84</v>
       </c>
@@ -18113,11 +18266,11 @@
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="22"/>
-      <c r="B96" s="24" t="s">
+      <c r="A96" s="32"/>
+      <c r="B96" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="C96" s="27" t="s">
+      <c r="C96" s="40" t="s">
         <v>141</v>
       </c>
       <c r="D96" t="s">
@@ -18131,9 +18284,9 @@
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="22"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="28"/>
+      <c r="A97" s="32"/>
+      <c r="B97" s="38"/>
+      <c r="C97" s="42"/>
       <c r="D97" t="s">
         <v>178</v>
       </c>
@@ -18145,9 +18298,9 @@
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="22"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="28"/>
+      <c r="A98" s="32"/>
+      <c r="B98" s="38"/>
+      <c r="C98" s="42"/>
       <c r="D98" t="s">
         <v>179</v>
       </c>
@@ -18159,9 +18312,9 @@
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="22"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="28"/>
+      <c r="A99" s="32"/>
+      <c r="B99" s="38"/>
+      <c r="C99" s="42"/>
       <c r="D99" t="s">
         <v>180</v>
       </c>
@@ -18173,9 +18326,9 @@
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="22"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="28"/>
+      <c r="A100" s="32"/>
+      <c r="B100" s="38"/>
+      <c r="C100" s="42"/>
       <c r="D100" t="s">
         <v>181</v>
       </c>
@@ -18187,9 +18340,9 @@
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="22"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="28"/>
+      <c r="A101" s="32"/>
+      <c r="B101" s="38"/>
+      <c r="C101" s="42"/>
       <c r="D101" t="s">
         <v>182</v>
       </c>
@@ -18201,9 +18354,9 @@
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="22"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="28"/>
+      <c r="A102" s="32"/>
+      <c r="B102" s="38"/>
+      <c r="C102" s="42"/>
       <c r="D102" t="s">
         <v>183</v>
       </c>
@@ -18215,9 +18368,9 @@
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="22"/>
-      <c r="B103" s="25"/>
-      <c r="C103" s="28"/>
+      <c r="A103" s="32"/>
+      <c r="B103" s="38"/>
+      <c r="C103" s="42"/>
       <c r="D103" t="s">
         <v>184</v>
       </c>
@@ -18229,9 +18382,9 @@
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="22"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="28"/>
+      <c r="A104" s="32"/>
+      <c r="B104" s="38"/>
+      <c r="C104" s="42"/>
       <c r="D104" t="s">
         <v>185</v>
       </c>
@@ -18243,9 +18396,9 @@
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="22"/>
-      <c r="B105" s="25"/>
-      <c r="C105" s="28"/>
+      <c r="A105" s="32"/>
+      <c r="B105" s="38"/>
+      <c r="C105" s="42"/>
       <c r="D105" t="s">
         <v>186</v>
       </c>
@@ -18257,9 +18410,9 @@
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="22"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="28"/>
+      <c r="A106" s="32"/>
+      <c r="B106" s="38"/>
+      <c r="C106" s="42"/>
       <c r="D106" t="s">
         <v>187</v>
       </c>
@@ -18271,9 +18424,9 @@
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="22"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="28"/>
+      <c r="A107" s="32"/>
+      <c r="B107" s="38"/>
+      <c r="C107" s="42"/>
       <c r="D107" t="s">
         <v>188</v>
       </c>
@@ -18285,9 +18438,9 @@
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="22"/>
-      <c r="B108" s="25"/>
-      <c r="C108" s="28"/>
+      <c r="A108" s="32"/>
+      <c r="B108" s="38"/>
+      <c r="C108" s="42"/>
       <c r="D108" t="s">
         <v>189</v>
       </c>
@@ -18299,9 +18452,9 @@
       </c>
     </row>
     <row r="109" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A109" s="22"/>
-      <c r="B109" s="25"/>
-      <c r="C109" s="29"/>
+      <c r="A109" s="32"/>
+      <c r="B109" s="38"/>
+      <c r="C109" s="41"/>
       <c r="D109" t="s">
         <v>190</v>
       </c>
@@ -18313,8 +18466,8 @@
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="22"/>
-      <c r="B110" s="25"/>
+      <c r="A110" s="32"/>
+      <c r="B110" s="38"/>
       <c r="C110" t="s">
         <v>138</v>
       </c>
@@ -18326,8 +18479,8 @@
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="22"/>
-      <c r="B111" s="25"/>
+      <c r="A111" s="32"/>
+      <c r="B111" s="38"/>
       <c r="C111" t="s">
         <v>161</v>
       </c>
@@ -18339,8 +18492,8 @@
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="22"/>
-      <c r="B112" s="25"/>
+      <c r="A112" s="32"/>
+      <c r="B112" s="38"/>
       <c r="C112" t="s">
         <v>191</v>
       </c>
@@ -18352,8 +18505,8 @@
       </c>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="22"/>
-      <c r="B113" s="25"/>
+      <c r="A113" s="32"/>
+      <c r="B113" s="38"/>
       <c r="C113" t="s">
         <v>143</v>
       </c>
@@ -18365,8 +18518,8 @@
       </c>
     </row>
     <row r="114" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A114" s="22"/>
-      <c r="B114" s="26"/>
+      <c r="A114" s="32"/>
+      <c r="B114" s="39"/>
       <c r="C114" t="s">
         <v>192</v>
       </c>
@@ -18378,7 +18531,7 @@
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="22"/>
+      <c r="A115" s="32"/>
       <c r="B115" t="s">
         <v>193</v>
       </c>
@@ -18390,7 +18543,7 @@
       </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="22"/>
+      <c r="A116" s="32"/>
       <c r="B116" t="s">
         <v>161</v>
       </c>
@@ -18402,7 +18555,7 @@
       </c>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="22"/>
+      <c r="A117" s="32"/>
       <c r="B117" t="s">
         <v>194</v>
       </c>
@@ -18414,7 +18567,7 @@
       </c>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="22"/>
+      <c r="A118" s="32"/>
       <c r="B118" t="s">
         <v>195</v>
       </c>
@@ -18426,7 +18579,7 @@
       </c>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="22"/>
+      <c r="A119" s="32"/>
       <c r="B119" t="s">
         <v>196</v>
       </c>
@@ -18438,7 +18591,7 @@
       </c>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="22"/>
+      <c r="A120" s="32"/>
       <c r="B120" t="s">
         <v>197</v>
       </c>
@@ -18450,7 +18603,7 @@
       </c>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="22"/>
+      <c r="A121" s="32"/>
       <c r="B121" t="s">
         <v>198</v>
       </c>
@@ -18462,7 +18615,7 @@
       </c>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="22"/>
+      <c r="A122" s="32"/>
       <c r="B122" t="s">
         <v>199</v>
       </c>
@@ -18474,7 +18627,7 @@
       </c>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="22"/>
+      <c r="A123" s="32"/>
       <c r="B123" t="s">
         <v>200</v>
       </c>
@@ -18486,7 +18639,7 @@
       </c>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="22"/>
+      <c r="A124" s="32"/>
       <c r="B124" t="s">
         <v>201</v>
       </c>
@@ -18498,7 +18651,7 @@
       </c>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="22"/>
+      <c r="A125" s="32"/>
       <c r="B125" t="s">
         <v>259</v>
       </c>
@@ -18510,7 +18663,7 @@
       </c>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="22"/>
+      <c r="A126" s="32"/>
       <c r="B126" t="s">
         <v>202</v>
       </c>
@@ -18522,7 +18675,7 @@
       </c>
     </row>
     <row r="127" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A127" s="23"/>
+      <c r="A127" s="33"/>
       <c r="B127" t="s">
         <v>203</v>
       </c>
@@ -18534,7 +18687,7 @@
       </c>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="21" t="s">
+      <c r="A128" s="31" t="s">
         <v>204</v>
       </c>
       <c r="B128" t="s">
@@ -18545,7 +18698,7 @@
       </c>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="22"/>
+      <c r="A129" s="32"/>
       <c r="B129" t="s">
         <v>205</v>
       </c>
@@ -18557,7 +18710,7 @@
       </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="22"/>
+      <c r="A130" s="32"/>
       <c r="B130" t="s">
         <v>206</v>
       </c>
@@ -18569,7 +18722,7 @@
       </c>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="22"/>
+      <c r="A131" s="32"/>
       <c r="B131" t="s">
         <v>136</v>
       </c>
@@ -18581,7 +18734,7 @@
       </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="22"/>
+      <c r="A132" s="32"/>
       <c r="B132" t="s">
         <v>209</v>
       </c>
@@ -18593,7 +18746,7 @@
       </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="22"/>
+      <c r="A133" s="32"/>
       <c r="B133" t="s">
         <v>208</v>
       </c>
@@ -18605,7 +18758,7 @@
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="22"/>
+      <c r="A134" s="32"/>
       <c r="B134" t="s">
         <v>158</v>
       </c>
@@ -18614,7 +18767,7 @@
       </c>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="22"/>
+      <c r="A135" s="32"/>
       <c r="B135" t="s">
         <v>140</v>
       </c>
@@ -18623,7 +18776,7 @@
       </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="22"/>
+      <c r="A136" s="32"/>
       <c r="B136" t="s">
         <v>210</v>
       </c>
@@ -18635,7 +18788,7 @@
       </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="22"/>
+      <c r="A137" s="32"/>
       <c r="B137" t="s">
         <v>211</v>
       </c>
@@ -18647,7 +18800,7 @@
       </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="22"/>
+      <c r="A138" s="32"/>
       <c r="B138" t="s">
         <v>137</v>
       </c>
@@ -18659,7 +18812,7 @@
       </c>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="22"/>
+      <c r="A139" s="32"/>
       <c r="B139" t="s">
         <v>212</v>
       </c>
@@ -18671,7 +18824,7 @@
       </c>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="22"/>
+      <c r="A140" s="32"/>
       <c r="B140" t="s">
         <v>213</v>
       </c>
@@ -18683,7 +18836,7 @@
       </c>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="22"/>
+      <c r="A141" s="32"/>
       <c r="B141" t="s">
         <v>159</v>
       </c>
@@ -18692,7 +18845,7 @@
       </c>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="22"/>
+      <c r="A142" s="32"/>
       <c r="B142" t="s">
         <v>138</v>
       </c>
@@ -18701,7 +18854,7 @@
       </c>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="22"/>
+      <c r="A143" s="32"/>
       <c r="B143" t="s">
         <v>214</v>
       </c>
@@ -18710,7 +18863,7 @@
       </c>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="22"/>
+      <c r="A144" s="32"/>
       <c r="B144" t="s">
         <v>148</v>
       </c>
@@ -18719,7 +18872,7 @@
       </c>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="22"/>
+      <c r="A145" s="32"/>
       <c r="B145" t="s">
         <v>193</v>
       </c>
@@ -18731,7 +18884,7 @@
       </c>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="22"/>
+      <c r="A146" s="32"/>
       <c r="B146" t="s">
         <v>160</v>
       </c>
@@ -18740,7 +18893,7 @@
       </c>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="22"/>
+      <c r="A147" s="32"/>
       <c r="B147" t="s">
         <v>155</v>
       </c>
@@ -18749,7 +18902,7 @@
       </c>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="22"/>
+      <c r="A148" s="32"/>
       <c r="B148" t="s">
         <v>161</v>
       </c>
@@ -18761,7 +18914,7 @@
       </c>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="22"/>
+      <c r="A149" s="32"/>
       <c r="B149" t="s">
         <v>215</v>
       </c>
@@ -18770,7 +18923,7 @@
       </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="22"/>
+      <c r="A150" s="32"/>
       <c r="B150" t="s">
         <v>194</v>
       </c>
@@ -18782,7 +18935,7 @@
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="22"/>
+      <c r="A151" s="32"/>
       <c r="B151" t="s">
         <v>216</v>
       </c>
@@ -18794,7 +18947,7 @@
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="22"/>
+      <c r="A152" s="32"/>
       <c r="B152" t="s">
         <v>152</v>
       </c>
@@ -18806,7 +18959,7 @@
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="22"/>
+      <c r="A153" s="32"/>
       <c r="B153" t="s">
         <v>191</v>
       </c>
@@ -18818,7 +18971,7 @@
       </c>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="22"/>
+      <c r="A154" s="32"/>
       <c r="B154" t="s">
         <v>217</v>
       </c>
@@ -18830,7 +18983,7 @@
       </c>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="22"/>
+      <c r="A155" s="32"/>
       <c r="B155" t="s">
         <v>195</v>
       </c>
@@ -18842,7 +18995,7 @@
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="22"/>
+      <c r="A156" s="32"/>
       <c r="B156" t="s">
         <v>130</v>
       </c>
@@ -18851,7 +19004,7 @@
       </c>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="22"/>
+      <c r="A157" s="32"/>
       <c r="B157" t="s">
         <v>154</v>
       </c>
@@ -18860,7 +19013,7 @@
       </c>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="22"/>
+      <c r="A158" s="32"/>
       <c r="B158" t="s">
         <v>169</v>
       </c>
@@ -18872,7 +19025,7 @@
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="22"/>
+      <c r="A159" s="32"/>
       <c r="B159" t="s">
         <v>218</v>
       </c>
@@ -18884,7 +19037,7 @@
       </c>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="22"/>
+      <c r="A160" s="32"/>
       <c r="B160" t="s">
         <v>219</v>
       </c>
@@ -18896,7 +19049,7 @@
       </c>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="22"/>
+      <c r="A161" s="32"/>
       <c r="B161" t="s">
         <v>220</v>
       </c>
@@ -18905,7 +19058,7 @@
       </c>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="22"/>
+      <c r="A162" s="32"/>
       <c r="B162" t="s">
         <v>170</v>
       </c>
@@ -18917,7 +19070,7 @@
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="22"/>
+      <c r="A163" s="32"/>
       <c r="B163" t="s">
         <v>267</v>
       </c>
@@ -18927,7 +19080,7 @@
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="22"/>
+      <c r="A164" s="32"/>
       <c r="B164" t="s">
         <v>221</v>
       </c>
@@ -18939,7 +19092,7 @@
       </c>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="22"/>
+      <c r="A165" s="32"/>
       <c r="B165" t="s">
         <v>222</v>
       </c>
@@ -18951,7 +19104,7 @@
       </c>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="22"/>
+      <c r="A166" s="32"/>
       <c r="B166" t="s">
         <v>192</v>
       </c>
@@ -18963,7 +19116,7 @@
       </c>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="22"/>
+      <c r="A167" s="32"/>
       <c r="B167" t="s">
         <v>199</v>
       </c>
@@ -18975,7 +19128,7 @@
       </c>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="22"/>
+      <c r="A168" s="32"/>
       <c r="B168" t="s">
         <v>200</v>
       </c>
@@ -18987,7 +19140,7 @@
       </c>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="22"/>
+      <c r="A169" s="32"/>
       <c r="B169" t="s">
         <v>201</v>
       </c>
@@ -18999,7 +19152,7 @@
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="22"/>
+      <c r="A170" s="32"/>
       <c r="B170" t="s">
         <v>131</v>
       </c>
@@ -19008,7 +19161,7 @@
       </c>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="22"/>
+      <c r="A171" s="32"/>
       <c r="B171" t="s">
         <v>165</v>
       </c>
@@ -19017,7 +19170,7 @@
       </c>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="22"/>
+      <c r="A172" s="32"/>
       <c r="B172" t="s">
         <v>223</v>
       </c>
@@ -19026,7 +19179,7 @@
       </c>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="22"/>
+      <c r="A173" s="32"/>
       <c r="B173" t="s">
         <v>173</v>
       </c>
@@ -19035,7 +19188,7 @@
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="22"/>
+      <c r="A174" s="32"/>
       <c r="B174" t="s">
         <v>224</v>
       </c>
@@ -19047,7 +19200,7 @@
       </c>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="22"/>
+      <c r="A175" s="32"/>
       <c r="B175" t="s">
         <v>225</v>
       </c>
@@ -19059,7 +19212,7 @@
       </c>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="22"/>
+      <c r="A176" s="32"/>
       <c r="B176" t="s">
         <v>226</v>
       </c>
@@ -19071,7 +19224,7 @@
       </c>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="22"/>
+      <c r="A177" s="32"/>
       <c r="B177" t="s">
         <v>259</v>
       </c>
@@ -19083,7 +19236,7 @@
       </c>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" s="22"/>
+      <c r="A178" s="32"/>
       <c r="B178" t="s">
         <v>134</v>
       </c>
@@ -19092,7 +19245,7 @@
       </c>
     </row>
     <row r="179" spans="1:7">
-      <c r="A179" s="22"/>
+      <c r="A179" s="32"/>
       <c r="B179" t="s">
         <v>139</v>
       </c>
@@ -19104,7 +19257,7 @@
       </c>
     </row>
     <row r="180" spans="1:7">
-      <c r="A180" s="22"/>
+      <c r="A180" s="32"/>
       <c r="B180" t="s">
         <v>123</v>
       </c>
@@ -19113,7 +19266,7 @@
       </c>
     </row>
     <row r="181" spans="1:7">
-      <c r="A181" s="22"/>
+      <c r="A181" s="32"/>
       <c r="B181" t="s">
         <v>227</v>
       </c>
@@ -19122,7 +19275,7 @@
       </c>
     </row>
     <row r="182" spans="1:7">
-      <c r="A182" s="22"/>
+      <c r="A182" s="32"/>
       <c r="B182" t="s">
         <v>228</v>
       </c>
@@ -19134,7 +19287,7 @@
       </c>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="22"/>
+      <c r="A183" s="32"/>
       <c r="B183" t="s">
         <v>229</v>
       </c>
@@ -19146,7 +19299,7 @@
       </c>
     </row>
     <row r="184" spans="1:7">
-      <c r="A184" s="22"/>
+      <c r="A184" s="32"/>
       <c r="B184" t="s">
         <v>202</v>
       </c>
@@ -19155,7 +19308,7 @@
       </c>
     </row>
     <row r="185" spans="1:7">
-      <c r="A185" s="22"/>
+      <c r="A185" s="32"/>
       <c r="B185" t="s">
         <v>175</v>
       </c>
@@ -19167,7 +19320,7 @@
       </c>
     </row>
     <row r="186" spans="1:7">
-      <c r="A186" s="22"/>
+      <c r="A186" s="32"/>
       <c r="B186" t="s">
         <v>177</v>
       </c>
@@ -19179,7 +19332,7 @@
       </c>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="22"/>
+      <c r="A187" s="32"/>
       <c r="B187" t="s">
         <v>203</v>
       </c>
@@ -19191,7 +19344,7 @@
       </c>
     </row>
     <row r="188" spans="1:7">
-      <c r="A188" s="22"/>
+      <c r="A188" s="32"/>
       <c r="B188" t="s">
         <v>230</v>
       </c>
@@ -19203,7 +19356,7 @@
       </c>
     </row>
     <row r="189" spans="1:7">
-      <c r="A189" s="22"/>
+      <c r="A189" s="32"/>
       <c r="B189" t="s">
         <v>231</v>
       </c>
@@ -19215,7 +19368,7 @@
       </c>
     </row>
     <row r="190" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A190" s="23"/>
+      <c r="A190" s="33"/>
       <c r="B190" t="s">
         <v>144</v>
       </c>
@@ -19227,13 +19380,13 @@
       </c>
     </row>
     <row r="191" spans="1:7">
-      <c r="A191" s="21" t="s">
+      <c r="A191" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="B191" s="24" t="s">
+      <c r="B191" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="C191" s="27" t="s">
+      <c r="C191" s="40" t="s">
         <v>232</v>
       </c>
       <c r="D191" t="s">
@@ -19244,9 +19397,9 @@
       </c>
     </row>
     <row r="192" spans="1:7">
-      <c r="A192" s="22"/>
-      <c r="B192" s="25"/>
-      <c r="C192" s="28"/>
+      <c r="A192" s="32"/>
+      <c r="B192" s="38"/>
+      <c r="C192" s="42"/>
       <c r="D192" t="s">
         <v>234</v>
       </c>
@@ -19255,9 +19408,9 @@
       </c>
     </row>
     <row r="193" spans="1:8">
-      <c r="A193" s="22"/>
-      <c r="B193" s="25"/>
-      <c r="C193" s="28"/>
+      <c r="A193" s="32"/>
+      <c r="B193" s="38"/>
+      <c r="C193" s="42"/>
       <c r="D193" t="s">
         <v>235</v>
       </c>
@@ -19266,9 +19419,9 @@
       </c>
     </row>
     <row r="194" spans="1:8">
-      <c r="A194" s="22"/>
-      <c r="B194" s="25"/>
-      <c r="C194" s="28"/>
+      <c r="A194" s="32"/>
+      <c r="B194" s="38"/>
+      <c r="C194" s="42"/>
       <c r="D194" t="s">
         <v>236</v>
       </c>
@@ -19277,9 +19430,9 @@
       </c>
     </row>
     <row r="195" spans="1:8">
-      <c r="A195" s="22"/>
-      <c r="B195" s="25"/>
-      <c r="C195" s="28"/>
+      <c r="A195" s="32"/>
+      <c r="B195" s="38"/>
+      <c r="C195" s="42"/>
       <c r="D195" t="s">
         <v>237</v>
       </c>
@@ -19288,9 +19441,9 @@
       </c>
     </row>
     <row r="196" spans="1:8">
-      <c r="A196" s="22"/>
-      <c r="B196" s="25"/>
-      <c r="C196" s="28"/>
+      <c r="A196" s="32"/>
+      <c r="B196" s="38"/>
+      <c r="C196" s="42"/>
       <c r="D196" t="s">
         <v>238</v>
       </c>
@@ -19299,9 +19452,9 @@
       </c>
     </row>
     <row r="197" spans="1:8">
-      <c r="A197" s="22"/>
-      <c r="B197" s="25"/>
-      <c r="C197" s="28"/>
+      <c r="A197" s="32"/>
+      <c r="B197" s="38"/>
+      <c r="C197" s="42"/>
       <c r="D197" t="s">
         <v>221</v>
       </c>
@@ -19310,9 +19463,9 @@
       </c>
     </row>
     <row r="198" spans="1:8">
-      <c r="A198" s="22"/>
-      <c r="B198" s="25"/>
-      <c r="C198" s="28"/>
+      <c r="A198" s="32"/>
+      <c r="B198" s="38"/>
+      <c r="C198" s="42"/>
       <c r="D198" t="s">
         <v>239</v>
       </c>
@@ -19321,9 +19474,9 @@
       </c>
     </row>
     <row r="199" spans="1:8">
-      <c r="A199" s="22"/>
-      <c r="B199" s="25"/>
-      <c r="C199" s="28"/>
+      <c r="A199" s="32"/>
+      <c r="B199" s="38"/>
+      <c r="C199" s="42"/>
       <c r="D199" t="s">
         <v>240</v>
       </c>
@@ -19332,9 +19485,9 @@
       </c>
     </row>
     <row r="200" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A200" s="22"/>
-      <c r="B200" s="25"/>
-      <c r="C200" s="29"/>
+      <c r="A200" s="32"/>
+      <c r="B200" s="38"/>
+      <c r="C200" s="41"/>
       <c r="D200" t="s">
         <v>241</v>
       </c>
@@ -19343,8 +19496,8 @@
       </c>
     </row>
     <row r="201" spans="1:8">
-      <c r="A201" s="22"/>
-      <c r="B201" s="25"/>
+      <c r="A201" s="32"/>
+      <c r="B201" s="38"/>
       <c r="C201" t="s">
         <v>242</v>
       </c>
@@ -19353,8 +19506,8 @@
       </c>
     </row>
     <row r="202" spans="1:8">
-      <c r="A202" s="22"/>
-      <c r="B202" s="25"/>
+      <c r="A202" s="32"/>
+      <c r="B202" s="38"/>
       <c r="C202" t="s">
         <v>84</v>
       </c>
@@ -19363,8 +19516,8 @@
       </c>
     </row>
     <row r="203" spans="1:8">
-      <c r="A203" s="22"/>
-      <c r="B203" s="25"/>
+      <c r="A203" s="32"/>
+      <c r="B203" s="38"/>
       <c r="C203" t="s">
         <v>243</v>
       </c>
@@ -19373,8 +19526,8 @@
       </c>
     </row>
     <row r="204" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A204" s="22"/>
-      <c r="B204" s="26"/>
+      <c r="A204" s="32"/>
+      <c r="B204" s="39"/>
       <c r="C204" t="s">
         <v>244</v>
       </c>
@@ -19383,11 +19536,11 @@
       </c>
     </row>
     <row r="205" spans="1:8">
-      <c r="A205" s="22"/>
-      <c r="B205" s="24" t="s">
+      <c r="A205" s="32"/>
+      <c r="B205" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="C205" s="27" t="s">
+      <c r="C205" s="40" t="s">
         <v>218</v>
       </c>
       <c r="D205" t="s">
@@ -19401,9 +19554,9 @@
       </c>
     </row>
     <row r="206" spans="1:8">
-      <c r="A206" s="22"/>
-      <c r="B206" s="25"/>
-      <c r="C206" s="28"/>
+      <c r="A206" s="32"/>
+      <c r="B206" s="38"/>
+      <c r="C206" s="42"/>
       <c r="D206" t="s">
         <v>246</v>
       </c>
@@ -19415,9 +19568,9 @@
       </c>
     </row>
     <row r="207" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A207" s="22"/>
-      <c r="B207" s="25"/>
-      <c r="C207" s="29"/>
+      <c r="A207" s="32"/>
+      <c r="B207" s="38"/>
+      <c r="C207" s="41"/>
       <c r="D207" t="s">
         <v>221</v>
       </c>
@@ -19429,8 +19582,8 @@
       </c>
     </row>
     <row r="208" spans="1:8">
-      <c r="A208" s="22"/>
-      <c r="B208" s="25"/>
+      <c r="A208" s="32"/>
+      <c r="B208" s="38"/>
       <c r="C208" t="s">
         <v>206</v>
       </c>
@@ -19445,8 +19598,8 @@
       </c>
     </row>
     <row r="209" spans="1:8">
-      <c r="A209" s="22"/>
-      <c r="B209" s="25"/>
+      <c r="A209" s="32"/>
+      <c r="B209" s="38"/>
       <c r="C209" t="s">
         <v>224</v>
       </c>
@@ -19461,8 +19614,8 @@
       </c>
     </row>
     <row r="210" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A210" s="22"/>
-      <c r="B210" s="26"/>
+      <c r="A210" s="32"/>
+      <c r="B210" s="39"/>
       <c r="C210" t="s">
         <v>228</v>
       </c>
@@ -19477,7 +19630,7 @@
       </c>
     </row>
     <row r="211" spans="1:8">
-      <c r="A211" s="22"/>
+      <c r="A211" s="32"/>
       <c r="B211" t="s">
         <v>212</v>
       </c>
@@ -19492,7 +19645,7 @@
       </c>
     </row>
     <row r="212" spans="1:8">
-      <c r="A212" s="22"/>
+      <c r="A212" s="32"/>
       <c r="B212" t="s">
         <v>247</v>
       </c>
@@ -19507,7 +19660,7 @@
       </c>
     </row>
     <row r="213" spans="1:8">
-      <c r="A213" s="22"/>
+      <c r="A213" s="32"/>
       <c r="B213" t="s">
         <v>248</v>
       </c>
@@ -19522,7 +19675,7 @@
       </c>
     </row>
     <row r="214" spans="1:8">
-      <c r="A214" s="22"/>
+      <c r="A214" s="32"/>
       <c r="B214" t="s">
         <v>216</v>
       </c>
@@ -19537,7 +19690,7 @@
       </c>
     </row>
     <row r="215" spans="1:8">
-      <c r="A215" s="22"/>
+      <c r="A215" s="32"/>
       <c r="B215" t="s">
         <v>217</v>
       </c>
@@ -19552,7 +19705,7 @@
       </c>
     </row>
     <row r="216" spans="1:8">
-      <c r="A216" s="22"/>
+      <c r="A216" s="32"/>
       <c r="B216" t="s">
         <v>274</v>
       </c>
@@ -19562,7 +19715,7 @@
       </c>
     </row>
     <row r="217" spans="1:8">
-      <c r="A217" s="22"/>
+      <c r="A217" s="32"/>
       <c r="B217" t="s">
         <v>249</v>
       </c>
@@ -19574,7 +19727,7 @@
       </c>
     </row>
     <row r="218" spans="1:8">
-      <c r="A218" s="22"/>
+      <c r="A218" s="32"/>
       <c r="B218" t="s">
         <v>219</v>
       </c>
@@ -19589,7 +19742,7 @@
       </c>
     </row>
     <row r="219" spans="1:8">
-      <c r="A219" s="22"/>
+      <c r="A219" s="32"/>
       <c r="B219" t="s">
         <v>222</v>
       </c>
@@ -19604,7 +19757,7 @@
       </c>
     </row>
     <row r="220" spans="1:8">
-      <c r="A220" s="22"/>
+      <c r="A220" s="32"/>
       <c r="B220" t="s">
         <v>271</v>
       </c>
@@ -19614,7 +19767,7 @@
       </c>
     </row>
     <row r="221" spans="1:8">
-      <c r="A221" s="22"/>
+      <c r="A221" s="32"/>
       <c r="B221" t="s">
         <v>225</v>
       </c>
@@ -19629,7 +19782,7 @@
       </c>
     </row>
     <row r="222" spans="1:8">
-      <c r="A222" s="22"/>
+      <c r="A222" s="32"/>
       <c r="B222" t="s">
         <v>250</v>
       </c>
@@ -19644,7 +19797,7 @@
       </c>
     </row>
     <row r="223" spans="1:8">
-      <c r="A223" s="22"/>
+      <c r="A223" s="32"/>
       <c r="B223" t="s">
         <v>251</v>
       </c>
@@ -19659,7 +19812,7 @@
       </c>
     </row>
     <row r="224" spans="1:8">
-      <c r="A224" s="22"/>
+      <c r="A224" s="32"/>
       <c r="B224" t="s">
         <v>252</v>
       </c>
@@ -19674,7 +19827,7 @@
       </c>
     </row>
     <row r="225" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A225" s="23"/>
+      <c r="A225" s="33"/>
       <c r="B225" t="s">
         <v>230</v>
       </c>
@@ -19689,7 +19842,7 @@
       </c>
     </row>
     <row r="226" spans="1:8">
-      <c r="A226" s="21" t="s">
+      <c r="A226" s="31" t="s">
         <v>253</v>
       </c>
       <c r="B226" t="s">
@@ -19703,7 +19856,7 @@
       </c>
     </row>
     <row r="227" spans="1:8">
-      <c r="A227" s="22"/>
+      <c r="A227" s="32"/>
       <c r="B227" t="s">
         <v>255</v>
       </c>
@@ -19715,7 +19868,7 @@
       </c>
     </row>
     <row r="228" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A228" s="23"/>
+      <c r="A228" s="33"/>
       <c r="B228" t="s">
         <v>256</v>
       </c>
@@ -19736,19 +19889,17 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:A46"/>
-    <mergeCell ref="B1:B9"/>
-    <mergeCell ref="B10:B23"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="A47:A127"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B78"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="A226:A228"/>
+    <mergeCell ref="A128:A190"/>
+    <mergeCell ref="A191:A225"/>
+    <mergeCell ref="B191:B204"/>
+    <mergeCell ref="B205:B210"/>
+    <mergeCell ref="C191:C200"/>
+    <mergeCell ref="C205:C207"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B114"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="C96:C109"/>
@@ -19758,17 +19909,19 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C191:C200"/>
-    <mergeCell ref="C205:C207"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B114"/>
-    <mergeCell ref="A226:A228"/>
-    <mergeCell ref="A128:A190"/>
-    <mergeCell ref="A191:A225"/>
-    <mergeCell ref="B191:B204"/>
-    <mergeCell ref="B205:B210"/>
+    <mergeCell ref="A47:A127"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B78"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="A1:A46"/>
+    <mergeCell ref="B1:B9"/>
+    <mergeCell ref="B10:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/開發文件.xlsx
+++ b/docs/開發文件.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\YDWE1.25.10\Creation\Mod\The_Tilted_Clock_Tower\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84126AA9-7F12-434A-B257-C9631CD92370}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED58B15A-A5DE-44DA-A4EC-4DB671B604A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="28800" windowHeight="15885" activeTab="3" xr2:uid="{CE2B6739-C1CA-4273-B8D6-7F7D170F1300}"/>
   </bookViews>
   <sheets>
     <sheet name="項目" sheetId="1" r:id="rId1"/>
@@ -5874,9 +5874,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>210503</xdr:colOff>
+      <xdr:colOff>246698</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5889,12 +5889,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="5"/>
+          <a:endCxn id="36" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8617442" y="3619813"/>
-          <a:ext cx="1880061" cy="875987"/>
+          <a:ext cx="1916256" cy="933137"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5919,16 +5920,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>93346</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>116205</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>293371</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5943,7 +5944,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="5657850"/>
+          <a:off x="9801225" y="4552950"/>
           <a:ext cx="1464946" cy="954405"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6842,7 +6843,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>秘物會吸引大氣中的魔導粒子，將其共振會重組魔石結構，可增幅所有屬共性</a:t>
+            <a:t>秘物會吸引大氣中的魔導粒子，將其共振會重組魔石結構，可增幅所有屬性</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -15784,8 +15785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9083A104-72F7-4E1F-B0A1-843D10F6B928}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16796,7 +16797,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16811,8 +16812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4C37A9-3500-4D1C-B102-1E629D48F036}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16843,8 +16844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336849DF-D3F4-435E-87DA-A99B863A554D}">
   <dimension ref="D19:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
